--- a/data/MARR.MI.xlsx
+++ b/data/MARR.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1338" uniqueCount="1338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1339" uniqueCount="1339">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -44,13 +44,13 @@
     <t xml:space="preserve">MARR.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1047010421753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9899663925171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7910938262939</t>
+    <t xml:space="preserve">14.1046991348267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9899673461914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7910919189453</t>
   </si>
   <si>
     <t xml:space="preserve">13.7451982498169</t>
@@ -59,28 +59,28 @@
     <t xml:space="preserve">13.3627510070801</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4315929412842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5157308578491</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2021226882935</t>
+    <t xml:space="preserve">13.4315910339355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5157299041748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2021236419678</t>
   </si>
   <si>
     <t xml:space="preserve">13.209771156311</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7202367782593</t>
+    <t xml:space="preserve">12.720235824585</t>
   </si>
   <si>
     <t xml:space="preserve">12.8273239135742</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3607349395752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9650049209595</t>
+    <t xml:space="preserve">12.3607358932495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9650039672852</t>
   </si>
   <si>
     <t xml:space="preserve">13.6228141784668</t>
@@ -89,28 +89,28 @@
     <t xml:space="preserve">13.4545392990112</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3321561813354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3245058059692</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4162950515747</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.500431060791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7681455612183</t>
+    <t xml:space="preserve">13.3321552276611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3245048522949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.416296005249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5004320144653</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7681474685669</t>
   </si>
   <si>
     <t xml:space="preserve">13.5616235733032</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0873889923096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2786130905151</t>
+    <t xml:space="preserve">13.0873899459839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2786140441895</t>
   </si>
   <si>
     <t xml:space="preserve">13.0491437911987</t>
@@ -122,7 +122,7 @@
     <t xml:space="preserve">12.1542139053345</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6131505966187</t>
+    <t xml:space="preserve">12.613151550293</t>
   </si>
   <si>
     <t xml:space="preserve">12.2995443344116</t>
@@ -131,34 +131,34 @@
     <t xml:space="preserve">12.6208009719849</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6590442657471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7814273834229</t>
+    <t xml:space="preserve">12.6590452194214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7814292907715</t>
   </si>
   <si>
     <t xml:space="preserve">12.9497060775757</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1562299728394</t>
+    <t xml:space="preserve">13.156229019165</t>
   </si>
   <si>
     <t xml:space="preserve">13.4851331710815</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3780488967896</t>
+    <t xml:space="preserve">13.3780479431152</t>
   </si>
   <si>
     <t xml:space="preserve">13.3474531173706</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7299013137817</t>
+    <t xml:space="preserve">13.7299022674561</t>
   </si>
   <si>
     <t xml:space="preserve">13.96702003479</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7375497817993</t>
+    <t xml:space="preserve">13.7375507354736</t>
   </si>
   <si>
     <t xml:space="preserve">13.8752307891846</t>
@@ -167,52 +167,52 @@
     <t xml:space="preserve">13.6763572692871</t>
   </si>
   <si>
-    <t xml:space="preserve">13.370400428772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.819673538208</t>
+    <t xml:space="preserve">13.3703985214233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8196754455566</t>
   </si>
   <si>
     <t xml:space="preserve">13.1179838180542</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4468908309937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5998678207397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4774875640869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.661060333252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2174215316772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.102686882019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4621887207031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5386772155762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9593706130981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0817546844482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1505947113037</t>
+    <t xml:space="preserve">13.4468898773193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5998697280884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4774856567383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6610612869263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2174205780029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1026859283447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4621868133545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5386762619019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9593696594238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0817537307739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.150595664978</t>
   </si>
   <si>
     <t xml:space="preserve">13.8828811645508</t>
   </si>
   <si>
-    <t xml:space="preserve">13.997615814209</t>
+    <t xml:space="preserve">13.9976139068604</t>
   </si>
   <si>
     <t xml:space="preserve">14.0741052627563</t>
@@ -227,34 +227,34 @@
     <t xml:space="preserve">14.1658916473389</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7987413406372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6916561126709</t>
+    <t xml:space="preserve">13.7987442016602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6916551589966</t>
   </si>
   <si>
     <t xml:space="preserve">13.6151666641235</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5769214630127</t>
+    <t xml:space="preserve">13.576922416687</t>
   </si>
   <si>
     <t xml:space="preserve">13.8599348068237</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9058275222778</t>
+    <t xml:space="preserve">13.9058265686035</t>
   </si>
   <si>
     <t xml:space="preserve">13.5922203063965</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0970525741577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9440727233887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6304636001587</t>
+    <t xml:space="preserve">14.097053527832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9440717697144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6304655075073</t>
   </si>
   <si>
     <t xml:space="preserve">13.6840076446533</t>
@@ -266,7 +266,7 @@
     <t xml:space="preserve">13.8216905593872</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4392404556274</t>
+    <t xml:space="preserve">13.4392395019531</t>
   </si>
   <si>
     <t xml:space="preserve">13.6687107086182</t>
@@ -281,76 +281,76 @@
     <t xml:space="preserve">13.825008392334</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8170623779297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0713157653809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0633716583252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2540597915649</t>
+    <t xml:space="preserve">13.8170642852783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0713167190552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0633707046509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2540607452393</t>
   </si>
   <si>
     <t xml:space="preserve">14.3096771240234</t>
   </si>
   <si>
-    <t xml:space="preserve">14.126935005188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0792617797852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3017339706421</t>
+    <t xml:space="preserve">14.1269340515137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0792608261108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3017330169678</t>
   </si>
   <si>
     <t xml:space="preserve">14.1904973983765</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1030979156494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0872058868408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0951519012451</t>
+    <t xml:space="preserve">14.1030969619751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0872049331665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0951509475708</t>
   </si>
   <si>
     <t xml:space="preserve">13.5866470336914</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6740455627441</t>
+    <t xml:space="preserve">13.6740446090698</t>
   </si>
   <si>
     <t xml:space="preserve">13.3880109786987</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0701951980591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2132120132446</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5945920944214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5787010192871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8806257247925</t>
+    <t xml:space="preserve">13.0701961517334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2132129669189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.59459400177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5787000656128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8806247711182</t>
   </si>
   <si>
     <t xml:space="preserve">13.205267906189</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5060710906982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0384130477905</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5151376724243</t>
+    <t xml:space="preserve">12.5060701370239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0384149551392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.51513671875</t>
   </si>
   <si>
     <t xml:space="preserve">14.2461156845093</t>
@@ -359,13 +359,13 @@
     <t xml:space="preserve">14.3573513031006</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8567895889282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2778959274292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1507701873779</t>
+    <t xml:space="preserve">13.8567905426025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2778968811035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1507682800293</t>
   </si>
   <si>
     <t xml:space="preserve">14.6036577224731</t>
@@ -374,19 +374,19 @@
     <t xml:space="preserve">14.5718765258789</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5639295578003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3652954101562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3176240921021</t>
+    <t xml:space="preserve">14.5639314651489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3652944564819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3176250457764</t>
   </si>
   <si>
     <t xml:space="preserve">14.5798234939575</t>
   </si>
   <si>
-    <t xml:space="preserve">14.87380027771</t>
+    <t xml:space="preserve">14.8738012313843</t>
   </si>
   <si>
     <t xml:space="preserve">14.5480394363403</t>
@@ -395,40 +395,40 @@
     <t xml:space="preserve">14.6990032196045</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9770946502686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8340768814087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9453086853027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5877676010132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8579139709473</t>
+    <t xml:space="preserve">14.9770908355713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8340759277344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9453105926514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5877666473389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8579130172729</t>
   </si>
   <si>
     <t xml:space="preserve">14.3335161209106</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4765319824219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5003671646118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.444748878479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1666622161865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2381687164307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.031590461731</t>
+    <t xml:space="preserve">14.4765310287476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5003681182861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4447507858276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1666593551636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2381715774536</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0315885543823</t>
   </si>
   <si>
     <t xml:space="preserve">13.8885707855225</t>
@@ -437,70 +437,70 @@
     <t xml:space="preserve">13.9044628143311</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8647365570068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0474796295166</t>
+    <t xml:space="preserve">13.8647356033325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0474815368652</t>
   </si>
   <si>
     <t xml:space="preserve">13.9521341323853</t>
   </si>
   <si>
-    <t xml:space="preserve">13.721718788147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0156984329224</t>
+    <t xml:space="preserve">13.7217168807983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0156993865967</t>
   </si>
   <si>
     <t xml:space="preserve">13.9124088287354</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0077514648438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9203538894653</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8091154098511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7058267593384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6502094268799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7376108169556</t>
+    <t xml:space="preserve">14.0077505111694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9203519821167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8091163635254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.705828666687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6502113342285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7376089096069</t>
   </si>
   <si>
     <t xml:space="preserve">13.9998073577881</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2302236557007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1746053695679</t>
+    <t xml:space="preserve">14.230224609375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1746063232422</t>
   </si>
   <si>
     <t xml:space="preserve">14.023642539978</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1587152481079</t>
+    <t xml:space="preserve">14.1587171554565</t>
   </si>
   <si>
     <t xml:space="preserve">13.7614450454712</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6661014556885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6184272766113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7773361206055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5469179153442</t>
+    <t xml:space="preserve">13.6661005020142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.618426322937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7773370742798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5469188690186</t>
   </si>
   <si>
     <t xml:space="preserve">13.4913015365601</t>
@@ -509,40 +509,40 @@
     <t xml:space="preserve">13.6581544876099</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5389757156372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4595203399658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3482828140259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.316502571106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3006114959717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3323926925659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3244485855103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1814308166504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0304679870605</t>
+    <t xml:space="preserve">13.5389747619629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4595193862915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3482837677002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3165035247803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3006105422974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3323936462402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3244495391846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1814317703247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0304670333862</t>
   </si>
   <si>
     <t xml:space="preserve">13.2370491027832</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2688322067261</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1575927734375</t>
+    <t xml:space="preserve">13.2688302993774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1575937271118</t>
   </si>
   <si>
     <t xml:space="preserve">12.7126522064209</t>
@@ -551,13 +551,13 @@
     <t xml:space="preserve">13.1178674697876</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2608861923218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1417055130005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1655397415161</t>
+    <t xml:space="preserve">13.2608852386475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1417045593262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1655387878418</t>
   </si>
   <si>
     <t xml:space="preserve">13.0225210189819</t>
@@ -566,25 +566,25 @@
     <t xml:space="preserve">12.9112863540649</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0066337585449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.094030380249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0781402587891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5071926116943</t>
+    <t xml:space="preserve">13.0066318511963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0940313339233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0781383514404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.50719165802</t>
   </si>
   <si>
     <t xml:space="preserve">13.4515743255615</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5707550048828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8965187072754</t>
+    <t xml:space="preserve">13.5707559585571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8965158462524</t>
   </si>
   <si>
     <t xml:space="preserve">13.7455530166626</t>
@@ -593,16 +593,16 @@
     <t xml:space="preserve">13.9362449645996</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7852811813354</t>
+    <t xml:space="preserve">13.7852821350098</t>
   </si>
   <si>
     <t xml:space="preserve">13.944188117981</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9680271148682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9918632507324</t>
+    <t xml:space="preserve">13.9680261611938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9918642044067</t>
   </si>
   <si>
     <t xml:space="preserve">13.9759721755981</t>
@@ -611,34 +611,34 @@
     <t xml:space="preserve">14.0395345687866</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8011741638184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9839153289795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2222785949707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2063894271851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7148923873901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7705116271973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.349404335022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2699508666992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1825513839722</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2858419418335</t>
+    <t xml:space="preserve">13.8011722564697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9839162826538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2222776412964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2063865661621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7148933410645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7705125808716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3494052886963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2699518203735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1825523376465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2858409881592</t>
   </si>
   <si>
     <t xml:space="preserve">14.341459274292</t>
@@ -647,79 +647,79 @@
     <t xml:space="preserve">14.2620067596436</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6751651763916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4606418609619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6513319015503</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6274948120117</t>
+    <t xml:space="preserve">14.6751661300659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4606437683105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6513299942017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6274938583374</t>
   </si>
   <si>
     <t xml:space="preserve">14.540093421936</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6910562515259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5162601470947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7069501876831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6116037368774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3970794677734</t>
+    <t xml:space="preserve">14.6910581588745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5162591934204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7069482803345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6116018295288</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3970785140991</t>
   </si>
   <si>
     <t xml:space="preserve">14.7466745376587</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2154541015625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4538202285767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4061441421509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5968322753906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8908138275146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8510885238647</t>
+    <t xml:space="preserve">15.2154550552368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4538164138794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4061450958252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5968332290649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.890814781189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8510894775391</t>
   </si>
   <si>
     <t xml:space="preserve">15.8590326309204</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7319049835205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1371212005615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6774082183838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0656127929688</t>
+    <t xml:space="preserve">15.7319059371948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1371250152588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6774101257324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0656108856201</t>
   </si>
   <si>
     <t xml:space="preserve">16.089448928833</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2245216369629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.30397605896</t>
+    <t xml:space="preserve">16.2245235443115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3039779663086</t>
   </si>
   <si>
     <t xml:space="preserve">16.1609592437744</t>
@@ -728,7 +728,7 @@
     <t xml:space="preserve">16.2880840301514</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6456279754639</t>
+    <t xml:space="preserve">16.6456260681152</t>
   </si>
   <si>
     <t xml:space="preserve">16.6853542327881</t>
@@ -737,22 +737,22 @@
     <t xml:space="preserve">16.4867191314697</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4072666168213</t>
+    <t xml:space="preserve">16.4072647094727</t>
   </si>
   <si>
     <t xml:space="preserve">16.0973949432373</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1291751861572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5026092529297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3675365447998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5582275390625</t>
+    <t xml:space="preserve">16.1291770935059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5026111602783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3675384521484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5582294464111</t>
   </si>
   <si>
     <t xml:space="preserve">16.605899810791</t>
@@ -761,13 +761,13 @@
     <t xml:space="preserve">16.7012481689453</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5423374176025</t>
+    <t xml:space="preserve">16.5423393249512</t>
   </si>
   <si>
     <t xml:space="preserve">16.8839893341064</t>
   </si>
   <si>
-    <t xml:space="preserve">17.432222366333</t>
+    <t xml:space="preserve">17.4322261810303</t>
   </si>
   <si>
     <t xml:space="preserve">17.114408493042</t>
@@ -779,7 +779,7 @@
     <t xml:space="preserve">17.2812614440918</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3289337158203</t>
+    <t xml:space="preserve">17.328929901123</t>
   </si>
   <si>
     <t xml:space="preserve">17.2574253082275</t>
@@ -788,25 +788,25 @@
     <t xml:space="preserve">17.2653694152832</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6149673461914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8136024475098</t>
+    <t xml:space="preserve">17.6149654388428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.813606262207</t>
   </si>
   <si>
     <t xml:space="preserve">17.6864776611328</t>
   </si>
   <si>
-    <t xml:space="preserve">17.535514831543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4560623168945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6626415252686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1234741210938</t>
+    <t xml:space="preserve">17.5355129241943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4560585021973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6626396179199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1234722137451</t>
   </si>
   <si>
     <t xml:space="preserve">17.8294944763184</t>
@@ -815,19 +815,19 @@
     <t xml:space="preserve">17.7738761901855</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9089508056641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9963474273682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1552543640137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4004421234131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5196208953857</t>
+    <t xml:space="preserve">17.9089469909668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9963493347168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1552581787109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4004440307617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5196228027344</t>
   </si>
   <si>
     <t xml:space="preserve">17.7083606719971</t>
@@ -842,10 +842,10 @@
     <t xml:space="preserve">18.0530071258545</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7904186248779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6509189605713</t>
+    <t xml:space="preserve">17.7904205322266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6509170532227</t>
   </si>
   <si>
     <t xml:space="preserve">17.8806838989258</t>
@@ -854,40 +854,40 @@
     <t xml:space="preserve">18.0694179534912</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9791526794434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7986240386963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0365962982178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1760940551758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9955654144287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5606536865234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7411804199219</t>
+    <t xml:space="preserve">17.979154586792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7986259460449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0365943908691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1760959625244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9955673217773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5606517791748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7411823272705</t>
   </si>
   <si>
     <t xml:space="preserve">17.8888893127441</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7740058898926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0858325958252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7575950622559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5524444580078</t>
+    <t xml:space="preserve">17.7740039825439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0858306884766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7575912475586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5524463653564</t>
   </si>
   <si>
     <t xml:space="preserve">17.5852699279785</t>
@@ -896,10 +896,10 @@
     <t xml:space="preserve">17.6427116394043</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7329750061035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7493858337402</t>
+    <t xml:space="preserve">17.7329769134521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7493877410889</t>
   </si>
   <si>
     <t xml:space="preserve">17.1749744415283</t>
@@ -911,13 +911,13 @@
     <t xml:space="preserve">17.0682983398438</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1503582000732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9123840332031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2324142456055</t>
+    <t xml:space="preserve">17.150354385376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9123859405518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2324161529541</t>
   </si>
   <si>
     <t xml:space="preserve">17.0600929260254</t>
@@ -926,16 +926,16 @@
     <t xml:space="preserve">16.9780330657959</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3965358734131</t>
+    <t xml:space="preserve">17.3965339660645</t>
   </si>
   <si>
     <t xml:space="preserve">17.5032119750977</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9299201965332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2991809844971</t>
+    <t xml:space="preserve">17.9299182891846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2991828918457</t>
   </si>
   <si>
     <t xml:space="preserve">18.1022415161133</t>
@@ -947,10 +947,10 @@
     <t xml:space="preserve">18.3566265106201</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4633045196533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8642692565918</t>
+    <t xml:space="preserve">18.4633007049561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8642711639404</t>
   </si>
   <si>
     <t xml:space="preserve">18.3402137756348</t>
@@ -959,22 +959,22 @@
     <t xml:space="preserve">17.7247714996338</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5688610076904</t>
+    <t xml:space="preserve">17.5688571929932</t>
   </si>
   <si>
     <t xml:space="preserve">17.4950046539307</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8068294525146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5278301239014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3883285522461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4047374725342</t>
+    <t xml:space="preserve">17.8068313598633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5278282165527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3883304595947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4047393798828</t>
   </si>
   <si>
     <t xml:space="preserve">17.2734451293945</t>
@@ -986,13 +986,13 @@
     <t xml:space="preserve">17.0436820983887</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9452095031738</t>
+    <t xml:space="preserve">16.9452075958252</t>
   </si>
   <si>
     <t xml:space="preserve">16.9287967681885</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0190601348877</t>
+    <t xml:space="preserve">17.0190620422363</t>
   </si>
   <si>
     <t xml:space="preserve">17.2816505432129</t>
@@ -1001,58 +1001,58 @@
     <t xml:space="preserve">17.4211521148682</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6262989044189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6098880767822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.970947265625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0940380096436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.323802947998</t>
+    <t xml:space="preserve">17.6263008117676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6098861694336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9709491729736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0940361022949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3237991333008</t>
   </si>
   <si>
     <t xml:space="preserve">17.9873580932617</t>
   </si>
   <si>
-    <t xml:space="preserve">18.11865234375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1104488372803</t>
+    <t xml:space="preserve">18.1186542510986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1104469299316</t>
   </si>
   <si>
     <t xml:space="preserve">18.126859664917</t>
   </si>
   <si>
-    <t xml:space="preserve">18.332010269165</t>
+    <t xml:space="preserve">18.3320064544678</t>
   </si>
   <si>
     <t xml:space="preserve">18.3648300170898</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4386863708496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3812408447266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6356239318848</t>
+    <t xml:space="preserve">18.438684463501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3812427520752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6356258392334</t>
   </si>
   <si>
     <t xml:space="preserve">18.6684513092041</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5371589660645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8079509735107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6520404815674</t>
+    <t xml:space="preserve">18.5371532440186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8079528808594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6520385742188</t>
   </si>
   <si>
     <t xml:space="preserve">18.6192150115967</t>
@@ -1064,13 +1064,13 @@
     <t xml:space="preserve">19.2182464599609</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1443920135498</t>
+    <t xml:space="preserve">19.1443939208984</t>
   </si>
   <si>
     <t xml:space="preserve">18.6930694580078</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7669219970703</t>
+    <t xml:space="preserve">18.7669239044189</t>
   </si>
   <si>
     <t xml:space="preserve">18.594596862793</t>
@@ -1082,22 +1082,22 @@
     <t xml:space="preserve">18.1596832275391</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4222736358643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2335357666016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1925067901611</t>
+    <t xml:space="preserve">18.4222717285156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2335338592529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1925048828125</t>
   </si>
   <si>
     <t xml:space="preserve">18.1350650787354</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9217128753662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6345043182373</t>
+    <t xml:space="preserve">17.9217109680176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6345062255859</t>
   </si>
   <si>
     <t xml:space="preserve">17.5442409515381</t>
@@ -1106,37 +1106,37 @@
     <t xml:space="preserve">17.3555030822754</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0272674560547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7975025177002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9041786193848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1913871765137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6919460296631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9052982330322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8150367736816</t>
+    <t xml:space="preserve">17.0272693634033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7975006103516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9041805267334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.191385269165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6919441223145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9053001403809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.815034866333</t>
   </si>
   <si>
     <t xml:space="preserve">18.0037727355957</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8396549224854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9627437591553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4293575286865</t>
+    <t xml:space="preserve">17.8396530151367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.962739944458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4293594360352</t>
   </si>
   <si>
     <t xml:space="preserve">17.0354747772217</t>
@@ -1145,82 +1145,82 @@
     <t xml:space="preserve">17.4703884124756</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4621829986572</t>
+    <t xml:space="preserve">17.4621810913086</t>
   </si>
   <si>
     <t xml:space="preserve">17.7822113037109</t>
   </si>
   <si>
-    <t xml:space="preserve">17.659122467041</t>
+    <t xml:space="preserve">17.6591243743896</t>
   </si>
   <si>
     <t xml:space="preserve">17.8232421875</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4129428863525</t>
+    <t xml:space="preserve">17.4129467010498</t>
   </si>
   <si>
     <t xml:space="preserve">18.3976573944092</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4468898773193</t>
+    <t xml:space="preserve">18.4468879699707</t>
   </si>
   <si>
     <t xml:space="preserve">18.5617752075195</t>
   </si>
   <si>
-    <t xml:space="preserve">18.627420425415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7751274108887</t>
+    <t xml:space="preserve">18.6274223327637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7751293182373</t>
   </si>
   <si>
     <t xml:space="preserve">18.47971534729</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7258911132812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3155975341797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2827739715576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5781860351562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5114154815674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0201816558838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.347297668457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2980613708496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9381256103516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6755352020264</t>
+    <t xml:space="preserve">18.7258930206299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3155956268311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.282772064209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5781841278076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.511417388916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0201835632324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3472995758057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2980632781982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9381237030029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.675537109375</t>
   </si>
   <si>
     <t xml:space="preserve">17.2652397155762</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3144779205322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4961280822754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.579309463501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5136585235596</t>
+    <t xml:space="preserve">17.3144760131836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4961261749268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5793075561523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5136604309082</t>
   </si>
   <si>
     <t xml:space="preserve">20.0388374328613</t>
@@ -1238,37 +1238,37 @@
     <t xml:space="preserve">19.8418941497803</t>
   </si>
   <si>
-    <t xml:space="preserve">19.8254871368408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8911323547363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8090724945068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9403686523438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4327239990234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6296615600586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.531192779541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5968379974365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7609539031982</t>
+    <t xml:space="preserve">19.8254833221436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8911304473877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8090705871582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9403667449951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4327201843262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6296634674072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5311946868896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5968399047852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7609558105469</t>
   </si>
   <si>
     <t xml:space="preserve">20.5147819519043</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3506622314453</t>
+    <t xml:space="preserve">20.3506603240967</t>
   </si>
   <si>
     <t xml:space="preserve">20.2850151062012</t>
@@ -1298,7 +1298,7 @@
     <t xml:space="preserve">20.7937831878662</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6788997650146</t>
+    <t xml:space="preserve">20.6789016723633</t>
   </si>
   <si>
     <t xml:space="preserve">20.7117233276367</t>
@@ -1319,25 +1319,25 @@
     <t xml:space="preserve">19.1854228973389</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1361865997314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2887363433838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0514392852783</t>
+    <t xml:space="preserve">19.1361885070801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2887344360352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0514373779297</t>
   </si>
   <si>
     <t xml:space="preserve">19.492130279541</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3226337432861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7633247375488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6446781158447</t>
+    <t xml:space="preserve">19.3226318359375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7633266448975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6446800231934</t>
   </si>
   <si>
     <t xml:space="preserve">19.7294273376465</t>
@@ -1346,7 +1346,7 @@
     <t xml:space="preserve">19.6955280303955</t>
   </si>
   <si>
-    <t xml:space="preserve">19.6277294158936</t>
+    <t xml:space="preserve">19.6277275085449</t>
   </si>
   <si>
     <t xml:space="preserve">19.271785736084</t>
@@ -1364,10 +1364,10 @@
     <t xml:space="preserve">19.5429801940918</t>
   </si>
   <si>
-    <t xml:space="preserve">19.5938282012939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4412841796875</t>
+    <t xml:space="preserve">19.5938301086426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4412803649902</t>
   </si>
   <si>
     <t xml:space="preserve">18.8988914489746</t>
@@ -1382,10 +1382,10 @@
     <t xml:space="preserve">19.0175399780273</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0683898925781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1361885070801</t>
+    <t xml:space="preserve">19.0683879852295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1361846923828</t>
   </si>
   <si>
     <t xml:space="preserve">18.9836406707764</t>
@@ -1400,16 +1400,16 @@
     <t xml:space="preserve">19.6616287231445</t>
   </si>
   <si>
-    <t xml:space="preserve">19.5768795013428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3226661682129</t>
+    <t xml:space="preserve">19.5768814086914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3226642608643</t>
   </si>
   <si>
     <t xml:space="preserve">20.3396148681641</t>
   </si>
   <si>
-    <t xml:space="preserve">20.187068939209</t>
+    <t xml:space="preserve">20.1870670318604</t>
   </si>
   <si>
     <t xml:space="preserve">20.0175724029541</t>
@@ -1424,7 +1424,7 @@
     <t xml:space="preserve">20.2379150390625</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9158725738525</t>
+    <t xml:space="preserve">19.9158706665039</t>
   </si>
   <si>
     <t xml:space="preserve">19.6107788085938</t>
@@ -1433,10 +1433,10 @@
     <t xml:space="preserve">19.8480739593506</t>
   </si>
   <si>
-    <t xml:space="preserve">20.4243640899658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6447086334229</t>
+    <t xml:space="preserve">20.4243621826172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6447105407715</t>
   </si>
   <si>
     <t xml:space="preserve">20.6955585479736</t>
@@ -1445,10 +1445,10 @@
     <t xml:space="preserve">20.3904647827148</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3057155609131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1701164245605</t>
+    <t xml:space="preserve">20.3057136535645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1701183319092</t>
   </si>
   <si>
     <t xml:space="preserve">20.2887668609619</t>
@@ -1457,10 +1457,10 @@
     <t xml:space="preserve">20.2040195465088</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3565673828125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5091114044189</t>
+    <t xml:space="preserve">20.3565654754639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5091133117676</t>
   </si>
   <si>
     <t xml:space="preserve">20.5260620117188</t>
@@ -1472,40 +1472,40 @@
     <t xml:space="preserve">20.9328556060791</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6616592407227</t>
+    <t xml:space="preserve">20.6616554260254</t>
   </si>
   <si>
     <t xml:space="preserve">20.5769100189209</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7633571624756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.102352142334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6108417510986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6955909729004</t>
+    <t xml:space="preserve">20.7633590698242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1023483276367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.61083984375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6955890655518</t>
   </si>
   <si>
     <t xml:space="preserve">21.5091438293457</t>
   </si>
   <si>
-    <t xml:space="preserve">22.0345821380615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3905277252197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1023826599121</t>
+    <t xml:space="preserve">22.0345840454102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3905258178711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1023845672607</t>
   </si>
   <si>
     <t xml:space="preserve">21.4921932220459</t>
   </si>
   <si>
-    <t xml:space="preserve">21.7294883728027</t>
+    <t xml:space="preserve">21.7294902801514</t>
   </si>
   <si>
     <t xml:space="preserve">21.390495300293</t>
@@ -1544,13 +1544,13 @@
     <t xml:space="preserve">20.0853710174561</t>
   </si>
   <si>
-    <t xml:space="preserve">19.8989219665527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2378845214844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8819446563721</t>
+    <t xml:space="preserve">19.8989238739014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2378883361816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8819427490234</t>
   </si>
   <si>
     <t xml:space="preserve">18.5090484619141</t>
@@ -1559,25 +1559,25 @@
     <t xml:space="preserve">18.1870040893555</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2717533111572</t>
+    <t xml:space="preserve">18.2717514038086</t>
   </si>
   <si>
     <t xml:space="preserve">18.0175094604492</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6276988983154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9327583312988</t>
+    <t xml:space="preserve">18.6276969909668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9327602386475</t>
   </si>
   <si>
     <t xml:space="preserve">18.1192073822021</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9666614532471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8649597167969</t>
+    <t xml:space="preserve">17.9666595458984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8649616241455</t>
   </si>
   <si>
     <t xml:space="preserve">18.1022567749023</t>
@@ -1586,16 +1586,16 @@
     <t xml:space="preserve">18.2378559112549</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5260009765625</t>
+    <t xml:space="preserve">18.5259990692139</t>
   </si>
   <si>
     <t xml:space="preserve">17.8480110168457</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3564701080322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9666309356689</t>
+    <t xml:space="preserve">17.3564682006836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9666271209717</t>
   </si>
   <si>
     <t xml:space="preserve">17.085277557373</t>
@@ -1604,49 +1604,49 @@
     <t xml:space="preserve">17.1022262573242</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3733901977539</t>
+    <t xml:space="preserve">16.3733882904053</t>
   </si>
   <si>
     <t xml:space="preserve">16.271692276001</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6106853485107</t>
+    <t xml:space="preserve">16.6106872558594</t>
   </si>
   <si>
     <t xml:space="preserve">16.4242382049561</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3903388977051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7378082275391</t>
+    <t xml:space="preserve">16.3903408050537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7378101348877</t>
   </si>
   <si>
     <t xml:space="preserve">16.8140830993652</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7039089202881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4581680297852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2717247009277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.153076171875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3225727081299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4920711517334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6446151733398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7971611022949</t>
+    <t xml:space="preserve">16.7039070129395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4581699371338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2717227935791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1530742645264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3225708007812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4920692443848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6446170806885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7971630096436</t>
   </si>
   <si>
     <t xml:space="preserve">18.2209053039551</t>
@@ -1655,13 +1655,13 @@
     <t xml:space="preserve">18.4073524475098</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3395538330078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9836082458496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0514068603516</t>
+    <t xml:space="preserve">18.3395500183105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9836101531982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0514087677002</t>
   </si>
   <si>
     <t xml:space="preserve">17.6615657806396</t>
@@ -1676,34 +1676,34 @@
     <t xml:space="preserve">17.7293643951416</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8819141387939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4412498474121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1531085968018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9158096313477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9497108459473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8988647460938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7463150024414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7124156951904</t>
+    <t xml:space="preserve">17.8819122314453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4412517547607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1531047821045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9158115386963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9497089385986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8988628387451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7463130950928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7124118804932</t>
   </si>
   <si>
     <t xml:space="preserve">17.6276664733887</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7632637023926</t>
+    <t xml:space="preserve">17.7632617950439</t>
   </si>
   <si>
     <t xml:space="preserve">17.3056240081787</t>
@@ -1715,43 +1715,43 @@
     <t xml:space="preserve">17.186975479126</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2039222717285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3903713226318</t>
+    <t xml:space="preserve">17.2039241790771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3903732299805</t>
   </si>
   <si>
     <t xml:space="preserve">17.2886714935303</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2547740936279</t>
+    <t xml:space="preserve">17.2547760009766</t>
   </si>
   <si>
     <t xml:space="preserve">17.220874786377</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8903541564941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4242687225342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5429191589355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8141136169434</t>
+    <t xml:space="preserve">16.8903560638428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4242725372314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5429172515869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.814115524292</t>
   </si>
   <si>
     <t xml:space="preserve">17.5937671661377</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3734226226807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1700229644775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5005435943604</t>
+    <t xml:space="preserve">17.373420715332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1700248718262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5005416870117</t>
   </si>
   <si>
     <t xml:space="preserve">17.2462997436523</t>
@@ -1760,16 +1760,16 @@
     <t xml:space="preserve">17.3310470581055</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4157962799072</t>
+    <t xml:space="preserve">17.4157943725586</t>
   </si>
   <si>
     <t xml:space="preserve">17.1615505218506</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0344276428223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5852909088135</t>
+    <t xml:space="preserve">17.0344295501709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5852928161621</t>
   </si>
   <si>
     <t xml:space="preserve">17.6700401306152</t>
@@ -1778,7 +1778,7 @@
     <t xml:space="preserve">18.3480281829834</t>
   </si>
   <si>
-    <t xml:space="preserve">18.136157989502</t>
+    <t xml:space="preserve">18.1361560821533</t>
   </si>
   <si>
     <t xml:space="preserve">18.0937824249268</t>
@@ -1787,10 +1787,10 @@
     <t xml:space="preserve">17.8395366668701</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0090370178223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.754789352417</t>
+    <t xml:space="preserve">18.0090351104736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7547874450684</t>
   </si>
   <si>
     <t xml:space="preserve">17.9242839813232</t>
@@ -1802,19 +1802,19 @@
     <t xml:space="preserve">17.9148921966553</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0909595489502</t>
+    <t xml:space="preserve">18.0909576416016</t>
   </si>
   <si>
     <t xml:space="preserve">17.9589080810547</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8268604278564</t>
+    <t xml:space="preserve">17.8268585205078</t>
   </si>
   <si>
     <t xml:space="preserve">18.2670269012451</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1789951324463</t>
+    <t xml:space="preserve">18.1789932250977</t>
   </si>
   <si>
     <t xml:space="preserve">18.2230129241943</t>
@@ -1823,19 +1823,19 @@
     <t xml:space="preserve">18.4871120452881</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4430980682373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5311279296875</t>
+    <t xml:space="preserve">18.4430961608887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5311298370361</t>
   </si>
   <si>
     <t xml:space="preserve">18.3550624847412</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0029258728027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7828426361084</t>
+    <t xml:space="preserve">18.0029277801514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7828407287598</t>
   </si>
   <si>
     <t xml:space="preserve">17.6507911682129</t>
@@ -1847,46 +1847,46 @@
     <t xml:space="preserve">17.5011329650879</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5539531707764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7952308654785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7512130737305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5751495361328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6191635131836</t>
+    <t xml:space="preserve">17.553955078125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7952289581299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7512149810791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5751476287842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.619161605835</t>
   </si>
   <si>
     <t xml:space="preserve">18.3110446929932</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7388248443604</t>
+    <t xml:space="preserve">17.7388229370117</t>
   </si>
   <si>
     <t xml:space="preserve">17.4307060241699</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3778839111328</t>
+    <t xml:space="preserve">17.3778858184814</t>
   </si>
   <si>
     <t xml:space="preserve">17.2370319366455</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1666030883789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2722473144531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1137828826904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3074569702148</t>
+    <t xml:space="preserve">17.1666049957275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2722454071045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1137847900391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3074588775635</t>
   </si>
   <si>
     <t xml:space="preserve">16.8320751190186</t>
@@ -1895,22 +1895,22 @@
     <t xml:space="preserve">16.6912212371826</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7616481781006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.060962677002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4799404144287</t>
+    <t xml:space="preserve">16.7616500854492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0609645843506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4799385070801</t>
   </si>
   <si>
     <t xml:space="preserve">16.3743000030518</t>
   </si>
   <si>
-    <t xml:space="preserve">16.620792388916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1101989746094</t>
+    <t xml:space="preserve">16.6207942962646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1101970672607</t>
   </si>
   <si>
     <t xml:space="preserve">16.3038730621338</t>
@@ -1928,16 +1928,16 @@
     <t xml:space="preserve">16.3919067382812</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3214797973633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2334461212158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9025039672852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2898502349854</t>
+    <t xml:space="preserve">16.3214817047119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2334442138672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9025020599365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.289852142334</t>
   </si>
   <si>
     <t xml:space="preserve">17.3954925537109</t>
@@ -1946,28 +1946,28 @@
     <t xml:space="preserve">17.4483127593994</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6948089599609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0593318939209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1349754333496</t>
+    <t xml:space="preserve">17.6948108673096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0593338012695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1349773406982</t>
   </si>
   <si>
     <t xml:space="preserve">18.3990783691406</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8708724975586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6067752838135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2546405792236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8496837615967</t>
+    <t xml:space="preserve">17.8708744049072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6067733764648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.254638671875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.849681854248</t>
   </si>
   <si>
     <t xml:space="preserve">16.8848972320557</t>
@@ -1976,34 +1976,34 @@
     <t xml:space="preserve">17.1489963531494</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1313896179199</t>
+    <t xml:space="preserve">17.1313915252686</t>
   </si>
   <si>
     <t xml:space="preserve">17.483528137207</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7264366149902</t>
+    <t xml:space="preserve">16.7264347076416</t>
   </si>
   <si>
     <t xml:space="preserve">16.6384010314941</t>
   </si>
   <si>
-    <t xml:space="preserve">16.550365447998</t>
+    <t xml:space="preserve">16.5503673553467</t>
   </si>
   <si>
     <t xml:space="preserve">16.4271202087402</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7088298797607</t>
+    <t xml:space="preserve">16.7088279724121</t>
   </si>
   <si>
     <t xml:space="preserve">16.6736164093018</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8144683837891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3602771759033</t>
+    <t xml:space="preserve">16.8144702911377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.360279083252</t>
   </si>
   <si>
     <t xml:space="preserve">17.325065612793</t>
@@ -2012,7 +2012,7 @@
     <t xml:space="preserve">16.9553241729736</t>
   </si>
   <si>
-    <t xml:space="preserve">18.663179397583</t>
+    <t xml:space="preserve">18.6631813049316</t>
   </si>
   <si>
     <t xml:space="preserve">18.0469436645508</t>
@@ -2024,31 +2024,31 @@
     <t xml:space="preserve">16.9905376434326</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1842098236084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5715579986572</t>
+    <t xml:space="preserve">17.184211730957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5715599060059</t>
   </si>
   <si>
     <t xml:space="preserve">15.4235343933105</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7052412033081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0537929534912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7896890640259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.472767829895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2614879608154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0854187011719</t>
+    <t xml:space="preserve">15.7052431106567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0537919998169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7896900177002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4727697372437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2614870071411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0854196548462</t>
   </si>
   <si>
     <t xml:space="preserve">14.2086658477783</t>
@@ -2057,13 +2057,13 @@
     <t xml:space="preserve">12.4832029342651</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6944847106934</t>
+    <t xml:space="preserve">12.694483757019</t>
   </si>
   <si>
     <t xml:space="preserve">13.1874732971191</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7085037231445</t>
+    <t xml:space="preserve">11.7085046768188</t>
   </si>
   <si>
     <t xml:space="preserve">12.1838874816895</t>
@@ -2072,16 +2072,16 @@
     <t xml:space="preserve">10.7929525375366</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0042343139648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5640640258789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9514122009277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6064491271973</t>
+    <t xml:space="preserve">11.0042333602905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5640630722046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9514131546021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6064500808716</t>
   </si>
   <si>
     <t xml:space="preserve">13.2050800323486</t>
@@ -2090,7 +2090,7 @@
     <t xml:space="preserve">13.6452503204346</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9233713150024</t>
+    <t xml:space="preserve">12.9233722686768</t>
   </si>
   <si>
     <t xml:space="preserve">13.0466194152832</t>
@@ -2099,13 +2099,13 @@
     <t xml:space="preserve">11.9021797180176</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5852565765381</t>
+    <t xml:space="preserve">11.5852575302124</t>
   </si>
   <si>
     <t xml:space="preserve">11.3211545944214</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8281660079956</t>
+    <t xml:space="preserve">10.8281669616699</t>
   </si>
   <si>
     <t xml:space="preserve">11.0922679901123</t>
@@ -2126,7 +2126,7 @@
     <t xml:space="preserve">10.6697044372559</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5816707611084</t>
+    <t xml:space="preserve">10.5816717147827</t>
   </si>
   <si>
     <t xml:space="preserve">11.1098747253418</t>
@@ -2138,10 +2138,10 @@
     <t xml:space="preserve">10.9338054656982</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6873121261597</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8809871673584</t>
+    <t xml:space="preserve">10.6873111724854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8809862136841</t>
   </si>
   <si>
     <t xml:space="preserve">10.6168851852417</t>
@@ -2156,7 +2156,7 @@
     <t xml:space="preserve">10.5288505554199</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0358610153198</t>
+    <t xml:space="preserve">10.0358600616455</t>
   </si>
   <si>
     <t xml:space="preserve">10.0886821746826</t>
@@ -2168,22 +2168,22 @@
     <t xml:space="preserve">9.70133304595947</t>
   </si>
   <si>
-    <t xml:space="preserve">9.63090515136719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.282356262207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7577381134033</t>
+    <t xml:space="preserve">9.63090419769287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2823553085327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7577390670776</t>
   </si>
   <si>
     <t xml:space="preserve">10.2999620437622</t>
   </si>
   <si>
-    <t xml:space="preserve">9.96543312072754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0746612548828</t>
+    <t xml:space="preserve">9.96543407440186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0746603012085</t>
   </si>
   <si>
     <t xml:space="preserve">10.8457727432251</t>
@@ -2192,52 +2192,52 @@
     <t xml:space="preserve">11.057053565979</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6732921600342</t>
+    <t xml:space="preserve">11.6732912063599</t>
   </si>
   <si>
     <t xml:space="preserve">11.5676507949829</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6556844711304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4796161651611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5500431060791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5360221862793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5008087158203</t>
+    <t xml:space="preserve">11.6556835174561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4796171188354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5500440597534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5360231399536</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5008096694946</t>
   </si>
   <si>
     <t xml:space="preserve">12.3071346282959</t>
   </si>
   <si>
-    <t xml:space="preserve">12.060640335083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3387613296509</t>
+    <t xml:space="preserve">12.0606393814087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3387622833252</t>
   </si>
   <si>
     <t xml:space="preserve">11.6204700469971</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6380786895752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9549989700317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9726066589355</t>
+    <t xml:space="preserve">11.6380777359009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9549999237061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9726057052612</t>
   </si>
   <si>
     <t xml:space="preserve">11.8669652938843</t>
   </si>
   <si>
-    <t xml:space="preserve">12.025426864624</t>
+    <t xml:space="preserve">12.0254259109497</t>
   </si>
   <si>
     <t xml:space="preserve">11.9902124404907</t>
@@ -2255,22 +2255,22 @@
     <t xml:space="preserve">11.4972238540649</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5148296356201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2331218719482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.02184009552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3035478591919</t>
+    <t xml:space="preserve">11.5148305892944</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2331228256226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0218410491943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3035488128662</t>
   </si>
   <si>
     <t xml:space="preserve">10.986626625061</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8633794784546</t>
+    <t xml:space="preserve">10.8633804321289</t>
   </si>
   <si>
     <t xml:space="preserve">11.6028642654419</t>
@@ -2282,7 +2282,7 @@
     <t xml:space="preserve">11.1450881958008</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2683362960815</t>
+    <t xml:space="preserve">11.2683353424072</t>
   </si>
   <si>
     <t xml:space="preserve">11.1274814605713</t>
@@ -2291,13 +2291,13 @@
     <t xml:space="preserve">10.6344909667969</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9690208435059</t>
+    <t xml:space="preserve">10.9690198898315</t>
   </si>
   <si>
     <t xml:space="preserve">11.4444026947021</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2507295608521</t>
+    <t xml:space="preserve">11.2507286071777</t>
   </si>
   <si>
     <t xml:space="preserve">11.8141450881958</t>
@@ -2306,16 +2306,16 @@
     <t xml:space="preserve">12.1134605407715</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1310663223267</t>
+    <t xml:space="preserve">12.131067276001</t>
   </si>
   <si>
     <t xml:space="preserve">11.9197864532471</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5324382781982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0078210830688</t>
+    <t xml:space="preserve">11.5324373245239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0078201293945</t>
   </si>
   <si>
     <t xml:space="preserve">12.0958528518677</t>
@@ -2324,19 +2324,19 @@
     <t xml:space="preserve">12.2191009521484</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5888442993164</t>
+    <t xml:space="preserve">12.5888433456421</t>
   </si>
   <si>
     <t xml:space="preserve">12.9585857391357</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7120904922485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8001251220703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0114049911499</t>
+    <t xml:space="preserve">12.7120895385742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.800124168396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0114068984985</t>
   </si>
   <si>
     <t xml:space="preserve">12.0782470703125</t>
@@ -2345,13 +2345,13 @@
     <t xml:space="preserve">11.7965383529663</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2859420776367</t>
+    <t xml:space="preserve">11.2859411239624</t>
   </si>
   <si>
     <t xml:space="preserve">10.8985929489136</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1415014266968</t>
+    <t xml:space="preserve">10.1415023803711</t>
   </si>
   <si>
     <t xml:space="preserve">10.2119293212891</t>
@@ -2363,7 +2363,7 @@
     <t xml:space="preserve">10.1943216323853</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3527841567993</t>
+    <t xml:space="preserve">10.352783203125</t>
   </si>
   <si>
     <t xml:space="preserve">13.2579021453857</t>
@@ -2375,22 +2375,22 @@
     <t xml:space="preserve">12.9409790039062</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6276435852051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1382389068604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1698665618896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0290117263794</t>
+    <t xml:space="preserve">13.6276426315308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.138237953186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.169867515564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.029013633728</t>
   </si>
   <si>
     <t xml:space="preserve">13.5043954849243</t>
   </si>
   <si>
-    <t xml:space="preserve">13.698070526123</t>
+    <t xml:space="preserve">13.6980714797974</t>
   </si>
   <si>
     <t xml:space="preserve">13.9093523025513</t>
@@ -2402,10 +2402,10 @@
     <t xml:space="preserve">13.874137878418</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8213167190552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8917446136475</t>
+    <t xml:space="preserve">13.8213176727295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8917436599731</t>
   </si>
   <si>
     <t xml:space="preserve">13.838924407959</t>
@@ -2417,40 +2417,40 @@
     <t xml:space="preserve">13.2226877212524</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2755069732666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5220031738281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1346530914307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2402944564819</t>
+    <t xml:space="preserve">13.2755079269409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5220022201538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.134654045105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2402935028076</t>
   </si>
   <si>
     <t xml:space="preserve">13.4339685440063</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7508897781372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7156763076782</t>
+    <t xml:space="preserve">13.7508907318115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7156772613525</t>
   </si>
   <si>
     <t xml:space="preserve">14.3671274185181</t>
   </si>
   <si>
-    <t xml:space="preserve">14.842511177063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.247465133667</t>
+    <t xml:space="preserve">14.8425102233887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2474670410156</t>
   </si>
   <si>
     <t xml:space="preserve">15.476354598999</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5996026992798</t>
+    <t xml:space="preserve">15.5996007919312</t>
   </si>
   <si>
     <t xml:space="preserve">15.6700277328491</t>
@@ -2462,55 +2462,55 @@
     <t xml:space="preserve">14.9657573699951</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3178911209106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6876344680786</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6524219512939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3883190155029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2298593521118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1242198944092</t>
+    <t xml:space="preserve">15.3178939819336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6876373291016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6524238586426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3883209228516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2298583984375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1242208480835</t>
   </si>
   <si>
     <t xml:space="preserve">15.1066122055054</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6312294006348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8777227401733</t>
+    <t xml:space="preserve">14.6312303543091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.877724647522</t>
   </si>
   <si>
     <t xml:space="preserve">14.912938117981</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1594314575195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9693441390991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8460960388184</t>
+    <t xml:space="preserve">15.1594324111938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9693431854248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8460969924927</t>
   </si>
   <si>
     <t xml:space="preserve">16.3390846252441</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2862644195557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9729309082031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8108825683594</t>
+    <t xml:space="preserve">16.2862663269043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9729290008545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8108835220337</t>
   </si>
   <si>
     <t xml:space="preserve">15.8989162445068</t>
@@ -2528,28 +2528,28 @@
     <t xml:space="preserve">16.6031875610352</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0081443786621</t>
+    <t xml:space="preserve">17.0081424713135</t>
   </si>
   <si>
     <t xml:space="preserve">17.0785694122314</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0433559417725</t>
+    <t xml:space="preserve">17.0433578491211</t>
   </si>
   <si>
     <t xml:space="preserve">16.5151538848877</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9341306686401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1982326507568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1630210876465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0749835968018</t>
+    <t xml:space="preserve">15.9341316223145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1982307434082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1630172729492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0749855041504</t>
   </si>
   <si>
     <t xml:space="preserve">16.4447269439697</t>
@@ -2564,7 +2564,7 @@
     <t xml:space="preserve">16.4535293579102</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2070350646973</t>
+    <t xml:space="preserve">16.2070369720459</t>
   </si>
   <si>
     <t xml:space="preserve">16.1894283294678</t>
@@ -2585,7 +2585,7 @@
     <t xml:space="preserve">16.700023651123</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8584880828857</t>
+    <t xml:space="preserve">16.8584861755371</t>
   </si>
   <si>
     <t xml:space="preserve">16.7176322937012</t>
@@ -2597,7 +2597,7 @@
     <t xml:space="preserve">17.404296875</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5979709625244</t>
+    <t xml:space="preserve">17.5979690551758</t>
   </si>
   <si>
     <t xml:space="preserve">16.8408794403076</t>
@@ -2606,28 +2606,28 @@
     <t xml:space="preserve">17.069766998291</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0961761474609</t>
+    <t xml:space="preserve">17.0961780548096</t>
   </si>
   <si>
     <t xml:space="preserve">17.474723815918</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6419887542725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8532676696777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7300205230713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9413013458252</t>
+    <t xml:space="preserve">17.6419868469238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8532695770264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7300224304199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9413032531738</t>
   </si>
   <si>
     <t xml:space="preserve">17.9765167236328</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1877975463867</t>
+    <t xml:space="preserve">18.1877994537354</t>
   </si>
   <si>
     <t xml:space="preserve">18.3638668060303</t>
@@ -2636,25 +2636,25 @@
     <t xml:space="preserve">18.5047206878662</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5223274230957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2758312225342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7476291656494</t>
+    <t xml:space="preserve">18.5223255157471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2758293151855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7476272583008</t>
   </si>
   <si>
     <t xml:space="preserve">18.2054042816162</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0997619628906</t>
+    <t xml:space="preserve">18.0997638702393</t>
   </si>
   <si>
     <t xml:space="preserve">18.0821571350098</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9236946105957</t>
+    <t xml:space="preserve">17.9236965179443</t>
   </si>
   <si>
     <t xml:space="preserve">17.8004493713379</t>
@@ -2690,58 +2690,58 @@
     <t xml:space="preserve">17.2018184661865</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2282276153564</t>
+    <t xml:space="preserve">17.2282295227051</t>
   </si>
   <si>
     <t xml:space="preserve">17.624382019043</t>
   </si>
   <si>
-    <t xml:space="preserve">19.8428344726562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3146324157715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2794170379639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6983909606934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1913833618164</t>
+    <t xml:space="preserve">19.8428363800049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3146305084229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2794189453125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.698392868042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1913814544678</t>
   </si>
   <si>
     <t xml:space="preserve">18.7336082458496</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8920650482178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4695053100586</t>
+    <t xml:space="preserve">18.8920669555664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4695072174072</t>
   </si>
   <si>
     <t xml:space="preserve">18.3814716339111</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0645503997803</t>
+    <t xml:space="preserve">18.0645523071289</t>
   </si>
   <si>
     <t xml:space="preserve">17.8180561065674</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0117301940918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2406177520752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4131011962891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4219036102295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0345554351807</t>
+    <t xml:space="preserve">18.0117282867432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2406158447266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4130992889404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4219017028809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.034553527832</t>
   </si>
   <si>
     <t xml:space="preserve">17.1578006744385</t>
@@ -2750,16 +2750,16 @@
     <t xml:space="preserve">18.6103591918945</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1173686981201</t>
+    <t xml:space="preserve">18.1173706054688</t>
   </si>
   <si>
     <t xml:space="preserve">18.2934398651123</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7688217163086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5575408935547</t>
+    <t xml:space="preserve">18.76881980896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5575389862061</t>
   </si>
   <si>
     <t xml:space="preserve">18.3361072540283</t>
@@ -4026,6 +4026,9 @@
   </si>
   <si>
     <t xml:space="preserve">11.6000003814697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0600004196167</t>
   </si>
 </sst>
 </file>
@@ -60111,7 +60114,7 @@
     </row>
     <row r="2145">
       <c r="A2145" s="1" t="n">
-        <v>45448.6496412037</v>
+        <v>45448.2916666667</v>
       </c>
       <c r="B2145" t="n">
         <v>127170</v>
@@ -60132,6 +60135,32 @@
         <v>1337</v>
       </c>
       <c r="H2145" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2146">
+      <c r="A2146" s="1" t="n">
+        <v>45449.6496064815</v>
+      </c>
+      <c r="B2146" t="n">
+        <v>315011</v>
+      </c>
+      <c r="C2146" t="n">
+        <v>12.0600004196167</v>
+      </c>
+      <c r="D2146" t="n">
+        <v>11.6199998855591</v>
+      </c>
+      <c r="E2146" t="n">
+        <v>11.6800003051758</v>
+      </c>
+      <c r="F2146" t="n">
+        <v>12.0600004196167</v>
+      </c>
+      <c r="G2146" t="s">
+        <v>1338</v>
+      </c>
+      <c r="H2146" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/MARR.MI.xlsx
+++ b/data/MARR.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1339" uniqueCount="1339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1340" uniqueCount="1340">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,82 +38,82 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2729787826538</t>
+    <t xml:space="preserve">14.2729778289795</t>
   </si>
   <si>
     <t xml:space="preserve">MARR.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1046991348267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9899673461914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7910919189453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7451982498169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3627510070801</t>
+    <t xml:space="preserve">14.1047010421753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.98996925354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7910957336426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7451992034912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3627500534058</t>
   </si>
   <si>
     <t xml:space="preserve">13.4315910339355</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5157299041748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2021236419678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.209771156311</t>
+    <t xml:space="preserve">13.5157289505005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2021217346191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2097721099854</t>
   </si>
   <si>
     <t xml:space="preserve">12.720235824585</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8273239135742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3607358932495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9650039672852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6228141784668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4545392990112</t>
+    <t xml:space="preserve">12.8273229598999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3607368469238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9650049209595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6228160858154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4545383453369</t>
   </si>
   <si>
     <t xml:space="preserve">13.3321552276611</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3245048522949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.416296005249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5004320144653</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7681474685669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5616235733032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0873899459839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2786140441895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0491437911987</t>
+    <t xml:space="preserve">13.3245077133179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4162940979004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.500431060791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7681455612183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5616245269775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0873889923096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2786121368408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0491428375244</t>
   </si>
   <si>
     <t xml:space="preserve">12.1083202362061</t>
@@ -125,7 +125,7 @@
     <t xml:space="preserve">12.613151550293</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2995443344116</t>
+    <t xml:space="preserve">12.2995433807373</t>
   </si>
   <si>
     <t xml:space="preserve">12.6208009719849</t>
@@ -134,19 +134,19 @@
     <t xml:space="preserve">12.6590452194214</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7814292907715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9497060775757</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.156229019165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4851331710815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3780479431152</t>
+    <t xml:space="preserve">12.7814283370972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.94970703125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1562299728394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4851360321045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3780488967896</t>
   </si>
   <si>
     <t xml:space="preserve">13.3474531173706</t>
@@ -158,34 +158,34 @@
     <t xml:space="preserve">13.96702003479</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7375507354736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8752307891846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6763572692871</t>
+    <t xml:space="preserve">13.7375497817993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8752298355103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6763563156128</t>
   </si>
   <si>
     <t xml:space="preserve">13.3703985214233</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8196754455566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1179838180542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4468898773193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5998697280884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4774856567383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6610612869263</t>
+    <t xml:space="preserve">12.8196744918823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1179828643799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4468879699707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5998687744141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4774875640869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.661060333252</t>
   </si>
   <si>
     <t xml:space="preserve">13.2174205780029</t>
@@ -197,28 +197,28 @@
     <t xml:space="preserve">13.4621868133545</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5386762619019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9593696594238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0817537307739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.150595664978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8828811645508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9976139068604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0741052627563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5483407974243</t>
+    <t xml:space="preserve">13.5386781692505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9593715667725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0817546844482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1505966186523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8828802108765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.997615814209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.074104309082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5483427047729</t>
   </si>
   <si>
     <t xml:space="preserve">14.3188714981079</t>
@@ -230,25 +230,25 @@
     <t xml:space="preserve">13.7987442016602</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6916551589966</t>
+    <t xml:space="preserve">13.6916561126709</t>
   </si>
   <si>
     <t xml:space="preserve">13.6151666641235</t>
   </si>
   <si>
-    <t xml:space="preserve">13.576922416687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8599348068237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9058265686035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5922203063965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.097053527832</t>
+    <t xml:space="preserve">13.5769214630127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8599328994751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9058294296265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5922212600708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0970525741577</t>
   </si>
   <si>
     <t xml:space="preserve">13.9440717697144</t>
@@ -263,40 +263,40 @@
     <t xml:space="preserve">13.6993045806885</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8216905593872</t>
+    <t xml:space="preserve">13.8216896057129</t>
   </si>
   <si>
     <t xml:space="preserve">13.4392395019531</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6687107086182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4086456298828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5310287475586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.825008392334</t>
+    <t xml:space="preserve">13.6687097549438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4086437225342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5310277938843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8250102996826</t>
   </si>
   <si>
     <t xml:space="preserve">13.8170642852783</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0713167190552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0633707046509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2540607452393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3096771240234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1269340515137</t>
+    <t xml:space="preserve">14.0713148117065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0633716583252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2540597915649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3096799850464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.126935005188</t>
   </si>
   <si>
     <t xml:space="preserve">14.0792608261108</t>
@@ -308,16 +308,16 @@
     <t xml:space="preserve">14.1904973983765</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1030969619751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0872049331665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0951509475708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5866470336914</t>
+    <t xml:space="preserve">14.1030988693237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0872068405151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0951519012451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5866460800171</t>
   </si>
   <si>
     <t xml:space="preserve">13.6740446090698</t>
@@ -329,31 +329,31 @@
     <t xml:space="preserve">13.0701961517334</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2132129669189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.59459400177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5787000656128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8806247711182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.205267906189</t>
+    <t xml:space="preserve">13.2132110595703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5945920944214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5787019729614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8806257247925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2052669525146</t>
   </si>
   <si>
     <t xml:space="preserve">12.5060701370239</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0384149551392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.51513671875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2461156845093</t>
+    <t xml:space="preserve">13.0384130477905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5151376724243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.246114730835</t>
   </si>
   <si>
     <t xml:space="preserve">14.3573513031006</t>
@@ -362,46 +362,46 @@
     <t xml:space="preserve">13.8567905426025</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2778968811035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1507682800293</t>
+    <t xml:space="preserve">14.2778949737549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1507692337036</t>
   </si>
   <si>
     <t xml:space="preserve">14.6036577224731</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5718765258789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5639314651489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3652944564819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3176250457764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5798234939575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8738012313843</t>
+    <t xml:space="preserve">14.5718784332275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5639305114746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3652982711792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3176240921021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5798215866089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8738021850586</t>
   </si>
   <si>
     <t xml:space="preserve">14.5480394363403</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6990032196045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9770908355713</t>
+    <t xml:space="preserve">14.6990060806274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9770927429199</t>
   </si>
   <si>
     <t xml:space="preserve">14.8340759277344</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9453105926514</t>
+    <t xml:space="preserve">14.9453096389771</t>
   </si>
   <si>
     <t xml:space="preserve">14.5877666473389</t>
@@ -413,67 +413,67 @@
     <t xml:space="preserve">14.3335161209106</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4765310287476</t>
+    <t xml:space="preserve">14.4765300750732</t>
   </si>
   <si>
     <t xml:space="preserve">14.5003681182861</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4447507858276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1666593551636</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2381715774536</t>
+    <t xml:space="preserve">14.4447498321533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1666612625122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2381706237793</t>
   </si>
   <si>
     <t xml:space="preserve">14.0315885543823</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8885707855225</t>
+    <t xml:space="preserve">13.8885698318481</t>
   </si>
   <si>
     <t xml:space="preserve">13.9044628143311</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8647356033325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0474815368652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9521341323853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7217168807983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0156993865967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9124088287354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0077505111694</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9203519821167</t>
+    <t xml:space="preserve">13.8647346496582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0474796295166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9521350860596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7217178344727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.015697479248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.912407875061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0077533721924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9203538894653</t>
   </si>
   <si>
     <t xml:space="preserve">13.8091163635254</t>
   </si>
   <si>
-    <t xml:space="preserve">13.705828666687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6502113342285</t>
+    <t xml:space="preserve">13.7058277130127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6502103805542</t>
   </si>
   <si>
     <t xml:space="preserve">13.7376089096069</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9998073577881</t>
+    <t xml:space="preserve">13.999810218811</t>
   </si>
   <si>
     <t xml:space="preserve">14.230224609375</t>
@@ -482,22 +482,22 @@
     <t xml:space="preserve">14.1746063232422</t>
   </si>
   <si>
-    <t xml:space="preserve">14.023642539978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1587171554565</t>
+    <t xml:space="preserve">14.0236434936523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1587162017822</t>
   </si>
   <si>
     <t xml:space="preserve">13.7614450454712</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6661005020142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.618426322937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7773370742798</t>
+    <t xml:space="preserve">13.6661014556885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6184282302856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7773351669312</t>
   </si>
   <si>
     <t xml:space="preserve">13.5469188690186</t>
@@ -506,46 +506,46 @@
     <t xml:space="preserve">13.4913015365601</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6581544876099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5389747619629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4595193862915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3482837677002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3165035247803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3006105422974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3323936462402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3244495391846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1814317703247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0304670333862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2370491027832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2688302993774</t>
+    <t xml:space="preserve">13.6581554412842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5389738082886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4595212936401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3482818603516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3165044784546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3006114959717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3323926925659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3244476318359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1814308166504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0304660797119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2370471954346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2688312530518</t>
   </si>
   <si>
     <t xml:space="preserve">13.1575937271118</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7126522064209</t>
+    <t xml:space="preserve">12.7126512527466</t>
   </si>
   <si>
     <t xml:space="preserve">13.1178674697876</t>
@@ -560,31 +560,31 @@
     <t xml:space="preserve">13.1655387878418</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0225210189819</t>
+    <t xml:space="preserve">13.0225219726562</t>
   </si>
   <si>
     <t xml:space="preserve">12.9112863540649</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0066318511963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0940313339233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0781383514404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.50719165802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4515743255615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5707559585571</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8965158462524</t>
+    <t xml:space="preserve">13.0066337585449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.094030380249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0781402587891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5071907043457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4515762329102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5707540512085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8965167999268</t>
   </si>
   <si>
     <t xml:space="preserve">13.7455530166626</t>
@@ -593,31 +593,31 @@
     <t xml:space="preserve">13.9362449645996</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7852821350098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.944188117981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9680261611938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9918642044067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9759721755981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0395345687866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8011722564697</t>
+    <t xml:space="preserve">13.7852811813354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9441890716553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9680271148682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9918622970581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9759731292725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.039532661438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.801173210144</t>
   </si>
   <si>
     <t xml:space="preserve">13.9839162826538</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2222776412964</t>
+    <t xml:space="preserve">14.2222785949707</t>
   </si>
   <si>
     <t xml:space="preserve">14.2063865661621</t>
@@ -626,49 +626,49 @@
     <t xml:space="preserve">14.7148933410645</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7705125808716</t>
+    <t xml:space="preserve">14.7705116271973</t>
   </si>
   <si>
     <t xml:space="preserve">14.3494052886963</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2699518203735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1825523376465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2858409881592</t>
+    <t xml:space="preserve">14.2699508666992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1825532913208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2858428955078</t>
   </si>
   <si>
     <t xml:space="preserve">14.341459274292</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2620067596436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6751661300659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4606437683105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6513299942017</t>
+    <t xml:space="preserve">14.2620058059692</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6751670837402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4606409072876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.651330947876</t>
   </si>
   <si>
     <t xml:space="preserve">14.6274938583374</t>
   </si>
   <si>
-    <t xml:space="preserve">14.540093421936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6910581588745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5162591934204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7069482803345</t>
+    <t xml:space="preserve">14.540096282959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6910591125488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.516261100769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7069501876831</t>
   </si>
   <si>
     <t xml:space="preserve">14.6116018295288</t>
@@ -677,73 +677,73 @@
     <t xml:space="preserve">14.3970785140991</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7466745376587</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2154550552368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4538164138794</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4061450958252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5968332290649</t>
+    <t xml:space="preserve">14.7466735839844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2154560089111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4538192749023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4061441421509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5968322753906</t>
   </si>
   <si>
     <t xml:space="preserve">15.890814781189</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8510894775391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8590326309204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7319059371948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1371250152588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6774101257324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0656108856201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.089448928833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2245235443115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3039779663086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1609592437744</t>
+    <t xml:space="preserve">15.8510885238647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8590297698975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7319068908691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1371212005615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6774082183838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0656127929688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0894508361816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2245216369629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3039741516113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1609573364258</t>
   </si>
   <si>
     <t xml:space="preserve">16.2880840301514</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6456260681152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6853542327881</t>
+    <t xml:space="preserve">16.6456279754639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6853561401367</t>
   </si>
   <si>
     <t xml:space="preserve">16.4867191314697</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4072647094727</t>
+    <t xml:space="preserve">16.4072666168213</t>
   </si>
   <si>
     <t xml:space="preserve">16.0973949432373</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1291770935059</t>
+    <t xml:space="preserve">16.1291751861572</t>
   </si>
   <si>
     <t xml:space="preserve">16.5026111602783</t>
@@ -752,37 +752,37 @@
     <t xml:space="preserve">16.3675384521484</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5582294464111</t>
+    <t xml:space="preserve">16.5582275390625</t>
   </si>
   <si>
     <t xml:space="preserve">16.605899810791</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7012481689453</t>
+    <t xml:space="preserve">16.701244354248</t>
   </si>
   <si>
     <t xml:space="preserve">16.5423393249512</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8839893341064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4322261810303</t>
+    <t xml:space="preserve">16.8839912414551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.432222366333</t>
   </si>
   <si>
     <t xml:space="preserve">17.114408493042</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6615200042725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2812614440918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.328929901123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2574253082275</t>
+    <t xml:space="preserve">16.6615161895752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2812595367432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3289337158203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2574234008789</t>
   </si>
   <si>
     <t xml:space="preserve">17.2653694152832</t>
@@ -791,10 +791,10 @@
     <t xml:space="preserve">17.6149654388428</t>
   </si>
   <si>
-    <t xml:space="preserve">17.813606262207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6864776611328</t>
+    <t xml:space="preserve">17.8136024475098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6864757537842</t>
   </si>
   <si>
     <t xml:space="preserve">17.5355129241943</t>
@@ -806,25 +806,25 @@
     <t xml:space="preserve">17.6626396179199</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1234722137451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8294944763184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7738761901855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9089469909668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9963493347168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1552581787109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4004440307617</t>
+    <t xml:space="preserve">18.1234741210938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.829496383667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7738780975342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9089488983154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9963474273682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1552543640137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4004402160645</t>
   </si>
   <si>
     <t xml:space="preserve">17.5196228027344</t>
@@ -836,13 +836,13 @@
     <t xml:space="preserve">18.2499485015869</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2171249389648</t>
+    <t xml:space="preserve">18.2171268463135</t>
   </si>
   <si>
     <t xml:space="preserve">18.0530071258545</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7904205322266</t>
+    <t xml:space="preserve">17.7904186248779</t>
   </si>
   <si>
     <t xml:space="preserve">17.6509170532227</t>
@@ -851,25 +851,25 @@
     <t xml:space="preserve">17.8806838989258</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0694179534912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.979154586792</t>
+    <t xml:space="preserve">18.0694198608398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9791526794434</t>
   </si>
   <si>
     <t xml:space="preserve">17.7986259460449</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0365943908691</t>
+    <t xml:space="preserve">18.0365924835205</t>
   </si>
   <si>
     <t xml:space="preserve">18.1760959625244</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9955673217773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5606517791748</t>
+    <t xml:space="preserve">17.9955654144287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5606498718262</t>
   </si>
   <si>
     <t xml:space="preserve">17.7411823272705</t>
@@ -878,7 +878,7 @@
     <t xml:space="preserve">17.8888893127441</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7740039825439</t>
+    <t xml:space="preserve">17.7740058898926</t>
   </si>
   <si>
     <t xml:space="preserve">18.0858306884766</t>
@@ -887,13 +887,13 @@
     <t xml:space="preserve">17.7575912475586</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5524463653564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5852699279785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6427116394043</t>
+    <t xml:space="preserve">17.5524444580078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5852718353271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6427135467529</t>
   </si>
   <si>
     <t xml:space="preserve">17.7329769134521</t>
@@ -902,31 +902,31 @@
     <t xml:space="preserve">17.7493877410889</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1749744415283</t>
+    <t xml:space="preserve">17.174976348877</t>
   </si>
   <si>
     <t xml:space="preserve">17.0765037536621</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0682983398438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.150354385376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9123859405518</t>
+    <t xml:space="preserve">17.0682945251465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1503562927246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9123840332031</t>
   </si>
   <si>
     <t xml:space="preserve">17.2324161529541</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0600929260254</t>
+    <t xml:space="preserve">17.0600910186768</t>
   </si>
   <si>
     <t xml:space="preserve">16.9780330657959</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3965339660645</t>
+    <t xml:space="preserve">17.3965358734131</t>
   </si>
   <si>
     <t xml:space="preserve">17.5032119750977</t>
@@ -944,19 +944,19 @@
     <t xml:space="preserve">18.3484191894531</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3566265106201</t>
+    <t xml:space="preserve">18.3566284179688</t>
   </si>
   <si>
     <t xml:space="preserve">18.4633007049561</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8642711639404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3402137756348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7247714996338</t>
+    <t xml:space="preserve">17.8642730712891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3402156829834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7247695922852</t>
   </si>
   <si>
     <t xml:space="preserve">17.5688571929932</t>
@@ -965,28 +965,28 @@
     <t xml:space="preserve">17.4950046539307</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8068313598633</t>
+    <t xml:space="preserve">17.8068294525146</t>
   </si>
   <si>
     <t xml:space="preserve">17.5278282165527</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3883304595947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4047393798828</t>
+    <t xml:space="preserve">17.3883285522461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4047374725342</t>
   </si>
   <si>
     <t xml:space="preserve">17.2734451293945</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2242107391357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0436820983887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9452075958252</t>
+    <t xml:space="preserve">17.2242088317871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.04368019104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9452095031738</t>
   </si>
   <si>
     <t xml:space="preserve">16.9287967681885</t>
@@ -995,52 +995,52 @@
     <t xml:space="preserve">17.0190620422363</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2816505432129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4211521148682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6263008117676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6098861694336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9709491729736</t>
+    <t xml:space="preserve">17.2816524505615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4211502075195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6262989044189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6098880767822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.970947265625</t>
   </si>
   <si>
     <t xml:space="preserve">18.0940361022949</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3237991333008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9873580932617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1186542510986</t>
+    <t xml:space="preserve">18.323802947998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9873600006104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.11865234375</t>
   </si>
   <si>
     <t xml:space="preserve">18.1104469299316</t>
   </si>
   <si>
-    <t xml:space="preserve">18.126859664917</t>
+    <t xml:space="preserve">18.1268615722656</t>
   </si>
   <si>
     <t xml:space="preserve">18.3320064544678</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3648300170898</t>
+    <t xml:space="preserve">18.3648319244385</t>
   </si>
   <si>
     <t xml:space="preserve">18.438684463501</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3812427520752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6356258392334</t>
+    <t xml:space="preserve">18.3812408447266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.635627746582</t>
   </si>
   <si>
     <t xml:space="preserve">18.6684513092041</t>
@@ -1049,10 +1049,10 @@
     <t xml:space="preserve">18.5371532440186</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8079528808594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6520385742188</t>
+    <t xml:space="preserve">18.8079490661621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6520366668701</t>
   </si>
   <si>
     <t xml:space="preserve">18.6192150115967</t>
@@ -1067,7 +1067,7 @@
     <t xml:space="preserve">19.1443939208984</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6930694580078</t>
+    <t xml:space="preserve">18.6930675506592</t>
   </si>
   <si>
     <t xml:space="preserve">18.7669239044189</t>
@@ -1082,43 +1082,43 @@
     <t xml:space="preserve">18.1596832275391</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4222717285156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2335338592529</t>
+    <t xml:space="preserve">18.4222755432129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2335376739502</t>
   </si>
   <si>
     <t xml:space="preserve">18.1925048828125</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1350650787354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9217109680176</t>
+    <t xml:space="preserve">18.135066986084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9217128753662</t>
   </si>
   <si>
     <t xml:space="preserve">17.6345062255859</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5442409515381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3555030822754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0272693634033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7975006103516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9041805267334</t>
+    <t xml:space="preserve">17.5442390441895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3555068969727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0272674560547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7975025177002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9041786193848</t>
   </si>
   <si>
     <t xml:space="preserve">17.191385269165</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6919441223145</t>
+    <t xml:space="preserve">17.6919460296631</t>
   </si>
   <si>
     <t xml:space="preserve">17.9053001403809</t>
@@ -1127,10 +1127,10 @@
     <t xml:space="preserve">17.815034866333</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0037727355957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8396530151367</t>
+    <t xml:space="preserve">18.0037708282471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8396511077881</t>
   </si>
   <si>
     <t xml:space="preserve">17.962739944458</t>
@@ -1139,7 +1139,7 @@
     <t xml:space="preserve">17.4293594360352</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0354747772217</t>
+    <t xml:space="preserve">17.035472869873</t>
   </si>
   <si>
     <t xml:space="preserve">17.4703884124756</t>
@@ -1148,22 +1148,22 @@
     <t xml:space="preserve">17.4621810913086</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7822113037109</t>
+    <t xml:space="preserve">17.7822132110596</t>
   </si>
   <si>
     <t xml:space="preserve">17.6591243743896</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8232421875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4129467010498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3976573944092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4468879699707</t>
+    <t xml:space="preserve">17.8232402801514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4129428863525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3976554870605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4468898773193</t>
   </si>
   <si>
     <t xml:space="preserve">18.5617752075195</t>
@@ -1172,37 +1172,37 @@
     <t xml:space="preserve">18.6274223327637</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7751293182373</t>
+    <t xml:space="preserve">18.7751274108887</t>
   </si>
   <si>
     <t xml:space="preserve">18.47971534729</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7258930206299</t>
+    <t xml:space="preserve">18.7258911132812</t>
   </si>
   <si>
     <t xml:space="preserve">18.3155956268311</t>
   </si>
   <si>
-    <t xml:space="preserve">18.282772064209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5781841278076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.511417388916</t>
+    <t xml:space="preserve">18.2827739715576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5781860351562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5114192962646</t>
   </si>
   <si>
     <t xml:space="preserve">18.0201835632324</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3472995758057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2980632781982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9381237030029</t>
+    <t xml:space="preserve">17.347297668457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2980651855469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9381256103516</t>
   </si>
   <si>
     <t xml:space="preserve">17.675537109375</t>
@@ -1214,31 +1214,31 @@
     <t xml:space="preserve">17.3144760131836</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4961261749268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5793075561523</t>
+    <t xml:space="preserve">18.4961280822754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5793056488037</t>
   </si>
   <si>
     <t xml:space="preserve">19.5136604309082</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0388374328613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3178367614746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1701316833496</t>
+    <t xml:space="preserve">20.03883934021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3178405761719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1701335906982</t>
   </si>
   <si>
     <t xml:space="preserve">20.0716609954834</t>
   </si>
   <si>
-    <t xml:space="preserve">19.8418941497803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8254833221436</t>
+    <t xml:space="preserve">19.8418960571289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8254852294922</t>
   </si>
   <si>
     <t xml:space="preserve">19.8911304473877</t>
@@ -1250,43 +1250,43 @@
     <t xml:space="preserve">19.9403667449951</t>
   </si>
   <si>
-    <t xml:space="preserve">20.4327201843262</t>
+    <t xml:space="preserve">20.4327182769775</t>
   </si>
   <si>
     <t xml:space="preserve">20.6296634674072</t>
   </si>
   <si>
-    <t xml:space="preserve">20.5311946868896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5968399047852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7609558105469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5147819519043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3506603240967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2850151062012</t>
+    <t xml:space="preserve">20.531192779541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5968418121338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7609577178955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5147800445557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3506622314453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2850170135498</t>
   </si>
   <si>
     <t xml:space="preserve">20.3342514038086</t>
   </si>
   <si>
-    <t xml:space="preserve">20.4655456542969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4163093566895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3834857940674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4491348266602</t>
+    <t xml:space="preserve">20.4655437469482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4163074493408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.383487701416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4491329193115</t>
   </si>
   <si>
     <t xml:space="preserve">20.7281341552734</t>
@@ -1295,106 +1295,106 @@
     <t xml:space="preserve">20.8430156707764</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7937831878662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6789016723633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7117233276367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6460762023926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8101940155029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.251070022583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4808349609375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1854228973389</t>
+    <t xml:space="preserve">20.7937812805176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6788997650146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7117214202881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6460742950439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8101921081543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2510681152344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4808368682861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1854209899902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1361904144287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2887344360352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0514392852783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.492130279541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3226337432861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7633285522461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6446781158447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7294273376465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6955280303955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6277275085449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2717838287354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.559928894043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8311233520508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7802772521973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5429821014404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5938282012939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4412841796875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8988914489746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9158401489258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7971954345703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.017541885376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0683879852295</t>
   </si>
   <si>
     <t xml:space="preserve">19.1361885070801</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2887344360352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0514373779297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.492130279541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3226318359375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7633266448975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6446800231934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7294273376465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6955280303955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6277275085449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.271785736084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5599308013916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8311233520508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7802772521973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5429801940918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5938301086426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4412803649902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8988914489746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9158420562744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7971954345703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0175399780273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0683879852295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1361846923828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9836406707764</t>
+    <t xml:space="preserve">18.9836387634277</t>
   </si>
   <si>
     <t xml:space="preserve">19.1022891998291</t>
   </si>
   <si>
-    <t xml:space="preserve">19.526029586792</t>
+    <t xml:space="preserve">19.5260314941406</t>
   </si>
   <si>
     <t xml:space="preserve">19.6616287231445</t>
@@ -1403,7 +1403,7 @@
     <t xml:space="preserve">19.5768814086914</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3226642608643</t>
+    <t xml:space="preserve">20.3226661682129</t>
   </si>
   <si>
     <t xml:space="preserve">20.3396148681641</t>
@@ -1415,25 +1415,25 @@
     <t xml:space="preserve">20.0175724029541</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9328231811523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7124767303467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2379150390625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9158706665039</t>
+    <t xml:space="preserve">19.932825088501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7124786376953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2379169464111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9158744812012</t>
   </si>
   <si>
     <t xml:space="preserve">19.6107788085938</t>
   </si>
   <si>
-    <t xml:space="preserve">19.8480739593506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4243621826172</t>
+    <t xml:space="preserve">19.8480758666992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4243640899658</t>
   </si>
   <si>
     <t xml:space="preserve">20.6447105407715</t>
@@ -1442,76 +1442,76 @@
     <t xml:space="preserve">20.6955585479736</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3904647827148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3057136535645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1701183319092</t>
+    <t xml:space="preserve">20.3904609680176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3057155609131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1701164245605</t>
   </si>
   <si>
     <t xml:space="preserve">20.2887668609619</t>
   </si>
   <si>
-    <t xml:space="preserve">20.2040195465088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3565654754639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5091133117676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5260620117188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4921607971191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9328556060791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6616554260254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5769100189209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7633590698242</t>
+    <t xml:space="preserve">20.2040176391602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3565635681152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5091152191162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5260601043701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4921627044678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9328536987305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6616592407227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5769119262695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7633571624756</t>
   </si>
   <si>
     <t xml:space="preserve">21.1023483276367</t>
   </si>
   <si>
-    <t xml:space="preserve">21.61083984375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6955890655518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5091438293457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0345840454102</t>
+    <t xml:space="preserve">21.6108417510986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6955909729004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5091419219971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0345821380615</t>
   </si>
   <si>
     <t xml:space="preserve">22.3905258178711</t>
   </si>
   <si>
-    <t xml:space="preserve">22.1023845672607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4921932220459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7294902801514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.390495300293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4074440002441</t>
+    <t xml:space="preserve">22.1023807525635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4921913146973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7294883728027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3904933929443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4074459075928</t>
   </si>
   <si>
     <t xml:space="preserve">20.9667530059814</t>
@@ -1520,7 +1520,7 @@
     <t xml:space="preserve">20.7294578552246</t>
   </si>
   <si>
-    <t xml:space="preserve">20.5938606262207</t>
+    <t xml:space="preserve">20.5938587188721</t>
   </si>
   <si>
     <t xml:space="preserve">19.9667224884033</t>
@@ -1532,7 +1532,7 @@
     <t xml:space="preserve">19.5090808868408</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3734836578369</t>
+    <t xml:space="preserve">19.3734855651855</t>
   </si>
   <si>
     <t xml:space="preserve">19.0344905853271</t>
@@ -1544,43 +1544,43 @@
     <t xml:space="preserve">20.0853710174561</t>
   </si>
   <si>
-    <t xml:space="preserve">19.8989238739014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2378883361816</t>
+    <t xml:space="preserve">19.8989219665527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.237886428833</t>
   </si>
   <si>
     <t xml:space="preserve">18.8819427490234</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5090484619141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1870040893555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2717514038086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0175094604492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6276969909668</t>
+    <t xml:space="preserve">18.5090503692627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1870059967041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2717552185059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0175075531006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6276950836182</t>
   </si>
   <si>
     <t xml:space="preserve">17.9327602386475</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1192073822021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9666595458984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8649616241455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1022567749023</t>
+    <t xml:space="preserve">18.1192054748535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9666614532471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8649635314941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.102258682251</t>
   </si>
   <si>
     <t xml:space="preserve">18.2378559112549</t>
@@ -1592,10 +1592,10 @@
     <t xml:space="preserve">17.8480110168457</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3564682006836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9666271209717</t>
+    <t xml:space="preserve">17.3564720153809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9666309356689</t>
   </si>
   <si>
     <t xml:space="preserve">17.085277557373</t>
@@ -1607,13 +1607,13 @@
     <t xml:space="preserve">16.3733882904053</t>
   </si>
   <si>
-    <t xml:space="preserve">16.271692276001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6106872558594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4242382049561</t>
+    <t xml:space="preserve">16.2716903686523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6106853485107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4242401123047</t>
   </si>
   <si>
     <t xml:space="preserve">16.3903408050537</t>
@@ -1622,10 +1622,10 @@
     <t xml:space="preserve">16.7378101348877</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8140830993652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7039070129395</t>
+    <t xml:space="preserve">16.8140811920166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7039089202881</t>
   </si>
   <si>
     <t xml:space="preserve">17.4581699371338</t>
@@ -1634,16 +1634,16 @@
     <t xml:space="preserve">17.2717227935791</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1530742645264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3225708007812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4920692443848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6446170806885</t>
+    <t xml:space="preserve">17.153076171875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3225727081299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4920673370361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6446151733398</t>
   </si>
   <si>
     <t xml:space="preserve">17.7971630096436</t>
@@ -1655,34 +1655,34 @@
     <t xml:space="preserve">18.4073524475098</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3395500183105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9836101531982</t>
+    <t xml:space="preserve">18.3395519256592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.983606338501</t>
   </si>
   <si>
     <t xml:space="preserve">18.0514087677002</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6615657806396</t>
+    <t xml:space="preserve">17.661563873291</t>
   </si>
   <si>
     <t xml:space="preserve">17.2378234863281</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5768165588379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7293643951416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8819122314453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4412517547607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1531047821045</t>
+    <t xml:space="preserve">17.5768146514893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7293663024902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8819103240967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4412536621094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1531066894531</t>
   </si>
   <si>
     <t xml:space="preserve">17.9158115386963</t>
@@ -1697,13 +1697,13 @@
     <t xml:space="preserve">17.7463130950928</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7124118804932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6276664733887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7632617950439</t>
+    <t xml:space="preserve">17.7124137878418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.62766456604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7632637023926</t>
   </si>
   <si>
     <t xml:space="preserve">17.3056240081787</t>
@@ -1712,19 +1712,19 @@
     <t xml:space="preserve">16.873405456543</t>
   </si>
   <si>
-    <t xml:space="preserve">17.186975479126</t>
+    <t xml:space="preserve">17.1869735717773</t>
   </si>
   <si>
     <t xml:space="preserve">17.2039241790771</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3903732299805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2886714935303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2547760009766</t>
+    <t xml:space="preserve">17.3903713226318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2886734008789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2547740936279</t>
   </si>
   <si>
     <t xml:space="preserve">17.220874786377</t>
@@ -1733,13 +1733,13 @@
     <t xml:space="preserve">16.8903560638428</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4242725372314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5429172515869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.814115524292</t>
+    <t xml:space="preserve">17.4242687225342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5429191589355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8141117095947</t>
   </si>
   <si>
     <t xml:space="preserve">17.5937671661377</t>
@@ -1748,13 +1748,13 @@
     <t xml:space="preserve">17.373420715332</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1700248718262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5005416870117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2462997436523</t>
+    <t xml:space="preserve">17.1700267791748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5005435943604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2462978363037</t>
   </si>
   <si>
     <t xml:space="preserve">17.3310470581055</t>
@@ -1769,43 +1769,43 @@
     <t xml:space="preserve">17.0344295501709</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5852928161621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6700401306152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3480281829834</t>
+    <t xml:space="preserve">17.5852909088135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6700420379639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3480262756348</t>
   </si>
   <si>
     <t xml:space="preserve">18.1361560821533</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0937824249268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8395366668701</t>
+    <t xml:space="preserve">18.0937843322754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8395385742188</t>
   </si>
   <si>
     <t xml:space="preserve">18.0090351104736</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7547874450684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9242839813232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1785316467285</t>
+    <t xml:space="preserve">17.754789352417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9242877960205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1785297393799</t>
   </si>
   <si>
     <t xml:space="preserve">17.9148921966553</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0909576416016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9589080810547</t>
+    <t xml:space="preserve">18.0909595489502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9589099884033</t>
   </si>
   <si>
     <t xml:space="preserve">17.8268585205078</t>
@@ -1832,37 +1832,37 @@
     <t xml:space="preserve">18.3550624847412</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0029277801514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7828407287598</t>
+    <t xml:space="preserve">18.0029258728027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.782844543457</t>
   </si>
   <si>
     <t xml:space="preserve">17.6507911682129</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3426723480225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5011329650879</t>
+    <t xml:space="preserve">17.3426704406738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5011310577393</t>
   </si>
   <si>
     <t xml:space="preserve">17.553955078125</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7952289581299</t>
+    <t xml:space="preserve">18.7952327728271</t>
   </si>
   <si>
     <t xml:space="preserve">18.7512149810791</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5751476287842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.619161605835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3110446929932</t>
+    <t xml:space="preserve">18.5751457214355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6191654205322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3110427856445</t>
   </si>
   <si>
     <t xml:space="preserve">17.7388229370117</t>
@@ -1877,31 +1877,31 @@
     <t xml:space="preserve">17.2370319366455</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1666049957275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2722454071045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1137847900391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3074588775635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8320751190186</t>
+    <t xml:space="preserve">17.1666030883789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2722434997559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1137866973877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3074569702148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8320770263672</t>
   </si>
   <si>
     <t xml:space="preserve">16.6912212371826</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7616500854492</t>
+    <t xml:space="preserve">16.7616481781006</t>
   </si>
   <si>
     <t xml:space="preserve">17.0609645843506</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4799385070801</t>
+    <t xml:space="preserve">16.4799404144287</t>
   </si>
   <si>
     <t xml:space="preserve">16.3743000030518</t>
@@ -1910,28 +1910,28 @@
     <t xml:space="preserve">16.6207942962646</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1101970672607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3038730621338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6560077667236</t>
+    <t xml:space="preserve">16.1101989746094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3038711547852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6560096740723</t>
   </si>
   <si>
     <t xml:space="preserve">16.5679740905762</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4095115661621</t>
+    <t xml:space="preserve">16.4095134735107</t>
   </si>
   <si>
     <t xml:space="preserve">16.3919067382812</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3214817047119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2334442138672</t>
+    <t xml:space="preserve">16.3214797973633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2334461212158</t>
   </si>
   <si>
     <t xml:space="preserve">16.9025020599365</t>
@@ -1943,13 +1943,13 @@
     <t xml:space="preserve">17.3954925537109</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4483127593994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6948108673096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0593338012695</t>
+    <t xml:space="preserve">17.448314666748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6948089599609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0593318939209</t>
   </si>
   <si>
     <t xml:space="preserve">18.1349773406982</t>
@@ -1973,13 +1973,13 @@
     <t xml:space="preserve">16.8848972320557</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1489963531494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1313915252686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.483528137207</t>
+    <t xml:space="preserve">17.148998260498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1313896179199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4835262298584</t>
   </si>
   <si>
     <t xml:space="preserve">16.7264347076416</t>
@@ -1994,10 +1994,10 @@
     <t xml:space="preserve">16.4271202087402</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7088279724121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6736164093018</t>
+    <t xml:space="preserve">16.7088260650635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6736145019531</t>
   </si>
   <si>
     <t xml:space="preserve">16.8144702911377</t>
@@ -2015,40 +2015,40 @@
     <t xml:space="preserve">18.6631813049316</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0469436645508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2194232940674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9905376434326</t>
+    <t xml:space="preserve">18.0469417572021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.219425201416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.990535736084</t>
   </si>
   <si>
     <t xml:space="preserve">17.184211730957</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5715599060059</t>
+    <t xml:space="preserve">17.5715579986572</t>
   </si>
   <si>
     <t xml:space="preserve">15.4235343933105</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7052431106567</t>
+    <t xml:space="preserve">15.7052412033081</t>
   </si>
   <si>
     <t xml:space="preserve">15.0537919998169</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7896900177002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4727697372437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2614870071411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0854196548462</t>
+    <t xml:space="preserve">14.7896881103516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4727687835693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2614879608154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0854187011719</t>
   </si>
   <si>
     <t xml:space="preserve">14.2086658477783</t>
@@ -2060,7 +2060,7 @@
     <t xml:space="preserve">12.694483757019</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1874732971191</t>
+    <t xml:space="preserve">13.1874723434448</t>
   </si>
   <si>
     <t xml:space="preserve">11.7085046768188</t>
@@ -2069,16 +2069,16 @@
     <t xml:space="preserve">12.1838874816895</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7929525375366</t>
+    <t xml:space="preserve">10.7929515838623</t>
   </si>
   <si>
     <t xml:space="preserve">11.0042333602905</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5640630722046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9514131546021</t>
+    <t xml:space="preserve">10.5640640258789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9514122009277</t>
   </si>
   <si>
     <t xml:space="preserve">12.6064500808716</t>
@@ -2096,31 +2096,31 @@
     <t xml:space="preserve">13.0466194152832</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9021797180176</t>
+    <t xml:space="preserve">11.9021806716919</t>
   </si>
   <si>
     <t xml:space="preserve">11.5852575302124</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3211545944214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8281669616699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0922679901123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1626949310303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1803016662598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0394468307495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7753458023071</t>
+    <t xml:space="preserve">11.3211555480957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8281660079956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.092267036438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.162693977356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1803007125854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0394477844238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7753448486328</t>
   </si>
   <si>
     <t xml:space="preserve">10.6697044372559</t>
@@ -2129,16 +2129,16 @@
     <t xml:space="preserve">10.5816717147827</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1098747253418</t>
+    <t xml:space="preserve">11.1098737716675</t>
   </si>
   <si>
     <t xml:space="preserve">11.3563690185547</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9338054656982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6873111724854</t>
+    <t xml:space="preserve">10.9338073730469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6873121261597</t>
   </si>
   <si>
     <t xml:space="preserve">10.8809862136841</t>
@@ -2147,7 +2147,7 @@
     <t xml:space="preserve">10.6168851852417</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6520977020264</t>
+    <t xml:space="preserve">10.652099609375</t>
   </si>
   <si>
     <t xml:space="preserve">10.7401323318481</t>
@@ -2156,25 +2156,25 @@
     <t xml:space="preserve">10.5288505554199</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0358600616455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0886821746826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.89500617980957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.70133304595947</t>
+    <t xml:space="preserve">10.0358610153198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.088680267334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.89500713348389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.70133209228516</t>
   </si>
   <si>
     <t xml:space="preserve">9.63090419769287</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2823553085327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7577390670776</t>
+    <t xml:space="preserve">10.282356262207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7577381134033</t>
   </si>
   <si>
     <t xml:space="preserve">10.2999620437622</t>
@@ -2189,7 +2189,7 @@
     <t xml:space="preserve">10.8457727432251</t>
   </si>
   <si>
-    <t xml:space="preserve">11.057053565979</t>
+    <t xml:space="preserve">11.0570545196533</t>
   </si>
   <si>
     <t xml:space="preserve">11.6732912063599</t>
@@ -2198,61 +2198,61 @@
     <t xml:space="preserve">11.5676507949829</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6556835174561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4796171188354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5500440597534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5360231399536</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5008096694946</t>
+    <t xml:space="preserve">11.6556844711304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4796161651611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5500431060791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5360221862793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.500807762146</t>
   </si>
   <si>
     <t xml:space="preserve">12.3071346282959</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0606393814087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3387622833252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6204700469971</t>
+    <t xml:space="preserve">12.060640335083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3387613296509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6204710006714</t>
   </si>
   <si>
     <t xml:space="preserve">11.6380777359009</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9549999237061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9726057052612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8669652938843</t>
+    <t xml:space="preserve">11.9549989700317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9726076126099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.86696434021</t>
   </si>
   <si>
     <t xml:space="preserve">12.0254259109497</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9902124404907</t>
+    <t xml:space="preserve">11.990213394165</t>
   </si>
   <si>
     <t xml:space="preserve">11.7613248825073</t>
   </si>
   <si>
-    <t xml:space="preserve">11.690896987915</t>
+    <t xml:space="preserve">11.6908979415894</t>
   </si>
   <si>
     <t xml:space="preserve">11.7437181472778</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4972238540649</t>
+    <t xml:space="preserve">11.4972229003906</t>
   </si>
   <si>
     <t xml:space="preserve">11.5148305892944</t>
@@ -2264,25 +2264,25 @@
     <t xml:space="preserve">11.0218410491943</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3035488128662</t>
+    <t xml:space="preserve">11.3035497665405</t>
   </si>
   <si>
     <t xml:space="preserve">10.986626625061</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8633804321289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6028642654419</t>
+    <t xml:space="preserve">10.8633785247803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6028652191162</t>
   </si>
   <si>
     <t xml:space="preserve">11.1979084014893</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1450881958008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2683353424072</t>
+    <t xml:space="preserve">11.1450872421265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2683362960815</t>
   </si>
   <si>
     <t xml:space="preserve">11.1274814605713</t>
@@ -2291,40 +2291,40 @@
     <t xml:space="preserve">10.6344909667969</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9690198898315</t>
+    <t xml:space="preserve">10.9690208435059</t>
   </si>
   <si>
     <t xml:space="preserve">11.4444026947021</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2507286071777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8141450881958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1134605407715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.131067276001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9197864532471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5324373245239</t>
+    <t xml:space="preserve">11.2507276535034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8141460418701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1134595870972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1310663223267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9197854995728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5324363708496</t>
   </si>
   <si>
     <t xml:space="preserve">12.0078201293945</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0958528518677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2191009521484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5888433456421</t>
+    <t xml:space="preserve">12.095853805542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2191019058228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5888442993164</t>
   </si>
   <si>
     <t xml:space="preserve">12.9585857391357</t>
@@ -2336,19 +2336,19 @@
     <t xml:space="preserve">12.800124168396</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0114068984985</t>
+    <t xml:space="preserve">13.0114059448242</t>
   </si>
   <si>
     <t xml:space="preserve">12.0782470703125</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7965383529663</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2859411239624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8985929489136</t>
+    <t xml:space="preserve">11.796537399292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2859420776367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8985939025879</t>
   </si>
   <si>
     <t xml:space="preserve">10.1415023803711</t>
@@ -2363,10 +2363,10 @@
     <t xml:space="preserve">10.1943216323853</t>
   </si>
   <si>
-    <t xml:space="preserve">10.352783203125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2579021453857</t>
+    <t xml:space="preserve">10.3527841567993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2579011917114</t>
   </si>
   <si>
     <t xml:space="preserve">13.8037109375</t>
@@ -2378,34 +2378,34 @@
     <t xml:space="preserve">13.6276426315308</t>
   </si>
   <si>
-    <t xml:space="preserve">14.138237953186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.169867515564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.029013633728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5043954849243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6980714797974</t>
+    <t xml:space="preserve">14.1382389068604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1698656082153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0290126800537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.50439453125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.698070526123</t>
   </si>
   <si>
     <t xml:space="preserve">13.9093523025513</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7861042022705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.874137878418</t>
+    <t xml:space="preserve">13.7861032485962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8741369247437</t>
   </si>
   <si>
     <t xml:space="preserve">13.8213176727295</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8917436599731</t>
+    <t xml:space="preserve">13.8917446136475</t>
   </si>
   <si>
     <t xml:space="preserve">13.838924407959</t>
@@ -2414,10 +2414,10 @@
     <t xml:space="preserve">13.4515752792358</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2226877212524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2755079269409</t>
+    <t xml:space="preserve">13.2226886749268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2755069732666</t>
   </si>
   <si>
     <t xml:space="preserve">13.5220022201538</t>
@@ -2426,13 +2426,13 @@
     <t xml:space="preserve">13.134654045105</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2402935028076</t>
+    <t xml:space="preserve">13.2402944564819</t>
   </si>
   <si>
     <t xml:space="preserve">13.4339685440063</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7508907318115</t>
+    <t xml:space="preserve">13.7508897781372</t>
   </si>
   <si>
     <t xml:space="preserve">13.7156772613525</t>
@@ -2441,10 +2441,10 @@
     <t xml:space="preserve">14.3671274185181</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8425102233887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2474670410156</t>
+    <t xml:space="preserve">14.8425121307373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.247465133667</t>
   </si>
   <si>
     <t xml:space="preserve">15.476354598999</t>
@@ -2459,40 +2459,40 @@
     <t xml:space="preserve">15.5291738510132</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9657573699951</t>
+    <t xml:space="preserve">14.9657564163208</t>
   </si>
   <si>
     <t xml:space="preserve">15.3178939819336</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6876373291016</t>
+    <t xml:space="preserve">15.6876363754272</t>
   </si>
   <si>
     <t xml:space="preserve">15.6524238586426</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3883209228516</t>
+    <t xml:space="preserve">15.3883190155029</t>
   </si>
   <si>
     <t xml:space="preserve">15.2298583984375</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1242208480835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1066122055054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6312303543091</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.877724647522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.912938117981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1594324111938</t>
+    <t xml:space="preserve">15.1242189407349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1066131591797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6312294006348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8777236938477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9129390716553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1594305038452</t>
   </si>
   <si>
     <t xml:space="preserve">15.9693431854248</t>
@@ -2504,13 +2504,13 @@
     <t xml:space="preserve">16.3390846252441</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2862663269043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9729290008545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8108835220337</t>
+    <t xml:space="preserve">16.2862682342529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9729309082031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8108825683594</t>
   </si>
   <si>
     <t xml:space="preserve">15.8989162445068</t>
@@ -2519,7 +2519,7 @@
     <t xml:space="preserve">15.8284893035889</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9165239334106</t>
+    <t xml:space="preserve">15.916524887085</t>
   </si>
   <si>
     <t xml:space="preserve">16.7968616485596</t>
@@ -2540,10 +2540,10 @@
     <t xml:space="preserve">16.5151538848877</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9341316223145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1982307434082</t>
+    <t xml:space="preserve">15.9341287612915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1982326507568</t>
   </si>
   <si>
     <t xml:space="preserve">16.1630172729492</t>
@@ -2552,7 +2552,7 @@
     <t xml:space="preserve">16.0749855041504</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4447269439697</t>
+    <t xml:space="preserve">16.4447288513184</t>
   </si>
   <si>
     <t xml:space="preserve">16.5855808258057</t>
@@ -2561,10 +2561,10 @@
     <t xml:space="preserve">16.1454124450684</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4535293579102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2070369720459</t>
+    <t xml:space="preserve">16.4535312652588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2070350646973</t>
   </si>
   <si>
     <t xml:space="preserve">16.1894283294678</t>
@@ -2591,7 +2591,7 @@
     <t xml:space="preserve">16.7176322937012</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3831024169922</t>
+    <t xml:space="preserve">16.3831043243408</t>
   </si>
   <si>
     <t xml:space="preserve">17.404296875</t>
@@ -2600,55 +2600,55 @@
     <t xml:space="preserve">17.5979690551758</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8408794403076</t>
+    <t xml:space="preserve">16.840877532959</t>
   </si>
   <si>
     <t xml:space="preserve">17.069766998291</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0961780548096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.474723815918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6419868469238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8532695770264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7300224304199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9413032531738</t>
+    <t xml:space="preserve">17.0961761474609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4747219085693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6419887542725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8532676696777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7300205230713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9413013458252</t>
   </si>
   <si>
     <t xml:space="preserve">17.9765167236328</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1877994537354</t>
+    <t xml:space="preserve">18.1877975463867</t>
   </si>
   <si>
     <t xml:space="preserve">18.3638668060303</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5047206878662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5223255157471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2758293151855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7476272583008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2054042816162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0997638702393</t>
+    <t xml:space="preserve">18.5047187805176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5223274230957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2758312225342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7476291656494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2054061889648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0997619628906</t>
   </si>
   <si>
     <t xml:space="preserve">18.0821571350098</t>
@@ -2657,25 +2657,25 @@
     <t xml:space="preserve">17.9236965179443</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8004493713379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8884811401367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2582244873047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1525840759277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1701908111572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7652359008789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4166851043701</t>
+    <t xml:space="preserve">17.8004474639893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8884830474854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2582225799561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1525859832764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1701889038086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7652339935303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4166870117188</t>
   </si>
   <si>
     <t xml:space="preserve">18.3286514282227</t>
@@ -2687,7 +2687,7 @@
     <t xml:space="preserve">16.8936996459961</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2018184661865</t>
+    <t xml:space="preserve">17.2018203735352</t>
   </si>
   <si>
     <t xml:space="preserve">17.2282295227051</t>
@@ -2696,34 +2696,34 @@
     <t xml:space="preserve">17.624382019043</t>
   </si>
   <si>
-    <t xml:space="preserve">19.8428363800049</t>
+    <t xml:space="preserve">19.8428344726562</t>
   </si>
   <si>
     <t xml:space="preserve">19.3146305084229</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2794189453125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.698392868042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1913814544678</t>
+    <t xml:space="preserve">19.2794170379639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6983947753906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.191385269165</t>
   </si>
   <si>
     <t xml:space="preserve">18.7336082458496</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8920669555664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4695072174072</t>
+    <t xml:space="preserve">18.892068862915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4695053100586</t>
   </si>
   <si>
     <t xml:space="preserve">18.3814716339111</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0645523071289</t>
+    <t xml:space="preserve">18.0645503997803</t>
   </si>
   <si>
     <t xml:space="preserve">17.8180561065674</t>
@@ -2735,19 +2735,19 @@
     <t xml:space="preserve">18.2406158447266</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4130992889404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4219017028809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.034553527832</t>
+    <t xml:space="preserve">17.4131011962891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4219036102295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0345554351807</t>
   </si>
   <si>
     <t xml:space="preserve">17.1578006744385</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6103591918945</t>
+    <t xml:space="preserve">18.6103610992432</t>
   </si>
   <si>
     <t xml:space="preserve">18.1173706054688</t>
@@ -2759,13 +2759,13 @@
     <t xml:space="preserve">18.76881980896</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5575389862061</t>
+    <t xml:space="preserve">18.5575408935547</t>
   </si>
   <si>
     <t xml:space="preserve">18.3361072540283</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3002948760986</t>
+    <t xml:space="preserve">18.3002967834473</t>
   </si>
   <si>
     <t xml:space="preserve">18.4077320098877</t>
@@ -2777,28 +2777,28 @@
     <t xml:space="preserve">18.4793586730957</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4435443878174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7479553222656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5151710510254</t>
+    <t xml:space="preserve">18.443546295166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.747953414917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.515172958374</t>
   </si>
   <si>
     <t xml:space="preserve">18.5330791473389</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2286682128906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0854187011719</t>
+    <t xml:space="preserve">18.2286701202393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0854206085205</t>
   </si>
   <si>
     <t xml:space="preserve">18.0496063232422</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9958877563477</t>
+    <t xml:space="preserve">17.995885848999</t>
   </si>
   <si>
     <t xml:space="preserve">17.8974018096924</t>
@@ -2807,25 +2807,25 @@
     <t xml:space="preserve">18.1391372680664</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9063568115234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7810115814209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2644805908203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1990547180176</t>
+    <t xml:space="preserve">17.9063549041748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7810096740723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2644824981689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1990528106689</t>
   </si>
   <si>
     <t xml:space="preserve">17.0826625823975</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1363830566406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.760347366333</t>
+    <t xml:space="preserve">17.136381149292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7603492736816</t>
   </si>
   <si>
     <t xml:space="preserve">16.6529102325439</t>
@@ -2846,7 +2846,7 @@
     <t xml:space="preserve">16.3664093017578</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5633773803711</t>
+    <t xml:space="preserve">16.5633792877197</t>
   </si>
   <si>
     <t xml:space="preserve">16.5365180969238</t>
@@ -2858,52 +2858,52 @@
     <t xml:space="preserve">17.0289440155029</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8498802185059</t>
+    <t xml:space="preserve">16.8498783111572</t>
   </si>
   <si>
     <t xml:space="preserve">16.8677864074707</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9931316375732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9125499725342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7334880828857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7424411773682</t>
+    <t xml:space="preserve">16.9931297302246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9125518798828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7334899902344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7424430847168</t>
   </si>
   <si>
     <t xml:space="preserve">16.4648933410645</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4380359649658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1157188415527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1694374084473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3395481109619</t>
+    <t xml:space="preserve">16.4380340576172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1157207489014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1694393157959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3395500183105</t>
   </si>
   <si>
     <t xml:space="preserve">16.9215049743652</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1005687713623</t>
+    <t xml:space="preserve">17.1005706787109</t>
   </si>
   <si>
     <t xml:space="preserve">17.2975387573242</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4586944580078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5454711914062</t>
+    <t xml:space="preserve">17.4586963653564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5454730987549</t>
   </si>
   <si>
     <t xml:space="preserve">16.6618633270264</t>
@@ -2915,34 +2915,34 @@
     <t xml:space="preserve">16.9483661651611</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3154449462891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.894645690918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0020847320557</t>
+    <t xml:space="preserve">17.3154468536377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8946475982666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.002082824707</t>
   </si>
   <si>
     <t xml:space="preserve">16.4917526245117</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9366550445557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.079906463623</t>
+    <t xml:space="preserve">15.93665599823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0799045562744</t>
   </si>
   <si>
     <t xml:space="preserve">16.4827995300293</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7872085571289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5186138153076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8588333129883</t>
+    <t xml:space="preserve">16.7872066497803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.518611907959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8588314056396</t>
   </si>
   <si>
     <t xml:space="preserve">17.1274280548096</t>
@@ -2951,13 +2951,13 @@
     <t xml:space="preserve">16.8409252166748</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4022216796875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8918905258179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9456081390381</t>
+    <t xml:space="preserve">16.4022197723389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8918886184692</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9456090927124</t>
   </si>
   <si>
     <t xml:space="preserve">16.0978126525879</t>
@@ -2969,19 +2969,19 @@
     <t xml:space="preserve">16.590238571167</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4290828704834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0888595581055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6680612564087</t>
+    <t xml:space="preserve">16.4290790557861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0888576507568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6680593490601</t>
   </si>
   <si>
     <t xml:space="preserve">15.2920265197754</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5847263336182</t>
+    <t xml:space="preserve">14.5847272872925</t>
   </si>
   <si>
     <t xml:space="preserve">14.9159936904907</t>
@@ -2996,7 +2996,7 @@
     <t xml:space="preserve">14.4235696792603</t>
   </si>
   <si>
-    <t xml:space="preserve">13.949049949646</t>
+    <t xml:space="preserve">13.9490509033203</t>
   </si>
   <si>
     <t xml:space="preserve">13.5103445053101</t>
@@ -3014,49 +3014,49 @@
     <t xml:space="preserve">13.9311447143555</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3429899215698</t>
+    <t xml:space="preserve">14.3429908752441</t>
   </si>
   <si>
     <t xml:space="preserve">14.7727422714233</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1370677947998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.360897064209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6625490188599</t>
+    <t xml:space="preserve">14.1370668411255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3608980178833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6625499725342</t>
   </si>
   <si>
     <t xml:space="preserve">13.7252206802368</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5461578369141</t>
+    <t xml:space="preserve">13.5461568832397</t>
   </si>
   <si>
     <t xml:space="preserve">13.4118595123291</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1790771484375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2507019042969</t>
+    <t xml:space="preserve">13.1790781021118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2507028579712</t>
   </si>
   <si>
     <t xml:space="preserve">13.4655790328979</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4387197494507</t>
+    <t xml:space="preserve">13.4387187957764</t>
   </si>
   <si>
     <t xml:space="preserve">13.5013914108276</t>
   </si>
   <si>
-    <t xml:space="preserve">13.232795715332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8746700286865</t>
+    <t xml:space="preserve">13.2327966690063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8746690750122</t>
   </si>
   <si>
     <t xml:space="preserve">13.0358266830444</t>
@@ -3074,10 +3074,10 @@
     <t xml:space="preserve">14.2355518341064</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2176465988159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2713642120361</t>
+    <t xml:space="preserve">14.2176456451416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2713651657104</t>
   </si>
   <si>
     <t xml:space="preserve">14.6294927597046</t>
@@ -3089,22 +3089,22 @@
     <t xml:space="preserve">14.0385828018188</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7520809173584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8774251937866</t>
+    <t xml:space="preserve">13.7520799636841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8774261474609</t>
   </si>
   <si>
     <t xml:space="preserve">13.4834861755371</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5551109313965</t>
+    <t xml:space="preserve">13.5551118850708</t>
   </si>
   <si>
     <t xml:space="preserve">13.1611709594727</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9642000198364</t>
+    <t xml:space="preserve">12.9642009735107</t>
   </si>
   <si>
     <t xml:space="preserve">12.7851371765137</t>
@@ -3116,25 +3116,25 @@
     <t xml:space="preserve">12.8925752639771</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9104824066162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9821081161499</t>
+    <t xml:space="preserve">12.9104814529419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9821071624756</t>
   </si>
   <si>
     <t xml:space="preserve">13.2148895263672</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1432638168335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0537328720093</t>
+    <t xml:space="preserve">13.1432647705078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.053731918335</t>
   </si>
   <si>
     <t xml:space="preserve">12.5523548126221</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3911972045898</t>
+    <t xml:space="preserve">12.3911981582642</t>
   </si>
   <si>
     <t xml:space="preserve">12.3633937835693</t>
@@ -3143,13 +3143,13 @@
     <t xml:space="preserve">12.178035736084</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0668210983276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6228942871094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6414318084717</t>
+    <t xml:space="preserve">12.0668201446533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6228952407837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6414308547974</t>
   </si>
   <si>
     <t xml:space="preserve">13.1975049972534</t>
@@ -3158,25 +3158,25 @@
     <t xml:space="preserve">12.8453245162964</t>
   </si>
   <si>
-    <t xml:space="preserve">12.752646446228</t>
+    <t xml:space="preserve">12.7526454925537</t>
   </si>
   <si>
     <t xml:space="preserve">12.7155742645264</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9380044937134</t>
+    <t xml:space="preserve">12.9380035400391</t>
   </si>
   <si>
     <t xml:space="preserve">13.0862903594971</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3272571563721</t>
+    <t xml:space="preserve">13.3272562026978</t>
   </si>
   <si>
     <t xml:space="preserve">13.0677547454834</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3077850341797</t>
+    <t xml:space="preserve">12.307785987854</t>
   </si>
   <si>
     <t xml:space="preserve">12.1409645080566</t>
@@ -3185,7 +3185,7 @@
     <t xml:space="preserve">11.881462097168</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4375371932983</t>
+    <t xml:space="preserve">12.437536239624</t>
   </si>
   <si>
     <t xml:space="preserve">12.2892503738403</t>
@@ -3206,13 +3206,13 @@
     <t xml:space="preserve">12.4746084213257</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1965703964233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.955605506897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4736738204956</t>
+    <t xml:space="preserve">12.1965713500977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9556045532227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4736747741699</t>
   </si>
   <si>
     <t xml:space="preserve">11.73317527771</t>
@@ -3224,13 +3224,13 @@
     <t xml:space="preserve">12.085355758667</t>
   </si>
   <si>
-    <t xml:space="preserve">11.937068939209</t>
+    <t xml:space="preserve">11.9370698928833</t>
   </si>
   <si>
     <t xml:space="preserve">11.7146396636963</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5107450485229</t>
+    <t xml:space="preserve">11.5107460021973</t>
   </si>
   <si>
     <t xml:space="preserve">12.0297479629517</t>
@@ -3248,7 +3248,7 @@
     <t xml:space="preserve">12.3263216018677</t>
   </si>
   <si>
-    <t xml:space="preserve">12.511679649353</t>
+    <t xml:space="preserve">12.5116806030273</t>
   </si>
   <si>
     <t xml:space="preserve">12.5487518310547</t>
@@ -3266,22 +3266,22 @@
     <t xml:space="preserve">12.252179145813</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1224269866943</t>
+    <t xml:space="preserve">12.1224279403687</t>
   </si>
   <si>
     <t xml:space="preserve">11.7887830734253</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7702474594116</t>
+    <t xml:space="preserve">11.7702465057373</t>
   </si>
   <si>
     <t xml:space="preserve">11.3809947967529</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3439235687256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3253870010376</t>
+    <t xml:space="preserve">11.3439226150513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3253879547119</t>
   </si>
   <si>
     <t xml:space="preserve">11.1585655212402</t>
@@ -3290,13 +3290,13 @@
     <t xml:space="preserve">10.9175987243652</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8619928359985</t>
+    <t xml:space="preserve">10.8619918823242</t>
   </si>
   <si>
     <t xml:space="preserve">10.6766338348389</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7693128585815</t>
+    <t xml:space="preserve">10.7693119049072</t>
   </si>
   <si>
     <t xml:space="preserve">10.3800601959229</t>
@@ -3308,10 +3308,10 @@
     <t xml:space="preserve">10.4171314239502</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3615255355835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6024894714355</t>
+    <t xml:space="preserve">10.3615245819092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6024904251099</t>
   </si>
   <si>
     <t xml:space="preserve">10.8249206542969</t>
@@ -3320,13 +3320,13 @@
     <t xml:space="preserve">9.86105823516846</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1020231246948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.78691482543945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.8239860534668</t>
+    <t xml:space="preserve">10.1020221710205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.78691387176514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.82398700714111</t>
   </si>
   <si>
     <t xml:space="preserve">9.62009143829346</t>
@@ -3344,10 +3344,10 @@
     <t xml:space="preserve">9.00840950012207</t>
   </si>
   <si>
-    <t xml:space="preserve">8.6933012008667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.96206951141357</t>
+    <t xml:space="preserve">8.69330024719238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.96207046508789</t>
   </si>
   <si>
     <t xml:space="preserve">8.98060607910156</t>
@@ -3359,13 +3359,13 @@
     <t xml:space="preserve">9.09182167053223</t>
   </si>
   <si>
-    <t xml:space="preserve">8.86012268066406</t>
+    <t xml:space="preserve">8.86012363433838</t>
   </si>
   <si>
     <t xml:space="preserve">9.07328510284424</t>
   </si>
   <si>
-    <t xml:space="preserve">9.11962509155273</t>
+    <t xml:space="preserve">9.11962413787842</t>
   </si>
   <si>
     <t xml:space="preserve">9.39766216278076</t>
@@ -3380,25 +3380,25 @@
     <t xml:space="preserve">9.56448459625244</t>
   </si>
   <si>
-    <t xml:space="preserve">9.37912654876709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.26791191101074</t>
+    <t xml:space="preserve">9.37912559509277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.26791095733643</t>
   </si>
   <si>
     <t xml:space="preserve">9.58302021026611</t>
   </si>
   <si>
-    <t xml:space="preserve">9.6571626663208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.99080848693848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.87959384918213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.84252071380615</t>
+    <t xml:space="preserve">9.65716361999512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.99080753326416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.87959289550781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.84252166748047</t>
   </si>
   <si>
     <t xml:space="preserve">9.9722728729248</t>
@@ -3413,7 +3413,7 @@
     <t xml:space="preserve">10.2132387161255</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5283460617065</t>
+    <t xml:space="preserve">10.5283470153809</t>
   </si>
   <si>
     <t xml:space="preserve">10.8990640640259</t>
@@ -3422,7 +3422,7 @@
     <t xml:space="preserve">10.2503099441528</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2317733764648</t>
+    <t xml:space="preserve">10.2317743301392</t>
   </si>
   <si>
     <t xml:space="preserve">10.2688455581665</t>
@@ -3431,19 +3431,19 @@
     <t xml:space="preserve">10.4356679916382</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6580982208252</t>
+    <t xml:space="preserve">10.6580972671509</t>
   </si>
   <si>
     <t xml:space="preserve">10.2873821258545</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5468826293945</t>
+    <t xml:space="preserve">10.5468835830688</t>
   </si>
   <si>
     <t xml:space="preserve">10.5839548110962</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4912748336792</t>
+    <t xml:space="preserve">10.4912757873535</t>
   </si>
   <si>
     <t xml:space="preserve">10.4727401733398</t>
@@ -3455,7 +3455,7 @@
     <t xml:space="preserve">10.6951694488525</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3985967636108</t>
+    <t xml:space="preserve">10.3985958099365</t>
   </si>
   <si>
     <t xml:space="preserve">10.5654182434082</t>
@@ -3464,7 +3464,7 @@
     <t xml:space="preserve">10.6210260391235</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0844221115112</t>
+    <t xml:space="preserve">11.0844211578369</t>
   </si>
   <si>
     <t xml:space="preserve">11.3068513870239</t>
@@ -3482,7 +3482,7 @@
     <t xml:space="preserve">11.5848894119263</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6961040496826</t>
+    <t xml:space="preserve">11.6961030960083</t>
   </si>
   <si>
     <t xml:space="preserve">12.0482845306396</t>
@@ -3506,19 +3506,19 @@
     <t xml:space="preserve">11.2512445449829</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2141723632812</t>
+    <t xml:space="preserve">11.2141733169556</t>
   </si>
   <si>
     <t xml:space="preserve">11.1214933395386</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8063840866089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8434553146362</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6395606994629</t>
+    <t xml:space="preserve">10.8063850402832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8434562683105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6395616531372</t>
   </si>
   <si>
     <t xml:space="preserve">10.4542036056519</t>
@@ -3533,13 +3533,13 @@
     <t xml:space="preserve">10.9917421340942</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2336416244507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.678503036499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4190006256104</t>
+    <t xml:space="preserve">12.233642578125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6785020828247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.418999671936</t>
   </si>
   <si>
     <t xml:space="preserve">12.8638610839844</t>
@@ -3554,7 +3554,7 @@
     <t xml:space="preserve">12.60435962677</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8082523345947</t>
+    <t xml:space="preserve">12.808253288269</t>
   </si>
   <si>
     <t xml:space="preserve">12.7711811065674</t>
@@ -3566,7 +3566,7 @@
     <t xml:space="preserve">13.9760093688965</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8647947311401</t>
+    <t xml:space="preserve">13.8647956848145</t>
   </si>
   <si>
     <t xml:space="preserve">13.6609010696411</t>
@@ -4029,6 +4029,9 @@
   </si>
   <si>
     <t xml:space="preserve">12.0600004196167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1999998092651</t>
   </si>
 </sst>
 </file>
@@ -60140,7 +60143,7 @@
     </row>
     <row r="2146">
       <c r="A2146" s="1" t="n">
-        <v>45449.6496064815</v>
+        <v>45449.2916666667</v>
       </c>
       <c r="B2146" t="n">
         <v>315011</v>
@@ -60161,6 +60164,32 @@
         <v>1338</v>
       </c>
       <c r="H2146" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2147">
+      <c r="A2147" s="1" t="n">
+        <v>45450.6493865741</v>
+      </c>
+      <c r="B2147" t="n">
+        <v>309126</v>
+      </c>
+      <c r="C2147" t="n">
+        <v>12.1999998092651</v>
+      </c>
+      <c r="D2147" t="n">
+        <v>11.9799995422363</v>
+      </c>
+      <c r="E2147" t="n">
+        <v>12.0600004196167</v>
+      </c>
+      <c r="F2147" t="n">
+        <v>12.1999998092651</v>
+      </c>
+      <c r="G2147" t="s">
+        <v>1339</v>
+      </c>
+      <c r="H2147" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/MARR.MI.xlsx
+++ b/data/MARR.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1340" uniqueCount="1340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1341" uniqueCount="1341">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,76 +38,76 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2729778289795</t>
+    <t xml:space="preserve">14.2729787826538</t>
   </si>
   <si>
     <t xml:space="preserve">MARR.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1047010421753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.98996925354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7910957336426</t>
+    <t xml:space="preserve">14.1047019958496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9899682998657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7910928726196</t>
   </si>
   <si>
     <t xml:space="preserve">13.7451992034912</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3627500534058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4315910339355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5157289505005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2021217346191</t>
+    <t xml:space="preserve">13.3627481460571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4315900802612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5157308578491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2021226882935</t>
   </si>
   <si>
     <t xml:space="preserve">13.2097721099854</t>
   </si>
   <si>
-    <t xml:space="preserve">12.720235824585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8273229598999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3607368469238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9650049209595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6228160858154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4545383453369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3321552276611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3245077133179</t>
+    <t xml:space="preserve">12.7202377319336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8273239135742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3607358932495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9650058746338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6228170394897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4545402526855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3321561813354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3245067596436</t>
   </si>
   <si>
     <t xml:space="preserve">13.4162940979004</t>
   </si>
   <si>
-    <t xml:space="preserve">13.500431060791</t>
+    <t xml:space="preserve">13.5004320144653</t>
   </si>
   <si>
     <t xml:space="preserve">13.7681455612183</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5616245269775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0873889923096</t>
+    <t xml:space="preserve">13.5616226196289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0873880386353</t>
   </si>
   <si>
     <t xml:space="preserve">13.2786121368408</t>
@@ -122,76 +122,76 @@
     <t xml:space="preserve">12.1542139053345</t>
   </si>
   <si>
-    <t xml:space="preserve">12.613151550293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2995433807373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6208009719849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6590452194214</t>
+    <t xml:space="preserve">12.6131525039673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2995443344116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6208000183105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6590442657471</t>
   </si>
   <si>
     <t xml:space="preserve">12.7814283370972</t>
   </si>
   <si>
-    <t xml:space="preserve">12.94970703125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1562299728394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4851360321045</t>
+    <t xml:space="preserve">12.9497060775757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.156229019165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4851331710815</t>
   </si>
   <si>
     <t xml:space="preserve">13.3780488967896</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3474531173706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7299022674561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.96702003479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7375497817993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8752298355103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6763563156128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3703985214233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8196744918823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1179828643799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4468879699707</t>
+    <t xml:space="preserve">13.3474540710449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7299013137817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9670171737671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7375507354736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8752317428589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6763591766357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.370397567749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8196754455566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1179838180542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4468898773193</t>
   </si>
   <si>
     <t xml:space="preserve">13.5998687744141</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4774875640869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.661060333252</t>
+    <t xml:space="preserve">13.4774866104126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6610612869263</t>
   </si>
   <si>
     <t xml:space="preserve">13.2174205780029</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1026859283447</t>
+    <t xml:space="preserve">13.102686882019</t>
   </si>
   <si>
     <t xml:space="preserve">13.4621868133545</t>
@@ -203,22 +203,22 @@
     <t xml:space="preserve">13.9593715667725</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0817546844482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1505966186523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8828802108765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.997615814209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.074104309082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5483427047729</t>
+    <t xml:space="preserve">14.0817537307739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1505937576294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8828811645508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9976139068604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0741024017334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5483407974243</t>
   </si>
   <si>
     <t xml:space="preserve">14.3188714981079</t>
@@ -227,37 +227,37 @@
     <t xml:space="preserve">14.1658916473389</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7987442016602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6916561126709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6151666641235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5769214630127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8599328994751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9058294296265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5922212600708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0970525741577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9440717697144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6304655075073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6840076446533</t>
+    <t xml:space="preserve">13.7987422943115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6916570663452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6151676177979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.576922416687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8599338531494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9058265686035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5922203063965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.097053527832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9440727233887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.630464553833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6840085983276</t>
   </si>
   <si>
     <t xml:space="preserve">13.6993045806885</t>
@@ -266,22 +266,22 @@
     <t xml:space="preserve">13.8216896057129</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4392395019531</t>
+    <t xml:space="preserve">13.4392404556274</t>
   </si>
   <si>
     <t xml:space="preserve">13.6687097549438</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4086437225342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5310277938843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8250102996826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8170642852783</t>
+    <t xml:space="preserve">13.4086456298828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5310287475586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.825008392334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8170623779297</t>
   </si>
   <si>
     <t xml:space="preserve">14.0713148117065</t>
@@ -290,34 +290,34 @@
     <t xml:space="preserve">14.0633716583252</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2540597915649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3096799850464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.126935005188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0792608261108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3017330169678</t>
+    <t xml:space="preserve">14.2540616989136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3096780776978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1269340515137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0792627334595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3017320632935</t>
   </si>
   <si>
     <t xml:space="preserve">14.1904973983765</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1030988693237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0872068405151</t>
+    <t xml:space="preserve">14.1030979156494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0872058868408</t>
   </si>
   <si>
     <t xml:space="preserve">14.0951519012451</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5866460800171</t>
+    <t xml:space="preserve">13.5866470336914</t>
   </si>
   <si>
     <t xml:space="preserve">13.6740446090698</t>
@@ -326,19 +326,19 @@
     <t xml:space="preserve">13.3880109786987</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0701961517334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2132110595703</t>
+    <t xml:space="preserve">13.0701942443848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2132120132446</t>
   </si>
   <si>
     <t xml:space="preserve">13.5945920944214</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5787019729614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8806257247925</t>
+    <t xml:space="preserve">13.5787000656128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8806238174438</t>
   </si>
   <si>
     <t xml:space="preserve">13.2052669525146</t>
@@ -347,13 +347,13 @@
     <t xml:space="preserve">12.5060701370239</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0384130477905</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5151376724243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.246114730835</t>
+    <t xml:space="preserve">13.0384140014648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.51513671875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2461156845093</t>
   </si>
   <si>
     <t xml:space="preserve">14.3573513031006</t>
@@ -362,37 +362,37 @@
     <t xml:space="preserve">13.8567905426025</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2778949737549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1507692337036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6036577224731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5718784332275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5639305114746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3652982711792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3176240921021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5798215866089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8738021850586</t>
+    <t xml:space="preserve">14.2778968811035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1507711410522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6036586761475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5718746185303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5639324188232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3652944564819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3176231384277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5798225402832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8738012313843</t>
   </si>
   <si>
     <t xml:space="preserve">14.5480394363403</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6990060806274</t>
+    <t xml:space="preserve">14.6990022659302</t>
   </si>
   <si>
     <t xml:space="preserve">14.9770927429199</t>
@@ -401,34 +401,34 @@
     <t xml:space="preserve">14.8340759277344</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9453096389771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5877666473389</t>
+    <t xml:space="preserve">14.9453115463257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5877676010132</t>
   </si>
   <si>
     <t xml:space="preserve">14.8579130172729</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3335161209106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4765300750732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5003681182861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4447498321533</t>
+    <t xml:space="preserve">14.333514213562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4765310287476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5003690719604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.444748878479</t>
   </si>
   <si>
     <t xml:space="preserve">14.1666612625122</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2381706237793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0315885543823</t>
+    <t xml:space="preserve">14.238169670105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0315895080566</t>
   </si>
   <si>
     <t xml:space="preserve">13.8885698318481</t>
@@ -437,46 +437,46 @@
     <t xml:space="preserve">13.9044628143311</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8647346496582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0474796295166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9521350860596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7217178344727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.015697479248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.912407875061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0077533721924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9203538894653</t>
+    <t xml:space="preserve">13.8647365570068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0474815368652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9521331787109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.721718788147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0156984329224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9124097824097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0077514648438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.920352935791</t>
   </si>
   <si>
     <t xml:space="preserve">13.8091163635254</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7058277130127</t>
+    <t xml:space="preserve">13.7058258056641</t>
   </si>
   <si>
     <t xml:space="preserve">13.6502103805542</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7376089096069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.999810218811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.230224609375</t>
+    <t xml:space="preserve">13.7376098632812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9998083114624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2302236557007</t>
   </si>
   <si>
     <t xml:space="preserve">14.1746063232422</t>
@@ -485,70 +485,70 @@
     <t xml:space="preserve">14.0236434936523</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1587162017822</t>
+    <t xml:space="preserve">14.1587152481079</t>
   </si>
   <si>
     <t xml:space="preserve">13.7614450454712</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6661014556885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6184282302856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7773351669312</t>
+    <t xml:space="preserve">13.6661005020142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6184272766113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7773370742798</t>
   </si>
   <si>
     <t xml:space="preserve">13.5469188690186</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4913015365601</t>
+    <t xml:space="preserve">13.4913005828857</t>
   </si>
   <si>
     <t xml:space="preserve">13.6581554412842</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5389738082886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4595212936401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3482818603516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3165044784546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3006114959717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3323926925659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3244476318359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1814308166504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0304660797119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2370471954346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2688312530518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1575937271118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7126512527466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1178674697876</t>
+    <t xml:space="preserve">13.5389757156372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4595203399658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3482828140259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3165035247803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3006105422974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3323936462402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3244485855103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1814298629761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0304670333862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2370491027832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2688293457031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1575927734375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7126502990723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1178665161133</t>
   </si>
   <si>
     <t xml:space="preserve">13.2608852386475</t>
@@ -557,31 +557,31 @@
     <t xml:space="preserve">13.1417045593262</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1655387878418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0225219726562</t>
+    <t xml:space="preserve">13.1655406951904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0225229263306</t>
   </si>
   <si>
     <t xml:space="preserve">12.9112863540649</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0066337585449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.094030380249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0781402587891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5071907043457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4515762329102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5707540512085</t>
+    <t xml:space="preserve">13.006630897522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0940294265747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0781393051147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.50719165802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4515743255615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5707550048828</t>
   </si>
   <si>
     <t xml:space="preserve">13.8965167999268</t>
@@ -593,22 +593,22 @@
     <t xml:space="preserve">13.9362449645996</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7852811813354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9441890716553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9680271148682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9918622970581</t>
+    <t xml:space="preserve">13.7852821350098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.944188117981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9680261611938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9918632507324</t>
   </si>
   <si>
     <t xml:space="preserve">13.9759731292725</t>
   </si>
   <si>
-    <t xml:space="preserve">14.039532661438</t>
+    <t xml:space="preserve">14.0395355224609</t>
   </si>
   <si>
     <t xml:space="preserve">13.801173210144</t>
@@ -617,106 +617,106 @@
     <t xml:space="preserve">13.9839162826538</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2222785949707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2063865661621</t>
+    <t xml:space="preserve">14.222279548645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2063884735107</t>
   </si>
   <si>
     <t xml:space="preserve">14.7148933410645</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7705116271973</t>
+    <t xml:space="preserve">14.7705135345459</t>
   </si>
   <si>
     <t xml:space="preserve">14.3494052886963</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2699508666992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1825532913208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2858428955078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.341459274292</t>
+    <t xml:space="preserve">14.2699518203735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1825523376465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2858419418335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3414602279663</t>
   </si>
   <si>
     <t xml:space="preserve">14.2620058059692</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6751670837402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4606409072876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.651330947876</t>
+    <t xml:space="preserve">14.6751651763916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4606428146362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6513319015503</t>
   </si>
   <si>
     <t xml:space="preserve">14.6274938583374</t>
   </si>
   <si>
-    <t xml:space="preserve">14.540096282959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6910591125488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.516261100769</t>
+    <t xml:space="preserve">14.540093421936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6910581588745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5162601470947</t>
   </si>
   <si>
     <t xml:space="preserve">14.7069501876831</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6116018295288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3970785140991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7466735839844</t>
+    <t xml:space="preserve">14.6116027832031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3970775604248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7466726303101</t>
   </si>
   <si>
     <t xml:space="preserve">15.2154560089111</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4538192749023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4061441421509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5968322753906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.890814781189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8510885238647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8590297698975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7319068908691</t>
+    <t xml:space="preserve">15.453818321228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4061431884766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5968351364136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8908128738403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8510875701904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8590307235718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7319040298462</t>
   </si>
   <si>
     <t xml:space="preserve">16.1371212005615</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6774082183838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0656127929688</t>
+    <t xml:space="preserve">16.6774101257324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0656108856201</t>
   </si>
   <si>
     <t xml:space="preserve">16.0894508361816</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2245216369629</t>
+    <t xml:space="preserve">16.2245235443115</t>
   </si>
   <si>
     <t xml:space="preserve">16.3039741516113</t>
@@ -731,7 +731,7 @@
     <t xml:space="preserve">16.6456279754639</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6853561401367</t>
+    <t xml:space="preserve">16.6853542327881</t>
   </si>
   <si>
     <t xml:space="preserve">16.4867191314697</t>
@@ -749,31 +749,31 @@
     <t xml:space="preserve">16.5026111602783</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3675384521484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5582275390625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.605899810791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.701244354248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5423393249512</t>
+    <t xml:space="preserve">16.3675365447998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5582294464111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6059017181396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7012462615967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5423374176025</t>
   </si>
   <si>
     <t xml:space="preserve">16.8839912414551</t>
   </si>
   <si>
-    <t xml:space="preserve">17.432222366333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.114408493042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6615161895752</t>
+    <t xml:space="preserve">17.4322261810303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1144065856934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6615200042725</t>
   </si>
   <si>
     <t xml:space="preserve">17.2812595367432</t>
@@ -782,55 +782,55 @@
     <t xml:space="preserve">17.3289337158203</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2574234008789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2653694152832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6149654388428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8136024475098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6864757537842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5355129241943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4560585021973</t>
+    <t xml:space="preserve">17.2574253082275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2653713226318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6149673461914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8136043548584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6864776611328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.535514831543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4560604095459</t>
   </si>
   <si>
     <t xml:space="preserve">17.6626396179199</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1234741210938</t>
+    <t xml:space="preserve">18.1234722137451</t>
   </si>
   <si>
     <t xml:space="preserve">17.829496383667</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7738780975342</t>
+    <t xml:space="preserve">17.7738761901855</t>
   </si>
   <si>
     <t xml:space="preserve">17.9089488983154</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9963474273682</t>
+    <t xml:space="preserve">17.9963493347168</t>
   </si>
   <si>
     <t xml:space="preserve">18.1552543640137</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4004402160645</t>
+    <t xml:space="preserve">17.4004440307617</t>
   </si>
   <si>
     <t xml:space="preserve">17.5196228027344</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7083606719971</t>
+    <t xml:space="preserve">17.7083587646484</t>
   </si>
   <si>
     <t xml:space="preserve">18.2499485015869</t>
@@ -845,22 +845,22 @@
     <t xml:space="preserve">17.7904186248779</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6509170532227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8806838989258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0694198608398</t>
+    <t xml:space="preserve">17.6509189605713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8806819915771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0694179534912</t>
   </si>
   <si>
     <t xml:space="preserve">17.9791526794434</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7986259460449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0365924835205</t>
+    <t xml:space="preserve">17.7986221313477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0365943908691</t>
   </si>
   <si>
     <t xml:space="preserve">18.1760959625244</t>
@@ -869,7 +869,7 @@
     <t xml:space="preserve">17.9955654144287</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5606498718262</t>
+    <t xml:space="preserve">17.5606536865234</t>
   </si>
   <si>
     <t xml:space="preserve">17.7411823272705</t>
@@ -884,16 +884,16 @@
     <t xml:space="preserve">18.0858306884766</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7575912475586</t>
+    <t xml:space="preserve">17.7575950622559</t>
   </si>
   <si>
     <t xml:space="preserve">17.5524444580078</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5852718353271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6427135467529</t>
+    <t xml:space="preserve">17.5852699279785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6427116394043</t>
   </si>
   <si>
     <t xml:space="preserve">17.7329769134521</t>
@@ -905,22 +905,22 @@
     <t xml:space="preserve">17.174976348877</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0765037536621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0682945251465</t>
+    <t xml:space="preserve">17.0765056610107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0682983398438</t>
   </si>
   <si>
     <t xml:space="preserve">17.1503562927246</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9123840332031</t>
+    <t xml:space="preserve">16.9123859405518</t>
   </si>
   <si>
     <t xml:space="preserve">17.2324161529541</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0600910186768</t>
+    <t xml:space="preserve">17.0600929260254</t>
   </si>
   <si>
     <t xml:space="preserve">16.9780330657959</t>
@@ -938,55 +938,55 @@
     <t xml:space="preserve">18.2991828918457</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1022415161133</t>
+    <t xml:space="preserve">18.1022396087646</t>
   </si>
   <si>
     <t xml:space="preserve">18.3484191894531</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3566284179688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4633007049561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8642730712891</t>
+    <t xml:space="preserve">18.3566265106201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4633026123047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8642711639404</t>
   </si>
   <si>
     <t xml:space="preserve">18.3402156829834</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7247695922852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5688571929932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4950046539307</t>
+    <t xml:space="preserve">17.7247714996338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5688591003418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4950065612793</t>
   </si>
   <si>
     <t xml:space="preserve">17.8068294525146</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5278282165527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3883285522461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4047374725342</t>
+    <t xml:space="preserve">17.5278301239014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3883304595947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4047393798828</t>
   </si>
   <si>
     <t xml:space="preserve">17.2734451293945</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2242088317871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.04368019104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9452095031738</t>
+    <t xml:space="preserve">17.2242107391357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0436820983887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9452075958252</t>
   </si>
   <si>
     <t xml:space="preserve">16.9287967681885</t>
@@ -995,13 +995,13 @@
     <t xml:space="preserve">17.0190620422363</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2816524505615</t>
+    <t xml:space="preserve">17.2816505432129</t>
   </si>
   <si>
     <t xml:space="preserve">17.4211502075195</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6262989044189</t>
+    <t xml:space="preserve">17.6263008117676</t>
   </si>
   <si>
     <t xml:space="preserve">17.6098880767822</t>
@@ -1013,52 +1013,52 @@
     <t xml:space="preserve">18.0940361022949</t>
   </si>
   <si>
-    <t xml:space="preserve">18.323802947998</t>
+    <t xml:space="preserve">18.3237991333008</t>
   </si>
   <si>
     <t xml:space="preserve">17.9873600006104</t>
   </si>
   <si>
-    <t xml:space="preserve">18.11865234375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1104469299316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1268615722656</t>
+    <t xml:space="preserve">18.1186542510986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1104488372803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1268577575684</t>
   </si>
   <si>
     <t xml:space="preserve">18.3320064544678</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3648319244385</t>
+    <t xml:space="preserve">18.3648300170898</t>
   </si>
   <si>
     <t xml:space="preserve">18.438684463501</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3812408447266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.635627746582</t>
+    <t xml:space="preserve">18.3812427520752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6356258392334</t>
   </si>
   <si>
     <t xml:space="preserve">18.6684513092041</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5371532440186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8079490661621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6520366668701</t>
+    <t xml:space="preserve">18.5371570587158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8079528808594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6520385742188</t>
   </si>
   <si>
     <t xml:space="preserve">18.6192150115967</t>
   </si>
   <si>
-    <t xml:space="preserve">18.783332824707</t>
+    <t xml:space="preserve">18.7833347320557</t>
   </si>
   <si>
     <t xml:space="preserve">19.2182464599609</t>
@@ -1067,7 +1067,7 @@
     <t xml:space="preserve">19.1443939208984</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6930675506592</t>
+    <t xml:space="preserve">18.6930694580078</t>
   </si>
   <si>
     <t xml:space="preserve">18.7669239044189</t>
@@ -1076,40 +1076,40 @@
     <t xml:space="preserve">18.594596862793</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3730373382568</t>
+    <t xml:space="preserve">18.3730354309082</t>
   </si>
   <si>
     <t xml:space="preserve">18.1596832275391</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4222755432129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2335376739502</t>
+    <t xml:space="preserve">18.4222736358643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2335357666016</t>
   </si>
   <si>
     <t xml:space="preserve">18.1925048828125</t>
   </si>
   <si>
-    <t xml:space="preserve">18.135066986084</t>
+    <t xml:space="preserve">18.1350650787354</t>
   </si>
   <si>
     <t xml:space="preserve">17.9217128753662</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6345062255859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5442390441895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3555068969727</t>
+    <t xml:space="preserve">17.6345043182373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5442409515381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3555030822754</t>
   </si>
   <si>
     <t xml:space="preserve">17.0272674560547</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7975025177002</t>
+    <t xml:space="preserve">16.7975006103516</t>
   </si>
   <si>
     <t xml:space="preserve">16.9041786193848</t>
@@ -1118,13 +1118,13 @@
     <t xml:space="preserve">17.191385269165</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6919460296631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9053001403809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.815034866333</t>
+    <t xml:space="preserve">17.6919479370117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9052982330322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8150367736816</t>
   </si>
   <si>
     <t xml:space="preserve">18.0037708282471</t>
@@ -1133,28 +1133,28 @@
     <t xml:space="preserve">17.8396511077881</t>
   </si>
   <si>
-    <t xml:space="preserve">17.962739944458</t>
+    <t xml:space="preserve">17.9627418518066</t>
   </si>
   <si>
     <t xml:space="preserve">17.4293594360352</t>
   </si>
   <si>
-    <t xml:space="preserve">17.035472869873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4703884124756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4621810913086</t>
+    <t xml:space="preserve">17.0354747772217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4703903198242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4621829986572</t>
   </si>
   <si>
     <t xml:space="preserve">17.7822132110596</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6591243743896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8232402801514</t>
+    <t xml:space="preserve">17.659122467041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8232421875</t>
   </si>
   <si>
     <t xml:space="preserve">17.4129428863525</t>
@@ -1163,73 +1163,73 @@
     <t xml:space="preserve">18.3976554870605</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4468898773193</t>
+    <t xml:space="preserve">18.4468879699707</t>
   </si>
   <si>
     <t xml:space="preserve">18.5617752075195</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6274223327637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7751274108887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.47971534729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7258911132812</t>
+    <t xml:space="preserve">18.627420425415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.77512550354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4797134399414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7258930206299</t>
   </si>
   <si>
     <t xml:space="preserve">18.3155956268311</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2827739715576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5781860351562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5114192962646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0201835632324</t>
+    <t xml:space="preserve">18.282772064209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5781841278076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.511417388916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0201816558838</t>
   </si>
   <si>
     <t xml:space="preserve">17.347297668457</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2980651855469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9381256103516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.675537109375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2652397155762</t>
+    <t xml:space="preserve">17.2980632781982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9381237030029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6755352020264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2652416229248</t>
   </si>
   <si>
     <t xml:space="preserve">17.3144760131836</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4961280822754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5793056488037</t>
+    <t xml:space="preserve">18.4961261749268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.579309463501</t>
   </si>
   <si>
     <t xml:space="preserve">19.5136604309082</t>
   </si>
   <si>
-    <t xml:space="preserve">20.03883934021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3178405761719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1701335906982</t>
+    <t xml:space="preserve">20.0388374328613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3178386688232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.170129776001</t>
   </si>
   <si>
     <t xml:space="preserve">20.0716609954834</t>
@@ -1238,103 +1238,103 @@
     <t xml:space="preserve">19.8418960571289</t>
   </si>
   <si>
-    <t xml:space="preserve">19.8254852294922</t>
+    <t xml:space="preserve">19.8254833221436</t>
   </si>
   <si>
     <t xml:space="preserve">19.8911304473877</t>
   </si>
   <si>
-    <t xml:space="preserve">19.8090705871582</t>
+    <t xml:space="preserve">19.8090724945068</t>
   </si>
   <si>
     <t xml:space="preserve">19.9403667449951</t>
   </si>
   <si>
-    <t xml:space="preserve">20.4327182769775</t>
+    <t xml:space="preserve">20.4327220916748</t>
   </si>
   <si>
     <t xml:space="preserve">20.6296634674072</t>
   </si>
   <si>
-    <t xml:space="preserve">20.531192779541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5968418121338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7609577178955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5147800445557</t>
+    <t xml:space="preserve">20.5311946868896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5968399047852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7609558105469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5147819519043</t>
   </si>
   <si>
     <t xml:space="preserve">20.3506622314453</t>
   </si>
   <si>
-    <t xml:space="preserve">20.2850170135498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3342514038086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4655437469482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4163074493408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.383487701416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4491329193115</t>
+    <t xml:space="preserve">20.2850151062012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.33424949646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4655475616455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4163093566895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3834857940674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4491348266602</t>
   </si>
   <si>
     <t xml:space="preserve">20.7281341552734</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8430156707764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7937812805176</t>
+    <t xml:space="preserve">20.843017578125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7937831878662</t>
   </si>
   <si>
     <t xml:space="preserve">20.6788997650146</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7117214202881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6460742950439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8101921081543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2510681152344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4808368682861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1854209899902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1361904144287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2887344360352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0514392852783</t>
+    <t xml:space="preserve">20.7117252349854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6460781097412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8101959228516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2510719299316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4808330535889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1854248046875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1361865997314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2887363433838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0514373779297</t>
   </si>
   <si>
     <t xml:space="preserve">19.492130279541</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3226337432861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7633285522461</t>
+    <t xml:space="preserve">19.3226318359375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7633247375488</t>
   </si>
   <si>
     <t xml:space="preserve">19.6446781158447</t>
@@ -1346,10 +1346,10 @@
     <t xml:space="preserve">19.6955280303955</t>
   </si>
   <si>
-    <t xml:space="preserve">19.6277275085449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2717838287354</t>
+    <t xml:space="preserve">19.6277294158936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.271785736084</t>
   </si>
   <si>
     <t xml:space="preserve">19.559928894043</t>
@@ -1361,7 +1361,7 @@
     <t xml:space="preserve">19.7802772521973</t>
   </si>
   <si>
-    <t xml:space="preserve">19.5429821014404</t>
+    <t xml:space="preserve">19.5429801940918</t>
   </si>
   <si>
     <t xml:space="preserve">19.5938282012939</t>
@@ -1373,37 +1373,37 @@
     <t xml:space="preserve">18.8988914489746</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9158401489258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7971954345703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.017541885376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0683879852295</t>
+    <t xml:space="preserve">18.9158420562744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7971935272217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0175399780273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0683898925781</t>
   </si>
   <si>
     <t xml:space="preserve">19.1361885070801</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9836387634277</t>
+    <t xml:space="preserve">18.9836406707764</t>
   </si>
   <si>
     <t xml:space="preserve">19.1022891998291</t>
   </si>
   <si>
-    <t xml:space="preserve">19.5260314941406</t>
+    <t xml:space="preserve">19.526029586792</t>
   </si>
   <si>
     <t xml:space="preserve">19.6616287231445</t>
   </si>
   <si>
-    <t xml:space="preserve">19.5768814086914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3226661682129</t>
+    <t xml:space="preserve">19.5768795013428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3226680755615</t>
   </si>
   <si>
     <t xml:space="preserve">20.3396148681641</t>
@@ -1415,37 +1415,37 @@
     <t xml:space="preserve">20.0175724029541</t>
   </si>
   <si>
-    <t xml:space="preserve">19.932825088501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7124786376953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2379169464111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9158744812012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6107788085938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8480758666992</t>
+    <t xml:space="preserve">19.9328212738037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7124767303467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2379150390625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9158725738525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6107807159424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8480739593506</t>
   </si>
   <si>
     <t xml:space="preserve">20.4243640899658</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6447105407715</t>
+    <t xml:space="preserve">20.6447086334229</t>
   </si>
   <si>
     <t xml:space="preserve">20.6955585479736</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3904609680176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3057155609131</t>
+    <t xml:space="preserve">20.3904647827148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3057136535645</t>
   </si>
   <si>
     <t xml:space="preserve">20.1701164245605</t>
@@ -1457,34 +1457,34 @@
     <t xml:space="preserve">20.2040176391602</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3565635681152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5091152191162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5260601043701</t>
+    <t xml:space="preserve">20.3565654754639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5091114044189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5260620117188</t>
   </si>
   <si>
     <t xml:space="preserve">20.4921627044678</t>
   </si>
   <si>
-    <t xml:space="preserve">20.9328536987305</t>
+    <t xml:space="preserve">20.9328556060791</t>
   </si>
   <si>
     <t xml:space="preserve">20.6616592407227</t>
   </si>
   <si>
-    <t xml:space="preserve">20.5769119262695</t>
+    <t xml:space="preserve">20.5769100189209</t>
   </si>
   <si>
     <t xml:space="preserve">20.7633571624756</t>
   </si>
   <si>
-    <t xml:space="preserve">21.1023483276367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6108417510986</t>
+    <t xml:space="preserve">21.1023502349854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.61083984375</t>
   </si>
   <si>
     <t xml:space="preserve">21.6955909729004</t>
@@ -1496,40 +1496,40 @@
     <t xml:space="preserve">22.0345821380615</t>
   </si>
   <si>
-    <t xml:space="preserve">22.3905258178711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1023807525635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4921913146973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7294883728027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3904933929443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4074459075928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9667530059814</t>
+    <t xml:space="preserve">22.3905277252197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1023826599121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4921951293945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7294902801514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3904972076416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4074440002441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9667510986328</t>
   </si>
   <si>
     <t xml:space="preserve">20.7294578552246</t>
   </si>
   <si>
-    <t xml:space="preserve">20.5938587188721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9667224884033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8819732666016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5090808868408</t>
+    <t xml:space="preserve">20.5938606262207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9667205810547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8819751739502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5090827941895</t>
   </si>
   <si>
     <t xml:space="preserve">19.3734855651855</t>
@@ -1562,28 +1562,28 @@
     <t xml:space="preserve">18.2717552185059</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0175075531006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6276950836182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9327602386475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1192054748535</t>
+    <t xml:space="preserve">18.0175094604492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6276969909668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9327621459961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1192073822021</t>
   </si>
   <si>
     <t xml:space="preserve">17.9666614532471</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8649635314941</t>
+    <t xml:space="preserve">17.8649616241455</t>
   </si>
   <si>
     <t xml:space="preserve">18.102258682251</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2378559112549</t>
+    <t xml:space="preserve">18.2378540039062</t>
   </si>
   <si>
     <t xml:space="preserve">18.5259990692139</t>
@@ -1592,7 +1592,7 @@
     <t xml:space="preserve">17.8480110168457</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3564720153809</t>
+    <t xml:space="preserve">17.3564701080322</t>
   </si>
   <si>
     <t xml:space="preserve">16.9666309356689</t>
@@ -1604,10 +1604,10 @@
     <t xml:space="preserve">17.1022262573242</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3733882904053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2716903686523</t>
+    <t xml:space="preserve">16.3733901977539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.271692276001</t>
   </si>
   <si>
     <t xml:space="preserve">16.6106853485107</t>
@@ -1616,19 +1616,19 @@
     <t xml:space="preserve">16.4242401123047</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3903408050537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7378101348877</t>
+    <t xml:space="preserve">16.3903388977051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7378082275391</t>
   </si>
   <si>
     <t xml:space="preserve">16.8140811920166</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7039089202881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4581699371338</t>
+    <t xml:space="preserve">16.7039070129395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4581680297852</t>
   </si>
   <si>
     <t xml:space="preserve">17.2717227935791</t>
@@ -1637,10 +1637,10 @@
     <t xml:space="preserve">17.153076171875</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3225727081299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4920673370361</t>
+    <t xml:space="preserve">17.3225708007812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4920692443848</t>
   </si>
   <si>
     <t xml:space="preserve">17.6446151733398</t>
@@ -1655,52 +1655,52 @@
     <t xml:space="preserve">18.4073524475098</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3395519256592</t>
+    <t xml:space="preserve">18.3395538330078</t>
   </si>
   <si>
     <t xml:space="preserve">17.983606338501</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0514087677002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.661563873291</t>
+    <t xml:space="preserve">18.0514049530029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6615657806396</t>
   </si>
   <si>
     <t xml:space="preserve">17.2378234863281</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5768146514893</t>
+    <t xml:space="preserve">17.5768165588379</t>
   </si>
   <si>
     <t xml:space="preserve">17.7293663024902</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8819103240967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4412536621094</t>
+    <t xml:space="preserve">17.8819122314453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4412517547607</t>
   </si>
   <si>
     <t xml:space="preserve">18.1531066894531</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9158115386963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9497089385986</t>
+    <t xml:space="preserve">17.9158096313477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9497108459473</t>
   </si>
   <si>
     <t xml:space="preserve">17.8988628387451</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7463130950928</t>
+    <t xml:space="preserve">17.74631690979</t>
   </si>
   <si>
     <t xml:space="preserve">17.7124137878418</t>
   </si>
   <si>
-    <t xml:space="preserve">17.62766456604</t>
+    <t xml:space="preserve">17.6276664733887</t>
   </si>
   <si>
     <t xml:space="preserve">17.7632637023926</t>
@@ -1709,37 +1709,37 @@
     <t xml:space="preserve">17.3056240081787</t>
   </si>
   <si>
-    <t xml:space="preserve">16.873405456543</t>
+    <t xml:space="preserve">16.8734035491943</t>
   </si>
   <si>
     <t xml:space="preserve">17.1869735717773</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2039241790771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3903713226318</t>
+    <t xml:space="preserve">17.2039222717285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3903694152832</t>
   </si>
   <si>
     <t xml:space="preserve">17.2886734008789</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2547740936279</t>
+    <t xml:space="preserve">17.2547721862793</t>
   </si>
   <si>
     <t xml:space="preserve">17.220874786377</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8903560638428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4242687225342</t>
+    <t xml:space="preserve">16.8903579711914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4242706298828</t>
   </si>
   <si>
     <t xml:space="preserve">17.5429191589355</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8141117095947</t>
+    <t xml:space="preserve">17.8141136169434</t>
   </si>
   <si>
     <t xml:space="preserve">17.5937671661377</t>
@@ -1748,22 +1748,22 @@
     <t xml:space="preserve">17.373420715332</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1700267791748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5005435943604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2462978363037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3310470581055</t>
+    <t xml:space="preserve">17.1700248718262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5005416870117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2462997436523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3310489654541</t>
   </si>
   <si>
     <t xml:space="preserve">17.4157943725586</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1615505218506</t>
+    <t xml:space="preserve">17.1615524291992</t>
   </si>
   <si>
     <t xml:space="preserve">17.0344295501709</t>
@@ -1772,31 +1772,31 @@
     <t xml:space="preserve">17.5852909088135</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6700420379639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3480262756348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1361560821533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0937843322754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8395385742188</t>
+    <t xml:space="preserve">17.6700401306152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3480281829834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.136157989502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0937824249268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8395366668701</t>
   </si>
   <si>
     <t xml:space="preserve">18.0090351104736</t>
   </si>
   <si>
-    <t xml:space="preserve">17.754789352417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9242877960205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1785297393799</t>
+    <t xml:space="preserve">17.7547874450684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9242839813232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1785316467285</t>
   </si>
   <si>
     <t xml:space="preserve">17.9148921966553</t>
@@ -1811,22 +1811,22 @@
     <t xml:space="preserve">17.8268585205078</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2670269012451</t>
+    <t xml:space="preserve">18.2670288085938</t>
   </si>
   <si>
     <t xml:space="preserve">18.1789932250977</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2230129241943</t>
+    <t xml:space="preserve">18.2230110168457</t>
   </si>
   <si>
     <t xml:space="preserve">18.4871120452881</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4430961608887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5311298370361</t>
+    <t xml:space="preserve">18.4430980682373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5311279296875</t>
   </si>
   <si>
     <t xml:space="preserve">18.3550624847412</t>
@@ -1835,13 +1835,13 @@
     <t xml:space="preserve">18.0029258728027</t>
   </si>
   <si>
-    <t xml:space="preserve">17.782844543457</t>
+    <t xml:space="preserve">17.7828407287598</t>
   </si>
   <si>
     <t xml:space="preserve">17.6507911682129</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3426704406738</t>
+    <t xml:space="preserve">17.3426723480225</t>
   </si>
   <si>
     <t xml:space="preserve">17.5011310577393</t>
@@ -1853,19 +1853,19 @@
     <t xml:space="preserve">18.7952327728271</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7512149810791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5751457214355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6191654205322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3110427856445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7388229370117</t>
+    <t xml:space="preserve">18.7512130737305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5751476287842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.619161605835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3110446929932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7388248443604</t>
   </si>
   <si>
     <t xml:space="preserve">17.4307060241699</t>
@@ -1874,19 +1874,19 @@
     <t xml:space="preserve">17.3778858184814</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2370319366455</t>
+    <t xml:space="preserve">17.2370300292969</t>
   </si>
   <si>
     <t xml:space="preserve">17.1666030883789</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2722434997559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1137866973877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3074569702148</t>
+    <t xml:space="preserve">17.2722454071045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1137847900391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3074588775635</t>
   </si>
   <si>
     <t xml:space="preserve">16.8320770263672</t>
@@ -1895,10 +1895,10 @@
     <t xml:space="preserve">16.6912212371826</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7616481781006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0609645843506</t>
+    <t xml:space="preserve">16.7616500854492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.060962677002</t>
   </si>
   <si>
     <t xml:space="preserve">16.4799404144287</t>
@@ -1907,16 +1907,16 @@
     <t xml:space="preserve">16.3743000030518</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6207942962646</t>
+    <t xml:space="preserve">16.620792388916</t>
   </si>
   <si>
     <t xml:space="preserve">16.1101989746094</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3038711547852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6560096740723</t>
+    <t xml:space="preserve">16.3038730621338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6560077667236</t>
   </si>
   <si>
     <t xml:space="preserve">16.5679740905762</t>
@@ -1925,25 +1925,25 @@
     <t xml:space="preserve">16.4095134735107</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3919067382812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3214797973633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2334461212158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9025020599365</t>
+    <t xml:space="preserve">16.3919086456299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3214817047119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2334480285645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9025039672852</t>
   </si>
   <si>
     <t xml:space="preserve">17.289852142334</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3954925537109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.448314666748</t>
+    <t xml:space="preserve">17.3954944610596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4483127593994</t>
   </si>
   <si>
     <t xml:space="preserve">17.6948089599609</t>
@@ -1952,7 +1952,7 @@
     <t xml:space="preserve">19.0593318939209</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1349773406982</t>
+    <t xml:space="preserve">18.1349754333496</t>
   </si>
   <si>
     <t xml:space="preserve">18.3990783691406</t>
@@ -1961,7 +1961,7 @@
     <t xml:space="preserve">17.8708744049072</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6067733764648</t>
+    <t xml:space="preserve">17.6067752838135</t>
   </si>
   <si>
     <t xml:space="preserve">17.254638671875</t>
@@ -1973,7 +1973,7 @@
     <t xml:space="preserve">16.8848972320557</t>
   </si>
   <si>
-    <t xml:space="preserve">17.148998260498</t>
+    <t xml:space="preserve">17.1489963531494</t>
   </si>
   <si>
     <t xml:space="preserve">17.1313896179199</t>
@@ -1982,7 +1982,7 @@
     <t xml:space="preserve">17.4835262298584</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7264347076416</t>
+    <t xml:space="preserve">16.7264366149902</t>
   </si>
   <si>
     <t xml:space="preserve">16.6384010314941</t>
@@ -1994,7 +1994,7 @@
     <t xml:space="preserve">16.4271202087402</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7088260650635</t>
+    <t xml:space="preserve">16.7088279724121</t>
   </si>
   <si>
     <t xml:space="preserve">16.6736145019531</t>
@@ -2006,7 +2006,7 @@
     <t xml:space="preserve">17.360279083252</t>
   </si>
   <si>
-    <t xml:space="preserve">17.325065612793</t>
+    <t xml:space="preserve">17.3250675201416</t>
   </si>
   <si>
     <t xml:space="preserve">16.9553241729736</t>
@@ -2015,16 +2015,16 @@
     <t xml:space="preserve">18.6631813049316</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0469417572021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.219425201416</t>
+    <t xml:space="preserve">18.0469436645508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2194232940674</t>
   </si>
   <si>
     <t xml:space="preserve">16.990535736084</t>
   </si>
   <si>
-    <t xml:space="preserve">17.184211730957</t>
+    <t xml:space="preserve">17.1842098236084</t>
   </si>
   <si>
     <t xml:space="preserve">17.5715579986572</t>
@@ -2033,16 +2033,16 @@
     <t xml:space="preserve">15.4235343933105</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7052412033081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0537919998169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7896881103516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4727687835693</t>
+    <t xml:space="preserve">15.7052421569824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0537929534912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7896890640259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.472767829895</t>
   </si>
   <si>
     <t xml:space="preserve">14.2614879608154</t>
@@ -2051,7 +2051,7 @@
     <t xml:space="preserve">14.0854187011719</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2086658477783</t>
+    <t xml:space="preserve">14.2086668014526</t>
   </si>
   <si>
     <t xml:space="preserve">12.4832029342651</t>
@@ -2060,34 +2060,34 @@
     <t xml:space="preserve">12.694483757019</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1874723434448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7085046768188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1838874816895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7929515838623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0042333602905</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5640640258789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9514122009277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6064500808716</t>
+    <t xml:space="preserve">13.1874732971191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7085056304932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1838884353638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7929525375366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0042343139648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5640649795532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9514131546021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6064491271973</t>
   </si>
   <si>
     <t xml:space="preserve">13.2050800323486</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6452503204346</t>
+    <t xml:space="preserve">13.6452493667603</t>
   </si>
   <si>
     <t xml:space="preserve">12.9233722686768</t>
@@ -2096,7 +2096,7 @@
     <t xml:space="preserve">13.0466194152832</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9021806716919</t>
+    <t xml:space="preserve">11.9021797180176</t>
   </si>
   <si>
     <t xml:space="preserve">11.5852575302124</t>
@@ -2108,10 +2108,10 @@
     <t xml:space="preserve">10.8281660079956</t>
   </si>
   <si>
-    <t xml:space="preserve">11.092267036438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.162693977356</t>
+    <t xml:space="preserve">11.0922679901123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1626949310303</t>
   </si>
   <si>
     <t xml:space="preserve">11.1803007125854</t>
@@ -2120,22 +2120,22 @@
     <t xml:space="preserve">11.0394477844238</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7753448486328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6697044372559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5816717147827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1098737716675</t>
+    <t xml:space="preserve">10.7753458023071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6697053909302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5816707611084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1098747253418</t>
   </si>
   <si>
     <t xml:space="preserve">11.3563690185547</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9338073730469</t>
+    <t xml:space="preserve">10.9338054656982</t>
   </si>
   <si>
     <t xml:space="preserve">10.6873121261597</t>
@@ -2144,46 +2144,46 @@
     <t xml:space="preserve">10.8809862136841</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6168851852417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.652099609375</t>
+    <t xml:space="preserve">10.6168842315674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6520977020264</t>
   </si>
   <si>
     <t xml:space="preserve">10.7401323318481</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5288505554199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0358610153198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.088680267334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.89500713348389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.70133209228516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.63090419769287</t>
+    <t xml:space="preserve">10.5288515090942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0358600616455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0886812210083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.89500617980957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.70133304595947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.6309061050415</t>
   </si>
   <si>
     <t xml:space="preserve">10.282356262207</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7577381134033</t>
+    <t xml:space="preserve">10.7577390670776</t>
   </si>
   <si>
     <t xml:space="preserve">10.2999620437622</t>
   </si>
   <si>
-    <t xml:space="preserve">9.96543407440186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0746603012085</t>
+    <t xml:space="preserve">9.96543312072754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0746612548828</t>
   </si>
   <si>
     <t xml:space="preserve">10.8457727432251</t>
@@ -2192,13 +2192,13 @@
     <t xml:space="preserve">11.0570545196533</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6732912063599</t>
+    <t xml:space="preserve">11.6732921600342</t>
   </si>
   <si>
     <t xml:space="preserve">11.5676507949829</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6556844711304</t>
+    <t xml:space="preserve">11.6556835174561</t>
   </si>
   <si>
     <t xml:space="preserve">11.4796161651611</t>
@@ -2210,34 +2210,34 @@
     <t xml:space="preserve">12.5360221862793</t>
   </si>
   <si>
-    <t xml:space="preserve">12.500807762146</t>
+    <t xml:space="preserve">12.5008087158203</t>
   </si>
   <si>
     <t xml:space="preserve">12.3071346282959</t>
   </si>
   <si>
-    <t xml:space="preserve">12.060640335083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3387613296509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6204710006714</t>
+    <t xml:space="preserve">12.0606393814087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3387622833252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6204700469971</t>
   </si>
   <si>
     <t xml:space="preserve">11.6380777359009</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9549989700317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9726076126099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.86696434021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0254259109497</t>
+    <t xml:space="preserve">11.9549999237061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9726066589355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8669662475586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.025426864624</t>
   </si>
   <si>
     <t xml:space="preserve">11.990213394165</t>
@@ -2246,7 +2246,7 @@
     <t xml:space="preserve">11.7613248825073</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6908979415894</t>
+    <t xml:space="preserve">11.690896987915</t>
   </si>
   <si>
     <t xml:space="preserve">11.7437181472778</t>
@@ -2255,25 +2255,25 @@
     <t xml:space="preserve">11.4972229003906</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5148305892944</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2331228256226</t>
+    <t xml:space="preserve">11.5148296356201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2331218719482</t>
   </si>
   <si>
     <t xml:space="preserve">11.0218410491943</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3035497665405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.986626625061</t>
+    <t xml:space="preserve">11.3035488128662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9866275787354</t>
   </si>
   <si>
     <t xml:space="preserve">10.8633785247803</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6028652191162</t>
+    <t xml:space="preserve">11.6028642654419</t>
   </si>
   <si>
     <t xml:space="preserve">11.1979084014893</t>
@@ -2282,16 +2282,16 @@
     <t xml:space="preserve">11.1450872421265</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2683362960815</t>
+    <t xml:space="preserve">11.2683353424072</t>
   </si>
   <si>
     <t xml:space="preserve">11.1274814605713</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6344909667969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9690208435059</t>
+    <t xml:space="preserve">10.6344919204712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9690198898315</t>
   </si>
   <si>
     <t xml:space="preserve">11.4444026947021</t>
@@ -2300,16 +2300,16 @@
     <t xml:space="preserve">11.2507276535034</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8141460418701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1134595870972</t>
+    <t xml:space="preserve">11.8141450881958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1134605407715</t>
   </si>
   <si>
     <t xml:space="preserve">12.1310663223267</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9197854995728</t>
+    <t xml:space="preserve">11.9197864532471</t>
   </si>
   <si>
     <t xml:space="preserve">11.5324363708496</t>
@@ -2318,10 +2318,10 @@
     <t xml:space="preserve">12.0078201293945</t>
   </si>
   <si>
-    <t xml:space="preserve">12.095853805542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2191019058228</t>
+    <t xml:space="preserve">12.0958528518677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2191009521484</t>
   </si>
   <si>
     <t xml:space="preserve">12.5888442993164</t>
@@ -2330,28 +2330,28 @@
     <t xml:space="preserve">12.9585857391357</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7120895385742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.800124168396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0114059448242</t>
+    <t xml:space="preserve">12.7120904922485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8001251220703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0114049911499</t>
   </si>
   <si>
     <t xml:space="preserve">12.0782470703125</t>
   </si>
   <si>
-    <t xml:space="preserve">11.796537399292</t>
+    <t xml:space="preserve">11.7965383529663</t>
   </si>
   <si>
     <t xml:space="preserve">11.2859420776367</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8985939025879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1415023803711</t>
+    <t xml:space="preserve">10.8985919952393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1415014266968</t>
   </si>
   <si>
     <t xml:space="preserve">10.2119293212891</t>
@@ -2360,13 +2360,13 @@
     <t xml:space="preserve">10.247142791748</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1943216323853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3527841567993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2579011917114</t>
+    <t xml:space="preserve">10.1943225860596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.352783203125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2579002380371</t>
   </si>
   <si>
     <t xml:space="preserve">13.8037109375</t>
@@ -2375,19 +2375,19 @@
     <t xml:space="preserve">12.9409790039062</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6276426315308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1382389068604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1698656082153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0290126800537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.50439453125</t>
+    <t xml:space="preserve">13.6276435852051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1382398605347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1698665618896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.029013633728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5043954849243</t>
   </si>
   <si>
     <t xml:space="preserve">13.698070526123</t>
@@ -2399,13 +2399,13 @@
     <t xml:space="preserve">13.7861032485962</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8741369247437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8213176727295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8917446136475</t>
+    <t xml:space="preserve">13.874137878418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8213167190552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8917436599731</t>
   </si>
   <si>
     <t xml:space="preserve">13.838924407959</t>
@@ -2414,7 +2414,7 @@
     <t xml:space="preserve">13.4515752792358</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2226886749268</t>
+    <t xml:space="preserve">13.2226877212524</t>
   </si>
   <si>
     <t xml:space="preserve">13.2755069732666</t>
@@ -2423,10 +2423,10 @@
     <t xml:space="preserve">13.5220022201538</t>
   </si>
   <si>
-    <t xml:space="preserve">13.134654045105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2402944564819</t>
+    <t xml:space="preserve">13.1346530914307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2402935028076</t>
   </si>
   <si>
     <t xml:space="preserve">13.4339685440063</t>
@@ -2435,25 +2435,25 @@
     <t xml:space="preserve">13.7508897781372</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7156772613525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3671274185181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8425121307373</t>
+    <t xml:space="preserve">13.7156763076782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3671264648438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8425102233887</t>
   </si>
   <si>
     <t xml:space="preserve">15.247465133667</t>
   </si>
   <si>
-    <t xml:space="preserve">15.476354598999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5996007919312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6700277328491</t>
+    <t xml:space="preserve">15.4763536453247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5996026992798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6700296401978</t>
   </si>
   <si>
     <t xml:space="preserve">15.5291738510132</t>
@@ -2462,13 +2462,13 @@
     <t xml:space="preserve">14.9657564163208</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3178939819336</t>
+    <t xml:space="preserve">15.317892074585</t>
   </si>
   <si>
     <t xml:space="preserve">15.6876363754272</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6524238586426</t>
+    <t xml:space="preserve">15.6524229049683</t>
   </si>
   <si>
     <t xml:space="preserve">15.3883190155029</t>
@@ -2477,13 +2477,13 @@
     <t xml:space="preserve">15.2298583984375</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1242189407349</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1066131591797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6312294006348</t>
+    <t xml:space="preserve">15.1242198944092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1066122055054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6312303543091</t>
   </si>
   <si>
     <t xml:space="preserve">14.8777236938477</t>
@@ -2492,19 +2492,19 @@
     <t xml:space="preserve">14.9129390716553</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1594305038452</t>
+    <t xml:space="preserve">15.1594314575195</t>
   </si>
   <si>
     <t xml:space="preserve">15.9693431854248</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8460969924927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3390846252441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2862682342529</t>
+    <t xml:space="preserve">15.846095085144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3390865325928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2862644195557</t>
   </si>
   <si>
     <t xml:space="preserve">16.9729309082031</t>
@@ -2513,16 +2513,16 @@
     <t xml:space="preserve">15.8108825683594</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8989162445068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8284893035889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.916524887085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7968616485596</t>
+    <t xml:space="preserve">15.8989171981812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8284902572632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.916522026062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7968635559082</t>
   </si>
   <si>
     <t xml:space="preserve">16.6031875610352</t>
@@ -2540,25 +2540,25 @@
     <t xml:space="preserve">16.5151538848877</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9341287612915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1982326507568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1630172729492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0749855041504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4447288513184</t>
+    <t xml:space="preserve">15.9341297149658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1982307434082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1630210876465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0749835968018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4447269439697</t>
   </si>
   <si>
     <t xml:space="preserve">16.5855808258057</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1454124450684</t>
+    <t xml:space="preserve">16.1454105377197</t>
   </si>
   <si>
     <t xml:space="preserve">16.4535312652588</t>
@@ -2576,7 +2576,7 @@
     <t xml:space="preserve">16.5327606201172</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8232727050781</t>
+    <t xml:space="preserve">16.8232707977295</t>
   </si>
   <si>
     <t xml:space="preserve">16.6824188232422</t>
@@ -2591,37 +2591,37 @@
     <t xml:space="preserve">16.7176322937012</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3831043243408</t>
+    <t xml:space="preserve">16.3831024169922</t>
   </si>
   <si>
     <t xml:space="preserve">17.404296875</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5979690551758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.840877532959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.069766998291</t>
+    <t xml:space="preserve">17.5979709625244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8408794403076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0697689056396</t>
   </si>
   <si>
     <t xml:space="preserve">17.0961761474609</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4747219085693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6419887542725</t>
+    <t xml:space="preserve">17.474723815918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6419868469238</t>
   </si>
   <si>
     <t xml:space="preserve">17.8532676696777</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7300205230713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9413013458252</t>
+    <t xml:space="preserve">17.7300186157227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9413032531738</t>
   </si>
   <si>
     <t xml:space="preserve">17.9765167236328</t>
@@ -2630,64 +2630,64 @@
     <t xml:space="preserve">18.1877975463867</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3638668060303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5047187805176</t>
+    <t xml:space="preserve">18.3638648986816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5047206878662</t>
   </si>
   <si>
     <t xml:space="preserve">18.5223274230957</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2758312225342</t>
+    <t xml:space="preserve">18.2758293151855</t>
   </si>
   <si>
     <t xml:space="preserve">17.7476291656494</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2054061889648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0997619628906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0821571350098</t>
+    <t xml:space="preserve">18.2054023742676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0997638702393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0821590423584</t>
   </si>
   <si>
     <t xml:space="preserve">17.9236965179443</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8004474639893</t>
+    <t xml:space="preserve">17.8004455566406</t>
   </si>
   <si>
     <t xml:space="preserve">17.8884830474854</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2582225799561</t>
+    <t xml:space="preserve">18.2582244873047</t>
   </si>
   <si>
     <t xml:space="preserve">18.1525859832764</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1701889038086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7652339935303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4166870117188</t>
+    <t xml:space="preserve">18.1701908111572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7652359008789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4166831970215</t>
   </si>
   <si>
     <t xml:space="preserve">18.3286514282227</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9060878753662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8936996459961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2018203735352</t>
+    <t xml:space="preserve">17.9060897827148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8936977386475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2018184661865</t>
   </si>
   <si>
     <t xml:space="preserve">17.2282295227051</t>
@@ -2696,7 +2696,7 @@
     <t xml:space="preserve">17.624382019043</t>
   </si>
   <si>
-    <t xml:space="preserve">19.8428344726562</t>
+    <t xml:space="preserve">19.8428363800049</t>
   </si>
   <si>
     <t xml:space="preserve">19.3146305084229</t>
@@ -2705,7 +2705,7 @@
     <t xml:space="preserve">19.2794170379639</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6983947753906</t>
+    <t xml:space="preserve">18.698392868042</t>
   </si>
   <si>
     <t xml:space="preserve">19.191385269165</t>
@@ -2714,49 +2714,49 @@
     <t xml:space="preserve">18.7336082458496</t>
   </si>
   <si>
-    <t xml:space="preserve">18.892068862915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4695053100586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3814716339111</t>
+    <t xml:space="preserve">18.8920669555664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4695072174072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3814697265625</t>
   </si>
   <si>
     <t xml:space="preserve">18.0645503997803</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8180561065674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0117282867432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2406158447266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4131011962891</t>
+    <t xml:space="preserve">17.8180541992188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0117301940918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2406177520752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4130992889404</t>
   </si>
   <si>
     <t xml:space="preserve">17.4219036102295</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0345554351807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1578006744385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6103610992432</t>
+    <t xml:space="preserve">17.034553527832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1578025817871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6103591918945</t>
   </si>
   <si>
     <t xml:space="preserve">18.1173706054688</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2934398651123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.76881980896</t>
+    <t xml:space="preserve">18.2934379577637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7688217163086</t>
   </si>
   <si>
     <t xml:space="preserve">18.5575408935547</t>
@@ -2765,7 +2765,7 @@
     <t xml:space="preserve">18.3361072540283</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3002967834473</t>
+    <t xml:space="preserve">18.3002948760986</t>
   </si>
   <si>
     <t xml:space="preserve">18.4077320098877</t>
@@ -2774,49 +2774,49 @@
     <t xml:space="preserve">18.6226081848145</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4793586730957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.443546295166</t>
+    <t xml:space="preserve">18.4793567657471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4435443878174</t>
   </si>
   <si>
     <t xml:space="preserve">18.747953414917</t>
   </si>
   <si>
-    <t xml:space="preserve">18.515172958374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5330791473389</t>
+    <t xml:space="preserve">18.5151691436768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5330772399902</t>
   </si>
   <si>
     <t xml:space="preserve">18.2286701202393</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0854206085205</t>
+    <t xml:space="preserve">18.0854187011719</t>
   </si>
   <si>
     <t xml:space="preserve">18.0496063232422</t>
   </si>
   <si>
-    <t xml:space="preserve">17.995885848999</t>
+    <t xml:space="preserve">17.9958877563477</t>
   </si>
   <si>
     <t xml:space="preserve">17.8974018096924</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1391372680664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9063549041748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7810096740723</t>
+    <t xml:space="preserve">18.139139175415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9063568115234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7810115814209</t>
   </si>
   <si>
     <t xml:space="preserve">18.2644824981689</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1990528106689</t>
+    <t xml:space="preserve">17.1990547180176</t>
   </si>
   <si>
     <t xml:space="preserve">17.0826625823975</t>
@@ -2825,13 +2825,13 @@
     <t xml:space="preserve">17.136381149292</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7603492736816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6529102325439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8319721221924</t>
+    <t xml:space="preserve">16.760347366333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6529121398926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.831974029541</t>
   </si>
   <si>
     <t xml:space="preserve">16.3574562072754</t>
@@ -2846,7 +2846,7 @@
     <t xml:space="preserve">16.3664093017578</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5633792877197</t>
+    <t xml:space="preserve">16.5633773803711</t>
   </si>
   <si>
     <t xml:space="preserve">16.5365180969238</t>
@@ -2855,10 +2855,10 @@
     <t xml:space="preserve">16.8051147460938</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0289440155029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8498783111572</t>
+    <t xml:space="preserve">17.0289421081543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8498802185059</t>
   </si>
   <si>
     <t xml:space="preserve">16.8677864074707</t>
@@ -2867,7 +2867,7 @@
     <t xml:space="preserve">16.9931297302246</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9125518798828</t>
+    <t xml:space="preserve">16.9125499725342</t>
   </si>
   <si>
     <t xml:space="preserve">16.7334899902344</t>
@@ -2876,34 +2876,34 @@
     <t xml:space="preserve">16.7424430847168</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4648933410645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4380340576172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1157207489014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1694393157959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3395500183105</t>
+    <t xml:space="preserve">16.4648914337158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4380359649658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1157188415527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1694374084473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3395481109619</t>
   </si>
   <si>
     <t xml:space="preserve">16.9215049743652</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1005706787109</t>
+    <t xml:space="preserve">17.1005687713623</t>
   </si>
   <si>
     <t xml:space="preserve">17.2975387573242</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4586963653564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5454730987549</t>
+    <t xml:space="preserve">17.4586944580078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5454711914062</t>
   </si>
   <si>
     <t xml:space="preserve">16.6618633270264</t>
@@ -2915,34 +2915,34 @@
     <t xml:space="preserve">16.9483661651611</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3154468536377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8946475982666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.002082824707</t>
+    <t xml:space="preserve">17.3154449462891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.894645690918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0020847320557</t>
   </si>
   <si>
     <t xml:space="preserve">16.4917526245117</t>
   </si>
   <si>
-    <t xml:space="preserve">15.93665599823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0799045562744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4827995300293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7872066497803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.518611907959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8588314056396</t>
+    <t xml:space="preserve">15.9366550445557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.079906463623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4827976226807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7872085571289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5186138153076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8588333129883</t>
   </si>
   <si>
     <t xml:space="preserve">17.1274280548096</t>
@@ -2951,10 +2951,10 @@
     <t xml:space="preserve">16.8409252166748</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4022197723389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8918886184692</t>
+    <t xml:space="preserve">16.4022216796875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8918905258179</t>
   </si>
   <si>
     <t xml:space="preserve">15.9456090927124</t>
@@ -2963,25 +2963,25 @@
     <t xml:space="preserve">16.0978126525879</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3843154907227</t>
+    <t xml:space="preserve">16.384313583374</t>
   </si>
   <si>
     <t xml:space="preserve">16.590238571167</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4290790557861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0888576507568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6680593490601</t>
+    <t xml:space="preserve">16.4290809631348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0888595581055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6680612564087</t>
   </si>
   <si>
     <t xml:space="preserve">15.2920265197754</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5847272872925</t>
+    <t xml:space="preserve">14.5847263336182</t>
   </si>
   <si>
     <t xml:space="preserve">14.9159936904907</t>
@@ -2996,10 +2996,10 @@
     <t xml:space="preserve">14.4235696792603</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9490509033203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5103445053101</t>
+    <t xml:space="preserve">13.949049949646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5103454589844</t>
   </si>
   <si>
     <t xml:space="preserve">13.3760471343994</t>
@@ -3014,19 +3014,19 @@
     <t xml:space="preserve">13.9311447143555</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3429908752441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7727422714233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1370668411255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3608980178833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6625499725342</t>
+    <t xml:space="preserve">14.3429899215698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7727432250977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1370677947998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.360897064209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6625490188599</t>
   </si>
   <si>
     <t xml:space="preserve">13.7252206802368</t>
@@ -3038,7 +3038,7 @@
     <t xml:space="preserve">13.4118595123291</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1790781021118</t>
+    <t xml:space="preserve">13.1790771484375</t>
   </si>
   <si>
     <t xml:space="preserve">13.2507028579712</t>
@@ -3047,7 +3047,7 @@
     <t xml:space="preserve">13.4655790328979</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4387187957764</t>
+    <t xml:space="preserve">13.4387197494507</t>
   </si>
   <si>
     <t xml:space="preserve">13.5013914108276</t>
@@ -3065,7 +3065,7 @@
     <t xml:space="preserve">13.1074514389038</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1253576278687</t>
+    <t xml:space="preserve">13.125358581543</t>
   </si>
   <si>
     <t xml:space="preserve">13.3581409454346</t>
@@ -3074,10 +3074,10 @@
     <t xml:space="preserve">14.2355518341064</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2176456451416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2713651657104</t>
+    <t xml:space="preserve">14.2176465988159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2713642120361</t>
   </si>
   <si>
     <t xml:space="preserve">14.6294927597046</t>
@@ -3092,19 +3092,19 @@
     <t xml:space="preserve">13.7520799636841</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8774261474609</t>
+    <t xml:space="preserve">13.8774251937866</t>
   </si>
   <si>
     <t xml:space="preserve">13.4834861755371</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5551118850708</t>
+    <t xml:space="preserve">13.5551109313965</t>
   </si>
   <si>
     <t xml:space="preserve">13.1611709594727</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9642009735107</t>
+    <t xml:space="preserve">12.9642000198364</t>
   </si>
   <si>
     <t xml:space="preserve">12.7851371765137</t>
@@ -3113,10 +3113,10 @@
     <t xml:space="preserve">12.6060743331909</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8925752639771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9104814529419</t>
+    <t xml:space="preserve">12.8925743103027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9104824066162</t>
   </si>
   <si>
     <t xml:space="preserve">12.9821071624756</t>
@@ -3128,7 +3128,7 @@
     <t xml:space="preserve">13.1432647705078</t>
   </si>
   <si>
-    <t xml:space="preserve">13.053731918335</t>
+    <t xml:space="preserve">13.0537328720093</t>
   </si>
   <si>
     <t xml:space="preserve">12.5523548126221</t>
@@ -3143,13 +3143,13 @@
     <t xml:space="preserve">12.178035736084</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0668201446533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6228952407837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6414308547974</t>
+    <t xml:space="preserve">12.0668210983276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6228942871094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6414318084717</t>
   </si>
   <si>
     <t xml:space="preserve">13.1975049972534</t>
@@ -3158,25 +3158,25 @@
     <t xml:space="preserve">12.8453245162964</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7526454925537</t>
+    <t xml:space="preserve">12.752646446228</t>
   </si>
   <si>
     <t xml:space="preserve">12.7155742645264</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9380035400391</t>
+    <t xml:space="preserve">12.9380044937134</t>
   </si>
   <si>
     <t xml:space="preserve">13.0862903594971</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3272562026978</t>
+    <t xml:space="preserve">13.3272571563721</t>
   </si>
   <si>
     <t xml:space="preserve">13.0677547454834</t>
   </si>
   <si>
-    <t xml:space="preserve">12.307785987854</t>
+    <t xml:space="preserve">12.3077850341797</t>
   </si>
   <si>
     <t xml:space="preserve">12.1409645080566</t>
@@ -3185,7 +3185,7 @@
     <t xml:space="preserve">11.881462097168</t>
   </si>
   <si>
-    <t xml:space="preserve">12.437536239624</t>
+    <t xml:space="preserve">12.4375371932983</t>
   </si>
   <si>
     <t xml:space="preserve">12.2892503738403</t>
@@ -3206,13 +3206,13 @@
     <t xml:space="preserve">12.4746084213257</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1965713500977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9556045532227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4736747741699</t>
+    <t xml:space="preserve">12.1965703964233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.955605506897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4736738204956</t>
   </si>
   <si>
     <t xml:space="preserve">11.73317527771</t>
@@ -3224,13 +3224,13 @@
     <t xml:space="preserve">12.085355758667</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9370698928833</t>
+    <t xml:space="preserve">11.937068939209</t>
   </si>
   <si>
     <t xml:space="preserve">11.7146396636963</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5107460021973</t>
+    <t xml:space="preserve">11.5107450485229</t>
   </si>
   <si>
     <t xml:space="preserve">12.0297479629517</t>
@@ -3248,7 +3248,7 @@
     <t xml:space="preserve">12.3263216018677</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5116806030273</t>
+    <t xml:space="preserve">12.511679649353</t>
   </si>
   <si>
     <t xml:space="preserve">12.5487518310547</t>
@@ -3266,22 +3266,22 @@
     <t xml:space="preserve">12.252179145813</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1224279403687</t>
+    <t xml:space="preserve">12.1224269866943</t>
   </si>
   <si>
     <t xml:space="preserve">11.7887830734253</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7702465057373</t>
+    <t xml:space="preserve">11.7702474594116</t>
   </si>
   <si>
     <t xml:space="preserve">11.3809947967529</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3439226150513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3253879547119</t>
+    <t xml:space="preserve">11.3439235687256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3253870010376</t>
   </si>
   <si>
     <t xml:space="preserve">11.1585655212402</t>
@@ -3290,13 +3290,13 @@
     <t xml:space="preserve">10.9175987243652</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8619918823242</t>
+    <t xml:space="preserve">10.8619928359985</t>
   </si>
   <si>
     <t xml:space="preserve">10.6766338348389</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7693119049072</t>
+    <t xml:space="preserve">10.7693128585815</t>
   </si>
   <si>
     <t xml:space="preserve">10.3800601959229</t>
@@ -3308,10 +3308,10 @@
     <t xml:space="preserve">10.4171314239502</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3615245819092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6024904251099</t>
+    <t xml:space="preserve">10.3615255355835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6024894714355</t>
   </si>
   <si>
     <t xml:space="preserve">10.8249206542969</t>
@@ -3320,13 +3320,13 @@
     <t xml:space="preserve">9.86105823516846</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1020221710205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.78691387176514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.82398700714111</t>
+    <t xml:space="preserve">10.1020231246948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.78691482543945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.8239860534668</t>
   </si>
   <si>
     <t xml:space="preserve">9.62009143829346</t>
@@ -3344,10 +3344,10 @@
     <t xml:space="preserve">9.00840950012207</t>
   </si>
   <si>
-    <t xml:space="preserve">8.69330024719238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.96207046508789</t>
+    <t xml:space="preserve">8.6933012008667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.96206951141357</t>
   </si>
   <si>
     <t xml:space="preserve">8.98060607910156</t>
@@ -3359,13 +3359,13 @@
     <t xml:space="preserve">9.09182167053223</t>
   </si>
   <si>
-    <t xml:space="preserve">8.86012363433838</t>
+    <t xml:space="preserve">8.86012268066406</t>
   </si>
   <si>
     <t xml:space="preserve">9.07328510284424</t>
   </si>
   <si>
-    <t xml:space="preserve">9.11962413787842</t>
+    <t xml:space="preserve">9.11962509155273</t>
   </si>
   <si>
     <t xml:space="preserve">9.39766216278076</t>
@@ -3380,25 +3380,25 @@
     <t xml:space="preserve">9.56448459625244</t>
   </si>
   <si>
-    <t xml:space="preserve">9.37912559509277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.26791095733643</t>
+    <t xml:space="preserve">9.37912654876709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.26791191101074</t>
   </si>
   <si>
     <t xml:space="preserve">9.58302021026611</t>
   </si>
   <si>
-    <t xml:space="preserve">9.65716361999512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.99080753326416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.87959289550781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.84252166748047</t>
+    <t xml:space="preserve">9.6571626663208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.99080848693848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.87959384918213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.84252071380615</t>
   </si>
   <si>
     <t xml:space="preserve">9.9722728729248</t>
@@ -3413,7 +3413,7 @@
     <t xml:space="preserve">10.2132387161255</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5283470153809</t>
+    <t xml:space="preserve">10.5283460617065</t>
   </si>
   <si>
     <t xml:space="preserve">10.8990640640259</t>
@@ -3422,7 +3422,7 @@
     <t xml:space="preserve">10.2503099441528</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2317743301392</t>
+    <t xml:space="preserve">10.2317733764648</t>
   </si>
   <si>
     <t xml:space="preserve">10.2688455581665</t>
@@ -3431,19 +3431,19 @@
     <t xml:space="preserve">10.4356679916382</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6580972671509</t>
+    <t xml:space="preserve">10.6580982208252</t>
   </si>
   <si>
     <t xml:space="preserve">10.2873821258545</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5468835830688</t>
+    <t xml:space="preserve">10.5468826293945</t>
   </si>
   <si>
     <t xml:space="preserve">10.5839548110962</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4912757873535</t>
+    <t xml:space="preserve">10.4912748336792</t>
   </si>
   <si>
     <t xml:space="preserve">10.4727401733398</t>
@@ -3455,7 +3455,7 @@
     <t xml:space="preserve">10.6951694488525</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3985958099365</t>
+    <t xml:space="preserve">10.3985967636108</t>
   </si>
   <si>
     <t xml:space="preserve">10.5654182434082</t>
@@ -3464,7 +3464,7 @@
     <t xml:space="preserve">10.6210260391235</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0844211578369</t>
+    <t xml:space="preserve">11.0844221115112</t>
   </si>
   <si>
     <t xml:space="preserve">11.3068513870239</t>
@@ -3482,7 +3482,7 @@
     <t xml:space="preserve">11.5848894119263</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6961030960083</t>
+    <t xml:space="preserve">11.6961040496826</t>
   </si>
   <si>
     <t xml:space="preserve">12.0482845306396</t>
@@ -3506,19 +3506,19 @@
     <t xml:space="preserve">11.2512445449829</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2141733169556</t>
+    <t xml:space="preserve">11.2141723632812</t>
   </si>
   <si>
     <t xml:space="preserve">11.1214933395386</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8063850402832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8434562683105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6395616531372</t>
+    <t xml:space="preserve">10.8063840866089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8434553146362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6395606994629</t>
   </si>
   <si>
     <t xml:space="preserve">10.4542036056519</t>
@@ -3533,13 +3533,13 @@
     <t xml:space="preserve">10.9917421340942</t>
   </si>
   <si>
-    <t xml:space="preserve">12.233642578125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6785020828247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.418999671936</t>
+    <t xml:space="preserve">12.2336416244507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.678503036499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4190006256104</t>
   </si>
   <si>
     <t xml:space="preserve">12.8638610839844</t>
@@ -3554,7 +3554,7 @@
     <t xml:space="preserve">12.60435962677</t>
   </si>
   <si>
-    <t xml:space="preserve">12.808253288269</t>
+    <t xml:space="preserve">12.8082523345947</t>
   </si>
   <si>
     <t xml:space="preserve">12.7711811065674</t>
@@ -3566,7 +3566,7 @@
     <t xml:space="preserve">13.9760093688965</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8647956848145</t>
+    <t xml:space="preserve">13.8647947311401</t>
   </si>
   <si>
     <t xml:space="preserve">13.6609010696411</t>
@@ -4032,6 +4032,9 @@
   </si>
   <si>
     <t xml:space="preserve">12.1999998092651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1000003814697</t>
   </si>
 </sst>
 </file>
@@ -60169,7 +60172,7 @@
     </row>
     <row r="2147">
       <c r="A2147" s="1" t="n">
-        <v>45450.6493865741</v>
+        <v>45450.2916666667</v>
       </c>
       <c r="B2147" t="n">
         <v>309126</v>
@@ -60190,6 +60193,32 @@
         <v>1339</v>
       </c>
       <c r="H2147" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2148">
+      <c r="A2148" s="1" t="n">
+        <v>45453.6494907407</v>
+      </c>
+      <c r="B2148" t="n">
+        <v>182720</v>
+      </c>
+      <c r="C2148" t="n">
+        <v>12.2600002288818</v>
+      </c>
+      <c r="D2148" t="n">
+        <v>12</v>
+      </c>
+      <c r="E2148" t="n">
+        <v>12.0600004196167</v>
+      </c>
+      <c r="F2148" t="n">
+        <v>12.1000003814697</v>
+      </c>
+      <c r="G2148" t="s">
+        <v>1340</v>
+      </c>
+      <c r="H2148" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/MARR.MI.xlsx
+++ b/data/MARR.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1342" uniqueCount="1342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1344" uniqueCount="1344">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,34 +38,34 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2729806900024</t>
+    <t xml:space="preserve">14.2729787826538</t>
   </si>
   <si>
     <t xml:space="preserve">MARR.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1047010421753</t>
+    <t xml:space="preserve">14.1047019958496</t>
   </si>
   <si>
     <t xml:space="preserve">13.9899673461914</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7910919189453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7451972961426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3627490997314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4315910339355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5157318115234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2021245956421</t>
+    <t xml:space="preserve">13.7910947799683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7451982498169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3627510070801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4315900802612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5157299041748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2021226882935</t>
   </si>
   <si>
     <t xml:space="preserve">13.2097721099854</t>
@@ -74,37 +74,37 @@
     <t xml:space="preserve">12.720235824585</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8273229598999</t>
+    <t xml:space="preserve">12.8273239135742</t>
   </si>
   <si>
     <t xml:space="preserve">12.3607349395752</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9650058746338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6228141784668</t>
+    <t xml:space="preserve">12.9650049209595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6228132247925</t>
   </si>
   <si>
     <t xml:space="preserve">13.4545383453369</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3321561813354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3245077133179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4162940979004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5004320144653</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7681455612183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5616254806519</t>
+    <t xml:space="preserve">13.3321542739868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3245048522949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4162969589233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5004329681396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7681465148926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5616235733032</t>
   </si>
   <si>
     <t xml:space="preserve">13.0873899459839</t>
@@ -113,28 +113,28 @@
     <t xml:space="preserve">13.2786130905151</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0491428375244</t>
+    <t xml:space="preserve">13.0491418838501</t>
   </si>
   <si>
     <t xml:space="preserve">12.1083192825317</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1542139053345</t>
+    <t xml:space="preserve">12.1542129516602</t>
   </si>
   <si>
     <t xml:space="preserve">12.6131525039673</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2995433807373</t>
+    <t xml:space="preserve">12.2995452880859</t>
   </si>
   <si>
     <t xml:space="preserve">12.6208009719849</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6590452194214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7814283370972</t>
+    <t xml:space="preserve">12.6590461730957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7814273834229</t>
   </si>
   <si>
     <t xml:space="preserve">12.9497060775757</t>
@@ -146,31 +146,31 @@
     <t xml:space="preserve">13.4851331710815</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3780508041382</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3474540710449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7299022674561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9670171737671</t>
+    <t xml:space="preserve">13.3780469894409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3474531173706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7299003601074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.96702003479</t>
   </si>
   <si>
     <t xml:space="preserve">13.7375507354736</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8752307891846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6763582229614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3703994750977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8196725845337</t>
+    <t xml:space="preserve">13.8752326965332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6763572692871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.370400428772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8196744918823</t>
   </si>
   <si>
     <t xml:space="preserve">13.1179838180542</t>
@@ -179,358 +179,358 @@
     <t xml:space="preserve">13.4468898773193</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5998687744141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4774875640869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6610612869263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2174224853516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1026859283447</t>
+    <t xml:space="preserve">13.5998697280884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4774866104126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6610631942749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2174196243286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1026849746704</t>
   </si>
   <si>
     <t xml:space="preserve">13.4621887207031</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5386772155762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9593715667725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0817546844482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1505937576294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8828792572021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9976148605347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0741033554077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5483407974243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3188724517822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1658926010132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7987422943115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6916561126709</t>
+    <t xml:space="preserve">13.5386762619019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9593696594238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0817565917969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1505947113037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8828811645508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9976139068604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.074104309082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5483427047729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3188695907593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1658945083618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7987413406372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6916551589966</t>
   </si>
   <si>
     <t xml:space="preserve">13.6151666641235</t>
   </si>
   <si>
-    <t xml:space="preserve">13.576922416687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.859935760498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9058284759521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5922193527222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0970544815063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9440727233887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.630464553833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6840076446533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6993055343628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8216905593872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4392414093018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6687097549438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4086446762085</t>
+    <t xml:space="preserve">13.5769214630127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8599348068237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9058275222778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5922203063965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0970516204834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9440717697144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6304655075073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.684009552002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6993045806885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8216886520386</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4392423629761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6687088012695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4086465835571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5310277938843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.825008392334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.817063331604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0713167190552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0633707046509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2540607452393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3096761703491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.126935005188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0792608261108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3017330169678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1904993057251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1030969619751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0872049331665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0951509475708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5866460800171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6740446090698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3880128860474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0701951980591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2132110595703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5945930480957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5787010192871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8806257247925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.205267906189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5060701370239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0384149551392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5151376724243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2461166381836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3573503494263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8567914962769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2778968811035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1507682800293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6036586761475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5718765258789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5639305114746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3652954101562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3176231384277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5798234939575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.87380027771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.548041343689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6990032196045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9770908355713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8340759277344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9453105926514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5877656936646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8579111099243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.333514213562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4765310287476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5003671646118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4447507858276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1666603088379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2381706237793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.031587600708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8885726928711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9044628143311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8647356033325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0474815368652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9521331787109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.721718788147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.015697479248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9124097824097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0077514648438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9203519821167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8091154098511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7058277130127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6502103805542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7376098632812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9998083114624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.230224609375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1746053695679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0236444473267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1587162017822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7614450454712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6661014556885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.618426322937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7773370742798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5469188690186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4913015365601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6581554412842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5389757156372</t>
   </si>
   <si>
     <t xml:space="preserve">13.53102684021</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8250093460083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8170623779297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0713148117065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0633697509766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2540607452393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3096771240234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.126935005188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0792608261108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3017349243164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1904964447021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1030979156494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0872068405151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0951519012451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5866470336914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6740455627441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3880109786987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0701951980591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2132120132446</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5945920944214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5787010192871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8806257247925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.205267906189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5060701370239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0384130477905</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.51513671875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2461166381836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3573513031006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8567914962769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2778978347778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1507711410522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6036586761475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5718765258789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5639295578003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3652954101562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3176231384277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5798225402832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8738012313843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5480394363403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6990022659302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9770936965942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8340759277344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9453077316284</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5877695083618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8579130172729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3335161209106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4765319824219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5003671646118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.444748878479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1666612625122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.238169670105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0315885543823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8885698318481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9044618606567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8647365570068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0474796295166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9521341323853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7217197418213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.015697479248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9124088287354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0077514648438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9203548431396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8091173171997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7058267593384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6502113342285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7376098632812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9998064041138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.230224609375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1746063232422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0236444473267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1587152481079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7614440917969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6661014556885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6184282302856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7773361206055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5469188690186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4913015365601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6581554412842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5389747619629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5310277938843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4595212936401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3482828140259</t>
+    <t xml:space="preserve">13.4595193862915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3482837677002</t>
   </si>
   <si>
     <t xml:space="preserve">13.316502571106</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3006105422974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3323936462402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3244476318359</t>
+    <t xml:space="preserve">13.3006114959717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3323945999146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3244485855103</t>
   </si>
   <si>
     <t xml:space="preserve">13.1814308166504</t>
@@ -539,67 +539,67 @@
     <t xml:space="preserve">13.0304670333862</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2370481491089</t>
+    <t xml:space="preserve">13.2370491027832</t>
   </si>
   <si>
     <t xml:space="preserve">13.2688302993774</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1575937271118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7126531600952</t>
+    <t xml:space="preserve">13.1575946807861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7126502990723</t>
   </si>
   <si>
     <t xml:space="preserve">13.1178684234619</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2608861923218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1417045593262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1655406951904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0225210189819</t>
+    <t xml:space="preserve">13.2608842849731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1417036056519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1655387878418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0225219726562</t>
   </si>
   <si>
     <t xml:space="preserve">12.9112854003906</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0066318511963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.094030380249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0781402587891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.50719165802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4515743255615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5707550048828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8965187072754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7455530166626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9362440109253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7852821350098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9441871643066</t>
+    <t xml:space="preserve">13.0066328048706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0940313339233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0781393051147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5071897506714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4515733718872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5707559585571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8965158462524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7455549240112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9362468719482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7852802276611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9441900253296</t>
   </si>
   <si>
     <t xml:space="preserve">13.9680261611938</t>
@@ -614,25 +614,25 @@
     <t xml:space="preserve">14.0395336151123</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8011741638184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9839162826538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.222279548645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2063894271851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7148933410645</t>
+    <t xml:space="preserve">13.8011722564697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9839172363281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2222776412964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2063865661621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7148962020874</t>
   </si>
   <si>
     <t xml:space="preserve">14.7705125808716</t>
   </si>
   <si>
-    <t xml:space="preserve">14.349404335022</t>
+    <t xml:space="preserve">14.3494062423706</t>
   </si>
   <si>
     <t xml:space="preserve">14.2699518203735</t>
@@ -641,115 +641,115 @@
     <t xml:space="preserve">14.1825532913208</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2858438491821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3414602279663</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2620067596436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6751670837402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4606418609619</t>
+    <t xml:space="preserve">14.2858409881592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3414583206177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2620058059692</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6751661300659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4606437683105</t>
   </si>
   <si>
     <t xml:space="preserve">14.6513328552246</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6274938583374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5400924682617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6910572052002</t>
+    <t xml:space="preserve">14.6274967193604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.540093421936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6910581588745</t>
   </si>
   <si>
     <t xml:space="preserve">14.5162601470947</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7069520950317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6116027832031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3970804214478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.746675491333</t>
+    <t xml:space="preserve">14.7069473266602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6116018295288</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3970785140991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7466764450073</t>
   </si>
   <si>
     <t xml:space="preserve">15.2154569625854</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4538192749023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4061450958252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5968341827393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8908138275146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8510885238647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8590316772461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7319049835205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1371212005615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6774063110352</t>
+    <t xml:space="preserve">15.4538173675537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4061441421509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5968351364136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.890814781189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8510875701904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8590307235718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7319078445435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1371231079102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6774101257324</t>
   </si>
   <si>
     <t xml:space="preserve">16.0656127929688</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0894527435303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2245216369629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.30397605896</t>
+    <t xml:space="preserve">16.089448928833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2245235443115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3039779663086</t>
   </si>
   <si>
     <t xml:space="preserve">16.1609573364258</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2880821228027</t>
+    <t xml:space="preserve">16.2880859375</t>
   </si>
   <si>
     <t xml:space="preserve">16.6456279754639</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6853561401367</t>
+    <t xml:space="preserve">16.6853523254395</t>
   </si>
   <si>
     <t xml:space="preserve">16.4867191314697</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4072666168213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0973949432373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1291751861572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5026092529297</t>
+    <t xml:space="preserve">16.4072647094727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0973968505859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1291770935059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5026111602783</t>
   </si>
   <si>
     <t xml:space="preserve">16.3675384521484</t>
@@ -764,7 +764,7 @@
     <t xml:space="preserve">16.7012481689453</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5423374176025</t>
+    <t xml:space="preserve">16.5423393249512</t>
   </si>
   <si>
     <t xml:space="preserve">16.8839893341064</t>
@@ -776,31 +776,31 @@
     <t xml:space="preserve">17.114408493042</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6615180969238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2812614440918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3289337158203</t>
+    <t xml:space="preserve">16.6615161895752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2812595367432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3289318084717</t>
   </si>
   <si>
     <t xml:space="preserve">17.2574253082275</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2653713226318</t>
+    <t xml:space="preserve">17.2653694152832</t>
   </si>
   <si>
     <t xml:space="preserve">17.61496925354</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8136043548584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6864795684814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.535514831543</t>
+    <t xml:space="preserve">17.813606262207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6864757537842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5355129241943</t>
   </si>
   <si>
     <t xml:space="preserve">17.4560585021973</t>
@@ -809,7 +809,7 @@
     <t xml:space="preserve">17.6626396179199</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1234741210938</t>
+    <t xml:space="preserve">18.1234703063965</t>
   </si>
   <si>
     <t xml:space="preserve">17.8294944763184</t>
@@ -818,10 +818,10 @@
     <t xml:space="preserve">17.7738761901855</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9089469909668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9963474273682</t>
+    <t xml:space="preserve">17.9089488983154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9963493347168</t>
   </si>
   <si>
     <t xml:space="preserve">18.1552543640137</t>
@@ -842,25 +842,25 @@
     <t xml:space="preserve">18.2171249389648</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0530071258545</t>
+    <t xml:space="preserve">18.0530090332031</t>
   </si>
   <si>
     <t xml:space="preserve">17.7904186248779</t>
   </si>
   <si>
-    <t xml:space="preserve">17.650915145874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8806819915771</t>
+    <t xml:space="preserve">17.6509189605713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8806858062744</t>
   </si>
   <si>
     <t xml:space="preserve">18.0694179534912</t>
   </si>
   <si>
-    <t xml:space="preserve">17.979154586792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7986221313477</t>
+    <t xml:space="preserve">17.9791526794434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7986259460449</t>
   </si>
   <si>
     <t xml:space="preserve">18.0365943908691</t>
@@ -869,7 +869,7 @@
     <t xml:space="preserve">18.1760959625244</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9955635070801</t>
+    <t xml:space="preserve">17.9955654144287</t>
   </si>
   <si>
     <t xml:space="preserve">17.5606536865234</t>
@@ -881,19 +881,19 @@
     <t xml:space="preserve">17.8888893127441</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7740077972412</t>
+    <t xml:space="preserve">17.7740058898926</t>
   </si>
   <si>
     <t xml:space="preserve">18.0858325958252</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7575950622559</t>
+    <t xml:space="preserve">17.7575931549072</t>
   </si>
   <si>
     <t xml:space="preserve">17.5524463653564</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5852699279785</t>
+    <t xml:space="preserve">17.5852718353271</t>
   </si>
   <si>
     <t xml:space="preserve">17.6427116394043</t>
@@ -908,52 +908,52 @@
     <t xml:space="preserve">17.174976348877</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0765018463135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0682964324951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.150354385376</t>
+    <t xml:space="preserve">17.0765037536621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0682983398438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1503562927246</t>
   </si>
   <si>
     <t xml:space="preserve">16.9123859405518</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2324161529541</t>
+    <t xml:space="preserve">17.2324142456055</t>
   </si>
   <si>
     <t xml:space="preserve">17.0600929260254</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9780330657959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3965358734131</t>
+    <t xml:space="preserve">16.9780311584473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3965339660645</t>
   </si>
   <si>
     <t xml:space="preserve">17.5032119750977</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9299201965332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2991828918457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1022434234619</t>
+    <t xml:space="preserve">17.9299182891846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2991847991943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1022415161133</t>
   </si>
   <si>
     <t xml:space="preserve">18.3484191894531</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3566284179688</t>
+    <t xml:space="preserve">18.3566265106201</t>
   </si>
   <si>
     <t xml:space="preserve">18.4633026123047</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8642692565918</t>
+    <t xml:space="preserve">17.8642711639404</t>
   </si>
   <si>
     <t xml:space="preserve">18.3402156829834</t>
@@ -965,7 +965,7 @@
     <t xml:space="preserve">17.5688591003418</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4950046539307</t>
+    <t xml:space="preserve">17.495002746582</t>
   </si>
   <si>
     <t xml:space="preserve">17.8068294525146</t>
@@ -977,22 +977,22 @@
     <t xml:space="preserve">17.3883304595947</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4047393798828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2734451293945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2242088317871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.04368019104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9452095031738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9287986755371</t>
+    <t xml:space="preserve">17.4047374725342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2734470367432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2242107391357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0436820983887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9452075958252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9287967681885</t>
   </si>
   <si>
     <t xml:space="preserve">17.0190620422363</t>
@@ -1001,7 +1001,7 @@
     <t xml:space="preserve">17.2816505432129</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4211502075195</t>
+    <t xml:space="preserve">17.4211521148682</t>
   </si>
   <si>
     <t xml:space="preserve">17.6263008117676</t>
@@ -1010,49 +1010,49 @@
     <t xml:space="preserve">17.6098861694336</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9709510803223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0940380096436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.323802947998</t>
+    <t xml:space="preserve">17.970947265625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0940361022949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3238010406494</t>
   </si>
   <si>
     <t xml:space="preserve">17.9873600006104</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1186542510986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1104488372803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1268615722656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3320083618164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3648319244385</t>
+    <t xml:space="preserve">18.11865234375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1104469299316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.126859664917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3320064544678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3648300170898</t>
   </si>
   <si>
     <t xml:space="preserve">18.438684463501</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3812408447266</t>
+    <t xml:space="preserve">18.3812427520752</t>
   </si>
   <si>
     <t xml:space="preserve">18.6356258392334</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6684532165527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5371570587158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8079509735107</t>
+    <t xml:space="preserve">18.6684513092041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5371551513672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8079528808594</t>
   </si>
   <si>
     <t xml:space="preserve">18.6520385742188</t>
@@ -1067,22 +1067,22 @@
     <t xml:space="preserve">19.2182464599609</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1443939208984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6930675506592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7669219970703</t>
+    <t xml:space="preserve">19.1443920135498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6930694580078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7669239044189</t>
   </si>
   <si>
     <t xml:space="preserve">18.594596862793</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3730373382568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1596851348877</t>
+    <t xml:space="preserve">18.3730354309082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1596813201904</t>
   </si>
   <si>
     <t xml:space="preserve">18.4222717285156</t>
@@ -1091,43 +1091,43 @@
     <t xml:space="preserve">18.2335338592529</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1925048828125</t>
+    <t xml:space="preserve">18.1925067901611</t>
   </si>
   <si>
     <t xml:space="preserve">18.1350650787354</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9217128753662</t>
+    <t xml:space="preserve">17.9217109680176</t>
   </si>
   <si>
     <t xml:space="preserve">17.6345043182373</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5442409515381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.355504989624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0272674560547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7975006103516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9041786193848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.191385269165</t>
+    <t xml:space="preserve">17.5442390441895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3555030822754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0272693634033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7975025177002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9041805267334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1913871765137</t>
   </si>
   <si>
     <t xml:space="preserve">17.6919460296631</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9053020477295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.815034866333</t>
+    <t xml:space="preserve">17.9053001403809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8150329589844</t>
   </si>
   <si>
     <t xml:space="preserve">18.0037708282471</t>
@@ -1136,25 +1136,25 @@
     <t xml:space="preserve">17.8396530151367</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9627418518066</t>
+    <t xml:space="preserve">17.9627437591553</t>
   </si>
   <si>
     <t xml:space="preserve">17.4293575286865</t>
   </si>
   <si>
-    <t xml:space="preserve">17.035472869873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.470386505127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4621810913086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7822132110596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6591243743896</t>
+    <t xml:space="preserve">17.0354747772217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4703884124756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4621829986572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7822113037109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.659122467041</t>
   </si>
   <si>
     <t xml:space="preserve">17.8232421875</t>
@@ -1163,25 +1163,25 @@
     <t xml:space="preserve">17.4129447937012</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3976554870605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4468898773193</t>
+    <t xml:space="preserve">18.3976573944092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4468879699707</t>
   </si>
   <si>
     <t xml:space="preserve">18.5617752075195</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6274223327637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7751274108887</t>
+    <t xml:space="preserve">18.627420425415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7751293182373</t>
   </si>
   <si>
     <t xml:space="preserve">18.47971534729</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7258911132812</t>
+    <t xml:space="preserve">18.7258930206299</t>
   </si>
   <si>
     <t xml:space="preserve">18.3155956268311</t>
@@ -1193,34 +1193,34 @@
     <t xml:space="preserve">18.5781841278076</t>
   </si>
   <si>
-    <t xml:space="preserve">17.511417388916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0201835632324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.347297668457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2980613708496</t>
+    <t xml:space="preserve">17.5114192962646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0201816558838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3472995758057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2980632781982</t>
   </si>
   <si>
     <t xml:space="preserve">17.9381256103516</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6755352020264</t>
+    <t xml:space="preserve">17.6755390167236</t>
   </si>
   <si>
     <t xml:space="preserve">17.2652397155762</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3144760131836</t>
+    <t xml:space="preserve">17.314474105835</t>
   </si>
   <si>
     <t xml:space="preserve">18.4961261749268</t>
   </si>
   <si>
-    <t xml:space="preserve">19.5793056488037</t>
+    <t xml:space="preserve">19.5793075561523</t>
   </si>
   <si>
     <t xml:space="preserve">19.5136604309082</t>
@@ -1229,10 +1229,10 @@
     <t xml:space="preserve">20.0388374328613</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3178367614746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1701316833496</t>
+    <t xml:space="preserve">20.3178386688232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.170129776001</t>
   </si>
   <si>
     <t xml:space="preserve">20.0716609954834</t>
@@ -1241,7 +1241,7 @@
     <t xml:space="preserve">19.8418960571289</t>
   </si>
   <si>
-    <t xml:space="preserve">19.8254833221436</t>
+    <t xml:space="preserve">19.8254852294922</t>
   </si>
   <si>
     <t xml:space="preserve">19.8911304473877</t>
@@ -1250,40 +1250,40 @@
     <t xml:space="preserve">19.8090705871582</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9403686523438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4327201843262</t>
+    <t xml:space="preserve">19.9403667449951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4327220916748</t>
   </si>
   <si>
     <t xml:space="preserve">20.6296634674072</t>
   </si>
   <si>
-    <t xml:space="preserve">20.5311946868896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5968418121338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7609596252441</t>
+    <t xml:space="preserve">20.5311965942383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5968399047852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7609558105469</t>
   </si>
   <si>
     <t xml:space="preserve">20.5147819519043</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3506622314453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2850151062012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3342533111572</t>
+    <t xml:space="preserve">20.3506603240967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2850131988525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3342514038086</t>
   </si>
   <si>
     <t xml:space="preserve">20.4655456542969</t>
   </si>
   <si>
-    <t xml:space="preserve">20.4163093566895</t>
+    <t xml:space="preserve">20.4163112640381</t>
   </si>
   <si>
     <t xml:space="preserve">20.3834857940674</t>
@@ -1292,16 +1292,16 @@
     <t xml:space="preserve">20.4491348266602</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7281379699707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8430156707764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7937812805176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6788997650146</t>
+    <t xml:space="preserve">20.7281360626221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.843017578125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7937850952148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6789016723633</t>
   </si>
   <si>
     <t xml:space="preserve">20.7117233276367</t>
@@ -1310,22 +1310,22 @@
     <t xml:space="preserve">20.6460762023926</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8101921081543</t>
+    <t xml:space="preserve">20.8101940155029</t>
   </si>
   <si>
     <t xml:space="preserve">19.251070022583</t>
   </si>
   <si>
-    <t xml:space="preserve">19.4808349609375</t>
+    <t xml:space="preserve">19.4808368682861</t>
   </si>
   <si>
     <t xml:space="preserve">19.1854228973389</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1361885070801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2887344360352</t>
+    <t xml:space="preserve">19.1361865997314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2887363433838</t>
   </si>
   <si>
     <t xml:space="preserve">19.0514373779297</t>
@@ -1334,49 +1334,49 @@
     <t xml:space="preserve">19.492130279541</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3226318359375</t>
+    <t xml:space="preserve">19.3226337432861</t>
   </si>
   <si>
     <t xml:space="preserve">19.7633247375488</t>
   </si>
   <si>
-    <t xml:space="preserve">19.6446800231934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7294273376465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6955261230469</t>
+    <t xml:space="preserve">19.6446781158447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7294292449951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6955280303955</t>
   </si>
   <si>
     <t xml:space="preserve">19.6277294158936</t>
   </si>
   <si>
-    <t xml:space="preserve">19.271785736084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.559928894043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8311252593994</t>
+    <t xml:space="preserve">19.2717838287354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5599308013916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8311233520508</t>
   </si>
   <si>
     <t xml:space="preserve">19.7802772521973</t>
   </si>
   <si>
-    <t xml:space="preserve">19.5429801940918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5938301086426</t>
+    <t xml:space="preserve">19.5429782867432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5938282012939</t>
   </si>
   <si>
     <t xml:space="preserve">19.4412822723389</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8988914489746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9158401489258</t>
+    <t xml:space="preserve">18.8988933563232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9158420562744</t>
   </si>
   <si>
     <t xml:space="preserve">18.7971935272217</t>
@@ -1388,28 +1388,28 @@
     <t xml:space="preserve">19.0683898925781</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9836387634277</t>
+    <t xml:space="preserve">18.9836406707764</t>
   </si>
   <si>
     <t xml:space="preserve">19.1022891998291</t>
   </si>
   <si>
-    <t xml:space="preserve">19.526029586792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6616306304932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5768814086914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3226642608643</t>
+    <t xml:space="preserve">19.5260314941406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6616287231445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5768795013428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3226661682129</t>
   </si>
   <si>
     <t xml:space="preserve">20.3396148681641</t>
   </si>
   <si>
-    <t xml:space="preserve">20.1870670318604</t>
+    <t xml:space="preserve">20.1870651245117</t>
   </si>
   <si>
     <t xml:space="preserve">20.0175724029541</t>
@@ -1421,43 +1421,43 @@
     <t xml:space="preserve">19.7124767303467</t>
   </si>
   <si>
-    <t xml:space="preserve">20.2379150390625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9158744812012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6107807159424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8480758666992</t>
+    <t xml:space="preserve">20.2379169464111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9158725738525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6107788085938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8480739593506</t>
   </si>
   <si>
     <t xml:space="preserve">20.4243640899658</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6447105407715</t>
+    <t xml:space="preserve">20.6447124481201</t>
   </si>
   <si>
     <t xml:space="preserve">20.6955585479736</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3904647827148</t>
+    <t xml:space="preserve">20.3904628753662</t>
   </si>
   <si>
     <t xml:space="preserve">20.3057136535645</t>
   </si>
   <si>
-    <t xml:space="preserve">20.1701164245605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2887649536133</t>
+    <t xml:space="preserve">20.1701183319092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2887668609619</t>
   </si>
   <si>
     <t xml:space="preserve">20.2040176391602</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3565635681152</t>
+    <t xml:space="preserve">20.3565654754639</t>
   </si>
   <si>
     <t xml:space="preserve">20.5091114044189</t>
@@ -1466,58 +1466,58 @@
     <t xml:space="preserve">20.5260601043701</t>
   </si>
   <si>
-    <t xml:space="preserve">20.4921607971191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9328556060791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6616592407227</t>
+    <t xml:space="preserve">20.4921627044678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9328536987305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.661657333374</t>
   </si>
   <si>
     <t xml:space="preserve">20.5769100189209</t>
   </si>
   <si>
-    <t xml:space="preserve">20.763355255127</t>
+    <t xml:space="preserve">20.7633590698242</t>
   </si>
   <si>
     <t xml:space="preserve">21.1023502349854</t>
   </si>
   <si>
-    <t xml:space="preserve">21.6108417510986</t>
+    <t xml:space="preserve">21.61083984375</t>
   </si>
   <si>
     <t xml:space="preserve">21.6955890655518</t>
   </si>
   <si>
-    <t xml:space="preserve">21.5091400146484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0345821380615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3905277252197</t>
+    <t xml:space="preserve">21.5091419219971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0345840454102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3905258178711</t>
   </si>
   <si>
     <t xml:space="preserve">22.1023807525635</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4921913146973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7294864654541</t>
+    <t xml:space="preserve">21.4921932220459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7294883728027</t>
   </si>
   <si>
     <t xml:space="preserve">21.390495300293</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4074478149414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9667510986328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.729455947876</t>
+    <t xml:space="preserve">21.4074459075928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9667530059814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7294578552246</t>
   </si>
   <si>
     <t xml:space="preserve">20.5938606262207</t>
@@ -1526,22 +1526,22 @@
     <t xml:space="preserve">19.9667205810547</t>
   </si>
   <si>
-    <t xml:space="preserve">19.8819751739502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5090808868408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3734855651855</t>
+    <t xml:space="preserve">19.8819732666016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5090827941895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3734836578369</t>
   </si>
   <si>
     <t xml:space="preserve">19.0344886779785</t>
   </si>
   <si>
-    <t xml:space="preserve">19.4751815795898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0853691101074</t>
+    <t xml:space="preserve">19.4751796722412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0853710174561</t>
   </si>
   <si>
     <t xml:space="preserve">19.8989238739014</t>
@@ -1550,52 +1550,52 @@
     <t xml:space="preserve">19.237886428833</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8819427490234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5090503692627</t>
+    <t xml:space="preserve">18.8819446563721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5090484619141</t>
   </si>
   <si>
     <t xml:space="preserve">18.1870040893555</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2717552185059</t>
+    <t xml:space="preserve">18.2717533111572</t>
   </si>
   <si>
     <t xml:space="preserve">18.0175094604492</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6276988983154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9327583312988</t>
+    <t xml:space="preserve">18.6276969909668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9327621459961</t>
   </si>
   <si>
     <t xml:space="preserve">18.1192054748535</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9666614532471</t>
+    <t xml:space="preserve">17.9666595458984</t>
   </si>
   <si>
     <t xml:space="preserve">17.8649616241455</t>
   </si>
   <si>
-    <t xml:space="preserve">18.102258682251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2378559112549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5259990692139</t>
+    <t xml:space="preserve">18.1022567749023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2378540039062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5260009765625</t>
   </si>
   <si>
     <t xml:space="preserve">17.8480110168457</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3564720153809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9666309356689</t>
+    <t xml:space="preserve">17.3564682006836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9666290283203</t>
   </si>
   <si>
     <t xml:space="preserve">17.085277557373</t>
@@ -1616,88 +1616,88 @@
     <t xml:space="preserve">16.4242382049561</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3903388977051</t>
+    <t xml:space="preserve">16.3903408050537</t>
   </si>
   <si>
     <t xml:space="preserve">16.7378082275391</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8140830993652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7039089202881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4581680297852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2717247009277</t>
+    <t xml:space="preserve">16.8140811920166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7039070129395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4581699371338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2717227935791</t>
   </si>
   <si>
     <t xml:space="preserve">17.153076171875</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3225727081299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4920673370361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6446151733398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7971630096436</t>
+    <t xml:space="preserve">17.3225708007812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4920692443848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6446170806885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7971611022949</t>
   </si>
   <si>
     <t xml:space="preserve">18.2209053039551</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4073543548584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3395538330078</t>
+    <t xml:space="preserve">18.4073524475098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3395519256592</t>
   </si>
   <si>
     <t xml:space="preserve">17.9836082458496</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0514068603516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.661563873291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2378253936768</t>
+    <t xml:space="preserve">18.0514087677002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6615657806396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2378215789795</t>
   </si>
   <si>
     <t xml:space="preserve">17.5768165588379</t>
   </si>
   <si>
-    <t xml:space="preserve">17.729362487793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8819122314453</t>
+    <t xml:space="preserve">17.7293663024902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8819103240967</t>
   </si>
   <si>
     <t xml:space="preserve">18.4412517547607</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1531085968018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9158096313477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9497089385986</t>
+    <t xml:space="preserve">18.1531066894531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9158115386963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9497108459473</t>
   </si>
   <si>
     <t xml:space="preserve">17.8988628387451</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7463130950928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7124118804932</t>
+    <t xml:space="preserve">17.7463111877441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7124137878418</t>
   </si>
   <si>
     <t xml:space="preserve">17.6276664733887</t>
@@ -1709,7 +1709,7 @@
     <t xml:space="preserve">17.3056240081787</t>
   </si>
   <si>
-    <t xml:space="preserve">16.873405456543</t>
+    <t xml:space="preserve">16.8734073638916</t>
   </si>
   <si>
     <t xml:space="preserve">17.186975479126</t>
@@ -1718,7 +1718,7 @@
     <t xml:space="preserve">17.2039241790771</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3903713226318</t>
+    <t xml:space="preserve">17.3903732299805</t>
   </si>
   <si>
     <t xml:space="preserve">17.2886734008789</t>
@@ -1733,13 +1733,13 @@
     <t xml:space="preserve">16.8903560638428</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4242687225342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5429172515869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8141136169434</t>
+    <t xml:space="preserve">17.4242706298828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5429191589355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.814115524292</t>
   </si>
   <si>
     <t xml:space="preserve">17.5937671661377</t>
@@ -1751,7 +1751,7 @@
     <t xml:space="preserve">17.1700267791748</t>
   </si>
   <si>
-    <t xml:space="preserve">17.500545501709</t>
+    <t xml:space="preserve">17.5005416870117</t>
   </si>
   <si>
     <t xml:space="preserve">17.2462997436523</t>
@@ -1766,43 +1766,43 @@
     <t xml:space="preserve">17.1615505218506</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0344295501709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5852909088135</t>
+    <t xml:space="preserve">17.0344276428223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5852928161621</t>
   </si>
   <si>
     <t xml:space="preserve">17.6700420379639</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3480262756348</t>
+    <t xml:space="preserve">18.348030090332</t>
   </si>
   <si>
     <t xml:space="preserve">18.136157989502</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0937824249268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8395366668701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0090351104736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7547912597656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9242858886719</t>
+    <t xml:space="preserve">18.0937805175781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8395385742188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.009033203125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.754789352417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9242839813232</t>
   </si>
   <si>
     <t xml:space="preserve">18.1785297393799</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9148941040039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0909595489502</t>
+    <t xml:space="preserve">17.9148921966553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0909576416016</t>
   </si>
   <si>
     <t xml:space="preserve">17.9589099884033</t>
@@ -1814,58 +1814,58 @@
     <t xml:space="preserve">18.2670269012451</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1789951324463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2230110168457</t>
+    <t xml:space="preserve">18.1789932250977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2230129241943</t>
   </si>
   <si>
     <t xml:space="preserve">18.4871120452881</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4430980682373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5311279296875</t>
+    <t xml:space="preserve">18.4430961608887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5311298370361</t>
   </si>
   <si>
     <t xml:space="preserve">18.3550624847412</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0029258728027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7828426361084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6507892608643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3426723480225</t>
+    <t xml:space="preserve">18.0029277801514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7828407287598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6507911682129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3426742553711</t>
   </si>
   <si>
     <t xml:space="preserve">17.5011329650879</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5539531707764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7952308654785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7512130737305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5751476287842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6191635131836</t>
+    <t xml:space="preserve">17.553955078125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7952289581299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7512149810791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5751457214355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.619161605835</t>
   </si>
   <si>
     <t xml:space="preserve">18.3110446929932</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7388248443604</t>
+    <t xml:space="preserve">17.7388229370117</t>
   </si>
   <si>
     <t xml:space="preserve">17.4307060241699</t>
@@ -1877,16 +1877,16 @@
     <t xml:space="preserve">17.2370319366455</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1666030883789</t>
+    <t xml:space="preserve">17.1666049957275</t>
   </si>
   <si>
     <t xml:space="preserve">17.2722473144531</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1137828826904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3074569702148</t>
+    <t xml:space="preserve">17.1137847900391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3074588775635</t>
   </si>
   <si>
     <t xml:space="preserve">16.8320751190186</t>
@@ -1901,10 +1901,10 @@
     <t xml:space="preserve">17.060962677002</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4799404144287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3743019104004</t>
+    <t xml:space="preserve">16.4799385070801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3742980957031</t>
   </si>
   <si>
     <t xml:space="preserve">16.620792388916</t>
@@ -1922,16 +1922,16 @@
     <t xml:space="preserve">16.5679740905762</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4095134735107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3919086456299</t>
+    <t xml:space="preserve">16.4095115661621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3919067382812</t>
   </si>
   <si>
     <t xml:space="preserve">16.3214797973633</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2334461212158</t>
+    <t xml:space="preserve">16.2334442138672</t>
   </si>
   <si>
     <t xml:space="preserve">16.9025020599365</t>
@@ -1940,7 +1940,7 @@
     <t xml:space="preserve">17.2898502349854</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3954944610596</t>
+    <t xml:space="preserve">17.3954925537109</t>
   </si>
   <si>
     <t xml:space="preserve">17.4483127593994</t>
@@ -1949,28 +1949,28 @@
     <t xml:space="preserve">17.6948089599609</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0593318939209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1349754333496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.399076461792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8708744049072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6067752838135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2546405792236</t>
+    <t xml:space="preserve">19.0593338012695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1349773406982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3990783691406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8708763122559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6067733764648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.254638671875</t>
   </si>
   <si>
     <t xml:space="preserve">16.849681854248</t>
   </si>
   <si>
-    <t xml:space="preserve">16.884895324707</t>
+    <t xml:space="preserve">16.8848972320557</t>
   </si>
   <si>
     <t xml:space="preserve">17.1489963531494</t>
@@ -1997,10 +1997,10 @@
     <t xml:space="preserve">16.7088279724121</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6736145019531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8144683837891</t>
+    <t xml:space="preserve">16.6736164093018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8144702911377</t>
   </si>
   <si>
     <t xml:space="preserve">17.3602771759033</t>
@@ -2009,7 +2009,7 @@
     <t xml:space="preserve">17.325065612793</t>
   </si>
   <si>
-    <t xml:space="preserve">16.955322265625</t>
+    <t xml:space="preserve">16.9553241729736</t>
   </si>
   <si>
     <t xml:space="preserve">18.6631813049316</t>
@@ -2018,37 +2018,37 @@
     <t xml:space="preserve">18.0469436645508</t>
   </si>
   <si>
-    <t xml:space="preserve">17.219425201416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9905376434326</t>
+    <t xml:space="preserve">17.2194232940674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.990535736084</t>
   </si>
   <si>
     <t xml:space="preserve">17.184211730957</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5715579986572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4235343933105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7052431106567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0537929534912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7896881103516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.472767829895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2614870071411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0854187011719</t>
+    <t xml:space="preserve">17.5715599060059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4235334396362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7052412033081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0537910461426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7896900177002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4727697372437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2614879608154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0854196548462</t>
   </si>
   <si>
     <t xml:space="preserve">14.2086658477783</t>
@@ -2057,22 +2057,22 @@
     <t xml:space="preserve">12.4832029342651</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6944847106934</t>
+    <t xml:space="preserve">12.694483757019</t>
   </si>
   <si>
     <t xml:space="preserve">13.1874732971191</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7085046768188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1838884353638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7929515838623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0042343139648</t>
+    <t xml:space="preserve">11.7085037231445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1838874816895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7929525375366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0042333602905</t>
   </si>
   <si>
     <t xml:space="preserve">10.5640640258789</t>
@@ -2081,10 +2081,10 @@
     <t xml:space="preserve">10.9514131546021</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6064491271973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2050800323486</t>
+    <t xml:space="preserve">12.6064500808716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2050809860229</t>
   </si>
   <si>
     <t xml:space="preserve">13.6452503204346</t>
@@ -2102,22 +2102,22 @@
     <t xml:space="preserve">11.5852565765381</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3211545944214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8281660079956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0922679901123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.162693977356</t>
+    <t xml:space="preserve">11.3211555480957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8281669616699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0922689437866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1626949310303</t>
   </si>
   <si>
     <t xml:space="preserve">11.1803007125854</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0394477844238</t>
+    <t xml:space="preserve">11.0394468307495</t>
   </si>
   <si>
     <t xml:space="preserve">10.7753448486328</t>
@@ -2126,10 +2126,10 @@
     <t xml:space="preserve">10.6697044372559</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5816707611084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1098747253418</t>
+    <t xml:space="preserve">10.5816717147827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1098737716675</t>
   </si>
   <si>
     <t xml:space="preserve">11.3563690185547</t>
@@ -2141,7 +2141,7 @@
     <t xml:space="preserve">10.6873111724854</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8809862136841</t>
+    <t xml:space="preserve">10.8809852600098</t>
   </si>
   <si>
     <t xml:space="preserve">10.6168851852417</t>
@@ -2156,10 +2156,10 @@
     <t xml:space="preserve">10.5288505554199</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0358600616455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0886821746826</t>
+    <t xml:space="preserve">10.0358610153198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0886812210083</t>
   </si>
   <si>
     <t xml:space="preserve">9.89500617980957</t>
@@ -2168,22 +2168,22 @@
     <t xml:space="preserve">9.70133209228516</t>
   </si>
   <si>
-    <t xml:space="preserve">9.63090515136719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2823572158813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7577381134033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2999629974365</t>
+    <t xml:space="preserve">9.63090419769287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.282356262207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7577390670776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2999620437622</t>
   </si>
   <si>
     <t xml:space="preserve">9.96543312072754</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0746612548828</t>
+    <t xml:space="preserve">11.0746603012085</t>
   </si>
   <si>
     <t xml:space="preserve">10.8457727432251</t>
@@ -2192,7 +2192,7 @@
     <t xml:space="preserve">11.0570545196533</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6732921600342</t>
+    <t xml:space="preserve">11.6732912063599</t>
   </si>
   <si>
     <t xml:space="preserve">11.5676507949829</t>
@@ -2204,7 +2204,7 @@
     <t xml:space="preserve">11.4796161651611</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5500431060791</t>
+    <t xml:space="preserve">11.5500440597534</t>
   </si>
   <si>
     <t xml:space="preserve">12.5360231399536</t>
@@ -2216,13 +2216,13 @@
     <t xml:space="preserve">12.3071346282959</t>
   </si>
   <si>
-    <t xml:space="preserve">12.060640335083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3387622833252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6204700469971</t>
+    <t xml:space="preserve">12.0606393814087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3387632369995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6204710006714</t>
   </si>
   <si>
     <t xml:space="preserve">11.6380777359009</t>
@@ -2231,22 +2231,22 @@
     <t xml:space="preserve">11.9549989700317</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9726066589355</t>
+    <t xml:space="preserve">11.9726057052612</t>
   </si>
   <si>
     <t xml:space="preserve">11.8669652938843</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0254259109497</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9902124404907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7613258361816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.690896987915</t>
+    <t xml:space="preserve">12.025426864624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.990213394165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7613248825073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6908979415894</t>
   </si>
   <si>
     <t xml:space="preserve">11.7437181472778</t>
@@ -2264,31 +2264,31 @@
     <t xml:space="preserve">11.0218410491943</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3035478591919</t>
+    <t xml:space="preserve">11.3035488128662</t>
   </si>
   <si>
     <t xml:space="preserve">10.986626625061</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8633794784546</t>
+    <t xml:space="preserve">10.8633804321289</t>
   </si>
   <si>
     <t xml:space="preserve">11.6028642654419</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1979074478149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1450881958008</t>
+    <t xml:space="preserve">11.1979084014893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1450872421265</t>
   </si>
   <si>
     <t xml:space="preserve">11.2683353424072</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1274824142456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6344909667969</t>
+    <t xml:space="preserve">11.1274814605713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6344919204712</t>
   </si>
   <si>
     <t xml:space="preserve">10.9690208435059</t>
@@ -2297,19 +2297,19 @@
     <t xml:space="preserve">11.4444026947021</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2507286071777</t>
+    <t xml:space="preserve">11.2507276535034</t>
   </si>
   <si>
     <t xml:space="preserve">11.8141450881958</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1134605407715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1310663223267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9197854995728</t>
+    <t xml:space="preserve">12.1134614944458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.131067276001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9197864532471</t>
   </si>
   <si>
     <t xml:space="preserve">11.5324373245239</t>
@@ -2333,7 +2333,7 @@
     <t xml:space="preserve">12.7120904922485</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8001251220703</t>
+    <t xml:space="preserve">12.800124168396</t>
   </si>
   <si>
     <t xml:space="preserve">13.0114059448242</t>
@@ -2342,34 +2342,34 @@
     <t xml:space="preserve">12.0782470703125</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7965393066406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2859411239624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8985919952393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1415014266968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2119302749634</t>
+    <t xml:space="preserve">11.7965383529663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2859420776367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8985929489136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1415023803711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2119293212891</t>
   </si>
   <si>
     <t xml:space="preserve">10.247142791748</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1943225860596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3527841567993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2579021453857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8037109375</t>
+    <t xml:space="preserve">10.1943216323853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.352783203125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2579011917114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8037118911743</t>
   </si>
   <si>
     <t xml:space="preserve">12.9409790039062</t>
@@ -2381,7 +2381,7 @@
     <t xml:space="preserve">14.1382389068604</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1698665618896</t>
+    <t xml:space="preserve">13.169867515564</t>
   </si>
   <si>
     <t xml:space="preserve">13.0290126800537</t>
@@ -2399,10 +2399,10 @@
     <t xml:space="preserve">13.7861042022705</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8741388320923</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8213167190552</t>
+    <t xml:space="preserve">13.874137878418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8213176727295</t>
   </si>
   <si>
     <t xml:space="preserve">13.8917446136475</t>
@@ -2414,64 +2414,64 @@
     <t xml:space="preserve">13.4515752792358</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2226886749268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2755069732666</t>
+    <t xml:space="preserve">13.2226877212524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2755079269409</t>
   </si>
   <si>
     <t xml:space="preserve">13.5220022201538</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1346530914307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2402944564819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4339685440063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7508907318115</t>
+    <t xml:space="preserve">13.134654045105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2402935028076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4339694976807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7508897781372</t>
   </si>
   <si>
     <t xml:space="preserve">13.7156763076782</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3671264648438</t>
+    <t xml:space="preserve">14.3671274185181</t>
   </si>
   <si>
     <t xml:space="preserve">14.8425102233887</t>
   </si>
   <si>
-    <t xml:space="preserve">15.247465133667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4763536453247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5996017456055</t>
+    <t xml:space="preserve">15.2474670410156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.476354598999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5996026992798</t>
   </si>
   <si>
     <t xml:space="preserve">15.6700277328491</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5291728973389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9657573699951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.317892074585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6876344680786</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6524209976196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3883190155029</t>
+    <t xml:space="preserve">15.5291757583618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9657564163208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3178939819336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6876373291016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6524238586426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3883209228516</t>
   </si>
   <si>
     <t xml:space="preserve">15.2298593521118</t>
@@ -2480,40 +2480,40 @@
     <t xml:space="preserve">15.1242198944092</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1066112518311</t>
+    <t xml:space="preserve">15.1066122055054</t>
   </si>
   <si>
     <t xml:space="preserve">14.6312303543091</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8777227401733</t>
+    <t xml:space="preserve">14.877724647522</t>
   </si>
   <si>
     <t xml:space="preserve">14.9129390716553</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1594314575195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9693441390991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8460960388184</t>
+    <t xml:space="preserve">15.1594324111938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9693450927734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8460969924927</t>
   </si>
   <si>
     <t xml:space="preserve">16.3390865325928</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2862644195557</t>
+    <t xml:space="preserve">16.2862663269043</t>
   </si>
   <si>
     <t xml:space="preserve">16.9729309082031</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8108825683594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8989162445068</t>
+    <t xml:space="preserve">15.8108835220337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8989181518555</t>
   </si>
   <si>
     <t xml:space="preserve">15.8284893035889</t>
@@ -2522,37 +2522,37 @@
     <t xml:space="preserve">15.9165239334106</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7968616485596</t>
+    <t xml:space="preserve">16.7968635559082</t>
   </si>
   <si>
     <t xml:space="preserve">16.6031875610352</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0081443786621</t>
+    <t xml:space="preserve">17.0081424713135</t>
   </si>
   <si>
     <t xml:space="preserve">17.0785694122314</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0433559417725</t>
+    <t xml:space="preserve">17.0433578491211</t>
   </si>
   <si>
     <t xml:space="preserve">16.5151538848877</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9341306686401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1982326507568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1630210876465</t>
+    <t xml:space="preserve">15.9341316223145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1982307434082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1630172729492</t>
   </si>
   <si>
     <t xml:space="preserve">16.0749835968018</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4447288513184</t>
+    <t xml:space="preserve">16.4447269439697</t>
   </si>
   <si>
     <t xml:space="preserve">16.5855808258057</t>
@@ -2561,13 +2561,13 @@
     <t xml:space="preserve">16.1454124450684</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4535312652588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2070331573486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1894264221191</t>
+    <t xml:space="preserve">16.4535293579102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2070369720459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1894283294678</t>
   </si>
   <si>
     <t xml:space="preserve">16.4975471496582</t>
@@ -2585,7 +2585,7 @@
     <t xml:space="preserve">16.700023651123</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8584880828857</t>
+    <t xml:space="preserve">16.8584861755371</t>
   </si>
   <si>
     <t xml:space="preserve">16.7176322937012</t>
@@ -2597,16 +2597,16 @@
     <t xml:space="preserve">17.404296875</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5979709625244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8408794403076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0697689056396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0961761474609</t>
+    <t xml:space="preserve">17.5979690551758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.840877532959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.069766998291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0961780548096</t>
   </si>
   <si>
     <t xml:space="preserve">17.4747219085693</t>
@@ -2618,7 +2618,7 @@
     <t xml:space="preserve">17.8532695770264</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7300205230713</t>
+    <t xml:space="preserve">17.7300224304199</t>
   </si>
   <si>
     <t xml:space="preserve">17.9413032531738</t>
@@ -2627,7 +2627,7 @@
     <t xml:space="preserve">17.9765167236328</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1877956390381</t>
+    <t xml:space="preserve">18.1877975463867</t>
   </si>
   <si>
     <t xml:space="preserve">18.3638648986816</t>
@@ -2636,22 +2636,22 @@
     <t xml:space="preserve">18.5047206878662</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5223274230957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2758312225342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7476291656494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2054023742676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0997619628906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0821571350098</t>
+    <t xml:space="preserve">18.5223255157471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2758293151855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7476272583008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2054042816162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0997638702393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0821590423584</t>
   </si>
   <si>
     <t xml:space="preserve">17.9236965179443</t>
@@ -2660,28 +2660,28 @@
     <t xml:space="preserve">17.8004493713379</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8884830474854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2582244873047</t>
+    <t xml:space="preserve">17.8884811401367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2582263946533</t>
   </si>
   <si>
     <t xml:space="preserve">18.1525840759277</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1701889038086</t>
+    <t xml:space="preserve">18.1701908111572</t>
   </si>
   <si>
     <t xml:space="preserve">17.7652359008789</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4166831970215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3286514282227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9060897827148</t>
+    <t xml:space="preserve">18.4166851043701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3286533355713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9060878753662</t>
   </si>
   <si>
     <t xml:space="preserve">16.8936996459961</t>
@@ -2696,49 +2696,49 @@
     <t xml:space="preserve">17.624382019043</t>
   </si>
   <si>
-    <t xml:space="preserve">19.8428344726562</t>
+    <t xml:space="preserve">19.8428363800049</t>
   </si>
   <si>
     <t xml:space="preserve">19.3146324157715</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2794189453125</t>
+    <t xml:space="preserve">19.2794170379639</t>
   </si>
   <si>
     <t xml:space="preserve">18.698392868042</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1913833618164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7336082458496</t>
+    <t xml:space="preserve">19.1913814544678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.733606338501</t>
   </si>
   <si>
     <t xml:space="preserve">18.8920669555664</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4695053100586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3814697265625</t>
+    <t xml:space="preserve">18.4695072174072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3814716339111</t>
   </si>
   <si>
     <t xml:space="preserve">18.0645503997803</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8180561065674</t>
+    <t xml:space="preserve">17.8180541992188</t>
   </si>
   <si>
     <t xml:space="preserve">18.0117301940918</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2406177520752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4131011962891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4219017028809</t>
+    <t xml:space="preserve">18.2406158447266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4130992889404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4219036102295</t>
   </si>
   <si>
     <t xml:space="preserve">17.034553527832</t>
@@ -2756,7 +2756,7 @@
     <t xml:space="preserve">18.2934398651123</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7688217163086</t>
+    <t xml:space="preserve">18.76881980896</t>
   </si>
   <si>
     <t xml:space="preserve">18.5575389862061</t>
@@ -2774,22 +2774,22 @@
     <t xml:space="preserve">18.6226081848145</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4793567657471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4435443878174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.747953414917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5151691436768</t>
+    <t xml:space="preserve">18.4793586730957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.443546295166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7479553222656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5151710510254</t>
   </si>
   <si>
     <t xml:space="preserve">18.5330772399902</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2286701202393</t>
+    <t xml:space="preserve">18.2286682128906</t>
   </si>
   <si>
     <t xml:space="preserve">18.0854187011719</t>
@@ -2804,16 +2804,16 @@
     <t xml:space="preserve">17.8974018096924</t>
   </si>
   <si>
-    <t xml:space="preserve">18.139139175415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9063568115234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7810115814209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2644824981689</t>
+    <t xml:space="preserve">18.1391372680664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9063549041748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7810096740723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2644805908203</t>
   </si>
   <si>
     <t xml:space="preserve">17.1990547180176</t>
@@ -2828,19 +2828,19 @@
     <t xml:space="preserve">16.760347366333</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6529121398926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.831974029541</t>
+    <t xml:space="preserve">16.6529102325439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8319721221924</t>
   </si>
   <si>
     <t xml:space="preserve">16.3574562072754</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4738464355469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0261878967285</t>
+    <t xml:space="preserve">16.4738483428955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0261859893799</t>
   </si>
   <si>
     <t xml:space="preserve">16.3664093017578</t>
@@ -2855,7 +2855,7 @@
     <t xml:space="preserve">16.8051147460938</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0289421081543</t>
+    <t xml:space="preserve">17.0289440155029</t>
   </si>
   <si>
     <t xml:space="preserve">16.8498802185059</t>
@@ -2867,16 +2867,16 @@
     <t xml:space="preserve">16.9931297302246</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9125499725342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7334899902344</t>
+    <t xml:space="preserve">16.9125518798828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7334880828857</t>
   </si>
   <si>
     <t xml:space="preserve">16.7424430847168</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4648914337158</t>
+    <t xml:space="preserve">16.4648933410645</t>
   </si>
   <si>
     <t xml:space="preserve">16.4380359649658</t>
@@ -2885,7 +2885,7 @@
     <t xml:space="preserve">16.1157188415527</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1694374084473</t>
+    <t xml:space="preserve">16.1694393157959</t>
   </si>
   <si>
     <t xml:space="preserve">16.3395481109619</t>
@@ -2900,7 +2900,7 @@
     <t xml:space="preserve">17.2975387573242</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4586944580078</t>
+    <t xml:space="preserve">17.4586963653564</t>
   </si>
   <si>
     <t xml:space="preserve">16.5454711914062</t>
@@ -2912,13 +2912,13 @@
     <t xml:space="preserve">17.0199909210205</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9483661651611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3154449462891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.894645690918</t>
+    <t xml:space="preserve">16.9483642578125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3154468536377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8946475982666</t>
   </si>
   <si>
     <t xml:space="preserve">17.0020847320557</t>
@@ -2930,13 +2930,13 @@
     <t xml:space="preserve">15.9366550445557</t>
   </si>
   <si>
-    <t xml:space="preserve">16.079906463623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4827976226807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7872085571289</t>
+    <t xml:space="preserve">16.0799045562744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4827995300293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7872066497803</t>
   </si>
   <si>
     <t xml:space="preserve">16.5186138153076</t>
@@ -2957,7 +2957,7 @@
     <t xml:space="preserve">15.8918905258179</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9456090927124</t>
+    <t xml:space="preserve">15.9456081390381</t>
   </si>
   <si>
     <t xml:space="preserve">16.0978126525879</t>
@@ -2981,40 +2981,40 @@
     <t xml:space="preserve">15.2920265197754</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5847263336182</t>
+    <t xml:space="preserve">14.5847272872925</t>
   </si>
   <si>
     <t xml:space="preserve">14.9159936904907</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9876194000244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2534589767456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4235696792603</t>
+    <t xml:space="preserve">14.9876184463501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2534580230713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4235687255859</t>
   </si>
   <si>
     <t xml:space="preserve">13.949049949646</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5103454589844</t>
+    <t xml:space="preserve">13.5103445053101</t>
   </si>
   <si>
     <t xml:space="preserve">13.3760471343994</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6983613967896</t>
+    <t xml:space="preserve">13.6983623504639</t>
   </si>
   <si>
     <t xml:space="preserve">14.1549739837646</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9311447143555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3429899215698</t>
+    <t xml:space="preserve">13.9311437606812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3429908752441</t>
   </si>
   <si>
     <t xml:space="preserve">14.7727432250977</t>
@@ -3032,7 +3032,7 @@
     <t xml:space="preserve">13.7252206802368</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5461568832397</t>
+    <t xml:space="preserve">13.5461578369141</t>
   </si>
   <si>
     <t xml:space="preserve">13.4118595123291</t>
@@ -3041,7 +3041,7 @@
     <t xml:space="preserve">13.1790771484375</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2507028579712</t>
+    <t xml:space="preserve">13.2507019042969</t>
   </si>
   <si>
     <t xml:space="preserve">13.4655790328979</t>
@@ -3053,19 +3053,19 @@
     <t xml:space="preserve">13.5013914108276</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2327966690063</t>
+    <t xml:space="preserve">13.232795715332</t>
   </si>
   <si>
     <t xml:space="preserve">12.8746690750122</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0358266830444</t>
+    <t xml:space="preserve">13.0358276367188</t>
   </si>
   <si>
     <t xml:space="preserve">13.1074514389038</t>
   </si>
   <si>
-    <t xml:space="preserve">13.125358581543</t>
+    <t xml:space="preserve">13.1253576278687</t>
   </si>
   <si>
     <t xml:space="preserve">13.3581409454346</t>
@@ -3074,10 +3074,10 @@
     <t xml:space="preserve">14.2355518341064</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2176465988159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2713642120361</t>
+    <t xml:space="preserve">14.2176456451416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2713651657104</t>
   </si>
   <si>
     <t xml:space="preserve">14.6294927597046</t>
@@ -3098,10 +3098,10 @@
     <t xml:space="preserve">13.4834861755371</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5551109313965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1611709594727</t>
+    <t xml:space="preserve">13.5551099777222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1611700057983</t>
   </si>
   <si>
     <t xml:space="preserve">12.9642000198364</t>
@@ -3110,13 +3110,13 @@
     <t xml:space="preserve">12.7851371765137</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6060743331909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8925743103027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9104824066162</t>
+    <t xml:space="preserve">12.6060733795166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8925752639771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9104814529419</t>
   </si>
   <si>
     <t xml:space="preserve">12.9821071624756</t>
@@ -3143,13 +3143,13 @@
     <t xml:space="preserve">12.178035736084</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0668210983276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6228942871094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6414318084717</t>
+    <t xml:space="preserve">12.0668201446533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6228952407837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6414308547974</t>
   </si>
   <si>
     <t xml:space="preserve">13.1975049972534</t>
@@ -3158,25 +3158,25 @@
     <t xml:space="preserve">12.8453245162964</t>
   </si>
   <si>
-    <t xml:space="preserve">12.752646446228</t>
+    <t xml:space="preserve">12.7526454925537</t>
   </si>
   <si>
     <t xml:space="preserve">12.7155742645264</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9380044937134</t>
+    <t xml:space="preserve">12.9380035400391</t>
   </si>
   <si>
     <t xml:space="preserve">13.0862903594971</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3272571563721</t>
+    <t xml:space="preserve">13.3272562026978</t>
   </si>
   <si>
     <t xml:space="preserve">13.0677547454834</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3077850341797</t>
+    <t xml:space="preserve">12.307785987854</t>
   </si>
   <si>
     <t xml:space="preserve">12.1409645080566</t>
@@ -3185,7 +3185,7 @@
     <t xml:space="preserve">11.881462097168</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4375371932983</t>
+    <t xml:space="preserve">12.437536239624</t>
   </si>
   <si>
     <t xml:space="preserve">12.2892503738403</t>
@@ -3206,13 +3206,13 @@
     <t xml:space="preserve">12.4746084213257</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1965703964233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.955605506897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4736738204956</t>
+    <t xml:space="preserve">12.1965713500977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9556045532227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4736747741699</t>
   </si>
   <si>
     <t xml:space="preserve">11.73317527771</t>
@@ -3224,13 +3224,13 @@
     <t xml:space="preserve">12.085355758667</t>
   </si>
   <si>
-    <t xml:space="preserve">11.937068939209</t>
+    <t xml:space="preserve">11.9370698928833</t>
   </si>
   <si>
     <t xml:space="preserve">11.7146396636963</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5107450485229</t>
+    <t xml:space="preserve">11.5107460021973</t>
   </si>
   <si>
     <t xml:space="preserve">12.0297479629517</t>
@@ -3248,7 +3248,7 @@
     <t xml:space="preserve">12.3263216018677</t>
   </si>
   <si>
-    <t xml:space="preserve">12.511679649353</t>
+    <t xml:space="preserve">12.5116806030273</t>
   </si>
   <si>
     <t xml:space="preserve">12.5487518310547</t>
@@ -3266,22 +3266,22 @@
     <t xml:space="preserve">12.252179145813</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1224269866943</t>
+    <t xml:space="preserve">12.1224279403687</t>
   </si>
   <si>
     <t xml:space="preserve">11.7887830734253</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7702474594116</t>
+    <t xml:space="preserve">11.7702465057373</t>
   </si>
   <si>
     <t xml:space="preserve">11.3809947967529</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3439235687256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3253870010376</t>
+    <t xml:space="preserve">11.3439226150513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3253879547119</t>
   </si>
   <si>
     <t xml:space="preserve">11.1585655212402</t>
@@ -3290,13 +3290,13 @@
     <t xml:space="preserve">10.9175987243652</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8619928359985</t>
+    <t xml:space="preserve">10.8619918823242</t>
   </si>
   <si>
     <t xml:space="preserve">10.6766338348389</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7693128585815</t>
+    <t xml:space="preserve">10.7693119049072</t>
   </si>
   <si>
     <t xml:space="preserve">10.3800601959229</t>
@@ -3308,10 +3308,10 @@
     <t xml:space="preserve">10.4171314239502</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3615255355835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6024894714355</t>
+    <t xml:space="preserve">10.3615245819092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6024904251099</t>
   </si>
   <si>
     <t xml:space="preserve">10.8249206542969</t>
@@ -3320,13 +3320,13 @@
     <t xml:space="preserve">9.86105823516846</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1020231246948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.78691482543945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.8239860534668</t>
+    <t xml:space="preserve">10.1020221710205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.78691387176514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.82398700714111</t>
   </si>
   <si>
     <t xml:space="preserve">9.62009143829346</t>
@@ -3344,10 +3344,10 @@
     <t xml:space="preserve">9.00840950012207</t>
   </si>
   <si>
-    <t xml:space="preserve">8.6933012008667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.96206951141357</t>
+    <t xml:space="preserve">8.69330024719238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.96207046508789</t>
   </si>
   <si>
     <t xml:space="preserve">8.98060607910156</t>
@@ -3359,13 +3359,13 @@
     <t xml:space="preserve">9.09182167053223</t>
   </si>
   <si>
-    <t xml:space="preserve">8.86012268066406</t>
+    <t xml:space="preserve">8.86012363433838</t>
   </si>
   <si>
     <t xml:space="preserve">9.07328510284424</t>
   </si>
   <si>
-    <t xml:space="preserve">9.11962509155273</t>
+    <t xml:space="preserve">9.11962413787842</t>
   </si>
   <si>
     <t xml:space="preserve">9.39766216278076</t>
@@ -3380,25 +3380,25 @@
     <t xml:space="preserve">9.56448459625244</t>
   </si>
   <si>
-    <t xml:space="preserve">9.37912654876709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.26791191101074</t>
+    <t xml:space="preserve">9.37912559509277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.26791095733643</t>
   </si>
   <si>
     <t xml:space="preserve">9.58302021026611</t>
   </si>
   <si>
-    <t xml:space="preserve">9.6571626663208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.99080848693848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.87959384918213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.84252071380615</t>
+    <t xml:space="preserve">9.65716361999512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.99080753326416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.87959289550781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.84252166748047</t>
   </si>
   <si>
     <t xml:space="preserve">9.9722728729248</t>
@@ -3413,7 +3413,7 @@
     <t xml:space="preserve">10.2132387161255</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5283460617065</t>
+    <t xml:space="preserve">10.5283470153809</t>
   </si>
   <si>
     <t xml:space="preserve">10.8990640640259</t>
@@ -3422,7 +3422,7 @@
     <t xml:space="preserve">10.2503099441528</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2317733764648</t>
+    <t xml:space="preserve">10.2317743301392</t>
   </si>
   <si>
     <t xml:space="preserve">10.2688455581665</t>
@@ -3431,19 +3431,19 @@
     <t xml:space="preserve">10.4356679916382</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6580982208252</t>
+    <t xml:space="preserve">10.6580972671509</t>
   </si>
   <si>
     <t xml:space="preserve">10.2873821258545</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5468826293945</t>
+    <t xml:space="preserve">10.5468835830688</t>
   </si>
   <si>
     <t xml:space="preserve">10.5839548110962</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4912748336792</t>
+    <t xml:space="preserve">10.4912757873535</t>
   </si>
   <si>
     <t xml:space="preserve">10.4727401733398</t>
@@ -3455,7 +3455,7 @@
     <t xml:space="preserve">10.6951694488525</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3985967636108</t>
+    <t xml:space="preserve">10.3985958099365</t>
   </si>
   <si>
     <t xml:space="preserve">10.5654182434082</t>
@@ -3464,7 +3464,7 @@
     <t xml:space="preserve">10.6210260391235</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0844221115112</t>
+    <t xml:space="preserve">11.0844211578369</t>
   </si>
   <si>
     <t xml:space="preserve">11.3068513870239</t>
@@ -3482,7 +3482,7 @@
     <t xml:space="preserve">11.5848894119263</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6961040496826</t>
+    <t xml:space="preserve">11.6961030960083</t>
   </si>
   <si>
     <t xml:space="preserve">12.0482845306396</t>
@@ -3506,19 +3506,19 @@
     <t xml:space="preserve">11.2512445449829</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2141723632812</t>
+    <t xml:space="preserve">11.2141733169556</t>
   </si>
   <si>
     <t xml:space="preserve">11.1214933395386</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8063840866089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8434553146362</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6395606994629</t>
+    <t xml:space="preserve">10.8063850402832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8434562683105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6395616531372</t>
   </si>
   <si>
     <t xml:space="preserve">10.4542036056519</t>
@@ -3533,13 +3533,13 @@
     <t xml:space="preserve">10.9917421340942</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2336416244507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.678503036499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4190006256104</t>
+    <t xml:space="preserve">12.233642578125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6785020828247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.418999671936</t>
   </si>
   <si>
     <t xml:space="preserve">12.8638610839844</t>
@@ -3554,7 +3554,7 @@
     <t xml:space="preserve">12.60435962677</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8082523345947</t>
+    <t xml:space="preserve">12.808253288269</t>
   </si>
   <si>
     <t xml:space="preserve">12.7711811065674</t>
@@ -3566,7 +3566,7 @@
     <t xml:space="preserve">13.9760093688965</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8647947311401</t>
+    <t xml:space="preserve">13.8647956848145</t>
   </si>
   <si>
     <t xml:space="preserve">13.6609010696411</t>
@@ -4037,7 +4037,13 @@
     <t xml:space="preserve">12.1000003814697</t>
   </si>
   <si>
+    <t xml:space="preserve">11.7600002288818</t>
+  </si>
+  <si>
     <t xml:space="preserve">12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8999996185303</t>
   </si>
 </sst>
 </file>
@@ -60227,27 +60233,79 @@
     </row>
     <row r="2149">
       <c r="A2149" s="1" t="n">
-        <v>45455.6495138889</v>
+        <v>45454.2916666667</v>
       </c>
       <c r="B2149" t="n">
-        <v>217832</v>
+        <v>338430</v>
       </c>
       <c r="C2149" t="n">
-        <v>12.0600004196167</v>
+        <v>12.1800003051758</v>
       </c>
       <c r="D2149" t="n">
-        <v>11.6400003433228</v>
+        <v>11.6599998474121</v>
       </c>
       <c r="E2149" t="n">
+        <v>12.1000003814697</v>
+      </c>
+      <c r="F2149" t="n">
         <v>11.7600002288818</v>
-      </c>
-      <c r="F2149" t="n">
-        <v>12</v>
       </c>
       <c r="G2149" t="s">
         <v>1341</v>
       </c>
       <c r="H2149" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2150">
+      <c r="A2150" s="1" t="n">
+        <v>45455.2916666667</v>
+      </c>
+      <c r="B2150" t="n">
+        <v>217832</v>
+      </c>
+      <c r="C2150" t="n">
+        <v>12.0600004196167</v>
+      </c>
+      <c r="D2150" t="n">
+        <v>11.6400003433228</v>
+      </c>
+      <c r="E2150" t="n">
+        <v>11.7600002288818</v>
+      </c>
+      <c r="F2150" t="n">
+        <v>12</v>
+      </c>
+      <c r="G2150" t="s">
+        <v>1342</v>
+      </c>
+      <c r="H2150" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2151">
+      <c r="A2151" s="1" t="n">
+        <v>45456.6494560185</v>
+      </c>
+      <c r="B2151" t="n">
+        <v>258078</v>
+      </c>
+      <c r="C2151" t="n">
+        <v>12.039999961853</v>
+      </c>
+      <c r="D2151" t="n">
+        <v>11.8000001907349</v>
+      </c>
+      <c r="E2151" t="n">
+        <v>12.039999961853</v>
+      </c>
+      <c r="F2151" t="n">
+        <v>11.8999996185303</v>
+      </c>
+      <c r="G2151" t="s">
+        <v>1343</v>
+      </c>
+      <c r="H2151" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/MARR.MI.xlsx
+++ b/data/MARR.MI.xlsx
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2729778289795</t>
+    <t xml:space="preserve">14.2729768753052</t>
   </si>
   <si>
     <t xml:space="preserve">MARR.MI</t>
@@ -50,43 +50,43 @@
     <t xml:space="preserve">13.9899673461914</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7910919189453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7451992034912</t>
+    <t xml:space="preserve">13.7910947799683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7451972961426</t>
   </si>
   <si>
     <t xml:space="preserve">13.3627510070801</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4315900802612</t>
+    <t xml:space="preserve">13.4315910339355</t>
   </si>
   <si>
     <t xml:space="preserve">13.5157299041748</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2021207809448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.209771156311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7202377319336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8273248672485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3607358932495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9650058746338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6228151321411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4545392990112</t>
+    <t xml:space="preserve">13.2021226882935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2097721099854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.720235824585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8273229598999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3607349395752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9650049209595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6228160858154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4545383453369</t>
   </si>
   <si>
     <t xml:space="preserve">13.3321552276611</t>
@@ -95,10 +95,10 @@
     <t xml:space="preserve">13.3245048522949</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4162940979004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.500431060791</t>
+    <t xml:space="preserve">13.4162950515747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5004320144653</t>
   </si>
   <si>
     <t xml:space="preserve">13.7681455612183</t>
@@ -110,10 +110,10 @@
     <t xml:space="preserve">13.0873889923096</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2786130905151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0491428375244</t>
+    <t xml:space="preserve">13.2786140441895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0491418838501</t>
   </si>
   <si>
     <t xml:space="preserve">12.1083192825317</t>
@@ -125,133 +125,133 @@
     <t xml:space="preserve">12.6131525039673</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2995433807373</t>
+    <t xml:space="preserve">12.2995443344116</t>
   </si>
   <si>
     <t xml:space="preserve">12.6208000183105</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6590461730957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7814273834229</t>
+    <t xml:space="preserve">12.6590452194214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7814292907715</t>
   </si>
   <si>
     <t xml:space="preserve">12.9497079849243</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1562299728394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4851331710815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3780488967896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3474521636963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7299022674561</t>
+    <t xml:space="preserve">13.156229019165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4851341247559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3780469894409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3474540710449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7299013137817</t>
   </si>
   <si>
     <t xml:space="preserve">13.96702003479</t>
   </si>
   <si>
-    <t xml:space="preserve">13.737548828125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8752307891846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6763591766357</t>
+    <t xml:space="preserve">13.7375497817993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8752317428589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6763582229614</t>
   </si>
   <si>
     <t xml:space="preserve">13.3703994750977</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8196754455566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1179838180542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4468898773193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5998687744141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4774856567383</t>
+    <t xml:space="preserve">12.8196744918823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1179819107056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.446888923645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5998697280884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4774866104126</t>
   </si>
   <si>
     <t xml:space="preserve">13.6610612869263</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2174205780029</t>
+    <t xml:space="preserve">13.2174215316772</t>
   </si>
   <si>
     <t xml:space="preserve">13.1026859283447</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4621877670288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5386772155762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9593715667725</t>
+    <t xml:space="preserve">13.4621868133545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5386781692505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9593706130981</t>
   </si>
   <si>
     <t xml:space="preserve">14.0817537307739</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1505966186523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8828830718994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.997615814209</t>
+    <t xml:space="preserve">14.1505947113037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8828811645508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9976148605347</t>
   </si>
   <si>
     <t xml:space="preserve">14.074104309082</t>
   </si>
   <si>
-    <t xml:space="preserve">14.54833984375</t>
+    <t xml:space="preserve">14.5483407974243</t>
   </si>
   <si>
     <t xml:space="preserve">14.3188714981079</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1658935546875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7987442016602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6916580200195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6151666641235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5769205093384</t>
+    <t xml:space="preserve">14.1658916473389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7987451553345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6916561126709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6151657104492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5769233703613</t>
   </si>
   <si>
     <t xml:space="preserve">13.859935760498</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9058256149292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5922222137451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0970525741577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9440727233887</t>
+    <t xml:space="preserve">13.9058265686035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5922212600708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0970516204834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9440717697144</t>
   </si>
   <si>
     <t xml:space="preserve">13.630464553833</t>
@@ -263,76 +263,76 @@
     <t xml:space="preserve">13.6993045806885</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8216886520386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4392423629761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6687116622925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4086437225342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5310306549072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8250074386597</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8170642852783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0713167190552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0633707046509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2540597915649</t>
+    <t xml:space="preserve">13.8216896057129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4392414093018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6687107086182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4086456298828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5310287475586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8250064849854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8170623779297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0713148117065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0633726119995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2540607452393</t>
   </si>
   <si>
     <t xml:space="preserve">14.3096780776978</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1269330978394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0792617797852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3017330169678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1904973983765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1030969619751</t>
+    <t xml:space="preserve">14.1269359588623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0792598724365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3017320632935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1904983520508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1030988693237</t>
   </si>
   <si>
     <t xml:space="preserve">14.0872058868408</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0951528549194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5866460800171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6740436553955</t>
+    <t xml:space="preserve">14.0951509475708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5866479873657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6740455627441</t>
   </si>
   <si>
     <t xml:space="preserve">13.388011932373</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0701951980591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2132120132446</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5945930480957</t>
+    <t xml:space="preserve">13.0701942443848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2132110595703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5945920944214</t>
   </si>
   <si>
     <t xml:space="preserve">13.5787010192871</t>
@@ -341,25 +341,25 @@
     <t xml:space="preserve">13.8806266784668</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2052669525146</t>
+    <t xml:space="preserve">13.2052688598633</t>
   </si>
   <si>
     <t xml:space="preserve">12.5060710906982</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0384130477905</t>
+    <t xml:space="preserve">13.0384140014648</t>
   </si>
   <si>
     <t xml:space="preserve">13.5151376724243</t>
   </si>
   <si>
-    <t xml:space="preserve">14.246114730835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3573522567749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8567905426025</t>
+    <t xml:space="preserve">14.2461166381836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3573503494263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8567924499512</t>
   </si>
   <si>
     <t xml:space="preserve">14.2778959274292</t>
@@ -368,7 +368,7 @@
     <t xml:space="preserve">14.1507701873779</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6036586761475</t>
+    <t xml:space="preserve">14.6036596298218</t>
   </si>
   <si>
     <t xml:space="preserve">14.5718755722046</t>
@@ -380,37 +380,37 @@
     <t xml:space="preserve">14.3652954101562</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3176231384277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5798215866089</t>
+    <t xml:space="preserve">14.3176250457764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5798225402832</t>
   </si>
   <si>
     <t xml:space="preserve">14.8738021850586</t>
   </si>
   <si>
-    <t xml:space="preserve">14.548041343689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6990051269531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9770927429199</t>
+    <t xml:space="preserve">14.5480394363403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6990032196045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9770908355713</t>
   </si>
   <si>
     <t xml:space="preserve">14.8340759277344</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9453086853027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5877666473389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8579111099243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3335161209106</t>
+    <t xml:space="preserve">14.9453105926514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5877685546875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8579130172729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.333517074585</t>
   </si>
   <si>
     <t xml:space="preserve">14.4765319824219</t>
@@ -419,97 +419,97 @@
     <t xml:space="preserve">14.5003690719604</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4447498321533</t>
+    <t xml:space="preserve">14.444748878479</t>
   </si>
   <si>
     <t xml:space="preserve">14.1666603088379</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2381706237793</t>
+    <t xml:space="preserve">14.2381687164307</t>
   </si>
   <si>
     <t xml:space="preserve">14.0315885543823</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8885707855225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9044628143311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8647336959839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0474786758423</t>
+    <t xml:space="preserve">13.8885717391968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9044618606567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8647365570068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0474805831909</t>
   </si>
   <si>
     <t xml:space="preserve">13.9521341323853</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7217178344727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0156965255737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9124088287354</t>
+    <t xml:space="preserve">13.7217168807983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.015697479248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9124059677124</t>
   </si>
   <si>
     <t xml:space="preserve">14.0077514648438</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9203548431396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8091163635254</t>
+    <t xml:space="preserve">13.920352935791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8091154098511</t>
   </si>
   <si>
     <t xml:space="preserve">13.7058277130127</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6502084732056</t>
+    <t xml:space="preserve">13.6502103805542</t>
   </si>
   <si>
     <t xml:space="preserve">13.7376098632812</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9998083114624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2302236557007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1746072769165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0236415863037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1587171554565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7614440917969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6661005020142</t>
+    <t xml:space="preserve">13.9998092651367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.230224609375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1746063232422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.023642539978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1587162017822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7614450454712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6661014556885</t>
   </si>
   <si>
     <t xml:space="preserve">13.6184282302856</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7773370742798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5469179153442</t>
+    <t xml:space="preserve">13.7773361206055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5469198226929</t>
   </si>
   <si>
     <t xml:space="preserve">13.4913005828857</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6581554412842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5389757156372</t>
+    <t xml:space="preserve">13.6581563949585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5389747619629</t>
   </si>
   <si>
     <t xml:space="preserve">13.5310297012329</t>
@@ -518,19 +518,19 @@
     <t xml:space="preserve">13.4595203399658</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3482828140259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.316502571106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.300612449646</t>
+    <t xml:space="preserve">13.3482837677002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3165044784546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3006114959717</t>
   </si>
   <si>
     <t xml:space="preserve">13.3323936462402</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3244485855103</t>
+    <t xml:space="preserve">13.3244476318359</t>
   </si>
   <si>
     <t xml:space="preserve">13.1814308166504</t>
@@ -539,22 +539,22 @@
     <t xml:space="preserve">13.0304670333862</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2370491027832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2688312530518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1575937271118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7126512527466</t>
+    <t xml:space="preserve">13.2370481491089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2688302993774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1575927734375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7126522064209</t>
   </si>
   <si>
     <t xml:space="preserve">13.1178674697876</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2608861923218</t>
+    <t xml:space="preserve">13.2608852386475</t>
   </si>
   <si>
     <t xml:space="preserve">13.1417045593262</t>
@@ -572,10 +572,10 @@
     <t xml:space="preserve">13.0066318511963</t>
   </si>
   <si>
-    <t xml:space="preserve">13.094030380249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0781402587891</t>
+    <t xml:space="preserve">13.0940313339233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0781393051147</t>
   </si>
   <si>
     <t xml:space="preserve">13.50719165802</t>
@@ -587,58 +587,58 @@
     <t xml:space="preserve">13.5707550048828</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8965177536011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7455530166626</t>
+    <t xml:space="preserve">13.8965158462524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7455539703369</t>
   </si>
   <si>
     <t xml:space="preserve">13.9362449645996</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7852811813354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9441890716553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9680261611938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9918632507324</t>
+    <t xml:space="preserve">13.7852821350098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9441900253296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9680252075195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9918603897095</t>
   </si>
   <si>
     <t xml:space="preserve">13.9759721755981</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0395345687866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8011722564697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9839172363281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.222279548645</t>
+    <t xml:space="preserve">14.0395336151123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.801173210144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9839153289795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2222776412964</t>
   </si>
   <si>
     <t xml:space="preserve">14.2063875198364</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7148952484131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7705106735229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.349404335022</t>
+    <t xml:space="preserve">14.7148933410645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7705116271973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3494033813477</t>
   </si>
   <si>
     <t xml:space="preserve">14.2699508666992</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1825523376465</t>
+    <t xml:space="preserve">14.1825504302979</t>
   </si>
   <si>
     <t xml:space="preserve">14.2858409881592</t>
@@ -647,13 +647,13 @@
     <t xml:space="preserve">14.341459274292</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2620077133179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6751661300659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4606437683105</t>
+    <t xml:space="preserve">14.2620067596436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6751670837402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4606418609619</t>
   </si>
   <si>
     <t xml:space="preserve">14.651330947876</t>
@@ -662,64 +662,64 @@
     <t xml:space="preserve">14.6274948120117</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5400953292847</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6910581588745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5162601470947</t>
+    <t xml:space="preserve">14.5400943756104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6910591125488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5162591934204</t>
   </si>
   <si>
     <t xml:space="preserve">14.7069482803345</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6116027832031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3970794677734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7466726303101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2154541015625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.453818321228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4061460494995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5968341827393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8908109664917</t>
+    <t xml:space="preserve">14.6116037368774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3970804214478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7466745376587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2154531478882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4538173675537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4061450958252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5968332290649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8908138275146</t>
   </si>
   <si>
     <t xml:space="preserve">15.8510885238647</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8590326309204</t>
+    <t xml:space="preserve">15.8590307235718</t>
   </si>
   <si>
     <t xml:space="preserve">15.7319068908691</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1371212005615</t>
+    <t xml:space="preserve">16.1371231079102</t>
   </si>
   <si>
     <t xml:space="preserve">16.6774101257324</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0656127929688</t>
+    <t xml:space="preserve">16.0656108856201</t>
   </si>
   <si>
     <t xml:space="preserve">16.089448928833</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2245197296143</t>
+    <t xml:space="preserve">16.2245216369629</t>
   </si>
   <si>
     <t xml:space="preserve">16.30397605896</t>
@@ -728,7 +728,7 @@
     <t xml:space="preserve">16.1609592437744</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2880840301514</t>
+    <t xml:space="preserve">16.2880859375</t>
   </si>
   <si>
     <t xml:space="preserve">16.6456298828125</t>
@@ -737,46 +737,46 @@
     <t xml:space="preserve">16.6853542327881</t>
   </si>
   <si>
-    <t xml:space="preserve">16.486722946167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4072647094727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0973968505859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1291770935059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.502613067627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3675403594971</t>
+    <t xml:space="preserve">16.4867191314697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4072666168213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0973930358887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1291790008545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5026111602783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3675384521484</t>
   </si>
   <si>
     <t xml:space="preserve">16.5582275390625</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6058979034424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7012462615967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5423355102539</t>
+    <t xml:space="preserve">16.605899810791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.701244354248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5423374176025</t>
   </si>
   <si>
     <t xml:space="preserve">16.8839893341064</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4322242736816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1144065856934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6615180969238</t>
+    <t xml:space="preserve">17.432222366333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.114408493042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6615200042725</t>
   </si>
   <si>
     <t xml:space="preserve">17.2812614440918</t>
@@ -788,19 +788,19 @@
     <t xml:space="preserve">17.2574234008789</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2653675079346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6149673461914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8136024475098</t>
+    <t xml:space="preserve">17.2653713226318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6149654388428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8136005401611</t>
   </si>
   <si>
     <t xml:space="preserve">17.6864757537842</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5355129241943</t>
+    <t xml:space="preserve">17.535514831543</t>
   </si>
   <si>
     <t xml:space="preserve">17.4560585021973</t>
@@ -809,13 +809,13 @@
     <t xml:space="preserve">17.6626396179199</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1234722137451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8294944763184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7738800048828</t>
+    <t xml:space="preserve">18.1234741210938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8294906616211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7738780975342</t>
   </si>
   <si>
     <t xml:space="preserve">17.9089488983154</t>
@@ -824,43 +824,43 @@
     <t xml:space="preserve">17.9963455200195</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1552562713623</t>
+    <t xml:space="preserve">18.1552543640137</t>
   </si>
   <si>
     <t xml:space="preserve">17.4004402160645</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5196228027344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7083587646484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2499485015869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2171249389648</t>
+    <t xml:space="preserve">17.5196208953857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7083568572998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2499504089355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2171268463135</t>
   </si>
   <si>
     <t xml:space="preserve">18.0530071258545</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7904167175293</t>
+    <t xml:space="preserve">17.7904186248779</t>
   </si>
   <si>
     <t xml:space="preserve">17.6509170532227</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8806838989258</t>
+    <t xml:space="preserve">17.8806858062744</t>
   </si>
   <si>
     <t xml:space="preserve">18.0694198608398</t>
   </si>
   <si>
-    <t xml:space="preserve">17.979154586792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7986240386963</t>
+    <t xml:space="preserve">17.9791526794434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7986259460449</t>
   </si>
   <si>
     <t xml:space="preserve">18.0365962982178</t>
@@ -872,13 +872,13 @@
     <t xml:space="preserve">17.9955673217773</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5606517791748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7411823272705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8888874053955</t>
+    <t xml:space="preserve">17.5606536865234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7411804199219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8888893127441</t>
   </si>
   <si>
     <t xml:space="preserve">17.7740058898926</t>
@@ -890,19 +890,19 @@
     <t xml:space="preserve">17.7575931549072</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5524444580078</t>
+    <t xml:space="preserve">17.5524463653564</t>
   </si>
   <si>
     <t xml:space="preserve">17.5852699279785</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6427116394043</t>
+    <t xml:space="preserve">17.6427135467529</t>
   </si>
   <si>
     <t xml:space="preserve">17.7329769134521</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7493858337402</t>
+    <t xml:space="preserve">17.7493877410889</t>
   </si>
   <si>
     <t xml:space="preserve">17.174976348877</t>
@@ -914,22 +914,22 @@
     <t xml:space="preserve">17.0682964324951</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1503582000732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9123840332031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2324161529541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0600929260254</t>
+    <t xml:space="preserve">17.1503562927246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9123878479004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2324142456055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0600910186768</t>
   </si>
   <si>
     <t xml:space="preserve">16.9780330657959</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3965339660645</t>
+    <t xml:space="preserve">17.3965358734131</t>
   </si>
   <si>
     <t xml:space="preserve">17.503210067749</t>
@@ -941,13 +941,13 @@
     <t xml:space="preserve">18.2991828918457</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1022415161133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3484210968018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3566303253174</t>
+    <t xml:space="preserve">18.1022396087646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3484191894531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3566265106201</t>
   </si>
   <si>
     <t xml:space="preserve">18.4633026123047</t>
@@ -956,43 +956,43 @@
     <t xml:space="preserve">17.8642711639404</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3402137756348</t>
+    <t xml:space="preserve">18.3402118682861</t>
   </si>
   <si>
     <t xml:space="preserve">17.7247714996338</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5688591003418</t>
+    <t xml:space="preserve">17.5688610076904</t>
   </si>
   <si>
     <t xml:space="preserve">17.495002746582</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8068294525146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5278301239014</t>
+    <t xml:space="preserve">17.8068313598633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5278282165527</t>
   </si>
   <si>
     <t xml:space="preserve">17.3883285522461</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4047393798828</t>
+    <t xml:space="preserve">17.4047412872314</t>
   </si>
   <si>
     <t xml:space="preserve">17.2734451293945</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2242107391357</t>
+    <t xml:space="preserve">17.2242088317871</t>
   </si>
   <si>
     <t xml:space="preserve">17.04368019104</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9452075958252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9287948608398</t>
+    <t xml:space="preserve">16.9452095031738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9287967681885</t>
   </si>
   <si>
     <t xml:space="preserve">17.0190620422363</t>
@@ -1001,37 +1001,37 @@
     <t xml:space="preserve">17.2816505432129</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4211502075195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6263008117676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6098861694336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.970947265625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0940361022949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.323802947998</t>
+    <t xml:space="preserve">17.4211521148682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6262989044189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6098880767822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9709491729736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0940380096436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3238010406494</t>
   </si>
   <si>
     <t xml:space="preserve">17.9873600006104</t>
   </si>
   <si>
-    <t xml:space="preserve">18.11865234375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1104469299316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.126859664917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.332010269165</t>
+    <t xml:space="preserve">18.1186542510986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1104488372803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1268615722656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3320083618164</t>
   </si>
   <si>
     <t xml:space="preserve">18.3648319244385</t>
@@ -1040,22 +1040,22 @@
     <t xml:space="preserve">18.438684463501</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3812446594238</t>
+    <t xml:space="preserve">18.3812427520752</t>
   </si>
   <si>
     <t xml:space="preserve">18.6356258392334</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6684513092041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5371551513672</t>
+    <t xml:space="preserve">18.6684532165527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5371570587158</t>
   </si>
   <si>
     <t xml:space="preserve">18.8079490661621</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6520366668701</t>
+    <t xml:space="preserve">18.6520385742188</t>
   </si>
   <si>
     <t xml:space="preserve">18.6192150115967</t>
@@ -1064,25 +1064,25 @@
     <t xml:space="preserve">18.783332824707</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2182464599609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1443939208984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6930694580078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7669200897217</t>
+    <t xml:space="preserve">19.2182483673096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1443920135498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6930713653564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7669219970703</t>
   </si>
   <si>
     <t xml:space="preserve">18.594596862793</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3730392456055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1596813201904</t>
+    <t xml:space="preserve">18.3730373382568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1596832275391</t>
   </si>
   <si>
     <t xml:space="preserve">18.4222736358643</t>
@@ -1097,7 +1097,7 @@
     <t xml:space="preserve">18.1350650787354</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9217128753662</t>
+    <t xml:space="preserve">17.9217109680176</t>
   </si>
   <si>
     <t xml:space="preserve">17.6345043182373</t>
@@ -1121,7 +1121,7 @@
     <t xml:space="preserve">17.1913871765137</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6919479370117</t>
+    <t xml:space="preserve">17.6919460296631</t>
   </si>
   <si>
     <t xml:space="preserve">17.9053001403809</t>
@@ -1139,10 +1139,10 @@
     <t xml:space="preserve">17.9627418518066</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4293556213379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.035472869873</t>
+    <t xml:space="preserve">17.4293575286865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0354747772217</t>
   </si>
   <si>
     <t xml:space="preserve">17.470386505127</t>
@@ -1151,19 +1151,19 @@
     <t xml:space="preserve">17.4621810913086</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7822113037109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6591243743896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8232402801514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4129428863525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3976573944092</t>
+    <t xml:space="preserve">17.7822132110596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.659122467041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8232421875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4129447937012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3976554870605</t>
   </si>
   <si>
     <t xml:space="preserve">18.446891784668</t>
@@ -1175,37 +1175,37 @@
     <t xml:space="preserve">18.627420425415</t>
   </si>
   <si>
-    <t xml:space="preserve">18.77512550354</t>
+    <t xml:space="preserve">18.7751274108887</t>
   </si>
   <si>
     <t xml:space="preserve">18.47971534729</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7258930206299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3155994415283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.282772064209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5781841278076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5114154815674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0201835632324</t>
+    <t xml:space="preserve">18.7258911132812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3155956268311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2827739715576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5781860351562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.511417388916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0201816558838</t>
   </si>
   <si>
     <t xml:space="preserve">17.347297668457</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2980651855469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9381275177002</t>
+    <t xml:space="preserve">17.2980613708496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9381237030029</t>
   </si>
   <si>
     <t xml:space="preserve">17.6755352020264</t>
@@ -1214,10 +1214,10 @@
     <t xml:space="preserve">17.2652416229248</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3144760131836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4961280822754</t>
+    <t xml:space="preserve">17.314474105835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4961261749268</t>
   </si>
   <si>
     <t xml:space="preserve">19.579309463501</t>
@@ -1226,37 +1226,37 @@
     <t xml:space="preserve">19.5136604309082</t>
   </si>
   <si>
-    <t xml:space="preserve">20.03883934021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3178386688232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1701316833496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.071662902832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8418960571289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8254833221436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8911323547363</t>
+    <t xml:space="preserve">20.0388374328613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3178367614746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1701335906982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0716609954834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8418941497803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8254852294922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8911304473877</t>
   </si>
   <si>
     <t xml:space="preserve">19.8090705871582</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9403648376465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4327201843262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6296634674072</t>
+    <t xml:space="preserve">19.9403686523438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4327220916748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6296615600586</t>
   </si>
   <si>
     <t xml:space="preserve">20.531192779541</t>
@@ -1265,19 +1265,19 @@
     <t xml:space="preserve">20.5968399047852</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7609577178955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5147800445557</t>
+    <t xml:space="preserve">20.7609558105469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5147819519043</t>
   </si>
   <si>
     <t xml:space="preserve">20.3506622314453</t>
   </si>
   <si>
-    <t xml:space="preserve">20.2850151062012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3342514038086</t>
+    <t xml:space="preserve">20.2850131988525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3342533111572</t>
   </si>
   <si>
     <t xml:space="preserve">20.4655456542969</t>
@@ -1289,19 +1289,19 @@
     <t xml:space="preserve">20.3834857940674</t>
   </si>
   <si>
-    <t xml:space="preserve">20.4491348266602</t>
+    <t xml:space="preserve">20.4491329193115</t>
   </si>
   <si>
     <t xml:space="preserve">20.7281360626221</t>
   </si>
   <si>
-    <t xml:space="preserve">20.843017578125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7937812805176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6789016723633</t>
+    <t xml:space="preserve">20.8430156707764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7937850952148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.678897857666</t>
   </si>
   <si>
     <t xml:space="preserve">20.7117233276367</t>
@@ -1310,7 +1310,7 @@
     <t xml:space="preserve">20.6460762023926</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8101921081543</t>
+    <t xml:space="preserve">20.8101940155029</t>
   </si>
   <si>
     <t xml:space="preserve">19.2510681152344</t>
@@ -1322,34 +1322,34 @@
     <t xml:space="preserve">19.1854209899902</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1361865997314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2887363433838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.051441192627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.492130279541</t>
+    <t xml:space="preserve">19.1361885070801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2887344360352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0514392852783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4921283721924</t>
   </si>
   <si>
     <t xml:space="preserve">19.3226318359375</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7633266448975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6446762084961</t>
+    <t xml:space="preserve">19.7633247375488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6446781158447</t>
   </si>
   <si>
     <t xml:space="preserve">19.7294273376465</t>
   </si>
   <si>
-    <t xml:space="preserve">19.6955280303955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6277275085449</t>
+    <t xml:space="preserve">19.6955242156982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6277294158936</t>
   </si>
   <si>
     <t xml:space="preserve">19.2717838287354</t>
@@ -1364,40 +1364,40 @@
     <t xml:space="preserve">19.7802753448486</t>
   </si>
   <si>
-    <t xml:space="preserve">19.5429782867432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5938301086426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4412822723389</t>
+    <t xml:space="preserve">19.5429801940918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5938282012939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4412803649902</t>
   </si>
   <si>
     <t xml:space="preserve">18.8988914489746</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9158420562744</t>
+    <t xml:space="preserve">18.9158401489258</t>
   </si>
   <si>
     <t xml:space="preserve">18.7971954345703</t>
   </si>
   <si>
-    <t xml:space="preserve">19.017541885376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0683898925781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9836406707764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1022891998291</t>
+    <t xml:space="preserve">19.0175399780273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0683879852295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.983642578125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1022872924805</t>
   </si>
   <si>
     <t xml:space="preserve">19.5260314941406</t>
   </si>
   <si>
-    <t xml:space="preserve">19.6616287231445</t>
+    <t xml:space="preserve">19.6616268157959</t>
   </si>
   <si>
     <t xml:space="preserve">19.5768795013428</t>
@@ -1406,7 +1406,7 @@
     <t xml:space="preserve">20.3226661682129</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3396148681641</t>
+    <t xml:space="preserve">20.3396167755127</t>
   </si>
   <si>
     <t xml:space="preserve">20.187068939209</t>
@@ -1418,34 +1418,34 @@
     <t xml:space="preserve">19.9328231811523</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7124786376953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2379150390625</t>
+    <t xml:space="preserve">19.7124767303467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2379169464111</t>
   </si>
   <si>
     <t xml:space="preserve">19.9158725738525</t>
   </si>
   <si>
-    <t xml:space="preserve">19.6107788085938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8480739593506</t>
+    <t xml:space="preserve">19.6107769012451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.848072052002</t>
   </si>
   <si>
     <t xml:space="preserve">20.4243640899658</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6447105407715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6955585479736</t>
+    <t xml:space="preserve">20.6447086334229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6955604553223</t>
   </si>
   <si>
     <t xml:space="preserve">20.3904647827148</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3057155609131</t>
+    <t xml:space="preserve">20.3057174682617</t>
   </si>
   <si>
     <t xml:space="preserve">20.1701183319092</t>
@@ -1454,25 +1454,25 @@
     <t xml:space="preserve">20.2887668609619</t>
   </si>
   <si>
-    <t xml:space="preserve">20.2040195465088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3565635681152</t>
+    <t xml:space="preserve">20.2040176391602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3565654754639</t>
   </si>
   <si>
     <t xml:space="preserve">20.5091133117676</t>
   </si>
   <si>
-    <t xml:space="preserve">20.5260639190674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4921646118164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9328536987305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6616592407227</t>
+    <t xml:space="preserve">20.5260620117188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4921627044678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9328556060791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.661657333374</t>
   </si>
   <si>
     <t xml:space="preserve">20.5769119262695</t>
@@ -1481,19 +1481,19 @@
     <t xml:space="preserve">20.7633571624756</t>
   </si>
   <si>
-    <t xml:space="preserve">21.1023502349854</t>
+    <t xml:space="preserve">21.102352142334</t>
   </si>
   <si>
     <t xml:space="preserve">21.6108417510986</t>
   </si>
   <si>
-    <t xml:space="preserve">21.6955890655518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5091419219971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0345840454102</t>
+    <t xml:space="preserve">21.6955909729004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5091438293457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0345821380615</t>
   </si>
   <si>
     <t xml:space="preserve">22.3905258178711</t>
@@ -1505,19 +1505,19 @@
     <t xml:space="preserve">21.4921932220459</t>
   </si>
   <si>
-    <t xml:space="preserve">21.7294883728027</t>
+    <t xml:space="preserve">21.7294864654541</t>
   </si>
   <si>
     <t xml:space="preserve">21.3904933929443</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4074459075928</t>
+    <t xml:space="preserve">21.4074440002441</t>
   </si>
   <si>
     <t xml:space="preserve">20.9667530059814</t>
   </si>
   <si>
-    <t xml:space="preserve">20.729455947876</t>
+    <t xml:space="preserve">20.7294578552246</t>
   </si>
   <si>
     <t xml:space="preserve">20.5938606262207</t>
@@ -1529,16 +1529,16 @@
     <t xml:space="preserve">19.8819732666016</t>
   </si>
   <si>
-    <t xml:space="preserve">19.5090808868408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3734836578369</t>
+    <t xml:space="preserve">19.5090789794922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3734855651855</t>
   </si>
   <si>
     <t xml:space="preserve">19.0344905853271</t>
   </si>
   <si>
-    <t xml:space="preserve">19.4751796722412</t>
+    <t xml:space="preserve">19.4751815795898</t>
   </si>
   <si>
     <t xml:space="preserve">20.0853710174561</t>
@@ -1547,34 +1547,34 @@
     <t xml:space="preserve">19.8989219665527</t>
   </si>
   <si>
-    <t xml:space="preserve">19.237886428833</t>
+    <t xml:space="preserve">19.2378845214844</t>
   </si>
   <si>
     <t xml:space="preserve">18.8819427490234</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5090484619141</t>
+    <t xml:space="preserve">18.5090503692627</t>
   </si>
   <si>
     <t xml:space="preserve">18.1870059967041</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2717571258545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0175094604492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6276969909668</t>
+    <t xml:space="preserve">18.2717552185059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0175113677979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6276988983154</t>
   </si>
   <si>
     <t xml:space="preserve">17.9327602386475</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1192054748535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9666595458984</t>
+    <t xml:space="preserve">18.1192073822021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9666614532471</t>
   </si>
   <si>
     <t xml:space="preserve">17.8649635314941</t>
@@ -1586,22 +1586,22 @@
     <t xml:space="preserve">18.2378559112549</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5259990692139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8480110168457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3564739227295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9666290283203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.085277557373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1022281646729</t>
+    <t xml:space="preserve">18.5260009765625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8480129241943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3564701080322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9666271209717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0852756500244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1022262573242</t>
   </si>
   <si>
     <t xml:space="preserve">16.3733901977539</t>
@@ -1613,22 +1613,22 @@
     <t xml:space="preserve">16.6106853485107</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4242401123047</t>
+    <t xml:space="preserve">16.4242382049561</t>
   </si>
   <si>
     <t xml:space="preserve">16.3903408050537</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7378101348877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8140811920166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7039070129395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4581718444824</t>
+    <t xml:space="preserve">16.7378063201904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8140830993652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7039089202881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4581699371338</t>
   </si>
   <si>
     <t xml:space="preserve">17.2717208862305</t>
@@ -1643,13 +1643,13 @@
     <t xml:space="preserve">17.4920692443848</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6446151733398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7971630096436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2209053039551</t>
+    <t xml:space="preserve">17.6446170806885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7971649169922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2209072113037</t>
   </si>
   <si>
     <t xml:space="preserve">18.4073505401611</t>
@@ -1658,16 +1658,16 @@
     <t xml:space="preserve">18.3395519256592</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9836082458496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0514068603516</t>
+    <t xml:space="preserve">17.9836101531982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0514087677002</t>
   </si>
   <si>
     <t xml:space="preserve">17.6615657806396</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2378234863281</t>
+    <t xml:space="preserve">17.2378253936768</t>
   </si>
   <si>
     <t xml:space="preserve">17.5768165588379</t>
@@ -1685,7 +1685,7 @@
     <t xml:space="preserve">18.1531066894531</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9158134460449</t>
+    <t xml:space="preserve">17.9158115386963</t>
   </si>
   <si>
     <t xml:space="preserve">17.9497108459473</t>
@@ -1694,37 +1694,37 @@
     <t xml:space="preserve">17.8988628387451</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7463130950928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7124137878418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.62766456604</t>
+    <t xml:space="preserve">17.7463150024414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7124156951904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6276664733887</t>
   </si>
   <si>
     <t xml:space="preserve">17.7632637023926</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3056240081787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8734035491943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.186975479126</t>
+    <t xml:space="preserve">17.3056221008301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8734073638916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1869735717773</t>
   </si>
   <si>
     <t xml:space="preserve">17.2039241790771</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3903694152832</t>
+    <t xml:space="preserve">17.3903713226318</t>
   </si>
   <si>
     <t xml:space="preserve">17.2886714935303</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2547721862793</t>
+    <t xml:space="preserve">17.2547740936279</t>
   </si>
   <si>
     <t xml:space="preserve">17.2208728790283</t>
@@ -1736,7 +1736,7 @@
     <t xml:space="preserve">17.4242687225342</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5429210662842</t>
+    <t xml:space="preserve">17.5429172515869</t>
   </si>
   <si>
     <t xml:space="preserve">17.814115524292</t>
@@ -1748,10 +1748,10 @@
     <t xml:space="preserve">17.3734188079834</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1700267791748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.500545501709</t>
+    <t xml:space="preserve">17.1700229644775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5005416870117</t>
   </si>
   <si>
     <t xml:space="preserve">17.2462978363037</t>
@@ -1760,22 +1760,22 @@
     <t xml:space="preserve">17.3310470581055</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4157962799072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1615505218506</t>
+    <t xml:space="preserve">17.4157943725586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.161548614502</t>
   </si>
   <si>
     <t xml:space="preserve">17.0344276428223</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5852909088135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6700401306152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3480243682861</t>
+    <t xml:space="preserve">17.5852928161621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6700420379639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3480281829834</t>
   </si>
   <si>
     <t xml:space="preserve">18.1361560821533</t>
@@ -1784,16 +1784,16 @@
     <t xml:space="preserve">18.0937843322754</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8395366668701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.009033203125</t>
+    <t xml:space="preserve">17.8395385742188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0090351104736</t>
   </si>
   <si>
     <t xml:space="preserve">17.754789352417</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9242877960205</t>
+    <t xml:space="preserve">17.9242858886719</t>
   </si>
   <si>
     <t xml:space="preserve">18.1785335540771</t>
@@ -1814,7 +1814,7 @@
     <t xml:space="preserve">18.2670269012451</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1789932250977</t>
+    <t xml:space="preserve">18.1789951324463</t>
   </si>
   <si>
     <t xml:space="preserve">18.2230129241943</t>
@@ -1826,43 +1826,43 @@
     <t xml:space="preserve">18.4430961608887</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5311298370361</t>
+    <t xml:space="preserve">18.5311279296875</t>
   </si>
   <si>
     <t xml:space="preserve">18.3550624847412</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0029258728027</t>
+    <t xml:space="preserve">18.0029277801514</t>
   </si>
   <si>
     <t xml:space="preserve">17.782844543457</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6507911682129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3426704406738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5011310577393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.553955078125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7952327728271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7512149810791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5751457214355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6191654205322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3110427856445</t>
+    <t xml:space="preserve">17.6507930755615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3426723480225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5011329650879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5539531707764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7952308654785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7512130737305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5751476287842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6191635131836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3110446929932</t>
   </si>
   <si>
     <t xml:space="preserve">17.7388229370117</t>
@@ -1874,16 +1874,16 @@
     <t xml:space="preserve">17.3778858184814</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2370319366455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1666030883789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2722434997559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1137866973877</t>
+    <t xml:space="preserve">17.2370338439941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1666049957275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2722454071045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1137847900391</t>
   </si>
   <si>
     <t xml:space="preserve">17.3074569702148</t>
@@ -1892,16 +1892,16 @@
     <t xml:space="preserve">16.8320770263672</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6912212371826</t>
+    <t xml:space="preserve">16.6912231445312</t>
   </si>
   <si>
     <t xml:space="preserve">16.7616481781006</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0609645843506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4799404144287</t>
+    <t xml:space="preserve">17.060962677002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4799423217773</t>
   </si>
   <si>
     <t xml:space="preserve">16.3743000030518</t>
@@ -1916,28 +1916,28 @@
     <t xml:space="preserve">16.3038711547852</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6560096740723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5679740905762</t>
+    <t xml:space="preserve">16.6560077667236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5679721832275</t>
   </si>
   <si>
     <t xml:space="preserve">16.4095134735107</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3919067382812</t>
+    <t xml:space="preserve">16.3919086456299</t>
   </si>
   <si>
     <t xml:space="preserve">16.3214797973633</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2334461212158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9025020599365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.289852142334</t>
+    <t xml:space="preserve">16.2334442138672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9025039672852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2898502349854</t>
   </si>
   <si>
     <t xml:space="preserve">17.3954925537109</t>
@@ -1946,7 +1946,7 @@
     <t xml:space="preserve">17.448314666748</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6948089599609</t>
+    <t xml:space="preserve">17.6948070526123</t>
   </si>
   <si>
     <t xml:space="preserve">19.0593318939209</t>
@@ -1964,16 +1964,16 @@
     <t xml:space="preserve">17.6067733764648</t>
   </si>
   <si>
-    <t xml:space="preserve">17.254638671875</t>
+    <t xml:space="preserve">17.2546405792236</t>
   </si>
   <si>
     <t xml:space="preserve">16.849681854248</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8848972320557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.148998260498</t>
+    <t xml:space="preserve">16.884895324707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1489963531494</t>
   </si>
   <si>
     <t xml:space="preserve">17.1313896179199</t>
@@ -1988,16 +1988,16 @@
     <t xml:space="preserve">16.6384010314941</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5503673553467</t>
+    <t xml:space="preserve">16.550365447998</t>
   </si>
   <si>
     <t xml:space="preserve">16.4271202087402</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7088260650635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6736145019531</t>
+    <t xml:space="preserve">16.7088279724121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6736164093018</t>
   </si>
   <si>
     <t xml:space="preserve">16.8144702911377</t>
@@ -2012,7 +2012,7 @@
     <t xml:space="preserve">16.9553241729736</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6631813049316</t>
+    <t xml:space="preserve">18.663179397583</t>
   </si>
   <si>
     <t xml:space="preserve">18.0469417572021</t>
@@ -2027,13 +2027,13 @@
     <t xml:space="preserve">17.184211730957</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5715579986572</t>
+    <t xml:space="preserve">17.5715599060059</t>
   </si>
   <si>
     <t xml:space="preserve">15.4235343933105</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7052412033081</t>
+    <t xml:space="preserve">15.7052431106567</t>
   </si>
   <si>
     <t xml:space="preserve">15.0537919998169</t>
@@ -2042,10 +2042,10 @@
     <t xml:space="preserve">14.7896881103516</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4727687835693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2614879608154</t>
+    <t xml:space="preserve">14.472767829895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2614870071411</t>
   </si>
   <si>
     <t xml:space="preserve">14.0854187011719</t>
@@ -2060,34 +2060,34 @@
     <t xml:space="preserve">12.694483757019</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1874723434448</t>
+    <t xml:space="preserve">13.1874732971191</t>
   </si>
   <si>
     <t xml:space="preserve">11.7085046768188</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1838874816895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7929515838623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0042333602905</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5640640258789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9514122009277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6064500808716</t>
+    <t xml:space="preserve">12.1838884353638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7929525375366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0042343139648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5640630722046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9514131546021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6064491271973</t>
   </si>
   <si>
     <t xml:space="preserve">13.2050800323486</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6452503204346</t>
+    <t xml:space="preserve">13.6452512741089</t>
   </si>
   <si>
     <t xml:space="preserve">12.9233722686768</t>
@@ -2108,16 +2108,16 @@
     <t xml:space="preserve">10.8281660079956</t>
   </si>
   <si>
-    <t xml:space="preserve">11.092267036438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.162693977356</t>
+    <t xml:space="preserve">11.0922679901123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1626949310303</t>
   </si>
   <si>
     <t xml:space="preserve">11.1803007125854</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0394477844238</t>
+    <t xml:space="preserve">11.0394468307495</t>
   </si>
   <si>
     <t xml:space="preserve">10.7753448486328</t>
@@ -2129,13 +2129,13 @@
     <t xml:space="preserve">10.5816717147827</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1098737716675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3563690185547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9338073730469</t>
+    <t xml:space="preserve">11.1098747253418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3563680648804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9338064193726</t>
   </si>
   <si>
     <t xml:space="preserve">10.6873121261597</t>
@@ -2147,7 +2147,7 @@
     <t xml:space="preserve">10.6168851852417</t>
   </si>
   <si>
-    <t xml:space="preserve">10.652099609375</t>
+    <t xml:space="preserve">10.6520986557007</t>
   </si>
   <si>
     <t xml:space="preserve">10.7401323318481</t>
@@ -2156,22 +2156,22 @@
     <t xml:space="preserve">10.5288505554199</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0358610153198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.088680267334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.89500713348389</t>
+    <t xml:space="preserve">10.0358600616455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0886812210083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.89500617980957</t>
   </si>
   <si>
     <t xml:space="preserve">9.70133209228516</t>
   </si>
   <si>
-    <t xml:space="preserve">9.63090419769287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.282356262207</t>
+    <t xml:space="preserve">9.63090515136719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2823553085327</t>
   </si>
   <si>
     <t xml:space="preserve">10.7577381134033</t>
@@ -2180,7 +2180,7 @@
     <t xml:space="preserve">10.2999620437622</t>
   </si>
   <si>
-    <t xml:space="preserve">9.96543407440186</t>
+    <t xml:space="preserve">9.96543312072754</t>
   </si>
   <si>
     <t xml:space="preserve">11.0746603012085</t>
@@ -2195,31 +2195,31 @@
     <t xml:space="preserve">11.6732912063599</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5676507949829</t>
+    <t xml:space="preserve">11.5676498413086</t>
   </si>
   <si>
     <t xml:space="preserve">11.6556844711304</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4796161651611</t>
+    <t xml:space="preserve">11.4796171188354</t>
   </si>
   <si>
     <t xml:space="preserve">11.5500431060791</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5360221862793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.500807762146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3071346282959</t>
+    <t xml:space="preserve">12.5360231399536</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5008087158203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3071336746216</t>
   </si>
   <si>
     <t xml:space="preserve">12.060640335083</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3387613296509</t>
+    <t xml:space="preserve">11.3387622833252</t>
   </si>
   <si>
     <t xml:space="preserve">11.6204710006714</t>
@@ -2231,16 +2231,16 @@
     <t xml:space="preserve">11.9549989700317</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9726076126099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.86696434021</t>
+    <t xml:space="preserve">11.9726066589355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8669652938843</t>
   </si>
   <si>
     <t xml:space="preserve">12.0254259109497</t>
   </si>
   <si>
-    <t xml:space="preserve">11.990213394165</t>
+    <t xml:space="preserve">11.9902124404907</t>
   </si>
   <si>
     <t xml:space="preserve">11.7613248825073</t>
@@ -2252,7 +2252,7 @@
     <t xml:space="preserve">11.7437181472778</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4972229003906</t>
+    <t xml:space="preserve">11.4972238540649</t>
   </si>
   <si>
     <t xml:space="preserve">11.5148305892944</t>
@@ -2264,16 +2264,16 @@
     <t xml:space="preserve">11.0218410491943</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3035497665405</t>
+    <t xml:space="preserve">11.3035488128662</t>
   </si>
   <si>
     <t xml:space="preserve">10.986626625061</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8633785247803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6028652191162</t>
+    <t xml:space="preserve">10.8633794784546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6028642654419</t>
   </si>
   <si>
     <t xml:space="preserve">11.1979084014893</t>
@@ -2285,13 +2285,13 @@
     <t xml:space="preserve">11.2683362960815</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1274814605713</t>
+    <t xml:space="preserve">11.1274824142456</t>
   </si>
   <si>
     <t xml:space="preserve">10.6344909667969</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9690208435059</t>
+    <t xml:space="preserve">10.9690198898315</t>
   </si>
   <si>
     <t xml:space="preserve">11.4444026947021</t>
@@ -2300,10 +2300,10 @@
     <t xml:space="preserve">11.2507276535034</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8141460418701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1134595870972</t>
+    <t xml:space="preserve">11.8141450881958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1134605407715</t>
   </si>
   <si>
     <t xml:space="preserve">12.1310663223267</t>
@@ -2312,25 +2312,25 @@
     <t xml:space="preserve">11.9197854995728</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5324363708496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0078201293945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.095853805542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2191019058228</t>
+    <t xml:space="preserve">11.5324373245239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0078210830688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0958528518677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2191009521484</t>
   </si>
   <si>
     <t xml:space="preserve">12.5888442993164</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9585857391357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7120895385742</t>
+    <t xml:space="preserve">12.9585866928101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7120904922485</t>
   </si>
   <si>
     <t xml:space="preserve">12.800124168396</t>
@@ -2342,31 +2342,31 @@
     <t xml:space="preserve">12.0782470703125</t>
   </si>
   <si>
-    <t xml:space="preserve">11.796537399292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2859420776367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8985939025879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1415023803711</t>
+    <t xml:space="preserve">11.7965393066406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2859411239624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8985929489136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1415014266968</t>
   </si>
   <si>
     <t xml:space="preserve">10.2119293212891</t>
   </si>
   <si>
-    <t xml:space="preserve">10.247142791748</t>
+    <t xml:space="preserve">10.2471418380737</t>
   </si>
   <si>
     <t xml:space="preserve">10.1943216323853</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3527841567993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2579011917114</t>
+    <t xml:space="preserve">10.352783203125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2579021453857</t>
   </si>
   <si>
     <t xml:space="preserve">13.8037109375</t>
@@ -2381,13 +2381,13 @@
     <t xml:space="preserve">14.1382389068604</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1698656082153</t>
+    <t xml:space="preserve">13.1698665618896</t>
   </si>
   <si>
     <t xml:space="preserve">13.0290126800537</t>
   </si>
   <si>
-    <t xml:space="preserve">13.50439453125</t>
+    <t xml:space="preserve">13.5043964385986</t>
   </si>
   <si>
     <t xml:space="preserve">13.698070526123</t>
@@ -2396,10 +2396,10 @@
     <t xml:space="preserve">13.9093523025513</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7861032485962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8741369247437</t>
+    <t xml:space="preserve">13.7861042022705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.874137878418</t>
   </si>
   <si>
     <t xml:space="preserve">13.8213176727295</t>
@@ -2420,28 +2420,28 @@
     <t xml:space="preserve">13.5220022201538</t>
   </si>
   <si>
-    <t xml:space="preserve">13.134654045105</t>
+    <t xml:space="preserve">13.1346530914307</t>
   </si>
   <si>
     <t xml:space="preserve">13.2402944564819</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4339685440063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7508897781372</t>
+    <t xml:space="preserve">13.4339694976807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7508907318115</t>
   </si>
   <si>
     <t xml:space="preserve">13.7156772613525</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3671274185181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8425121307373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.247465133667</t>
+    <t xml:space="preserve">14.3671264648438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.842511177063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2474660873413</t>
   </si>
   <si>
     <t xml:space="preserve">15.476354598999</t>
@@ -2450,31 +2450,31 @@
     <t xml:space="preserve">15.5996007919312</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6700277328491</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5291738510132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9657564163208</t>
+    <t xml:space="preserve">15.6700286865234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5291757583618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9657573699951</t>
   </si>
   <si>
     <t xml:space="preserve">15.3178939819336</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6876363754272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6524238586426</t>
+    <t xml:space="preserve">15.6876354217529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6524229049683</t>
   </si>
   <si>
     <t xml:space="preserve">15.3883190155029</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2298583984375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1242189407349</t>
+    <t xml:space="preserve">15.2298593521118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1242198944092</t>
   </si>
   <si>
     <t xml:space="preserve">15.1066131591797</t>
@@ -2486,46 +2486,46 @@
     <t xml:space="preserve">14.8777236938477</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9129390716553</t>
+    <t xml:space="preserve">14.912938117981</t>
   </si>
   <si>
     <t xml:space="preserve">15.1594305038452</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9693431854248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8460969924927</t>
+    <t xml:space="preserve">15.9693441390991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.846097946167</t>
   </si>
   <si>
     <t xml:space="preserve">16.3390846252441</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2862682342529</t>
+    <t xml:space="preserve">16.2862663269043</t>
   </si>
   <si>
     <t xml:space="preserve">16.9729309082031</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8108825683594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8989162445068</t>
+    <t xml:space="preserve">15.8108806610107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8989181518555</t>
   </si>
   <si>
     <t xml:space="preserve">15.8284893035889</t>
   </si>
   <si>
-    <t xml:space="preserve">15.916524887085</t>
+    <t xml:space="preserve">15.9165239334106</t>
   </si>
   <si>
     <t xml:space="preserve">16.7968616485596</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6031875610352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0081424713135</t>
+    <t xml:space="preserve">16.6031894683838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0081443786621</t>
   </si>
   <si>
     <t xml:space="preserve">17.0785694122314</t>
@@ -2534,7 +2534,7 @@
     <t xml:space="preserve">17.0433578491211</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5151538848877</t>
+    <t xml:space="preserve">16.5151519775391</t>
   </si>
   <si>
     <t xml:space="preserve">15.9341287612915</t>
@@ -2543,19 +2543,19 @@
     <t xml:space="preserve">16.1982326507568</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1630172729492</t>
+    <t xml:space="preserve">16.1630191802979</t>
   </si>
   <si>
     <t xml:space="preserve">16.0749855041504</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4447288513184</t>
+    <t xml:space="preserve">16.4447269439697</t>
   </si>
   <si>
     <t xml:space="preserve">16.5855808258057</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1454124450684</t>
+    <t xml:space="preserve">16.1454105377197</t>
   </si>
   <si>
     <t xml:space="preserve">16.4535312652588</t>
@@ -2573,7 +2573,7 @@
     <t xml:space="preserve">16.5327606201172</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8232727050781</t>
+    <t xml:space="preserve">16.8232746124268</t>
   </si>
   <si>
     <t xml:space="preserve">16.6824188232422</t>
@@ -2585,19 +2585,19 @@
     <t xml:space="preserve">16.8584861755371</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7176322937012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3831043243408</t>
+    <t xml:space="preserve">16.7176303863525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3831024169922</t>
   </si>
   <si>
     <t xml:space="preserve">17.404296875</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5979690551758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.840877532959</t>
+    <t xml:space="preserve">17.5979709625244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8408794403076</t>
   </si>
   <si>
     <t xml:space="preserve">17.069766998291</t>
@@ -2612,7 +2612,7 @@
     <t xml:space="preserve">17.6419887542725</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8532676696777</t>
+    <t xml:space="preserve">17.8532695770264</t>
   </si>
   <si>
     <t xml:space="preserve">17.7300205230713</t>
@@ -2627,16 +2627,16 @@
     <t xml:space="preserve">18.1877975463867</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3638668060303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5047187805176</t>
+    <t xml:space="preserve">18.3638648986816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5047206878662</t>
   </si>
   <si>
     <t xml:space="preserve">18.5223274230957</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2758312225342</t>
+    <t xml:space="preserve">18.2758331298828</t>
   </si>
   <si>
     <t xml:space="preserve">17.7476291656494</t>
@@ -2654,22 +2654,22 @@
     <t xml:space="preserve">17.9236965179443</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8004474639893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8884830474854</t>
+    <t xml:space="preserve">17.8004493713379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8884811401367</t>
   </si>
   <si>
     <t xml:space="preserve">18.2582225799561</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1525859832764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1701889038086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7652339935303</t>
+    <t xml:space="preserve">18.1525840759277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1701908111572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7652359008789</t>
   </si>
   <si>
     <t xml:space="preserve">18.4166870117188</t>
@@ -2681,16 +2681,16 @@
     <t xml:space="preserve">17.9060878753662</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8936996459961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2018203735352</t>
+    <t xml:space="preserve">16.8936977386475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2018184661865</t>
   </si>
   <si>
     <t xml:space="preserve">17.2282295227051</t>
   </si>
   <si>
-    <t xml:space="preserve">17.624382019043</t>
+    <t xml:space="preserve">17.6243801116943</t>
   </si>
   <si>
     <t xml:space="preserve">19.8428344726562</t>
@@ -2702,40 +2702,40 @@
     <t xml:space="preserve">19.2794170379639</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6983947753906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.191385269165</t>
+    <t xml:space="preserve">18.698392868042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1913833618164</t>
   </si>
   <si>
     <t xml:space="preserve">18.7336082458496</t>
   </si>
   <si>
-    <t xml:space="preserve">18.892068862915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4695053100586</t>
+    <t xml:space="preserve">18.8920650482178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.46950340271</t>
   </si>
   <si>
     <t xml:space="preserve">18.3814716339111</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0645503997803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8180561065674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0117282867432</t>
+    <t xml:space="preserve">18.0645523071289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8180541992188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0117301940918</t>
   </si>
   <si>
     <t xml:space="preserve">18.2406158447266</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4131011962891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4219036102295</t>
+    <t xml:space="preserve">17.4130992889404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4219017028809</t>
   </si>
   <si>
     <t xml:space="preserve">17.0345554351807</t>
@@ -2744,16 +2744,16 @@
     <t xml:space="preserve">17.1578006744385</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6103610992432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1173706054688</t>
+    <t xml:space="preserve">18.6103591918945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1173686981201</t>
   </si>
   <si>
     <t xml:space="preserve">18.2934398651123</t>
   </si>
   <si>
-    <t xml:space="preserve">18.76881980896</t>
+    <t xml:space="preserve">18.7688217163086</t>
   </si>
   <si>
     <t xml:space="preserve">18.5575408935547</t>
@@ -60308,7 +60308,7 @@
     </row>
     <row r="2152">
       <c r="A2152" s="1" t="n">
-        <v>45457.6493171296</v>
+        <v>45457.2916666667</v>
       </c>
       <c r="B2152" t="n">
         <v>344861</v>
@@ -60329,6 +60329,32 @@
         <v>1341</v>
       </c>
       <c r="H2152" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2153">
+      <c r="A2153" s="1" t="n">
+        <v>45460.6494560185</v>
+      </c>
+      <c r="B2153" t="n">
+        <v>135530</v>
+      </c>
+      <c r="C2153" t="n">
+        <v>12.1599998474121</v>
+      </c>
+      <c r="D2153" t="n">
+        <v>11.8599996566772</v>
+      </c>
+      <c r="E2153" t="n">
+        <v>12</v>
+      </c>
+      <c r="F2153" t="n">
+        <v>12</v>
+      </c>
+      <c r="G2153" t="s">
+        <v>1341</v>
+      </c>
+      <c r="H2153" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/MARR.MI.xlsx
+++ b/data/MARR.MI.xlsx
@@ -38,34 +38,34 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2729787826538</t>
+    <t xml:space="preserve">14.2729778289795</t>
   </si>
   <si>
     <t xml:space="preserve">MARR.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1047010421753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9899654388428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7910947799683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7451992034912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3627500534058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4315910339355</t>
+    <t xml:space="preserve">14.1047019958496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9899673461914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7910928726196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7451982498169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3627510070801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4315919876099</t>
   </si>
   <si>
     <t xml:space="preserve">13.5157289505005</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2021226882935</t>
+    <t xml:space="preserve">13.2021236419678</t>
   </si>
   <si>
     <t xml:space="preserve">13.2097721099854</t>
@@ -74,13 +74,13 @@
     <t xml:space="preserve">12.720235824585</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8273239135742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3607358932495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9650039672852</t>
+    <t xml:space="preserve">12.8273248672485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3607368469238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9650049209595</t>
   </si>
   <si>
     <t xml:space="preserve">13.6228151321411</t>
@@ -89,25 +89,25 @@
     <t xml:space="preserve">13.4545392990112</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3321533203125</t>
+    <t xml:space="preserve">13.3321552276611</t>
   </si>
   <si>
     <t xml:space="preserve">13.3245058059692</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4162950515747</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.500431060791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7681465148926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5616245269775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0873889923096</t>
+    <t xml:space="preserve">13.4162931442261</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5004329681396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7681474685669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5616235733032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0873899459839</t>
   </si>
   <si>
     <t xml:space="preserve">13.2786121368408</t>
@@ -116,7 +116,7 @@
     <t xml:space="preserve">13.0491428375244</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1083211898804</t>
+    <t xml:space="preserve">12.1083202362061</t>
   </si>
   <si>
     <t xml:space="preserve">12.1542129516602</t>
@@ -125,94 +125,94 @@
     <t xml:space="preserve">12.6131525039673</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2995443344116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6208009719849</t>
+    <t xml:space="preserve">12.2995433807373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6208019256592</t>
   </si>
   <si>
     <t xml:space="preserve">12.6590442657471</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7814292907715</t>
+    <t xml:space="preserve">12.7814283370972</t>
   </si>
   <si>
     <t xml:space="preserve">12.94970703125</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1562280654907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4851331710815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3780488967896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3474540710449</t>
+    <t xml:space="preserve">13.156229019165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4851322174072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3780479431152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3474531173706</t>
   </si>
   <si>
     <t xml:space="preserve">13.7299022674561</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9670209884644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7375497817993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8752307891846</t>
+    <t xml:space="preserve">13.9670190811157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.737548828125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8752317428589</t>
   </si>
   <si>
     <t xml:space="preserve">13.6763582229614</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3703985214233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8196744918823</t>
+    <t xml:space="preserve">13.3703994750977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.819673538208</t>
   </si>
   <si>
     <t xml:space="preserve">13.1179838180542</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4468898773193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5998706817627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4774875640869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.661060333252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2174205780029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1026859283447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4621887207031</t>
+    <t xml:space="preserve">13.446888923645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5998678207397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4774856567383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6610593795776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2174215316772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.102686882019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4621877670288</t>
   </si>
   <si>
     <t xml:space="preserve">13.5386772155762</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9593706130981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0817546844482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1505928039551</t>
+    <t xml:space="preserve">13.9593715667725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0817537307739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1505947113037</t>
   </si>
   <si>
     <t xml:space="preserve">13.8828802108765</t>
   </si>
   <si>
-    <t xml:space="preserve">13.997612953186</t>
+    <t xml:space="preserve">13.9976139068604</t>
   </si>
   <si>
     <t xml:space="preserve">14.0741052627563</t>
@@ -221,10 +221,10 @@
     <t xml:space="preserve">14.5483427047729</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3188705444336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1658916473389</t>
+    <t xml:space="preserve">14.3188714981079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1658926010132</t>
   </si>
   <si>
     <t xml:space="preserve">13.7987422943115</t>
@@ -233,73 +233,73 @@
     <t xml:space="preserve">13.6916561126709</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6151676177979</t>
+    <t xml:space="preserve">13.6151666641235</t>
   </si>
   <si>
     <t xml:space="preserve">13.576922416687</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8599338531494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9058284759521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5922203063965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0970525741577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9440727233887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6304655075073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.684006690979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6993045806885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8216876983643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4392404556274</t>
+    <t xml:space="preserve">13.859935760498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9058275222778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5922222137451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0970516204834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.94407081604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6304636001587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6840085983276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6993026733398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8216896057129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4392395019531</t>
   </si>
   <si>
     <t xml:space="preserve">13.6687107086182</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4086456298828</t>
+    <t xml:space="preserve">13.4086446762085</t>
   </si>
   <si>
     <t xml:space="preserve">13.5310287475586</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8250093460083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8170623779297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0713148117065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0633716583252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2540616989136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3096790313721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1269359588623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0792608261108</t>
+    <t xml:space="preserve">13.8250064849854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8170642852783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0713157653809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0633707046509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2540607452393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3096780776978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1269340515137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0792589187622</t>
   </si>
   <si>
     <t xml:space="preserve">14.3017330169678</t>
@@ -314,52 +314,52 @@
     <t xml:space="preserve">14.0872068405151</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0951509475708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5866479873657</t>
+    <t xml:space="preserve">14.0951519012451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5866451263428</t>
   </si>
   <si>
     <t xml:space="preserve">13.6740446090698</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3880128860474</t>
+    <t xml:space="preserve">13.388011932373</t>
   </si>
   <si>
     <t xml:space="preserve">13.0701951980591</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2132110595703</t>
+    <t xml:space="preserve">13.2132120132446</t>
   </si>
   <si>
     <t xml:space="preserve">13.5945920944214</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5787000656128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8806247711182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2052669525146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5060720443726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0384130477905</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5151376724243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2461156845093</t>
+    <t xml:space="preserve">13.5787019729614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8806257247925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.205267906189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5060701370239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0384120941162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5151386260986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2461166381836</t>
   </si>
   <si>
     <t xml:space="preserve">14.357349395752</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8567914962769</t>
+    <t xml:space="preserve">13.8567924499512</t>
   </si>
   <si>
     <t xml:space="preserve">14.2778968811035</t>
@@ -374,10 +374,10 @@
     <t xml:space="preserve">14.5718774795532</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5639314651489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3652954101562</t>
+    <t xml:space="preserve">14.5639324188232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3652963638306</t>
   </si>
   <si>
     <t xml:space="preserve">14.3176240921021</t>
@@ -386,25 +386,25 @@
     <t xml:space="preserve">14.5798225402832</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8738012313843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5480394363403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6990022659302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9770917892456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8340759277344</t>
+    <t xml:space="preserve">14.8738021850586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5480403900146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6990032196045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9770927429199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8340740203857</t>
   </si>
   <si>
     <t xml:space="preserve">14.9453096389771</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5877685546875</t>
+    <t xml:space="preserve">14.5877676010132</t>
   </si>
   <si>
     <t xml:space="preserve">14.8579120635986</t>
@@ -419,25 +419,25 @@
     <t xml:space="preserve">14.5003681182861</t>
   </si>
   <si>
-    <t xml:space="preserve">14.444751739502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1666622161865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2381687164307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.031587600708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8885698318481</t>
+    <t xml:space="preserve">14.4447498321533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1666603088379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2381706237793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0315895080566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8885707855225</t>
   </si>
   <si>
     <t xml:space="preserve">13.9044628143311</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8647365570068</t>
+    <t xml:space="preserve">13.8647346496582</t>
   </si>
   <si>
     <t xml:space="preserve">14.0474796295166</t>
@@ -446,67 +446,67 @@
     <t xml:space="preserve">13.9521341323853</t>
   </si>
   <si>
-    <t xml:space="preserve">13.721718788147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0156965255737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9124069213867</t>
+    <t xml:space="preserve">13.7217178344727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0156955718994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.912407875061</t>
   </si>
   <si>
     <t xml:space="preserve">14.0077524185181</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9203538894653</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8091154098511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7058267593384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6502094268799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7376089096069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.999810218811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2302236557007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1746063232422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.023642539978</t>
+    <t xml:space="preserve">13.9203548431396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8091173171997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.705828666687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6502084732056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7376098632812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9998064041138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2302227020264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1746082305908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0236444473267</t>
   </si>
   <si>
     <t xml:space="preserve">14.1587162017822</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7614459991455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6661005020142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.61842918396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7773370742798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5469188690186</t>
+    <t xml:space="preserve">13.7614440917969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6661014556885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6184272766113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7773380279541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5469169616699</t>
   </si>
   <si>
     <t xml:space="preserve">13.4913005828857</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6581554412842</t>
+    <t xml:space="preserve">13.6581544876099</t>
   </si>
   <si>
     <t xml:space="preserve">13.5389747619629</t>
@@ -515,202 +515,202 @@
     <t xml:space="preserve">13.4595203399658</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3482837677002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3165035247803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.300609588623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3323945999146</t>
+    <t xml:space="preserve">13.3482828140259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.316502571106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3006114959717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3323926925659</t>
   </si>
   <si>
     <t xml:space="preserve">13.3244485855103</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1814317703247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0304689407349</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2370491027832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2688302993774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1575927734375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7126502990723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1178684234619</t>
+    <t xml:space="preserve">13.1814308166504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0304679870605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2370481491089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2688312530518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1575937271118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7126512527466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1178674697876</t>
   </si>
   <si>
     <t xml:space="preserve">13.2608852386475</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1417036056519</t>
+    <t xml:space="preserve">13.1417045593262</t>
   </si>
   <si>
     <t xml:space="preserve">13.1655397415161</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0225229263306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9112863540649</t>
+    <t xml:space="preserve">13.0225210189819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9112873077393</t>
   </si>
   <si>
     <t xml:space="preserve">13.0066318511963</t>
   </si>
   <si>
-    <t xml:space="preserve">13.094030380249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0781383514404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.50719165802</t>
+    <t xml:space="preserve">13.0940313339233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0781393051147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5071907043457</t>
   </si>
   <si>
     <t xml:space="preserve">13.4515752792358</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5707550048828</t>
+    <t xml:space="preserve">13.5707559585571</t>
   </si>
   <si>
     <t xml:space="preserve">13.8965167999268</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7455520629883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9362449645996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7852830886841</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9441900253296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9680252075195</t>
+    <t xml:space="preserve">13.7455539703369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.936243057251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7852821350098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9441890716553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9680261611938</t>
   </si>
   <si>
     <t xml:space="preserve">13.9918632507324</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9759721755981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0395336151123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.801173210144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9839181900024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2222785949707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2063875198364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7148933410645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7705125808716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3494062423706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2699508666992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1825504302979</t>
+    <t xml:space="preserve">13.9759702682495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.039532661438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8011722564697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9839162826538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.222279548645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2063894271851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7148952484131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7705116271973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3494052886963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2699518203735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1825513839722</t>
   </si>
   <si>
     <t xml:space="preserve">14.2858419418335</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3414602279663</t>
+    <t xml:space="preserve">14.3414583206177</t>
   </si>
   <si>
     <t xml:space="preserve">14.2620067596436</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6751670837402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4606418609619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6513319015503</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6274948120117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5400924682617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6910581588745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5162591934204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7069473266602</t>
+    <t xml:space="preserve">14.6751680374146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4606428146362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6513299942017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6274938583374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.540093421936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6910572052002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5162601470947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7069492340088</t>
   </si>
   <si>
     <t xml:space="preserve">14.6116037368774</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3970775604248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.746675491333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2154541015625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.453818321228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4061431884766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5968313217163</t>
+    <t xml:space="preserve">14.3970785140991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7466764450073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2154550552368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4538192749023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4061441421509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5968360900879</t>
   </si>
   <si>
     <t xml:space="preserve">15.8908128738403</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8510875701904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8590326309204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7319059371948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1371192932129</t>
+    <t xml:space="preserve">15.8510866165161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8590316772461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7319049835205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1371231079102</t>
   </si>
   <si>
     <t xml:space="preserve">16.6774082183838</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0656147003174</t>
+    <t xml:space="preserve">16.0656127929688</t>
   </si>
   <si>
     <t xml:space="preserve">16.089448928833</t>
@@ -722,7 +722,7 @@
     <t xml:space="preserve">16.30397605896</t>
   </si>
   <si>
-    <t xml:space="preserve">16.160961151123</t>
+    <t xml:space="preserve">16.1609592437744</t>
   </si>
   <si>
     <t xml:space="preserve">16.2880840301514</t>
@@ -734,13 +734,13 @@
     <t xml:space="preserve">16.6853561401367</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4867191314697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4072666168213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0973949432373</t>
+    <t xml:space="preserve">16.4867210388184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4072647094727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0973968505859</t>
   </si>
   <si>
     <t xml:space="preserve">16.1291770935059</t>
@@ -749,19 +749,19 @@
     <t xml:space="preserve">16.5026111602783</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3675403594971</t>
+    <t xml:space="preserve">16.3675384521484</t>
   </si>
   <si>
     <t xml:space="preserve">16.5582294464111</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6059017181396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7012481689453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5423393249512</t>
+    <t xml:space="preserve">16.605899810791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7012462615967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5423374176025</t>
   </si>
   <si>
     <t xml:space="preserve">16.8839893341064</t>
@@ -773,73 +773,73 @@
     <t xml:space="preserve">17.114408493042</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6615200042725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2812595367432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.328929901123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2574253082275</t>
+    <t xml:space="preserve">16.6615161895752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2812614440918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3289318084717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2574234008789</t>
   </si>
   <si>
     <t xml:space="preserve">17.2653694152832</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6149673461914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8136024475098</t>
+    <t xml:space="preserve">17.61496925354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8136005401611</t>
   </si>
   <si>
     <t xml:space="preserve">17.6864776611328</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5355167388916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4560585021973</t>
+    <t xml:space="preserve">17.535514831543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4560565948486</t>
   </si>
   <si>
     <t xml:space="preserve">17.6626396179199</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1234722137451</t>
+    <t xml:space="preserve">18.1234741210938</t>
   </si>
   <si>
     <t xml:space="preserve">17.8294944763184</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7738742828369</t>
+    <t xml:space="preserve">17.7738761901855</t>
   </si>
   <si>
     <t xml:space="preserve">17.9089488983154</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9963474273682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1552543640137</t>
+    <t xml:space="preserve">17.9963455200195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1552562713623</t>
   </si>
   <si>
     <t xml:space="preserve">17.4004421234131</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5196228027344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7083587646484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2499485015869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2171268463135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0530071258545</t>
+    <t xml:space="preserve">17.519624710083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7083606719971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2499504089355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2171249389648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0530090332031</t>
   </si>
   <si>
     <t xml:space="preserve">17.7904186248779</t>
@@ -854,16 +854,16 @@
     <t xml:space="preserve">18.0694179534912</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9791564941406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7986240386963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0365924835205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1760959625244</t>
+    <t xml:space="preserve">17.979154586792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7986259460449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0365943908691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1760940551758</t>
   </si>
   <si>
     <t xml:space="preserve">17.9955654144287</t>
@@ -872,58 +872,58 @@
     <t xml:space="preserve">17.5606517791748</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7411823272705</t>
+    <t xml:space="preserve">17.7411804199219</t>
   </si>
   <si>
     <t xml:space="preserve">17.8888893127441</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7740058898926</t>
+    <t xml:space="preserve">17.7740039825439</t>
   </si>
   <si>
     <t xml:space="preserve">18.0858306884766</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7575931549072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5524444580078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5852699279785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6427116394043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7329769134521</t>
+    <t xml:space="preserve">17.7575950622559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5524463653564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5852680206299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6427135467529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7329750061035</t>
   </si>
   <si>
     <t xml:space="preserve">17.7493877410889</t>
   </si>
   <si>
-    <t xml:space="preserve">17.174976348877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0765037536621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0682983398438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1503582000732</t>
+    <t xml:space="preserve">17.1749744415283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0765018463135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0682964324951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1503562927246</t>
   </si>
   <si>
     <t xml:space="preserve">16.9123859405518</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2324180603027</t>
+    <t xml:space="preserve">17.2324161529541</t>
   </si>
   <si>
     <t xml:space="preserve">17.0600929260254</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9780349731445</t>
+    <t xml:space="preserve">16.9780330657959</t>
   </si>
   <si>
     <t xml:space="preserve">17.3965358734131</t>
@@ -932,16 +932,16 @@
     <t xml:space="preserve">17.5032119750977</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9299182891846</t>
+    <t xml:space="preserve">17.9299201965332</t>
   </si>
   <si>
     <t xml:space="preserve">18.2991828918457</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1022415161133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3484191894531</t>
+    <t xml:space="preserve">18.1022396087646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3484210968018</t>
   </si>
   <si>
     <t xml:space="preserve">18.3566265106201</t>
@@ -953,70 +953,70 @@
     <t xml:space="preserve">17.8642711639404</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3402137756348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7247695922852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5688571929932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4950046539307</t>
+    <t xml:space="preserve">18.3402118682861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7247714996338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5688591003418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.495002746582</t>
   </si>
   <si>
     <t xml:space="preserve">17.8068294525146</t>
   </si>
   <si>
-    <t xml:space="preserve">17.52783203125</t>
+    <t xml:space="preserve">17.5278301239014</t>
   </si>
   <si>
     <t xml:space="preserve">17.3883285522461</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4047393798828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2734470367432</t>
+    <t xml:space="preserve">17.4047412872314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2734451293945</t>
   </si>
   <si>
     <t xml:space="preserve">17.2242088317871</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0436820983887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9452095031738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9287967681885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0190620422363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2816505432129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4211502075195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6262989044189</t>
+    <t xml:space="preserve">17.04368019104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9452075958252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9287948608398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.019063949585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2816524505615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4211521148682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6263008117676</t>
   </si>
   <si>
     <t xml:space="preserve">17.6098880767822</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9709453582764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0940341949463</t>
+    <t xml:space="preserve">17.9709491729736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0940380096436</t>
   </si>
   <si>
     <t xml:space="preserve">18.3238010406494</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9873600006104</t>
+    <t xml:space="preserve">17.9873580932617</t>
   </si>
   <si>
     <t xml:space="preserve">18.11865234375</t>
@@ -1025,19 +1025,19 @@
     <t xml:space="preserve">18.1104488372803</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1268577575684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3320064544678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3648300170898</t>
+    <t xml:space="preserve">18.1268615722656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.332010269165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3648319244385</t>
   </si>
   <si>
     <t xml:space="preserve">18.4386825561523</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3812427520752</t>
+    <t xml:space="preserve">18.3812446594238</t>
   </si>
   <si>
     <t xml:space="preserve">18.6356258392334</t>
@@ -1046,7 +1046,7 @@
     <t xml:space="preserve">18.6684513092041</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5371551513672</t>
+    <t xml:space="preserve">18.5371589660645</t>
   </si>
   <si>
     <t xml:space="preserve">18.8079509735107</t>
@@ -1070,7 +1070,7 @@
     <t xml:space="preserve">18.6930694580078</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7669258117676</t>
+    <t xml:space="preserve">18.7669219970703</t>
   </si>
   <si>
     <t xml:space="preserve">18.594596862793</t>
@@ -1079,7 +1079,7 @@
     <t xml:space="preserve">18.3730373382568</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1596813201904</t>
+    <t xml:space="preserve">18.1596851348877</t>
   </si>
   <si>
     <t xml:space="preserve">18.4222736358643</t>
@@ -1088,16 +1088,16 @@
     <t xml:space="preserve">18.2335376739502</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1925067901611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.135066986084</t>
+    <t xml:space="preserve">18.1925086975098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1350650787354</t>
   </si>
   <si>
     <t xml:space="preserve">17.9217128753662</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6345062255859</t>
+    <t xml:space="preserve">17.6345043182373</t>
   </si>
   <si>
     <t xml:space="preserve">17.5442390441895</t>
@@ -1106,13 +1106,13 @@
     <t xml:space="preserve">17.3555068969727</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0272674560547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7975025177002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9041805267334</t>
+    <t xml:space="preserve">17.0272693634033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7975044250488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9041786193848</t>
   </si>
   <si>
     <t xml:space="preserve">17.1913871765137</t>
@@ -1121,88 +1121,88 @@
     <t xml:space="preserve">17.6919479370117</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9052982330322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.815034866333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0037708282471</t>
+    <t xml:space="preserve">17.9053001403809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8150329589844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0037727355957</t>
   </si>
   <si>
     <t xml:space="preserve">17.8396530151367</t>
   </si>
   <si>
-    <t xml:space="preserve">17.962739944458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4293594360352</t>
+    <t xml:space="preserve">17.9627418518066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4293556213379</t>
   </si>
   <si>
     <t xml:space="preserve">17.0354747772217</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4703884124756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4621829986572</t>
+    <t xml:space="preserve">17.4703903198242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4621810913086</t>
   </si>
   <si>
     <t xml:space="preserve">17.7822113037109</t>
   </si>
   <si>
-    <t xml:space="preserve">17.659122467041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8232421875</t>
+    <t xml:space="preserve">17.6591243743896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8232402801514</t>
   </si>
   <si>
     <t xml:space="preserve">17.4129428863525</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3976554870605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4468898773193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5617752075195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.627420425415</t>
+    <t xml:space="preserve">18.3976535797119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.446891784668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5617733001709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6274223327637</t>
   </si>
   <si>
     <t xml:space="preserve">18.7751274108887</t>
   </si>
   <si>
-    <t xml:space="preserve">18.47971534729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7258949279785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3155956268311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2827701568604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5781841278076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5114192962646</t>
+    <t xml:space="preserve">18.4797134399414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7258911132812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3155994415283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2827739715576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5781860351562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5114154815674</t>
   </si>
   <si>
     <t xml:space="preserve">18.0201835632324</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3472995758057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2980651855469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9381237030029</t>
+    <t xml:space="preserve">17.347297668457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2980613708496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9381256103516</t>
   </si>
   <si>
     <t xml:space="preserve">17.675537109375</t>
@@ -1211,13 +1211,13 @@
     <t xml:space="preserve">17.2652416229248</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3144760131836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4961261749268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5793075561523</t>
+    <t xml:space="preserve">17.3144779205322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4961280822754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.579309463501</t>
   </si>
   <si>
     <t xml:space="preserve">19.5136604309082</t>
@@ -1226,13 +1226,13 @@
     <t xml:space="preserve">20.03883934021</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3178386688232</t>
+    <t xml:space="preserve">20.3178367614746</t>
   </si>
   <si>
     <t xml:space="preserve">20.1701316833496</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0716590881348</t>
+    <t xml:space="preserve">20.0716609954834</t>
   </si>
   <si>
     <t xml:space="preserve">19.8418960571289</t>
@@ -1241,31 +1241,31 @@
     <t xml:space="preserve">19.8254833221436</t>
   </si>
   <si>
-    <t xml:space="preserve">19.8911304473877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8090724945068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9403648376465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4327220916748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6296634674072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.531192779541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5968418121338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7609596252441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5147838592529</t>
+    <t xml:space="preserve">19.8911323547363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8090705871582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9403667449951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4327201843262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6296653747559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5311908721924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5968399047852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7609577178955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5147819519043</t>
   </si>
   <si>
     <t xml:space="preserve">20.3506622314453</t>
@@ -1274,7 +1274,7 @@
     <t xml:space="preserve">20.2850151062012</t>
   </si>
   <si>
-    <t xml:space="preserve">20.33424949646</t>
+    <t xml:space="preserve">20.3342533111572</t>
   </si>
   <si>
     <t xml:space="preserve">20.4655456542969</t>
@@ -1283,46 +1283,46 @@
     <t xml:space="preserve">20.4163093566895</t>
   </si>
   <si>
-    <t xml:space="preserve">20.383487701416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4491348266602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7281341552734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.843017578125</t>
+    <t xml:space="preserve">20.3834857940674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4491310119629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7281360626221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8430156707764</t>
   </si>
   <si>
     <t xml:space="preserve">20.7937812805176</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6789016723633</t>
+    <t xml:space="preserve">20.6788997650146</t>
   </si>
   <si>
     <t xml:space="preserve">20.7117233276367</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6460742950439</t>
+    <t xml:space="preserve">20.6460762023926</t>
   </si>
   <si>
     <t xml:space="preserve">20.8101940155029</t>
   </si>
   <si>
-    <t xml:space="preserve">19.251070022583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4808368682861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1854228973389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1361885070801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2887344360352</t>
+    <t xml:space="preserve">19.2510681152344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4808349609375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1854209899902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1361865997314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2887363433838</t>
   </si>
   <si>
     <t xml:space="preserve">19.0514392852783</t>
@@ -1331,25 +1331,25 @@
     <t xml:space="preserve">19.492130279541</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3226337432861</t>
+    <t xml:space="preserve">19.3226318359375</t>
   </si>
   <si>
     <t xml:space="preserve">19.7633266448975</t>
   </si>
   <si>
-    <t xml:space="preserve">19.6446800231934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7294292449951</t>
+    <t xml:space="preserve">19.6446781158447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7294273376465</t>
   </si>
   <si>
     <t xml:space="preserve">19.6955261230469</t>
   </si>
   <si>
-    <t xml:space="preserve">19.6277275085449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2717838287354</t>
+    <t xml:space="preserve">19.6277294158936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2717876434326</t>
   </si>
   <si>
     <t xml:space="preserve">19.5599308013916</t>
@@ -1358,55 +1358,55 @@
     <t xml:space="preserve">19.8311233520508</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7802753448486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5429821014404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5938301086426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4412822723389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8988914489746</t>
+    <t xml:space="preserve">19.7802772521973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5429801940918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5938282012939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4412841796875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8988933563232</t>
   </si>
   <si>
     <t xml:space="preserve">18.9158420562744</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7971935272217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.017541885376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0683898925781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9836406707764</t>
+    <t xml:space="preserve">18.7971954345703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0175399780273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0683879852295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.983642578125</t>
   </si>
   <si>
     <t xml:space="preserve">19.1022891998291</t>
   </si>
   <si>
-    <t xml:space="preserve">19.526029586792</t>
+    <t xml:space="preserve">19.5260314941406</t>
   </si>
   <si>
     <t xml:space="preserve">19.6616287231445</t>
   </si>
   <si>
-    <t xml:space="preserve">19.5768814086914</t>
+    <t xml:space="preserve">19.5768795013428</t>
   </si>
   <si>
     <t xml:space="preserve">20.3226661682129</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3396129608154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1870670318604</t>
+    <t xml:space="preserve">20.3396167755127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.187068939209</t>
   </si>
   <si>
     <t xml:space="preserve">20.0175724029541</t>
@@ -1415,37 +1415,37 @@
     <t xml:space="preserve">19.9328231811523</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7124786376953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2379150390625</t>
+    <t xml:space="preserve">19.7124767303467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2379169464111</t>
   </si>
   <si>
     <t xml:space="preserve">19.9158725738525</t>
   </si>
   <si>
-    <t xml:space="preserve">19.6107769012451</t>
+    <t xml:space="preserve">19.6107788085938</t>
   </si>
   <si>
     <t xml:space="preserve">19.8480739593506</t>
   </si>
   <si>
-    <t xml:space="preserve">20.4243621826172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6447105407715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6955604553223</t>
+    <t xml:space="preserve">20.4243640899658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6447086334229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6955585479736</t>
   </si>
   <si>
     <t xml:space="preserve">20.3904628753662</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3057155609131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1701145172119</t>
+    <t xml:space="preserve">20.3057174682617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1701164245605</t>
   </si>
   <si>
     <t xml:space="preserve">20.2887668609619</t>
@@ -1457,10 +1457,10 @@
     <t xml:space="preserve">20.3565654754639</t>
   </si>
   <si>
-    <t xml:space="preserve">20.5091114044189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5260620117188</t>
+    <t xml:space="preserve">20.5091133117676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5260639190674</t>
   </si>
   <si>
     <t xml:space="preserve">20.4921627044678</t>
@@ -1469,7 +1469,7 @@
     <t xml:space="preserve">20.9328536987305</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6616592407227</t>
+    <t xml:space="preserve">20.661657333374</t>
   </si>
   <si>
     <t xml:space="preserve">20.5769100189209</t>
@@ -1478,31 +1478,31 @@
     <t xml:space="preserve">20.7633571624756</t>
   </si>
   <si>
-    <t xml:space="preserve">21.1023502349854</t>
+    <t xml:space="preserve">21.102352142334</t>
   </si>
   <si>
     <t xml:space="preserve">21.6108417510986</t>
   </si>
   <si>
-    <t xml:space="preserve">21.6955909729004</t>
+    <t xml:space="preserve">21.6955890655518</t>
   </si>
   <si>
     <t xml:space="preserve">21.5091419219971</t>
   </si>
   <si>
-    <t xml:space="preserve">22.0345821380615</t>
+    <t xml:space="preserve">22.0345840454102</t>
   </si>
   <si>
     <t xml:space="preserve">22.3905258178711</t>
   </si>
   <si>
-    <t xml:space="preserve">22.1023807525635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4921932220459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7294883728027</t>
+    <t xml:space="preserve">22.1023826599121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4921913146973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7294864654541</t>
   </si>
   <si>
     <t xml:space="preserve">21.390495300293</t>
@@ -1517,19 +1517,19 @@
     <t xml:space="preserve">20.729455947876</t>
   </si>
   <si>
-    <t xml:space="preserve">20.5938587188721</t>
+    <t xml:space="preserve">20.5938606262207</t>
   </si>
   <si>
     <t xml:space="preserve">19.9667224884033</t>
   </si>
   <si>
-    <t xml:space="preserve">19.8819732666016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5090827941895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3734855651855</t>
+    <t xml:space="preserve">19.8819713592529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5090808868408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3734836578369</t>
   </si>
   <si>
     <t xml:space="preserve">19.0344905853271</t>
@@ -1538,79 +1538,79 @@
     <t xml:space="preserve">19.4751815795898</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0853710174561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8989238739014</t>
+    <t xml:space="preserve">20.0853691101074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8989219665527</t>
   </si>
   <si>
     <t xml:space="preserve">19.237886428833</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8819408416748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5090503692627</t>
+    <t xml:space="preserve">18.8819446563721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5090484619141</t>
   </si>
   <si>
     <t xml:space="preserve">18.1870059967041</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2717552185059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0175094604492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6276950836182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9327621459961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1192054748535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9666614532471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8649635314941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1022605895996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2378540039062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5259990692139</t>
+    <t xml:space="preserve">18.2717514038086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0175075531006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6276988983154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9327602386475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1192073822021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9666633605957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8649616241455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1022567749023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2378578186035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5260009765625</t>
   </si>
   <si>
     <t xml:space="preserve">17.8480110168457</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3564720153809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9666309356689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0852756500244</t>
+    <t xml:space="preserve">17.3564701080322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9666290283203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.085277557373</t>
   </si>
   <si>
     <t xml:space="preserve">17.1022262573242</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3733901977539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2716903686523</t>
+    <t xml:space="preserve">16.3733882904053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.271692276001</t>
   </si>
   <si>
     <t xml:space="preserve">16.6106853485107</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4242401123047</t>
+    <t xml:space="preserve">16.4242362976074</t>
   </si>
   <si>
     <t xml:space="preserve">16.3903408050537</t>
@@ -1619,7 +1619,7 @@
     <t xml:space="preserve">16.7378082275391</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8140811920166</t>
+    <t xml:space="preserve">16.8140830993652</t>
   </si>
   <si>
     <t xml:space="preserve">16.7039089202881</t>
@@ -1643,19 +1643,19 @@
     <t xml:space="preserve">17.6446151733398</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7971649169922</t>
+    <t xml:space="preserve">17.7971630096436</t>
   </si>
   <si>
     <t xml:space="preserve">18.2209053039551</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4073524475098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3395519256592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.983606338501</t>
+    <t xml:space="preserve">18.4073505401611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3395538330078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9836101531982</t>
   </si>
   <si>
     <t xml:space="preserve">18.0514087677002</t>
@@ -1667,25 +1667,25 @@
     <t xml:space="preserve">17.2378234863281</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5768165588379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7293663024902</t>
+    <t xml:space="preserve">17.5768184661865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7293643951416</t>
   </si>
   <si>
     <t xml:space="preserve">17.8819122314453</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4412536621094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1531047821045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9158115386963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9497089385986</t>
+    <t xml:space="preserve">18.4412517547607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1531085968018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9158096313477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9497127532959</t>
   </si>
   <si>
     <t xml:space="preserve">17.8988628387451</t>
@@ -1706,7 +1706,7 @@
     <t xml:space="preserve">17.3056221008301</t>
   </si>
   <si>
-    <t xml:space="preserve">16.873405456543</t>
+    <t xml:space="preserve">16.8734073638916</t>
   </si>
   <si>
     <t xml:space="preserve">17.186975479126</t>
@@ -1715,34 +1715,34 @@
     <t xml:space="preserve">17.2039241790771</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3903694152832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2886734008789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2547721862793</t>
+    <t xml:space="preserve">17.3903732299805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2886714935303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2547740936279</t>
   </si>
   <si>
     <t xml:space="preserve">17.2208728790283</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8903560638428</t>
+    <t xml:space="preserve">16.8903541564941</t>
   </si>
   <si>
     <t xml:space="preserve">17.4242706298828</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5429210662842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8141117095947</t>
+    <t xml:space="preserve">17.5429191589355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8141136169434</t>
   </si>
   <si>
     <t xml:space="preserve">17.5937671661377</t>
   </si>
   <si>
-    <t xml:space="preserve">17.373420715332</t>
+    <t xml:space="preserve">17.3734226226807</t>
   </si>
   <si>
     <t xml:space="preserve">17.1700248718262</t>
@@ -1751,13 +1751,13 @@
     <t xml:space="preserve">17.5005435943604</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2462978363037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3310489654541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4157943725586</t>
+    <t xml:space="preserve">17.246301651001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3310470581055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4157962799072</t>
   </si>
   <si>
     <t xml:space="preserve">17.1615505218506</t>
@@ -1766,22 +1766,22 @@
     <t xml:space="preserve">17.0344276428223</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5852909088135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6700420379639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3480281829834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1361560821533</t>
+    <t xml:space="preserve">17.5852928161621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6700401306152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.348030090332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.136157989502</t>
   </si>
   <si>
     <t xml:space="preserve">18.0937843322754</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8395385742188</t>
+    <t xml:space="preserve">17.8395366668701</t>
   </si>
   <si>
     <t xml:space="preserve">18.0090351104736</t>
@@ -1790,46 +1790,46 @@
     <t xml:space="preserve">17.754789352417</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9242877960205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1785316467285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9148921966553</t>
+    <t xml:space="preserve">17.9242839813232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1785335540771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9148941040039</t>
   </si>
   <si>
     <t xml:space="preserve">18.0909595489502</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9589099884033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8268585205078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2670288085938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1789932250977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2230129241943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4871139526367</t>
+    <t xml:space="preserve">17.9589080810547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8268604278564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2670269012451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1789951324463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2230110168457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4871120452881</t>
   </si>
   <si>
     <t xml:space="preserve">18.4430961608887</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5311298370361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3550643920898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0029277801514</t>
+    <t xml:space="preserve">18.5311279296875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3550624847412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0029258728027</t>
   </si>
   <si>
     <t xml:space="preserve">17.7828426361084</t>
@@ -1838,25 +1838,25 @@
     <t xml:space="preserve">17.6507911682129</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3426704406738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5011310577393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.553955078125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7952327728271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7512149810791</t>
+    <t xml:space="preserve">17.3426723480225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5011329650879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5539531707764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7952308654785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7512130737305</t>
   </si>
   <si>
     <t xml:space="preserve">18.5751476287842</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6191654205322</t>
+    <t xml:space="preserve">18.6191635131836</t>
   </si>
   <si>
     <t xml:space="preserve">18.3110446929932</t>
@@ -1874,13 +1874,13 @@
     <t xml:space="preserve">17.2370319366455</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1666030883789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2722454071045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1137847900391</t>
+    <t xml:space="preserve">17.1666049957275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2722473144531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1137828826904</t>
   </si>
   <si>
     <t xml:space="preserve">17.3074569702148</t>
@@ -1892,58 +1892,58 @@
     <t xml:space="preserve">16.6912212371826</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7616481781006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0609645843506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4799423217773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3742980957031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6207942962646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1101989746094</t>
+    <t xml:space="preserve">16.7616500854492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.060962677002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4799404144287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3743000030518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.620792388916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1101970672607</t>
   </si>
   <si>
     <t xml:space="preserve">16.3038711547852</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6560096740723</t>
+    <t xml:space="preserve">16.6560077667236</t>
   </si>
   <si>
     <t xml:space="preserve">16.5679740905762</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4095134735107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3919086456299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3214797973633</t>
+    <t xml:space="preserve">16.4095115661621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3919067382812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3214778900146</t>
   </si>
   <si>
     <t xml:space="preserve">16.2334461212158</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9025020599365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.289852142334</t>
+    <t xml:space="preserve">16.9025039672852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2898502349854</t>
   </si>
   <si>
     <t xml:space="preserve">17.3954925537109</t>
   </si>
   <si>
-    <t xml:space="preserve">17.448314666748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6948070526123</t>
+    <t xml:space="preserve">17.4483127593994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6948089599609</t>
   </si>
   <si>
     <t xml:space="preserve">19.0593318939209</t>
@@ -1952,7 +1952,7 @@
     <t xml:space="preserve">18.1349773406982</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3990802764893</t>
+    <t xml:space="preserve">18.3990783691406</t>
   </si>
   <si>
     <t xml:space="preserve">17.8708744049072</t>
@@ -1970,7 +1970,7 @@
     <t xml:space="preserve">16.8848972320557</t>
   </si>
   <si>
-    <t xml:space="preserve">17.148998260498</t>
+    <t xml:space="preserve">17.1489963531494</t>
   </si>
   <si>
     <t xml:space="preserve">17.1313896179199</t>
@@ -1979,13 +1979,13 @@
     <t xml:space="preserve">17.4835262298584</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7264347076416</t>
+    <t xml:space="preserve">16.7264366149902</t>
   </si>
   <si>
     <t xml:space="preserve">16.6384010314941</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5503673553467</t>
+    <t xml:space="preserve">16.550365447998</t>
   </si>
   <si>
     <t xml:space="preserve">16.4271202087402</t>
@@ -1994,16 +1994,16 @@
     <t xml:space="preserve">16.7088279724121</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6736145019531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8144702911377</t>
+    <t xml:space="preserve">16.6736164093018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8144683837891</t>
   </si>
   <si>
     <t xml:space="preserve">17.360279083252</t>
   </si>
   <si>
-    <t xml:space="preserve">17.325065612793</t>
+    <t xml:space="preserve">17.3250637054443</t>
   </si>
   <si>
     <t xml:space="preserve">16.9553241729736</t>
@@ -2012,37 +2012,37 @@
     <t xml:space="preserve">18.6631813049316</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0469417572021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.219425201416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.990535736084</t>
+    <t xml:space="preserve">18.0469436645508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2194232940674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9905376434326</t>
   </si>
   <si>
     <t xml:space="preserve">17.184211730957</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5715579986572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4235343933105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7052421569824</t>
+    <t xml:space="preserve">17.5715599060059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4235324859619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7052431106567</t>
   </si>
   <si>
     <t xml:space="preserve">15.0537919998169</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7896890640259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4727687835693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2614879608154</t>
+    <t xml:space="preserve">14.7896900177002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.472767829895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2614870071411</t>
   </si>
   <si>
     <t xml:space="preserve">14.0854187011719</t>
@@ -2057,10 +2057,10 @@
     <t xml:space="preserve">12.694483757019</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1874723434448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7085056304932</t>
+    <t xml:space="preserve">13.1874732971191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7085037231445</t>
   </si>
   <si>
     <t xml:space="preserve">12.1838884353638</t>
@@ -2078,10 +2078,10 @@
     <t xml:space="preserve">10.9514131546021</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6064500808716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2050800323486</t>
+    <t xml:space="preserve">12.6064491271973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2050809860229</t>
   </si>
   <si>
     <t xml:space="preserve">13.6452503204346</t>
@@ -2090,7 +2090,7 @@
     <t xml:space="preserve">12.9233722686768</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0466194152832</t>
+    <t xml:space="preserve">13.0466184616089</t>
   </si>
   <si>
     <t xml:space="preserve">11.9021797180176</t>
@@ -2099,7 +2099,7 @@
     <t xml:space="preserve">11.5852575302124</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3211555480957</t>
+    <t xml:space="preserve">11.3211545944214</t>
   </si>
   <si>
     <t xml:space="preserve">10.8281660079956</t>
@@ -2114,31 +2114,31 @@
     <t xml:space="preserve">11.1803007125854</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0394477844238</t>
+    <t xml:space="preserve">11.0394468307495</t>
   </si>
   <si>
     <t xml:space="preserve">10.7753448486328</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6697053909302</t>
+    <t xml:space="preserve">10.6697044372559</t>
   </si>
   <si>
     <t xml:space="preserve">10.5816717147827</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1098747253418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3563690185547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9338073730469</t>
+    <t xml:space="preserve">11.1098737716675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3563680648804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9338064193726</t>
   </si>
   <si>
     <t xml:space="preserve">10.6873121261597</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8809862136841</t>
+    <t xml:space="preserve">10.8809871673584</t>
   </si>
   <si>
     <t xml:space="preserve">10.6168851852417</t>
@@ -2147,22 +2147,22 @@
     <t xml:space="preserve">10.6520986557007</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7401313781738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5288505554199</t>
+    <t xml:space="preserve">10.7401323318481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5288496017456</t>
   </si>
   <si>
     <t xml:space="preserve">10.0358610153198</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0886812210083</t>
+    <t xml:space="preserve">10.0886821746826</t>
   </si>
   <si>
     <t xml:space="preserve">9.89500617980957</t>
   </si>
   <si>
-    <t xml:space="preserve">9.70133209228516</t>
+    <t xml:space="preserve">9.70133304595947</t>
   </si>
   <si>
     <t xml:space="preserve">9.63090515136719</t>
@@ -2174,7 +2174,7 @@
     <t xml:space="preserve">10.7577390670776</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2999620437622</t>
+    <t xml:space="preserve">10.2999629974365</t>
   </si>
   <si>
     <t xml:space="preserve">9.96543407440186</t>
@@ -2189,19 +2189,19 @@
     <t xml:space="preserve">11.057053565979</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6732912063599</t>
+    <t xml:space="preserve">11.6732921600342</t>
   </si>
   <si>
     <t xml:space="preserve">11.5676507949829</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6556835174561</t>
+    <t xml:space="preserve">11.6556844711304</t>
   </si>
   <si>
     <t xml:space="preserve">11.4796161651611</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5500440597534</t>
+    <t xml:space="preserve">11.5500431060791</t>
   </si>
   <si>
     <t xml:space="preserve">12.5360221862793</t>
@@ -2213,7 +2213,7 @@
     <t xml:space="preserve">12.3071346282959</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0606393814087</t>
+    <t xml:space="preserve">12.060640335083</t>
   </si>
   <si>
     <t xml:space="preserve">11.3387622833252</t>
@@ -2222,10 +2222,10 @@
     <t xml:space="preserve">11.6204710006714</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6380777359009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9549999237061</t>
+    <t xml:space="preserve">11.6380786895752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9549989700317</t>
   </si>
   <si>
     <t xml:space="preserve">11.9726066589355</t>
@@ -2240,7 +2240,7 @@
     <t xml:space="preserve">11.990213394165</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7613248825073</t>
+    <t xml:space="preserve">11.761323928833</t>
   </si>
   <si>
     <t xml:space="preserve">11.6908979415894</t>
@@ -2249,7 +2249,7 @@
     <t xml:space="preserve">11.7437181472778</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4972229003906</t>
+    <t xml:space="preserve">11.4972238540649</t>
   </si>
   <si>
     <t xml:space="preserve">11.5148305892944</t>
@@ -2258,25 +2258,25 @@
     <t xml:space="preserve">11.2331228256226</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0218410491943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3035488128662</t>
+    <t xml:space="preserve">11.02184009552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3035478591919</t>
   </si>
   <si>
     <t xml:space="preserve">10.986626625061</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8633785247803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6028652191162</t>
+    <t xml:space="preserve">10.8633794784546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6028642654419</t>
   </si>
   <si>
     <t xml:space="preserve">11.1979084014893</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1450872421265</t>
+    <t xml:space="preserve">11.1450881958008</t>
   </si>
   <si>
     <t xml:space="preserve">11.2683362960815</t>
@@ -2285,7 +2285,7 @@
     <t xml:space="preserve">11.1274814605713</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6344919204712</t>
+    <t xml:space="preserve">10.6344909667969</t>
   </si>
   <si>
     <t xml:space="preserve">10.9690198898315</t>
@@ -2294,22 +2294,22 @@
     <t xml:space="preserve">11.4444026947021</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2507276535034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8141450881958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1134605407715</t>
+    <t xml:space="preserve">11.2507295608521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8141441345215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1134595870972</t>
   </si>
   <si>
     <t xml:space="preserve">12.1310663223267</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9197854995728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5324363708496</t>
+    <t xml:space="preserve">11.9197864532471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5324382781982</t>
   </si>
   <si>
     <t xml:space="preserve">12.0078201293945</t>
@@ -2321,16 +2321,16 @@
     <t xml:space="preserve">12.2191009521484</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5888442993164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9585866928101</t>
+    <t xml:space="preserve">12.5888433456421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9585857391357</t>
   </si>
   <si>
     <t xml:space="preserve">12.7120904922485</t>
   </si>
   <si>
-    <t xml:space="preserve">12.800124168396</t>
+    <t xml:space="preserve">12.8001251220703</t>
   </si>
   <si>
     <t xml:space="preserve">13.0114049911499</t>
@@ -2339,7 +2339,7 @@
     <t xml:space="preserve">12.0782470703125</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7965383529663</t>
+    <t xml:space="preserve">11.796537399292</t>
   </si>
   <si>
     <t xml:space="preserve">11.2859420776367</t>
@@ -2354,7 +2354,7 @@
     <t xml:space="preserve">10.2119293212891</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2471437454224</t>
+    <t xml:space="preserve">10.2471418380737</t>
   </si>
   <si>
     <t xml:space="preserve">10.1943216323853</t>
@@ -2363,31 +2363,31 @@
     <t xml:space="preserve">10.3527841567993</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2579011917114</t>
+    <t xml:space="preserve">13.2579021453857</t>
   </si>
   <si>
     <t xml:space="preserve">13.8037109375</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9409799575806</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6276435852051</t>
+    <t xml:space="preserve">12.9409780502319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6276426315308</t>
   </si>
   <si>
     <t xml:space="preserve">14.1382389068604</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1698656082153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.029013633728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5043954849243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.698070526123</t>
+    <t xml:space="preserve">13.169867515564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0290117263794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5043964385986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6980695724487</t>
   </si>
   <si>
     <t xml:space="preserve">13.9093523025513</t>
@@ -2399,7 +2399,7 @@
     <t xml:space="preserve">13.874137878418</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8213176727295</t>
+    <t xml:space="preserve">13.8213167190552</t>
   </si>
   <si>
     <t xml:space="preserve">13.8917446136475</t>
@@ -2414,7 +2414,7 @@
     <t xml:space="preserve">13.2755069732666</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5220012664795</t>
+    <t xml:space="preserve">13.5220022201538</t>
   </si>
   <si>
     <t xml:space="preserve">13.1346530914307</t>
@@ -2426,25 +2426,25 @@
     <t xml:space="preserve">13.4339685440063</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7508897781372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7156772613525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3671264648438</t>
+    <t xml:space="preserve">13.7508907318115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7156763076782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3671274185181</t>
   </si>
   <si>
     <t xml:space="preserve">14.842511177063</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2474660873413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4763555526733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5996007919312</t>
+    <t xml:space="preserve">15.247465133667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.476354598999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5996026992798</t>
   </si>
   <si>
     <t xml:space="preserve">15.6700277328491</t>
@@ -2453,109 +2453,109 @@
     <t xml:space="preserve">15.5291738510132</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9657564163208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3178939819336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6876363754272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6524229049683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3883199691772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2298583984375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1242189407349</t>
+    <t xml:space="preserve">14.9657573699951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3178911209106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6876344680786</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6524219512939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3883190155029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2298593521118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1242179870605</t>
   </si>
   <si>
     <t xml:space="preserve">15.1066131591797</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6312303543091</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8777236938477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9129390716553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1594305038452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9693422317505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8460969924927</t>
+    <t xml:space="preserve">14.6312284469604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8777227401733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.912938117981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1594314575195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9693441390991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8460960388184</t>
   </si>
   <si>
     <t xml:space="preserve">16.3390846252441</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2862663269043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9729309082031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8108825683594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8989171981812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8284883499146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9165239334106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7968635559082</t>
+    <t xml:space="preserve">16.2862644195557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9729328155518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8108806610107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8989181518555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8284893035889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.916522026062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7968616485596</t>
   </si>
   <si>
     <t xml:space="preserve">16.6031875610352</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0081424713135</t>
+    <t xml:space="preserve">17.0081443786621</t>
   </si>
   <si>
     <t xml:space="preserve">17.0785694122314</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0433578491211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5151538848877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9341297149658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1982307434082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1630191802979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.074987411499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4447288513184</t>
+    <t xml:space="preserve">17.0433559417725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5151519775391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9341306686401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1982345581055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1630210876465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0749855041504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4447269439697</t>
   </si>
   <si>
     <t xml:space="preserve">16.5855808258057</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1454105377197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4535312652588</t>
+    <t xml:space="preserve">16.1454124450684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4535293579102</t>
   </si>
   <si>
     <t xml:space="preserve">16.2070350646973</t>
@@ -2570,10 +2570,10 @@
     <t xml:space="preserve">16.5327606201172</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8232727050781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6824207305908</t>
+    <t xml:space="preserve">16.8232746124268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6824188232422</t>
   </si>
   <si>
     <t xml:space="preserve">16.700023651123</t>
@@ -2582,10 +2582,10 @@
     <t xml:space="preserve">16.8584861755371</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7176303863525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3831043243408</t>
+    <t xml:space="preserve">16.7176322937012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3831024169922</t>
   </si>
   <si>
     <t xml:space="preserve">17.404296875</t>
@@ -2597,7 +2597,7 @@
     <t xml:space="preserve">16.8408794403076</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0697689056396</t>
+    <t xml:space="preserve">17.069766998291</t>
   </si>
   <si>
     <t xml:space="preserve">17.0961761474609</t>
@@ -2609,10 +2609,10 @@
     <t xml:space="preserve">17.6419887542725</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8532695770264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7300205230713</t>
+    <t xml:space="preserve">17.8532676696777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7300224304199</t>
   </si>
   <si>
     <t xml:space="preserve">17.9413013458252</t>
@@ -2621,19 +2621,19 @@
     <t xml:space="preserve">17.9765148162842</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1877975463867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3638648986816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5047187805176</t>
+    <t xml:space="preserve">18.1877956390381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3638668060303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5047206878662</t>
   </si>
   <si>
     <t xml:space="preserve">18.5223274230957</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2758293151855</t>
+    <t xml:space="preserve">18.2758312225342</t>
   </si>
   <si>
     <t xml:space="preserve">17.7476291656494</t>
@@ -2645,55 +2645,55 @@
     <t xml:space="preserve">18.0997619628906</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0821590423584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9236965179443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8004474639893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8884811401367</t>
+    <t xml:space="preserve">18.0821552276611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9236946105957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8004493713379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8884792327881</t>
   </si>
   <si>
     <t xml:space="preserve">18.2582244873047</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1525859832764</t>
+    <t xml:space="preserve">18.1525840759277</t>
   </si>
   <si>
     <t xml:space="preserve">18.1701908111572</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7652359008789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4166870117188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3286514282227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9060897827148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8936977386475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2018203735352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2282295227051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.624382019043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8428344726562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3146305084229</t>
+    <t xml:space="preserve">17.7652378082275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4166851043701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3286533355713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9060878753662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8936996459961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2018184661865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2282276153564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6243801116943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8428363800049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3146324157715</t>
   </si>
   <si>
     <t xml:space="preserve">19.2794170379639</t>
@@ -2702,13 +2702,13 @@
     <t xml:space="preserve">18.698392868042</t>
   </si>
   <si>
-    <t xml:space="preserve">19.191385269165</t>
+    <t xml:space="preserve">19.1913814544678</t>
   </si>
   <si>
     <t xml:space="preserve">18.7336082458496</t>
   </si>
   <si>
-    <t xml:space="preserve">18.892068862915</t>
+    <t xml:space="preserve">18.8920650482178</t>
   </si>
   <si>
     <t xml:space="preserve">18.4695053100586</t>
@@ -2717,37 +2717,37 @@
     <t xml:space="preserve">18.3814697265625</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0645503997803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8180561065674</t>
+    <t xml:space="preserve">18.0645523071289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8180541992188</t>
   </si>
   <si>
     <t xml:space="preserve">18.0117282867432</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2406158447266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4131011962891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4219055175781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.034553527832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1578025817871</t>
+    <t xml:space="preserve">18.2406177520752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4130992889404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4219036102295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0345554351807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1578006744385</t>
   </si>
   <si>
     <t xml:space="preserve">18.6103591918945</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1173706054688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2934379577637</t>
+    <t xml:space="preserve">18.1173686981201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2934398651123</t>
   </si>
   <si>
     <t xml:space="preserve">18.76881980896</t>
@@ -2768,13 +2768,13 @@
     <t xml:space="preserve">18.6226081848145</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4793567657471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4435443878174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.747953414917</t>
+    <t xml:space="preserve">18.4793586730957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.443546295166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7479553222656</t>
   </si>
   <si>
     <t xml:space="preserve">18.5151710510254</t>
@@ -2783,10 +2783,10 @@
     <t xml:space="preserve">18.5330772399902</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2286701202393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0854206085205</t>
+    <t xml:space="preserve">18.2286682128906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0854187011719</t>
   </si>
   <si>
     <t xml:space="preserve">18.0496063232422</t>
@@ -2798,7 +2798,7 @@
     <t xml:space="preserve">17.8974018096924</t>
   </si>
   <si>
-    <t xml:space="preserve">18.139139175415</t>
+    <t xml:space="preserve">18.1391372680664</t>
   </si>
   <si>
     <t xml:space="preserve">17.9063549041748</t>
@@ -2807,10 +2807,10 @@
     <t xml:space="preserve">17.7810096740723</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2644824981689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1990528106689</t>
+    <t xml:space="preserve">18.2644805908203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1990547180176</t>
   </si>
   <si>
     <t xml:space="preserve">17.0826625823975</t>
@@ -2819,19 +2819,19 @@
     <t xml:space="preserve">17.136381149292</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7603492736816</t>
+    <t xml:space="preserve">16.760347366333</t>
   </si>
   <si>
     <t xml:space="preserve">16.6529102325439</t>
   </si>
   <si>
-    <t xml:space="preserve">16.831974029541</t>
+    <t xml:space="preserve">16.8319721221924</t>
   </si>
   <si>
     <t xml:space="preserve">16.3574562072754</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4738464355469</t>
+    <t xml:space="preserve">16.4738483428955</t>
   </si>
   <si>
     <t xml:space="preserve">16.0261859893799</t>
@@ -2840,22 +2840,22 @@
     <t xml:space="preserve">16.3664093017578</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5633792877197</t>
+    <t xml:space="preserve">16.5633773803711</t>
   </si>
   <si>
     <t xml:space="preserve">16.5365180969238</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8051128387451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0289421081543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8498783111572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8677845001221</t>
+    <t xml:space="preserve">16.8051147460938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0289440155029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8498802185059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8677864074707</t>
   </si>
   <si>
     <t xml:space="preserve">16.9931297302246</t>
@@ -2864,16 +2864,16 @@
     <t xml:space="preserve">16.9125518798828</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7334899902344</t>
+    <t xml:space="preserve">16.7334880828857</t>
   </si>
   <si>
     <t xml:space="preserve">16.7424430847168</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4648914337158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4380340576172</t>
+    <t xml:space="preserve">16.4648933410645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4380359649658</t>
   </si>
   <si>
     <t xml:space="preserve">16.1157188415527</t>
@@ -2897,7 +2897,7 @@
     <t xml:space="preserve">17.4586963653564</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5454730987549</t>
+    <t xml:space="preserve">16.5454711914062</t>
   </si>
   <si>
     <t xml:space="preserve">16.6618633270264</t>
@@ -2906,16 +2906,16 @@
     <t xml:space="preserve">17.0199909210205</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9483661651611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3154449462891</t>
+    <t xml:space="preserve">16.9483642578125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3154468536377</t>
   </si>
   <si>
     <t xml:space="preserve">16.8946475982666</t>
   </si>
   <si>
-    <t xml:space="preserve">17.002082824707</t>
+    <t xml:space="preserve">17.0020847320557</t>
   </si>
   <si>
     <t xml:space="preserve">16.4917526245117</t>
@@ -2924,7 +2924,7 @@
     <t xml:space="preserve">15.9366550445557</t>
   </si>
   <si>
-    <t xml:space="preserve">16.079906463623</t>
+    <t xml:space="preserve">16.0799045562744</t>
   </si>
   <si>
     <t xml:space="preserve">16.4827995300293</t>
@@ -2945,25 +2945,25 @@
     <t xml:space="preserve">16.8409252166748</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4022197723389</t>
+    <t xml:space="preserve">16.4022216796875</t>
   </si>
   <si>
     <t xml:space="preserve">15.8918905258179</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9456090927124</t>
+    <t xml:space="preserve">15.9456081390381</t>
   </si>
   <si>
     <t xml:space="preserve">16.0978126525879</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3843154907227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5902366638184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4290790557861</t>
+    <t xml:space="preserve">16.384313583374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.590238571167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4290809631348</t>
   </si>
   <si>
     <t xml:space="preserve">16.0888595581055</t>
@@ -2975,43 +2975,43 @@
     <t xml:space="preserve">15.2920265197754</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5847263336182</t>
+    <t xml:space="preserve">14.5847272872925</t>
   </si>
   <si>
     <t xml:space="preserve">14.9159936904907</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9876194000244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2534589767456</t>
+    <t xml:space="preserve">14.9876184463501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2534580230713</t>
   </si>
   <si>
     <t xml:space="preserve">14.4235687255859</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9490509033203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5103454589844</t>
+    <t xml:space="preserve">13.949049949646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5103445053101</t>
   </si>
   <si>
     <t xml:space="preserve">13.3760471343994</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6983613967896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.154974937439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9311447143555</t>
+    <t xml:space="preserve">13.6983623504639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1549739837646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9311437606812</t>
   </si>
   <si>
     <t xml:space="preserve">14.3429908752441</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7727422714233</t>
+    <t xml:space="preserve">14.7727432250977</t>
   </si>
   <si>
     <t xml:space="preserve">14.1370677947998</t>
@@ -3026,16 +3026,16 @@
     <t xml:space="preserve">13.7252206802368</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5461568832397</t>
+    <t xml:space="preserve">13.5461578369141</t>
   </si>
   <si>
     <t xml:space="preserve">13.4118595123291</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1790781021118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2507028579712</t>
+    <t xml:space="preserve">13.1790771484375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2507019042969</t>
   </si>
   <si>
     <t xml:space="preserve">13.4655790328979</t>
@@ -3053,7 +3053,7 @@
     <t xml:space="preserve">12.8746690750122</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0358266830444</t>
+    <t xml:space="preserve">13.0358276367188</t>
   </si>
   <si>
     <t xml:space="preserve">13.1074514389038</t>
@@ -3068,13 +3068,13 @@
     <t xml:space="preserve">14.2355518341064</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2176465988159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2713642120361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6294918060303</t>
+    <t xml:space="preserve">14.2176456451416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2713651657104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6294927597046</t>
   </si>
   <si>
     <t xml:space="preserve">14.1281137466431</t>
@@ -3092,19 +3092,19 @@
     <t xml:space="preserve">13.4834861755371</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5551109313965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1611709594727</t>
+    <t xml:space="preserve">13.5551099777222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1611700057983</t>
   </si>
   <si>
     <t xml:space="preserve">12.9642000198364</t>
   </si>
   <si>
-    <t xml:space="preserve">12.785138130188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6060743331909</t>
+    <t xml:space="preserve">12.7851371765137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6060733795166</t>
   </si>
   <si>
     <t xml:space="preserve">12.8925752639771</t>
@@ -3137,13 +3137,13 @@
     <t xml:space="preserve">12.178035736084</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0668210983276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6228942871094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6414318084717</t>
+    <t xml:space="preserve">12.0668201446533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6228952407837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6414308547974</t>
   </si>
   <si>
     <t xml:space="preserve">13.1975049972534</t>
@@ -3152,25 +3152,25 @@
     <t xml:space="preserve">12.8453245162964</t>
   </si>
   <si>
-    <t xml:space="preserve">12.752646446228</t>
+    <t xml:space="preserve">12.7526454925537</t>
   </si>
   <si>
     <t xml:space="preserve">12.7155742645264</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9380044937134</t>
+    <t xml:space="preserve">12.9380035400391</t>
   </si>
   <si>
     <t xml:space="preserve">13.0862903594971</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3272571563721</t>
+    <t xml:space="preserve">13.3272562026978</t>
   </si>
   <si>
     <t xml:space="preserve">13.0677547454834</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3077850341797</t>
+    <t xml:space="preserve">12.307785987854</t>
   </si>
   <si>
     <t xml:space="preserve">12.1409645080566</t>
@@ -3179,7 +3179,7 @@
     <t xml:space="preserve">11.881462097168</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4375371932983</t>
+    <t xml:space="preserve">12.437536239624</t>
   </si>
   <si>
     <t xml:space="preserve">12.2892503738403</t>
@@ -3200,13 +3200,13 @@
     <t xml:space="preserve">12.4746084213257</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1965703964233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.955605506897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4736738204956</t>
+    <t xml:space="preserve">12.1965713500977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9556045532227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4736747741699</t>
   </si>
   <si>
     <t xml:space="preserve">11.73317527771</t>
@@ -3218,13 +3218,13 @@
     <t xml:space="preserve">12.085355758667</t>
   </si>
   <si>
-    <t xml:space="preserve">11.937068939209</t>
+    <t xml:space="preserve">11.9370698928833</t>
   </si>
   <si>
     <t xml:space="preserve">11.7146396636963</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5107450485229</t>
+    <t xml:space="preserve">11.5107460021973</t>
   </si>
   <si>
     <t xml:space="preserve">12.0297479629517</t>
@@ -3242,7 +3242,7 @@
     <t xml:space="preserve">12.3263216018677</t>
   </si>
   <si>
-    <t xml:space="preserve">12.511679649353</t>
+    <t xml:space="preserve">12.5116806030273</t>
   </si>
   <si>
     <t xml:space="preserve">12.5487518310547</t>
@@ -3260,22 +3260,22 @@
     <t xml:space="preserve">12.252179145813</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1224269866943</t>
+    <t xml:space="preserve">12.1224279403687</t>
   </si>
   <si>
     <t xml:space="preserve">11.7887830734253</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7702474594116</t>
+    <t xml:space="preserve">11.7702465057373</t>
   </si>
   <si>
     <t xml:space="preserve">11.3809947967529</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3439235687256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3253870010376</t>
+    <t xml:space="preserve">11.3439226150513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3253879547119</t>
   </si>
   <si>
     <t xml:space="preserve">11.1585655212402</t>
@@ -3284,13 +3284,13 @@
     <t xml:space="preserve">10.9175987243652</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8619928359985</t>
+    <t xml:space="preserve">10.8619918823242</t>
   </si>
   <si>
     <t xml:space="preserve">10.6766338348389</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7693128585815</t>
+    <t xml:space="preserve">10.7693119049072</t>
   </si>
   <si>
     <t xml:space="preserve">10.3800601959229</t>
@@ -3302,10 +3302,10 @@
     <t xml:space="preserve">10.4171314239502</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3615255355835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6024894714355</t>
+    <t xml:space="preserve">10.3615245819092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6024904251099</t>
   </si>
   <si>
     <t xml:space="preserve">10.8249206542969</t>
@@ -3314,13 +3314,13 @@
     <t xml:space="preserve">9.86105823516846</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1020231246948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.78691482543945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.8239860534668</t>
+    <t xml:space="preserve">10.1020221710205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.78691387176514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.82398700714111</t>
   </si>
   <si>
     <t xml:space="preserve">9.62009143829346</t>
@@ -3338,10 +3338,10 @@
     <t xml:space="preserve">9.00840950012207</t>
   </si>
   <si>
-    <t xml:space="preserve">8.6933012008667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.96206951141357</t>
+    <t xml:space="preserve">8.69330024719238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.96207046508789</t>
   </si>
   <si>
     <t xml:space="preserve">8.98060607910156</t>
@@ -3353,13 +3353,13 @@
     <t xml:space="preserve">9.09182167053223</t>
   </si>
   <si>
-    <t xml:space="preserve">8.86012268066406</t>
+    <t xml:space="preserve">8.86012363433838</t>
   </si>
   <si>
     <t xml:space="preserve">9.07328510284424</t>
   </si>
   <si>
-    <t xml:space="preserve">9.11962509155273</t>
+    <t xml:space="preserve">9.11962413787842</t>
   </si>
   <si>
     <t xml:space="preserve">9.39766216278076</t>
@@ -3374,25 +3374,25 @@
     <t xml:space="preserve">9.56448459625244</t>
   </si>
   <si>
-    <t xml:space="preserve">9.37912654876709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.26791191101074</t>
+    <t xml:space="preserve">9.37912559509277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.26791095733643</t>
   </si>
   <si>
     <t xml:space="preserve">9.58302021026611</t>
   </si>
   <si>
-    <t xml:space="preserve">9.6571626663208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.99080848693848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.87959384918213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.84252071380615</t>
+    <t xml:space="preserve">9.65716361999512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.99080753326416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.87959289550781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.84252166748047</t>
   </si>
   <si>
     <t xml:space="preserve">9.9722728729248</t>
@@ -3407,7 +3407,7 @@
     <t xml:space="preserve">10.2132387161255</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5283460617065</t>
+    <t xml:space="preserve">10.5283470153809</t>
   </si>
   <si>
     <t xml:space="preserve">10.8990640640259</t>
@@ -3416,7 +3416,7 @@
     <t xml:space="preserve">10.2503099441528</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2317733764648</t>
+    <t xml:space="preserve">10.2317743301392</t>
   </si>
   <si>
     <t xml:space="preserve">10.2688455581665</t>
@@ -3425,19 +3425,19 @@
     <t xml:space="preserve">10.4356679916382</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6580982208252</t>
+    <t xml:space="preserve">10.6580972671509</t>
   </si>
   <si>
     <t xml:space="preserve">10.2873821258545</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5468826293945</t>
+    <t xml:space="preserve">10.5468835830688</t>
   </si>
   <si>
     <t xml:space="preserve">10.5839548110962</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4912748336792</t>
+    <t xml:space="preserve">10.4912757873535</t>
   </si>
   <si>
     <t xml:space="preserve">10.4727401733398</t>
@@ -3449,7 +3449,7 @@
     <t xml:space="preserve">10.6951694488525</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3985967636108</t>
+    <t xml:space="preserve">10.3985958099365</t>
   </si>
   <si>
     <t xml:space="preserve">10.5654182434082</t>
@@ -3458,7 +3458,7 @@
     <t xml:space="preserve">10.6210260391235</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0844221115112</t>
+    <t xml:space="preserve">11.0844211578369</t>
   </si>
   <si>
     <t xml:space="preserve">11.3068513870239</t>
@@ -3476,7 +3476,7 @@
     <t xml:space="preserve">11.5848894119263</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6961040496826</t>
+    <t xml:space="preserve">11.6961030960083</t>
   </si>
   <si>
     <t xml:space="preserve">12.0482845306396</t>
@@ -3500,19 +3500,19 @@
     <t xml:space="preserve">11.2512445449829</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2141723632812</t>
+    <t xml:space="preserve">11.2141733169556</t>
   </si>
   <si>
     <t xml:space="preserve">11.1214933395386</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8063840866089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8434553146362</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6395606994629</t>
+    <t xml:space="preserve">10.8063850402832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8434562683105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6395616531372</t>
   </si>
   <si>
     <t xml:space="preserve">10.4542036056519</t>
@@ -3527,13 +3527,13 @@
     <t xml:space="preserve">10.9917421340942</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2336416244507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.678503036499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4190006256104</t>
+    <t xml:space="preserve">12.233642578125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6785020828247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.418999671936</t>
   </si>
   <si>
     <t xml:space="preserve">12.8638610839844</t>
@@ -3548,7 +3548,7 @@
     <t xml:space="preserve">12.60435962677</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8082523345947</t>
+    <t xml:space="preserve">12.808253288269</t>
   </si>
   <si>
     <t xml:space="preserve">12.7711811065674</t>
@@ -3560,7 +3560,7 @@
     <t xml:space="preserve">13.9760093688965</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8647947311401</t>
+    <t xml:space="preserve">13.8647956848145</t>
   </si>
   <si>
     <t xml:space="preserve">13.6609010696411</t>
@@ -60360,7 +60360,7 @@
     </row>
     <row r="2154">
       <c r="A2154" s="1" t="n">
-        <v>45461.6493518519</v>
+        <v>45461.2916666667</v>
       </c>
       <c r="B2154" t="n">
         <v>418188</v>
@@ -60381,6 +60381,32 @@
         <v>1342</v>
       </c>
       <c r="H2154" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2155">
+      <c r="A2155" s="1" t="n">
+        <v>45462.6493287037</v>
+      </c>
+      <c r="B2155" t="n">
+        <v>187667</v>
+      </c>
+      <c r="C2155" t="n">
+        <v>12.3999996185303</v>
+      </c>
+      <c r="D2155" t="n">
+        <v>12.1000003814697</v>
+      </c>
+      <c r="E2155" t="n">
+        <v>12.3999996185303</v>
+      </c>
+      <c r="F2155" t="n">
+        <v>12.1000003814697</v>
+      </c>
+      <c r="G2155" t="s">
+        <v>1338</v>
+      </c>
+      <c r="H2155" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/MARR.MI.xlsx
+++ b/data/MARR.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1347" uniqueCount="1347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1348" uniqueCount="1348">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -44,22 +44,22 @@
     <t xml:space="preserve">MARR.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">14.104700088501</t>
+    <t xml:space="preserve">14.1047039031982</t>
   </si>
   <si>
     <t xml:space="preserve">13.9899673461914</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7910938262939</t>
+    <t xml:space="preserve">13.7910928726196</t>
   </si>
   <si>
     <t xml:space="preserve">13.7451982498169</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3627490997314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4315910339355</t>
+    <t xml:space="preserve">13.3627500534058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4315919876099</t>
   </si>
   <si>
     <t xml:space="preserve">13.5157299041748</t>
@@ -68,10 +68,10 @@
     <t xml:space="preserve">13.2021226882935</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2097721099854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7202377319336</t>
+    <t xml:space="preserve">13.2097730636597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.720235824585</t>
   </si>
   <si>
     <t xml:space="preserve">12.8273229598999</t>
@@ -80,16 +80,16 @@
     <t xml:space="preserve">12.3607358932495</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9650058746338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6228151321411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4545383453369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3321571350098</t>
+    <t xml:space="preserve">12.9650049209595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6228160858154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4545373916626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3321561813354</t>
   </si>
   <si>
     <t xml:space="preserve">13.3245058059692</t>
@@ -98,37 +98,37 @@
     <t xml:space="preserve">13.4162940979004</t>
   </si>
   <si>
-    <t xml:space="preserve">13.500431060791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7681455612183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5616245269775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0873899459839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2786130905151</t>
+    <t xml:space="preserve">13.5004320144653</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7681465148926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5616235733032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0873870849609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2786121368408</t>
   </si>
   <si>
     <t xml:space="preserve">13.0491428375244</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1083192825317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1542129516602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6131525039673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2995433807373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6208009719849</t>
+    <t xml:space="preserve">12.1083183288574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1542139053345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.613151550293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2995443344116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6208000183105</t>
   </si>
   <si>
     <t xml:space="preserve">12.6590461730957</t>
@@ -143,16 +143,16 @@
     <t xml:space="preserve">13.156229019165</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4851322174072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3780479431152</t>
+    <t xml:space="preserve">13.4851331710815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3780488967896</t>
   </si>
   <si>
     <t xml:space="preserve">13.3474540710449</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7298994064331</t>
+    <t xml:space="preserve">13.7299013137817</t>
   </si>
   <si>
     <t xml:space="preserve">13.9670190811157</t>
@@ -164,70 +164,70 @@
     <t xml:space="preserve">13.8752326965332</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6763572692871</t>
+    <t xml:space="preserve">13.6763591766357</t>
   </si>
   <si>
     <t xml:space="preserve">13.3703994750977</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8196754455566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1179838180542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4468908309937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.599871635437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4774856567383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6610612869263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2174186706543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1026849746704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4621858596802</t>
+    <t xml:space="preserve">12.8196744918823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1179847717285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.446888923645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5998706817627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4774866104126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.661060333252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2174205780029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.102686882019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4621877670288</t>
   </si>
   <si>
     <t xml:space="preserve">13.5386781692505</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9593715667725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0817556381226</t>
+    <t xml:space="preserve">13.9593696594238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0817537307739</t>
   </si>
   <si>
     <t xml:space="preserve">14.1505937576294</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8828792572021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.997615814209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0741033554077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5483407974243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3188724517822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1658935546875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7987442016602</t>
+    <t xml:space="preserve">13.8828783035278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9976148605347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.074104309082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5483417510986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3188714981079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1658916473389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7987422943115</t>
   </si>
   <si>
     <t xml:space="preserve">13.6916570663452</t>
@@ -236,103 +236,103 @@
     <t xml:space="preserve">13.6151647567749</t>
   </si>
   <si>
-    <t xml:space="preserve">13.576922416687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8599319458008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9058275222778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5922203063965</t>
+    <t xml:space="preserve">13.5769233703613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8599338531494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9058284759521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5922193527222</t>
   </si>
   <si>
     <t xml:space="preserve">14.0970506668091</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9440717697144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6304655075073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6840076446533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6993055343628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8216896057129</t>
+    <t xml:space="preserve">13.9440746307373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.630464553833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6840057373047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6993045806885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8216876983643</t>
   </si>
   <si>
     <t xml:space="preserve">13.4392404556274</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6687097549438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4086465835571</t>
+    <t xml:space="preserve">13.6687107086182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4086446762085</t>
   </si>
   <si>
     <t xml:space="preserve">13.5310287475586</t>
   </si>
   <si>
-    <t xml:space="preserve">13.825008392334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8170623779297</t>
+    <t xml:space="preserve">13.8250074386597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.817063331604</t>
   </si>
   <si>
     <t xml:space="preserve">14.0713157653809</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0633707046509</t>
+    <t xml:space="preserve">14.0633716583252</t>
   </si>
   <si>
     <t xml:space="preserve">14.2540607452393</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3096809387207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1269369125366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0792608261108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3017311096191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1904983520508</t>
+    <t xml:space="preserve">14.3096790313721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1269359588623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0792598724365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3017330169678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1904964447021</t>
   </si>
   <si>
     <t xml:space="preserve">14.1030988693237</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0872077941895</t>
+    <t xml:space="preserve">14.0872068405151</t>
   </si>
   <si>
     <t xml:space="preserve">14.0951509475708</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5866460800171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6740446090698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3880128860474</t>
+    <t xml:space="preserve">13.5866470336914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6740455627441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.388011932373</t>
   </si>
   <si>
     <t xml:space="preserve">13.0701971054077</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2132120132446</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.59459400177</t>
+    <t xml:space="preserve">13.213210105896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5945911407471</t>
   </si>
   <si>
     <t xml:space="preserve">13.5787010192871</t>
@@ -341,25 +341,25 @@
     <t xml:space="preserve">13.8806257247925</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2052669525146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5060710906982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0384140014648</t>
+    <t xml:space="preserve">13.205267906189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5060701370239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0384120941162</t>
   </si>
   <si>
     <t xml:space="preserve">13.5151376724243</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2461175918579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3573513031006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8567895889282</t>
+    <t xml:space="preserve">14.2461156845093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.357349395752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8567905426025</t>
   </si>
   <si>
     <t xml:space="preserve">14.2778959274292</t>
@@ -368,10 +368,10 @@
     <t xml:space="preserve">14.1507701873779</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6036586761475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5718784332275</t>
+    <t xml:space="preserve">14.6036577224731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5718765258789</t>
   </si>
   <si>
     <t xml:space="preserve">14.5639324188232</t>
@@ -380,43 +380,43 @@
     <t xml:space="preserve">14.3652954101562</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3176231384277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5798225402832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8738031387329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.548041343689</t>
+    <t xml:space="preserve">14.3176240921021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5798234939575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8738012313843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5480403900146</t>
   </si>
   <si>
     <t xml:space="preserve">14.6990022659302</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9770927429199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8340749740601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9453115463257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5877676010132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8579120635986</t>
+    <t xml:space="preserve">14.9770917892456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8340759277344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9453096389771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5877685546875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8579111099243</t>
   </si>
   <si>
     <t xml:space="preserve">14.3335151672363</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4765319824219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5003690719604</t>
+    <t xml:space="preserve">14.4765310287476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5003671646118</t>
   </si>
   <si>
     <t xml:space="preserve">14.4447507858276</t>
@@ -425,16 +425,16 @@
     <t xml:space="preserve">14.1666603088379</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2381687164307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0315895080566</t>
+    <t xml:space="preserve">14.238169670105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.031590461731</t>
   </si>
   <si>
     <t xml:space="preserve">13.8885717391968</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9044628143311</t>
+    <t xml:space="preserve">13.9044609069824</t>
   </si>
   <si>
     <t xml:space="preserve">13.8647365570068</t>
@@ -446,22 +446,22 @@
     <t xml:space="preserve">13.9521350860596</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7217178344727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0156984329224</t>
+    <t xml:space="preserve">13.7217197418213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.015697479248</t>
   </si>
   <si>
     <t xml:space="preserve">13.912407875061</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0077505111694</t>
+    <t xml:space="preserve">14.0077514648438</t>
   </si>
   <si>
     <t xml:space="preserve">13.920352935791</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8091163635254</t>
+    <t xml:space="preserve">13.8091154098511</t>
   </si>
   <si>
     <t xml:space="preserve">13.7058277130127</t>
@@ -470,7 +470,7 @@
     <t xml:space="preserve">13.6502103805542</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7376108169556</t>
+    <t xml:space="preserve">13.7376079559326</t>
   </si>
   <si>
     <t xml:space="preserve">13.9998083114624</t>
@@ -479,28 +479,28 @@
     <t xml:space="preserve">14.2302236557007</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1746053695679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.023642539978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1587162017822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7614459991455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6661014556885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.618426322937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7773351669312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5469207763672</t>
+    <t xml:space="preserve">14.1746072769165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0236434936523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1587152481079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7614440917969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6661005020142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6184253692627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7773361206055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5469179153442</t>
   </si>
   <si>
     <t xml:space="preserve">13.4913015365601</t>
@@ -515,10 +515,10 @@
     <t xml:space="preserve">13.5310297012329</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4595203399658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3482837677002</t>
+    <t xml:space="preserve">13.4595193862915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3482828140259</t>
   </si>
   <si>
     <t xml:space="preserve">13.316502571106</t>
@@ -530,40 +530,40 @@
     <t xml:space="preserve">13.3323936462402</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3244485855103</t>
+    <t xml:space="preserve">13.3244476318359</t>
   </si>
   <si>
     <t xml:space="preserve">13.1814298629761</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0304670333862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2370481491089</t>
+    <t xml:space="preserve">13.0304679870605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2370471954346</t>
   </si>
   <si>
     <t xml:space="preserve">13.2688312530518</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1575927734375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7126522064209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1178684234619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2608852386475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1417036056519</t>
+    <t xml:space="preserve">13.1575937271118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7126512527466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1178665161133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2608842849731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1417045593262</t>
   </si>
   <si>
     <t xml:space="preserve">13.1655397415161</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0225219726562</t>
+    <t xml:space="preserve">13.0225210189819</t>
   </si>
   <si>
     <t xml:space="preserve">12.9112882614136</t>
@@ -581,19 +581,19 @@
     <t xml:space="preserve">13.5071926116943</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4515733718872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5707569122314</t>
+    <t xml:space="preserve">13.4515743255615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5707550048828</t>
   </si>
   <si>
     <t xml:space="preserve">13.8965167999268</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7455539703369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9362440109253</t>
+    <t xml:space="preserve">13.7455549240112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9362449645996</t>
   </si>
   <si>
     <t xml:space="preserve">13.7852821350098</t>
@@ -602,10 +602,10 @@
     <t xml:space="preserve">13.944188117981</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9680271148682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9918642044067</t>
+    <t xml:space="preserve">13.9680252075195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9918632507324</t>
   </si>
   <si>
     <t xml:space="preserve">13.9759702682495</t>
@@ -614,61 +614,61 @@
     <t xml:space="preserve">14.0395336151123</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8011741638184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9839162826538</t>
+    <t xml:space="preserve">13.8011722564697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9839172363281</t>
   </si>
   <si>
     <t xml:space="preserve">14.222279548645</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2063865661621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7148952484131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7705106735229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3494062423706</t>
+    <t xml:space="preserve">14.2063884735107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7148933410645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7705125808716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.349404335022</t>
   </si>
   <si>
     <t xml:space="preserve">14.2699508666992</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1825532913208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2858419418335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.341459274292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2620038986206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6751651763916</t>
+    <t xml:space="preserve">14.1825513839722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2858409881592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3414602279663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2620058059692</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6751670837402</t>
   </si>
   <si>
     <t xml:space="preserve">14.4606418609619</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6513299942017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.627495765686</t>
+    <t xml:space="preserve">14.6513338088989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6274938583374</t>
   </si>
   <si>
     <t xml:space="preserve">14.5400943756104</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6910581588745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5162582397461</t>
+    <t xml:space="preserve">14.6910572052002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5162601470947</t>
   </si>
   <si>
     <t xml:space="preserve">14.7069482803345</t>
@@ -677,22 +677,22 @@
     <t xml:space="preserve">14.6116037368774</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3970766067505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7466735839844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2154560089111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.453818321228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4061412811279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5968313217163</t>
+    <t xml:space="preserve">14.3970775604248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.746675491333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2154541015625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4538164138794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4061431884766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5968332290649</t>
   </si>
   <si>
     <t xml:space="preserve">15.8908157348633</t>
@@ -701,10 +701,10 @@
     <t xml:space="preserve">15.8510875701904</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8590335845947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7319049835205</t>
+    <t xml:space="preserve">15.8590316772461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7319068908691</t>
   </si>
   <si>
     <t xml:space="preserve">16.1371231079102</t>
@@ -725,7 +725,7 @@
     <t xml:space="preserve">16.30397605896</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1609592437744</t>
+    <t xml:space="preserve">16.1609573364258</t>
   </si>
   <si>
     <t xml:space="preserve">16.2880859375</t>
@@ -737,10 +737,10 @@
     <t xml:space="preserve">16.6853542327881</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4867210388184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4072647094727</t>
+    <t xml:space="preserve">16.4867191314697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4072666168213</t>
   </si>
   <si>
     <t xml:space="preserve">16.0973949432373</t>
@@ -749,7 +749,7 @@
     <t xml:space="preserve">16.1291751861572</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5026111602783</t>
+    <t xml:space="preserve">16.5026092529297</t>
   </si>
   <si>
     <t xml:space="preserve">16.3675403594971</t>
@@ -758,13 +758,13 @@
     <t xml:space="preserve">16.5582294464111</t>
   </si>
   <si>
-    <t xml:space="preserve">16.605899810791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7012462615967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5423374176025</t>
+    <t xml:space="preserve">16.6059017181396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7012481689453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5423393249512</t>
   </si>
   <si>
     <t xml:space="preserve">16.8839893341064</t>
@@ -773,40 +773,40 @@
     <t xml:space="preserve">17.4322242736816</t>
   </si>
   <si>
-    <t xml:space="preserve">17.114408493042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6615180969238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2812595367432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3289337158203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2574234008789</t>
+    <t xml:space="preserve">17.1144104003906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6615200042725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2812614440918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3289356231689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2574253082275</t>
   </si>
   <si>
     <t xml:space="preserve">17.2653694152832</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6149673461914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8136043548584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6864795684814</t>
+    <t xml:space="preserve">17.61496925354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8136024475098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6864776611328</t>
   </si>
   <si>
     <t xml:space="preserve">17.535514831543</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4560604095459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6626396179199</t>
+    <t xml:space="preserve">17.4560585021973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6626415252686</t>
   </si>
   <si>
     <t xml:space="preserve">18.1234722137451</t>
@@ -815,34 +815,34 @@
     <t xml:space="preserve">17.8294944763184</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7738780975342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9089488983154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9963436126709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1552543640137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4004421234131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5196208953857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7083606719971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2499465942383</t>
+    <t xml:space="preserve">17.7738761901855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9089469909668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9963455200195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1552562713623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4004402160645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5196228027344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7083587646484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2499485015869</t>
   </si>
   <si>
     <t xml:space="preserve">18.2171287536621</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0530090332031</t>
+    <t xml:space="preserve">18.0530052185059</t>
   </si>
   <si>
     <t xml:space="preserve">17.7904205322266</t>
@@ -857,7 +857,7 @@
     <t xml:space="preserve">18.0694198608398</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9791526794434</t>
+    <t xml:space="preserve">17.979154586792</t>
   </si>
   <si>
     <t xml:space="preserve">17.7986240386963</t>
@@ -866,64 +866,64 @@
     <t xml:space="preserve">18.0365943908691</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1760959625244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9955673217773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5606517791748</t>
+    <t xml:space="preserve">18.1760940551758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9955654144287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5606498718262</t>
   </si>
   <si>
     <t xml:space="preserve">17.7411842346191</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8888874053955</t>
+    <t xml:space="preserve">17.8888893127441</t>
   </si>
   <si>
     <t xml:space="preserve">17.7740058898926</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0858306884766</t>
+    <t xml:space="preserve">18.0858345031738</t>
   </si>
   <si>
     <t xml:space="preserve">17.7575931549072</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5524444580078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5852699279785</t>
+    <t xml:space="preserve">17.5524463653564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5852718353271</t>
   </si>
   <si>
     <t xml:space="preserve">17.6427116394043</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7329788208008</t>
+    <t xml:space="preserve">17.7329769134521</t>
   </si>
   <si>
     <t xml:space="preserve">17.7493877410889</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1749744415283</t>
+    <t xml:space="preserve">17.174976348877</t>
   </si>
   <si>
     <t xml:space="preserve">17.0765018463135</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0682983398438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.150354385376</t>
+    <t xml:space="preserve">17.0682964324951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1503562927246</t>
   </si>
   <si>
     <t xml:space="preserve">16.9123859405518</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2324142456055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0600929260254</t>
+    <t xml:space="preserve">17.2324161529541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.060094833374</t>
   </si>
   <si>
     <t xml:space="preserve">16.9780349731445</t>
@@ -932,7 +932,7 @@
     <t xml:space="preserve">17.3965339660645</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5032119750977</t>
+    <t xml:space="preserve">17.503210067749</t>
   </si>
   <si>
     <t xml:space="preserve">17.9299182891846</t>
@@ -941,100 +941,100 @@
     <t xml:space="preserve">18.2991828918457</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1022415161133</t>
+    <t xml:space="preserve">18.1022434234619</t>
   </si>
   <si>
     <t xml:space="preserve">18.3484210968018</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3566284179688</t>
+    <t xml:space="preserve">18.3566246032715</t>
   </si>
   <si>
     <t xml:space="preserve">18.4633045196533</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8642692565918</t>
+    <t xml:space="preserve">17.8642711639404</t>
   </si>
   <si>
     <t xml:space="preserve">18.3402156829834</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7247695922852</t>
+    <t xml:space="preserve">17.7247714996338</t>
   </si>
   <si>
     <t xml:space="preserve">17.5688591003418</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4950046539307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8068294525146</t>
+    <t xml:space="preserve">17.4950065612793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.806827545166</t>
   </si>
   <si>
     <t xml:space="preserve">17.5278282165527</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3883304595947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4047374725342</t>
+    <t xml:space="preserve">17.3883285522461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4047393798828</t>
   </si>
   <si>
     <t xml:space="preserve">17.2734470367432</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2242088317871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0436820983887</t>
+    <t xml:space="preserve">17.2242107391357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.04368019104</t>
   </si>
   <si>
     <t xml:space="preserve">16.9452075958252</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9287948608398</t>
+    <t xml:space="preserve">16.9287967681885</t>
   </si>
   <si>
     <t xml:space="preserve">17.0190620422363</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2816524505615</t>
+    <t xml:space="preserve">17.2816505432129</t>
   </si>
   <si>
     <t xml:space="preserve">17.4211540222168</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6263008117676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6098861694336</t>
+    <t xml:space="preserve">17.6262989044189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6098880767822</t>
   </si>
   <si>
     <t xml:space="preserve">17.970947265625</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0940341949463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3237991333008</t>
+    <t xml:space="preserve">18.0940361022949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3238010406494</t>
   </si>
   <si>
     <t xml:space="preserve">17.9873600006104</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1186561584473</t>
+    <t xml:space="preserve">18.1186542510986</t>
   </si>
   <si>
     <t xml:space="preserve">18.1104488372803</t>
   </si>
   <si>
-    <t xml:space="preserve">18.126859664917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3320064544678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3648300170898</t>
+    <t xml:space="preserve">18.1268577575684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3320083618164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3648319244385</t>
   </si>
   <si>
     <t xml:space="preserve">18.438684463501</t>
@@ -1052,7 +1052,7 @@
     <t xml:space="preserve">18.5371570587158</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8079509735107</t>
+    <t xml:space="preserve">18.8079490661621</t>
   </si>
   <si>
     <t xml:space="preserve">18.6520366668701</t>
@@ -1061,31 +1061,31 @@
     <t xml:space="preserve">18.6192150115967</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7833347320557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2182483673096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1443939208984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6930694580078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7669219970703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5945949554443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3730373382568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1596813201904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4222755432129</t>
+    <t xml:space="preserve">18.783332824707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2182464599609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1443958282471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6930675506592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7669200897217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.594596862793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3730354309082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1596851348877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4222736358643</t>
   </si>
   <si>
     <t xml:space="preserve">18.2335376739502</t>
@@ -1094,46 +1094,46 @@
     <t xml:space="preserve">18.1925067901611</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1350650787354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9217128753662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6345043182373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5442390441895</t>
+    <t xml:space="preserve">18.135066986084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9217109680176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6345062255859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5442409515381</t>
   </si>
   <si>
     <t xml:space="preserve">17.3555030822754</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0272674560547</t>
+    <t xml:space="preserve">17.0272693634033</t>
   </si>
   <si>
     <t xml:space="preserve">16.7975025177002</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9041786193848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1913871765137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6919460296631</t>
+    <t xml:space="preserve">16.9041805267334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.191385269165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6919441223145</t>
   </si>
   <si>
     <t xml:space="preserve">17.9053020477295</t>
   </si>
   <si>
-    <t xml:space="preserve">17.815034866333</t>
+    <t xml:space="preserve">17.8150367736816</t>
   </si>
   <si>
     <t xml:space="preserve">18.0037708282471</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8396511077881</t>
+    <t xml:space="preserve">17.8396549224854</t>
   </si>
   <si>
     <t xml:space="preserve">17.9627418518066</t>
@@ -1145,7 +1145,7 @@
     <t xml:space="preserve">17.035472869873</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4703884124756</t>
+    <t xml:space="preserve">17.4703903198242</t>
   </si>
   <si>
     <t xml:space="preserve">17.4621829986572</t>
@@ -1154,7 +1154,7 @@
     <t xml:space="preserve">17.7822132110596</t>
   </si>
   <si>
-    <t xml:space="preserve">17.659122467041</t>
+    <t xml:space="preserve">17.6591243743896</t>
   </si>
   <si>
     <t xml:space="preserve">17.8232421875</t>
@@ -1163,16 +1163,16 @@
     <t xml:space="preserve">17.4129447937012</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3976573944092</t>
+    <t xml:space="preserve">18.3976554870605</t>
   </si>
   <si>
     <t xml:space="preserve">18.4468879699707</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5617752075195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6274223327637</t>
+    <t xml:space="preserve">18.5617733001709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.627420425415</t>
   </si>
   <si>
     <t xml:space="preserve">18.77512550354</t>
@@ -1181,28 +1181,28 @@
     <t xml:space="preserve">18.4797134399414</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7258930206299</t>
+    <t xml:space="preserve">18.7258911132812</t>
   </si>
   <si>
     <t xml:space="preserve">18.3155956268311</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2827739715576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5781879425049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.511417388916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0201797485352</t>
+    <t xml:space="preserve">18.282772064209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5781860351562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5114154815674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0201835632324</t>
   </si>
   <si>
     <t xml:space="preserve">17.3472995758057</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2980632781982</t>
+    <t xml:space="preserve">17.2980651855469</t>
   </si>
   <si>
     <t xml:space="preserve">17.9381256103516</t>
@@ -1220,34 +1220,34 @@
     <t xml:space="preserve">18.4961261749268</t>
   </si>
   <si>
-    <t xml:space="preserve">19.5793075561523</t>
+    <t xml:space="preserve">19.5793056488037</t>
   </si>
   <si>
     <t xml:space="preserve">19.5136604309082</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0388355255127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3178386688232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.170129776001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.071662902832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8418979644775</t>
+    <t xml:space="preserve">20.0388374328613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3178367614746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1701316833496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0716609954834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8418960571289</t>
   </si>
   <si>
     <t xml:space="preserve">19.8254833221436</t>
   </si>
   <si>
-    <t xml:space="preserve">19.8911285400391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8090686798096</t>
+    <t xml:space="preserve">19.8911304473877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8090705871582</t>
   </si>
   <si>
     <t xml:space="preserve">19.9403686523438</t>
@@ -1262,10 +1262,10 @@
     <t xml:space="preserve">20.531192779541</t>
   </si>
   <si>
-    <t xml:space="preserve">20.5968399047852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7609558105469</t>
+    <t xml:space="preserve">20.5968418121338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7609577178955</t>
   </si>
   <si>
     <t xml:space="preserve">20.5147800445557</t>
@@ -1286,10 +1286,10 @@
     <t xml:space="preserve">20.4163093566895</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3834857940674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4491348266602</t>
+    <t xml:space="preserve">20.383487701416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4491310119629</t>
   </si>
   <si>
     <t xml:space="preserve">20.7281360626221</t>
@@ -1298,55 +1298,55 @@
     <t xml:space="preserve">20.8430156707764</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7937831878662</t>
+    <t xml:space="preserve">20.7937812805176</t>
   </si>
   <si>
     <t xml:space="preserve">20.678897857666</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7117252349854</t>
+    <t xml:space="preserve">20.7117233276367</t>
   </si>
   <si>
     <t xml:space="preserve">20.6460742950439</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8101940155029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2510681152344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4808349609375</t>
+    <t xml:space="preserve">20.8101921081543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.251070022583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4808368682861</t>
   </si>
   <si>
     <t xml:space="preserve">19.1854228973389</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1361865997314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2887344360352</t>
+    <t xml:space="preserve">19.1361885070801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2887325286865</t>
   </si>
   <si>
     <t xml:space="preserve">19.0514373779297</t>
   </si>
   <si>
-    <t xml:space="preserve">19.4921283721924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3226318359375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7633247375488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6446781158447</t>
+    <t xml:space="preserve">19.492130279541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3226356506348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7633266448975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6446800231934</t>
   </si>
   <si>
     <t xml:space="preserve">19.7294273376465</t>
   </si>
   <si>
-    <t xml:space="preserve">19.6955280303955</t>
+    <t xml:space="preserve">19.6955261230469</t>
   </si>
   <si>
     <t xml:space="preserve">19.6277294158936</t>
@@ -1361,10 +1361,10 @@
     <t xml:space="preserve">19.8311233520508</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7802791595459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5429821014404</t>
+    <t xml:space="preserve">19.7802753448486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5429782867432</t>
   </si>
   <si>
     <t xml:space="preserve">19.5938282012939</t>
@@ -1379,7 +1379,7 @@
     <t xml:space="preserve">18.9158420562744</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7971954345703</t>
+    <t xml:space="preserve">18.7971935272217</t>
   </si>
   <si>
     <t xml:space="preserve">19.0175399780273</t>
@@ -1397,19 +1397,19 @@
     <t xml:space="preserve">19.5260314941406</t>
   </si>
   <si>
-    <t xml:space="preserve">19.6616287231445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5768795013428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3226661682129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3396129608154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1870670318604</t>
+    <t xml:space="preserve">19.6616268157959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5768814086914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3226642608643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3396148681641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.187068939209</t>
   </si>
   <si>
     <t xml:space="preserve">20.0175724029541</t>
@@ -1421,16 +1421,16 @@
     <t xml:space="preserve">19.7124767303467</t>
   </si>
   <si>
-    <t xml:space="preserve">20.2379150390625</t>
+    <t xml:space="preserve">20.2379169464111</t>
   </si>
   <si>
     <t xml:space="preserve">19.9158725738525</t>
   </si>
   <si>
-    <t xml:space="preserve">19.6107807159424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8480758666992</t>
+    <t xml:space="preserve">19.6107788085938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8480739593506</t>
   </si>
   <si>
     <t xml:space="preserve">20.4243640899658</t>
@@ -1439,13 +1439,13 @@
     <t xml:space="preserve">20.6447105407715</t>
   </si>
   <si>
-    <t xml:space="preserve">20.695556640625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3904628753662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3057155609131</t>
+    <t xml:space="preserve">20.6955585479736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3904647827148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3057136535645</t>
   </si>
   <si>
     <t xml:space="preserve">20.1701164245605</t>
@@ -1454,10 +1454,10 @@
     <t xml:space="preserve">20.2887668609619</t>
   </si>
   <si>
-    <t xml:space="preserve">20.2040176391602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3565654754639</t>
+    <t xml:space="preserve">20.2040157318115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3565635681152</t>
   </si>
   <si>
     <t xml:space="preserve">20.5091114044189</t>
@@ -1466,13 +1466,13 @@
     <t xml:space="preserve">20.5260620117188</t>
   </si>
   <si>
-    <t xml:space="preserve">20.4921646118164</t>
+    <t xml:space="preserve">20.4921627044678</t>
   </si>
   <si>
     <t xml:space="preserve">20.9328536987305</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6616592407227</t>
+    <t xml:space="preserve">20.661657333374</t>
   </si>
   <si>
     <t xml:space="preserve">20.5769100189209</t>
@@ -1502,37 +1502,37 @@
     <t xml:space="preserve">22.1023826599121</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4921951293945</t>
+    <t xml:space="preserve">21.4921932220459</t>
   </si>
   <si>
     <t xml:space="preserve">21.7294883728027</t>
   </si>
   <si>
-    <t xml:space="preserve">21.3904972076416</t>
+    <t xml:space="preserve">21.390495300293</t>
   </si>
   <si>
     <t xml:space="preserve">21.4074459075928</t>
   </si>
   <si>
-    <t xml:space="preserve">20.9667549133301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7294578552246</t>
+    <t xml:space="preserve">20.9667530059814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.729455947876</t>
   </si>
   <si>
     <t xml:space="preserve">20.5938606262207</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9667224884033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8819732666016</t>
+    <t xml:space="preserve">19.9667186737061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8819751739502</t>
   </si>
   <si>
     <t xml:space="preserve">19.5090827941895</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3734836578369</t>
+    <t xml:space="preserve">19.3734855651855</t>
   </si>
   <si>
     <t xml:space="preserve">19.0344905853271</t>
@@ -1544,25 +1544,25 @@
     <t xml:space="preserve">20.0853710174561</t>
   </si>
   <si>
-    <t xml:space="preserve">19.8989238739014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2378883361816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8819446563721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5090503692627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1870040893555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2717552185059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0175094604492</t>
+    <t xml:space="preserve">19.8989219665527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.237886428833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8819427490234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5090484619141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1870059967041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2717533111572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0175075531006</t>
   </si>
   <si>
     <t xml:space="preserve">18.6276969909668</t>
@@ -1571,25 +1571,25 @@
     <t xml:space="preserve">17.9327621459961</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1192054748535</t>
+    <t xml:space="preserve">18.1192073822021</t>
   </si>
   <si>
     <t xml:space="preserve">17.9666614532471</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8649616241455</t>
+    <t xml:space="preserve">17.8649635314941</t>
   </si>
   <si>
     <t xml:space="preserve">18.102258682251</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2378540039062</t>
+    <t xml:space="preserve">18.2378559112549</t>
   </si>
   <si>
     <t xml:space="preserve">18.5259990692139</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8480129241943</t>
+    <t xml:space="preserve">17.8480110168457</t>
   </si>
   <si>
     <t xml:space="preserve">17.3564701080322</t>
@@ -1601,10 +1601,10 @@
     <t xml:space="preserve">17.0852756500244</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1022262573242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3733882904053</t>
+    <t xml:space="preserve">17.1022281646729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3733901977539</t>
   </si>
   <si>
     <t xml:space="preserve">16.271692276001</t>
@@ -1613,16 +1613,16 @@
     <t xml:space="preserve">16.6106853485107</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4242401123047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3903388977051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7378101348877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8140811920166</t>
+    <t xml:space="preserve">16.4242382049561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3903408050537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7378063201904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.814079284668</t>
   </si>
   <si>
     <t xml:space="preserve">16.7039089202881</t>
@@ -1637,16 +1637,16 @@
     <t xml:space="preserve">17.153076171875</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3225727081299</t>
+    <t xml:space="preserve">17.3225708007812</t>
   </si>
   <si>
     <t xml:space="preserve">17.4920692443848</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6446151733398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7971630096436</t>
+    <t xml:space="preserve">17.6446170806885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7971649169922</t>
   </si>
   <si>
     <t xml:space="preserve">18.2209053039551</t>
@@ -1673,7 +1673,7 @@
     <t xml:space="preserve">17.5768165588379</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7293663024902</t>
+    <t xml:space="preserve">17.7293643951416</t>
   </si>
   <si>
     <t xml:space="preserve">17.8819103240967</t>
@@ -1682,13 +1682,13 @@
     <t xml:space="preserve">18.4412517547607</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1531047821045</t>
+    <t xml:space="preserve">18.1531066894531</t>
   </si>
   <si>
     <t xml:space="preserve">17.9158115386963</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9497089385986</t>
+    <t xml:space="preserve">17.9497108459473</t>
   </si>
   <si>
     <t xml:space="preserve">17.8988628387451</t>
@@ -1697,16 +1697,16 @@
     <t xml:space="preserve">17.7463150024414</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7124118804932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6276683807373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7632637023926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3056240081787</t>
+    <t xml:space="preserve">17.7124137878418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6276664733887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7632656097412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3056221008301</t>
   </si>
   <si>
     <t xml:space="preserve">16.873405456543</t>
@@ -1718,7 +1718,7 @@
     <t xml:space="preserve">17.2039241790771</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3903732299805</t>
+    <t xml:space="preserve">17.3903713226318</t>
   </si>
   <si>
     <t xml:space="preserve">17.2886714935303</t>
@@ -1739,7 +1739,7 @@
     <t xml:space="preserve">17.5429191589355</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8141117095947</t>
+    <t xml:space="preserve">17.8141136169434</t>
   </si>
   <si>
     <t xml:space="preserve">17.5937671661377</t>
@@ -1754,7 +1754,7 @@
     <t xml:space="preserve">17.5005416870117</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2462997436523</t>
+    <t xml:space="preserve">17.2462978363037</t>
   </si>
   <si>
     <t xml:space="preserve">17.3310489654541</t>
@@ -1763,25 +1763,25 @@
     <t xml:space="preserve">17.4157943725586</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1615524291992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0344314575195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5852909088135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6700401306152</t>
+    <t xml:space="preserve">17.1615505218506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0344295501709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5852928161621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6700420379639</t>
   </si>
   <si>
     <t xml:space="preserve">18.3480281829834</t>
   </si>
   <si>
-    <t xml:space="preserve">18.136157989502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0937805175781</t>
+    <t xml:space="preserve">18.1361560821533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0937843322754</t>
   </si>
   <si>
     <t xml:space="preserve">17.8395385742188</t>
@@ -1790,7 +1790,7 @@
     <t xml:space="preserve">18.009033203125</t>
   </si>
   <si>
-    <t xml:space="preserve">17.754789352417</t>
+    <t xml:space="preserve">17.7547874450684</t>
   </si>
   <si>
     <t xml:space="preserve">17.9242839813232</t>
@@ -1799,7 +1799,7 @@
     <t xml:space="preserve">18.1785316467285</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9148921966553</t>
+    <t xml:space="preserve">17.9148941040039</t>
   </si>
   <si>
     <t xml:space="preserve">18.0909595489502</t>
@@ -1814,7 +1814,7 @@
     <t xml:space="preserve">18.2670288085938</t>
   </si>
   <si>
-    <t xml:space="preserve">18.178991317749</t>
+    <t xml:space="preserve">18.1789932250977</t>
   </si>
   <si>
     <t xml:space="preserve">18.2230110168457</t>
@@ -1826,46 +1826,46 @@
     <t xml:space="preserve">18.4430980682373</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5311298370361</t>
+    <t xml:space="preserve">18.5311279296875</t>
   </si>
   <si>
     <t xml:space="preserve">18.3550624847412</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0029277801514</t>
+    <t xml:space="preserve">18.0029258728027</t>
   </si>
   <si>
     <t xml:space="preserve">17.7828407287598</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6507911682129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3426704406738</t>
+    <t xml:space="preserve">17.6507892608643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3426723480225</t>
   </si>
   <si>
     <t xml:space="preserve">17.5011310577393</t>
   </si>
   <si>
-    <t xml:space="preserve">17.553955078125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7952308654785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7512149810791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5751457214355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.619161605835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3110466003418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7388229370117</t>
+    <t xml:space="preserve">17.5539531707764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7952327728271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7512130737305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5751476287842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6191635131836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3110446929932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.738826751709</t>
   </si>
   <si>
     <t xml:space="preserve">17.4307060241699</t>
@@ -1877,76 +1877,76 @@
     <t xml:space="preserve">17.2370319366455</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1666049957275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2722454071045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1137866973877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3074588775635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8320770263672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6912212371826</t>
+    <t xml:space="preserve">17.1666030883789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2722473144531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1137847900391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3074569702148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8320751190186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.691219329834</t>
   </si>
   <si>
     <t xml:space="preserve">16.7616500854492</t>
   </si>
   <si>
-    <t xml:space="preserve">17.060962677002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4799404144287</t>
+    <t xml:space="preserve">17.0609645843506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4799385070801</t>
   </si>
   <si>
     <t xml:space="preserve">16.3743000030518</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6207942962646</t>
+    <t xml:space="preserve">16.620792388916</t>
   </si>
   <si>
     <t xml:space="preserve">16.1101970672607</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3038730621338</t>
+    <t xml:space="preserve">16.3038711547852</t>
   </si>
   <si>
     <t xml:space="preserve">16.6560077667236</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5679740905762</t>
+    <t xml:space="preserve">16.5679759979248</t>
   </si>
   <si>
     <t xml:space="preserve">16.4095134735107</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3919067382812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3214817047119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2334461212158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9025039672852</t>
+    <t xml:space="preserve">16.3919086456299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3214797973633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2334480285645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9025020599365</t>
   </si>
   <si>
     <t xml:space="preserve">17.289852142334</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3954925537109</t>
+    <t xml:space="preserve">17.3954944610596</t>
   </si>
   <si>
     <t xml:space="preserve">17.4483127593994</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6948108673096</t>
+    <t xml:space="preserve">17.6948089599609</t>
   </si>
   <si>
     <t xml:space="preserve">19.0593318939209</t>
@@ -1967,7 +1967,7 @@
     <t xml:space="preserve">17.254638671875</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8496799468994</t>
+    <t xml:space="preserve">16.849681854248</t>
   </si>
   <si>
     <t xml:space="preserve">16.8848972320557</t>
@@ -1985,10 +1985,10 @@
     <t xml:space="preserve">16.7264347076416</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6384010314941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5503692626953</t>
+    <t xml:space="preserve">16.6384029388428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5503673553467</t>
   </si>
   <si>
     <t xml:space="preserve">16.4271202087402</t>
@@ -1997,19 +1997,19 @@
     <t xml:space="preserve">16.7088279724121</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6736164093018</t>
+    <t xml:space="preserve">16.6736145019531</t>
   </si>
   <si>
     <t xml:space="preserve">16.8144702911377</t>
   </si>
   <si>
-    <t xml:space="preserve">17.360279083252</t>
+    <t xml:space="preserve">17.3602771759033</t>
   </si>
   <si>
     <t xml:space="preserve">17.325065612793</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9553241729736</t>
+    <t xml:space="preserve">16.955322265625</t>
   </si>
   <si>
     <t xml:space="preserve">18.6631813049316</t>
@@ -2018,22 +2018,22 @@
     <t xml:space="preserve">18.0469436645508</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2194232940674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.990535736084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.184211730957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5715599060059</t>
+    <t xml:space="preserve">17.219425201416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9905376434326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1842098236084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5715579986572</t>
   </si>
   <si>
     <t xml:space="preserve">15.4235343933105</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7052421569824</t>
+    <t xml:space="preserve">15.7052440643311</t>
   </si>
   <si>
     <t xml:space="preserve">15.0537919998169</t>
@@ -2042,7 +2042,7 @@
     <t xml:space="preserve">14.7896890640259</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4727697372437</t>
+    <t xml:space="preserve">14.472767829895</t>
   </si>
   <si>
     <t xml:space="preserve">14.2614870071411</t>
@@ -2057,16 +2057,16 @@
     <t xml:space="preserve">12.4832029342651</t>
   </si>
   <si>
-    <t xml:space="preserve">12.694483757019</t>
+    <t xml:space="preserve">12.6944847106934</t>
   </si>
   <si>
     <t xml:space="preserve">13.1874732971191</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7085056304932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1838874816895</t>
+    <t xml:space="preserve">11.7085046768188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1838884353638</t>
   </si>
   <si>
     <t xml:space="preserve">10.7929525375366</t>
@@ -2078,13 +2078,13 @@
     <t xml:space="preserve">10.5640640258789</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9514141082764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6064491271973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2050800323486</t>
+    <t xml:space="preserve">10.9514131546021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6064500808716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2050790786743</t>
   </si>
   <si>
     <t xml:space="preserve">13.6452493667603</t>
@@ -2096,19 +2096,19 @@
     <t xml:space="preserve">13.0466194152832</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9021787643433</t>
+    <t xml:space="preserve">11.9021797180176</t>
   </si>
   <si>
     <t xml:space="preserve">11.5852575302124</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3211545944214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8281669616699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0922679901123</t>
+    <t xml:space="preserve">11.3211555480957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8281660079956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.092267036438</t>
   </si>
   <si>
     <t xml:space="preserve">11.1626949310303</t>
@@ -2117,16 +2117,16 @@
     <t xml:space="preserve">11.1803007125854</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0394468307495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7753458023071</t>
+    <t xml:space="preserve">11.0394477844238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7753448486328</t>
   </si>
   <si>
     <t xml:space="preserve">10.6697053909302</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5816717147827</t>
+    <t xml:space="preserve">10.5816707611084</t>
   </si>
   <si>
     <t xml:space="preserve">11.1098747253418</t>
@@ -2135,7 +2135,7 @@
     <t xml:space="preserve">11.3563690185547</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9338054656982</t>
+    <t xml:space="preserve">10.9338064193726</t>
   </si>
   <si>
     <t xml:space="preserve">10.6873111724854</t>
@@ -2150,10 +2150,10 @@
     <t xml:space="preserve">10.6520977020264</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7401323318481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5288505554199</t>
+    <t xml:space="preserve">10.7401313781738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5288515090942</t>
   </si>
   <si>
     <t xml:space="preserve">10.0358600616455</t>
@@ -2171,7 +2171,7 @@
     <t xml:space="preserve">9.63090515136719</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2823553085327</t>
+    <t xml:space="preserve">10.2823572158813</t>
   </si>
   <si>
     <t xml:space="preserve">10.7577390670776</t>
@@ -2183,25 +2183,25 @@
     <t xml:space="preserve">9.96543407440186</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0746603012085</t>
+    <t xml:space="preserve">11.0746612548828</t>
   </si>
   <si>
     <t xml:space="preserve">10.8457727432251</t>
   </si>
   <si>
-    <t xml:space="preserve">11.057053565979</t>
+    <t xml:space="preserve">11.0570545196533</t>
   </si>
   <si>
     <t xml:space="preserve">11.6732921600342</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5676498413086</t>
+    <t xml:space="preserve">11.5676507949829</t>
   </si>
   <si>
     <t xml:space="preserve">11.6556835174561</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4796171188354</t>
+    <t xml:space="preserve">11.4796161651611</t>
   </si>
   <si>
     <t xml:space="preserve">11.5500440597534</t>
@@ -2222,7 +2222,7 @@
     <t xml:space="preserve">11.3387622833252</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6204700469971</t>
+    <t xml:space="preserve">11.6204690933228</t>
   </si>
   <si>
     <t xml:space="preserve">11.6380777359009</t>
@@ -2231,10 +2231,10 @@
     <t xml:space="preserve">11.9549999237061</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9726057052612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8669652938843</t>
+    <t xml:space="preserve">11.9726066589355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8669662475586</t>
   </si>
   <si>
     <t xml:space="preserve">12.025426864624</t>
@@ -2243,7 +2243,7 @@
     <t xml:space="preserve">11.990213394165</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7613248825073</t>
+    <t xml:space="preserve">11.7613258361816</t>
   </si>
   <si>
     <t xml:space="preserve">11.690896987915</t>
@@ -2252,10 +2252,10 @@
     <t xml:space="preserve">11.7437181472778</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4972229003906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5148305892944</t>
+    <t xml:space="preserve">11.4972238540649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5148296356201</t>
   </si>
   <si>
     <t xml:space="preserve">11.2331228256226</t>
@@ -2264,13 +2264,13 @@
     <t xml:space="preserve">11.0218410491943</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3035488128662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9866275787354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8633794784546</t>
+    <t xml:space="preserve">11.3035478591919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.986626625061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8633785247803</t>
   </si>
   <si>
     <t xml:space="preserve">11.6028642654419</t>
@@ -2279,10 +2279,10 @@
     <t xml:space="preserve">11.1979084014893</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1450872421265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2683362960815</t>
+    <t xml:space="preserve">11.1450881958008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2683353424072</t>
   </si>
   <si>
     <t xml:space="preserve">11.1274814605713</t>
@@ -2291,25 +2291,25 @@
     <t xml:space="preserve">10.6344919204712</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9690198898315</t>
+    <t xml:space="preserve">10.9690208435059</t>
   </si>
   <si>
     <t xml:space="preserve">11.4444026947021</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2507276535034</t>
+    <t xml:space="preserve">11.2507286071777</t>
   </si>
   <si>
     <t xml:space="preserve">11.8141450881958</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1134605407715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.131067276001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9197864532471</t>
+    <t xml:space="preserve">12.1134614944458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1310663223267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9197854995728</t>
   </si>
   <si>
     <t xml:space="preserve">11.5324363708496</t>
@@ -2321,7 +2321,7 @@
     <t xml:space="preserve">12.0958528518677</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2190999984741</t>
+    <t xml:space="preserve">12.2191009521484</t>
   </si>
   <si>
     <t xml:space="preserve">12.5888433456421</t>
@@ -2333,22 +2333,22 @@
     <t xml:space="preserve">12.7120904922485</t>
   </si>
   <si>
-    <t xml:space="preserve">12.800124168396</t>
+    <t xml:space="preserve">12.8001251220703</t>
   </si>
   <si>
     <t xml:space="preserve">13.0114059448242</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0782470703125</t>
+    <t xml:space="preserve">12.0782480239868</t>
   </si>
   <si>
     <t xml:space="preserve">11.7965383529663</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2859411239624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8985929489136</t>
+    <t xml:space="preserve">11.2859420776367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8985919952393</t>
   </si>
   <si>
     <t xml:space="preserve">10.1415014266968</t>
@@ -2363,7 +2363,7 @@
     <t xml:space="preserve">10.1943225860596</t>
   </si>
   <si>
-    <t xml:space="preserve">10.352783203125</t>
+    <t xml:space="preserve">10.3527841567993</t>
   </si>
   <si>
     <t xml:space="preserve">13.2579011917114</t>
@@ -2378,13 +2378,13 @@
     <t xml:space="preserve">13.6276426315308</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1382389068604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.169867515564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.029013633728</t>
+    <t xml:space="preserve">14.1382398605347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1698665618896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0290126800537</t>
   </si>
   <si>
     <t xml:space="preserve">13.5043954849243</t>
@@ -2393,16 +2393,16 @@
     <t xml:space="preserve">13.698070526123</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9093523025513</t>
+    <t xml:space="preserve">13.909351348877</t>
   </si>
   <si>
     <t xml:space="preserve">13.7861042022705</t>
   </si>
   <si>
-    <t xml:space="preserve">13.874137878418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8213176727295</t>
+    <t xml:space="preserve">13.8741388320923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8213167190552</t>
   </si>
   <si>
     <t xml:space="preserve">13.8917436599731</t>
@@ -2414,25 +2414,25 @@
     <t xml:space="preserve">13.4515752792358</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2226877212524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2755079269409</t>
+    <t xml:space="preserve">13.2226886749268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2755069732666</t>
   </si>
   <si>
     <t xml:space="preserve">13.5220022201538</t>
   </si>
   <si>
-    <t xml:space="preserve">13.134654045105</t>
+    <t xml:space="preserve">13.1346530914307</t>
   </si>
   <si>
     <t xml:space="preserve">13.2402935028076</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4339685440063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7508897781372</t>
+    <t xml:space="preserve">13.4339694976807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7508907318115</t>
   </si>
   <si>
     <t xml:space="preserve">13.7156763076782</t>
@@ -2444,7 +2444,7 @@
     <t xml:space="preserve">14.8425102233887</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2474670410156</t>
+    <t xml:space="preserve">15.247465133667</t>
   </si>
   <si>
     <t xml:space="preserve">15.4763536453247</t>
@@ -2456,40 +2456,40 @@
     <t xml:space="preserve">15.6700277328491</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5291738510132</t>
+    <t xml:space="preserve">15.5291728973389</t>
   </si>
   <si>
     <t xml:space="preserve">14.9657564163208</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3178939819336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6876363754272</t>
+    <t xml:space="preserve">15.317892074585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6876344680786</t>
   </si>
   <si>
     <t xml:space="preserve">15.6524229049683</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3883209228516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2298583984375</t>
+    <t xml:space="preserve">15.3883190155029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2298593521118</t>
   </si>
   <si>
     <t xml:space="preserve">15.1242198944092</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1066122055054</t>
+    <t xml:space="preserve">15.1066112518311</t>
   </si>
   <si>
     <t xml:space="preserve">14.6312303543091</t>
   </si>
   <si>
-    <t xml:space="preserve">14.877724647522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.912938117981</t>
+    <t xml:space="preserve">14.8777227401733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9129390716553</t>
   </si>
   <si>
     <t xml:space="preserve">15.1594314575195</t>
@@ -2513,13 +2513,13 @@
     <t xml:space="preserve">15.8108825683594</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8989171981812</t>
+    <t xml:space="preserve">15.8989152908325</t>
   </si>
   <si>
     <t xml:space="preserve">15.8284902572632</t>
   </si>
   <si>
-    <t xml:space="preserve">15.916522026062</t>
+    <t xml:space="preserve">15.9165239334106</t>
   </si>
   <si>
     <t xml:space="preserve">16.7968635559082</t>
@@ -2534,7 +2534,7 @@
     <t xml:space="preserve">17.0785694122314</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0433597564697</t>
+    <t xml:space="preserve">17.0433578491211</t>
   </si>
   <si>
     <t xml:space="preserve">16.5151538848877</t>
@@ -2546,25 +2546,25 @@
     <t xml:space="preserve">16.1982307434082</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1630191802979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0749855041504</t>
+    <t xml:space="preserve">16.1630210876465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0749835968018</t>
   </si>
   <si>
     <t xml:space="preserve">16.4447269439697</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5855808258057</t>
+    <t xml:space="preserve">16.5855827331543</t>
   </si>
   <si>
     <t xml:space="preserve">16.1454105377197</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4535293579102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2070369720459</t>
+    <t xml:space="preserve">16.4535312652588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2070350646973</t>
   </si>
   <si>
     <t xml:space="preserve">16.1894283294678</t>
@@ -2579,31 +2579,31 @@
     <t xml:space="preserve">16.8232707977295</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6824188232422</t>
+    <t xml:space="preserve">16.6824207305908</t>
   </si>
   <si>
     <t xml:space="preserve">16.700023651123</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8584861755371</t>
+    <t xml:space="preserve">16.8584880828857</t>
   </si>
   <si>
     <t xml:space="preserve">16.7176322937012</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3831024169922</t>
+    <t xml:space="preserve">16.3831043243408</t>
   </si>
   <si>
     <t xml:space="preserve">17.404296875</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5979690551758</t>
+    <t xml:space="preserve">17.5979709625244</t>
   </si>
   <si>
     <t xml:space="preserve">16.8408794403076</t>
   </si>
   <si>
-    <t xml:space="preserve">17.069766998291</t>
+    <t xml:space="preserve">17.0697689056396</t>
   </si>
   <si>
     <t xml:space="preserve">17.0961761474609</t>
@@ -2612,34 +2612,34 @@
     <t xml:space="preserve">17.474723815918</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6419868469238</t>
+    <t xml:space="preserve">17.6419887542725</t>
   </si>
   <si>
     <t xml:space="preserve">17.8532695770264</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7300205230713</t>
+    <t xml:space="preserve">17.7300186157227</t>
   </si>
   <si>
     <t xml:space="preserve">17.9413032531738</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9765167236328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1877994537354</t>
+    <t xml:space="preserve">17.9765148162842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1877956390381</t>
   </si>
   <si>
     <t xml:space="preserve">18.3638648986816</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5047187805176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5223255157471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2758293151855</t>
+    <t xml:space="preserve">18.5047206878662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5223274230957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2758312225342</t>
   </si>
   <si>
     <t xml:space="preserve">17.7476291656494</t>
@@ -2651,7 +2651,7 @@
     <t xml:space="preserve">18.0997638702393</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0821571350098</t>
+    <t xml:space="preserve">18.0821590423584</t>
   </si>
   <si>
     <t xml:space="preserve">17.9236965179443</t>
@@ -2666,7 +2666,7 @@
     <t xml:space="preserve">18.2582244873047</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1525840759277</t>
+    <t xml:space="preserve">18.1525859832764</t>
   </si>
   <si>
     <t xml:space="preserve">18.1701908111572</t>
@@ -2687,22 +2687,22 @@
     <t xml:space="preserve">16.8936996459961</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2018184661865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2282295227051</t>
+    <t xml:space="preserve">17.2018203735352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2282276153564</t>
   </si>
   <si>
     <t xml:space="preserve">17.624382019043</t>
   </si>
   <si>
-    <t xml:space="preserve">19.8428363800049</t>
+    <t xml:space="preserve">19.8428344726562</t>
   </si>
   <si>
     <t xml:space="preserve">19.3146305084229</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2794170379639</t>
+    <t xml:space="preserve">19.2794189453125</t>
   </si>
   <si>
     <t xml:space="preserve">18.698392868042</t>
@@ -2720,7 +2720,7 @@
     <t xml:space="preserve">18.4695072174072</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3814716339111</t>
+    <t xml:space="preserve">18.3814697265625</t>
   </si>
   <si>
     <t xml:space="preserve">18.0645503997803</t>
@@ -2729,13 +2729,13 @@
     <t xml:space="preserve">17.8180561065674</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0117282867432</t>
+    <t xml:space="preserve">18.0117301940918</t>
   </si>
   <si>
     <t xml:space="preserve">18.2406177520752</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4130992889404</t>
+    <t xml:space="preserve">17.4131011962891</t>
   </si>
   <si>
     <t xml:space="preserve">17.4219036102295</t>
@@ -2744,22 +2744,22 @@
     <t xml:space="preserve">17.034553527832</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1578025817871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6103591918945</t>
+    <t xml:space="preserve">17.1578006744385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6103572845459</t>
   </si>
   <si>
     <t xml:space="preserve">18.1173706054688</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2934379577637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.76881980896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5575408935547</t>
+    <t xml:space="preserve">18.2934398651123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7688217163086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5575389862061</t>
   </si>
   <si>
     <t xml:space="preserve">18.3361072540283</t>
@@ -4053,6 +4053,9 @@
   </si>
   <si>
     <t xml:space="preserve">12.2399997711182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4200000762939</t>
   </si>
 </sst>
 </file>
@@ -60450,7 +60453,7 @@
     </row>
     <row r="2157">
       <c r="A2157" s="1" t="n">
-        <v>45464.6493402778</v>
+        <v>45464.2916666667</v>
       </c>
       <c r="B2157" t="n">
         <v>186753</v>
@@ -60471,6 +60474,32 @@
         <v>1346</v>
       </c>
       <c r="H2157" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2158">
+      <c r="A2158" s="1" t="n">
+        <v>45467.6493518519</v>
+      </c>
+      <c r="B2158" t="n">
+        <v>201879</v>
+      </c>
+      <c r="C2158" t="n">
+        <v>12.3999996185303</v>
+      </c>
+      <c r="D2158" t="n">
+        <v>12.1999998092651</v>
+      </c>
+      <c r="E2158" t="n">
+        <v>12.460000038147</v>
+      </c>
+      <c r="F2158" t="n">
+        <v>12.4200000762939</v>
+      </c>
+      <c r="G2158" t="s">
+        <v>1347</v>
+      </c>
+      <c r="H2158" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/MARR.MI.xlsx
+++ b/data/MARR.MI.xlsx
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2729778289795</t>
+    <t xml:space="preserve">14.2729787826538</t>
   </si>
   <si>
     <t xml:space="preserve">MARR.MI</t>
@@ -53,61 +53,61 @@
     <t xml:space="preserve">13.7910928726196</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7451972961426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3627490997314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4315929412842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5157279968262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2021236419678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2097721099854</t>
+    <t xml:space="preserve">13.7451992034912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3627510070801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4315919876099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5157299041748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2021226882935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.209771156311</t>
   </si>
   <si>
     <t xml:space="preserve">12.7202367782593</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8273220062256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3607349395752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9650068283081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6228151321411</t>
+    <t xml:space="preserve">12.8273239135742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3607368469238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9650049209595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6228141784668</t>
   </si>
   <si>
     <t xml:space="preserve">13.4545392990112</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3321561813354</t>
+    <t xml:space="preserve">13.3321580886841</t>
   </si>
   <si>
     <t xml:space="preserve">13.3245058059692</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4162950515747</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5004320144653</t>
+    <t xml:space="preserve">13.4162940979004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5004329681396</t>
   </si>
   <si>
     <t xml:space="preserve">13.7681455612183</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5616245269775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0873880386353</t>
+    <t xml:space="preserve">13.5616235733032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0873889923096</t>
   </si>
   <si>
     <t xml:space="preserve">13.2786121368408</t>
@@ -125,7 +125,7 @@
     <t xml:space="preserve">12.613151550293</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2995443344116</t>
+    <t xml:space="preserve">12.2995452880859</t>
   </si>
   <si>
     <t xml:space="preserve">12.6208000183105</t>
@@ -140,55 +140,55 @@
     <t xml:space="preserve">12.9497060775757</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1562299728394</t>
+    <t xml:space="preserve">13.156229019165</t>
   </si>
   <si>
     <t xml:space="preserve">13.4851331710815</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3780488967896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3474540710449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7299013137817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.96702003479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7375497817993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8752317428589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6763582229614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3703994750977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8196754455566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1179847717285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4468898773193</t>
+    <t xml:space="preserve">13.3780479431152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3474531173706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7299032211304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9670190811157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7375478744507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8752307891846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6763572692871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.370400428772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.819673538208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1179828643799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4468879699707</t>
   </si>
   <si>
     <t xml:space="preserve">13.5998697280884</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4774866104126</t>
+    <t xml:space="preserve">13.477484703064</t>
   </si>
   <si>
     <t xml:space="preserve">13.6610612869263</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2174196243286</t>
+    <t xml:space="preserve">13.2174205780029</t>
   </si>
   <si>
     <t xml:space="preserve">13.1026849746704</t>
@@ -197,34 +197,34 @@
     <t xml:space="preserve">13.4621868133545</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5386772155762</t>
+    <t xml:space="preserve">13.5386781692505</t>
   </si>
   <si>
     <t xml:space="preserve">13.9593706130981</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0817565917969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1505947113037</t>
+    <t xml:space="preserve">14.0817537307739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.150595664978</t>
   </si>
   <si>
     <t xml:space="preserve">13.8828811645508</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9976139068604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0741033554077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5483427047729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3188695907593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1658945083618</t>
+    <t xml:space="preserve">13.997615814209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0741052627563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5483417510986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3188714981079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1658916473389</t>
   </si>
   <si>
     <t xml:space="preserve">13.7987422943115</t>
@@ -236,100 +236,100 @@
     <t xml:space="preserve">13.6151647567749</t>
   </si>
   <si>
-    <t xml:space="preserve">13.576922416687</t>
+    <t xml:space="preserve">13.5769214630127</t>
   </si>
   <si>
     <t xml:space="preserve">13.859935760498</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9058294296265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5922193527222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0970516204834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9440717697144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.630464553833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6840057373047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6993055343628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8216896057129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4392414093018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6687107086182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4086446762085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5310277938843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.825008392334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.817063331604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0713148117065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0633697509766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2540597915649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3096799850464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.126935005188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0792608261108</t>
+    <t xml:space="preserve">13.9058284759521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5922203063965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0970525741577</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.94407081604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6304655075073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6840076446533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6993045806885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8216886520386</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4392395019531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6687097549438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4086437225342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5310306549072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8250093460083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8170642852783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0713157653809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0633707046509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2540616989136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3096771240234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1269340515137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0792617797852</t>
   </si>
   <si>
     <t xml:space="preserve">14.3017320632935</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1904973983765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1030979156494</t>
+    <t xml:space="preserve">14.1904964447021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1030988693237</t>
   </si>
   <si>
     <t xml:space="preserve">14.0872068405151</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0951509475708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5866460800171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6740455627441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3880109786987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0701961517334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2132110595703</t>
+    <t xml:space="preserve">14.0951519012451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5866470336914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6740465164185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3880128860474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0701951980591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2132091522217</t>
   </si>
   <si>
     <t xml:space="preserve">13.5945920944214</t>
@@ -338,31 +338,31 @@
     <t xml:space="preserve">13.5787010192871</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8806247711182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2052688598633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5060701370239</t>
+    <t xml:space="preserve">13.8806257247925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2052669525146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5060720443726</t>
   </si>
   <si>
     <t xml:space="preserve">13.0384130477905</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5151376724243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2461166381836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3573503494263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8567905426025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2778949737549</t>
+    <t xml:space="preserve">13.51513671875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.246114730835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3573513031006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8567914962769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2778959274292</t>
   </si>
   <si>
     <t xml:space="preserve">14.1507701873779</t>
@@ -374,13 +374,13 @@
     <t xml:space="preserve">14.5718765258789</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5639295578003</t>
+    <t xml:space="preserve">14.5639314651489</t>
   </si>
   <si>
     <t xml:space="preserve">14.3652954101562</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3176240921021</t>
+    <t xml:space="preserve">14.3176250457764</t>
   </si>
   <si>
     <t xml:space="preserve">14.5798225402832</t>
@@ -389,13 +389,13 @@
     <t xml:space="preserve">14.87380027771</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5480403900146</t>
+    <t xml:space="preserve">14.548041343689</t>
   </si>
   <si>
     <t xml:space="preserve">14.6990032196045</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9770917892456</t>
+    <t xml:space="preserve">14.9770927429199</t>
   </si>
   <si>
     <t xml:space="preserve">14.8340749740601</t>
@@ -404,31 +404,31 @@
     <t xml:space="preserve">14.9453105926514</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5877676010132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8579130172729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3335151672363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4765300750732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5003681182861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.444751739502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1666603088379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.238169670105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.031587600708</t>
+    <t xml:space="preserve">14.5877656936646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8579120635986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3335132598877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4765310287476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5003690719604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4447498321533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1666593551636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2381687164307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0315895080566</t>
   </si>
   <si>
     <t xml:space="preserve">13.8885717391968</t>
@@ -440,25 +440,25 @@
     <t xml:space="preserve">13.8647365570068</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0474815368652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9521360397339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7217178344727</t>
+    <t xml:space="preserve">14.0474786758423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9521341323853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.721718788147</t>
   </si>
   <si>
     <t xml:space="preserve">14.015697479248</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9124097824097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0077514648438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.920352935791</t>
+    <t xml:space="preserve">13.9124069213867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0077524185181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9203538894653</t>
   </si>
   <si>
     <t xml:space="preserve">13.8091163635254</t>
@@ -467,79 +467,79 @@
     <t xml:space="preserve">13.7058277130127</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6502122879028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7376108169556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9998083114624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.230224609375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1746072769165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0236434936523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1587162017822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7614459991455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6661024093628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.618426322937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7773370742798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5469179153442</t>
+    <t xml:space="preserve">13.6502094268799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7376098632812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9998092651367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2302236557007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1746063232422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0236415863037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1587152481079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7614450454712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6661005020142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6184272766113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7773351669312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5469188690186</t>
   </si>
   <si>
     <t xml:space="preserve">13.4913005828857</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6581544876099</t>
+    <t xml:space="preserve">13.6581554412842</t>
   </si>
   <si>
     <t xml:space="preserve">13.5389757156372</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4595193862915</t>
+    <t xml:space="preserve">13.4595203399658</t>
   </si>
   <si>
     <t xml:space="preserve">13.3482837677002</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3165044784546</t>
+    <t xml:space="preserve">13.3165035247803</t>
   </si>
   <si>
     <t xml:space="preserve">13.3006114959717</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3323926925659</t>
+    <t xml:space="preserve">13.3323945999146</t>
   </si>
   <si>
     <t xml:space="preserve">13.3244476318359</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1814317703247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0304670333862</t>
+    <t xml:space="preserve">13.1814308166504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0304679870605</t>
   </si>
   <si>
     <t xml:space="preserve">13.2370481491089</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2688312530518</t>
+    <t xml:space="preserve">13.2688302993774</t>
   </si>
   <si>
     <t xml:space="preserve">13.1575937271118</t>
@@ -548,70 +548,70 @@
     <t xml:space="preserve">12.7126512527466</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1178684234619</t>
+    <t xml:space="preserve">13.1178674697876</t>
   </si>
   <si>
     <t xml:space="preserve">13.2608861923218</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1417045593262</t>
+    <t xml:space="preserve">13.1417036056519</t>
   </si>
   <si>
     <t xml:space="preserve">13.1655397415161</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0225210189819</t>
+    <t xml:space="preserve">13.0225219726562</t>
   </si>
   <si>
     <t xml:space="preserve">12.9112863540649</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0066328048706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0940322875977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0781402587891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.50719165802</t>
+    <t xml:space="preserve">13.0066318511963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0940294265747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0781393051147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5071935653687</t>
   </si>
   <si>
     <t xml:space="preserve">13.4515743255615</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5707559585571</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8965167999268</t>
+    <t xml:space="preserve">13.5707550048828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8965158462524</t>
   </si>
   <si>
     <t xml:space="preserve">13.7455539703369</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9362459182739</t>
+    <t xml:space="preserve">13.9362449645996</t>
   </si>
   <si>
     <t xml:space="preserve">13.7852821350098</t>
   </si>
   <si>
-    <t xml:space="preserve">13.944188117981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9680252075195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9918613433838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9759721755981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.039532661438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8011741638184</t>
+    <t xml:space="preserve">13.9441890716553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9680242538452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9918632507324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9759712219238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0395345687866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.801173210144</t>
   </si>
   <si>
     <t xml:space="preserve">13.9839162826538</t>
@@ -620,97 +620,97 @@
     <t xml:space="preserve">14.2222785949707</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2063875198364</t>
+    <t xml:space="preserve">14.2063865661621</t>
   </si>
   <si>
     <t xml:space="preserve">14.7148962020874</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7705116271973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3494052886963</t>
+    <t xml:space="preserve">14.7705125808716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.349404335022</t>
   </si>
   <si>
     <t xml:space="preserve">14.2699508666992</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1825542449951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2858438491821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.341459274292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2620058059692</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6751680374146</t>
+    <t xml:space="preserve">14.1825513839722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2858419418335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3414583206177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2620067596436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6751661300659</t>
   </si>
   <si>
     <t xml:space="preserve">14.4606409072876</t>
   </si>
   <si>
-    <t xml:space="preserve">14.651330947876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.627495765686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.540093421936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6910581588745</t>
+    <t xml:space="preserve">14.6513299942017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6274948120117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5400953292847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6910572052002</t>
   </si>
   <si>
     <t xml:space="preserve">14.5162591934204</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7069492340088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6116027832031</t>
+    <t xml:space="preserve">14.7069473266602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6116046905518</t>
   </si>
   <si>
     <t xml:space="preserve">14.3970794677734</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7466745376587</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2154541015625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4538154602051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4061431884766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5968341827393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8908138275146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8510866165161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8590335845947</t>
+    <t xml:space="preserve">14.7466735839844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2154521942139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4538164138794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4061460494995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5968322753906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8908128738403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8510885238647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8590326309204</t>
   </si>
   <si>
     <t xml:space="preserve">15.7319068908691</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1371231079102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6774082183838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0656127929688</t>
+    <t xml:space="preserve">16.1371212005615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6774101257324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0656108856201</t>
   </si>
   <si>
     <t xml:space="preserve">16.0894527435303</t>
@@ -722,34 +722,34 @@
     <t xml:space="preserve">16.3039779663086</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1609554290771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2880821228027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6456279754639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6853561401367</t>
+    <t xml:space="preserve">16.1609592437744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2880840301514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6456317901611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6853542327881</t>
   </si>
   <si>
     <t xml:space="preserve">16.4867210388184</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4072647094727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0973930358887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1291770935059</t>
+    <t xml:space="preserve">16.4072666168213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0973949432373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1291732788086</t>
   </si>
   <si>
     <t xml:space="preserve">16.502613067627</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3675365447998</t>
+    <t xml:space="preserve">16.3675384521484</t>
   </si>
   <si>
     <t xml:space="preserve">16.5582294464111</t>
@@ -764,43 +764,43 @@
     <t xml:space="preserve">16.5423393249512</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8839893341064</t>
+    <t xml:space="preserve">16.8839912414551</t>
   </si>
   <si>
     <t xml:space="preserve">17.432222366333</t>
   </si>
   <si>
-    <t xml:space="preserve">17.114408493042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6615180969238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2812633514404</t>
+    <t xml:space="preserve">17.1144104003906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6615219116211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2812614440918</t>
   </si>
   <si>
     <t xml:space="preserve">17.3289318084717</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2574234008789</t>
+    <t xml:space="preserve">17.2574214935303</t>
   </si>
   <si>
     <t xml:space="preserve">17.2653694152832</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6149673461914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8136043548584</t>
+    <t xml:space="preserve">17.61496925354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8136005401611</t>
   </si>
   <si>
     <t xml:space="preserve">17.6864776611328</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5355129241943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4560604095459</t>
+    <t xml:space="preserve">17.535514831543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4560565948486</t>
   </si>
   <si>
     <t xml:space="preserve">17.6626377105713</t>
@@ -812,34 +812,34 @@
     <t xml:space="preserve">17.8294925689697</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7738761901855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9089488983154</t>
+    <t xml:space="preserve">17.7738780975342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9089508056641</t>
   </si>
   <si>
     <t xml:space="preserve">17.9963455200195</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1552581787109</t>
+    <t xml:space="preserve">18.1552562713623</t>
   </si>
   <si>
     <t xml:space="preserve">17.4004402160645</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5196189880371</t>
+    <t xml:space="preserve">17.5196228027344</t>
   </si>
   <si>
     <t xml:space="preserve">17.7083587646484</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2499465942383</t>
+    <t xml:space="preserve">18.2499485015869</t>
   </si>
   <si>
     <t xml:space="preserve">18.2171268463135</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0530090332031</t>
+    <t xml:space="preserve">18.0530052185059</t>
   </si>
   <si>
     <t xml:space="preserve">17.7904186248779</t>
@@ -854,34 +854,34 @@
     <t xml:space="preserve">18.0694198608398</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9791526794434</t>
+    <t xml:space="preserve">17.979154586792</t>
   </si>
   <si>
     <t xml:space="preserve">17.7986240386963</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0365943908691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1760940551758</t>
+    <t xml:space="preserve">18.0365962982178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1760959625244</t>
   </si>
   <si>
     <t xml:space="preserve">17.9955673217773</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5606517791748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7411823272705</t>
+    <t xml:space="preserve">17.5606536865234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7411842346191</t>
   </si>
   <si>
     <t xml:space="preserve">17.8888893127441</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7740077972412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0858325958252</t>
+    <t xml:space="preserve">17.7740039825439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0858345031738</t>
   </si>
   <si>
     <t xml:space="preserve">17.7575931549072</t>
@@ -890,61 +890,61 @@
     <t xml:space="preserve">17.5524463653564</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5852718353271</t>
+    <t xml:space="preserve">17.5852699279785</t>
   </si>
   <si>
     <t xml:space="preserve">17.6427116394043</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7329769134521</t>
+    <t xml:space="preserve">17.7329750061035</t>
   </si>
   <si>
     <t xml:space="preserve">17.7493877410889</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1749725341797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0765018463135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0682983398438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.150354385376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9123859405518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2324161529541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0600910186768</t>
+    <t xml:space="preserve">17.1749744415283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0765037536621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0682964324951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1503562927246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9123840332031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2324180603027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0600929260254</t>
   </si>
   <si>
     <t xml:space="preserve">16.9780330657959</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3965358734131</t>
+    <t xml:space="preserve">17.3965339660645</t>
   </si>
   <si>
     <t xml:space="preserve">17.5032119750977</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9299163818359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2991809844971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1022415161133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3484210968018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3566265106201</t>
+    <t xml:space="preserve">17.9299201965332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2991847991943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1022434234619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3484191894531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3566284179688</t>
   </si>
   <si>
     <t xml:space="preserve">18.4633045196533</t>
@@ -965,22 +965,22 @@
     <t xml:space="preserve">17.495002746582</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8068294525146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5278282165527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3883304595947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4047393798828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2734470367432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2242069244385</t>
+    <t xml:space="preserve">17.8068313598633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5278301239014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3883266448975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4047374725342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2734432220459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2242126464844</t>
   </si>
   <si>
     <t xml:space="preserve">17.0436820983887</t>
@@ -989,10 +989,10 @@
     <t xml:space="preserve">16.9452075958252</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9287967681885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0190620422363</t>
+    <t xml:space="preserve">16.9287948608398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0190601348877</t>
   </si>
   <si>
     <t xml:space="preserve">17.2816505432129</t>
@@ -1007,16 +1007,16 @@
     <t xml:space="preserve">17.6098880767822</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9709491729736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0940341949463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3238010406494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9873580932617</t>
+    <t xml:space="preserve">17.970947265625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0940361022949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.323802947998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9873600006104</t>
   </si>
   <si>
     <t xml:space="preserve">18.1186542510986</t>
@@ -1025,7 +1025,7 @@
     <t xml:space="preserve">18.1104488372803</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1268615722656</t>
+    <t xml:space="preserve">18.126859664917</t>
   </si>
   <si>
     <t xml:space="preserve">18.3320083618164</t>
@@ -1034,22 +1034,22 @@
     <t xml:space="preserve">18.3648319244385</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4386863708496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3812427520752</t>
+    <t xml:space="preserve">18.438684463501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3812465667725</t>
   </si>
   <si>
     <t xml:space="preserve">18.635627746582</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6684513092041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5371570587158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8079509735107</t>
+    <t xml:space="preserve">18.6684494018555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5371551513672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8079490661621</t>
   </si>
   <si>
     <t xml:space="preserve">18.6520366668701</t>
@@ -1064,13 +1064,13 @@
     <t xml:space="preserve">19.2182483673096</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1443920135498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6930694580078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7669200897217</t>
+    <t xml:space="preserve">19.1443939208984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6930675506592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7669219970703</t>
   </si>
   <si>
     <t xml:space="preserve">18.5945949554443</t>
@@ -1085,10 +1085,10 @@
     <t xml:space="preserve">18.4222736358643</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2335376739502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1925067901611</t>
+    <t xml:space="preserve">18.2335357666016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1925086975098</t>
   </si>
   <si>
     <t xml:space="preserve">18.1350650787354</t>
@@ -1097,19 +1097,19 @@
     <t xml:space="preserve">17.9217128753662</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6345043182373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5442390441895</t>
+    <t xml:space="preserve">17.6345062255859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5442409515381</t>
   </si>
   <si>
     <t xml:space="preserve">17.3555030822754</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0272674560547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7975006103516</t>
+    <t xml:space="preserve">17.0272655487061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7975025177002</t>
   </si>
   <si>
     <t xml:space="preserve">16.9041786193848</t>
@@ -1118,7 +1118,7 @@
     <t xml:space="preserve">17.1913871765137</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6919460296631</t>
+    <t xml:space="preserve">17.6919479370117</t>
   </si>
   <si>
     <t xml:space="preserve">17.9053001403809</t>
@@ -1127,10 +1127,10 @@
     <t xml:space="preserve">17.815034866333</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0037708282471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8396511077881</t>
+    <t xml:space="preserve">18.0037746429443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8396530151367</t>
   </si>
   <si>
     <t xml:space="preserve">17.9627418518066</t>
@@ -1139,7 +1139,7 @@
     <t xml:space="preserve">17.4293575286865</t>
   </si>
   <si>
-    <t xml:space="preserve">17.035472869873</t>
+    <t xml:space="preserve">17.0354747772217</t>
   </si>
   <si>
     <t xml:space="preserve">17.470386505127</t>
@@ -1151,7 +1151,7 @@
     <t xml:space="preserve">17.7822113037109</t>
   </si>
   <si>
-    <t xml:space="preserve">17.659122467041</t>
+    <t xml:space="preserve">17.6591243743896</t>
   </si>
   <si>
     <t xml:space="preserve">17.8232421875</t>
@@ -1163,13 +1163,13 @@
     <t xml:space="preserve">18.3976573944092</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4468898773193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5617752075195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6274242401123</t>
+    <t xml:space="preserve">18.446891784668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5617733001709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6274185180664</t>
   </si>
   <si>
     <t xml:space="preserve">18.7751274108887</t>
@@ -1178,7 +1178,7 @@
     <t xml:space="preserve">18.47971534729</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7258911132812</t>
+    <t xml:space="preserve">18.7258892059326</t>
   </si>
   <si>
     <t xml:space="preserve">18.3155975341797</t>
@@ -1190,55 +1190,55 @@
     <t xml:space="preserve">18.5781841278076</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5114192962646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0201816558838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.347297668457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2980613708496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9381275177002</t>
+    <t xml:space="preserve">17.511417388916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0201835632324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3472957611084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2980651855469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9381256103516</t>
   </si>
   <si>
     <t xml:space="preserve">17.675537109375</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2652397155762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3144760131836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4961261749268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5793056488037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5136604309082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0388374328613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3178405761719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1701335906982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.071662902832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8418960571289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8254852294922</t>
+    <t xml:space="preserve">17.2652416229248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.314474105835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4961280822754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5793075561523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5136585235596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.03883934021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3178386688232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1701316833496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0716609954834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8418941497803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8254833221436</t>
   </si>
   <si>
     <t xml:space="preserve">19.8911304473877</t>
@@ -1250,7 +1250,7 @@
     <t xml:space="preserve">19.9403667449951</t>
   </si>
   <si>
-    <t xml:space="preserve">20.4327201843262</t>
+    <t xml:space="preserve">20.4327220916748</t>
   </si>
   <si>
     <t xml:space="preserve">20.6296634674072</t>
@@ -1268,10 +1268,10 @@
     <t xml:space="preserve">20.5147819519043</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3506603240967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2850151062012</t>
+    <t xml:space="preserve">20.3506622314453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2850131988525</t>
   </si>
   <si>
     <t xml:space="preserve">20.3342514038086</t>
@@ -1283,85 +1283,85 @@
     <t xml:space="preserve">20.4163093566895</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3834838867188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4491329193115</t>
+    <t xml:space="preserve">20.383487701416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4491348266602</t>
   </si>
   <si>
     <t xml:space="preserve">20.7281341552734</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8430156707764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7937812805176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6788997650146</t>
+    <t xml:space="preserve">20.843017578125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7937831878662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6789016723633</t>
   </si>
   <si>
     <t xml:space="preserve">20.7117233276367</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6460742950439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8101940155029</t>
+    <t xml:space="preserve">20.6460762023926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8101959228516</t>
   </si>
   <si>
     <t xml:space="preserve">19.2510681152344</t>
   </si>
   <si>
-    <t xml:space="preserve">19.4808368682861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1854228973389</t>
+    <t xml:space="preserve">19.4808349609375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1854209899902</t>
   </si>
   <si>
     <t xml:space="preserve">19.1361865997314</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2887344360352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0514373779297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.492130279541</t>
+    <t xml:space="preserve">19.2887363433838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0514392852783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4921321868896</t>
   </si>
   <si>
     <t xml:space="preserve">19.3226318359375</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7633247375488</t>
+    <t xml:space="preserve">19.7633285522461</t>
   </si>
   <si>
     <t xml:space="preserve">19.6446800231934</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7294273376465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6955280303955</t>
+    <t xml:space="preserve">19.7294254302979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6955261230469</t>
   </si>
   <si>
     <t xml:space="preserve">19.6277294158936</t>
   </si>
   <si>
-    <t xml:space="preserve">19.271785736084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.559928894043</t>
+    <t xml:space="preserve">19.2717838287354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5599308013916</t>
   </si>
   <si>
     <t xml:space="preserve">19.8311233520508</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7802791595459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5429821014404</t>
+    <t xml:space="preserve">19.7802753448486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5429801940918</t>
   </si>
   <si>
     <t xml:space="preserve">19.5938282012939</t>
@@ -1370,10 +1370,10 @@
     <t xml:space="preserve">19.4412822723389</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8988914489746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9158401489258</t>
+    <t xml:space="preserve">18.8988933563232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9158420562744</t>
   </si>
   <si>
     <t xml:space="preserve">18.7971954345703</t>
@@ -1382,10 +1382,10 @@
     <t xml:space="preserve">19.0175399780273</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0683898925781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9836387634277</t>
+    <t xml:space="preserve">19.0683879852295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9836406707764</t>
   </si>
   <si>
     <t xml:space="preserve">19.1022911071777</t>
@@ -1397,7 +1397,7 @@
     <t xml:space="preserve">19.6616287231445</t>
   </si>
   <si>
-    <t xml:space="preserve">19.5768814086914</t>
+    <t xml:space="preserve">19.5768795013428</t>
   </si>
   <si>
     <t xml:space="preserve">20.3226661682129</t>
@@ -1406,61 +1406,61 @@
     <t xml:space="preserve">20.3396148681641</t>
   </si>
   <si>
-    <t xml:space="preserve">20.1870670318604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0175724029541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9328231811523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7124786376953</t>
+    <t xml:space="preserve">20.187068939209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0175743103027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9328212738037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7124767303467</t>
   </si>
   <si>
     <t xml:space="preserve">20.2379169464111</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9158725738525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6107788085938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8480758666992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4243621826172</t>
+    <t xml:space="preserve">19.9158744812012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6107807159424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8480739593506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4243659973145</t>
   </si>
   <si>
     <t xml:space="preserve">20.6447105407715</t>
   </si>
   <si>
-    <t xml:space="preserve">20.695556640625</t>
+    <t xml:space="preserve">20.6955604553223</t>
   </si>
   <si>
     <t xml:space="preserve">20.3904647827148</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3057136535645</t>
+    <t xml:space="preserve">20.3057155609131</t>
   </si>
   <si>
     <t xml:space="preserve">20.1701183319092</t>
   </si>
   <si>
-    <t xml:space="preserve">20.2887649536133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2040195465088</t>
+    <t xml:space="preserve">20.2887668609619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2040157318115</t>
   </si>
   <si>
     <t xml:space="preserve">20.3565635681152</t>
   </si>
   <si>
-    <t xml:space="preserve">20.5091114044189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5260601043701</t>
+    <t xml:space="preserve">20.5091133117676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5260620117188</t>
   </si>
   <si>
     <t xml:space="preserve">20.4921627044678</t>
@@ -1472,10 +1472,10 @@
     <t xml:space="preserve">20.661657333374</t>
   </si>
   <si>
-    <t xml:space="preserve">20.5769100189209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.763355255127</t>
+    <t xml:space="preserve">20.5769119262695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7633571624756</t>
   </si>
   <si>
     <t xml:space="preserve">21.1023502349854</t>
@@ -1487,13 +1487,13 @@
     <t xml:space="preserve">21.6955909729004</t>
   </si>
   <si>
-    <t xml:space="preserve">21.5091438293457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0345821380615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3905277252197</t>
+    <t xml:space="preserve">21.5091419219971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0345840454102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3905258178711</t>
   </si>
   <si>
     <t xml:space="preserve">22.1023826599121</t>
@@ -1505,7 +1505,7 @@
     <t xml:space="preserve">21.7294864654541</t>
   </si>
   <si>
-    <t xml:space="preserve">21.390495300293</t>
+    <t xml:space="preserve">21.3904933929443</t>
   </si>
   <si>
     <t xml:space="preserve">21.4074459075928</t>
@@ -1514,13 +1514,13 @@
     <t xml:space="preserve">20.9667530059814</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7294578552246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5938587188721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9667224884033</t>
+    <t xml:space="preserve">20.729455947876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5938606262207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9667205810547</t>
   </si>
   <si>
     <t xml:space="preserve">19.8819732666016</t>
@@ -1532,10 +1532,10 @@
     <t xml:space="preserve">19.3734836578369</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0344905853271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4751815795898</t>
+    <t xml:space="preserve">19.0344886779785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4751796722412</t>
   </si>
   <si>
     <t xml:space="preserve">20.0853710174561</t>
@@ -1544,7 +1544,7 @@
     <t xml:space="preserve">19.8989238739014</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2378902435303</t>
+    <t xml:space="preserve">19.237886428833</t>
   </si>
   <si>
     <t xml:space="preserve">18.8819446563721</t>
@@ -1556,22 +1556,22 @@
     <t xml:space="preserve">18.1870040893555</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2717552185059</t>
+    <t xml:space="preserve">18.2717533111572</t>
   </si>
   <si>
     <t xml:space="preserve">18.0175094604492</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6276969909668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9327621459961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1192054748535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9666614532471</t>
+    <t xml:space="preserve">18.6276988983154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9327583312988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1192073822021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9666633605957</t>
   </si>
   <si>
     <t xml:space="preserve">17.8649635314941</t>
@@ -1586,13 +1586,13 @@
     <t xml:space="preserve">18.5260009765625</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8480110168457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3564701080322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9666309356689</t>
+    <t xml:space="preserve">17.8480129241943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3564720153809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9666290283203</t>
   </si>
   <si>
     <t xml:space="preserve">17.085277557373</t>
@@ -1607,10 +1607,10 @@
     <t xml:space="preserve">16.271692276001</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6106853485107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4242382049561</t>
+    <t xml:space="preserve">16.6106872558594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4242401123047</t>
   </si>
   <si>
     <t xml:space="preserve">16.3903388977051</t>
@@ -1619,16 +1619,16 @@
     <t xml:space="preserve">16.7378101348877</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8140811920166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7039108276367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4581680297852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2717247009277</t>
+    <t xml:space="preserve">16.8140830993652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7039070129395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4581699371338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2717227935791</t>
   </si>
   <si>
     <t xml:space="preserve">17.153076171875</t>
@@ -1643,13 +1643,13 @@
     <t xml:space="preserve">17.6446151733398</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7971630096436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2209033966064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4073543548584</t>
+    <t xml:space="preserve">17.7971611022949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2209072113037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4073524475098</t>
   </si>
   <si>
     <t xml:space="preserve">18.3395538330078</t>
@@ -1658,16 +1658,16 @@
     <t xml:space="preserve">17.9836082458496</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0514087677002</t>
+    <t xml:space="preserve">18.0514068603516</t>
   </si>
   <si>
     <t xml:space="preserve">17.6615657806396</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2378253936768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5768165588379</t>
+    <t xml:space="preserve">17.2378234863281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5768184661865</t>
   </si>
   <si>
     <t xml:space="preserve">17.7293643951416</t>
@@ -1679,34 +1679,34 @@
     <t xml:space="preserve">18.4412517547607</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1531047821045</t>
+    <t xml:space="preserve">18.1531066894531</t>
   </si>
   <si>
     <t xml:space="preserve">17.9158096313477</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9497089385986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8988628387451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7463130950928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7124137878418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6276683807373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7632617950439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3056240081787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.873405456543</t>
+    <t xml:space="preserve">17.9497127532959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8988609313965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7463150024414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7124156951904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.62766456604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7632637023926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3056221008301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8734073638916</t>
   </si>
   <si>
     <t xml:space="preserve">17.186975479126</t>
@@ -1718,7 +1718,7 @@
     <t xml:space="preserve">17.3903713226318</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2886714935303</t>
+    <t xml:space="preserve">17.2886734008789</t>
   </si>
   <si>
     <t xml:space="preserve">17.2547740936279</t>
@@ -1727,43 +1727,43 @@
     <t xml:space="preserve">17.2208728790283</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8903541564941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4242706298828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5429172515869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8141117095947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5937652587891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3734226226807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1700267791748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5005416870117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2462978363037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3310489654541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4157943725586</t>
+    <t xml:space="preserve">16.8903560638428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4242687225342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5429191589355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8141136169434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5937671661377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.373420715332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1700248718262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5005435943604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2462997436523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3310470581055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4157962799072</t>
   </si>
   <si>
     <t xml:space="preserve">17.1615505218506</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0344314575195</t>
+    <t xml:space="preserve">17.0344276428223</t>
   </si>
   <si>
     <t xml:space="preserve">17.5852928161621</t>
@@ -1775,70 +1775,70 @@
     <t xml:space="preserve">18.3480262756348</t>
   </si>
   <si>
-    <t xml:space="preserve">18.136157989502</t>
+    <t xml:space="preserve">18.1361560821533</t>
   </si>
   <si>
     <t xml:space="preserve">18.0937824249268</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8395385742188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0090351104736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7547912597656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9242839813232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1785297393799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9148921966553</t>
+    <t xml:space="preserve">17.8395366668701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.009033203125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.754789352417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9242858886719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1785335540771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9148941040039</t>
   </si>
   <si>
     <t xml:space="preserve">18.0909595489502</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9589080810547</t>
+    <t xml:space="preserve">17.9589099884033</t>
   </si>
   <si>
     <t xml:space="preserve">17.8268585205078</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2670288085938</t>
+    <t xml:space="preserve">18.2670269012451</t>
   </si>
   <si>
     <t xml:space="preserve">18.178991317749</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2230110168457</t>
+    <t xml:space="preserve">18.2230129241943</t>
   </si>
   <si>
     <t xml:space="preserve">18.4871120452881</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4430980682373</t>
+    <t xml:space="preserve">18.4430961608887</t>
   </si>
   <si>
     <t xml:space="preserve">18.5311298370361</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3550624847412</t>
+    <t xml:space="preserve">18.3550605773926</t>
   </si>
   <si>
     <t xml:space="preserve">18.0029277801514</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7828407287598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6507911682129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3426704406738</t>
+    <t xml:space="preserve">17.7828426361084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6507892608643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3426723480225</t>
   </si>
   <si>
     <t xml:space="preserve">17.5011310577393</t>
@@ -1847,34 +1847,34 @@
     <t xml:space="preserve">17.553955078125</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7952308654785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7512149810791</t>
+    <t xml:space="preserve">18.7952327728271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7512130737305</t>
   </si>
   <si>
     <t xml:space="preserve">18.5751457214355</t>
   </si>
   <si>
-    <t xml:space="preserve">18.619161605835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3110466003418</t>
+    <t xml:space="preserve">18.6191635131836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3110446929932</t>
   </si>
   <si>
     <t xml:space="preserve">17.7388229370117</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4307060241699</t>
+    <t xml:space="preserve">17.4307041168213</t>
   </si>
   <si>
     <t xml:space="preserve">17.3778858184814</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2370319366455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1666049957275</t>
+    <t xml:space="preserve">17.2370300292969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1666030883789</t>
   </si>
   <si>
     <t xml:space="preserve">17.2722454071045</t>
@@ -1883,7 +1883,7 @@
     <t xml:space="preserve">17.1137866973877</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3074588775635</t>
+    <t xml:space="preserve">17.3074569702148</t>
   </si>
   <si>
     <t xml:space="preserve">16.8320770263672</t>
@@ -1892,16 +1892,16 @@
     <t xml:space="preserve">16.6912212371826</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7616500854492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.060962677002</t>
+    <t xml:space="preserve">16.7616481781006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0609645843506</t>
   </si>
   <si>
     <t xml:space="preserve">16.4799404144287</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3743000030518</t>
+    <t xml:space="preserve">16.3743019104004</t>
   </si>
   <si>
     <t xml:space="preserve">16.6207942962646</t>
@@ -1919,13 +1919,13 @@
     <t xml:space="preserve">16.5679740905762</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4095134735107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3919067382812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3214817047119</t>
+    <t xml:space="preserve">16.4095115661621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3919086456299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3214797973633</t>
   </si>
   <si>
     <t xml:space="preserve">16.2334461212158</t>
@@ -1934,7 +1934,7 @@
     <t xml:space="preserve">16.9025039672852</t>
   </si>
   <si>
-    <t xml:space="preserve">17.289852142334</t>
+    <t xml:space="preserve">17.2898502349854</t>
   </si>
   <si>
     <t xml:space="preserve">17.3954925537109</t>
@@ -1943,13 +1943,13 @@
     <t xml:space="preserve">17.4483127593994</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6948108673096</t>
+    <t xml:space="preserve">17.6948089599609</t>
   </si>
   <si>
     <t xml:space="preserve">19.0593318939209</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1349754333496</t>
+    <t xml:space="preserve">18.1349773406982</t>
   </si>
   <si>
     <t xml:space="preserve">18.3990783691406</t>
@@ -1958,22 +1958,22 @@
     <t xml:space="preserve">17.8708744049072</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6067752838135</t>
+    <t xml:space="preserve">17.6067733764648</t>
   </si>
   <si>
     <t xml:space="preserve">17.254638671875</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8496799468994</t>
+    <t xml:space="preserve">16.849681854248</t>
   </si>
   <si>
     <t xml:space="preserve">16.8848972320557</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1489963531494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1313896179199</t>
+    <t xml:space="preserve">17.148998260498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1313915252686</t>
   </si>
   <si>
     <t xml:space="preserve">17.4835262298584</t>
@@ -1985,7 +1985,7 @@
     <t xml:space="preserve">16.6384010314941</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5503692626953</t>
+    <t xml:space="preserve">16.550365447998</t>
   </si>
   <si>
     <t xml:space="preserve">16.4271202087402</t>
@@ -1994,10 +1994,10 @@
     <t xml:space="preserve">16.7088279724121</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6736164093018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8144702911377</t>
+    <t xml:space="preserve">16.6736145019531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8144683837891</t>
   </si>
   <si>
     <t xml:space="preserve">17.360279083252</t>
@@ -2018,7 +2018,7 @@
     <t xml:space="preserve">17.2194232940674</t>
   </si>
   <si>
-    <t xml:space="preserve">16.990535736084</t>
+    <t xml:space="preserve">16.9905376434326</t>
   </si>
   <si>
     <t xml:space="preserve">17.184211730957</t>
@@ -2027,10 +2027,10 @@
     <t xml:space="preserve">17.5715599060059</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4235343933105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7052421569824</t>
+    <t xml:space="preserve">15.4235334396362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7052431106567</t>
   </si>
   <si>
     <t xml:space="preserve">15.0537919998169</t>
@@ -2039,10 +2039,10 @@
     <t xml:space="preserve">14.7896890640259</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4727697372437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2614870071411</t>
+    <t xml:space="preserve">14.4727687835693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2614879608154</t>
   </si>
   <si>
     <t xml:space="preserve">14.0854187011719</t>
@@ -2051,7 +2051,7 @@
     <t xml:space="preserve">14.2086658477783</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4832029342651</t>
+    <t xml:space="preserve">12.4832038879395</t>
   </si>
   <si>
     <t xml:space="preserve">12.694483757019</t>
@@ -2060,10 +2060,10 @@
     <t xml:space="preserve">13.1874732971191</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7085056304932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1838874816895</t>
+    <t xml:space="preserve">11.7085037231445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1838884353638</t>
   </si>
   <si>
     <t xml:space="preserve">10.7929525375366</t>
@@ -2072,16 +2072,16 @@
     <t xml:space="preserve">11.0042333602905</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5640640258789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9514141082764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6064491271973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2050800323486</t>
+    <t xml:space="preserve">10.5640649795532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9514131546021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6064500808716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2050809860229</t>
   </si>
   <si>
     <t xml:space="preserve">13.6452493667603</t>
@@ -2090,10 +2090,10 @@
     <t xml:space="preserve">12.9233722686768</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0466194152832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9021787643433</t>
+    <t xml:space="preserve">13.0466184616089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9021797180176</t>
   </si>
   <si>
     <t xml:space="preserve">11.5852575302124</t>
@@ -2102,7 +2102,7 @@
     <t xml:space="preserve">11.3211545944214</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8281669616699</t>
+    <t xml:space="preserve">10.8281660079956</t>
   </si>
   <si>
     <t xml:space="preserve">11.0922679901123</t>
@@ -2111,7 +2111,7 @@
     <t xml:space="preserve">11.1626949310303</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1803007125854</t>
+    <t xml:space="preserve">11.1803016662598</t>
   </si>
   <si>
     <t xml:space="preserve">11.0394468307495</t>
@@ -2120,34 +2120,34 @@
     <t xml:space="preserve">10.7753458023071</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6697053909302</t>
+    <t xml:space="preserve">10.6697034835815</t>
   </si>
   <si>
     <t xml:space="preserve">10.5816717147827</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1098747253418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3563690185547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9338054656982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6873111724854</t>
+    <t xml:space="preserve">11.1098737716675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3563680648804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9338064193726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6873121261597</t>
   </si>
   <si>
     <t xml:space="preserve">10.8809862136841</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6168851852417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6520977020264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7401323318481</t>
+    <t xml:space="preserve">10.6168842315674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6520986557007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7401313781738</t>
   </si>
   <si>
     <t xml:space="preserve">10.5288505554199</t>
@@ -2156,16 +2156,16 @@
     <t xml:space="preserve">10.0358600616455</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0886821746826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.89500617980957</t>
+    <t xml:space="preserve">10.0886812210083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.89500713348389</t>
   </si>
   <si>
     <t xml:space="preserve">9.70133304595947</t>
   </si>
   <si>
-    <t xml:space="preserve">9.63090515136719</t>
+    <t xml:space="preserve">9.63090419769287</t>
   </si>
   <si>
     <t xml:space="preserve">10.2823553085327</t>
@@ -2177,22 +2177,22 @@
     <t xml:space="preserve">10.2999620437622</t>
   </si>
   <si>
-    <t xml:space="preserve">9.96543407440186</t>
+    <t xml:space="preserve">9.96543312072754</t>
   </si>
   <si>
     <t xml:space="preserve">11.0746603012085</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8457727432251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.057053565979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6732921600342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5676498413086</t>
+    <t xml:space="preserve">10.8457736968994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0570545196533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6732902526855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5676507949829</t>
   </si>
   <si>
     <t xml:space="preserve">11.6556835174561</t>
@@ -2201,7 +2201,7 @@
     <t xml:space="preserve">11.4796171188354</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5500440597534</t>
+    <t xml:space="preserve">11.5500431060791</t>
   </si>
   <si>
     <t xml:space="preserve">12.5360221862793</t>
@@ -2213,7 +2213,7 @@
     <t xml:space="preserve">12.3071346282959</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0606393814087</t>
+    <t xml:space="preserve">12.060640335083</t>
   </si>
   <si>
     <t xml:space="preserve">11.3387622833252</t>
@@ -2225,10 +2225,10 @@
     <t xml:space="preserve">11.6380777359009</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9549999237061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9726057052612</t>
+    <t xml:space="preserve">11.9549989700317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9726066589355</t>
   </si>
   <si>
     <t xml:space="preserve">11.8669652938843</t>
@@ -2243,13 +2243,13 @@
     <t xml:space="preserve">11.7613248825073</t>
   </si>
   <si>
-    <t xml:space="preserve">11.690896987915</t>
+    <t xml:space="preserve">11.6908979415894</t>
   </si>
   <si>
     <t xml:space="preserve">11.7437181472778</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4972229003906</t>
+    <t xml:space="preserve">11.4972238540649</t>
   </si>
   <si>
     <t xml:space="preserve">11.5148305892944</t>
@@ -2264,7 +2264,7 @@
     <t xml:space="preserve">11.3035488128662</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9866275787354</t>
+    <t xml:space="preserve">10.986626625061</t>
   </si>
   <si>
     <t xml:space="preserve">10.8633794784546</t>
@@ -2273,28 +2273,28 @@
     <t xml:space="preserve">11.6028642654419</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1979084014893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1450872421265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2683362960815</t>
+    <t xml:space="preserve">11.1979093551636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1450881958008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2683353424072</t>
   </si>
   <si>
     <t xml:space="preserve">11.1274814605713</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6344919204712</t>
+    <t xml:space="preserve">10.6344909667969</t>
   </si>
   <si>
     <t xml:space="preserve">10.9690198898315</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4444026947021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2507276535034</t>
+    <t xml:space="preserve">11.4444036483765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2507286071777</t>
   </si>
   <si>
     <t xml:space="preserve">11.8141450881958</t>
@@ -2306,31 +2306,31 @@
     <t xml:space="preserve">12.131067276001</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9197864532471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5324363708496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0078201293945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0958528518677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2190999984741</t>
+    <t xml:space="preserve">11.9197854995728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5324373245239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0078191757202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.095853805542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2191019058228</t>
   </si>
   <si>
     <t xml:space="preserve">12.5888433456421</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9585857391357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7120904922485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.800124168396</t>
+    <t xml:space="preserve">12.9585847854614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7120895385742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8001251220703</t>
   </si>
   <si>
     <t xml:space="preserve">13.0114059448242</t>
@@ -2339,16 +2339,16 @@
     <t xml:space="preserve">12.0782470703125</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7965383529663</t>
+    <t xml:space="preserve">11.796537399292</t>
   </si>
   <si>
     <t xml:space="preserve">11.2859411239624</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8985929489136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1415014266968</t>
+    <t xml:space="preserve">10.8985939025879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1415023803711</t>
   </si>
   <si>
     <t xml:space="preserve">10.2119293212891</t>
@@ -2366,22 +2366,22 @@
     <t xml:space="preserve">13.2579011917114</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8037109375</t>
+    <t xml:space="preserve">13.8037118911743</t>
   </si>
   <si>
     <t xml:space="preserve">12.9409790039062</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6276426315308</t>
+    <t xml:space="preserve">13.6276416778564</t>
   </si>
   <si>
     <t xml:space="preserve">14.1382389068604</t>
   </si>
   <si>
-    <t xml:space="preserve">13.169867515564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.029013633728</t>
+    <t xml:space="preserve">13.1698665618896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0290117263794</t>
   </si>
   <si>
     <t xml:space="preserve">13.5043954849243</t>
@@ -2393,16 +2393,16 @@
     <t xml:space="preserve">13.9093523025513</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7861042022705</t>
+    <t xml:space="preserve">13.7861032485962</t>
   </si>
   <si>
     <t xml:space="preserve">13.874137878418</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8213176727295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8917436599731</t>
+    <t xml:space="preserve">13.8213167190552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8917446136475</t>
   </si>
   <si>
     <t xml:space="preserve">13.838924407959</t>
@@ -2411,7 +2411,7 @@
     <t xml:space="preserve">13.4515752792358</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2226877212524</t>
+    <t xml:space="preserve">13.2226886749268</t>
   </si>
   <si>
     <t xml:space="preserve">13.2755079269409</t>
@@ -2423,7 +2423,7 @@
     <t xml:space="preserve">13.134654045105</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2402935028076</t>
+    <t xml:space="preserve">13.2402944564819</t>
   </si>
   <si>
     <t xml:space="preserve">13.4339685440063</t>
@@ -2432,64 +2432,64 @@
     <t xml:space="preserve">13.7508897781372</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7156763076782</t>
+    <t xml:space="preserve">13.7156772613525</t>
   </si>
   <si>
     <t xml:space="preserve">14.3671264648438</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8425102233887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2474670410156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4763536453247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5996007919312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6700277328491</t>
+    <t xml:space="preserve">14.842511177063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.247465133667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.476354598999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5996026992798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6700286865234</t>
   </si>
   <si>
     <t xml:space="preserve">15.5291738510132</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9657564163208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3178939819336</t>
+    <t xml:space="preserve">14.9657583236694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.317892074585</t>
   </si>
   <si>
     <t xml:space="preserve">15.6876363754272</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6524229049683</t>
+    <t xml:space="preserve">15.6524238586426</t>
   </si>
   <si>
     <t xml:space="preserve">15.3883209228516</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2298583984375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1242198944092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1066122055054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6312303543091</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.877724647522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.912938117981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1594314575195</t>
+    <t xml:space="preserve">15.2298564910889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1242179870605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1066131591797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6312294006348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8777236938477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9129390716553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1594305038452</t>
   </si>
   <si>
     <t xml:space="preserve">15.9693431854248</t>
@@ -2498,49 +2498,49 @@
     <t xml:space="preserve">15.846095085144</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3390865325928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2862644195557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9729309082031</t>
+    <t xml:space="preserve">16.3390846252441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2862682342529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9729328155518</t>
   </si>
   <si>
     <t xml:space="preserve">15.8108825683594</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8989171981812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8284902572632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.916522026062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7968635559082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6031875610352</t>
+    <t xml:space="preserve">15.8989162445068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8284873962402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9165210723877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7968616485596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6031856536865</t>
   </si>
   <si>
     <t xml:space="preserve">17.0081424713135</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0785694122314</t>
+    <t xml:space="preserve">17.0785713195801</t>
   </si>
   <si>
     <t xml:space="preserve">17.0433597564697</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5151538848877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9341316223145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1982307434082</t>
+    <t xml:space="preserve">16.5151519775391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9341306686401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1982326507568</t>
   </si>
   <si>
     <t xml:space="preserve">16.1630191802979</t>
@@ -2549,19 +2549,19 @@
     <t xml:space="preserve">16.0749855041504</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4447269439697</t>
+    <t xml:space="preserve">16.4447288513184</t>
   </si>
   <si>
     <t xml:space="preserve">16.5855808258057</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1454105377197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4535293579102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2070369720459</t>
+    <t xml:space="preserve">16.1454124450684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4535312652588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2070350646973</t>
   </si>
   <si>
     <t xml:space="preserve">16.1894283294678</t>
@@ -2573,22 +2573,22 @@
     <t xml:space="preserve">16.5327606201172</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8232707977295</t>
+    <t xml:space="preserve">16.8232727050781</t>
   </si>
   <si>
     <t xml:space="preserve">16.6824188232422</t>
   </si>
   <si>
-    <t xml:space="preserve">16.700023651123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8584861755371</t>
+    <t xml:space="preserve">16.7000255584717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8584842681885</t>
   </si>
   <si>
     <t xml:space="preserve">16.7176322937012</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3831024169922</t>
+    <t xml:space="preserve">16.3831043243408</t>
   </si>
   <si>
     <t xml:space="preserve">17.404296875</t>
@@ -2597,10 +2597,10 @@
     <t xml:space="preserve">17.5979690551758</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8408794403076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.069766998291</t>
+    <t xml:space="preserve">16.840877532959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0697650909424</t>
   </si>
   <si>
     <t xml:space="preserve">17.0961761474609</t>
@@ -2609,10 +2609,10 @@
     <t xml:space="preserve">17.474723815918</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6419868469238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8532695770264</t>
+    <t xml:space="preserve">17.6419887542725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8532676696777</t>
   </si>
   <si>
     <t xml:space="preserve">17.7300205230713</t>
@@ -2621,13 +2621,13 @@
     <t xml:space="preserve">17.9413032531738</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9765167236328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1877994537354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3638648986816</t>
+    <t xml:space="preserve">17.9765148162842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1877956390381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3638687133789</t>
   </si>
   <si>
     <t xml:space="preserve">18.5047187805176</t>
@@ -2636,22 +2636,22 @@
     <t xml:space="preserve">18.5223255157471</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2758293151855</t>
+    <t xml:space="preserve">18.2758312225342</t>
   </si>
   <si>
     <t xml:space="preserve">17.7476291656494</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2054023742676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0997638702393</t>
+    <t xml:space="preserve">18.2054042816162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0997619628906</t>
   </si>
   <si>
     <t xml:space="preserve">18.0821571350098</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9236965179443</t>
+    <t xml:space="preserve">17.9236946105957</t>
   </si>
   <si>
     <t xml:space="preserve">17.8004474639893</t>
@@ -2663,7 +2663,7 @@
     <t xml:space="preserve">18.2582244873047</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1525840759277</t>
+    <t xml:space="preserve">18.1525859832764</t>
   </si>
   <si>
     <t xml:space="preserve">18.1701908111572</t>
@@ -2678,7 +2678,7 @@
     <t xml:space="preserve">18.3286514282227</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9060897827148</t>
+    <t xml:space="preserve">17.9060878753662</t>
   </si>
   <si>
     <t xml:space="preserve">16.8936996459961</t>
@@ -2693,7 +2693,7 @@
     <t xml:space="preserve">17.624382019043</t>
   </si>
   <si>
-    <t xml:space="preserve">19.8428363800049</t>
+    <t xml:space="preserve">19.8428344726562</t>
   </si>
   <si>
     <t xml:space="preserve">19.3146305084229</t>
@@ -2714,7 +2714,7 @@
     <t xml:space="preserve">18.8920669555664</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4695072174072</t>
+    <t xml:space="preserve">18.4695053100586</t>
   </si>
   <si>
     <t xml:space="preserve">18.3814716339111</t>
@@ -2738,10 +2738,10 @@
     <t xml:space="preserve">17.4219036102295</t>
   </si>
   <si>
-    <t xml:space="preserve">17.034553527832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1578025817871</t>
+    <t xml:space="preserve">17.0345554351807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1578006744385</t>
   </si>
   <si>
     <t xml:space="preserve">18.6103591918945</t>
@@ -2750,13 +2750,13 @@
     <t xml:space="preserve">18.1173706054688</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2934379577637</t>
+    <t xml:space="preserve">18.2934398651123</t>
   </si>
   <si>
     <t xml:space="preserve">18.76881980896</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5575408935547</t>
+    <t xml:space="preserve">18.5575389862061</t>
   </si>
   <si>
     <t xml:space="preserve">18.3361072540283</t>
@@ -2771,19 +2771,19 @@
     <t xml:space="preserve">18.6226081848145</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4793567657471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4435443878174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.747953414917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5151691436768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5330772399902</t>
+    <t xml:space="preserve">18.4793586730957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.443546295166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7479553222656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5151710510254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5330791473389</t>
   </si>
   <si>
     <t xml:space="preserve">18.2286701202393</t>
@@ -2795,28 +2795,28 @@
     <t xml:space="preserve">18.0496063232422</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9958877563477</t>
+    <t xml:space="preserve">17.995885848999</t>
   </si>
   <si>
     <t xml:space="preserve">17.8974018096924</t>
   </si>
   <si>
-    <t xml:space="preserve">18.139139175415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9063568115234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7810115814209</t>
+    <t xml:space="preserve">18.1391372680664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9063549041748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7810096740723</t>
   </si>
   <si>
     <t xml:space="preserve">18.2644824981689</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1990547180176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0826625823975</t>
+    <t xml:space="preserve">17.1990528106689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0826606750488</t>
   </si>
   <si>
     <t xml:space="preserve">17.136381149292</t>
@@ -2825,13 +2825,13 @@
     <t xml:space="preserve">16.760347366333</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6529121398926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.831974029541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3574562072754</t>
+    <t xml:space="preserve">16.6529102325439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8319721221924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3574542999268</t>
   </si>
   <si>
     <t xml:space="preserve">16.4738464355469</t>
@@ -2843,7 +2843,7 @@
     <t xml:space="preserve">16.3664093017578</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5633773803711</t>
+    <t xml:space="preserve">16.5633792877197</t>
   </si>
   <si>
     <t xml:space="preserve">16.5365180969238</t>
@@ -2852,7 +2852,7 @@
     <t xml:space="preserve">16.8051147460938</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0289421081543</t>
+    <t xml:space="preserve">17.0289440155029</t>
   </si>
   <si>
     <t xml:space="preserve">16.8498802185059</t>
@@ -2864,7 +2864,7 @@
     <t xml:space="preserve">16.9931297302246</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9125499725342</t>
+    <t xml:space="preserve">16.9125518798828</t>
   </si>
   <si>
     <t xml:space="preserve">16.7334899902344</t>
@@ -2873,16 +2873,16 @@
     <t xml:space="preserve">16.7424430847168</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4648914337158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4380359649658</t>
+    <t xml:space="preserve">16.4648933410645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4380340576172</t>
   </si>
   <si>
     <t xml:space="preserve">16.1157188415527</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1694374084473</t>
+    <t xml:space="preserve">16.1694393157959</t>
   </si>
   <si>
     <t xml:space="preserve">16.3395481109619</t>
@@ -2894,10 +2894,10 @@
     <t xml:space="preserve">17.1005687713623</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2975387573242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4586944580078</t>
+    <t xml:space="preserve">17.2975368499756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4586963653564</t>
   </si>
   <si>
     <t xml:space="preserve">16.5454711914062</t>
@@ -2906,7 +2906,7 @@
     <t xml:space="preserve">16.6618633270264</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0199909210205</t>
+    <t xml:space="preserve">17.0199928283691</t>
   </si>
   <si>
     <t xml:space="preserve">16.9483661651611</t>
@@ -2915,31 +2915,31 @@
     <t xml:space="preserve">17.3154449462891</t>
   </si>
   <si>
-    <t xml:space="preserve">16.894645690918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0020847320557</t>
+    <t xml:space="preserve">16.8946475982666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.002082824707</t>
   </si>
   <si>
     <t xml:space="preserve">16.4917526245117</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9366550445557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.079906463623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4827976226807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7872085571289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5186138153076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8588333129883</t>
+    <t xml:space="preserve">15.93665599823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0799045562744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4827995300293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7872066497803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.518611907959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8588314056396</t>
   </si>
   <si>
     <t xml:space="preserve">17.1274280548096</t>
@@ -2948,13 +2948,13 @@
     <t xml:space="preserve">16.8409252166748</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4022216796875</t>
+    <t xml:space="preserve">16.4022197723389</t>
   </si>
   <si>
     <t xml:space="preserve">15.8918905258179</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9456090927124</t>
+    <t xml:space="preserve">15.9456071853638</t>
   </si>
   <si>
     <t xml:space="preserve">16.0978126525879</t>
@@ -2966,10 +2966,10 @@
     <t xml:space="preserve">16.590238571167</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4290809631348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0888595581055</t>
+    <t xml:space="preserve">16.4290790557861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0888576507568</t>
   </si>
   <si>
     <t xml:space="preserve">15.6680612564087</t>
@@ -2978,43 +2978,43 @@
     <t xml:space="preserve">15.2920265197754</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5847263336182</t>
+    <t xml:space="preserve">14.5847272872925</t>
   </si>
   <si>
     <t xml:space="preserve">14.9159936904907</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9876194000244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2534589767456</t>
+    <t xml:space="preserve">14.9876184463501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2534580230713</t>
   </si>
   <si>
     <t xml:space="preserve">14.4235696792603</t>
   </si>
   <si>
-    <t xml:space="preserve">13.949049949646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5103454589844</t>
+    <t xml:space="preserve">13.9490509033203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5103445053101</t>
   </si>
   <si>
     <t xml:space="preserve">13.3760471343994</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6983613967896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1549739837646</t>
+    <t xml:space="preserve">13.6983623504639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1549730300903</t>
   </si>
   <si>
     <t xml:space="preserve">13.9311447143555</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3429899215698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7727432250977</t>
+    <t xml:space="preserve">14.3429908752441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.772744178772</t>
   </si>
   <si>
     <t xml:space="preserve">14.1370677947998</t>
@@ -3029,7 +3029,7 @@
     <t xml:space="preserve">13.7252206802368</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5461568832397</t>
+    <t xml:space="preserve">13.5461578369141</t>
   </si>
   <si>
     <t xml:space="preserve">13.4118595123291</t>
@@ -3038,7 +3038,7 @@
     <t xml:space="preserve">13.1790771484375</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2507028579712</t>
+    <t xml:space="preserve">13.2507019042969</t>
   </si>
   <si>
     <t xml:space="preserve">13.4655790328979</t>
@@ -3062,7 +3062,7 @@
     <t xml:space="preserve">13.1074514389038</t>
   </si>
   <si>
-    <t xml:space="preserve">13.125358581543</t>
+    <t xml:space="preserve">13.1253576278687</t>
   </si>
   <si>
     <t xml:space="preserve">13.3581409454346</t>
@@ -3071,7 +3071,7 @@
     <t xml:space="preserve">14.2355518341064</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2176465988159</t>
+    <t xml:space="preserve">14.2176456451416</t>
   </si>
   <si>
     <t xml:space="preserve">14.2713642120361</t>
@@ -3107,13 +3107,13 @@
     <t xml:space="preserve">12.7851371765137</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6060743331909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8925743103027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9104824066162</t>
+    <t xml:space="preserve">12.6060733795166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8925752639771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9104814529419</t>
   </si>
   <si>
     <t xml:space="preserve">12.9821071624756</t>
@@ -3125,7 +3125,7 @@
     <t xml:space="preserve">13.1432647705078</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0537328720093</t>
+    <t xml:space="preserve">13.053731918335</t>
   </si>
   <si>
     <t xml:space="preserve">12.5523548126221</t>
@@ -3140,13 +3140,13 @@
     <t xml:space="preserve">12.178035736084</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0668210983276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6228942871094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6414318084717</t>
+    <t xml:space="preserve">12.0668201446533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6228952407837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6414308547974</t>
   </si>
   <si>
     <t xml:space="preserve">13.1975049972534</t>
@@ -3155,25 +3155,25 @@
     <t xml:space="preserve">12.8453245162964</t>
   </si>
   <si>
-    <t xml:space="preserve">12.752646446228</t>
+    <t xml:space="preserve">12.7526454925537</t>
   </si>
   <si>
     <t xml:space="preserve">12.7155742645264</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9380044937134</t>
+    <t xml:space="preserve">12.9380035400391</t>
   </si>
   <si>
     <t xml:space="preserve">13.0862903594971</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3272571563721</t>
+    <t xml:space="preserve">13.3272562026978</t>
   </si>
   <si>
     <t xml:space="preserve">13.0677547454834</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3077850341797</t>
+    <t xml:space="preserve">12.307785987854</t>
   </si>
   <si>
     <t xml:space="preserve">12.1409645080566</t>
@@ -3182,7 +3182,7 @@
     <t xml:space="preserve">11.881462097168</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4375371932983</t>
+    <t xml:space="preserve">12.437536239624</t>
   </si>
   <si>
     <t xml:space="preserve">12.2892503738403</t>
@@ -3203,13 +3203,13 @@
     <t xml:space="preserve">12.4746084213257</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1965703964233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.955605506897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4736738204956</t>
+    <t xml:space="preserve">12.1965713500977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9556045532227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4736747741699</t>
   </si>
   <si>
     <t xml:space="preserve">11.73317527771</t>
@@ -3221,13 +3221,13 @@
     <t xml:space="preserve">12.085355758667</t>
   </si>
   <si>
-    <t xml:space="preserve">11.937068939209</t>
+    <t xml:space="preserve">11.9370698928833</t>
   </si>
   <si>
     <t xml:space="preserve">11.7146396636963</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5107450485229</t>
+    <t xml:space="preserve">11.5107460021973</t>
   </si>
   <si>
     <t xml:space="preserve">12.0297479629517</t>
@@ -3245,7 +3245,7 @@
     <t xml:space="preserve">12.3263216018677</t>
   </si>
   <si>
-    <t xml:space="preserve">12.511679649353</t>
+    <t xml:space="preserve">12.5116806030273</t>
   </si>
   <si>
     <t xml:space="preserve">12.5487518310547</t>
@@ -3263,22 +3263,22 @@
     <t xml:space="preserve">12.252179145813</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1224269866943</t>
+    <t xml:space="preserve">12.1224279403687</t>
   </si>
   <si>
     <t xml:space="preserve">11.7887830734253</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7702474594116</t>
+    <t xml:space="preserve">11.7702465057373</t>
   </si>
   <si>
     <t xml:space="preserve">11.3809947967529</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3439235687256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3253870010376</t>
+    <t xml:space="preserve">11.3439226150513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3253879547119</t>
   </si>
   <si>
     <t xml:space="preserve">11.1585655212402</t>
@@ -3287,13 +3287,13 @@
     <t xml:space="preserve">10.9175987243652</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8619928359985</t>
+    <t xml:space="preserve">10.8619918823242</t>
   </si>
   <si>
     <t xml:space="preserve">10.6766338348389</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7693128585815</t>
+    <t xml:space="preserve">10.7693119049072</t>
   </si>
   <si>
     <t xml:space="preserve">10.3800601959229</t>
@@ -3305,10 +3305,10 @@
     <t xml:space="preserve">10.4171314239502</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3615255355835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6024894714355</t>
+    <t xml:space="preserve">10.3615245819092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6024904251099</t>
   </si>
   <si>
     <t xml:space="preserve">10.8249206542969</t>
@@ -3317,13 +3317,13 @@
     <t xml:space="preserve">9.86105823516846</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1020231246948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.78691482543945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.8239860534668</t>
+    <t xml:space="preserve">10.1020221710205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.78691387176514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.82398700714111</t>
   </si>
   <si>
     <t xml:space="preserve">9.62009143829346</t>
@@ -3341,10 +3341,10 @@
     <t xml:space="preserve">9.00840950012207</t>
   </si>
   <si>
-    <t xml:space="preserve">8.6933012008667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.96206951141357</t>
+    <t xml:space="preserve">8.69330024719238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.96207046508789</t>
   </si>
   <si>
     <t xml:space="preserve">8.98060607910156</t>
@@ -3356,13 +3356,13 @@
     <t xml:space="preserve">9.09182167053223</t>
   </si>
   <si>
-    <t xml:space="preserve">8.86012268066406</t>
+    <t xml:space="preserve">8.86012363433838</t>
   </si>
   <si>
     <t xml:space="preserve">9.07328510284424</t>
   </si>
   <si>
-    <t xml:space="preserve">9.11962509155273</t>
+    <t xml:space="preserve">9.11962413787842</t>
   </si>
   <si>
     <t xml:space="preserve">9.39766216278076</t>
@@ -3377,25 +3377,25 @@
     <t xml:space="preserve">9.56448459625244</t>
   </si>
   <si>
-    <t xml:space="preserve">9.37912654876709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.26791191101074</t>
+    <t xml:space="preserve">9.37912559509277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.26791095733643</t>
   </si>
   <si>
     <t xml:space="preserve">9.58302021026611</t>
   </si>
   <si>
-    <t xml:space="preserve">9.6571626663208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.99080848693848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.87959384918213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.84252071380615</t>
+    <t xml:space="preserve">9.65716361999512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.99080753326416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.87959289550781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.84252166748047</t>
   </si>
   <si>
     <t xml:space="preserve">9.9722728729248</t>
@@ -3410,7 +3410,7 @@
     <t xml:space="preserve">10.2132387161255</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5283460617065</t>
+    <t xml:space="preserve">10.5283470153809</t>
   </si>
   <si>
     <t xml:space="preserve">10.8990640640259</t>
@@ -3419,7 +3419,7 @@
     <t xml:space="preserve">10.2503099441528</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2317733764648</t>
+    <t xml:space="preserve">10.2317743301392</t>
   </si>
   <si>
     <t xml:space="preserve">10.2688455581665</t>
@@ -3428,19 +3428,19 @@
     <t xml:space="preserve">10.4356679916382</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6580982208252</t>
+    <t xml:space="preserve">10.6580972671509</t>
   </si>
   <si>
     <t xml:space="preserve">10.2873821258545</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5468826293945</t>
+    <t xml:space="preserve">10.5468835830688</t>
   </si>
   <si>
     <t xml:space="preserve">10.5839548110962</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4912748336792</t>
+    <t xml:space="preserve">10.4912757873535</t>
   </si>
   <si>
     <t xml:space="preserve">10.4727401733398</t>
@@ -3452,7 +3452,7 @@
     <t xml:space="preserve">10.6951694488525</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3985967636108</t>
+    <t xml:space="preserve">10.3985958099365</t>
   </si>
   <si>
     <t xml:space="preserve">10.5654182434082</t>
@@ -3461,7 +3461,7 @@
     <t xml:space="preserve">10.6210260391235</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0844221115112</t>
+    <t xml:space="preserve">11.0844211578369</t>
   </si>
   <si>
     <t xml:space="preserve">11.3068513870239</t>
@@ -3479,7 +3479,7 @@
     <t xml:space="preserve">11.5848894119263</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6961040496826</t>
+    <t xml:space="preserve">11.6961030960083</t>
   </si>
   <si>
     <t xml:space="preserve">12.0482845306396</t>
@@ -3503,19 +3503,19 @@
     <t xml:space="preserve">11.2512445449829</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2141723632812</t>
+    <t xml:space="preserve">11.2141733169556</t>
   </si>
   <si>
     <t xml:space="preserve">11.1214933395386</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8063840866089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8434553146362</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6395606994629</t>
+    <t xml:space="preserve">10.8063850402832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8434562683105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6395616531372</t>
   </si>
   <si>
     <t xml:space="preserve">10.4542036056519</t>
@@ -3530,13 +3530,13 @@
     <t xml:space="preserve">10.9917421340942</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2336416244507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.678503036499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4190006256104</t>
+    <t xml:space="preserve">12.233642578125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6785020828247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.418999671936</t>
   </si>
   <si>
     <t xml:space="preserve">12.8638610839844</t>
@@ -3551,7 +3551,7 @@
     <t xml:space="preserve">12.60435962677</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8082523345947</t>
+    <t xml:space="preserve">12.808253288269</t>
   </si>
   <si>
     <t xml:space="preserve">12.7711811065674</t>
@@ -3563,7 +3563,7 @@
     <t xml:space="preserve">13.9760093688965</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8647947311401</t>
+    <t xml:space="preserve">13.8647956848145</t>
   </si>
   <si>
     <t xml:space="preserve">13.6609010696411</t>
@@ -60777,7 +60777,7 @@
     </row>
     <row r="2169">
       <c r="A2169" s="1" t="n">
-        <v>45482.649375</v>
+        <v>45482.2916666667</v>
       </c>
       <c r="B2169" t="n">
         <v>127972</v>
@@ -60798,6 +60798,32 @@
         <v>1351</v>
       </c>
       <c r="H2169" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2170">
+      <c r="A2170" s="1" t="n">
+        <v>45483.649525463</v>
+      </c>
+      <c r="B2170" t="n">
+        <v>124269</v>
+      </c>
+      <c r="C2170" t="n">
+        <v>12.4200000762939</v>
+      </c>
+      <c r="D2170" t="n">
+        <v>12.1000003814697</v>
+      </c>
+      <c r="E2170" t="n">
+        <v>12.3999996185303</v>
+      </c>
+      <c r="F2170" t="n">
+        <v>12.1599998474121</v>
+      </c>
+      <c r="G2170" t="s">
+        <v>1348</v>
+      </c>
+      <c r="H2170" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/MARR.MI.xlsx
+++ b/data/MARR.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="1352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1353" uniqueCount="1353">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -50,7 +50,7 @@
     <t xml:space="preserve">13.9899663925171</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7910928726196</t>
+    <t xml:space="preserve">13.7910919189453</t>
   </si>
   <si>
     <t xml:space="preserve">13.7451992034912</t>
@@ -68,13 +68,13 @@
     <t xml:space="preserve">13.2021226882935</t>
   </si>
   <si>
-    <t xml:space="preserve">13.209771156311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7202367782593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8273239135742</t>
+    <t xml:space="preserve">13.2097721099854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.720235824585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8273248672485</t>
   </si>
   <si>
     <t xml:space="preserve">12.3607368469238</t>
@@ -83,28 +83,28 @@
     <t xml:space="preserve">12.9650049209595</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6228141784668</t>
+    <t xml:space="preserve">13.6228151321411</t>
   </si>
   <si>
     <t xml:space="preserve">13.4545392990112</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3321580886841</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3245058059692</t>
+    <t xml:space="preserve">13.3321561813354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3245048522949</t>
   </si>
   <si>
     <t xml:space="preserve">13.4162940979004</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5004329681396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7681455612183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5616235733032</t>
+    <t xml:space="preserve">13.5004320144653</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7681465148926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5616216659546</t>
   </si>
   <si>
     <t xml:space="preserve">13.0873889923096</t>
@@ -113,7 +113,7 @@
     <t xml:space="preserve">13.2786121368408</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0491418838501</t>
+    <t xml:space="preserve">13.0491428375244</t>
   </si>
   <si>
     <t xml:space="preserve">12.1083202362061</t>
@@ -125,28 +125,28 @@
     <t xml:space="preserve">12.613151550293</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2995452880859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6208000183105</t>
+    <t xml:space="preserve">12.299542427063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6208009719849</t>
   </si>
   <si>
     <t xml:space="preserve">12.6590452194214</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7814283370972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9497060775757</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.156229019165</t>
+    <t xml:space="preserve">12.7814273834229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.94970703125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1562309265137</t>
   </si>
   <si>
     <t xml:space="preserve">13.4851331710815</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3780479431152</t>
+    <t xml:space="preserve">13.3780488967896</t>
   </si>
   <si>
     <t xml:space="preserve">13.3474531173706</t>
@@ -158,7 +158,7 @@
     <t xml:space="preserve">13.9670190811157</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7375478744507</t>
+    <t xml:space="preserve">13.737548828125</t>
   </si>
   <si>
     <t xml:space="preserve">13.8752307891846</t>
@@ -167,91 +167,91 @@
     <t xml:space="preserve">13.6763572692871</t>
   </si>
   <si>
-    <t xml:space="preserve">13.370400428772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.819673538208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1179828643799</t>
+    <t xml:space="preserve">13.3703994750977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8196744918823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1179838180542</t>
   </si>
   <si>
     <t xml:space="preserve">13.4468879699707</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5998697280884</t>
+    <t xml:space="preserve">13.5998687744141</t>
   </si>
   <si>
     <t xml:space="preserve">13.477484703064</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6610612869263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2174205780029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1026849746704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4621868133545</t>
+    <t xml:space="preserve">13.6610593795776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2174215316772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1026859283447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4621858596802</t>
   </si>
   <si>
     <t xml:space="preserve">13.5386781692505</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9593706130981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0817537307739</t>
+    <t xml:space="preserve">13.9593715667725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0817527770996</t>
   </si>
   <si>
     <t xml:space="preserve">14.150595664978</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8828811645508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.997615814209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0741052627563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5483417510986</t>
+    <t xml:space="preserve">13.8828802108765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9976139068604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.074104309082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5483427047729</t>
   </si>
   <si>
     <t xml:space="preserve">14.3188714981079</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1658916473389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7987422943115</t>
+    <t xml:space="preserve">14.1658906936646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7987413406372</t>
   </si>
   <si>
     <t xml:space="preserve">13.6916570663452</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6151647567749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5769214630127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.859935760498</t>
+    <t xml:space="preserve">13.6151666641235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.576922416687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8599367141724</t>
   </si>
   <si>
     <t xml:space="preserve">13.9058284759521</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5922203063965</t>
+    <t xml:space="preserve">13.5922212600708</t>
   </si>
   <si>
     <t xml:space="preserve">14.0970525741577</t>
   </si>
   <si>
-    <t xml:space="preserve">13.94407081604</t>
+    <t xml:space="preserve">13.9440727233887</t>
   </si>
   <si>
     <t xml:space="preserve">13.6304655075073</t>
@@ -260,55 +260,55 @@
     <t xml:space="preserve">13.6840076446533</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6993045806885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8216886520386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4392395019531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6687097549438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4086437225342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5310306549072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8250093460083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8170642852783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0713157653809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0633707046509</t>
+    <t xml:space="preserve">13.6993036270142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8216896057129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4392404556274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6687116622925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4086456298828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5310277938843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.825008392334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.817063331604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0713167190552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0633716583252</t>
   </si>
   <si>
     <t xml:space="preserve">14.2540616989136</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3096771240234</t>
+    <t xml:space="preserve">14.3096780776978</t>
   </si>
   <si>
     <t xml:space="preserve">14.1269340515137</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0792617797852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3017320632935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1904964447021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1030988693237</t>
+    <t xml:space="preserve">14.0792608261108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3017339706421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1904973983765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1030979156494</t>
   </si>
   <si>
     <t xml:space="preserve">14.0872068405151</t>
@@ -317,73 +317,73 @@
     <t xml:space="preserve">14.0951519012451</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5866470336914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6740465164185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3880128860474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0701951980591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2132091522217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5945920944214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5787010192871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8806257247925</t>
+    <t xml:space="preserve">13.5866460800171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6740446090698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.388011932373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0701971054077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2132120132446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5945911407471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5787019729614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8806266784668</t>
   </si>
   <si>
     <t xml:space="preserve">13.2052669525146</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5060720443726</t>
+    <t xml:space="preserve">12.5060710906982</t>
   </si>
   <si>
     <t xml:space="preserve">13.0384130477905</t>
   </si>
   <si>
-    <t xml:space="preserve">13.51513671875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.246114730835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3573513031006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8567914962769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2778959274292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1507701873779</t>
+    <t xml:space="preserve">13.5151386260986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2461137771606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3573503494263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8567905426025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2778968811035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1507692337036</t>
   </si>
   <si>
     <t xml:space="preserve">14.6036577224731</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5718765258789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5639314651489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3652954101562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3176250457764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5798225402832</t>
+    <t xml:space="preserve">14.5718784332275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5639305114746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3652982711792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3176240921021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5798215866089</t>
   </si>
   <si>
     <t xml:space="preserve">14.87380027771</t>
@@ -395,67 +395,67 @@
     <t xml:space="preserve">14.6990032196045</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9770927429199</t>
+    <t xml:space="preserve">14.9770917892456</t>
   </si>
   <si>
     <t xml:space="preserve">14.8340749740601</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9453105926514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5877656936646</t>
+    <t xml:space="preserve">14.9453096389771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5877685546875</t>
   </si>
   <si>
     <t xml:space="preserve">14.8579120635986</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3335132598877</t>
+    <t xml:space="preserve">14.3335151672363</t>
   </si>
   <si>
     <t xml:space="preserve">14.4765310287476</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5003690719604</t>
+    <t xml:space="preserve">14.5003671646118</t>
   </si>
   <si>
     <t xml:space="preserve">14.4447498321533</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1666593551636</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2381687164307</t>
+    <t xml:space="preserve">14.1666612625122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2381706237793</t>
   </si>
   <si>
     <t xml:space="preserve">14.0315895080566</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8885717391968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9044618606567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8647365570068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0474786758423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9521341323853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.721718788147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.015697479248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9124069213867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0077524185181</t>
+    <t xml:space="preserve">13.8885707855225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9044628143311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8647346496582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0474805831909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9521331787109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7217197418213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0156984329224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9124088287354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0077514648438</t>
   </si>
   <si>
     <t xml:space="preserve">13.9203538894653</t>
@@ -464,7 +464,7 @@
     <t xml:space="preserve">13.8091163635254</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7058277130127</t>
+    <t xml:space="preserve">13.705828666687</t>
   </si>
   <si>
     <t xml:space="preserve">13.6502094268799</t>
@@ -473,31 +473,31 @@
     <t xml:space="preserve">13.7376098632812</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9998092651367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2302236557007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1746063232422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0236415863037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1587152481079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7614450454712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6661005020142</t>
+    <t xml:space="preserve">13.9998083114624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2302227020264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1746072769165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0236434936523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1587162017822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7614440917969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6661014556885</t>
   </si>
   <si>
     <t xml:space="preserve">13.6184272766113</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7773351669312</t>
+    <t xml:space="preserve">13.7773361206055</t>
   </si>
   <si>
     <t xml:space="preserve">13.5469188690186</t>
@@ -506,28 +506,28 @@
     <t xml:space="preserve">13.4913005828857</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6581554412842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5389757156372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4595203399658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3482837677002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3165035247803</t>
+    <t xml:space="preserve">13.6581544876099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5389747619629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4595193862915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3482828140259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.316502571106</t>
   </si>
   <si>
     <t xml:space="preserve">13.3006114959717</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3323945999146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3244476318359</t>
+    <t xml:space="preserve">13.3323926925659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3244485855103</t>
   </si>
   <si>
     <t xml:space="preserve">13.1814308166504</t>
@@ -539,10 +539,10 @@
     <t xml:space="preserve">13.2370481491089</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2688302993774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1575937271118</t>
+    <t xml:space="preserve">13.2688312530518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1575946807861</t>
   </si>
   <si>
     <t xml:space="preserve">12.7126512527466</t>
@@ -554,7 +554,7 @@
     <t xml:space="preserve">13.2608861923218</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1417036056519</t>
+    <t xml:space="preserve">13.1417026519775</t>
   </si>
   <si>
     <t xml:space="preserve">13.1655397415161</t>
@@ -566,31 +566,31 @@
     <t xml:space="preserve">12.9112863540649</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0066318511963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0940294265747</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0781393051147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5071935653687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4515743255615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5707550048828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8965158462524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7455539703369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9362449645996</t>
+    <t xml:space="preserve">13.0066337585449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0940313339233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0781402587891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.50719165802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4515762329102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5707559585571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8965167999268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7455520629883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9362440109253</t>
   </si>
   <si>
     <t xml:space="preserve">13.7852821350098</t>
@@ -599,7 +599,7 @@
     <t xml:space="preserve">13.9441890716553</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9680242538452</t>
+    <t xml:space="preserve">13.9680252075195</t>
   </si>
   <si>
     <t xml:space="preserve">13.9918632507324</t>
@@ -608,70 +608,70 @@
     <t xml:space="preserve">13.9759712219238</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0395345687866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.801173210144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9839162826538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2222785949707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2063865661621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7148962020874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7705125808716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.349404335022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2699508666992</t>
+    <t xml:space="preserve">14.0395336151123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8011722564697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9839172363281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.222279548645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2063884735107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7148933410645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7705116271973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3494052886963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2699518203735</t>
   </si>
   <si>
     <t xml:space="preserve">14.1825513839722</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2858419418335</t>
+    <t xml:space="preserve">14.2858409881592</t>
   </si>
   <si>
     <t xml:space="preserve">14.3414583206177</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2620067596436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6751661300659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4606409072876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6513299942017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6274948120117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5400953292847</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6910572052002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5162591934204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7069473266602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6116046905518</t>
+    <t xml:space="preserve">14.2620077133179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6751680374146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4606418609619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.651330947876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6274938583374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5400943756104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6910581588745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5162601470947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7069482803345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6116037368774</t>
   </si>
   <si>
     <t xml:space="preserve">14.3970794677734</t>
@@ -680,118 +680,118 @@
     <t xml:space="preserve">14.7466735839844</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2154521942139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4538164138794</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4061460494995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5968322753906</t>
+    <t xml:space="preserve">15.2154579162598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.453818321228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4061450958252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5968341827393</t>
   </si>
   <si>
     <t xml:space="preserve">15.8908128738403</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8510885238647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8590326309204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7319068908691</t>
+    <t xml:space="preserve">15.8510904312134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8590316772461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7319049835205</t>
   </si>
   <si>
     <t xml:space="preserve">16.1371212005615</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6774101257324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0656108856201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0894527435303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2245216369629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3039779663086</t>
+    <t xml:space="preserve">16.6774082183838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0656127929688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.089448928833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2245235443115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3039741516113</t>
   </si>
   <si>
     <t xml:space="preserve">16.1609592437744</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2880840301514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6456317901611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6853542327881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4867210388184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4072666168213</t>
+    <t xml:space="preserve">16.2880878448486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6456279754639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6853561401367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4867191314697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4072647094727</t>
   </si>
   <si>
     <t xml:space="preserve">16.0973949432373</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1291732788086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.502613067627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3675384521484</t>
+    <t xml:space="preserve">16.1291770935059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5026111602783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3675365447998</t>
   </si>
   <si>
     <t xml:space="preserve">16.5582294464111</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6059017181396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7012462615967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5423393249512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8839912414551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.432222366333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1144104003906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6615219116211</t>
+    <t xml:space="preserve">16.605899810791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7012481689453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5423374176025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8839893341064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4322242736816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1144065856934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6615180969238</t>
   </si>
   <si>
     <t xml:space="preserve">17.2812614440918</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3289318084717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2574214935303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2653694152832</t>
+    <t xml:space="preserve">17.3289337158203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2574253082275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2653675079346</t>
   </si>
   <si>
     <t xml:space="preserve">17.61496925354</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8136005401611</t>
+    <t xml:space="preserve">17.8136024475098</t>
   </si>
   <si>
     <t xml:space="preserve">17.6864776611328</t>
@@ -800,7 +800,7 @@
     <t xml:space="preserve">17.535514831543</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4560565948486</t>
+    <t xml:space="preserve">17.4560585021973</t>
   </si>
   <si>
     <t xml:space="preserve">17.6626377105713</t>
@@ -812,10 +812,10 @@
     <t xml:space="preserve">17.8294925689697</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7738780975342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9089508056641</t>
+    <t xml:space="preserve">17.7738761901855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9089469909668</t>
   </si>
   <si>
     <t xml:space="preserve">17.9963455200195</t>
@@ -827,7 +827,7 @@
     <t xml:space="preserve">17.4004402160645</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5196228027344</t>
+    <t xml:space="preserve">17.519624710083</t>
   </si>
   <si>
     <t xml:space="preserve">17.7083587646484</t>
@@ -839,19 +839,19 @@
     <t xml:space="preserve">18.2171268463135</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0530052185059</t>
+    <t xml:space="preserve">18.0530071258545</t>
   </si>
   <si>
     <t xml:space="preserve">17.7904186248779</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6509170532227</t>
+    <t xml:space="preserve">17.650915145874</t>
   </si>
   <si>
     <t xml:space="preserve">17.8806838989258</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0694198608398</t>
+    <t xml:space="preserve">18.0694179534912</t>
   </si>
   <si>
     <t xml:space="preserve">17.979154586792</t>
@@ -860,28 +860,28 @@
     <t xml:space="preserve">17.7986240386963</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0365962982178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1760959625244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9955673217773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5606536865234</t>
+    <t xml:space="preserve">18.0365943908691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1760940551758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9955654144287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5606517791748</t>
   </si>
   <si>
     <t xml:space="preserve">17.7411842346191</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8888893127441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7740039825439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0858345031738</t>
+    <t xml:space="preserve">17.8888874053955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7740077972412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0858325958252</t>
   </si>
   <si>
     <t xml:space="preserve">17.7575931549072</t>
@@ -893,10 +893,10 @@
     <t xml:space="preserve">17.5852699279785</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6427116394043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7329750061035</t>
+    <t xml:space="preserve">17.6427135467529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7329769134521</t>
   </si>
   <si>
     <t xml:space="preserve">17.7493877410889</t>
@@ -905,22 +905,22 @@
     <t xml:space="preserve">17.1749744415283</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0765037536621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0682964324951</t>
+    <t xml:space="preserve">17.0765018463135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0682983398438</t>
   </si>
   <si>
     <t xml:space="preserve">17.1503562927246</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9123840332031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2324180603027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0600929260254</t>
+    <t xml:space="preserve">16.9123878479004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2324161529541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0600910186768</t>
   </si>
   <si>
     <t xml:space="preserve">16.9780330657959</t>
@@ -929,25 +929,25 @@
     <t xml:space="preserve">17.3965339660645</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5032119750977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9299201965332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2991847991943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1022434234619</t>
+    <t xml:space="preserve">17.503210067749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9299182891846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2991828918457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1022415161133</t>
   </si>
   <si>
     <t xml:space="preserve">18.3484191894531</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3566284179688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4633045196533</t>
+    <t xml:space="preserve">18.3566265106201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4633007049561</t>
   </si>
   <si>
     <t xml:space="preserve">17.8642711639404</t>
@@ -968,40 +968,40 @@
     <t xml:space="preserve">17.8068313598633</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5278301239014</t>
+    <t xml:space="preserve">17.5278282165527</t>
   </si>
   <si>
     <t xml:space="preserve">17.3883266448975</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4047374725342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2734432220459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2242126464844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0436820983887</t>
+    <t xml:space="preserve">17.4047412872314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2734470367432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2242088317871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.04368019104</t>
   </si>
   <si>
     <t xml:space="preserve">16.9452075958252</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9287948608398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0190601348877</t>
+    <t xml:space="preserve">16.9287967681885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.019063949585</t>
   </si>
   <si>
     <t xml:space="preserve">17.2816505432129</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4211521148682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6263008117676</t>
+    <t xml:space="preserve">17.4211502075195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6262989044189</t>
   </si>
   <si>
     <t xml:space="preserve">17.6098880767822</t>
@@ -1010,7 +1010,7 @@
     <t xml:space="preserve">17.970947265625</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0940361022949</t>
+    <t xml:space="preserve">18.0940380096436</t>
   </si>
   <si>
     <t xml:space="preserve">18.323802947998</t>
@@ -1019,49 +1019,49 @@
     <t xml:space="preserve">17.9873600006104</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1186542510986</t>
+    <t xml:space="preserve">18.11865234375</t>
   </si>
   <si>
     <t xml:space="preserve">18.1104488372803</t>
   </si>
   <si>
-    <t xml:space="preserve">18.126859664917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3320083618164</t>
+    <t xml:space="preserve">18.1268615722656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3320064544678</t>
   </si>
   <si>
     <t xml:space="preserve">18.3648319244385</t>
   </si>
   <si>
-    <t xml:space="preserve">18.438684463501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3812465667725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.635627746582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6684494018555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5371551513672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8079490661621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6520366668701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.619213104248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.783332824707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2182483673096</t>
+    <t xml:space="preserve">18.4386825561523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3812427520752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6356239318848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6684513092041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5371570587158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8079509735107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6520385742188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6192150115967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7833347320557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2182464599609</t>
   </si>
   <si>
     <t xml:space="preserve">19.1443939208984</t>
@@ -1070,7 +1070,7 @@
     <t xml:space="preserve">18.6930675506592</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7669219970703</t>
+    <t xml:space="preserve">18.7669200897217</t>
   </si>
   <si>
     <t xml:space="preserve">18.5945949554443</t>
@@ -1079,55 +1079,55 @@
     <t xml:space="preserve">18.3730373382568</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1596832275391</t>
+    <t xml:space="preserve">18.1596851348877</t>
   </si>
   <si>
     <t xml:space="preserve">18.4222736358643</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2335357666016</t>
+    <t xml:space="preserve">18.2335376739502</t>
   </si>
   <si>
     <t xml:space="preserve">18.1925086975098</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1350650787354</t>
+    <t xml:space="preserve">18.135066986084</t>
   </si>
   <si>
     <t xml:space="preserve">17.9217128753662</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6345062255859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5442409515381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3555030822754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0272655487061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7975025177002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9041786193848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1913871765137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6919479370117</t>
+    <t xml:space="preserve">17.6345043182373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5442390441895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.355504989624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0272674560547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7974987030029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9041767120361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.191385269165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6919460296631</t>
   </si>
   <si>
     <t xml:space="preserve">17.9053001403809</t>
   </si>
   <si>
-    <t xml:space="preserve">17.815034866333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0037746429443</t>
+    <t xml:space="preserve">17.8150329589844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0037727355957</t>
   </si>
   <si>
     <t xml:space="preserve">17.8396530151367</t>
@@ -1142,7 +1142,7 @@
     <t xml:space="preserve">17.0354747772217</t>
   </si>
   <si>
-    <t xml:space="preserve">17.470386505127</t>
+    <t xml:space="preserve">17.4703884124756</t>
   </si>
   <si>
     <t xml:space="preserve">17.4621810913086</t>
@@ -1151,25 +1151,25 @@
     <t xml:space="preserve">17.7822113037109</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6591243743896</t>
+    <t xml:space="preserve">17.659122467041</t>
   </si>
   <si>
     <t xml:space="preserve">17.8232421875</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4129447937012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3976573944092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.446891784668</t>
+    <t xml:space="preserve">17.4129467010498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3976554870605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4468898773193</t>
   </si>
   <si>
     <t xml:space="preserve">18.5617733001709</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6274185180664</t>
+    <t xml:space="preserve">18.6274223327637</t>
   </si>
   <si>
     <t xml:space="preserve">18.7751274108887</t>
@@ -1178,19 +1178,19 @@
     <t xml:space="preserve">18.47971534729</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7258892059326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3155975341797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2827739715576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5781841278076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.511417388916</t>
+    <t xml:space="preserve">18.7258911132812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3155956268311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.282772064209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5781879425049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5114192962646</t>
   </si>
   <si>
     <t xml:space="preserve">18.0201835632324</t>
@@ -1199,22 +1199,22 @@
     <t xml:space="preserve">17.3472957611084</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2980651855469</t>
+    <t xml:space="preserve">17.2980632781982</t>
   </si>
   <si>
     <t xml:space="preserve">17.9381256103516</t>
   </si>
   <si>
-    <t xml:space="preserve">17.675537109375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2652416229248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.314474105835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4961280822754</t>
+    <t xml:space="preserve">17.6755352020264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2652397155762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3144760131836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4961261749268</t>
   </si>
   <si>
     <t xml:space="preserve">19.5793075561523</t>
@@ -1223,22 +1223,22 @@
     <t xml:space="preserve">19.5136585235596</t>
   </si>
   <si>
-    <t xml:space="preserve">20.03883934021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3178386688232</t>
+    <t xml:space="preserve">20.0388374328613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3178405761719</t>
   </si>
   <si>
     <t xml:space="preserve">20.1701316833496</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0716609954834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8418941497803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8254833221436</t>
+    <t xml:space="preserve">20.0716590881348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8418960571289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8254852294922</t>
   </si>
   <si>
     <t xml:space="preserve">19.8911304473877</t>
@@ -1247,13 +1247,13 @@
     <t xml:space="preserve">19.8090705871582</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9403667449951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4327220916748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6296634674072</t>
+    <t xml:space="preserve">19.9403648376465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4327201843262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6296615600586</t>
   </si>
   <si>
     <t xml:space="preserve">20.5311946868896</t>
@@ -1271,10 +1271,10 @@
     <t xml:space="preserve">20.3506622314453</t>
   </si>
   <si>
-    <t xml:space="preserve">20.2850131988525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3342514038086</t>
+    <t xml:space="preserve">20.2850151062012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3342533111572</t>
   </si>
   <si>
     <t xml:space="preserve">20.4655456542969</t>
@@ -1283,25 +1283,25 @@
     <t xml:space="preserve">20.4163093566895</t>
   </si>
   <si>
-    <t xml:space="preserve">20.383487701416</t>
+    <t xml:space="preserve">20.3834857940674</t>
   </si>
   <si>
     <t xml:space="preserve">20.4491348266602</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7281341552734</t>
+    <t xml:space="preserve">20.7281360626221</t>
   </si>
   <si>
     <t xml:space="preserve">20.843017578125</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7937831878662</t>
+    <t xml:space="preserve">20.7937812805176</t>
   </si>
   <si>
     <t xml:space="preserve">20.6789016723633</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7117233276367</t>
+    <t xml:space="preserve">20.7117252349854</t>
   </si>
   <si>
     <t xml:space="preserve">20.6460762023926</t>
@@ -1325,49 +1325,49 @@
     <t xml:space="preserve">19.2887363433838</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0514392852783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4921321868896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3226318359375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7633285522461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6446800231934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7294254302979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6955261230469</t>
+    <t xml:space="preserve">19.0514373779297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.492130279541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3226337432861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7633247375488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6446781158447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7294292449951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6955280303955</t>
   </si>
   <si>
     <t xml:space="preserve">19.6277294158936</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2717838287354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5599308013916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8311233520508</t>
+    <t xml:space="preserve">19.271785736084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.559928894043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8311252593994</t>
   </si>
   <si>
     <t xml:space="preserve">19.7802753448486</t>
   </si>
   <si>
-    <t xml:space="preserve">19.5429801940918</t>
+    <t xml:space="preserve">19.5429782867432</t>
   </si>
   <si>
     <t xml:space="preserve">19.5938282012939</t>
   </si>
   <si>
-    <t xml:space="preserve">19.4412822723389</t>
+    <t xml:space="preserve">19.4412803649902</t>
   </si>
   <si>
     <t xml:space="preserve">18.8988933563232</t>
@@ -1376,7 +1376,7 @@
     <t xml:space="preserve">18.9158420562744</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7971954345703</t>
+    <t xml:space="preserve">18.7971935272217</t>
   </si>
   <si>
     <t xml:space="preserve">19.0175399780273</t>
@@ -1385,13 +1385,13 @@
     <t xml:space="preserve">19.0683879852295</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9836406707764</t>
+    <t xml:space="preserve">18.983642578125</t>
   </si>
   <si>
     <t xml:space="preserve">19.1022911071777</t>
   </si>
   <si>
-    <t xml:space="preserve">19.526029586792</t>
+    <t xml:space="preserve">19.5260314941406</t>
   </si>
   <si>
     <t xml:space="preserve">19.6616287231445</t>
@@ -1400,19 +1400,19 @@
     <t xml:space="preserve">19.5768795013428</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3226661682129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3396148681641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.187068939209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0175743103027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9328212738037</t>
+    <t xml:space="preserve">20.3226642608643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3396167755127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1870670318604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0175724029541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9328231811523</t>
   </si>
   <si>
     <t xml:space="preserve">19.7124767303467</t>
@@ -1421,46 +1421,46 @@
     <t xml:space="preserve">20.2379169464111</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9158744812012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6107807159424</t>
+    <t xml:space="preserve">19.9158725738525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6107788085938</t>
   </si>
   <si>
     <t xml:space="preserve">19.8480739593506</t>
   </si>
   <si>
-    <t xml:space="preserve">20.4243659973145</t>
+    <t xml:space="preserve">20.4243640899658</t>
   </si>
   <si>
     <t xml:space="preserve">20.6447105407715</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6955604553223</t>
+    <t xml:space="preserve">20.6955585479736</t>
   </si>
   <si>
     <t xml:space="preserve">20.3904647827148</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3057155609131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1701183319092</t>
+    <t xml:space="preserve">20.3057136535645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1701164245605</t>
   </si>
   <si>
     <t xml:space="preserve">20.2887668609619</t>
   </si>
   <si>
-    <t xml:space="preserve">20.2040157318115</t>
+    <t xml:space="preserve">20.2040176391602</t>
   </si>
   <si>
     <t xml:space="preserve">20.3565635681152</t>
   </si>
   <si>
-    <t xml:space="preserve">20.5091133117676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5260620117188</t>
+    <t xml:space="preserve">20.5091114044189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5260601043701</t>
   </si>
   <si>
     <t xml:space="preserve">20.4921627044678</t>
@@ -1481,16 +1481,16 @@
     <t xml:space="preserve">21.1023502349854</t>
   </si>
   <si>
-    <t xml:space="preserve">21.61083984375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6955909729004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5091419219971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0345840454102</t>
+    <t xml:space="preserve">21.6108417510986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6955890655518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5091438293457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0345821380615</t>
   </si>
   <si>
     <t xml:space="preserve">22.3905258178711</t>
@@ -1502,10 +1502,10 @@
     <t xml:space="preserve">21.4921932220459</t>
   </si>
   <si>
-    <t xml:space="preserve">21.7294864654541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3904933929443</t>
+    <t xml:space="preserve">21.7294902801514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.390495300293</t>
   </si>
   <si>
     <t xml:space="preserve">21.4074459075928</t>
@@ -1535,22 +1535,22 @@
     <t xml:space="preserve">19.0344886779785</t>
   </si>
   <si>
-    <t xml:space="preserve">19.4751796722412</t>
+    <t xml:space="preserve">19.4751834869385</t>
   </si>
   <si>
     <t xml:space="preserve">20.0853710174561</t>
   </si>
   <si>
-    <t xml:space="preserve">19.8989238739014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.237886428833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8819446563721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5090503692627</t>
+    <t xml:space="preserve">19.8989219665527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2378845214844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8819408416748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5090484619141</t>
   </si>
   <si>
     <t xml:space="preserve">18.1870040893555</t>
@@ -1562,22 +1562,22 @@
     <t xml:space="preserve">18.0175094604492</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6276988983154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9327583312988</t>
+    <t xml:space="preserve">18.6276969909668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9327602386475</t>
   </si>
   <si>
     <t xml:space="preserve">18.1192073822021</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9666633605957</t>
+    <t xml:space="preserve">17.9666614532471</t>
   </si>
   <si>
     <t xml:space="preserve">17.8649635314941</t>
   </si>
   <si>
-    <t xml:space="preserve">18.102258682251</t>
+    <t xml:space="preserve">18.1022567749023</t>
   </si>
   <si>
     <t xml:space="preserve">18.2378559112549</t>
@@ -1586,10 +1586,10 @@
     <t xml:space="preserve">18.5260009765625</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8480129241943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3564720153809</t>
+    <t xml:space="preserve">17.8480110168457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3564701080322</t>
   </si>
   <si>
     <t xml:space="preserve">16.9666290283203</t>
@@ -1601,25 +1601,25 @@
     <t xml:space="preserve">17.1022281646729</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3733882904053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.271692276001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6106872558594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4242401123047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3903388977051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7378101348877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8140830993652</t>
+    <t xml:space="preserve">16.3733901977539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2716903686523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6106853485107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4242382049561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3903408050537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7378082275391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8140811920166</t>
   </si>
   <si>
     <t xml:space="preserve">16.7039070129395</t>
@@ -1628,13 +1628,13 @@
     <t xml:space="preserve">17.4581699371338</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2717227935791</t>
+    <t xml:space="preserve">17.2717208862305</t>
   </si>
   <si>
     <t xml:space="preserve">17.153076171875</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3225727081299</t>
+    <t xml:space="preserve">17.3225708007812</t>
   </si>
   <si>
     <t xml:space="preserve">17.4920692443848</t>
@@ -1643,13 +1643,13 @@
     <t xml:space="preserve">17.6446151733398</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7971611022949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2209072113037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4073524475098</t>
+    <t xml:space="preserve">17.7971630096436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2209053039551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4073505401611</t>
   </si>
   <si>
     <t xml:space="preserve">18.3395538330078</t>
@@ -1658,7 +1658,7 @@
     <t xml:space="preserve">17.9836082458496</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0514068603516</t>
+    <t xml:space="preserve">18.0514087677002</t>
   </si>
   <si>
     <t xml:space="preserve">17.6615657806396</t>
@@ -1667,7 +1667,7 @@
     <t xml:space="preserve">17.2378234863281</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5768184661865</t>
+    <t xml:space="preserve">17.5768146514893</t>
   </si>
   <si>
     <t xml:space="preserve">17.7293643951416</t>
@@ -1676,34 +1676,34 @@
     <t xml:space="preserve">17.8819103240967</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4412517547607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1531066894531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9158096313477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9497127532959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8988609313965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7463150024414</t>
+    <t xml:space="preserve">18.4412498474121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1531085968018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9158115386963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9497108459473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8988628387451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7463130950928</t>
   </si>
   <si>
     <t xml:space="preserve">17.7124156951904</t>
   </si>
   <si>
-    <t xml:space="preserve">17.62766456604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7632637023926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3056221008301</t>
+    <t xml:space="preserve">17.6276664733887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7632617950439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3056240081787</t>
   </si>
   <si>
     <t xml:space="preserve">16.8734073638916</t>
@@ -1721,25 +1721,25 @@
     <t xml:space="preserve">17.2886734008789</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2547740936279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2208728790283</t>
+    <t xml:space="preserve">17.2547760009766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.220874786377</t>
   </si>
   <si>
     <t xml:space="preserve">16.8903560638428</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4242687225342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5429191589355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8141136169434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5937671661377</t>
+    <t xml:space="preserve">17.4242706298828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5429172515869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.814115524292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5937690734863</t>
   </si>
   <si>
     <t xml:space="preserve">17.373420715332</t>
@@ -1751,10 +1751,10 @@
     <t xml:space="preserve">17.5005435943604</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2462997436523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3310470581055</t>
+    <t xml:space="preserve">17.2462978363037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3310489654541</t>
   </si>
   <si>
     <t xml:space="preserve">17.4157962799072</t>
@@ -1763,19 +1763,19 @@
     <t xml:space="preserve">17.1615505218506</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0344276428223</t>
+    <t xml:space="preserve">17.0344295501709</t>
   </si>
   <si>
     <t xml:space="preserve">17.5852928161621</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6700420379639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3480262756348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1361560821533</t>
+    <t xml:space="preserve">17.6700401306152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.348030090332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1361541748047</t>
   </si>
   <si>
     <t xml:space="preserve">18.0937824249268</t>
@@ -1793,10 +1793,10 @@
     <t xml:space="preserve">17.9242858886719</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1785335540771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9148941040039</t>
+    <t xml:space="preserve">18.1785297393799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9148921966553</t>
   </si>
   <si>
     <t xml:space="preserve">18.0909595489502</t>
@@ -1811,7 +1811,7 @@
     <t xml:space="preserve">18.2670269012451</t>
   </si>
   <si>
-    <t xml:space="preserve">18.178991317749</t>
+    <t xml:space="preserve">18.1789951324463</t>
   </si>
   <si>
     <t xml:space="preserve">18.2230129241943</t>
@@ -1820,10 +1820,10 @@
     <t xml:space="preserve">18.4871120452881</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4430961608887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5311298370361</t>
+    <t xml:space="preserve">18.44309425354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5311279296875</t>
   </si>
   <si>
     <t xml:space="preserve">18.3550605773926</t>
@@ -1832,31 +1832,31 @@
     <t xml:space="preserve">18.0029277801514</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7828426361084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6507892608643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3426723480225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5011310577393</t>
+    <t xml:space="preserve">17.7828407287598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6507911682129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3426742553711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5011329650879</t>
   </si>
   <si>
     <t xml:space="preserve">17.553955078125</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7952327728271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7512130737305</t>
+    <t xml:space="preserve">18.7952308654785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7512149810791</t>
   </si>
   <si>
     <t xml:space="preserve">18.5751457214355</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6191635131836</t>
+    <t xml:space="preserve">18.619161605835</t>
   </si>
   <si>
     <t xml:space="preserve">18.3110446929932</t>
@@ -1865,28 +1865,28 @@
     <t xml:space="preserve">17.7388229370117</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4307041168213</t>
+    <t xml:space="preserve">17.4307060241699</t>
   </si>
   <si>
     <t xml:space="preserve">17.3778858184814</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2370300292969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1666030883789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2722454071045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1137866973877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3074569702148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8320770263672</t>
+    <t xml:space="preserve">17.2370319366455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1666049957275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2722473144531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1137847900391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3074588775635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8320751190186</t>
   </si>
   <si>
     <t xml:space="preserve">16.6912212371826</t>
@@ -1895,22 +1895,22 @@
     <t xml:space="preserve">16.7616481781006</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0609645843506</t>
+    <t xml:space="preserve">17.060962677002</t>
   </si>
   <si>
     <t xml:space="preserve">16.4799404144287</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3743019104004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6207942962646</t>
+    <t xml:space="preserve">16.3743000030518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.620792388916</t>
   </si>
   <si>
     <t xml:space="preserve">16.1101970672607</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3038730621338</t>
+    <t xml:space="preserve">16.3038711547852</t>
   </si>
   <si>
     <t xml:space="preserve">16.6560077667236</t>
@@ -1928,10 +1928,10 @@
     <t xml:space="preserve">16.3214797973633</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2334461212158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9025039672852</t>
+    <t xml:space="preserve">16.2334442138672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9025020599365</t>
   </si>
   <si>
     <t xml:space="preserve">17.2898502349854</t>
@@ -1943,7 +1943,7 @@
     <t xml:space="preserve">17.4483127593994</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6948089599609</t>
+    <t xml:space="preserve">17.6948070526123</t>
   </si>
   <si>
     <t xml:space="preserve">19.0593318939209</t>
@@ -1955,7 +1955,7 @@
     <t xml:space="preserve">18.3990783691406</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8708744049072</t>
+    <t xml:space="preserve">17.8708763122559</t>
   </si>
   <si>
     <t xml:space="preserve">17.6067733764648</t>
@@ -1967,13 +1967,13 @@
     <t xml:space="preserve">16.849681854248</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8848972320557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.148998260498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1313915252686</t>
+    <t xml:space="preserve">16.8848991394043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1489963531494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1313896179199</t>
   </si>
   <si>
     <t xml:space="preserve">17.4835262298584</t>
@@ -1994,13 +1994,13 @@
     <t xml:space="preserve">16.7088279724121</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6736145019531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8144683837891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.360279083252</t>
+    <t xml:space="preserve">16.6736164093018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8144702911377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3602771759033</t>
   </si>
   <si>
     <t xml:space="preserve">17.325065612793</t>
@@ -2033,10 +2033,10 @@
     <t xml:space="preserve">15.7052431106567</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0537919998169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7896890640259</t>
+    <t xml:space="preserve">15.0537929534912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7896900177002</t>
   </si>
   <si>
     <t xml:space="preserve">14.4727687835693</t>
@@ -2045,10 +2045,10 @@
     <t xml:space="preserve">14.2614879608154</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0854187011719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2086658477783</t>
+    <t xml:space="preserve">14.0854196548462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2086668014526</t>
   </si>
   <si>
     <t xml:space="preserve">12.4832038879395</t>
@@ -2060,16 +2060,16 @@
     <t xml:space="preserve">13.1874732971191</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7085037231445</t>
+    <t xml:space="preserve">11.7085046768188</t>
   </si>
   <si>
     <t xml:space="preserve">12.1838884353638</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7929525375366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0042333602905</t>
+    <t xml:space="preserve">10.7929534912109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0042343139648</t>
   </si>
   <si>
     <t xml:space="preserve">10.5640649795532</t>
@@ -2084,22 +2084,22 @@
     <t xml:space="preserve">13.2050809860229</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6452493667603</t>
+    <t xml:space="preserve">13.6452503204346</t>
   </si>
   <si>
     <t xml:space="preserve">12.9233722686768</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0466184616089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9021797180176</t>
+    <t xml:space="preserve">13.0466194152832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9021787643433</t>
   </si>
   <si>
     <t xml:space="preserve">11.5852575302124</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3211545944214</t>
+    <t xml:space="preserve">11.3211555480957</t>
   </si>
   <si>
     <t xml:space="preserve">10.8281660079956</t>
@@ -2111,25 +2111,25 @@
     <t xml:space="preserve">11.1626949310303</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1803016662598</t>
+    <t xml:space="preserve">11.1803007125854</t>
   </si>
   <si>
     <t xml:space="preserve">11.0394468307495</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7753458023071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6697034835815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5816717147827</t>
+    <t xml:space="preserve">10.7753448486328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6697044372559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5816707611084</t>
   </si>
   <si>
     <t xml:space="preserve">11.1098737716675</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3563680648804</t>
+    <t xml:space="preserve">11.3563690185547</t>
   </si>
   <si>
     <t xml:space="preserve">10.9338064193726</t>
@@ -2138,7 +2138,7 @@
     <t xml:space="preserve">10.6873121261597</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8809862136841</t>
+    <t xml:space="preserve">10.8809852600098</t>
   </si>
   <si>
     <t xml:space="preserve">10.6168842315674</t>
@@ -2147,34 +2147,34 @@
     <t xml:space="preserve">10.6520986557007</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7401313781738</t>
+    <t xml:space="preserve">10.7401323318481</t>
   </si>
   <si>
     <t xml:space="preserve">10.5288505554199</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0358600616455</t>
+    <t xml:space="preserve">10.0358610153198</t>
   </si>
   <si>
     <t xml:space="preserve">10.0886812210083</t>
   </si>
   <si>
-    <t xml:space="preserve">9.89500713348389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.70133304595947</t>
+    <t xml:space="preserve">9.89500617980957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.70133209228516</t>
   </si>
   <si>
     <t xml:space="preserve">9.63090419769287</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2823553085327</t>
+    <t xml:space="preserve">10.282356262207</t>
   </si>
   <si>
     <t xml:space="preserve">10.7577390670776</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2999620437622</t>
+    <t xml:space="preserve">10.2999629974365</t>
   </si>
   <si>
     <t xml:space="preserve">9.96543312072754</t>
@@ -2183,28 +2183,28 @@
     <t xml:space="preserve">11.0746603012085</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8457736968994</t>
+    <t xml:space="preserve">10.8457727432251</t>
   </si>
   <si>
     <t xml:space="preserve">11.0570545196533</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6732902526855</t>
+    <t xml:space="preserve">11.6732912063599</t>
   </si>
   <si>
     <t xml:space="preserve">11.5676507949829</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6556835174561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4796171188354</t>
+    <t xml:space="preserve">11.6556844711304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4796161651611</t>
   </si>
   <si>
     <t xml:space="preserve">11.5500431060791</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5360221862793</t>
+    <t xml:space="preserve">12.5360231399536</t>
   </si>
   <si>
     <t xml:space="preserve">12.5008087158203</t>
@@ -2213,13 +2213,13 @@
     <t xml:space="preserve">12.3071346282959</t>
   </si>
   <si>
-    <t xml:space="preserve">12.060640335083</t>
+    <t xml:space="preserve">12.0606393814087</t>
   </si>
   <si>
     <t xml:space="preserve">11.3387622833252</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6204700469971</t>
+    <t xml:space="preserve">11.6204710006714</t>
   </si>
   <si>
     <t xml:space="preserve">11.6380777359009</t>
@@ -2252,10 +2252,10 @@
     <t xml:space="preserve">11.4972238540649</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5148305892944</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2331228256226</t>
+    <t xml:space="preserve">11.5148296356201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2331218719482</t>
   </si>
   <si>
     <t xml:space="preserve">11.0218410491943</t>
@@ -2264,13 +2264,13 @@
     <t xml:space="preserve">11.3035488128662</t>
   </si>
   <si>
-    <t xml:space="preserve">10.986626625061</t>
+    <t xml:space="preserve">10.9866256713867</t>
   </si>
   <si>
     <t xml:space="preserve">10.8633794784546</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6028642654419</t>
+    <t xml:space="preserve">11.6028633117676</t>
   </si>
   <si>
     <t xml:space="preserve">11.1979093551636</t>
@@ -2285,28 +2285,28 @@
     <t xml:space="preserve">11.1274814605713</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6344909667969</t>
+    <t xml:space="preserve">10.6344919204712</t>
   </si>
   <si>
     <t xml:space="preserve">10.9690198898315</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4444036483765</t>
+    <t xml:space="preserve">11.4444026947021</t>
   </si>
   <si>
     <t xml:space="preserve">11.2507286071777</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8141450881958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1134605407715</t>
+    <t xml:space="preserve">11.8141460418701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1134614944458</t>
   </si>
   <si>
     <t xml:space="preserve">12.131067276001</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9197854995728</t>
+    <t xml:space="preserve">11.9197864532471</t>
   </si>
   <si>
     <t xml:space="preserve">11.5324373245239</t>
@@ -2315,7 +2315,7 @@
     <t xml:space="preserve">12.0078191757202</t>
   </si>
   <si>
-    <t xml:space="preserve">12.095853805542</t>
+    <t xml:space="preserve">12.0958528518677</t>
   </si>
   <si>
     <t xml:space="preserve">12.2191019058228</t>
@@ -2324,25 +2324,25 @@
     <t xml:space="preserve">12.5888433456421</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9585847854614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7120895385742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8001251220703</t>
+    <t xml:space="preserve">12.9585857391357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7120904922485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.800124168396</t>
   </si>
   <si>
     <t xml:space="preserve">13.0114059448242</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0782470703125</t>
+    <t xml:space="preserve">12.0782480239868</t>
   </si>
   <si>
     <t xml:space="preserve">11.796537399292</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2859411239624</t>
+    <t xml:space="preserve">11.2859420776367</t>
   </si>
   <si>
     <t xml:space="preserve">10.8985939025879</t>
@@ -2357,7 +2357,7 @@
     <t xml:space="preserve">10.247142791748</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1943225860596</t>
+    <t xml:space="preserve">10.1943216323853</t>
   </si>
   <si>
     <t xml:space="preserve">10.352783203125</t>
@@ -2372,22 +2372,22 @@
     <t xml:space="preserve">12.9409790039062</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6276416778564</t>
+    <t xml:space="preserve">13.6276426315308</t>
   </si>
   <si>
     <t xml:space="preserve">14.1382389068604</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1698665618896</t>
+    <t xml:space="preserve">13.169867515564</t>
   </si>
   <si>
     <t xml:space="preserve">13.0290117263794</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5043954849243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.698070526123</t>
+    <t xml:space="preserve">13.5043964385986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6980714797974</t>
   </si>
   <si>
     <t xml:space="preserve">13.9093523025513</t>
@@ -2399,7 +2399,7 @@
     <t xml:space="preserve">13.874137878418</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8213167190552</t>
+    <t xml:space="preserve">13.8213176727295</t>
   </si>
   <si>
     <t xml:space="preserve">13.8917446136475</t>
@@ -2411,13 +2411,13 @@
     <t xml:space="preserve">13.4515752792358</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2226886749268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2755079269409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5220022201538</t>
+    <t xml:space="preserve">13.2226877212524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2755069732666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5220012664795</t>
   </si>
   <si>
     <t xml:space="preserve">13.134654045105</t>
@@ -2429,13 +2429,13 @@
     <t xml:space="preserve">13.4339685440063</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7508897781372</t>
+    <t xml:space="preserve">13.7508907318115</t>
   </si>
   <si>
     <t xml:space="preserve">13.7156772613525</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3671264648438</t>
+    <t xml:space="preserve">14.3671274185181</t>
   </si>
   <si>
     <t xml:space="preserve">14.842511177063</t>
@@ -2450,7 +2450,7 @@
     <t xml:space="preserve">15.5996026992798</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6700286865234</t>
+    <t xml:space="preserve">15.6700296401978</t>
   </si>
   <si>
     <t xml:space="preserve">15.5291738510132</t>
@@ -2462,37 +2462,37 @@
     <t xml:space="preserve">15.317892074585</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6876363754272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6524238586426</t>
+    <t xml:space="preserve">15.6876373291016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6524219512939</t>
   </si>
   <si>
     <t xml:space="preserve">15.3883209228516</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2298564910889</t>
+    <t xml:space="preserve">15.2298574447632</t>
   </si>
   <si>
     <t xml:space="preserve">15.1242179870605</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1066131591797</t>
+    <t xml:space="preserve">15.1066122055054</t>
   </si>
   <si>
     <t xml:space="preserve">14.6312294006348</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8777236938477</t>
+    <t xml:space="preserve">14.877724647522</t>
   </si>
   <si>
     <t xml:space="preserve">14.9129390716553</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1594305038452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9693431854248</t>
+    <t xml:space="preserve">15.1594324111938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9693450927734</t>
   </si>
   <si>
     <t xml:space="preserve">15.846095085144</t>
@@ -2504,61 +2504,61 @@
     <t xml:space="preserve">16.2862682342529</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9729328155518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8108825683594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8989162445068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8284873962402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9165210723877</t>
+    <t xml:space="preserve">16.9729309082031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8108816146851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8989181518555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8284893035889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9165239334106</t>
   </si>
   <si>
     <t xml:space="preserve">16.7968616485596</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6031856536865</t>
+    <t xml:space="preserve">16.6031875610352</t>
   </si>
   <si>
     <t xml:space="preserve">17.0081424713135</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0785713195801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0433597564697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5151519775391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9341306686401</t>
+    <t xml:space="preserve">17.0785694122314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0433578491211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5151538848877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9341297149658</t>
   </si>
   <si>
     <t xml:space="preserve">16.1982326507568</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1630191802979</t>
+    <t xml:space="preserve">16.1630172729492</t>
   </si>
   <si>
     <t xml:space="preserve">16.0749855041504</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4447288513184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5855808258057</t>
+    <t xml:space="preserve">16.4447269439697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5855827331543</t>
   </si>
   <si>
     <t xml:space="preserve">16.1454124450684</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4535312652588</t>
+    <t xml:space="preserve">16.4535293579102</t>
   </si>
   <si>
     <t xml:space="preserve">16.2070350646973</t>
@@ -2567,7 +2567,7 @@
     <t xml:space="preserve">16.1894283294678</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4975471496582</t>
+    <t xml:space="preserve">16.4975490570068</t>
   </si>
   <si>
     <t xml:space="preserve">16.5327606201172</t>
@@ -2579,16 +2579,16 @@
     <t xml:space="preserve">16.6824188232422</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7000255584717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8584842681885</t>
+    <t xml:space="preserve">16.700023651123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8584861755371</t>
   </si>
   <si>
     <t xml:space="preserve">16.7176322937012</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3831043243408</t>
+    <t xml:space="preserve">16.3831024169922</t>
   </si>
   <si>
     <t xml:space="preserve">17.404296875</t>
@@ -2597,13 +2597,13 @@
     <t xml:space="preserve">17.5979690551758</t>
   </si>
   <si>
-    <t xml:space="preserve">16.840877532959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0697650909424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0961761474609</t>
+    <t xml:space="preserve">16.8408794403076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.069766998291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0961780548096</t>
   </si>
   <si>
     <t xml:space="preserve">17.474723815918</t>
@@ -2612,10 +2612,10 @@
     <t xml:space="preserve">17.6419887542725</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8532676696777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7300205230713</t>
+    <t xml:space="preserve">17.8532695770264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7300224304199</t>
   </si>
   <si>
     <t xml:space="preserve">17.9413032531738</t>
@@ -2624,25 +2624,25 @@
     <t xml:space="preserve">17.9765148162842</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1877956390381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3638687133789</t>
+    <t xml:space="preserve">18.1877975463867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3638668060303</t>
   </si>
   <si>
     <t xml:space="preserve">18.5047187805176</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5223255157471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2758312225342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7476291656494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2054042816162</t>
+    <t xml:space="preserve">18.5223274230957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2758293151855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7476272583008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2054023742676</t>
   </si>
   <si>
     <t xml:space="preserve">18.0997619628906</t>
@@ -2651,16 +2651,16 @@
     <t xml:space="preserve">18.0821571350098</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9236946105957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8004474639893</t>
+    <t xml:space="preserve">17.9236965179443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8004493713379</t>
   </si>
   <si>
     <t xml:space="preserve">17.8884811401367</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2582244873047</t>
+    <t xml:space="preserve">18.2582263946533</t>
   </si>
   <si>
     <t xml:space="preserve">18.1525859832764</t>
@@ -2675,28 +2675,28 @@
     <t xml:space="preserve">18.4166851043701</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3286514282227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9060878753662</t>
+    <t xml:space="preserve">18.3286533355713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9060897827148</t>
   </si>
   <si>
     <t xml:space="preserve">16.8936996459961</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2018184661865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2282295227051</t>
+    <t xml:space="preserve">17.2018203735352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2282276153564</t>
   </si>
   <si>
     <t xml:space="preserve">17.624382019043</t>
   </si>
   <si>
-    <t xml:space="preserve">19.8428344726562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3146305084229</t>
+    <t xml:space="preserve">19.8428382873535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3146324157715</t>
   </si>
   <si>
     <t xml:space="preserve">19.2794170379639</t>
@@ -2705,7 +2705,7 @@
     <t xml:space="preserve">18.698392868042</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1913833618164</t>
+    <t xml:space="preserve">19.1913814544678</t>
   </si>
   <si>
     <t xml:space="preserve">18.7336082458496</t>
@@ -2717,28 +2717,28 @@
     <t xml:space="preserve">18.4695053100586</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3814716339111</t>
+    <t xml:space="preserve">18.3814697265625</t>
   </si>
   <si>
     <t xml:space="preserve">18.0645503997803</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8180561065674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0117282867432</t>
+    <t xml:space="preserve">17.8180541992188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0117301940918</t>
   </si>
   <si>
     <t xml:space="preserve">18.2406177520752</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4130992889404</t>
+    <t xml:space="preserve">17.4131011962891</t>
   </si>
   <si>
     <t xml:space="preserve">17.4219036102295</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0345554351807</t>
+    <t xml:space="preserve">17.034553527832</t>
   </si>
   <si>
     <t xml:space="preserve">17.1578006744385</t>
@@ -2750,13 +2750,13 @@
     <t xml:space="preserve">18.1173706054688</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2934398651123</t>
+    <t xml:space="preserve">18.2934379577637</t>
   </si>
   <si>
     <t xml:space="preserve">18.76881980896</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5575389862061</t>
+    <t xml:space="preserve">18.5575408935547</t>
   </si>
   <si>
     <t xml:space="preserve">18.3361072540283</t>
@@ -2783,10 +2783,10 @@
     <t xml:space="preserve">18.5151710510254</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5330791473389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2286701202393</t>
+    <t xml:space="preserve">18.5330772399902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2286682128906</t>
   </si>
   <si>
     <t xml:space="preserve">18.0854187011719</t>
@@ -2795,7 +2795,7 @@
     <t xml:space="preserve">18.0496063232422</t>
   </si>
   <si>
-    <t xml:space="preserve">17.995885848999</t>
+    <t xml:space="preserve">17.9958877563477</t>
   </si>
   <si>
     <t xml:space="preserve">17.8974018096924</t>
@@ -2810,13 +2810,13 @@
     <t xml:space="preserve">17.7810096740723</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2644824981689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1990528106689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0826606750488</t>
+    <t xml:space="preserve">18.2644805908203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1990547180176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0826625823975</t>
   </si>
   <si>
     <t xml:space="preserve">17.136381149292</t>
@@ -2831,19 +2831,19 @@
     <t xml:space="preserve">16.8319721221924</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3574542999268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4738464355469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0261878967285</t>
+    <t xml:space="preserve">16.3574562072754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4738483428955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0261859893799</t>
   </si>
   <si>
     <t xml:space="preserve">16.3664093017578</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5633792877197</t>
+    <t xml:space="preserve">16.5633773803711</t>
   </si>
   <si>
     <t xml:space="preserve">16.5365180969238</t>
@@ -2867,7 +2867,7 @@
     <t xml:space="preserve">16.9125518798828</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7334899902344</t>
+    <t xml:space="preserve">16.7334880828857</t>
   </si>
   <si>
     <t xml:space="preserve">16.7424430847168</t>
@@ -2876,7 +2876,7 @@
     <t xml:space="preserve">16.4648933410645</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4380340576172</t>
+    <t xml:space="preserve">16.4380359649658</t>
   </si>
   <si>
     <t xml:space="preserve">16.1157188415527</t>
@@ -2894,7 +2894,7 @@
     <t xml:space="preserve">17.1005687713623</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2975368499756</t>
+    <t xml:space="preserve">17.2975387573242</t>
   </si>
   <si>
     <t xml:space="preserve">17.4586963653564</t>
@@ -2906,25 +2906,25 @@
     <t xml:space="preserve">16.6618633270264</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0199928283691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9483661651611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3154449462891</t>
+    <t xml:space="preserve">17.0199909210205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9483642578125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3154468536377</t>
   </si>
   <si>
     <t xml:space="preserve">16.8946475982666</t>
   </si>
   <si>
-    <t xml:space="preserve">17.002082824707</t>
+    <t xml:space="preserve">17.0020847320557</t>
   </si>
   <si>
     <t xml:space="preserve">16.4917526245117</t>
   </si>
   <si>
-    <t xml:space="preserve">15.93665599823</t>
+    <t xml:space="preserve">15.9366550445557</t>
   </si>
   <si>
     <t xml:space="preserve">16.0799045562744</t>
@@ -2936,10 +2936,10 @@
     <t xml:space="preserve">16.7872066497803</t>
   </si>
   <si>
-    <t xml:space="preserve">16.518611907959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8588314056396</t>
+    <t xml:space="preserve">16.5186138153076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8588333129883</t>
   </si>
   <si>
     <t xml:space="preserve">17.1274280548096</t>
@@ -2948,13 +2948,13 @@
     <t xml:space="preserve">16.8409252166748</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4022197723389</t>
+    <t xml:space="preserve">16.4022216796875</t>
   </si>
   <si>
     <t xml:space="preserve">15.8918905258179</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9456071853638</t>
+    <t xml:space="preserve">15.9456081390381</t>
   </si>
   <si>
     <t xml:space="preserve">16.0978126525879</t>
@@ -2966,10 +2966,10 @@
     <t xml:space="preserve">16.590238571167</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4290790557861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0888576507568</t>
+    <t xml:space="preserve">16.4290809631348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0888595581055</t>
   </si>
   <si>
     <t xml:space="preserve">15.6680612564087</t>
@@ -2990,10 +2990,10 @@
     <t xml:space="preserve">14.2534580230713</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4235696792603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9490509033203</t>
+    <t xml:space="preserve">14.4235687255859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.949049949646</t>
   </si>
   <si>
     <t xml:space="preserve">13.5103445053101</t>
@@ -3005,16 +3005,16 @@
     <t xml:space="preserve">13.6983623504639</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1549730300903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9311447143555</t>
+    <t xml:space="preserve">14.1549739837646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9311437606812</t>
   </si>
   <si>
     <t xml:space="preserve">14.3429908752441</t>
   </si>
   <si>
-    <t xml:space="preserve">14.772744178772</t>
+    <t xml:space="preserve">14.7727432250977</t>
   </si>
   <si>
     <t xml:space="preserve">14.1370677947998</t>
@@ -3050,13 +3050,13 @@
     <t xml:space="preserve">13.5013914108276</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2327966690063</t>
+    <t xml:space="preserve">13.232795715332</t>
   </si>
   <si>
     <t xml:space="preserve">12.8746690750122</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0358266830444</t>
+    <t xml:space="preserve">13.0358276367188</t>
   </si>
   <si>
     <t xml:space="preserve">13.1074514389038</t>
@@ -3074,7 +3074,7 @@
     <t xml:space="preserve">14.2176456451416</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2713642120361</t>
+    <t xml:space="preserve">14.2713651657104</t>
   </si>
   <si>
     <t xml:space="preserve">14.6294927597046</t>
@@ -3095,10 +3095,10 @@
     <t xml:space="preserve">13.4834861755371</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5551109313965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1611709594727</t>
+    <t xml:space="preserve">13.5551099777222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1611700057983</t>
   </si>
   <si>
     <t xml:space="preserve">12.9642000198364</t>
@@ -3125,7 +3125,7 @@
     <t xml:space="preserve">13.1432647705078</t>
   </si>
   <si>
-    <t xml:space="preserve">13.053731918335</t>
+    <t xml:space="preserve">13.0537328720093</t>
   </si>
   <si>
     <t xml:space="preserve">12.5523548126221</t>
@@ -4068,6 +4068,9 @@
   </si>
   <si>
     <t xml:space="preserve">12.3199996948242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2200002670288</t>
   </si>
 </sst>
 </file>
@@ -60803,7 +60806,7 @@
     </row>
     <row r="2170">
       <c r="A2170" s="1" t="n">
-        <v>45483.649525463</v>
+        <v>45483.2916666667</v>
       </c>
       <c r="B2170" t="n">
         <v>124269</v>
@@ -60824,6 +60827,32 @@
         <v>1348</v>
       </c>
       <c r="H2170" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2171">
+      <c r="A2171" s="1" t="n">
+        <v>45484.6493634259</v>
+      </c>
+      <c r="B2171" t="n">
+        <v>52108</v>
+      </c>
+      <c r="C2171" t="n">
+        <v>12.3000001907349</v>
+      </c>
+      <c r="D2171" t="n">
+        <v>12.1000003814697</v>
+      </c>
+      <c r="E2171" t="n">
+        <v>12.2399997711182</v>
+      </c>
+      <c r="F2171" t="n">
+        <v>12.2200002670288</v>
+      </c>
+      <c r="G2171" t="s">
+        <v>1352</v>
+      </c>
+      <c r="H2171" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/MARR.MI.xlsx
+++ b/data/MARR.MI.xlsx
@@ -47,91 +47,91 @@
     <t xml:space="preserve">14.1047010421753</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9899663925171</t>
+    <t xml:space="preserve">13.9899673461914</t>
   </si>
   <si>
     <t xml:space="preserve">13.7910938262939</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7451982498169</t>
+    <t xml:space="preserve">13.7452001571655</t>
   </si>
   <si>
     <t xml:space="preserve">13.3627500534058</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4315910339355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5157299041748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2021226882935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2097721099854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.720235824585</t>
+    <t xml:space="preserve">13.4315919876099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5157279968262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2021245956421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.209771156311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7202377319336</t>
   </si>
   <si>
     <t xml:space="preserve">12.8273229598999</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3607349395752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9650039672852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6228170394897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4545373916626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3321552276611</t>
+    <t xml:space="preserve">12.3607358932495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9650049209595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6228151321411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4545392990112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3321561813354</t>
   </si>
   <si>
     <t xml:space="preserve">13.3245058059692</t>
   </si>
   <si>
-    <t xml:space="preserve">13.416296005249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5004301071167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7681465148926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5616235733032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0873870849609</t>
+    <t xml:space="preserve">13.4162940979004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5004329681396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7681455612183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5616245269775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0873880386353</t>
   </si>
   <si>
     <t xml:space="preserve">13.2786121368408</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0491437911987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1083202362061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1542139053345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6131525039673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.299542427063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6208000183105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6590452194214</t>
+    <t xml:space="preserve">13.0491428375244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1083192825317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1542129516602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.613151550293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2995443344116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6208009719849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6590461730957</t>
   </si>
   <si>
     <t xml:space="preserve">12.7814283370972</t>
@@ -143,22 +143,22 @@
     <t xml:space="preserve">13.156229019165</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4851331710815</t>
+    <t xml:space="preserve">13.4851341247559</t>
   </si>
   <si>
     <t xml:space="preserve">13.3780479431152</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3474540710449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7299013137817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9670209884644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7375516891479</t>
+    <t xml:space="preserve">13.3474531173706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7299003601074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9670190811157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7375497817993</t>
   </si>
   <si>
     <t xml:space="preserve">13.8752307891846</t>
@@ -176,91 +176,91 @@
     <t xml:space="preserve">13.1179838180542</t>
   </si>
   <si>
-    <t xml:space="preserve">13.446888923645</t>
+    <t xml:space="preserve">13.4468898773193</t>
   </si>
   <si>
     <t xml:space="preserve">13.5998697280884</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4774866104126</t>
+    <t xml:space="preserve">13.4774856567383</t>
   </si>
   <si>
     <t xml:space="preserve">13.661060333252</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2174224853516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1026859283447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4621887207031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5386791229248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9593715667725</t>
+    <t xml:space="preserve">13.2174196243286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1026840209961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4621877670288</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5386753082275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9593696594238</t>
   </si>
   <si>
     <t xml:space="preserve">14.0817556381226</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1505947113037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8828811645508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9976139068604</t>
+    <t xml:space="preserve">14.1505937576294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8828802108765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9976119995117</t>
   </si>
   <si>
     <t xml:space="preserve">14.0741062164307</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5483417510986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3188714981079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1658916473389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7987413406372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6916580200195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6151647567749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5769233703613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8599338531494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9058284759521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5922193527222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0970497131348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.944073677063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6304636001587</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6840057373047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6993055343628</t>
+    <t xml:space="preserve">14.54833984375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3188705444336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1658926010132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7987442016602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6916561126709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6151666641235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5769205093384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8599348068237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9058294296265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5922203063965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0970516204834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9440727233887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.630464553833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6840076446533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6993045806885</t>
   </si>
   <si>
     <t xml:space="preserve">13.8216886520386</t>
@@ -269,109 +269,109 @@
     <t xml:space="preserve">13.4392404556274</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6687097549438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4086446762085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5310297012329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8250074386597</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8170642852783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0713148117065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0633726119995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2540616989136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3096780776978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.126935005188</t>
+    <t xml:space="preserve">13.6687107086182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4086456298828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5310287475586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.825008392334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.817063331604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0713157653809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0633697509766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2540597915649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3096790313721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1269340515137</t>
   </si>
   <si>
     <t xml:space="preserve">14.0792617797852</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3017330169678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1904964447021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1030988693237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0872058868408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0951528549194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5866460800171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6740455627441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3880109786987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0701951980591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2132110595703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5945901870728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5787000656128</t>
+    <t xml:space="preserve">14.3017320632935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1904973983765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1030960083008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0872077941895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0951509475708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5866470336914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6740436553955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.388011932373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0701961517334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2132120132446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5945920944214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5787010192871</t>
   </si>
   <si>
     <t xml:space="preserve">13.8806247711182</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2052669525146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5060701370239</t>
+    <t xml:space="preserve">13.205267906189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5060691833496</t>
   </si>
   <si>
     <t xml:space="preserve">13.0384130477905</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5151376724243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2461156845093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3573503494263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8567886352539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2778959274292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1507711410522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6036605834961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5718765258789</t>
+    <t xml:space="preserve">13.5151386260986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2461166381836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3573513031006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8567905426025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2778968811035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1507692337036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6036586761475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5718755722046</t>
   </si>
   <si>
     <t xml:space="preserve">14.5639305114746</t>
@@ -380,121 +380,121 @@
     <t xml:space="preserve">14.3652954101562</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3176250457764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5798215866089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8738012313843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.548038482666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6990032196045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9770908355713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8340768814087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9453096389771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5877685546875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8579111099243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.333514213562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4765300750732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5003690719604</t>
+    <t xml:space="preserve">14.3176231384277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5798244476318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.87380027771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.548041343689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6990022659302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9770936965942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8340749740601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9453105926514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5877676010132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8579120635986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3335161209106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4765310287476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5003662109375</t>
   </si>
   <si>
     <t xml:space="preserve">14.4447507858276</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1666612625122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2381706237793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0315885543823</t>
+    <t xml:space="preserve">14.1666603088379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2381687164307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.031587600708</t>
   </si>
   <si>
     <t xml:space="preserve">13.8885726928711</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9044628143311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8647365570068</t>
+    <t xml:space="preserve">13.9044618606567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8647356033325</t>
   </si>
   <si>
     <t xml:space="preserve">14.0474815368652</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9521341323853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.721718788147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0156955718994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.912407875061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0077514648438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9203538894653</t>
+    <t xml:space="preserve">13.9521360397339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7217178344727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.015697479248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9124088287354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0077524185181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.920352935791</t>
   </si>
   <si>
     <t xml:space="preserve">13.8091163635254</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7058277130127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6502103805542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7376089096069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9998083114624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.230224609375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1746053695679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0236415863037</t>
+    <t xml:space="preserve">13.705828666687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6502113342285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7376108169556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9998073577881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2302236557007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1746063232422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0236444473267</t>
   </si>
   <si>
     <t xml:space="preserve">14.1587152481079</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7614440917969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6661005020142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6184272766113</t>
+    <t xml:space="preserve">13.7614459991455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6661014556885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.618426322937</t>
   </si>
   <si>
     <t xml:space="preserve">13.7773361206055</t>
@@ -506,13 +506,10 @@
     <t xml:space="preserve">13.4913005828857</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6581554412842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5389747619629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5310287475586</t>
+    <t xml:space="preserve">13.6581544876099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5389757156372</t>
   </si>
   <si>
     <t xml:space="preserve">13.4595203399658</t>
@@ -521,19 +518,19 @@
     <t xml:space="preserve">13.3482837677002</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3165035247803</t>
+    <t xml:space="preserve">13.3165044784546</t>
   </si>
   <si>
     <t xml:space="preserve">13.3006105422974</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3323926925659</t>
+    <t xml:space="preserve">13.3323945999146</t>
   </si>
   <si>
     <t xml:space="preserve">13.3244476318359</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1814308166504</t>
+    <t xml:space="preserve">13.1814317703247</t>
   </si>
   <si>
     <t xml:space="preserve">13.0304670333862</t>
@@ -542,49 +539,49 @@
     <t xml:space="preserve">13.2370481491089</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2688322067261</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1575937271118</t>
+    <t xml:space="preserve">13.2688312530518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1575927734375</t>
   </si>
   <si>
     <t xml:space="preserve">12.7126522064209</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1178674697876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2608842849731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1417045593262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1655397415161</t>
+    <t xml:space="preserve">13.1178693771362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2608861923218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1417036056519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1655387878418</t>
   </si>
   <si>
     <t xml:space="preserve">13.0225210189819</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9112873077393</t>
+    <t xml:space="preserve">12.9112854003906</t>
   </si>
   <si>
     <t xml:space="preserve">13.0066328048706</t>
   </si>
   <si>
-    <t xml:space="preserve">13.094030380249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0781402587891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5071926116943</t>
+    <t xml:space="preserve">13.0940313339233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0781383514404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.50719165802</t>
   </si>
   <si>
     <t xml:space="preserve">13.4515743255615</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5707559585571</t>
+    <t xml:space="preserve">13.5707569122314</t>
   </si>
   <si>
     <t xml:space="preserve">13.8965167999268</t>
@@ -593,133 +590,133 @@
     <t xml:space="preserve">13.7455539703369</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9362468719482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7852821350098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.944188117981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9680252075195</t>
+    <t xml:space="preserve">13.9362449645996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7852811813354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9441890716553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9680261611938</t>
   </si>
   <si>
     <t xml:space="preserve">13.9918622970581</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9759702682495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0395345687866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.801173210144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9839172363281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.222279548645</t>
+    <t xml:space="preserve">13.9759712219238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0395317077637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8011741638184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9839162826538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2222785949707</t>
   </si>
   <si>
     <t xml:space="preserve">14.2063865661621</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7148933410645</t>
+    <t xml:space="preserve">14.7148952484131</t>
   </si>
   <si>
     <t xml:space="preserve">14.7705116271973</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3494033813477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2699527740479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1825513839722</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2858409881592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.341459274292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2620067596436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6751670837402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4606428146362</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.651330947876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.627495765686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.540093421936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6910581588745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5162601470947</t>
+    <t xml:space="preserve">14.3494052886963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2699508666992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1825523376465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2858428955078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3414583206177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2620048522949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6751651763916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4606418609619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6513319015503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6274948120117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5400924682617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6910572052002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.516261100769</t>
   </si>
   <si>
     <t xml:space="preserve">14.7069492340088</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6116037368774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3970785140991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7466745376587</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2154560089111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4538164138794</t>
+    <t xml:space="preserve">14.6116027832031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3970794677734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.746675491333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2154569625854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.453818321228</t>
   </si>
   <si>
     <t xml:space="preserve">15.4061431884766</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5968332290649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8908138275146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8510866165161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8590307235718</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7319049835205</t>
+    <t xml:space="preserve">15.5968351364136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8908157348633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8510885238647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8590335845947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7319068908691</t>
   </si>
   <si>
     <t xml:space="preserve">16.1371231079102</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6774120330811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0656108856201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0894508361816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2245216369629</t>
+    <t xml:space="preserve">16.6774082183838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0656127929688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.089448928833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2245235443115</t>
   </si>
   <si>
     <t xml:space="preserve">16.30397605896</t>
@@ -728,13 +725,13 @@
     <t xml:space="preserve">16.1609573364258</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2880821228027</t>
+    <t xml:space="preserve">16.2880859375</t>
   </si>
   <si>
     <t xml:space="preserve">16.6456298828125</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6853580474854</t>
+    <t xml:space="preserve">16.6853523254395</t>
   </si>
   <si>
     <t xml:space="preserve">16.4867191314697</t>
@@ -746,34 +743,34 @@
     <t xml:space="preserve">16.0973949432373</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1291770935059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5026092529297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3675403594971</t>
+    <t xml:space="preserve">16.1291751861572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5026111602783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3675384521484</t>
   </si>
   <si>
     <t xml:space="preserve">16.5582294464111</t>
   </si>
   <si>
-    <t xml:space="preserve">16.605899810791</t>
+    <t xml:space="preserve">16.6059017181396</t>
   </si>
   <si>
     <t xml:space="preserve">16.7012462615967</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5423393249512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8839912414551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4322242736816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1144104003906</t>
+    <t xml:space="preserve">16.5423355102539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8839874267578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.432222366333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.114408493042</t>
   </si>
   <si>
     <t xml:space="preserve">16.6615200042725</t>
@@ -785,10 +782,10 @@
     <t xml:space="preserve">17.3289337158203</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2574234008789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2653675079346</t>
+    <t xml:space="preserve">17.2574253082275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2653694152832</t>
   </si>
   <si>
     <t xml:space="preserve">17.6149673461914</t>
@@ -800,10 +797,10 @@
     <t xml:space="preserve">17.6864757537842</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5355129241943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4560604095459</t>
+    <t xml:space="preserve">17.5355167388916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4560623168945</t>
   </si>
   <si>
     <t xml:space="preserve">17.6626415252686</t>
@@ -812,34 +809,34 @@
     <t xml:space="preserve">18.1234722137451</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8294925689697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7738780975342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9089488983154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9963493347168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1552562713623</t>
+    <t xml:space="preserve">17.8294944763184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7738761901855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9089508056641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9963455200195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1552543640137</t>
   </si>
   <si>
     <t xml:space="preserve">17.4004421234131</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5196228027344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7083587646484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2499485015869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2171249389648</t>
+    <t xml:space="preserve">17.5196189880371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7083606719971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2499465942383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2171268463135</t>
   </si>
   <si>
     <t xml:space="preserve">18.0530090332031</t>
@@ -848,7 +845,7 @@
     <t xml:space="preserve">17.7904205322266</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6509170532227</t>
+    <t xml:space="preserve">17.6509189605713</t>
   </si>
   <si>
     <t xml:space="preserve">17.8806838989258</t>
@@ -860,28 +857,28 @@
     <t xml:space="preserve">17.9791526794434</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7986259460449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0365962982178</t>
+    <t xml:space="preserve">17.7986240386963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0365943908691</t>
   </si>
   <si>
     <t xml:space="preserve">18.1760940551758</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9955654144287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5606498718262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7411804199219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8888893127441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7740058898926</t>
+    <t xml:space="preserve">17.995569229126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5606517791748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7411823272705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8888874053955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7740039825439</t>
   </si>
   <si>
     <t xml:space="preserve">18.0858306884766</t>
@@ -899,37 +896,37 @@
     <t xml:space="preserve">17.6427135467529</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7329750061035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7493877410889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1749744415283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0765037536621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0682964324951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1503562927246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9123840332031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2324180603027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0600929260254</t>
+    <t xml:space="preserve">17.7329769134521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7493858337402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1749725341797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0765018463135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0683002471924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.150354385376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9123859405518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2324161529541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0600910186768</t>
   </si>
   <si>
     <t xml:space="preserve">16.9780330657959</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3965358734131</t>
+    <t xml:space="preserve">17.3965339660645</t>
   </si>
   <si>
     <t xml:space="preserve">17.5032119750977</t>
@@ -941,22 +938,22 @@
     <t xml:space="preserve">18.2991828918457</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1022396087646</t>
+    <t xml:space="preserve">18.1022415161133</t>
   </si>
   <si>
     <t xml:space="preserve">18.3484210968018</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3566265106201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4633007049561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8642730712891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3402118682861</t>
+    <t xml:space="preserve">18.3566284179688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4633026123047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8642692565918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3402156829834</t>
   </si>
   <si>
     <t xml:space="preserve">17.7247695922852</t>
@@ -968,22 +965,22 @@
     <t xml:space="preserve">17.4950046539307</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8068313598633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5278301239014</t>
+    <t xml:space="preserve">17.8068294525146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5278282165527</t>
   </si>
   <si>
     <t xml:space="preserve">17.3883285522461</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4047412872314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2734451293945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2242107391357</t>
+    <t xml:space="preserve">17.4047374725342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2734470367432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2242088317871</t>
   </si>
   <si>
     <t xml:space="preserve">17.04368019104</t>
@@ -992,7 +989,7 @@
     <t xml:space="preserve">16.9452075958252</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9287948608398</t>
+    <t xml:space="preserve">16.9287986755371</t>
   </si>
   <si>
     <t xml:space="preserve">17.0190620422363</t>
@@ -1004,85 +1001,85 @@
     <t xml:space="preserve">17.4211521148682</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6263008117676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6098880767822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9709510803223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0940380096436</t>
+    <t xml:space="preserve">17.6262989044189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6098861694336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.970947265625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0940341949463</t>
   </si>
   <si>
     <t xml:space="preserve">18.3238010406494</t>
   </si>
   <si>
-    <t xml:space="preserve">17.987361907959</t>
+    <t xml:space="preserve">17.9873600006104</t>
   </si>
   <si>
     <t xml:space="preserve">18.1186542510986</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1104488372803</t>
+    <t xml:space="preserve">18.1104469299316</t>
   </si>
   <si>
     <t xml:space="preserve">18.126859664917</t>
   </si>
   <si>
-    <t xml:space="preserve">18.332010269165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3648338317871</t>
+    <t xml:space="preserve">18.3320083618164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3648319244385</t>
   </si>
   <si>
     <t xml:space="preserve">18.438684463501</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3812446594238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6356258392334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6684494018555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5371589660645</t>
+    <t xml:space="preserve">18.3812427520752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.635627746582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6684513092041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5371551513672</t>
   </si>
   <si>
     <t xml:space="preserve">18.8079509735107</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6520366668701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6192150115967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.783332824707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2182464599609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1443939208984</t>
+    <t xml:space="preserve">18.6520385742188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.619213104248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7833347320557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2182483673096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1443920135498</t>
   </si>
   <si>
     <t xml:space="preserve">18.6930694580078</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7669239044189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.594596862793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3730373382568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1596851348877</t>
+    <t xml:space="preserve">18.7669219970703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5945949554443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3730392456055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1596813201904</t>
   </si>
   <si>
     <t xml:space="preserve">18.4222736358643</t>
@@ -1091,16 +1088,16 @@
     <t xml:space="preserve">18.2335376739502</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1925086975098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1350650787354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9217128753662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6345043182373</t>
+    <t xml:space="preserve">18.1925067901611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.135066986084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9217147827148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6345062255859</t>
   </si>
   <si>
     <t xml:space="preserve">17.5442390441895</t>
@@ -1109,31 +1106,31 @@
     <t xml:space="preserve">17.355504989624</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0272693634033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7975025177002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9041805267334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1913890838623</t>
+    <t xml:space="preserve">17.0272674560547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7975006103516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9041786193848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1913871765137</t>
   </si>
   <si>
     <t xml:space="preserve">17.6919460296631</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9052982330322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.815034866333</t>
+    <t xml:space="preserve">17.9053001403809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8150329589844</t>
   </si>
   <si>
     <t xml:space="preserve">18.0037727355957</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8396549224854</t>
+    <t xml:space="preserve">17.8396511077881</t>
   </si>
   <si>
     <t xml:space="preserve">17.9627437591553</t>
@@ -1142,37 +1139,37 @@
     <t xml:space="preserve">17.4293575286865</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0354747772217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4703884124756</t>
+    <t xml:space="preserve">17.035472869873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.470386505127</t>
   </si>
   <si>
     <t xml:space="preserve">17.4621810913086</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7822113037109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6591243743896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8232402801514</t>
+    <t xml:space="preserve">17.7822132110596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.659122467041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8232421875</t>
   </si>
   <si>
     <t xml:space="preserve">17.4129447937012</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3976535797119</t>
+    <t xml:space="preserve">18.3976573944092</t>
   </si>
   <si>
     <t xml:space="preserve">18.4468898773193</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5617752075195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.627420425415</t>
+    <t xml:space="preserve">18.5617733001709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6274223327637</t>
   </si>
   <si>
     <t xml:space="preserve">18.77512550354</t>
@@ -1184,22 +1181,22 @@
     <t xml:space="preserve">18.7258930206299</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3155975341797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.282772064209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5781860351562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5114154815674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0201835632324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.347297668457</t>
+    <t xml:space="preserve">18.3155956268311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2827758789062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5781879425049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.511417388916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0201816558838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3472995758057</t>
   </si>
   <si>
     <t xml:space="preserve">17.2980632781982</t>
@@ -1211,10 +1208,10 @@
     <t xml:space="preserve">17.675537109375</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2652416229248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3144760131836</t>
+    <t xml:space="preserve">17.2652397155762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.314474105835</t>
   </si>
   <si>
     <t xml:space="preserve">18.4961280822754</t>
@@ -1226,7 +1223,7 @@
     <t xml:space="preserve">19.5136585235596</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0388374328613</t>
+    <t xml:space="preserve">20.0388355255127</t>
   </si>
   <si>
     <t xml:space="preserve">20.3178386688232</t>
@@ -1235,7 +1232,7 @@
     <t xml:space="preserve">20.1701316833496</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0716609954834</t>
+    <t xml:space="preserve">20.071662902832</t>
   </si>
   <si>
     <t xml:space="preserve">19.8418960571289</t>
@@ -1244,28 +1241,28 @@
     <t xml:space="preserve">19.8254833221436</t>
   </si>
   <si>
-    <t xml:space="preserve">19.8911323547363</t>
+    <t xml:space="preserve">19.8911304473877</t>
   </si>
   <si>
     <t xml:space="preserve">19.8090705871582</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9403686523438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4327201843262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6296634674072</t>
+    <t xml:space="preserve">19.9403667449951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4327239990234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6296615600586</t>
   </si>
   <si>
     <t xml:space="preserve">20.531192779541</t>
   </si>
   <si>
-    <t xml:space="preserve">20.5968379974365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7609577178955</t>
+    <t xml:space="preserve">20.5968399047852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7609558105469</t>
   </si>
   <si>
     <t xml:space="preserve">20.5147819519043</t>
@@ -1274,46 +1271,46 @@
     <t xml:space="preserve">20.3506622314453</t>
   </si>
   <si>
-    <t xml:space="preserve">20.2850170135498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3342533111572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4655475616455</t>
+    <t xml:space="preserve">20.2850151062012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3342514038086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4655456542969</t>
   </si>
   <si>
     <t xml:space="preserve">20.4163093566895</t>
   </si>
   <si>
-    <t xml:space="preserve">20.383487701416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4491310119629</t>
+    <t xml:space="preserve">20.3834838867188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4491348266602</t>
   </si>
   <si>
     <t xml:space="preserve">20.7281360626221</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8430156707764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7937793731689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6789016723633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7117233276367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6460742950439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8101921081543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.251070022583</t>
+    <t xml:space="preserve">20.843017578125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7937831878662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6788997650146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7117252349854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6460762023926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8101959228516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2510681152344</t>
   </si>
   <si>
     <t xml:space="preserve">19.4808330535889</t>
@@ -1328,16 +1325,16 @@
     <t xml:space="preserve">19.2887344360352</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0514392852783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.492130279541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3226337432861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7633247375488</t>
+    <t xml:space="preserve">19.0514373779297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4921283721924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3226318359375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7633266448975</t>
   </si>
   <si>
     <t xml:space="preserve">19.6446781158447</t>
@@ -1346,13 +1343,13 @@
     <t xml:space="preserve">19.7294273376465</t>
   </si>
   <si>
-    <t xml:space="preserve">19.6955261230469</t>
+    <t xml:space="preserve">19.6955280303955</t>
   </si>
   <si>
     <t xml:space="preserve">19.6277294158936</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2717876434326</t>
+    <t xml:space="preserve">19.2717838287354</t>
   </si>
   <si>
     <t xml:space="preserve">19.5599308013916</t>
@@ -1361,19 +1358,19 @@
     <t xml:space="preserve">19.8311233520508</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7802772521973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5429782867432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5938282012939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4412822723389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8988933563232</t>
+    <t xml:space="preserve">19.7802791595459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5429821014404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5938301086426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4412803649902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.898889541626</t>
   </si>
   <si>
     <t xml:space="preserve">18.9158420562744</t>
@@ -1385,16 +1382,19 @@
     <t xml:space="preserve">19.0175399780273</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0683879852295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.983642578125</t>
+    <t xml:space="preserve">19.0683898925781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1361846923828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9836406707764</t>
   </si>
   <si>
     <t xml:space="preserve">19.1022891998291</t>
   </si>
   <si>
-    <t xml:space="preserve">19.5260314941406</t>
+    <t xml:space="preserve">19.526029586792</t>
   </si>
   <si>
     <t xml:space="preserve">19.6616287231445</t>
@@ -1409,7 +1409,7 @@
     <t xml:space="preserve">20.3396148681641</t>
   </si>
   <si>
-    <t xml:space="preserve">20.187068939209</t>
+    <t xml:space="preserve">20.1870670318604</t>
   </si>
   <si>
     <t xml:space="preserve">20.0175724029541</t>
@@ -1418,19 +1418,19 @@
     <t xml:space="preserve">19.9328231811523</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7124767303467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2379169464111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9158725738525</t>
+    <t xml:space="preserve">19.712474822998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2379150390625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9158706665039</t>
   </si>
   <si>
     <t xml:space="preserve">19.6107788085938</t>
   </si>
   <si>
-    <t xml:space="preserve">19.8480739593506</t>
+    <t xml:space="preserve">19.8480758666992</t>
   </si>
   <si>
     <t xml:space="preserve">20.4243640899658</t>
@@ -1439,7 +1439,7 @@
     <t xml:space="preserve">20.6447105407715</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6955585479736</t>
+    <t xml:space="preserve">20.695556640625</t>
   </si>
   <si>
     <t xml:space="preserve">20.3904647827148</t>
@@ -1448,13 +1448,13 @@
     <t xml:space="preserve">20.3057155609131</t>
   </si>
   <si>
-    <t xml:space="preserve">20.1701164245605</t>
+    <t xml:space="preserve">20.1701183319092</t>
   </si>
   <si>
     <t xml:space="preserve">20.2887668609619</t>
   </si>
   <si>
-    <t xml:space="preserve">20.2040176391602</t>
+    <t xml:space="preserve">20.2040195465088</t>
   </si>
   <si>
     <t xml:space="preserve">20.3565654754639</t>
@@ -1481,13 +1481,13 @@
     <t xml:space="preserve">20.7633571624756</t>
   </si>
   <si>
-    <t xml:space="preserve">21.102352142334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6108417510986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6955909729004</t>
+    <t xml:space="preserve">21.1023502349854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.61083984375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6955890655518</t>
   </si>
   <si>
     <t xml:space="preserve">21.5091438293457</t>
@@ -1502,10 +1502,10 @@
     <t xml:space="preserve">22.1023826599121</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4921913146973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7294864654541</t>
+    <t xml:space="preserve">21.4921932220459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7294883728027</t>
   </si>
   <si>
     <t xml:space="preserve">21.390495300293</t>
@@ -1514,10 +1514,10 @@
     <t xml:space="preserve">21.4074459075928</t>
   </si>
   <si>
-    <t xml:space="preserve">20.9667530059814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.729455947876</t>
+    <t xml:space="preserve">20.9667549133301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7294597625732</t>
   </si>
   <si>
     <t xml:space="preserve">20.5938606262207</t>
@@ -1526,7 +1526,7 @@
     <t xml:space="preserve">19.9667224884033</t>
   </si>
   <si>
-    <t xml:space="preserve">19.8819732666016</t>
+    <t xml:space="preserve">19.8819713592529</t>
   </si>
   <si>
     <t xml:space="preserve">19.5090808868408</t>
@@ -1544,19 +1544,19 @@
     <t xml:space="preserve">20.0853710174561</t>
   </si>
   <si>
-    <t xml:space="preserve">19.8989219665527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2378845214844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8819427490234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5090484619141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1870059967041</t>
+    <t xml:space="preserve">19.8989238739014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2378883361816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8819446563721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5090503692627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1870040893555</t>
   </si>
   <si>
     <t xml:space="preserve">18.2717533111572</t>
@@ -1565,16 +1565,16 @@
     <t xml:space="preserve">18.0175094604492</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6276988983154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9327583312988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1192073822021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9666633605957</t>
+    <t xml:space="preserve">18.6276969909668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9327602386475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1192054748535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9666595458984</t>
   </si>
   <si>
     <t xml:space="preserve">17.8649616241455</t>
@@ -1583,19 +1583,19 @@
     <t xml:space="preserve">18.1022567749023</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2378559112549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5260028839111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8480110168457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3564701080322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9666290283203</t>
+    <t xml:space="preserve">18.2378540039062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5259990692139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8480129241943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3564682006836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9666271209717</t>
   </si>
   <si>
     <t xml:space="preserve">17.085277557373</t>
@@ -1610,19 +1610,19 @@
     <t xml:space="preserve">16.271692276001</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6106853485107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4242362976074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3903408050537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7378063201904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8140811920166</t>
+    <t xml:space="preserve">16.6106872558594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4242401123047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3903388977051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7378101348877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8140830993652</t>
   </si>
   <si>
     <t xml:space="preserve">16.7039089202881</t>
@@ -1640,22 +1640,22 @@
     <t xml:space="preserve">17.3225727081299</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4920692443848</t>
+    <t xml:space="preserve">17.4920673370361</t>
   </si>
   <si>
     <t xml:space="preserve">17.6446151733398</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7971649169922</t>
+    <t xml:space="preserve">17.7971630096436</t>
   </si>
   <si>
     <t xml:space="preserve">18.2209053039551</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4073505401611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3395538330078</t>
+    <t xml:space="preserve">18.4073524475098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3395519256592</t>
   </si>
   <si>
     <t xml:space="preserve">17.9836101531982</t>
@@ -1667,7 +1667,7 @@
     <t xml:space="preserve">17.6615657806396</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2378253936768</t>
+    <t xml:space="preserve">17.2378234863281</t>
   </si>
   <si>
     <t xml:space="preserve">17.5768165588379</t>
@@ -1676,19 +1676,19 @@
     <t xml:space="preserve">17.7293643951416</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8819122314453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4412498474121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1531085968018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9158096313477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9497108459473</t>
+    <t xml:space="preserve">17.8819103240967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4412517547607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1531047821045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9158115386963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9497089385986</t>
   </si>
   <si>
     <t xml:space="preserve">17.8988628387451</t>
@@ -1697,13 +1697,13 @@
     <t xml:space="preserve">17.7463130950928</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7124156951904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6276664733887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7632637023926</t>
+    <t xml:space="preserve">17.7124118804932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6276683807373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7632617950439</t>
   </si>
   <si>
     <t xml:space="preserve">17.3056240081787</t>
@@ -1718,7 +1718,7 @@
     <t xml:space="preserve">17.2039241790771</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3903713226318</t>
+    <t xml:space="preserve">17.3903751373291</t>
   </si>
   <si>
     <t xml:space="preserve">17.2886714935303</t>
@@ -1742,16 +1742,16 @@
     <t xml:space="preserve">17.8141136169434</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5937690734863</t>
+    <t xml:space="preserve">17.5937671661377</t>
   </si>
   <si>
     <t xml:space="preserve">17.373420715332</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1700229644775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5005435943604</t>
+    <t xml:space="preserve">17.1700248718262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5005416870117</t>
   </si>
   <si>
     <t xml:space="preserve">17.2462997436523</t>
@@ -1760,13 +1760,13 @@
     <t xml:space="preserve">17.3310489654541</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4157962799072</t>
+    <t xml:space="preserve">17.4157943725586</t>
   </si>
   <si>
     <t xml:space="preserve">17.1615505218506</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0344295501709</t>
+    <t xml:space="preserve">17.0344314575195</t>
   </si>
   <si>
     <t xml:space="preserve">17.5852928161621</t>
@@ -1775,16 +1775,16 @@
     <t xml:space="preserve">17.6700401306152</t>
   </si>
   <si>
-    <t xml:space="preserve">18.348030090332</t>
+    <t xml:space="preserve">18.3480281829834</t>
   </si>
   <si>
     <t xml:space="preserve">18.1361560821533</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0937843322754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8395366668701</t>
+    <t xml:space="preserve">18.0937805175781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8395385742188</t>
   </si>
   <si>
     <t xml:space="preserve">18.009033203125</t>
@@ -1793,31 +1793,31 @@
     <t xml:space="preserve">17.754789352417</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9242858886719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1785335540771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9148941040039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0909595489502</t>
+    <t xml:space="preserve">17.9242839813232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1785316467285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9148921966553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0909576416016</t>
   </si>
   <si>
     <t xml:space="preserve">17.9589080810547</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8268604278564</t>
+    <t xml:space="preserve">17.8268585205078</t>
   </si>
   <si>
     <t xml:space="preserve">18.2670269012451</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1789951324463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2230110168457</t>
+    <t xml:space="preserve">18.1789932250977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2230129241943</t>
   </si>
   <si>
     <t xml:space="preserve">18.4871120452881</t>
@@ -1826,16 +1826,16 @@
     <t xml:space="preserve">18.4430961608887</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5311279296875</t>
+    <t xml:space="preserve">18.5311298370361</t>
   </si>
   <si>
     <t xml:space="preserve">18.3550624847412</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0029258728027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7828426361084</t>
+    <t xml:space="preserve">18.0029277801514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7828407287598</t>
   </si>
   <si>
     <t xml:space="preserve">17.6507911682129</t>
@@ -1847,19 +1847,19 @@
     <t xml:space="preserve">17.5011329650879</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5539531707764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7952308654785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7512130737305</t>
+    <t xml:space="preserve">17.553955078125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7952289581299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7512149810791</t>
   </si>
   <si>
     <t xml:space="preserve">18.5751476287842</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6191635131836</t>
+    <t xml:space="preserve">18.619161605835</t>
   </si>
   <si>
     <t xml:space="preserve">18.3110446929932</t>
@@ -1880,16 +1880,16 @@
     <t xml:space="preserve">17.1666049957275</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2722473144531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1137828826904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3074569702148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8320770263672</t>
+    <t xml:space="preserve">17.2722454071045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1137847900391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3074588775635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8320751190186</t>
   </si>
   <si>
     <t xml:space="preserve">16.6912212371826</t>
@@ -1898,22 +1898,22 @@
     <t xml:space="preserve">16.7616500854492</t>
   </si>
   <si>
-    <t xml:space="preserve">17.060962677002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4799404144287</t>
+    <t xml:space="preserve">17.0609645843506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4799385070801</t>
   </si>
   <si>
     <t xml:space="preserve">16.3743000030518</t>
   </si>
   <si>
-    <t xml:space="preserve">16.620792388916</t>
+    <t xml:space="preserve">16.6207942962646</t>
   </si>
   <si>
     <t xml:space="preserve">16.1101970672607</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3038711547852</t>
+    <t xml:space="preserve">16.3038730621338</t>
   </si>
   <si>
     <t xml:space="preserve">16.6560077667236</t>
@@ -1928,16 +1928,16 @@
     <t xml:space="preserve">16.3919067382812</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3214778900146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2334461212158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9025039672852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2898502349854</t>
+    <t xml:space="preserve">16.3214817047119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2334442138672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9025020599365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.289852142334</t>
   </si>
   <si>
     <t xml:space="preserve">17.3954925537109</t>
@@ -1946,10 +1946,10 @@
     <t xml:space="preserve">17.4483127593994</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6948089599609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0593318939209</t>
+    <t xml:space="preserve">17.6948108673096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0593338012695</t>
   </si>
   <si>
     <t xml:space="preserve">18.1349773406982</t>
@@ -1976,19 +1976,19 @@
     <t xml:space="preserve">17.1489963531494</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1313896179199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4835262298584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7264366149902</t>
+    <t xml:space="preserve">17.1313915252686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.483528137207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7264347076416</t>
   </si>
   <si>
     <t xml:space="preserve">16.6384010314941</t>
   </si>
   <si>
-    <t xml:space="preserve">16.550365447998</t>
+    <t xml:space="preserve">16.5503673553467</t>
   </si>
   <si>
     <t xml:space="preserve">16.4271202087402</t>
@@ -2000,13 +2000,13 @@
     <t xml:space="preserve">16.6736164093018</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8144683837891</t>
+    <t xml:space="preserve">16.8144702911377</t>
   </si>
   <si>
     <t xml:space="preserve">17.360279083252</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3250637054443</t>
+    <t xml:space="preserve">17.325065612793</t>
   </si>
   <si>
     <t xml:space="preserve">16.9553241729736</t>
@@ -2030,7 +2030,7 @@
     <t xml:space="preserve">17.5715599060059</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4235324859619</t>
+    <t xml:space="preserve">15.4235343933105</t>
   </si>
   <si>
     <t xml:space="preserve">15.7052431106567</t>
@@ -2042,13 +2042,13 @@
     <t xml:space="preserve">14.7896900177002</t>
   </si>
   <si>
-    <t xml:space="preserve">14.472767829895</t>
+    <t xml:space="preserve">14.4727697372437</t>
   </si>
   <si>
     <t xml:space="preserve">14.2614870071411</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0854187011719</t>
+    <t xml:space="preserve">14.0854196548462</t>
   </si>
   <si>
     <t xml:space="preserve">14.2086658477783</t>
@@ -2063,28 +2063,28 @@
     <t xml:space="preserve">13.1874732971191</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7085037231445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1838884353638</t>
+    <t xml:space="preserve">11.7085046768188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1838874816895</t>
   </si>
   <si>
     <t xml:space="preserve">10.7929525375366</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0042343139648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5640640258789</t>
+    <t xml:space="preserve">11.0042333602905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5640630722046</t>
   </si>
   <si>
     <t xml:space="preserve">10.9514131546021</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6064491271973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2050809860229</t>
+    <t xml:space="preserve">12.6064500808716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2050800323486</t>
   </si>
   <si>
     <t xml:space="preserve">13.6452503204346</t>
@@ -2093,7 +2093,7 @@
     <t xml:space="preserve">12.9233722686768</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0466184616089</t>
+    <t xml:space="preserve">13.0466194152832</t>
   </si>
   <si>
     <t xml:space="preserve">11.9021797180176</t>
@@ -2105,22 +2105,22 @@
     <t xml:space="preserve">11.3211545944214</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8281660079956</t>
+    <t xml:space="preserve">10.8281669616699</t>
   </si>
   <si>
     <t xml:space="preserve">11.0922679901123</t>
   </si>
   <si>
-    <t xml:space="preserve">11.162693977356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1803007125854</t>
+    <t xml:space="preserve">11.1626949310303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1803016662598</t>
   </si>
   <si>
     <t xml:space="preserve">11.0394468307495</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7753448486328</t>
+    <t xml:space="preserve">10.7753458023071</t>
   </si>
   <si>
     <t xml:space="preserve">10.6697044372559</t>
@@ -2129,34 +2129,34 @@
     <t xml:space="preserve">10.5816717147827</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1098737716675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3563680648804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9338064193726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6873121261597</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8809871673584</t>
+    <t xml:space="preserve">11.1098747253418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3563690185547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9338054656982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6873111724854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8809862136841</t>
   </si>
   <si>
     <t xml:space="preserve">10.6168851852417</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6520986557007</t>
+    <t xml:space="preserve">10.6520977020264</t>
   </si>
   <si>
     <t xml:space="preserve">10.7401323318481</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5288496017456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0358610153198</t>
+    <t xml:space="preserve">10.5288505554199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0358600616455</t>
   </si>
   <si>
     <t xml:space="preserve">10.0886821746826</t>
@@ -2168,16 +2168,16 @@
     <t xml:space="preserve">9.70133304595947</t>
   </si>
   <si>
-    <t xml:space="preserve">9.63090515136719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.282356262207</t>
+    <t xml:space="preserve">9.63090419769287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2823553085327</t>
   </si>
   <si>
     <t xml:space="preserve">10.7577390670776</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2999629974365</t>
+    <t xml:space="preserve">10.2999620437622</t>
   </si>
   <si>
     <t xml:space="preserve">9.96543407440186</t>
@@ -2192,61 +2192,61 @@
     <t xml:space="preserve">11.057053565979</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6732921600342</t>
+    <t xml:space="preserve">11.6732912063599</t>
   </si>
   <si>
     <t xml:space="preserve">11.5676507949829</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6556844711304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4796161651611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5500431060791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5360221862793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5008087158203</t>
+    <t xml:space="preserve">11.6556835174561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4796171188354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5500440597534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5360231399536</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5008096694946</t>
   </si>
   <si>
     <t xml:space="preserve">12.3071346282959</t>
   </si>
   <si>
-    <t xml:space="preserve">12.060640335083</t>
+    <t xml:space="preserve">12.0606393814087</t>
   </si>
   <si>
     <t xml:space="preserve">11.3387622833252</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6204710006714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6380786895752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9549989700317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9726066589355</t>
+    <t xml:space="preserve">11.6204700469971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6380777359009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9549999237061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9726057052612</t>
   </si>
   <si>
     <t xml:space="preserve">11.8669652938843</t>
   </si>
   <si>
-    <t xml:space="preserve">12.025426864624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.990213394165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.761323928833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6908979415894</t>
+    <t xml:space="preserve">12.0254259109497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9902124404907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7613248825073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.690896987915</t>
   </si>
   <si>
     <t xml:space="preserve">11.7437181472778</t>
@@ -2261,16 +2261,16 @@
     <t xml:space="preserve">11.2331228256226</t>
   </si>
   <si>
-    <t xml:space="preserve">11.02184009552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3035478591919</t>
+    <t xml:space="preserve">11.0218410491943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3035488128662</t>
   </si>
   <si>
     <t xml:space="preserve">10.986626625061</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8633794784546</t>
+    <t xml:space="preserve">10.8633804321289</t>
   </si>
   <si>
     <t xml:space="preserve">11.6028642654419</t>
@@ -2282,7 +2282,7 @@
     <t xml:space="preserve">11.1450881958008</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2683362960815</t>
+    <t xml:space="preserve">11.2683353424072</t>
   </si>
   <si>
     <t xml:space="preserve">11.1274814605713</t>
@@ -2297,22 +2297,22 @@
     <t xml:space="preserve">11.4444026947021</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2507295608521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8141441345215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1134595870972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1310663223267</t>
+    <t xml:space="preserve">11.2507286071777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8141450881958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1134605407715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.131067276001</t>
   </si>
   <si>
     <t xml:space="preserve">11.9197864532471</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5324382781982</t>
+    <t xml:space="preserve">11.5324373245239</t>
   </si>
   <si>
     <t xml:space="preserve">12.0078201293945</t>
@@ -2330,40 +2330,40 @@
     <t xml:space="preserve">12.9585857391357</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7120904922485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8001251220703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0114049911499</t>
+    <t xml:space="preserve">12.7120895385742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.800124168396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0114068984985</t>
   </si>
   <si>
     <t xml:space="preserve">12.0782470703125</t>
   </si>
   <si>
-    <t xml:space="preserve">11.796537399292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2859420776367</t>
+    <t xml:space="preserve">11.7965383529663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2859411239624</t>
   </si>
   <si>
     <t xml:space="preserve">10.8985929489136</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1415014266968</t>
+    <t xml:space="preserve">10.1415023803711</t>
   </si>
   <si>
     <t xml:space="preserve">10.2119293212891</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2471418380737</t>
+    <t xml:space="preserve">10.247142791748</t>
   </si>
   <si>
     <t xml:space="preserve">10.1943216323853</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3527841567993</t>
+    <t xml:space="preserve">10.352783203125</t>
   </si>
   <si>
     <t xml:space="preserve">13.2579021453857</t>
@@ -2372,25 +2372,25 @@
     <t xml:space="preserve">13.8037109375</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9409780502319</t>
+    <t xml:space="preserve">12.9409790039062</t>
   </si>
   <si>
     <t xml:space="preserve">13.6276426315308</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1382389068604</t>
+    <t xml:space="preserve">14.138237953186</t>
   </si>
   <si>
     <t xml:space="preserve">13.169867515564</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0290117263794</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5043964385986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6980695724487</t>
+    <t xml:space="preserve">13.029013633728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5043954849243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6980714797974</t>
   </si>
   <si>
     <t xml:space="preserve">13.9093523025513</t>
@@ -2402,10 +2402,10 @@
     <t xml:space="preserve">13.874137878418</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8213167190552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8917446136475</t>
+    <t xml:space="preserve">13.8213176727295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8917436599731</t>
   </si>
   <si>
     <t xml:space="preserve">13.838924407959</t>
@@ -2414,19 +2414,19 @@
     <t xml:space="preserve">13.4515752792358</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2226886749268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2755069732666</t>
+    <t xml:space="preserve">13.2226877212524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2755079269409</t>
   </si>
   <si>
     <t xml:space="preserve">13.5220022201538</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1346530914307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2402944564819</t>
+    <t xml:space="preserve">13.134654045105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2402935028076</t>
   </si>
   <si>
     <t xml:space="preserve">13.4339685440063</t>
@@ -2435,22 +2435,22 @@
     <t xml:space="preserve">13.7508907318115</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7156763076782</t>
+    <t xml:space="preserve">13.7156772613525</t>
   </si>
   <si>
     <t xml:space="preserve">14.3671274185181</t>
   </si>
   <si>
-    <t xml:space="preserve">14.842511177063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.247465133667</t>
+    <t xml:space="preserve">14.8425102233887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2474670410156</t>
   </si>
   <si>
     <t xml:space="preserve">15.476354598999</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5996026992798</t>
+    <t xml:space="preserve">15.5996007919312</t>
   </si>
   <si>
     <t xml:space="preserve">15.6700277328491</t>
@@ -2462,64 +2462,64 @@
     <t xml:space="preserve">14.9657573699951</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3178911209106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6876344680786</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6524219512939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3883190155029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2298593521118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1242179870605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1066131591797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6312284469604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8777227401733</t>
+    <t xml:space="preserve">15.3178939819336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6876373291016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6524238586426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3883209228516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2298583984375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1242208480835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1066122055054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6312303543091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.877724647522</t>
   </si>
   <si>
     <t xml:space="preserve">14.912938117981</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1594314575195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9693441390991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8460960388184</t>
+    <t xml:space="preserve">15.1594324111938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9693431854248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8460969924927</t>
   </si>
   <si>
     <t xml:space="preserve">16.3390846252441</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2862644195557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9729328155518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8108806610107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8989181518555</t>
+    <t xml:space="preserve">16.2862663269043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9729290008545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8108835220337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8989162445068</t>
   </si>
   <si>
     <t xml:space="preserve">15.8284893035889</t>
   </si>
   <si>
-    <t xml:space="preserve">15.916522026062</t>
+    <t xml:space="preserve">15.9165239334106</t>
   </si>
   <si>
     <t xml:space="preserve">16.7968616485596</t>
@@ -2528,25 +2528,25 @@
     <t xml:space="preserve">16.6031875610352</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0081443786621</t>
+    <t xml:space="preserve">17.0081424713135</t>
   </si>
   <si>
     <t xml:space="preserve">17.0785694122314</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0433559417725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5151519775391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9341306686401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1982345581055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1630210876465</t>
+    <t xml:space="preserve">17.0433578491211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5151538848877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9341316223145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1982307434082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1630172729492</t>
   </si>
   <si>
     <t xml:space="preserve">16.0749855041504</t>
@@ -2564,7 +2564,7 @@
     <t xml:space="preserve">16.4535293579102</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2070350646973</t>
+    <t xml:space="preserve">16.2070369720459</t>
   </si>
   <si>
     <t xml:space="preserve">16.1894283294678</t>
@@ -2576,7 +2576,7 @@
     <t xml:space="preserve">16.5327606201172</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8232746124268</t>
+    <t xml:space="preserve">16.8232727050781</t>
   </si>
   <si>
     <t xml:space="preserve">16.6824188232422</t>
@@ -2597,7 +2597,7 @@
     <t xml:space="preserve">17.404296875</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5979709625244</t>
+    <t xml:space="preserve">17.5979690551758</t>
   </si>
   <si>
     <t xml:space="preserve">16.8408794403076</t>
@@ -2606,28 +2606,28 @@
     <t xml:space="preserve">17.069766998291</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0961761474609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4747219085693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6419887542725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8532676696777</t>
+    <t xml:space="preserve">17.0961780548096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.474723815918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6419868469238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8532695770264</t>
   </si>
   <si>
     <t xml:space="preserve">17.7300224304199</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9413013458252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9765148162842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1877956390381</t>
+    <t xml:space="preserve">17.9413032531738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9765167236328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1877994537354</t>
   </si>
   <si>
     <t xml:space="preserve">18.3638668060303</t>
@@ -2636,31 +2636,31 @@
     <t xml:space="preserve">18.5047206878662</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5223274230957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2758312225342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7476291656494</t>
+    <t xml:space="preserve">18.5223255157471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2758293151855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7476272583008</t>
   </si>
   <si>
     <t xml:space="preserve">18.2054042816162</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0997619628906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0821552276611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9236946105957</t>
+    <t xml:space="preserve">18.0997638702393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0821571350098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9236965179443</t>
   </si>
   <si>
     <t xml:space="preserve">17.8004493713379</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8884792327881</t>
+    <t xml:space="preserve">17.8884811401367</t>
   </si>
   <si>
     <t xml:space="preserve">18.2582244873047</t>
@@ -2672,13 +2672,13 @@
     <t xml:space="preserve">18.1701908111572</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7652378082275</t>
+    <t xml:space="preserve">17.7652359008789</t>
   </si>
   <si>
     <t xml:space="preserve">18.4166851043701</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3286533355713</t>
+    <t xml:space="preserve">18.3286514282227</t>
   </si>
   <si>
     <t xml:space="preserve">17.9060878753662</t>
@@ -2690,19 +2690,19 @@
     <t xml:space="preserve">17.2018184661865</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2282276153564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6243801116943</t>
+    <t xml:space="preserve">17.2282295227051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.624382019043</t>
   </si>
   <si>
     <t xml:space="preserve">19.8428363800049</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3146324157715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2794170379639</t>
+    <t xml:space="preserve">19.3146305084229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2794189453125</t>
   </si>
   <si>
     <t xml:space="preserve">18.698392868042</t>
@@ -2714,34 +2714,34 @@
     <t xml:space="preserve">18.7336082458496</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8920650482178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4695053100586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3814697265625</t>
+    <t xml:space="preserve">18.8920669555664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4695072174072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3814716339111</t>
   </si>
   <si>
     <t xml:space="preserve">18.0645523071289</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8180541992188</t>
+    <t xml:space="preserve">17.8180561065674</t>
   </si>
   <si>
     <t xml:space="preserve">18.0117282867432</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2406177520752</t>
+    <t xml:space="preserve">18.2406158447266</t>
   </si>
   <si>
     <t xml:space="preserve">17.4130992889404</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4219036102295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0345554351807</t>
+    <t xml:space="preserve">17.4219017028809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.034553527832</t>
   </si>
   <si>
     <t xml:space="preserve">17.1578006744385</t>
@@ -2750,7 +2750,7 @@
     <t xml:space="preserve">18.6103591918945</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1173686981201</t>
+    <t xml:space="preserve">18.1173706054688</t>
   </si>
   <si>
     <t xml:space="preserve">18.2934398651123</t>
@@ -2759,7 +2759,7 @@
     <t xml:space="preserve">18.76881980896</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5575408935547</t>
+    <t xml:space="preserve">18.5575389862061</t>
   </si>
   <si>
     <t xml:space="preserve">18.3361072540283</t>
@@ -2777,7 +2777,7 @@
     <t xml:space="preserve">18.4793586730957</t>
   </si>
   <si>
-    <t xml:space="preserve">18.443546295166</t>
+    <t xml:space="preserve">18.4435443878174</t>
   </si>
   <si>
     <t xml:space="preserve">18.7479553222656</t>
@@ -2786,7 +2786,7 @@
     <t xml:space="preserve">18.5151710510254</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5330772399902</t>
+    <t xml:space="preserve">18.5330791473389</t>
   </si>
   <si>
     <t xml:space="preserve">18.2286682128906</t>
@@ -2807,10 +2807,10 @@
     <t xml:space="preserve">18.1391372680664</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9063549041748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7810096740723</t>
+    <t xml:space="preserve">17.9063568115234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7810115814209</t>
   </si>
   <si>
     <t xml:space="preserve">18.2644805908203</t>
@@ -2822,7 +2822,7 @@
     <t xml:space="preserve">17.0826625823975</t>
   </si>
   <si>
-    <t xml:space="preserve">17.136381149292</t>
+    <t xml:space="preserve">17.1363830566406</t>
   </si>
   <si>
     <t xml:space="preserve">16.760347366333</t>
@@ -2837,10 +2837,10 @@
     <t xml:space="preserve">16.3574562072754</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4738483428955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0261859893799</t>
+    <t xml:space="preserve">16.4738464355469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0261878967285</t>
   </si>
   <si>
     <t xml:space="preserve">16.3664093017578</t>
@@ -2864,16 +2864,16 @@
     <t xml:space="preserve">16.8677864074707</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9931297302246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9125518798828</t>
+    <t xml:space="preserve">16.9931316375732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9125499725342</t>
   </si>
   <si>
     <t xml:space="preserve">16.7334880828857</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7424430847168</t>
+    <t xml:space="preserve">16.7424411773682</t>
   </si>
   <si>
     <t xml:space="preserve">16.4648933410645</t>
@@ -2885,7 +2885,7 @@
     <t xml:space="preserve">16.1157188415527</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1694393157959</t>
+    <t xml:space="preserve">16.1694374084473</t>
   </si>
   <si>
     <t xml:space="preserve">16.3395481109619</t>
@@ -2900,7 +2900,7 @@
     <t xml:space="preserve">17.2975387573242</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4586963653564</t>
+    <t xml:space="preserve">17.4586944580078</t>
   </si>
   <si>
     <t xml:space="preserve">16.5454711914062</t>
@@ -2912,13 +2912,13 @@
     <t xml:space="preserve">17.0199909210205</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9483642578125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3154468536377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8946475982666</t>
+    <t xml:space="preserve">16.9483661651611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3154449462891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.894645690918</t>
   </si>
   <si>
     <t xml:space="preserve">17.0020847320557</t>
@@ -2930,13 +2930,13 @@
     <t xml:space="preserve">15.9366550445557</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0799045562744</t>
+    <t xml:space="preserve">16.079906463623</t>
   </si>
   <si>
     <t xml:space="preserve">16.4827995300293</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7872066497803</t>
+    <t xml:space="preserve">16.7872085571289</t>
   </si>
   <si>
     <t xml:space="preserve">16.5186138153076</t>
@@ -2963,13 +2963,13 @@
     <t xml:space="preserve">16.0978126525879</t>
   </si>
   <si>
-    <t xml:space="preserve">16.384313583374</t>
+    <t xml:space="preserve">16.3843154907227</t>
   </si>
   <si>
     <t xml:space="preserve">16.590238571167</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4290809631348</t>
+    <t xml:space="preserve">16.4290828704834</t>
   </si>
   <si>
     <t xml:space="preserve">16.0888595581055</t>
@@ -2981,19 +2981,19 @@
     <t xml:space="preserve">15.2920265197754</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5847272872925</t>
+    <t xml:space="preserve">14.5847263336182</t>
   </si>
   <si>
     <t xml:space="preserve">14.9159936904907</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9876184463501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2534580230713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4235687255859</t>
+    <t xml:space="preserve">14.9876194000244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2534589767456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4235696792603</t>
   </si>
   <si>
     <t xml:space="preserve">13.949049949646</t>
@@ -3005,19 +3005,19 @@
     <t xml:space="preserve">13.3760471343994</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6983623504639</t>
+    <t xml:space="preserve">13.6983613967896</t>
   </si>
   <si>
     <t xml:space="preserve">14.1549739837646</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9311437606812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3429908752441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7727432250977</t>
+    <t xml:space="preserve">13.9311447143555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3429899215698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7727422714233</t>
   </si>
   <si>
     <t xml:space="preserve">14.1370677947998</t>
@@ -3056,10 +3056,10 @@
     <t xml:space="preserve">13.232795715332</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8746690750122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0358276367188</t>
+    <t xml:space="preserve">12.8746700286865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0358266830444</t>
   </si>
   <si>
     <t xml:space="preserve">13.1074514389038</t>
@@ -3074,10 +3074,10 @@
     <t xml:space="preserve">14.2355518341064</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2176456451416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2713651657104</t>
+    <t xml:space="preserve">14.2176465988159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2713642120361</t>
   </si>
   <si>
     <t xml:space="preserve">14.6294927597046</t>
@@ -3089,7 +3089,7 @@
     <t xml:space="preserve">14.0385828018188</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7520799636841</t>
+    <t xml:space="preserve">13.7520809173584</t>
   </si>
   <si>
     <t xml:space="preserve">13.8774251937866</t>
@@ -3098,10 +3098,10 @@
     <t xml:space="preserve">13.4834861755371</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5551099777222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1611700057983</t>
+    <t xml:space="preserve">13.5551109313965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1611709594727</t>
   </si>
   <si>
     <t xml:space="preserve">12.9642000198364</t>
@@ -3110,22 +3110,22 @@
     <t xml:space="preserve">12.7851371765137</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6060733795166</t>
+    <t xml:space="preserve">12.6060743331909</t>
   </si>
   <si>
     <t xml:space="preserve">12.8925752639771</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9104814529419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9821071624756</t>
+    <t xml:space="preserve">12.9104824066162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9821081161499</t>
   </si>
   <si>
     <t xml:space="preserve">13.2148895263672</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1432647705078</t>
+    <t xml:space="preserve">13.1432638168335</t>
   </si>
   <si>
     <t xml:space="preserve">13.0537328720093</t>
@@ -3134,7 +3134,7 @@
     <t xml:space="preserve">12.5523548126221</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3911981582642</t>
+    <t xml:space="preserve">12.3911972045898</t>
   </si>
   <si>
     <t xml:space="preserve">12.3633937835693</t>
@@ -3143,13 +3143,13 @@
     <t xml:space="preserve">12.178035736084</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0668201446533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6228952407837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6414308547974</t>
+    <t xml:space="preserve">12.0668210983276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6228942871094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6414318084717</t>
   </si>
   <si>
     <t xml:space="preserve">13.1975049972534</t>
@@ -3158,25 +3158,25 @@
     <t xml:space="preserve">12.8453245162964</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7526454925537</t>
+    <t xml:space="preserve">12.752646446228</t>
   </si>
   <si>
     <t xml:space="preserve">12.7155742645264</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9380035400391</t>
+    <t xml:space="preserve">12.9380044937134</t>
   </si>
   <si>
     <t xml:space="preserve">13.0862903594971</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3272562026978</t>
+    <t xml:space="preserve">13.3272571563721</t>
   </si>
   <si>
     <t xml:space="preserve">13.0677547454834</t>
   </si>
   <si>
-    <t xml:space="preserve">12.307785987854</t>
+    <t xml:space="preserve">12.3077850341797</t>
   </si>
   <si>
     <t xml:space="preserve">12.1409645080566</t>
@@ -3185,7 +3185,7 @@
     <t xml:space="preserve">11.881462097168</t>
   </si>
   <si>
-    <t xml:space="preserve">12.437536239624</t>
+    <t xml:space="preserve">12.4375371932983</t>
   </si>
   <si>
     <t xml:space="preserve">12.2892503738403</t>
@@ -3206,13 +3206,13 @@
     <t xml:space="preserve">12.4746084213257</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1965713500977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9556045532227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4736747741699</t>
+    <t xml:space="preserve">12.1965703964233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.955605506897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4736738204956</t>
   </si>
   <si>
     <t xml:space="preserve">11.73317527771</t>
@@ -3224,13 +3224,13 @@
     <t xml:space="preserve">12.085355758667</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9370698928833</t>
+    <t xml:space="preserve">11.937068939209</t>
   </si>
   <si>
     <t xml:space="preserve">11.7146396636963</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5107460021973</t>
+    <t xml:space="preserve">11.5107450485229</t>
   </si>
   <si>
     <t xml:space="preserve">12.0297479629517</t>
@@ -3248,7 +3248,7 @@
     <t xml:space="preserve">12.3263216018677</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5116806030273</t>
+    <t xml:space="preserve">12.511679649353</t>
   </si>
   <si>
     <t xml:space="preserve">12.5487518310547</t>
@@ -3266,22 +3266,22 @@
     <t xml:space="preserve">12.252179145813</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1224279403687</t>
+    <t xml:space="preserve">12.1224269866943</t>
   </si>
   <si>
     <t xml:space="preserve">11.7887830734253</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7702465057373</t>
+    <t xml:space="preserve">11.7702474594116</t>
   </si>
   <si>
     <t xml:space="preserve">11.3809947967529</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3439226150513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3253879547119</t>
+    <t xml:space="preserve">11.3439235687256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3253870010376</t>
   </si>
   <si>
     <t xml:space="preserve">11.1585655212402</t>
@@ -3290,13 +3290,13 @@
     <t xml:space="preserve">10.9175987243652</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8619918823242</t>
+    <t xml:space="preserve">10.8619928359985</t>
   </si>
   <si>
     <t xml:space="preserve">10.6766338348389</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7693119049072</t>
+    <t xml:space="preserve">10.7693128585815</t>
   </si>
   <si>
     <t xml:space="preserve">10.3800601959229</t>
@@ -3308,10 +3308,10 @@
     <t xml:space="preserve">10.4171314239502</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3615245819092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6024904251099</t>
+    <t xml:space="preserve">10.3615255355835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6024894714355</t>
   </si>
   <si>
     <t xml:space="preserve">10.8249206542969</t>
@@ -3320,13 +3320,13 @@
     <t xml:space="preserve">9.86105823516846</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1020221710205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.78691387176514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.82398700714111</t>
+    <t xml:space="preserve">10.1020231246948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.78691482543945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.8239860534668</t>
   </si>
   <si>
     <t xml:space="preserve">9.62009143829346</t>
@@ -3344,10 +3344,10 @@
     <t xml:space="preserve">9.00840950012207</t>
   </si>
   <si>
-    <t xml:space="preserve">8.69330024719238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.96207046508789</t>
+    <t xml:space="preserve">8.6933012008667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.96206951141357</t>
   </si>
   <si>
     <t xml:space="preserve">8.98060607910156</t>
@@ -3359,13 +3359,13 @@
     <t xml:space="preserve">9.09182167053223</t>
   </si>
   <si>
-    <t xml:space="preserve">8.86012363433838</t>
+    <t xml:space="preserve">8.86012268066406</t>
   </si>
   <si>
     <t xml:space="preserve">9.07328510284424</t>
   </si>
   <si>
-    <t xml:space="preserve">9.11962413787842</t>
+    <t xml:space="preserve">9.11962509155273</t>
   </si>
   <si>
     <t xml:space="preserve">9.39766216278076</t>
@@ -3380,25 +3380,25 @@
     <t xml:space="preserve">9.56448459625244</t>
   </si>
   <si>
-    <t xml:space="preserve">9.37912559509277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.26791095733643</t>
+    <t xml:space="preserve">9.37912654876709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.26791191101074</t>
   </si>
   <si>
     <t xml:space="preserve">9.58302021026611</t>
   </si>
   <si>
-    <t xml:space="preserve">9.65716361999512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.99080753326416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.87959289550781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.84252166748047</t>
+    <t xml:space="preserve">9.6571626663208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.99080848693848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.87959384918213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.84252071380615</t>
   </si>
   <si>
     <t xml:space="preserve">9.9722728729248</t>
@@ -3413,7 +3413,7 @@
     <t xml:space="preserve">10.2132387161255</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5283470153809</t>
+    <t xml:space="preserve">10.5283460617065</t>
   </si>
   <si>
     <t xml:space="preserve">10.8990640640259</t>
@@ -3422,7 +3422,7 @@
     <t xml:space="preserve">10.2503099441528</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2317743301392</t>
+    <t xml:space="preserve">10.2317733764648</t>
   </si>
   <si>
     <t xml:space="preserve">10.2688455581665</t>
@@ -3431,19 +3431,19 @@
     <t xml:space="preserve">10.4356679916382</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6580972671509</t>
+    <t xml:space="preserve">10.6580982208252</t>
   </si>
   <si>
     <t xml:space="preserve">10.2873821258545</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5468835830688</t>
+    <t xml:space="preserve">10.5468826293945</t>
   </si>
   <si>
     <t xml:space="preserve">10.5839548110962</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4912757873535</t>
+    <t xml:space="preserve">10.4912748336792</t>
   </si>
   <si>
     <t xml:space="preserve">10.4727401733398</t>
@@ -3455,7 +3455,7 @@
     <t xml:space="preserve">10.6951694488525</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3985958099365</t>
+    <t xml:space="preserve">10.3985967636108</t>
   </si>
   <si>
     <t xml:space="preserve">10.5654182434082</t>
@@ -3464,7 +3464,7 @@
     <t xml:space="preserve">10.6210260391235</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0844211578369</t>
+    <t xml:space="preserve">11.0844221115112</t>
   </si>
   <si>
     <t xml:space="preserve">11.3068513870239</t>
@@ -3482,7 +3482,7 @@
     <t xml:space="preserve">11.5848894119263</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6961030960083</t>
+    <t xml:space="preserve">11.6961040496826</t>
   </si>
   <si>
     <t xml:space="preserve">12.0482845306396</t>
@@ -3506,19 +3506,19 @@
     <t xml:space="preserve">11.2512445449829</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2141733169556</t>
+    <t xml:space="preserve">11.2141723632812</t>
   </si>
   <si>
     <t xml:space="preserve">11.1214933395386</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8063850402832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8434562683105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6395616531372</t>
+    <t xml:space="preserve">10.8063840866089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8434553146362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6395606994629</t>
   </si>
   <si>
     <t xml:space="preserve">10.4542036056519</t>
@@ -3533,13 +3533,13 @@
     <t xml:space="preserve">10.9917421340942</t>
   </si>
   <si>
-    <t xml:space="preserve">12.233642578125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6785020828247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.418999671936</t>
+    <t xml:space="preserve">12.2336416244507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.678503036499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4190006256104</t>
   </si>
   <si>
     <t xml:space="preserve">12.8638610839844</t>
@@ -3554,7 +3554,7 @@
     <t xml:space="preserve">12.60435962677</t>
   </si>
   <si>
-    <t xml:space="preserve">12.808253288269</t>
+    <t xml:space="preserve">12.8082523345947</t>
   </si>
   <si>
     <t xml:space="preserve">12.7711811065674</t>
@@ -3566,7 +3566,7 @@
     <t xml:space="preserve">13.9760093688965</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8647956848145</t>
+    <t xml:space="preserve">13.8647947311401</t>
   </si>
   <si>
     <t xml:space="preserve">13.6609010696411</t>
@@ -9844,7 +9844,7 @@
         <v>17.0300006866455</v>
       </c>
       <c r="G209" t="s">
-        <v>166</v>
+        <v>87</v>
       </c>
       <c r="H209" t="s">
         <v>9</v>
@@ -9870,7 +9870,7 @@
         <v>16.9400005340576</v>
       </c>
       <c r="G210" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H210" t="s">
         <v>9</v>
@@ -9896,7 +9896,7 @@
         <v>16.7999992370605</v>
       </c>
       <c r="G211" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H211" t="s">
         <v>9</v>
@@ -9922,7 +9922,7 @@
         <v>16.7600002288818</v>
       </c>
       <c r="G212" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H212" t="s">
         <v>9</v>
@@ -9948,7 +9948,7 @@
         <v>16.7399997711182</v>
       </c>
       <c r="G213" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H213" t="s">
         <v>9</v>
@@ -9974,7 +9974,7 @@
         <v>16.7800006866455</v>
       </c>
       <c r="G214" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H214" t="s">
         <v>9</v>
@@ -10000,7 +10000,7 @@
         <v>16.7700004577637</v>
       </c>
       <c r="G215" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H215" t="s">
         <v>9</v>
@@ -10026,7 +10026,7 @@
         <v>16.5900001525879</v>
       </c>
       <c r="G216" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H216" t="s">
         <v>9</v>
@@ -10052,7 +10052,7 @@
         <v>16.3999996185303</v>
       </c>
       <c r="G217" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H217" t="s">
         <v>9</v>
@@ -10104,7 +10104,7 @@
         <v>16.6599998474121</v>
       </c>
       <c r="G219" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H219" t="s">
         <v>9</v>
@@ -10208,7 +10208,7 @@
         <v>16.7000007629395</v>
       </c>
       <c r="G223" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H223" t="s">
         <v>9</v>
@@ -10234,7 +10234,7 @@
         <v>16.5599994659424</v>
       </c>
       <c r="G224" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H224" t="s">
         <v>9</v>
@@ -10260,7 +10260,7 @@
         <v>16</v>
       </c>
       <c r="G225" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H225" t="s">
         <v>9</v>
@@ -10286,7 +10286,7 @@
         <v>16.5100002288818</v>
       </c>
       <c r="G226" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H226" t="s">
         <v>9</v>
@@ -10312,7 +10312,7 @@
         <v>16.7999992370605</v>
       </c>
       <c r="G227" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H227" t="s">
         <v>9</v>
@@ -10338,7 +10338,7 @@
         <v>16.6900005340576</v>
       </c>
       <c r="G228" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H228" t="s">
         <v>9</v>
@@ -10364,7 +10364,7 @@
         <v>16.5400009155273</v>
       </c>
       <c r="G229" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H229" t="s">
         <v>9</v>
@@ -10390,7 +10390,7 @@
         <v>16.7000007629395</v>
       </c>
       <c r="G230" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H230" t="s">
         <v>9</v>
@@ -10416,7 +10416,7 @@
         <v>16.6599998474121</v>
       </c>
       <c r="G231" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H231" t="s">
         <v>9</v>
@@ -10442,7 +10442,7 @@
         <v>16.5900001525879</v>
       </c>
       <c r="G232" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H232" t="s">
         <v>9</v>
@@ -10468,7 +10468,7 @@
         <v>16.5699996948242</v>
       </c>
       <c r="G233" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H233" t="s">
         <v>9</v>
@@ -10494,7 +10494,7 @@
         <v>16.3899993896484</v>
       </c>
       <c r="G234" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H234" t="s">
         <v>9</v>
@@ -10520,7 +10520,7 @@
         <v>16.25</v>
       </c>
       <c r="G235" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H235" t="s">
         <v>9</v>
@@ -10546,7 +10546,7 @@
         <v>16.3700008392334</v>
       </c>
       <c r="G236" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H236" t="s">
         <v>9</v>
@@ -10572,7 +10572,7 @@
         <v>16.4799995422363</v>
       </c>
       <c r="G237" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H237" t="s">
         <v>9</v>
@@ -10598,7 +10598,7 @@
         <v>16.4599990844727</v>
       </c>
       <c r="G238" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H238" t="s">
         <v>9</v>
@@ -10650,7 +10650,7 @@
         <v>17</v>
       </c>
       <c r="G240" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H240" t="s">
         <v>9</v>
@@ -10702,7 +10702,7 @@
         <v>16.9300003051758</v>
       </c>
       <c r="G242" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H242" t="s">
         <v>9</v>
@@ -10754,7 +10754,7 @@
         <v>17</v>
       </c>
       <c r="G244" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H244" t="s">
         <v>9</v>
@@ -10780,7 +10780,7 @@
         <v>17.0799999237061</v>
       </c>
       <c r="G245" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H245" t="s">
         <v>9</v>
@@ -10806,7 +10806,7 @@
         <v>17.4899997711182</v>
       </c>
       <c r="G246" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H246" t="s">
         <v>9</v>
@@ -10858,7 +10858,7 @@
         <v>17.2999992370605</v>
       </c>
       <c r="G248" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H248" t="s">
         <v>9</v>
@@ -10910,7 +10910,7 @@
         <v>17.5400009155273</v>
       </c>
       <c r="G250" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H250" t="s">
         <v>9</v>
@@ -10936,7 +10936,7 @@
         <v>17.3500003814697</v>
       </c>
       <c r="G251" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H251" t="s">
         <v>9</v>
@@ -10988,7 +10988,7 @@
         <v>17.5499992370605</v>
       </c>
       <c r="G253" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H253" t="s">
         <v>9</v>
@@ -11014,7 +11014,7 @@
         <v>17.5799999237061</v>
       </c>
       <c r="G254" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H254" t="s">
         <v>9</v>
@@ -11040,7 +11040,7 @@
         <v>17.6100006103516</v>
       </c>
       <c r="G255" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H255" t="s">
         <v>9</v>
@@ -11092,7 +11092,7 @@
         <v>17.3500003814697</v>
       </c>
       <c r="G257" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H257" t="s">
         <v>9</v>
@@ -11144,7 +11144,7 @@
         <v>17.5400009155273</v>
       </c>
       <c r="G259" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H259" t="s">
         <v>9</v>
@@ -11196,7 +11196,7 @@
         <v>17.5900001525879</v>
       </c>
       <c r="G261" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H261" t="s">
         <v>9</v>
@@ -11222,7 +11222,7 @@
         <v>17.6700000762939</v>
       </c>
       <c r="G262" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H262" t="s">
         <v>9</v>
@@ -11300,7 +11300,7 @@
         <v>17.3700008392334</v>
       </c>
       <c r="G265" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H265" t="s">
         <v>9</v>
@@ -11378,7 +11378,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G268" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H268" t="s">
         <v>9</v>
@@ -11430,7 +11430,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G270" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H270" t="s">
         <v>9</v>
@@ -11456,7 +11456,7 @@
         <v>17.8799991607666</v>
       </c>
       <c r="G271" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H271" t="s">
         <v>9</v>
@@ -11508,7 +11508,7 @@
         <v>18.5200004577637</v>
       </c>
       <c r="G273" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H273" t="s">
         <v>9</v>
@@ -11534,7 +11534,7 @@
         <v>18.5900001525879</v>
       </c>
       <c r="G274" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H274" t="s">
         <v>9</v>
@@ -11586,7 +11586,7 @@
         <v>18.0599994659424</v>
       </c>
       <c r="G276" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H276" t="s">
         <v>9</v>
@@ -11612,7 +11612,7 @@
         <v>17.9599990844727</v>
       </c>
       <c r="G277" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H277" t="s">
         <v>9</v>
@@ -11638,7 +11638,7 @@
         <v>17.8500003814697</v>
       </c>
       <c r="G278" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H278" t="s">
         <v>9</v>
@@ -11664,7 +11664,7 @@
         <v>17.9799995422363</v>
       </c>
       <c r="G279" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H279" t="s">
         <v>9</v>
@@ -11690,7 +11690,7 @@
         <v>18.0499992370605</v>
       </c>
       <c r="G280" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H280" t="s">
         <v>9</v>
@@ -11716,7 +11716,7 @@
         <v>17.9500007629395</v>
       </c>
       <c r="G281" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H281" t="s">
         <v>9</v>
@@ -11742,7 +11742,7 @@
         <v>18.4699993133545</v>
       </c>
       <c r="G282" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H282" t="s">
         <v>9</v>
@@ -11768,7 +11768,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G283" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H283" t="s">
         <v>9</v>
@@ -11820,7 +11820,7 @@
         <v>18.4400005340576</v>
       </c>
       <c r="G285" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H285" t="s">
         <v>9</v>
@@ -11846,7 +11846,7 @@
         <v>18.4099998474121</v>
       </c>
       <c r="G286" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H286" t="s">
         <v>9</v>
@@ -11872,7 +11872,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G287" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H287" t="s">
         <v>9</v>
@@ -11898,7 +11898,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G288" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H288" t="s">
         <v>9</v>
@@ -11924,7 +11924,7 @@
         <v>18.2999992370605</v>
       </c>
       <c r="G289" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H289" t="s">
         <v>9</v>
@@ -11950,7 +11950,7 @@
         <v>18.4899997711182</v>
       </c>
       <c r="G290" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H290" t="s">
         <v>9</v>
@@ -11976,7 +11976,7 @@
         <v>18.2700004577637</v>
       </c>
       <c r="G291" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H291" t="s">
         <v>9</v>
@@ -12002,7 +12002,7 @@
         <v>18.4099998474121</v>
       </c>
       <c r="G292" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H292" t="s">
         <v>9</v>
@@ -12054,7 +12054,7 @@
         <v>18.2999992370605</v>
       </c>
       <c r="G294" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H294" t="s">
         <v>9</v>
@@ -12080,7 +12080,7 @@
         <v>18.5100002288818</v>
       </c>
       <c r="G295" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H295" t="s">
         <v>9</v>
@@ -12106,7 +12106,7 @@
         <v>18.3899993896484</v>
       </c>
       <c r="G296" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H296" t="s">
         <v>9</v>
@@ -12132,7 +12132,7 @@
         <v>18.1200008392334</v>
       </c>
       <c r="G297" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H297" t="s">
         <v>9</v>
@@ -12158,7 +12158,7 @@
         <v>18.5599994659424</v>
       </c>
       <c r="G298" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H298" t="s">
         <v>9</v>
@@ -12184,7 +12184,7 @@
         <v>19.1499996185303</v>
       </c>
       <c r="G299" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H299" t="s">
         <v>9</v>
@@ -12210,7 +12210,7 @@
         <v>19.4500007629395</v>
       </c>
       <c r="G300" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H300" t="s">
         <v>9</v>
@@ -12236,7 +12236,7 @@
         <v>19.3899993896484</v>
       </c>
       <c r="G301" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H301" t="s">
         <v>9</v>
@@ -12262,7 +12262,7 @@
         <v>19.6299991607666</v>
       </c>
       <c r="G302" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H302" t="s">
         <v>9</v>
@@ -12288,7 +12288,7 @@
         <v>20</v>
       </c>
       <c r="G303" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H303" t="s">
         <v>9</v>
@@ -12314,7 +12314,7 @@
         <v>19.9500007629395</v>
       </c>
       <c r="G304" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H304" t="s">
         <v>9</v>
@@ -12340,7 +12340,7 @@
         <v>19.9599990844727</v>
       </c>
       <c r="G305" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H305" t="s">
         <v>9</v>
@@ -12366,7 +12366,7 @@
         <v>19.7999992370605</v>
       </c>
       <c r="G306" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H306" t="s">
         <v>9</v>
@@ -12392,7 +12392,7 @@
         <v>19.9500007629395</v>
       </c>
       <c r="G307" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H307" t="s">
         <v>9</v>
@@ -12418,7 +12418,7 @@
         <v>20.3099994659424</v>
       </c>
       <c r="G308" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H308" t="s">
         <v>9</v>
@@ -12444,7 +12444,7 @@
         <v>20.9899997711182</v>
       </c>
       <c r="G309" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H309" t="s">
         <v>9</v>
@@ -12470,7 +12470,7 @@
         <v>20.2199993133545</v>
       </c>
       <c r="G310" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H310" t="s">
         <v>9</v>
@@ -12496,7 +12496,7 @@
         <v>20.25</v>
       </c>
       <c r="G311" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H311" t="s">
         <v>9</v>
@@ -12522,7 +12522,7 @@
         <v>20.4200000762939</v>
       </c>
       <c r="G312" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H312" t="s">
         <v>9</v>
@@ -12548,7 +12548,7 @@
         <v>20.5200004577637</v>
       </c>
       <c r="G313" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H313" t="s">
         <v>9</v>
@@ -12574,7 +12574,7 @@
         <v>20.3400001525879</v>
       </c>
       <c r="G314" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H314" t="s">
         <v>9</v>
@@ -12600,7 +12600,7 @@
         <v>20.5</v>
       </c>
       <c r="G315" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H315" t="s">
         <v>9</v>
@@ -12626,7 +12626,7 @@
         <v>20.9500007629395</v>
       </c>
       <c r="G316" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H316" t="s">
         <v>9</v>
@@ -12652,7 +12652,7 @@
         <v>21</v>
       </c>
       <c r="G317" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H317" t="s">
         <v>9</v>
@@ -12678,7 +12678,7 @@
         <v>20.75</v>
       </c>
       <c r="G318" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H318" t="s">
         <v>9</v>
@@ -12704,7 +12704,7 @@
         <v>20.6499996185303</v>
       </c>
       <c r="G319" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H319" t="s">
         <v>9</v>
@@ -12730,7 +12730,7 @@
         <v>20.2600002288818</v>
       </c>
       <c r="G320" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H320" t="s">
         <v>9</v>
@@ -12756,7 +12756,7 @@
         <v>20.3400001525879</v>
       </c>
       <c r="G321" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H321" t="s">
         <v>9</v>
@@ -12782,7 +12782,7 @@
         <v>20.2999992370605</v>
       </c>
       <c r="G322" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H322" t="s">
         <v>9</v>
@@ -12808,7 +12808,7 @@
         <v>20.6499996185303</v>
       </c>
       <c r="G323" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H323" t="s">
         <v>9</v>
@@ -12834,7 +12834,7 @@
         <v>20.7700004577637</v>
       </c>
       <c r="G324" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H324" t="s">
         <v>9</v>
@@ -12860,7 +12860,7 @@
         <v>20.6000003814697</v>
       </c>
       <c r="G325" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H325" t="s">
         <v>9</v>
@@ -12886,7 +12886,7 @@
         <v>20.6499996185303</v>
       </c>
       <c r="G326" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H326" t="s">
         <v>9</v>
@@ -12912,7 +12912,7 @@
         <v>20.8400001525879</v>
       </c>
       <c r="G327" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H327" t="s">
         <v>9</v>
@@ -12938,7 +12938,7 @@
         <v>20.8999996185303</v>
       </c>
       <c r="G328" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H328" t="s">
         <v>9</v>
@@ -12964,7 +12964,7 @@
         <v>21</v>
       </c>
       <c r="G329" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H329" t="s">
         <v>9</v>
@@ -12990,7 +12990,7 @@
         <v>21.0200004577637</v>
       </c>
       <c r="G330" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H330" t="s">
         <v>9</v>
@@ -13016,7 +13016,7 @@
         <v>20.8199996948242</v>
       </c>
       <c r="G331" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H331" t="s">
         <v>9</v>
@@ -13042,7 +13042,7 @@
         <v>21.25</v>
       </c>
       <c r="G332" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H332" t="s">
         <v>9</v>
@@ -13068,7 +13068,7 @@
         <v>21.9400005340576</v>
       </c>
       <c r="G333" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H333" t="s">
         <v>9</v>
@@ -13094,7 +13094,7 @@
         <v>21.5400009155273</v>
       </c>
       <c r="G334" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H334" t="s">
         <v>9</v>
@@ -13120,7 +13120,7 @@
         <v>20.9699993133545</v>
       </c>
       <c r="G335" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H335" t="s">
         <v>9</v>
@@ -13146,7 +13146,7 @@
         <v>21.75</v>
       </c>
       <c r="G336" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H336" t="s">
         <v>9</v>
@@ -13172,7 +13172,7 @@
         <v>21.8099994659424</v>
       </c>
       <c r="G337" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H337" t="s">
         <v>9</v>
@@ -13198,7 +13198,7 @@
         <v>21.7199993133545</v>
       </c>
       <c r="G338" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H338" t="s">
         <v>9</v>
@@ -13224,7 +13224,7 @@
         <v>21.7299995422363</v>
       </c>
       <c r="G339" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H339" t="s">
         <v>9</v>
@@ -13250,7 +13250,7 @@
         <v>22.1700000762939</v>
       </c>
       <c r="G340" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H340" t="s">
         <v>9</v>
@@ -13276,7 +13276,7 @@
         <v>22.4200000762939</v>
       </c>
       <c r="G341" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H341" t="s">
         <v>9</v>
@@ -13302,7 +13302,7 @@
         <v>22.2600002288818</v>
       </c>
       <c r="G342" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H342" t="s">
         <v>9</v>
@@ -13328,7 +13328,7 @@
         <v>22.0699996948242</v>
       </c>
       <c r="G343" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H343" t="s">
         <v>9</v>
@@ -13354,7 +13354,7 @@
         <v>21.9699993133545</v>
       </c>
       <c r="G344" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H344" t="s">
         <v>9</v>
@@ -13380,7 +13380,7 @@
         <v>22.2299995422363</v>
       </c>
       <c r="G345" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H345" t="s">
         <v>9</v>
@@ -13406,7 +13406,7 @@
         <v>22.8099994659424</v>
       </c>
       <c r="G346" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H346" t="s">
         <v>9</v>
@@ -13432,7 +13432,7 @@
         <v>22.4400005340576</v>
       </c>
       <c r="G347" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H347" t="s">
         <v>9</v>
@@ -13458,7 +13458,7 @@
         <v>22.3700008392334</v>
       </c>
       <c r="G348" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H348" t="s">
         <v>9</v>
@@ -13484,7 +13484,7 @@
         <v>22.5400009155273</v>
       </c>
       <c r="G349" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H349" t="s">
         <v>9</v>
@@ -13510,7 +13510,7 @@
         <v>22.6499996185303</v>
       </c>
       <c r="G350" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H350" t="s">
         <v>9</v>
@@ -13536,7 +13536,7 @@
         <v>22.8500003814697</v>
       </c>
       <c r="G351" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H351" t="s">
         <v>9</v>
@@ -13562,7 +13562,7 @@
         <v>21.8999996185303</v>
       </c>
       <c r="G352" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H352" t="s">
         <v>9</v>
@@ -13588,7 +13588,7 @@
         <v>21.9699993133545</v>
       </c>
       <c r="G353" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H353" t="s">
         <v>9</v>
@@ -13614,7 +13614,7 @@
         <v>22.0499992370605</v>
       </c>
       <c r="G354" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H354" t="s">
         <v>9</v>
@@ -13640,7 +13640,7 @@
         <v>21.5799999237061</v>
       </c>
       <c r="G355" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H355" t="s">
         <v>9</v>
@@ -13666,7 +13666,7 @@
         <v>22.2399997711182</v>
       </c>
       <c r="G356" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H356" t="s">
         <v>9</v>
@@ -13692,7 +13692,7 @@
         <v>22.2000007629395</v>
       </c>
       <c r="G357" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H357" t="s">
         <v>9</v>
@@ -13718,7 +13718,7 @@
         <v>22</v>
       </c>
       <c r="G358" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H358" t="s">
         <v>9</v>
@@ -13744,7 +13744,7 @@
         <v>21.6800003051758</v>
       </c>
       <c r="G359" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H359" t="s">
         <v>9</v>
@@ -13770,7 +13770,7 @@
         <v>21.5100002288818</v>
       </c>
       <c r="G360" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H360" t="s">
         <v>9</v>
@@ -13796,7 +13796,7 @@
         <v>21.7900009155273</v>
       </c>
       <c r="G361" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H361" t="s">
         <v>9</v>
@@ -13822,7 +13822,7 @@
         <v>21.6800003051758</v>
       </c>
       <c r="G362" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H362" t="s">
         <v>9</v>
@@ -13848,7 +13848,7 @@
         <v>22.0200004577637</v>
       </c>
       <c r="G363" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H363" t="s">
         <v>9</v>
@@ -13874,7 +13874,7 @@
         <v>21.9099998474121</v>
       </c>
       <c r="G364" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H364" t="s">
         <v>9</v>
@@ -13900,7 +13900,7 @@
         <v>21.6900005340576</v>
       </c>
       <c r="G365" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H365" t="s">
         <v>9</v>
@@ -13926,7 +13926,7 @@
         <v>21.9799995422363</v>
       </c>
       <c r="G366" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H366" t="s">
         <v>9</v>
@@ -13952,7 +13952,7 @@
         <v>22.1499996185303</v>
       </c>
       <c r="G367" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H367" t="s">
         <v>9</v>
@@ -13978,7 +13978,7 @@
         <v>22.2000007629395</v>
       </c>
       <c r="G368" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H368" t="s">
         <v>9</v>
@@ -14004,7 +14004,7 @@
         <v>21.9300003051758</v>
       </c>
       <c r="G369" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H369" t="s">
         <v>9</v>
@@ -14030,7 +14030,7 @@
         <v>21.3999996185303</v>
       </c>
       <c r="G370" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H370" t="s">
         <v>9</v>
@@ -14056,7 +14056,7 @@
         <v>21.6200008392334</v>
       </c>
       <c r="G371" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H371" t="s">
         <v>9</v>
@@ -14082,7 +14082,7 @@
         <v>21.7999992370605</v>
       </c>
       <c r="G372" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H372" t="s">
         <v>9</v>
@@ -14108,7 +14108,7 @@
         <v>21.6599998474121</v>
       </c>
       <c r="G373" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H373" t="s">
         <v>9</v>
@@ -14134,7 +14134,7 @@
         <v>21.7999992370605</v>
       </c>
       <c r="G374" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H374" t="s">
         <v>9</v>
@@ -14160,7 +14160,7 @@
         <v>22.0400009155273</v>
       </c>
       <c r="G375" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H375" t="s">
         <v>9</v>
@@ -14186,7 +14186,7 @@
         <v>21.6399993896484</v>
       </c>
       <c r="G376" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H376" t="s">
         <v>9</v>
@@ -14212,7 +14212,7 @@
         <v>21.3899993896484</v>
       </c>
       <c r="G377" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H377" t="s">
         <v>9</v>
@@ -14238,7 +14238,7 @@
         <v>21.4300003051758</v>
       </c>
       <c r="G378" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H378" t="s">
         <v>9</v>
@@ -14264,7 +14264,7 @@
         <v>21.5</v>
       </c>
       <c r="G379" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H379" t="s">
         <v>9</v>
@@ -14290,7 +14290,7 @@
         <v>21.6100006103516</v>
       </c>
       <c r="G380" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H380" t="s">
         <v>9</v>
@@ -14316,7 +14316,7 @@
         <v>21.5100002288818</v>
       </c>
       <c r="G381" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H381" t="s">
         <v>9</v>
@@ -14342,7 +14342,7 @@
         <v>21.6299991607666</v>
       </c>
       <c r="G382" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H382" t="s">
         <v>9</v>
@@ -14368,7 +14368,7 @@
         <v>20.9300003051758</v>
       </c>
       <c r="G383" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H383" t="s">
         <v>9</v>
@@ -14394,7 +14394,7 @@
         <v>20.8099994659424</v>
       </c>
       <c r="G384" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H384" t="s">
         <v>9</v>
@@ -14420,7 +14420,7 @@
         <v>20.7999992370605</v>
       </c>
       <c r="G385" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H385" t="s">
         <v>9</v>
@@ -14446,7 +14446,7 @@
         <v>20.7999992370605</v>
       </c>
       <c r="G386" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H386" t="s">
         <v>9</v>
@@ -14472,7 +14472,7 @@
         <v>20.8999996185303</v>
       </c>
       <c r="G387" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H387" t="s">
         <v>9</v>
@@ -14498,7 +14498,7 @@
         <v>20.6100006103516</v>
       </c>
       <c r="G388" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H388" t="s">
         <v>9</v>
@@ -14524,7 +14524,7 @@
         <v>21</v>
       </c>
       <c r="G389" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H389" t="s">
         <v>9</v>
@@ -14550,7 +14550,7 @@
         <v>20.7900009155273</v>
       </c>
       <c r="G390" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H390" t="s">
         <v>9</v>
@@ -14576,7 +14576,7 @@
         <v>20.6900005340576</v>
       </c>
       <c r="G391" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H391" t="s">
         <v>9</v>
@@ -14602,7 +14602,7 @@
         <v>21</v>
       </c>
       <c r="G392" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H392" t="s">
         <v>9</v>
@@ -14628,7 +14628,7 @@
         <v>21.2000007629395</v>
       </c>
       <c r="G393" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H393" t="s">
         <v>9</v>
@@ -14654,7 +14654,7 @@
         <v>21.3299999237061</v>
       </c>
       <c r="G394" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H394" t="s">
         <v>9</v>
@@ -14680,7 +14680,7 @@
         <v>21.8500003814697</v>
       </c>
       <c r="G395" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H395" t="s">
         <v>9</v>
@@ -14706,7 +14706,7 @@
         <v>21.9300003051758</v>
       </c>
       <c r="G396" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H396" t="s">
         <v>9</v>
@@ -14732,7 +14732,7 @@
         <v>22</v>
       </c>
       <c r="G397" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H397" t="s">
         <v>9</v>
@@ -14758,7 +14758,7 @@
         <v>22.2999992370605</v>
       </c>
       <c r="G398" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H398" t="s">
         <v>9</v>
@@ -14784,7 +14784,7 @@
         <v>22.0599994659424</v>
       </c>
       <c r="G399" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H399" t="s">
         <v>9</v>
@@ -14810,7 +14810,7 @@
         <v>22.3600006103516</v>
       </c>
       <c r="G400" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H400" t="s">
         <v>9</v>
@@ -14836,7 +14836,7 @@
         <v>22.3600006103516</v>
       </c>
       <c r="G401" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H401" t="s">
         <v>9</v>
@@ -14862,7 +14862,7 @@
         <v>22.3700008392334</v>
       </c>
       <c r="G402" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H402" t="s">
         <v>9</v>
@@ -14888,7 +14888,7 @@
         <v>22.5</v>
       </c>
       <c r="G403" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H403" t="s">
         <v>9</v>
@@ -14914,7 +14914,7 @@
         <v>21.7700004577637</v>
       </c>
       <c r="G404" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H404" t="s">
         <v>9</v>
@@ -14940,7 +14940,7 @@
         <v>21.6200008392334</v>
       </c>
       <c r="G405" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H405" t="s">
         <v>9</v>
@@ -14966,7 +14966,7 @@
         <v>21.5799999237061</v>
       </c>
       <c r="G406" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H406" t="s">
         <v>9</v>
@@ -14992,7 +14992,7 @@
         <v>21.6900005340576</v>
       </c>
       <c r="G407" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H407" t="s">
         <v>9</v>
@@ -15018,7 +15018,7 @@
         <v>22.3500003814697</v>
       </c>
       <c r="G408" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H408" t="s">
         <v>9</v>
@@ -15044,7 +15044,7 @@
         <v>22.1499996185303</v>
       </c>
       <c r="G409" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H409" t="s">
         <v>9</v>
@@ -15070,7 +15070,7 @@
         <v>21.6000003814697</v>
       </c>
       <c r="G410" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H410" t="s">
         <v>9</v>
@@ -15096,7 +15096,7 @@
         <v>21.7700004577637</v>
       </c>
       <c r="G411" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H411" t="s">
         <v>9</v>
@@ -15122,7 +15122,7 @@
         <v>21.6000003814697</v>
       </c>
       <c r="G412" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H412" t="s">
         <v>9</v>
@@ -15148,7 +15148,7 @@
         <v>21.4099998474121</v>
       </c>
       <c r="G413" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H413" t="s">
         <v>9</v>
@@ -15174,7 +15174,7 @@
         <v>21.3199996948242</v>
       </c>
       <c r="G414" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H414" t="s">
         <v>9</v>
@@ -15200,7 +15200,7 @@
         <v>21.7000007629395</v>
       </c>
       <c r="G415" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H415" t="s">
         <v>9</v>
@@ -15226,7 +15226,7 @@
         <v>21.6000003814697</v>
       </c>
       <c r="G416" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H416" t="s">
         <v>9</v>
@@ -15252,7 +15252,7 @@
         <v>21.3600006103516</v>
       </c>
       <c r="G417" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H417" t="s">
         <v>9</v>
@@ -15278,7 +15278,7 @@
         <v>21.1900005340576</v>
       </c>
       <c r="G418" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H418" t="s">
         <v>9</v>
@@ -15304,7 +15304,7 @@
         <v>21.2099990844727</v>
       </c>
       <c r="G419" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H419" t="s">
         <v>9</v>
@@ -15330,7 +15330,7 @@
         <v>21.3600006103516</v>
       </c>
       <c r="G420" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H420" t="s">
         <v>9</v>
@@ -15356,7 +15356,7 @@
         <v>21.0499992370605</v>
       </c>
       <c r="G421" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H421" t="s">
         <v>9</v>
@@ -15382,7 +15382,7 @@
         <v>20.9899997711182</v>
       </c>
       <c r="G422" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H422" t="s">
         <v>9</v>
@@ -15408,7 +15408,7 @@
         <v>20.7700004577637</v>
       </c>
       <c r="G423" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H423" t="s">
         <v>9</v>
@@ -15434,7 +15434,7 @@
         <v>20.6499996185303</v>
       </c>
       <c r="G424" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H424" t="s">
         <v>9</v>
@@ -15460,7 +15460,7 @@
         <v>20.6299991607666</v>
       </c>
       <c r="G425" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H425" t="s">
         <v>9</v>
@@ -15486,7 +15486,7 @@
         <v>20.7399997711182</v>
       </c>
       <c r="G426" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H426" t="s">
         <v>9</v>
@@ -15512,7 +15512,7 @@
         <v>21.0599994659424</v>
       </c>
       <c r="G427" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H427" t="s">
         <v>9</v>
@@ -15538,7 +15538,7 @@
         <v>21.2299995422363</v>
       </c>
       <c r="G428" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H428" t="s">
         <v>9</v>
@@ -15564,7 +15564,7 @@
         <v>21.3999996185303</v>
       </c>
       <c r="G429" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H429" t="s">
         <v>9</v>
@@ -15590,7 +15590,7 @@
         <v>21.4799995422363</v>
       </c>
       <c r="G430" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H430" t="s">
         <v>9</v>
@@ -15616,7 +15616,7 @@
         <v>21.4599990844727</v>
       </c>
       <c r="G431" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H431" t="s">
         <v>9</v>
@@ -15642,7 +15642,7 @@
         <v>21.5100002288818</v>
       </c>
       <c r="G432" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H432" t="s">
         <v>9</v>
@@ -15668,7 +15668,7 @@
         <v>21.9300003051758</v>
       </c>
       <c r="G433" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H433" t="s">
         <v>9</v>
@@ -15694,7 +15694,7 @@
         <v>21.8999996185303</v>
       </c>
       <c r="G434" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H434" t="s">
         <v>9</v>
@@ -15720,7 +15720,7 @@
         <v>22.0499992370605</v>
       </c>
       <c r="G435" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H435" t="s">
         <v>9</v>
@@ -15746,7 +15746,7 @@
         <v>22.1499996185303</v>
       </c>
       <c r="G436" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H436" t="s">
         <v>9</v>
@@ -15772,7 +15772,7 @@
         <v>22.3299999237061</v>
       </c>
       <c r="G437" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H437" t="s">
         <v>9</v>
@@ -15798,7 +15798,7 @@
         <v>21.9200000762939</v>
       </c>
       <c r="G438" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H438" t="s">
         <v>9</v>
@@ -15824,7 +15824,7 @@
         <v>22</v>
       </c>
       <c r="G439" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H439" t="s">
         <v>9</v>
@@ -15850,7 +15850,7 @@
         <v>22.0400009155273</v>
       </c>
       <c r="G440" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H440" t="s">
         <v>9</v>
@@ -15876,7 +15876,7 @@
         <v>22.0799999237061</v>
       </c>
       <c r="G441" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H441" t="s">
         <v>9</v>
@@ -15902,7 +15902,7 @@
         <v>22.0799999237061</v>
       </c>
       <c r="G442" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H442" t="s">
         <v>9</v>
@@ -15928,7 +15928,7 @@
         <v>22.0699996948242</v>
       </c>
       <c r="G443" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H443" t="s">
         <v>9</v>
@@ -15954,7 +15954,7 @@
         <v>22.0900001525879</v>
       </c>
       <c r="G444" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H444" t="s">
         <v>9</v>
@@ -15980,7 +15980,7 @@
         <v>22.2000007629395</v>
       </c>
       <c r="G445" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H445" t="s">
         <v>9</v>
@@ -16006,7 +16006,7 @@
         <v>22.3400001525879</v>
       </c>
       <c r="G446" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H446" t="s">
         <v>9</v>
@@ -16032,7 +16032,7 @@
         <v>22.3700008392334</v>
       </c>
       <c r="G447" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H447" t="s">
         <v>9</v>
@@ -16058,7 +16058,7 @@
         <v>22.2999992370605</v>
       </c>
       <c r="G448" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H448" t="s">
         <v>9</v>
@@ -16084,7 +16084,7 @@
         <v>22.3799991607666</v>
       </c>
       <c r="G449" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H449" t="s">
         <v>9</v>
@@ -16110,7 +16110,7 @@
         <v>22.4699993133545</v>
       </c>
       <c r="G450" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H450" t="s">
         <v>9</v>
@@ -16136,7 +16136,7 @@
         <v>22.3999996185303</v>
       </c>
       <c r="G451" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H451" t="s">
         <v>9</v>
@@ -16162,7 +16162,7 @@
         <v>22.7099990844727</v>
       </c>
       <c r="G452" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H452" t="s">
         <v>9</v>
@@ -16188,7 +16188,7 @@
         <v>22.75</v>
       </c>
       <c r="G453" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H453" t="s">
         <v>9</v>
@@ -16214,7 +16214,7 @@
         <v>22.5900001525879</v>
       </c>
       <c r="G454" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H454" t="s">
         <v>9</v>
@@ -16240,7 +16240,7 @@
         <v>22.9200000762939</v>
       </c>
       <c r="G455" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H455" t="s">
         <v>9</v>
@@ -16266,7 +16266,7 @@
         <v>22.7299995422363</v>
       </c>
       <c r="G456" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H456" t="s">
         <v>9</v>
@@ -16292,7 +16292,7 @@
         <v>22.6900005340576</v>
       </c>
       <c r="G457" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H457" t="s">
         <v>9</v>
@@ -16318,7 +16318,7 @@
         <v>22.8899993896484</v>
       </c>
       <c r="G458" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H458" t="s">
         <v>9</v>
@@ -16344,7 +16344,7 @@
         <v>23.4200000762939</v>
       </c>
       <c r="G459" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H459" t="s">
         <v>9</v>
@@ -16370,7 +16370,7 @@
         <v>23.3299999237061</v>
       </c>
       <c r="G460" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H460" t="s">
         <v>9</v>
@@ -16396,7 +16396,7 @@
         <v>22.7800006866455</v>
       </c>
       <c r="G461" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H461" t="s">
         <v>9</v>
@@ -16422,7 +16422,7 @@
         <v>22.3500003814697</v>
       </c>
       <c r="G462" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H462" t="s">
         <v>9</v>
@@ -16448,7 +16448,7 @@
         <v>22.8700008392334</v>
       </c>
       <c r="G463" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H463" t="s">
         <v>9</v>
@@ -16474,7 +16474,7 @@
         <v>22.6599998474121</v>
       </c>
       <c r="G464" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H464" t="s">
         <v>9</v>
@@ -16500,7 +16500,7 @@
         <v>22.3899993896484</v>
       </c>
       <c r="G465" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H465" t="s">
         <v>9</v>
@@ -16526,7 +16526,7 @@
         <v>22.1299991607666</v>
       </c>
       <c r="G466" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H466" t="s">
         <v>9</v>
@@ -16552,7 +16552,7 @@
         <v>22.4500007629395</v>
       </c>
       <c r="G467" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H467" t="s">
         <v>9</v>
@@ -16578,7 +16578,7 @@
         <v>22.2199993133545</v>
       </c>
       <c r="G468" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H468" t="s">
         <v>9</v>
@@ -16604,7 +16604,7 @@
         <v>22.1700000762939</v>
       </c>
       <c r="G469" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H469" t="s">
         <v>9</v>
@@ -16630,7 +16630,7 @@
         <v>21.9300003051758</v>
       </c>
       <c r="G470" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H470" t="s">
         <v>9</v>
@@ -16656,7 +16656,7 @@
         <v>22.0900001525879</v>
       </c>
       <c r="G471" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H471" t="s">
         <v>9</v>
@@ -16682,7 +16682,7 @@
         <v>22</v>
       </c>
       <c r="G472" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H472" t="s">
         <v>9</v>
@@ -16708,7 +16708,7 @@
         <v>22.1000003814697</v>
       </c>
       <c r="G473" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H473" t="s">
         <v>9</v>
@@ -16734,7 +16734,7 @@
         <v>21.8400001525879</v>
       </c>
       <c r="G474" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H474" t="s">
         <v>9</v>
@@ -16760,7 +16760,7 @@
         <v>21.6399993896484</v>
       </c>
       <c r="G475" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H475" t="s">
         <v>9</v>
@@ -16786,7 +16786,7 @@
         <v>21.4899997711182</v>
       </c>
       <c r="G476" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H476" t="s">
         <v>9</v>
@@ -16812,7 +16812,7 @@
         <v>21.3799991607666</v>
       </c>
       <c r="G477" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H477" t="s">
         <v>9</v>
@@ -16838,7 +16838,7 @@
         <v>21.1499996185303</v>
       </c>
       <c r="G478" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H478" t="s">
         <v>9</v>
@@ -16864,7 +16864,7 @@
         <v>20.75</v>
       </c>
       <c r="G479" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H479" t="s">
         <v>9</v>
@@ -16890,7 +16890,7 @@
         <v>20.4699993133545</v>
       </c>
       <c r="G480" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H480" t="s">
         <v>9</v>
@@ -16916,7 +16916,7 @@
         <v>20.6000003814697</v>
       </c>
       <c r="G481" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H481" t="s">
         <v>9</v>
@@ -16942,7 +16942,7 @@
         <v>21.3199996948242</v>
       </c>
       <c r="G482" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H482" t="s">
         <v>9</v>
@@ -16968,7 +16968,7 @@
         <v>20.9500007629395</v>
       </c>
       <c r="G483" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H483" t="s">
         <v>9</v>
@@ -16994,7 +16994,7 @@
         <v>21.5</v>
       </c>
       <c r="G484" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H484" t="s">
         <v>9</v>
@@ -17020,7 +17020,7 @@
         <v>21.7700004577637</v>
       </c>
       <c r="G485" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H485" t="s">
         <v>9</v>
@@ -17046,7 +17046,7 @@
         <v>21.5599994659424</v>
       </c>
       <c r="G486" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H486" t="s">
         <v>9</v>
@@ -17072,7 +17072,7 @@
         <v>21.3999996185303</v>
       </c>
       <c r="G487" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H487" t="s">
         <v>9</v>
@@ -17098,7 +17098,7 @@
         <v>21.5100002288818</v>
       </c>
       <c r="G488" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H488" t="s">
         <v>9</v>
@@ -17124,7 +17124,7 @@
         <v>21.4099998474121</v>
       </c>
       <c r="G489" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H489" t="s">
         <v>9</v>
@@ -17150,7 +17150,7 @@
         <v>21.8199996948242</v>
       </c>
       <c r="G490" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H490" t="s">
         <v>9</v>
@@ -17176,7 +17176,7 @@
         <v>21.5799999237061</v>
       </c>
       <c r="G491" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H491" t="s">
         <v>9</v>
@@ -17202,7 +17202,7 @@
         <v>21.7099990844727</v>
       </c>
       <c r="G492" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H492" t="s">
         <v>9</v>
@@ -17228,7 +17228,7 @@
         <v>21.5</v>
       </c>
       <c r="G493" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H493" t="s">
         <v>9</v>
@@ -17254,7 +17254,7 @@
         <v>21.8999996185303</v>
       </c>
       <c r="G494" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H494" t="s">
         <v>9</v>
@@ -17280,7 +17280,7 @@
         <v>21.9400005340576</v>
       </c>
       <c r="G495" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H495" t="s">
         <v>9</v>
@@ -17306,7 +17306,7 @@
         <v>21.7399997711182</v>
       </c>
       <c r="G496" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H496" t="s">
         <v>9</v>
@@ -17332,7 +17332,7 @@
         <v>21.8899993896484</v>
       </c>
       <c r="G497" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H497" t="s">
         <v>9</v>
@@ -17358,7 +17358,7 @@
         <v>21.6599998474121</v>
       </c>
       <c r="G498" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H498" t="s">
         <v>9</v>
@@ -17384,7 +17384,7 @@
         <v>21.7999992370605</v>
       </c>
       <c r="G499" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H499" t="s">
         <v>9</v>
@@ -17410,7 +17410,7 @@
         <v>21.3899993896484</v>
       </c>
       <c r="G500" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H500" t="s">
         <v>9</v>
@@ -17436,7 +17436,7 @@
         <v>21.3799991607666</v>
       </c>
       <c r="G501" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H501" t="s">
         <v>9</v>
@@ -17462,7 +17462,7 @@
         <v>21.1499996185303</v>
       </c>
       <c r="G502" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H502" t="s">
         <v>9</v>
@@ -17488,7 +17488,7 @@
         <v>21.2399997711182</v>
       </c>
       <c r="G503" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H503" t="s">
         <v>9</v>
@@ -17514,7 +17514,7 @@
         <v>21</v>
       </c>
       <c r="G504" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H504" t="s">
         <v>9</v>
@@ -17540,7 +17540,7 @@
         <v>20.7600002288818</v>
       </c>
       <c r="G505" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H505" t="s">
         <v>9</v>
@@ -17566,7 +17566,7 @@
         <v>21.2900009155273</v>
       </c>
       <c r="G506" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H506" t="s">
         <v>9</v>
@@ -17592,7 +17592,7 @@
         <v>21.3600006103516</v>
       </c>
       <c r="G507" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H507" t="s">
         <v>9</v>
@@ -17618,7 +17618,7 @@
         <v>21.2800006866455</v>
       </c>
       <c r="G508" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H508" t="s">
         <v>9</v>
@@ -17644,7 +17644,7 @@
         <v>21.6599998474121</v>
       </c>
       <c r="G509" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H509" t="s">
         <v>9</v>
@@ -17670,7 +17670,7 @@
         <v>21.6700000762939</v>
       </c>
       <c r="G510" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H510" t="s">
         <v>9</v>
@@ -17696,7 +17696,7 @@
         <v>21.5200004577637</v>
       </c>
       <c r="G511" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H511" t="s">
         <v>9</v>
@@ -17722,7 +17722,7 @@
         <v>21.5</v>
       </c>
       <c r="G512" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H512" t="s">
         <v>9</v>
@@ -17748,7 +17748,7 @@
         <v>21.6000003814697</v>
       </c>
       <c r="G513" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H513" t="s">
         <v>9</v>
@@ -17774,7 +17774,7 @@
         <v>21.7199993133545</v>
       </c>
       <c r="G514" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H514" t="s">
         <v>9</v>
@@ -17800,7 +17800,7 @@
         <v>21.9200000762939</v>
       </c>
       <c r="G515" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H515" t="s">
         <v>9</v>
@@ -17826,7 +17826,7 @@
         <v>21.9200000762939</v>
       </c>
       <c r="G516" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H516" t="s">
         <v>9</v>
@@ -17852,7 +17852,7 @@
         <v>21.7399997711182</v>
       </c>
       <c r="G517" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H517" t="s">
         <v>9</v>
@@ -17878,7 +17878,7 @@
         <v>21.2199993133545</v>
       </c>
       <c r="G518" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H518" t="s">
         <v>9</v>
@@ -17904,7 +17904,7 @@
         <v>21.3600006103516</v>
       </c>
       <c r="G519" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H519" t="s">
         <v>9</v>
@@ -17930,7 +17930,7 @@
         <v>21.7399997711182</v>
       </c>
       <c r="G520" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H520" t="s">
         <v>9</v>
@@ -17956,7 +17956,7 @@
         <v>22.0200004577637</v>
       </c>
       <c r="G521" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H521" t="s">
         <v>9</v>
@@ -17982,7 +17982,7 @@
         <v>22.2000007629395</v>
       </c>
       <c r="G522" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H522" t="s">
         <v>9</v>
@@ -18008,7 +18008,7 @@
         <v>22.3400001525879</v>
       </c>
       <c r="G523" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H523" t="s">
         <v>9</v>
@@ -18034,7 +18034,7 @@
         <v>22.4200000762939</v>
       </c>
       <c r="G524" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H524" t="s">
         <v>9</v>
@@ -18060,7 +18060,7 @@
         <v>22.4799995422363</v>
       </c>
       <c r="G525" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H525" t="s">
         <v>9</v>
@@ -18086,7 +18086,7 @@
         <v>22.6200008392334</v>
       </c>
       <c r="G526" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H526" t="s">
         <v>9</v>
@@ -18112,7 +18112,7 @@
         <v>22.7000007629395</v>
       </c>
       <c r="G527" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H527" t="s">
         <v>9</v>
@@ -18138,7 +18138,7 @@
         <v>22.8799991607666</v>
       </c>
       <c r="G528" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H528" t="s">
         <v>9</v>
@@ -18164,7 +18164,7 @@
         <v>22.5200004577637</v>
       </c>
       <c r="G529" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H529" t="s">
         <v>9</v>
@@ -18190,7 +18190,7 @@
         <v>22.8199996948242</v>
       </c>
       <c r="G530" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H530" t="s">
         <v>9</v>
@@ -18216,7 +18216,7 @@
         <v>22.4200000762939</v>
       </c>
       <c r="G531" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H531" t="s">
         <v>9</v>
@@ -18242,7 +18242,7 @@
         <v>22.3199996948242</v>
       </c>
       <c r="G532" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H532" t="s">
         <v>9</v>
@@ -18268,7 +18268,7 @@
         <v>22.2800006866455</v>
       </c>
       <c r="G533" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H533" t="s">
         <v>9</v>
@@ -18294,7 +18294,7 @@
         <v>22.6399993896484</v>
       </c>
       <c r="G534" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H534" t="s">
         <v>9</v>
@@ -18320,7 +18320,7 @@
         <v>22.0599994659424</v>
       </c>
       <c r="G535" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H535" t="s">
         <v>9</v>
@@ -18346,7 +18346,7 @@
         <v>21.6599998474121</v>
       </c>
       <c r="G536" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H536" t="s">
         <v>9</v>
@@ -18372,7 +18372,7 @@
         <v>21.3400001525879</v>
       </c>
       <c r="G537" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H537" t="s">
         <v>9</v>
@@ -18398,7 +18398,7 @@
         <v>21.9599990844727</v>
       </c>
       <c r="G538" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H538" t="s">
         <v>9</v>
@@ -18424,7 +18424,7 @@
         <v>21.1399993896484</v>
       </c>
       <c r="G539" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H539" t="s">
         <v>9</v>
@@ -18450,7 +18450,7 @@
         <v>21</v>
       </c>
       <c r="G540" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H540" t="s">
         <v>9</v>
@@ -18476,7 +18476,7 @@
         <v>20.7600002288818</v>
       </c>
       <c r="G541" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H541" t="s">
         <v>9</v>
@@ -18502,7 +18502,7 @@
         <v>21</v>
       </c>
       <c r="G542" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H542" t="s">
         <v>9</v>
@@ -18528,7 +18528,7 @@
         <v>21.0799999237061</v>
       </c>
       <c r="G543" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H543" t="s">
         <v>9</v>
@@ -18554,7 +18554,7 @@
         <v>21</v>
       </c>
       <c r="G544" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H544" t="s">
         <v>9</v>
@@ -18580,7 +18580,7 @@
         <v>21.3400001525879</v>
       </c>
       <c r="G545" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H545" t="s">
         <v>9</v>
@@ -18606,7 +18606,7 @@
         <v>21.3999996185303</v>
       </c>
       <c r="G546" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H546" t="s">
         <v>9</v>
@@ -18632,7 +18632,7 @@
         <v>21.6800003051758</v>
       </c>
       <c r="G547" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H547" t="s">
         <v>9</v>
@@ -18658,7 +18658,7 @@
         <v>21.4799995422363</v>
       </c>
       <c r="G548" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H548" t="s">
         <v>9</v>
@@ -18684,7 +18684,7 @@
         <v>21.4599990844727</v>
       </c>
       <c r="G549" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H549" t="s">
         <v>9</v>
@@ -18710,7 +18710,7 @@
         <v>21.5799999237061</v>
       </c>
       <c r="G550" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H550" t="s">
         <v>9</v>
@@ -18736,7 +18736,7 @@
         <v>21.7999992370605</v>
       </c>
       <c r="G551" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H551" t="s">
         <v>9</v>
@@ -18762,7 +18762,7 @@
         <v>22.0200004577637</v>
       </c>
       <c r="G552" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H552" t="s">
         <v>9</v>
@@ -18788,7 +18788,7 @@
         <v>21.8600006103516</v>
       </c>
       <c r="G553" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H553" t="s">
         <v>9</v>
@@ -18814,7 +18814,7 @@
         <v>21.5400009155273</v>
       </c>
       <c r="G554" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H554" t="s">
         <v>9</v>
@@ -18840,7 +18840,7 @@
         <v>21.1399993896484</v>
       </c>
       <c r="G555" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H555" t="s">
         <v>9</v>
@@ -18866,7 +18866,7 @@
         <v>21</v>
       </c>
       <c r="G556" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H556" t="s">
         <v>9</v>
@@ -18892,7 +18892,7 @@
         <v>21.0400009155273</v>
       </c>
       <c r="G557" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H557" t="s">
         <v>9</v>
@@ -18918,7 +18918,7 @@
         <v>21.1000003814697</v>
       </c>
       <c r="G558" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H558" t="s">
         <v>9</v>
@@ -18944,7 +18944,7 @@
         <v>21.8999996185303</v>
       </c>
       <c r="G559" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H559" t="s">
         <v>9</v>
@@ -18970,7 +18970,7 @@
         <v>22.3600006103516</v>
       </c>
       <c r="G560" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H560" t="s">
         <v>9</v>
@@ -18996,7 +18996,7 @@
         <v>22.5400009155273</v>
       </c>
       <c r="G561" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H561" t="s">
         <v>9</v>
@@ -19022,7 +19022,7 @@
         <v>22.3999996185303</v>
       </c>
       <c r="G562" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H562" t="s">
         <v>9</v>
@@ -19048,7 +19048,7 @@
         <v>22.5</v>
       </c>
       <c r="G563" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H563" t="s">
         <v>9</v>
@@ -19074,7 +19074,7 @@
         <v>23.8600006103516</v>
       </c>
       <c r="G564" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H564" t="s">
         <v>9</v>
@@ -19100,7 +19100,7 @@
         <v>23.7800006866455</v>
       </c>
       <c r="G565" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H565" t="s">
         <v>9</v>
@@ -19126,7 +19126,7 @@
         <v>24.4200000762939</v>
       </c>
       <c r="G566" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H566" t="s">
         <v>9</v>
@@ -19152,7 +19152,7 @@
         <v>24.7600002288818</v>
       </c>
       <c r="G567" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H567" t="s">
         <v>9</v>
@@ -19178,7 +19178,7 @@
         <v>24.5799999237061</v>
       </c>
       <c r="G568" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H568" t="s">
         <v>9</v>
@@ -19204,7 +19204,7 @@
         <v>24.4599990844727</v>
       </c>
       <c r="G569" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H569" t="s">
         <v>9</v>
@@ -19230,7 +19230,7 @@
         <v>24.1800003051758</v>
       </c>
       <c r="G570" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H570" t="s">
         <v>9</v>
@@ -19256,7 +19256,7 @@
         <v>24.1599998474121</v>
       </c>
       <c r="G571" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H571" t="s">
         <v>9</v>
@@ -19282,7 +19282,7 @@
         <v>24.1599998474121</v>
       </c>
       <c r="G572" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H572" t="s">
         <v>9</v>
@@ -19308,7 +19308,7 @@
         <v>24.2399997711182</v>
       </c>
       <c r="G573" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H573" t="s">
         <v>9</v>
@@ -19334,7 +19334,7 @@
         <v>24.1399993896484</v>
       </c>
       <c r="G574" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H574" t="s">
         <v>9</v>
@@ -19360,7 +19360,7 @@
         <v>24.2999992370605</v>
       </c>
       <c r="G575" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H575" t="s">
         <v>9</v>
@@ -19386,7 +19386,7 @@
         <v>24.8999996185303</v>
       </c>
       <c r="G576" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H576" t="s">
         <v>9</v>
@@ -19412,7 +19412,7 @@
         <v>25.1399993896484</v>
       </c>
       <c r="G577" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H577" t="s">
         <v>9</v>
@@ -19438,7 +19438,7 @@
         <v>25.0200004577637</v>
       </c>
       <c r="G578" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H578" t="s">
         <v>9</v>
@@ -19464,7 +19464,7 @@
         <v>25.1000003814697</v>
       </c>
       <c r="G579" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H579" t="s">
         <v>9</v>
@@ -19490,7 +19490,7 @@
         <v>25.2999992370605</v>
       </c>
       <c r="G580" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H580" t="s">
         <v>9</v>
@@ -19516,7 +19516,7 @@
         <v>24.7600002288818</v>
       </c>
       <c r="G581" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H581" t="s">
         <v>9</v>
@@ -19542,7 +19542,7 @@
         <v>25</v>
       </c>
       <c r="G582" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H582" t="s">
         <v>9</v>
@@ -19568,7 +19568,7 @@
         <v>25.1399993896484</v>
       </c>
       <c r="G583" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H583" t="s">
         <v>9</v>
@@ -19594,7 +19594,7 @@
         <v>24.7999992370605</v>
       </c>
       <c r="G584" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H584" t="s">
         <v>9</v>
@@ -19620,7 +19620,7 @@
         <v>24.7199993133545</v>
       </c>
       <c r="G585" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H585" t="s">
         <v>9</v>
@@ -19646,7 +19646,7 @@
         <v>24.8999996185303</v>
       </c>
       <c r="G586" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H586" t="s">
         <v>9</v>
@@ -19672,7 +19672,7 @@
         <v>24.7800006866455</v>
       </c>
       <c r="G587" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H587" t="s">
         <v>9</v>
@@ -19698,7 +19698,7 @@
         <v>24.9400005340576</v>
       </c>
       <c r="G588" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H588" t="s">
         <v>9</v>
@@ -19724,7 +19724,7 @@
         <v>24.8799991607666</v>
       </c>
       <c r="G589" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H589" t="s">
         <v>9</v>
@@ -19750,7 +19750,7 @@
         <v>24.8400001525879</v>
       </c>
       <c r="G590" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H590" t="s">
         <v>9</v>
@@ -19776,7 +19776,7 @@
         <v>24.8799991607666</v>
       </c>
       <c r="G591" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H591" t="s">
         <v>9</v>
@@ -19802,7 +19802,7 @@
         <v>24.9200000762939</v>
       </c>
       <c r="G592" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H592" t="s">
         <v>9</v>
@@ -19828,7 +19828,7 @@
         <v>24.8799991607666</v>
       </c>
       <c r="G593" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H593" t="s">
         <v>9</v>
@@ -19854,7 +19854,7 @@
         <v>25.0200004577637</v>
       </c>
       <c r="G594" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H594" t="s">
         <v>9</v>
@@ -19880,7 +19880,7 @@
         <v>25.2600002288818</v>
       </c>
       <c r="G595" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H595" t="s">
         <v>9</v>
@@ -19906,7 +19906,7 @@
         <v>25.3999996185303</v>
       </c>
       <c r="G596" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H596" t="s">
         <v>9</v>
@@ -19932,7 +19932,7 @@
         <v>25.3400001525879</v>
       </c>
       <c r="G597" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H597" t="s">
         <v>9</v>
@@ -19958,7 +19958,7 @@
         <v>25.2000007629395</v>
       </c>
       <c r="G598" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H598" t="s">
         <v>9</v>
@@ -19984,7 +19984,7 @@
         <v>25.2399997711182</v>
       </c>
       <c r="G599" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H599" t="s">
         <v>9</v>
@@ -20010,7 +20010,7 @@
         <v>25.1599998474121</v>
       </c>
       <c r="G600" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H600" t="s">
         <v>9</v>
@@ -20036,7 +20036,7 @@
         <v>25.1599998474121</v>
       </c>
       <c r="G601" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H601" t="s">
         <v>9</v>
@@ -20062,7 +20062,7 @@
         <v>25.1000003814697</v>
       </c>
       <c r="G602" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H602" t="s">
         <v>9</v>
@@ -20088,7 +20088,7 @@
         <v>25.3600006103516</v>
       </c>
       <c r="G603" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H603" t="s">
         <v>9</v>
@@ -20114,7 +20114,7 @@
         <v>24.7600002288818</v>
       </c>
       <c r="G604" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H604" t="s">
         <v>9</v>
@@ -20140,7 +20140,7 @@
         <v>24.1399993896484</v>
       </c>
       <c r="G605" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H605" t="s">
         <v>9</v>
@@ -20166,7 +20166,7 @@
         <v>24.1399993896484</v>
       </c>
       <c r="G606" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H606" t="s">
         <v>9</v>
@@ -20192,7 +20192,7 @@
         <v>23.4599990844727</v>
       </c>
       <c r="G607" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H607" t="s">
         <v>9</v>
@@ -20218,7 +20218,7 @@
         <v>23.7399997711182</v>
       </c>
       <c r="G608" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H608" t="s">
         <v>9</v>
@@ -20244,7 +20244,7 @@
         <v>23.4200000762939</v>
       </c>
       <c r="G609" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H609" t="s">
         <v>9</v>
@@ -20270,7 +20270,7 @@
         <v>23.4200000762939</v>
       </c>
       <c r="G610" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H610" t="s">
         <v>9</v>
@@ -20296,7 +20296,7 @@
         <v>23.3799991607666</v>
       </c>
       <c r="G611" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H611" t="s">
         <v>9</v>
@@ -20322,7 +20322,7 @@
         <v>23.3199996948242</v>
       </c>
       <c r="G612" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H612" t="s">
         <v>9</v>
@@ -20348,7 +20348,7 @@
         <v>22.7600002288818</v>
       </c>
       <c r="G613" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H613" t="s">
         <v>9</v>
@@ -20374,7 +20374,7 @@
         <v>22.4799995422363</v>
       </c>
       <c r="G614" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H614" t="s">
         <v>9</v>
@@ -20400,7 +20400,7 @@
         <v>23</v>
       </c>
       <c r="G615" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H615" t="s">
         <v>9</v>
@@ -20426,7 +20426,7 @@
         <v>22.7999992370605</v>
       </c>
       <c r="G616" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H616" t="s">
         <v>9</v>
@@ -20452,7 +20452,7 @@
         <v>23.3199996948242</v>
       </c>
       <c r="G617" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H617" t="s">
         <v>9</v>
@@ -20478,7 +20478,7 @@
         <v>23.1800003051758</v>
       </c>
       <c r="G618" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H618" t="s">
         <v>9</v>
@@ -20504,7 +20504,7 @@
         <v>23.2800006866455</v>
       </c>
       <c r="G619" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H619" t="s">
         <v>9</v>
@@ -20530,7 +20530,7 @@
         <v>23.2399997711182</v>
       </c>
       <c r="G620" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H620" t="s">
         <v>9</v>
@@ -20556,7 +20556,7 @@
         <v>23.1599998474121</v>
       </c>
       <c r="G621" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H621" t="s">
         <v>9</v>
@@ -20582,7 +20582,7 @@
         <v>22.7399997711182</v>
       </c>
       <c r="G622" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H622" t="s">
         <v>9</v>
@@ -20608,7 +20608,7 @@
         <v>23.0799999237061</v>
       </c>
       <c r="G623" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H623" t="s">
         <v>9</v>
@@ -20634,7 +20634,7 @@
         <v>23.3999996185303</v>
       </c>
       <c r="G624" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H624" t="s">
         <v>9</v>
@@ -20660,7 +20660,7 @@
         <v>23.3999996185303</v>
       </c>
       <c r="G625" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H625" t="s">
         <v>9</v>
@@ -20686,7 +20686,7 @@
         <v>23.3400001525879</v>
       </c>
       <c r="G626" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="H626" t="s">
         <v>9</v>
@@ -20712,7 +20712,7 @@
         <v>23.0599994659424</v>
       </c>
       <c r="G627" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H627" t="s">
         <v>9</v>
@@ -20738,7 +20738,7 @@
         <v>23.1200008392334</v>
       </c>
       <c r="G628" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="H628" t="s">
         <v>9</v>
@@ -20764,7 +20764,7 @@
         <v>23.0799999237061</v>
       </c>
       <c r="G629" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H629" t="s">
         <v>9</v>
@@ -20790,7 +20790,7 @@
         <v>22.9400005340576</v>
       </c>
       <c r="G630" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H630" t="s">
         <v>9</v>
@@ -20816,7 +20816,7 @@
         <v>22.2999992370605</v>
       </c>
       <c r="G631" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H631" t="s">
         <v>9</v>
@@ -20842,7 +20842,7 @@
         <v>22.7600002288818</v>
       </c>
       <c r="G632" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H632" t="s">
         <v>9</v>
@@ -20868,7 +20868,7 @@
         <v>22.3199996948242</v>
       </c>
       <c r="G633" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H633" t="s">
         <v>9</v>
@@ -20894,7 +20894,7 @@
         <v>22.1800003051758</v>
       </c>
       <c r="G634" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H634" t="s">
         <v>9</v>
@@ -20920,7 +20920,7 @@
         <v>22.4400005340576</v>
       </c>
       <c r="G635" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="H635" t="s">
         <v>9</v>
@@ -20946,7 +20946,7 @@
         <v>22.5</v>
       </c>
       <c r="G636" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H636" t="s">
         <v>9</v>
@@ -20972,7 +20972,7 @@
         <v>22.5799999237061</v>
       </c>
       <c r="G637" t="s">
-        <v>436</v>
+        <v>457</v>
       </c>
       <c r="H637" t="s">
         <v>9</v>
@@ -21024,7 +21024,7 @@
         <v>22.5799999237061</v>
       </c>
       <c r="G639" t="s">
-        <v>436</v>
+        <v>457</v>
       </c>
       <c r="H639" t="s">
         <v>9</v>
@@ -21076,7 +21076,7 @@
         <v>22.7999992370605</v>
       </c>
       <c r="G641" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H641" t="s">
         <v>9</v>
@@ -21414,7 +21414,7 @@
         <v>23.2800006866455</v>
       </c>
       <c r="G654" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H654" t="s">
         <v>9</v>
@@ -21492,7 +21492,7 @@
         <v>23.3199996948242</v>
       </c>
       <c r="G657" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H657" t="s">
         <v>9</v>
@@ -21518,7 +21518,7 @@
         <v>23.2800006866455</v>
       </c>
       <c r="G658" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H658" t="s">
         <v>9</v>
@@ -22896,7 +22896,7 @@
         <v>23</v>
       </c>
       <c r="G711" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H711" t="s">
         <v>9</v>
@@ -60864,7 +60864,7 @@
     </row>
     <row r="2172">
       <c r="A2172" s="1" t="n">
-        <v>45485.6494907407</v>
+        <v>45485.2916666667</v>
       </c>
       <c r="B2172" t="n">
         <v>67762</v>
@@ -60885,6 +60885,32 @@
         <v>1354</v>
       </c>
       <c r="H2172" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2173">
+      <c r="A2173" s="1" t="n">
+        <v>45488.6509027778</v>
+      </c>
+      <c r="B2173" t="n">
+        <v>129107</v>
+      </c>
+      <c r="C2173" t="n">
+        <v>12.3000001907349</v>
+      </c>
+      <c r="D2173" t="n">
+        <v>11.9399995803833</v>
+      </c>
+      <c r="E2173" t="n">
+        <v>12.1999998092651</v>
+      </c>
+      <c r="F2173" t="n">
+        <v>12.0600004196167</v>
+      </c>
+      <c r="G2173" t="s">
+        <v>1338</v>
+      </c>
+      <c r="H2173" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/MARR.MI.xlsx
+++ b/data/MARR.MI.xlsx
@@ -44,10 +44,10 @@
     <t xml:space="preserve">MARR.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1047019958496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9899673461914</t>
+    <t xml:space="preserve">14.1047010421753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9899654388428</t>
   </si>
   <si>
     <t xml:space="preserve">13.7910947799683</t>
@@ -56,7 +56,7 @@
     <t xml:space="preserve">13.7451982498169</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3627490997314</t>
+    <t xml:space="preserve">13.3627500534058</t>
   </si>
   <si>
     <t xml:space="preserve">13.4315910339355</t>
@@ -68,25 +68,25 @@
     <t xml:space="preserve">13.2021226882935</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2097721099854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7202367782593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8273220062256</t>
+    <t xml:space="preserve">13.2097730636597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.720235824585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8273229598999</t>
   </si>
   <si>
     <t xml:space="preserve">12.3607358932495</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9650049209595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6228170394897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4545392990112</t>
+    <t xml:space="preserve">12.9650058746338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6228151321411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4545402526855</t>
   </si>
   <si>
     <t xml:space="preserve">13.3321552276611</t>
@@ -98,13 +98,13 @@
     <t xml:space="preserve">13.4162940979004</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5004329681396</t>
+    <t xml:space="preserve">13.5004301071167</t>
   </si>
   <si>
     <t xml:space="preserve">13.7681474685669</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5616235733032</t>
+    <t xml:space="preserve">13.5616245269775</t>
   </si>
   <si>
     <t xml:space="preserve">13.0873880386353</t>
@@ -113,10 +113,10 @@
     <t xml:space="preserve">13.2786121368408</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0491428375244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1083183288574</t>
+    <t xml:space="preserve">13.0491418838501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1083202362061</t>
   </si>
   <si>
     <t xml:space="preserve">12.1542148590088</t>
@@ -125,49 +125,49 @@
     <t xml:space="preserve">12.6131525039673</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2995443344116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6208000183105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6590461730957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7814302444458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.94970703125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.156229019165</t>
+    <t xml:space="preserve">12.2995452880859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6208019256592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6590452194214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7814292907715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9497060775757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1562271118164</t>
   </si>
   <si>
     <t xml:space="preserve">13.4851331710815</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3780488967896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3474540710449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7299003601074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9670181274414</t>
+    <t xml:space="preserve">13.3780479431152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3474521636963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7299032211304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9670190811157</t>
   </si>
   <si>
     <t xml:space="preserve">13.7375497817993</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8752317428589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6763591766357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.370400428772</t>
+    <t xml:space="preserve">13.8752307891846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6763572692871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3703994750977</t>
   </si>
   <si>
     <t xml:space="preserve">12.8196744918823</t>
@@ -176,7 +176,7 @@
     <t xml:space="preserve">13.1179838180542</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4468898773193</t>
+    <t xml:space="preserve">13.4468879699707</t>
   </si>
   <si>
     <t xml:space="preserve">13.5998697280884</t>
@@ -185,112 +185,112 @@
     <t xml:space="preserve">13.4774866104126</t>
   </si>
   <si>
-    <t xml:space="preserve">13.661060333252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2174205780029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1026840209961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4621877670288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5386781692505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9593725204468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0817537307739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1505928039551</t>
+    <t xml:space="preserve">13.6610612869263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2174215316772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1026849746704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4621858596802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5386772155762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9593715667725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0817546844482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1505947113037</t>
   </si>
   <si>
     <t xml:space="preserve">13.8828802108765</t>
   </si>
   <si>
-    <t xml:space="preserve">13.997612953186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0741062164307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5483417510986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3188705444336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1658926010132</t>
+    <t xml:space="preserve">13.997615814209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0741033554077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5483407974243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3188714981079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1658935546875</t>
   </si>
   <si>
     <t xml:space="preserve">13.7987432479858</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6916561126709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6151676177979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5769205093384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8599367141724</t>
+    <t xml:space="preserve">13.6916570663452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6151657104492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5769214630127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8599348068237</t>
   </si>
   <si>
     <t xml:space="preserve">13.9058275222778</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5922222137451</t>
+    <t xml:space="preserve">13.5922212600708</t>
   </si>
   <si>
     <t xml:space="preserve">14.0970516204834</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9440727233887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6304636001587</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6840076446533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6993055343628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8216886520386</t>
+    <t xml:space="preserve">13.944073677063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6304655075073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.684006690979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6993045806885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8216896057129</t>
   </si>
   <si>
     <t xml:space="preserve">13.4392414093018</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6687107086182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4086456298828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5310306549072</t>
+    <t xml:space="preserve">13.6687116622925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4086446762085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5310297012329</t>
   </si>
   <si>
     <t xml:space="preserve">13.8250074386597</t>
   </si>
   <si>
-    <t xml:space="preserve">13.817063331604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0713157653809</t>
+    <t xml:space="preserve">13.8170623779297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0713148117065</t>
   </si>
   <si>
     <t xml:space="preserve">14.0633707046509</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2540616989136</t>
+    <t xml:space="preserve">14.2540626525879</t>
   </si>
   <si>
     <t xml:space="preserve">14.3096780776978</t>
@@ -299,13 +299,13 @@
     <t xml:space="preserve">14.126935005188</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0792617797852</t>
+    <t xml:space="preserve">14.0792608261108</t>
   </si>
   <si>
     <t xml:space="preserve">14.3017330169678</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1904964447021</t>
+    <t xml:space="preserve">14.1904973983765</t>
   </si>
   <si>
     <t xml:space="preserve">14.1030969619751</t>
@@ -314,40 +314,40 @@
     <t xml:space="preserve">14.0872068405151</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0951509475708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5866479873657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6740446090698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3880128860474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0701942443848</t>
+    <t xml:space="preserve">14.0951519012451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5866470336914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6740455627441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3880109786987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0701951980591</t>
   </si>
   <si>
     <t xml:space="preserve">13.2132110595703</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5945930480957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5787019729614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8806247711182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2052669525146</t>
+    <t xml:space="preserve">13.5945920944214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5787010192871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8806257247925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.205267906189</t>
   </si>
   <si>
     <t xml:space="preserve">12.5060701370239</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0384120941162</t>
+    <t xml:space="preserve">13.0384130477905</t>
   </si>
   <si>
     <t xml:space="preserve">13.51513671875</t>
@@ -356,109 +356,109 @@
     <t xml:space="preserve">14.2461156845093</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3573503494263</t>
+    <t xml:space="preserve">14.3573513031006</t>
   </si>
   <si>
     <t xml:space="preserve">13.8567914962769</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2778959274292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1507711410522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6036586761475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5718784332275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5639324188232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3652944564819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3176221847534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5798225402832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.87380027771</t>
+    <t xml:space="preserve">14.2778940200806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1507682800293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6036577224731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5718765258789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5639295578003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3652954101562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3176240921021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5798206329346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8738021850586</t>
   </si>
   <si>
     <t xml:space="preserve">14.5480403900146</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6990022659302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9770927429199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8340749740601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9453096389771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5877685546875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.85791015625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3335151672363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4765310287476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5003700256348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.444748878479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1666612625122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.238169670105</t>
+    <t xml:space="preserve">14.6990041732788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9770908355713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8340740203857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9453115463257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5877666473389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8579120635986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3335161209106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4765300750732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5003690719604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4447507858276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1666603088379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2381687164307</t>
   </si>
   <si>
     <t xml:space="preserve">14.0315895080566</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8885726928711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9044637680054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8647346496582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0474805831909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9521350860596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7217178344727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0156984329224</t>
+    <t xml:space="preserve">13.8885717391968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9044628143311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8647356033325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0474796295166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9521341323853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.721718788147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.015697479248</t>
   </si>
   <si>
     <t xml:space="preserve">13.9124059677124</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0077524185181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9203538894653</t>
+    <t xml:space="preserve">14.0077514648438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9203519821167</t>
   </si>
   <si>
     <t xml:space="preserve">13.8091163635254</t>
@@ -467,55 +467,52 @@
     <t xml:space="preserve">13.7058267593384</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6502094268799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7376079559326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9998083114624</t>
+    <t xml:space="preserve">13.6502103805542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7376108169556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9998092651367</t>
   </si>
   <si>
     <t xml:space="preserve">14.2302236557007</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1746072769165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0236434936523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1587152481079</t>
+    <t xml:space="preserve">14.1746063232422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0236415863037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1587171554565</t>
   </si>
   <si>
     <t xml:space="preserve">13.7614459991455</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6660995483398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6184272766113</t>
+    <t xml:space="preserve">13.6661005020142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6184282302856</t>
   </si>
   <si>
     <t xml:space="preserve">13.7773361206055</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5469198226929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4913005828857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6581554412842</t>
+    <t xml:space="preserve">13.5469188690186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4913015365601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6581573486328</t>
   </si>
   <si>
     <t xml:space="preserve">13.5389747619629</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5310297012329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4595212936401</t>
+    <t xml:space="preserve">13.4595203399658</t>
   </si>
   <si>
     <t xml:space="preserve">13.3482828140259</t>
@@ -524,10 +521,10 @@
     <t xml:space="preserve">13.3165035247803</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3006105422974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3323936462402</t>
+    <t xml:space="preserve">13.3006114959717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3323945999146</t>
   </si>
   <si>
     <t xml:space="preserve">13.3244485855103</t>
@@ -539,52 +536,52 @@
     <t xml:space="preserve">13.0304670333862</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2370471954346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2688302993774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1575918197632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7126502990723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1178674697876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2608852386475</t>
+    <t xml:space="preserve">13.2370481491089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2688293457031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1575937271118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7126512527466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1178665161133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2608861923218</t>
   </si>
   <si>
     <t xml:space="preserve">13.1417036056519</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1655387878418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0225219726562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9112873077393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0066328048706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.094030380249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0781373977661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5071926116943</t>
+    <t xml:space="preserve">13.1655397415161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0225229263306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9112854003906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.006630897522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0940313339233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0781393051147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.50719165802</t>
   </si>
   <si>
     <t xml:space="preserve">13.4515752792358</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5707559585571</t>
+    <t xml:space="preserve">13.5707550048828</t>
   </si>
   <si>
     <t xml:space="preserve">13.8965158462524</t>
@@ -599,16 +596,16 @@
     <t xml:space="preserve">13.7852830886841</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9441909790039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9680252075195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9918632507324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9759721755981</t>
+    <t xml:space="preserve">13.9441890716553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9680242538452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9918622970581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9759731292725</t>
   </si>
   <si>
     <t xml:space="preserve">14.0395336151123</t>
@@ -617,34 +614,34 @@
     <t xml:space="preserve">13.801173210144</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9839162826538</t>
+    <t xml:space="preserve">13.9839153289795</t>
   </si>
   <si>
     <t xml:space="preserve">14.2222785949707</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2063894271851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7148942947388</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7705116271973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3494033813477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2699518203735</t>
+    <t xml:space="preserve">14.2063884735107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7148952484131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7705125808716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3494052886963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2699508666992</t>
   </si>
   <si>
     <t xml:space="preserve">14.1825523376465</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2858419418335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3414611816406</t>
+    <t xml:space="preserve">14.2858428955078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.341459274292</t>
   </si>
   <si>
     <t xml:space="preserve">14.2620067596436</t>
@@ -653,34 +650,34 @@
     <t xml:space="preserve">14.6751651763916</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4606418609619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6513299942017</t>
+    <t xml:space="preserve">14.4606409072876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.651330947876</t>
   </si>
   <si>
     <t xml:space="preserve">14.6274938583374</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5400943756104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6910572052002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.516261100769</t>
+    <t xml:space="preserve">14.5400953292847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6910600662231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5162582397461</t>
   </si>
   <si>
     <t xml:space="preserve">14.7069482803345</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6116046905518</t>
+    <t xml:space="preserve">14.6116027832031</t>
   </si>
   <si>
     <t xml:space="preserve">14.3970804214478</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7466745376587</t>
+    <t xml:space="preserve">14.746675491333</t>
   </si>
   <si>
     <t xml:space="preserve">15.2154550552368</t>
@@ -689,19 +686,19 @@
     <t xml:space="preserve">15.4538173675537</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4061460494995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5968351364136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8908138275146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8510885238647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8590354919434</t>
+    <t xml:space="preserve">15.4061470031738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5968341827393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8908157348633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8510866165161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8590316772461</t>
   </si>
   <si>
     <t xml:space="preserve">15.7319068908691</t>
@@ -710,7 +707,7 @@
     <t xml:space="preserve">16.1371231079102</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6774101257324</t>
+    <t xml:space="preserve">16.6774082183838</t>
   </si>
   <si>
     <t xml:space="preserve">16.0656127929688</t>
@@ -725,31 +722,31 @@
     <t xml:space="preserve">16.30397605896</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1609554290771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2880840301514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6456298828125</t>
+    <t xml:space="preserve">16.1609573364258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2880859375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6456279754639</t>
   </si>
   <si>
     <t xml:space="preserve">16.6853561401367</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4867210388184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4072666168213</t>
+    <t xml:space="preserve">16.4867191314697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4072647094727</t>
   </si>
   <si>
     <t xml:space="preserve">16.0973930358887</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1291751861572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.502613067627</t>
+    <t xml:space="preserve">16.1291770935059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5026111602783</t>
   </si>
   <si>
     <t xml:space="preserve">16.3675384521484</t>
@@ -758,49 +755,49 @@
     <t xml:space="preserve">16.5582294464111</t>
   </si>
   <si>
-    <t xml:space="preserve">16.605899810791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7012462615967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5423374176025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8839912414551</t>
+    <t xml:space="preserve">16.6059017181396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7012481689453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5423393249512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8839874267578</t>
   </si>
   <si>
     <t xml:space="preserve">17.432222366333</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1144104003906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6615200042725</t>
+    <t xml:space="preserve">17.1144065856934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6615180969238</t>
   </si>
   <si>
     <t xml:space="preserve">17.2812614440918</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3289318084717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2574234008789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2653694152832</t>
+    <t xml:space="preserve">17.3289337158203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2574253082275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2653713226318</t>
   </si>
   <si>
     <t xml:space="preserve">17.6149673461914</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8136024475098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6864738464355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.535514831543</t>
+    <t xml:space="preserve">17.8136043548584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6864757537842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5355129241943</t>
   </si>
   <si>
     <t xml:space="preserve">17.4560585021973</t>
@@ -815,28 +812,28 @@
     <t xml:space="preserve">17.8294944763184</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7738742828369</t>
+    <t xml:space="preserve">17.7738761901855</t>
   </si>
   <si>
     <t xml:space="preserve">17.9089488983154</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9963474273682</t>
+    <t xml:space="preserve">17.9963455200195</t>
   </si>
   <si>
     <t xml:space="preserve">18.1552543640137</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4004402160645</t>
+    <t xml:space="preserve">17.4004421234131</t>
   </si>
   <si>
     <t xml:space="preserve">17.5196208953857</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7083568572998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2499465942383</t>
+    <t xml:space="preserve">17.7083587646484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2499485015869</t>
   </si>
   <si>
     <t xml:space="preserve">18.2171268463135</t>
@@ -845,19 +842,19 @@
     <t xml:space="preserve">18.0530071258545</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7904205322266</t>
+    <t xml:space="preserve">17.7904186248779</t>
   </si>
   <si>
     <t xml:space="preserve">17.6509170532227</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8806838989258</t>
+    <t xml:space="preserve">17.8806819915771</t>
   </si>
   <si>
     <t xml:space="preserve">18.0694179534912</t>
   </si>
   <si>
-    <t xml:space="preserve">17.979154586792</t>
+    <t xml:space="preserve">17.9791526794434</t>
   </si>
   <si>
     <t xml:space="preserve">17.7986240386963</t>
@@ -869,16 +866,16 @@
     <t xml:space="preserve">18.1760940551758</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9955654144287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5606498718262</t>
+    <t xml:space="preserve">17.9955635070801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5606536865234</t>
   </si>
   <si>
     <t xml:space="preserve">17.7411842346191</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8888874053955</t>
+    <t xml:space="preserve">17.8888893127441</t>
   </si>
   <si>
     <t xml:space="preserve">17.7740077972412</t>
@@ -887,40 +884,40 @@
     <t xml:space="preserve">18.0858325958252</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7575931549072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5524463653564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5852718353271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6427135467529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7329750061035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7493877410889</t>
+    <t xml:space="preserve">17.7575950622559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5524444580078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5852699279785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6427116394043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7329769134521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7493858337402</t>
   </si>
   <si>
     <t xml:space="preserve">17.1749744415283</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0765018463135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0682983398438</t>
+    <t xml:space="preserve">17.0765037536621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0682945251465</t>
   </si>
   <si>
     <t xml:space="preserve">17.1503562927246</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9123859405518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2324180603027</t>
+    <t xml:space="preserve">16.9123840332031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2324161529541</t>
   </si>
   <si>
     <t xml:space="preserve">17.0600929260254</t>
@@ -932,7 +929,7 @@
     <t xml:space="preserve">17.3965358734131</t>
   </si>
   <si>
-    <t xml:space="preserve">17.503210067749</t>
+    <t xml:space="preserve">17.5032119750977</t>
   </si>
   <si>
     <t xml:space="preserve">17.9299182891846</t>
@@ -944,25 +941,25 @@
     <t xml:space="preserve">18.1022415161133</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3484210968018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3566246032715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4633007049561</t>
+    <t xml:space="preserve">18.3484191894531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3566284179688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4633045196533</t>
   </si>
   <si>
     <t xml:space="preserve">17.8642711639404</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3402156829834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7247695922852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5688571929932</t>
+    <t xml:space="preserve">18.3402137756348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7247676849365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5688591003418</t>
   </si>
   <si>
     <t xml:space="preserve">17.4950046539307</t>
@@ -977,19 +974,19 @@
     <t xml:space="preserve">17.3883285522461</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4047412872314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2734470367432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2242107391357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.04368019104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9452075958252</t>
+    <t xml:space="preserve">17.4047374725342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2734451293945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2242088317871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0436820983887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9452095031738</t>
   </si>
   <si>
     <t xml:space="preserve">16.9287967681885</t>
@@ -998,61 +995,61 @@
     <t xml:space="preserve">17.0190620422363</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2816505432129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4211521148682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6262989044189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6098880767822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.970947265625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0940361022949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3238010406494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.987361907959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1186542510986</t>
+    <t xml:space="preserve">17.2816524505615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4211483001709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6263008117676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6098861694336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9709510803223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0940380096436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.323802947998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9873600006104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.11865234375</t>
   </si>
   <si>
     <t xml:space="preserve">18.1104488372803</t>
   </si>
   <si>
-    <t xml:space="preserve">18.126859664917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3320083618164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3648338317871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.438684463501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3812427520752</t>
+    <t xml:space="preserve">18.1268615722656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.332010269165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3648319244385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4386825561523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3812408447266</t>
   </si>
   <si>
     <t xml:space="preserve">18.6356258392334</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6684494018555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5371570587158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8079509735107</t>
+    <t xml:space="preserve">18.6684513092041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5371551513672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8079490661621</t>
   </si>
   <si>
     <t xml:space="preserve">18.6520385742188</t>
@@ -1076,10 +1073,10 @@
     <t xml:space="preserve">18.7669219970703</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5945949554443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3730373382568</t>
+    <t xml:space="preserve">18.5945987701416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3730354309082</t>
   </si>
   <si>
     <t xml:space="preserve">18.1596851348877</t>
@@ -1088,64 +1085,64 @@
     <t xml:space="preserve">18.4222736358643</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2335395812988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1925086975098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1350688934326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9217128753662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6345043182373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5442390441895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.355504989624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0272693634033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7974987030029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9041786193848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1913871765137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6919460296631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9052982330322</t>
+    <t xml:space="preserve">18.2335357666016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1925067901611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1350650787354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9217109680176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6345062255859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5442409515381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3555030822754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0272674560547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7975025177002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9041805267334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.191385269165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6919441223145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9053020477295</t>
   </si>
   <si>
     <t xml:space="preserve">17.815034866333</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0037727355957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8396530151367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9627437591553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4293594360352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0354747772217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4703884124756</t>
+    <t xml:space="preserve">18.0037708282471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8396549224854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.962739944458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4293575286865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0354709625244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4703903198242</t>
   </si>
   <si>
     <t xml:space="preserve">17.4621810913086</t>
@@ -1160,10 +1157,10 @@
     <t xml:space="preserve">17.8232421875</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4129467010498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3976554870605</t>
+    <t xml:space="preserve">17.4129447937012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3976593017578</t>
   </si>
   <si>
     <t xml:space="preserve">18.4468898773193</t>
@@ -1172,7 +1169,7 @@
     <t xml:space="preserve">18.5617752075195</t>
   </si>
   <si>
-    <t xml:space="preserve">18.627420425415</t>
+    <t xml:space="preserve">18.6274242401123</t>
   </si>
   <si>
     <t xml:space="preserve">18.77512550354</t>
@@ -1187,10 +1184,10 @@
     <t xml:space="preserve">18.3155956268311</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2827701568604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5781860351562</t>
+    <t xml:space="preserve">18.2827739715576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.578182220459</t>
   </si>
   <si>
     <t xml:space="preserve">17.511417388916</t>
@@ -1199,10 +1196,10 @@
     <t xml:space="preserve">18.0201835632324</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3472957611084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2980651855469</t>
+    <t xml:space="preserve">17.347297668457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2980613708496</t>
   </si>
   <si>
     <t xml:space="preserve">17.9381256103516</t>
@@ -1214,7 +1211,7 @@
     <t xml:space="preserve">17.2652397155762</t>
   </si>
   <si>
-    <t xml:space="preserve">17.314474105835</t>
+    <t xml:space="preserve">17.3144760131836</t>
   </si>
   <si>
     <t xml:space="preserve">18.4961280822754</t>
@@ -1223,19 +1220,19 @@
     <t xml:space="preserve">19.5793075561523</t>
   </si>
   <si>
-    <t xml:space="preserve">19.5136585235596</t>
+    <t xml:space="preserve">19.5136623382568</t>
   </si>
   <si>
     <t xml:space="preserve">20.0388374328613</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3178405761719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1701316833496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0716590881348</t>
+    <t xml:space="preserve">20.3178386688232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1701335906982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0716609954834</t>
   </si>
   <si>
     <t xml:space="preserve">19.8418960571289</t>
@@ -1247,28 +1244,28 @@
     <t xml:space="preserve">19.8911304473877</t>
   </si>
   <si>
-    <t xml:space="preserve">19.8090705871582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9403667449951</t>
+    <t xml:space="preserve">19.8090724945068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9403705596924</t>
   </si>
   <si>
     <t xml:space="preserve">20.4327201843262</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6296615600586</t>
+    <t xml:space="preserve">20.6296653747559</t>
   </si>
   <si>
     <t xml:space="preserve">20.5311946868896</t>
   </si>
   <si>
-    <t xml:space="preserve">20.5968379974365</t>
+    <t xml:space="preserve">20.5968418121338</t>
   </si>
   <si>
     <t xml:space="preserve">20.7609577178955</t>
   </si>
   <si>
-    <t xml:space="preserve">20.5147800445557</t>
+    <t xml:space="preserve">20.5147819519043</t>
   </si>
   <si>
     <t xml:space="preserve">20.3506603240967</t>
@@ -1280,103 +1277,103 @@
     <t xml:space="preserve">20.3342533111572</t>
   </si>
   <si>
-    <t xml:space="preserve">20.4655475616455</t>
+    <t xml:space="preserve">20.4655456542969</t>
   </si>
   <si>
     <t xml:space="preserve">20.4163074493408</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3834857940674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4491310119629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7281360626221</t>
+    <t xml:space="preserve">20.3834838867188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4491329193115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7281341552734</t>
   </si>
   <si>
     <t xml:space="preserve">20.843017578125</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7937793731689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6789016723633</t>
+    <t xml:space="preserve">20.7937831878662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6788997650146</t>
   </si>
   <si>
     <t xml:space="preserve">20.7117233276367</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6460742950439</t>
+    <t xml:space="preserve">20.6460762023926</t>
   </si>
   <si>
     <t xml:space="preserve">20.8101940155029</t>
   </si>
   <si>
-    <t xml:space="preserve">19.251070022583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4808349609375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1854209899902</t>
+    <t xml:space="preserve">19.2510719299316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4808368682861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1854228973389</t>
   </si>
   <si>
     <t xml:space="preserve">19.1361865997314</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2887363433838</t>
+    <t xml:space="preserve">19.2887344360352</t>
   </si>
   <si>
     <t xml:space="preserve">19.0514373779297</t>
   </si>
   <si>
-    <t xml:space="preserve">19.492130279541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3226337432861</t>
+    <t xml:space="preserve">19.4921321868896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3226318359375</t>
   </si>
   <si>
     <t xml:space="preserve">19.7633247375488</t>
   </si>
   <si>
-    <t xml:space="preserve">19.6446781158447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7294292449951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6955280303955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6277294158936</t>
+    <t xml:space="preserve">19.6446800231934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7294273376465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6955261230469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6277275085449</t>
   </si>
   <si>
     <t xml:space="preserve">19.271785736084</t>
   </si>
   <si>
-    <t xml:space="preserve">19.559928894043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8311252593994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7802753448486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5429782867432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5938282012939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4412803649902</t>
+    <t xml:space="preserve">19.5599308013916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8311233520508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7802772521973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5429821014404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5938301086426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4412822723389</t>
   </si>
   <si>
     <t xml:space="preserve">18.8988933563232</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9158420562744</t>
+    <t xml:space="preserve">18.9158401489258</t>
   </si>
   <si>
     <t xml:space="preserve">18.7971935272217</t>
@@ -1385,10 +1382,13 @@
     <t xml:space="preserve">19.0175399780273</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0683879852295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.983642578125</t>
+    <t xml:space="preserve">19.0683917999268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1361904144287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9836387634277</t>
   </si>
   <si>
     <t xml:space="preserve">19.1022911071777</t>
@@ -1400,13 +1400,13 @@
     <t xml:space="preserve">19.6616287231445</t>
   </si>
   <si>
-    <t xml:space="preserve">19.5768795013428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3226642608643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3396167755127</t>
+    <t xml:space="preserve">19.5768814086914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3226661682129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3396148681641</t>
   </si>
   <si>
     <t xml:space="preserve">20.1870670318604</t>
@@ -1418,19 +1418,19 @@
     <t xml:space="preserve">19.9328231811523</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7124767303467</t>
+    <t xml:space="preserve">19.7124786376953</t>
   </si>
   <si>
     <t xml:space="preserve">20.2379169464111</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9158725738525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6107788085938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8480739593506</t>
+    <t xml:space="preserve">19.9158744812012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6107807159424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8480758666992</t>
   </si>
   <si>
     <t xml:space="preserve">20.4243640899658</t>
@@ -1448,31 +1448,31 @@
     <t xml:space="preserve">20.3057136535645</t>
   </si>
   <si>
-    <t xml:space="preserve">20.1701164245605</t>
+    <t xml:space="preserve">20.1701183319092</t>
   </si>
   <si>
     <t xml:space="preserve">20.2887668609619</t>
   </si>
   <si>
-    <t xml:space="preserve">20.2040176391602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3565635681152</t>
+    <t xml:space="preserve">20.2040195465088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3565654754639</t>
   </si>
   <si>
     <t xml:space="preserve">20.5091114044189</t>
   </si>
   <si>
-    <t xml:space="preserve">20.5260601043701</t>
+    <t xml:space="preserve">20.5260620117188</t>
   </si>
   <si>
     <t xml:space="preserve">20.4921627044678</t>
   </si>
   <si>
-    <t xml:space="preserve">20.9328536987305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.661657333374</t>
+    <t xml:space="preserve">20.9328556060791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6616592407227</t>
   </si>
   <si>
     <t xml:space="preserve">20.5769119262695</t>
@@ -1487,25 +1487,25 @@
     <t xml:space="preserve">21.6108417510986</t>
   </si>
   <si>
-    <t xml:space="preserve">21.6955890655518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5091438293457</t>
+    <t xml:space="preserve">21.6955871582031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5091419219971</t>
   </si>
   <si>
     <t xml:space="preserve">22.0345821380615</t>
   </si>
   <si>
-    <t xml:space="preserve">22.3905258178711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1023826599121</t>
+    <t xml:space="preserve">22.3905277252197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1023807525635</t>
   </si>
   <si>
     <t xml:space="preserve">21.4921932220459</t>
   </si>
   <si>
-    <t xml:space="preserve">21.7294902801514</t>
+    <t xml:space="preserve">21.7294883728027</t>
   </si>
   <si>
     <t xml:space="preserve">21.390495300293</t>
@@ -1517,16 +1517,16 @@
     <t xml:space="preserve">20.9667530059814</t>
   </si>
   <si>
-    <t xml:space="preserve">20.729455947876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5938606262207</t>
+    <t xml:space="preserve">20.7294578552246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5938625335693</t>
   </si>
   <si>
     <t xml:space="preserve">19.9667205810547</t>
   </si>
   <si>
-    <t xml:space="preserve">19.8819732666016</t>
+    <t xml:space="preserve">19.8819751739502</t>
   </si>
   <si>
     <t xml:space="preserve">19.5090827941895</t>
@@ -1535,7 +1535,7 @@
     <t xml:space="preserve">19.3734836578369</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0344886779785</t>
+    <t xml:space="preserve">19.0344905853271</t>
   </si>
   <si>
     <t xml:space="preserve">19.4751834869385</t>
@@ -1547,13 +1547,13 @@
     <t xml:space="preserve">19.8989219665527</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2378845214844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8819408416748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5090484619141</t>
+    <t xml:space="preserve">19.2378883361816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8819427490234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5090503692627</t>
   </si>
   <si>
     <t xml:space="preserve">18.1870040893555</t>
@@ -1571,40 +1571,40 @@
     <t xml:space="preserve">17.9327602386475</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1192073822021</t>
+    <t xml:space="preserve">18.1192054748535</t>
   </si>
   <si>
     <t xml:space="preserve">17.9666614532471</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8649635314941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1022567749023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2378559112549</t>
+    <t xml:space="preserve">17.8649616241455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.102258682251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2378540039062</t>
   </si>
   <si>
     <t xml:space="preserve">18.5260009765625</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8480110168457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3564701080322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9666290283203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.085277557373</t>
+    <t xml:space="preserve">17.8480129241943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3564720153809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9666309356689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0852756500244</t>
   </si>
   <si>
     <t xml:space="preserve">17.1022281646729</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3733901977539</t>
+    <t xml:space="preserve">16.3733882904053</t>
   </si>
   <si>
     <t xml:space="preserve">16.2716903686523</t>
@@ -1613,7 +1613,7 @@
     <t xml:space="preserve">16.6106853485107</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4242382049561</t>
+    <t xml:space="preserve">16.4242401123047</t>
   </si>
   <si>
     <t xml:space="preserve">16.3903408050537</t>
@@ -1622,22 +1622,22 @@
     <t xml:space="preserve">16.7378082275391</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8140811920166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7039070129395</t>
+    <t xml:space="preserve">16.8140830993652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7039089202881</t>
   </si>
   <si>
     <t xml:space="preserve">17.4581699371338</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2717208862305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.153076171875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3225708007812</t>
+    <t xml:space="preserve">17.2717247009277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1530742645264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3225727081299</t>
   </si>
   <si>
     <t xml:space="preserve">17.4920692443848</t>
@@ -1652,7 +1652,7 @@
     <t xml:space="preserve">18.2209053039551</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4073505401611</t>
+    <t xml:space="preserve">18.4073524475098</t>
   </si>
   <si>
     <t xml:space="preserve">18.3395538330078</t>
@@ -1661,31 +1661,31 @@
     <t xml:space="preserve">17.9836082458496</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0514087677002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6615657806396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2378234863281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5768146514893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7293643951416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8819103240967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4412498474121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1531085968018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9158115386963</t>
+    <t xml:space="preserve">18.0514068603516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.661563873291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2378253936768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5768165588379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.729362487793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8819122314453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4412517547607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1531066894531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9158096313477</t>
   </si>
   <si>
     <t xml:space="preserve">17.9497108459473</t>
@@ -1694,25 +1694,25 @@
     <t xml:space="preserve">17.8988628387451</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7463130950928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7124156951904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6276664733887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7632617950439</t>
+    <t xml:space="preserve">17.7463150024414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7124137878418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.62766456604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7632637023926</t>
   </si>
   <si>
     <t xml:space="preserve">17.3056240081787</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8734073638916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.186975479126</t>
+    <t xml:space="preserve">16.873405456543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1869735717773</t>
   </si>
   <si>
     <t xml:space="preserve">17.2039241790771</t>
@@ -1724,7 +1724,7 @@
     <t xml:space="preserve">17.2886734008789</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2547760009766</t>
+    <t xml:space="preserve">17.2547740936279</t>
   </si>
   <si>
     <t xml:space="preserve">17.220874786377</t>
@@ -1736,31 +1736,31 @@
     <t xml:space="preserve">17.4242706298828</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5429172515869</t>
+    <t xml:space="preserve">17.5429191589355</t>
   </si>
   <si>
     <t xml:space="preserve">17.814115524292</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5937690734863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.373420715332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1700248718262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5005435943604</t>
+    <t xml:space="preserve">17.5937652587891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3734226226807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1700267791748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.500545501709</t>
   </si>
   <si>
     <t xml:space="preserve">17.2462978363037</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3310489654541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4157962799072</t>
+    <t xml:space="preserve">17.3310470581055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.41579246521</t>
   </si>
   <si>
     <t xml:space="preserve">17.1615505218506</t>
@@ -1769,16 +1769,16 @@
     <t xml:space="preserve">17.0344295501709</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5852928161621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6700401306152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.348030090332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1361541748047</t>
+    <t xml:space="preserve">17.5852909088135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6700420379639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3480281829834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.136157989502</t>
   </si>
   <si>
     <t xml:space="preserve">18.0937824249268</t>
@@ -1787,22 +1787,22 @@
     <t xml:space="preserve">17.8395366668701</t>
   </si>
   <si>
-    <t xml:space="preserve">18.009033203125</t>
+    <t xml:space="preserve">18.0090351104736</t>
   </si>
   <si>
     <t xml:space="preserve">17.754789352417</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9242858886719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1785297393799</t>
+    <t xml:space="preserve">17.9242839813232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1785316467285</t>
   </si>
   <si>
     <t xml:space="preserve">17.9148921966553</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0909595489502</t>
+    <t xml:space="preserve">18.0909576416016</t>
   </si>
   <si>
     <t xml:space="preserve">17.9589099884033</t>
@@ -1823,16 +1823,16 @@
     <t xml:space="preserve">18.4871120452881</t>
   </si>
   <si>
-    <t xml:space="preserve">18.44309425354</t>
+    <t xml:space="preserve">18.4430961608887</t>
   </si>
   <si>
     <t xml:space="preserve">18.5311279296875</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3550605773926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0029277801514</t>
+    <t xml:space="preserve">18.3550624847412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0029258728027</t>
   </si>
   <si>
     <t xml:space="preserve">17.7828407287598</t>
@@ -1853,19 +1853,19 @@
     <t xml:space="preserve">18.7952308654785</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7512149810791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5751457214355</t>
+    <t xml:space="preserve">18.7512130737305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5751476287842</t>
   </si>
   <si>
     <t xml:space="preserve">18.619161605835</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3110446929932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7388229370117</t>
+    <t xml:space="preserve">18.3110427856445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7388248443604</t>
   </si>
   <si>
     <t xml:space="preserve">17.4307060241699</t>
@@ -1874,16 +1874,16 @@
     <t xml:space="preserve">17.3778858184814</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2370319366455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1666049957275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2722473144531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1137847900391</t>
+    <t xml:space="preserve">17.2370300292969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1666030883789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2722454071045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1137828826904</t>
   </si>
   <si>
     <t xml:space="preserve">17.3074588775635</t>
@@ -1895,13 +1895,13 @@
     <t xml:space="preserve">16.6912212371826</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7616481781006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.060962677002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4799404144287</t>
+    <t xml:space="preserve">16.7616500854492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0609645843506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4799385070801</t>
   </si>
   <si>
     <t xml:space="preserve">16.3743000030518</t>
@@ -1910,10 +1910,10 @@
     <t xml:space="preserve">16.620792388916</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1101970672607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3038711547852</t>
+    <t xml:space="preserve">16.1101989746094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3038730621338</t>
   </si>
   <si>
     <t xml:space="preserve">16.6560077667236</t>
@@ -1928,28 +1928,28 @@
     <t xml:space="preserve">16.3919086456299</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3214797973633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2334442138672</t>
+    <t xml:space="preserve">16.3214817047119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2334461212158</t>
   </si>
   <si>
     <t xml:space="preserve">16.9025020599365</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2898502349854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3954925537109</t>
+    <t xml:space="preserve">17.289852142334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3954944610596</t>
   </si>
   <si>
     <t xml:space="preserve">17.4483127593994</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6948070526123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0593318939209</t>
+    <t xml:space="preserve">17.6948089599609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0593338012695</t>
   </si>
   <si>
     <t xml:space="preserve">18.1349773406982</t>
@@ -1958,7 +1958,7 @@
     <t xml:space="preserve">18.3990783691406</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8708763122559</t>
+    <t xml:space="preserve">17.8708744049072</t>
   </si>
   <si>
     <t xml:space="preserve">17.6067733764648</t>
@@ -1967,22 +1967,22 @@
     <t xml:space="preserve">17.254638671875</t>
   </si>
   <si>
-    <t xml:space="preserve">16.849681854248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8848991394043</t>
+    <t xml:space="preserve">16.8496837615967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8848972320557</t>
   </si>
   <si>
     <t xml:space="preserve">17.1489963531494</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1313896179199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4835262298584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7264347076416</t>
+    <t xml:space="preserve">17.1313915252686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.483528137207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7264366149902</t>
   </si>
   <si>
     <t xml:space="preserve">16.6384010314941</t>
@@ -1994,19 +1994,19 @@
     <t xml:space="preserve">16.4271202087402</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7088279724121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6736164093018</t>
+    <t xml:space="preserve">16.7088298797607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6736145019531</t>
   </si>
   <si>
     <t xml:space="preserve">16.8144702911377</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3602771759033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.325065612793</t>
+    <t xml:space="preserve">17.360279083252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3250675201416</t>
   </si>
   <si>
     <t xml:space="preserve">16.9553241729736</t>
@@ -2024,25 +2024,25 @@
     <t xml:space="preserve">16.9905376434326</t>
   </si>
   <si>
-    <t xml:space="preserve">17.184211730957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5715599060059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4235334396362</t>
+    <t xml:space="preserve">17.1842098236084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5715579986572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4235343933105</t>
   </si>
   <si>
     <t xml:space="preserve">15.7052431106567</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0537929534912</t>
+    <t xml:space="preserve">15.0537939071655</t>
   </si>
   <si>
     <t xml:space="preserve">14.7896900177002</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4727687835693</t>
+    <t xml:space="preserve">14.472767829895</t>
   </si>
   <si>
     <t xml:space="preserve">14.2614879608154</t>
@@ -2054,7 +2054,7 @@
     <t xml:space="preserve">14.2086668014526</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4832038879395</t>
+    <t xml:space="preserve">12.4832029342651</t>
   </si>
   <si>
     <t xml:space="preserve">12.694483757019</t>
@@ -2069,22 +2069,22 @@
     <t xml:space="preserve">12.1838884353638</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7929534912109</t>
+    <t xml:space="preserve">10.7929525375366</t>
   </si>
   <si>
     <t xml:space="preserve">11.0042343139648</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5640649795532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9514131546021</t>
+    <t xml:space="preserve">10.5640640258789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9514122009277</t>
   </si>
   <si>
     <t xml:space="preserve">12.6064500808716</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2050809860229</t>
+    <t xml:space="preserve">13.2050800323486</t>
   </si>
   <si>
     <t xml:space="preserve">13.6452503204346</t>
@@ -2096,7 +2096,7 @@
     <t xml:space="preserve">13.0466194152832</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9021787643433</t>
+    <t xml:space="preserve">11.9021806716919</t>
   </si>
   <si>
     <t xml:space="preserve">11.5852575302124</t>
@@ -2114,13 +2114,13 @@
     <t xml:space="preserve">11.1626949310303</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1803007125854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0394468307495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7753448486328</t>
+    <t xml:space="preserve">11.1803016662598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0394477844238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7753458023071</t>
   </si>
   <si>
     <t xml:space="preserve">10.6697044372559</t>
@@ -2129,34 +2129,34 @@
     <t xml:space="preserve">10.5816707611084</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1098737716675</t>
+    <t xml:space="preserve">11.1098747253418</t>
   </si>
   <si>
     <t xml:space="preserve">11.3563690185547</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9338064193726</t>
+    <t xml:space="preserve">10.9338054656982</t>
   </si>
   <si>
     <t xml:space="preserve">10.6873121261597</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8809852600098</t>
+    <t xml:space="preserve">10.8809862136841</t>
   </si>
   <si>
     <t xml:space="preserve">10.6168842315674</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6520986557007</t>
+    <t xml:space="preserve">10.6520977020264</t>
   </si>
   <si>
     <t xml:space="preserve">10.7401323318481</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5288505554199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0358610153198</t>
+    <t xml:space="preserve">10.5288515090942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0358600616455</t>
   </si>
   <si>
     <t xml:space="preserve">10.0886812210083</t>
@@ -2165,10 +2165,10 @@
     <t xml:space="preserve">9.89500617980957</t>
   </si>
   <si>
-    <t xml:space="preserve">9.70133209228516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.63090419769287</t>
+    <t xml:space="preserve">9.70133304595947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.63090515136719</t>
   </si>
   <si>
     <t xml:space="preserve">10.282356262207</t>
@@ -2177,13 +2177,13 @@
     <t xml:space="preserve">10.7577390670776</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2999629974365</t>
+    <t xml:space="preserve">10.2999620437622</t>
   </si>
   <si>
     <t xml:space="preserve">9.96543312072754</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0746603012085</t>
+    <t xml:space="preserve">11.0746612548828</t>
   </si>
   <si>
     <t xml:space="preserve">10.8457727432251</t>
@@ -2195,10 +2195,10 @@
     <t xml:space="preserve">11.6732912063599</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5676507949829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6556844711304</t>
+    <t xml:space="preserve">11.5676517486572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6556835174561</t>
   </si>
   <si>
     <t xml:space="preserve">11.4796161651611</t>
@@ -2210,7 +2210,7 @@
     <t xml:space="preserve">12.5360231399536</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5008087158203</t>
+    <t xml:space="preserve">12.5008096694946</t>
   </si>
   <si>
     <t xml:space="preserve">12.3071346282959</t>
@@ -2222,31 +2222,31 @@
     <t xml:space="preserve">11.3387622833252</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6204710006714</t>
+    <t xml:space="preserve">11.6204700469971</t>
   </si>
   <si>
     <t xml:space="preserve">11.6380777359009</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9549989700317</t>
+    <t xml:space="preserve">11.9549999237061</t>
   </si>
   <si>
     <t xml:space="preserve">11.9726066589355</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8669652938843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.025426864624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.990213394165</t>
+    <t xml:space="preserve">11.8669662475586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0254259109497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9902124404907</t>
   </si>
   <si>
     <t xml:space="preserve">11.7613248825073</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6908979415894</t>
+    <t xml:space="preserve">11.690896987915</t>
   </si>
   <si>
     <t xml:space="preserve">11.7437181472778</t>
@@ -2267,28 +2267,28 @@
     <t xml:space="preserve">11.3035488128662</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9866256713867</t>
+    <t xml:space="preserve">10.986626625061</t>
   </si>
   <si>
     <t xml:space="preserve">10.8633794784546</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6028633117676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1979093551636</t>
+    <t xml:space="preserve">11.6028642654419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1979084014893</t>
   </si>
   <si>
     <t xml:space="preserve">11.1450881958008</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2683353424072</t>
+    <t xml:space="preserve">11.2683343887329</t>
   </si>
   <si>
     <t xml:space="preserve">11.1274814605713</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6344919204712</t>
+    <t xml:space="preserve">10.6344909667969</t>
   </si>
   <si>
     <t xml:space="preserve">10.9690198898315</t>
@@ -2300,13 +2300,13 @@
     <t xml:space="preserve">11.2507286071777</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8141460418701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1134614944458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.131067276001</t>
+    <t xml:space="preserve">11.8141450881958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1134605407715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1310663223267</t>
   </si>
   <si>
     <t xml:space="preserve">11.9197864532471</t>
@@ -2315,7 +2315,7 @@
     <t xml:space="preserve">11.5324373245239</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0078191757202</t>
+    <t xml:space="preserve">12.0078201293945</t>
   </si>
   <si>
     <t xml:space="preserve">12.0958528518677</t>
@@ -2324,31 +2324,31 @@
     <t xml:space="preserve">12.2191019058228</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5888433456421</t>
+    <t xml:space="preserve">12.5888442993164</t>
   </si>
   <si>
     <t xml:space="preserve">12.9585857391357</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7120904922485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.800124168396</t>
+    <t xml:space="preserve">12.7120895385742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8001251220703</t>
   </si>
   <si>
     <t xml:space="preserve">13.0114059448242</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0782480239868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.796537399292</t>
+    <t xml:space="preserve">12.0782470703125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7965383529663</t>
   </si>
   <si>
     <t xml:space="preserve">11.2859420776367</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8985939025879</t>
+    <t xml:space="preserve">10.8985929489136</t>
   </si>
   <si>
     <t xml:space="preserve">10.1415023803711</t>
@@ -2369,25 +2369,25 @@
     <t xml:space="preserve">13.2579011917114</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8037118911743</t>
+    <t xml:space="preserve">13.8037109375</t>
   </si>
   <si>
     <t xml:space="preserve">12.9409790039062</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6276426315308</t>
+    <t xml:space="preserve">13.6276435852051</t>
   </si>
   <si>
     <t xml:space="preserve">14.1382389068604</t>
   </si>
   <si>
-    <t xml:space="preserve">13.169867515564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0290117263794</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5043964385986</t>
+    <t xml:space="preserve">13.1698665618896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.029013633728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5043954849243</t>
   </si>
   <si>
     <t xml:space="preserve">13.6980714797974</t>
@@ -2402,10 +2402,10 @@
     <t xml:space="preserve">13.874137878418</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8213176727295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8917446136475</t>
+    <t xml:space="preserve">13.8213167190552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8917436599731</t>
   </si>
   <si>
     <t xml:space="preserve">13.838924407959</t>
@@ -2417,13 +2417,13 @@
     <t xml:space="preserve">13.2755069732666</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5220012664795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.134654045105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2402944564819</t>
+    <t xml:space="preserve">13.5220022201538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1346530914307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2402935028076</t>
   </si>
   <si>
     <t xml:space="preserve">13.4339685440063</t>
@@ -2438,7 +2438,7 @@
     <t xml:space="preserve">14.3671274185181</t>
   </si>
   <si>
-    <t xml:space="preserve">14.842511177063</t>
+    <t xml:space="preserve">14.8425102233887</t>
   </si>
   <si>
     <t xml:space="preserve">15.247465133667</t>
@@ -2456,7 +2456,7 @@
     <t xml:space="preserve">15.5291738510132</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9657583236694</t>
+    <t xml:space="preserve">14.9657573699951</t>
   </si>
   <si>
     <t xml:space="preserve">15.317892074585</t>
@@ -2465,25 +2465,25 @@
     <t xml:space="preserve">15.6876373291016</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6524219512939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3883209228516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2298574447632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1242179870605</t>
+    <t xml:space="preserve">15.6524238586426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3883190155029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2298583984375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1242208480835</t>
   </si>
   <si>
     <t xml:space="preserve">15.1066122055054</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6312294006348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.877724647522</t>
+    <t xml:space="preserve">14.6312303543091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8777236938477</t>
   </si>
   <si>
     <t xml:space="preserve">14.9129390716553</t>
@@ -2492,25 +2492,25 @@
     <t xml:space="preserve">15.1594324111938</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9693450927734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.846095085144</t>
+    <t xml:space="preserve">15.9693431854248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8460969924927</t>
   </si>
   <si>
     <t xml:space="preserve">16.3390846252441</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2862682342529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9729309082031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8108816146851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8989181518555</t>
+    <t xml:space="preserve">16.2862663269043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9729290008545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8108835220337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8989162445068</t>
   </si>
   <si>
     <t xml:space="preserve">15.8284893035889</t>
@@ -2531,7 +2531,7 @@
     <t xml:space="preserve">17.0785694122314</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0433578491211</t>
+    <t xml:space="preserve">17.0433559417725</t>
   </si>
   <si>
     <t xml:space="preserve">16.5151538848877</t>
@@ -2540,25 +2540,25 @@
     <t xml:space="preserve">15.9341297149658</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1982326507568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1630172729492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0749855041504</t>
+    <t xml:space="preserve">16.1982307434082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1630191802979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0749835968018</t>
   </si>
   <si>
     <t xml:space="preserve">16.4447269439697</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5855827331543</t>
+    <t xml:space="preserve">16.5855808258057</t>
   </si>
   <si>
     <t xml:space="preserve">16.1454124450684</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4535293579102</t>
+    <t xml:space="preserve">16.4535312652588</t>
   </si>
   <si>
     <t xml:space="preserve">16.2070350646973</t>
@@ -2567,7 +2567,7 @@
     <t xml:space="preserve">16.1894283294678</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4975490570068</t>
+    <t xml:space="preserve">16.4975471496582</t>
   </si>
   <si>
     <t xml:space="preserve">16.5327606201172</t>
@@ -2594,7 +2594,7 @@
     <t xml:space="preserve">17.404296875</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5979690551758</t>
+    <t xml:space="preserve">17.5979709625244</t>
   </si>
   <si>
     <t xml:space="preserve">16.8408794403076</t>
@@ -2609,19 +2609,19 @@
     <t xml:space="preserve">17.474723815918</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6419887542725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8532695770264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7300224304199</t>
+    <t xml:space="preserve">17.6419868469238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8532676696777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7300205230713</t>
   </si>
   <si>
     <t xml:space="preserve">17.9413032531738</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9765148162842</t>
+    <t xml:space="preserve">17.9765167236328</t>
   </si>
   <si>
     <t xml:space="preserve">18.1877975463867</t>
@@ -2630,7 +2630,7 @@
     <t xml:space="preserve">18.3638668060303</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5047187805176</t>
+    <t xml:space="preserve">18.5047225952148</t>
   </si>
   <si>
     <t xml:space="preserve">18.5223274230957</t>
@@ -2642,25 +2642,25 @@
     <t xml:space="preserve">17.7476272583008</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2054023742676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0997619628906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0821571350098</t>
+    <t xml:space="preserve">18.2054042816162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0997638702393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0821590423584</t>
   </si>
   <si>
     <t xml:space="preserve">17.9236965179443</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8004493713379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8884811401367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2582263946533</t>
+    <t xml:space="preserve">17.8004474639893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8884830474854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2582244873047</t>
   </si>
   <si>
     <t xml:space="preserve">18.1525859832764</t>
@@ -2672,10 +2672,10 @@
     <t xml:space="preserve">17.7652359008789</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4166851043701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3286533355713</t>
+    <t xml:space="preserve">18.4166831970215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3286514282227</t>
   </si>
   <si>
     <t xml:space="preserve">17.9060897827148</t>
@@ -2684,7 +2684,7 @@
     <t xml:space="preserve">16.8936996459961</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2018203735352</t>
+    <t xml:space="preserve">17.2018184661865</t>
   </si>
   <si>
     <t xml:space="preserve">17.2282276153564</t>
@@ -2693,19 +2693,19 @@
     <t xml:space="preserve">17.624382019043</t>
   </si>
   <si>
-    <t xml:space="preserve">19.8428382873535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3146324157715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2794170379639</t>
+    <t xml:space="preserve">19.8428363800049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3146305084229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2794189453125</t>
   </si>
   <si>
     <t xml:space="preserve">18.698392868042</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1913814544678</t>
+    <t xml:space="preserve">19.1913833618164</t>
   </si>
   <si>
     <t xml:space="preserve">18.7336082458496</t>
@@ -2714,7 +2714,7 @@
     <t xml:space="preserve">18.8920669555664</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4695053100586</t>
+    <t xml:space="preserve">18.4695072174072</t>
   </si>
   <si>
     <t xml:space="preserve">18.3814697265625</t>
@@ -2729,13 +2729,13 @@
     <t xml:space="preserve">18.0117301940918</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2406177520752</t>
+    <t xml:space="preserve">18.2406158447266</t>
   </si>
   <si>
     <t xml:space="preserve">17.4131011962891</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4219036102295</t>
+    <t xml:space="preserve">17.4219017028809</t>
   </si>
   <si>
     <t xml:space="preserve">17.034553527832</t>
@@ -2750,13 +2750,13 @@
     <t xml:space="preserve">18.1173706054688</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2934379577637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.76881980896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5575408935547</t>
+    <t xml:space="preserve">18.2934398651123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7688217163086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5575389862061</t>
   </si>
   <si>
     <t xml:space="preserve">18.3361072540283</t>
@@ -2774,7 +2774,7 @@
     <t xml:space="preserve">18.4793586730957</t>
   </si>
   <si>
-    <t xml:space="preserve">18.443546295166</t>
+    <t xml:space="preserve">18.4435443878174</t>
   </si>
   <si>
     <t xml:space="preserve">18.7479553222656</t>
@@ -2783,7 +2783,7 @@
     <t xml:space="preserve">18.5151710510254</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5330772399902</t>
+    <t xml:space="preserve">18.5330791473389</t>
   </si>
   <si>
     <t xml:space="preserve">18.2286682128906</t>
@@ -2804,10 +2804,10 @@
     <t xml:space="preserve">18.1391372680664</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9063549041748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7810096740723</t>
+    <t xml:space="preserve">17.9063568115234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7810115814209</t>
   </si>
   <si>
     <t xml:space="preserve">18.2644805908203</t>
@@ -2819,7 +2819,7 @@
     <t xml:space="preserve">17.0826625823975</t>
   </si>
   <si>
-    <t xml:space="preserve">17.136381149292</t>
+    <t xml:space="preserve">17.1363830566406</t>
   </si>
   <si>
     <t xml:space="preserve">16.760347366333</t>
@@ -2834,10 +2834,10 @@
     <t xml:space="preserve">16.3574562072754</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4738483428955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0261859893799</t>
+    <t xml:space="preserve">16.4738464355469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0261878967285</t>
   </si>
   <si>
     <t xml:space="preserve">16.3664093017578</t>
@@ -2861,16 +2861,16 @@
     <t xml:space="preserve">16.8677864074707</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9931297302246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9125518798828</t>
+    <t xml:space="preserve">16.9931316375732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9125499725342</t>
   </si>
   <si>
     <t xml:space="preserve">16.7334880828857</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7424430847168</t>
+    <t xml:space="preserve">16.7424411773682</t>
   </si>
   <si>
     <t xml:space="preserve">16.4648933410645</t>
@@ -2882,7 +2882,7 @@
     <t xml:space="preserve">16.1157188415527</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1694393157959</t>
+    <t xml:space="preserve">16.1694374084473</t>
   </si>
   <si>
     <t xml:space="preserve">16.3395481109619</t>
@@ -2897,7 +2897,7 @@
     <t xml:space="preserve">17.2975387573242</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4586963653564</t>
+    <t xml:space="preserve">17.4586944580078</t>
   </si>
   <si>
     <t xml:space="preserve">16.5454711914062</t>
@@ -2909,13 +2909,13 @@
     <t xml:space="preserve">17.0199909210205</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9483642578125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3154468536377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8946475982666</t>
+    <t xml:space="preserve">16.9483661651611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3154449462891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.894645690918</t>
   </si>
   <si>
     <t xml:space="preserve">17.0020847320557</t>
@@ -2927,13 +2927,13 @@
     <t xml:space="preserve">15.9366550445557</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0799045562744</t>
+    <t xml:space="preserve">16.079906463623</t>
   </si>
   <si>
     <t xml:space="preserve">16.4827995300293</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7872066497803</t>
+    <t xml:space="preserve">16.7872085571289</t>
   </si>
   <si>
     <t xml:space="preserve">16.5186138153076</t>
@@ -2960,13 +2960,13 @@
     <t xml:space="preserve">16.0978126525879</t>
   </si>
   <si>
-    <t xml:space="preserve">16.384313583374</t>
+    <t xml:space="preserve">16.3843154907227</t>
   </si>
   <si>
     <t xml:space="preserve">16.590238571167</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4290809631348</t>
+    <t xml:space="preserve">16.4290828704834</t>
   </si>
   <si>
     <t xml:space="preserve">16.0888595581055</t>
@@ -2978,19 +2978,19 @@
     <t xml:space="preserve">15.2920265197754</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5847272872925</t>
+    <t xml:space="preserve">14.5847263336182</t>
   </si>
   <si>
     <t xml:space="preserve">14.9159936904907</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9876184463501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2534580230713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4235687255859</t>
+    <t xml:space="preserve">14.9876194000244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2534589767456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4235696792603</t>
   </si>
   <si>
     <t xml:space="preserve">13.949049949646</t>
@@ -3002,19 +3002,19 @@
     <t xml:space="preserve">13.3760471343994</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6983623504639</t>
+    <t xml:space="preserve">13.6983613967896</t>
   </si>
   <si>
     <t xml:space="preserve">14.1549739837646</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9311437606812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3429908752441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7727432250977</t>
+    <t xml:space="preserve">13.9311447143555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3429899215698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7727422714233</t>
   </si>
   <si>
     <t xml:space="preserve">14.1370677947998</t>
@@ -3053,10 +3053,10 @@
     <t xml:space="preserve">13.232795715332</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8746690750122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0358276367188</t>
+    <t xml:space="preserve">12.8746700286865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0358266830444</t>
   </si>
   <si>
     <t xml:space="preserve">13.1074514389038</t>
@@ -3071,10 +3071,10 @@
     <t xml:space="preserve">14.2355518341064</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2176456451416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2713651657104</t>
+    <t xml:space="preserve">14.2176465988159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2713642120361</t>
   </si>
   <si>
     <t xml:space="preserve">14.6294927597046</t>
@@ -3086,7 +3086,7 @@
     <t xml:space="preserve">14.0385828018188</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7520799636841</t>
+    <t xml:space="preserve">13.7520809173584</t>
   </si>
   <si>
     <t xml:space="preserve">13.8774251937866</t>
@@ -3095,10 +3095,10 @@
     <t xml:space="preserve">13.4834861755371</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5551099777222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1611700057983</t>
+    <t xml:space="preserve">13.5551109313965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1611709594727</t>
   </si>
   <si>
     <t xml:space="preserve">12.9642000198364</t>
@@ -3107,22 +3107,22 @@
     <t xml:space="preserve">12.7851371765137</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6060733795166</t>
+    <t xml:space="preserve">12.6060743331909</t>
   </si>
   <si>
     <t xml:space="preserve">12.8925752639771</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9104814529419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9821071624756</t>
+    <t xml:space="preserve">12.9104824066162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9821081161499</t>
   </si>
   <si>
     <t xml:space="preserve">13.2148895263672</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1432647705078</t>
+    <t xml:space="preserve">13.1432638168335</t>
   </si>
   <si>
     <t xml:space="preserve">13.0537328720093</t>
@@ -3131,7 +3131,7 @@
     <t xml:space="preserve">12.5523548126221</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3911981582642</t>
+    <t xml:space="preserve">12.3911972045898</t>
   </si>
   <si>
     <t xml:space="preserve">12.3633937835693</t>
@@ -3140,13 +3140,13 @@
     <t xml:space="preserve">12.178035736084</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0668201446533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6228952407837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6414308547974</t>
+    <t xml:space="preserve">12.0668210983276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6228942871094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6414318084717</t>
   </si>
   <si>
     <t xml:space="preserve">13.1975049972534</t>
@@ -3155,25 +3155,25 @@
     <t xml:space="preserve">12.8453245162964</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7526454925537</t>
+    <t xml:space="preserve">12.752646446228</t>
   </si>
   <si>
     <t xml:space="preserve">12.7155742645264</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9380035400391</t>
+    <t xml:space="preserve">12.9380044937134</t>
   </si>
   <si>
     <t xml:space="preserve">13.0862903594971</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3272562026978</t>
+    <t xml:space="preserve">13.3272571563721</t>
   </si>
   <si>
     <t xml:space="preserve">13.0677547454834</t>
   </si>
   <si>
-    <t xml:space="preserve">12.307785987854</t>
+    <t xml:space="preserve">12.3077850341797</t>
   </si>
   <si>
     <t xml:space="preserve">12.1409645080566</t>
@@ -3182,7 +3182,7 @@
     <t xml:space="preserve">11.881462097168</t>
   </si>
   <si>
-    <t xml:space="preserve">12.437536239624</t>
+    <t xml:space="preserve">12.4375371932983</t>
   </si>
   <si>
     <t xml:space="preserve">12.2892503738403</t>
@@ -3203,13 +3203,13 @@
     <t xml:space="preserve">12.4746084213257</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1965713500977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9556045532227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4736747741699</t>
+    <t xml:space="preserve">12.1965703964233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.955605506897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4736738204956</t>
   </si>
   <si>
     <t xml:space="preserve">11.73317527771</t>
@@ -3221,13 +3221,13 @@
     <t xml:space="preserve">12.085355758667</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9370698928833</t>
+    <t xml:space="preserve">11.937068939209</t>
   </si>
   <si>
     <t xml:space="preserve">11.7146396636963</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5107460021973</t>
+    <t xml:space="preserve">11.5107450485229</t>
   </si>
   <si>
     <t xml:space="preserve">12.0297479629517</t>
@@ -3245,7 +3245,7 @@
     <t xml:space="preserve">12.3263216018677</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5116806030273</t>
+    <t xml:space="preserve">12.511679649353</t>
   </si>
   <si>
     <t xml:space="preserve">12.5487518310547</t>
@@ -3263,22 +3263,22 @@
     <t xml:space="preserve">12.252179145813</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1224279403687</t>
+    <t xml:space="preserve">12.1224269866943</t>
   </si>
   <si>
     <t xml:space="preserve">11.7887830734253</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7702465057373</t>
+    <t xml:space="preserve">11.7702474594116</t>
   </si>
   <si>
     <t xml:space="preserve">11.3809947967529</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3439226150513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3253879547119</t>
+    <t xml:space="preserve">11.3439235687256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3253870010376</t>
   </si>
   <si>
     <t xml:space="preserve">11.1585655212402</t>
@@ -3287,13 +3287,13 @@
     <t xml:space="preserve">10.9175987243652</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8619918823242</t>
+    <t xml:space="preserve">10.8619928359985</t>
   </si>
   <si>
     <t xml:space="preserve">10.6766338348389</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7693119049072</t>
+    <t xml:space="preserve">10.7693128585815</t>
   </si>
   <si>
     <t xml:space="preserve">10.3800601959229</t>
@@ -3305,10 +3305,10 @@
     <t xml:space="preserve">10.4171314239502</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3615245819092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6024904251099</t>
+    <t xml:space="preserve">10.3615255355835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6024894714355</t>
   </si>
   <si>
     <t xml:space="preserve">10.8249206542969</t>
@@ -3317,13 +3317,13 @@
     <t xml:space="preserve">9.86105823516846</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1020221710205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.78691387176514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.82398700714111</t>
+    <t xml:space="preserve">10.1020231246948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.78691482543945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.8239860534668</t>
   </si>
   <si>
     <t xml:space="preserve">9.62009143829346</t>
@@ -3341,10 +3341,10 @@
     <t xml:space="preserve">9.00840950012207</t>
   </si>
   <si>
-    <t xml:space="preserve">8.69330024719238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.96207046508789</t>
+    <t xml:space="preserve">8.6933012008667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.96206951141357</t>
   </si>
   <si>
     <t xml:space="preserve">8.98060607910156</t>
@@ -3356,13 +3356,13 @@
     <t xml:space="preserve">9.09182167053223</t>
   </si>
   <si>
-    <t xml:space="preserve">8.86012363433838</t>
+    <t xml:space="preserve">8.86012268066406</t>
   </si>
   <si>
     <t xml:space="preserve">9.07328510284424</t>
   </si>
   <si>
-    <t xml:space="preserve">9.11962413787842</t>
+    <t xml:space="preserve">9.11962509155273</t>
   </si>
   <si>
     <t xml:space="preserve">9.39766216278076</t>
@@ -3377,25 +3377,25 @@
     <t xml:space="preserve">9.56448459625244</t>
   </si>
   <si>
-    <t xml:space="preserve">9.37912559509277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.26791095733643</t>
+    <t xml:space="preserve">9.37912654876709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.26791191101074</t>
   </si>
   <si>
     <t xml:space="preserve">9.58302021026611</t>
   </si>
   <si>
-    <t xml:space="preserve">9.65716361999512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.99080753326416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.87959289550781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.84252166748047</t>
+    <t xml:space="preserve">9.6571626663208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.99080848693848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.87959384918213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.84252071380615</t>
   </si>
   <si>
     <t xml:space="preserve">9.9722728729248</t>
@@ -3410,7 +3410,7 @@
     <t xml:space="preserve">10.2132387161255</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5283470153809</t>
+    <t xml:space="preserve">10.5283460617065</t>
   </si>
   <si>
     <t xml:space="preserve">10.8990640640259</t>
@@ -3419,7 +3419,7 @@
     <t xml:space="preserve">10.2503099441528</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2317743301392</t>
+    <t xml:space="preserve">10.2317733764648</t>
   </si>
   <si>
     <t xml:space="preserve">10.2688455581665</t>
@@ -3428,19 +3428,19 @@
     <t xml:space="preserve">10.4356679916382</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6580972671509</t>
+    <t xml:space="preserve">10.6580982208252</t>
   </si>
   <si>
     <t xml:space="preserve">10.2873821258545</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5468835830688</t>
+    <t xml:space="preserve">10.5468826293945</t>
   </si>
   <si>
     <t xml:space="preserve">10.5839548110962</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4912757873535</t>
+    <t xml:space="preserve">10.4912748336792</t>
   </si>
   <si>
     <t xml:space="preserve">10.4727401733398</t>
@@ -3452,7 +3452,7 @@
     <t xml:space="preserve">10.6951694488525</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3985958099365</t>
+    <t xml:space="preserve">10.3985967636108</t>
   </si>
   <si>
     <t xml:space="preserve">10.5654182434082</t>
@@ -3461,7 +3461,7 @@
     <t xml:space="preserve">10.6210260391235</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0844211578369</t>
+    <t xml:space="preserve">11.0844221115112</t>
   </si>
   <si>
     <t xml:space="preserve">11.3068513870239</t>
@@ -3479,7 +3479,7 @@
     <t xml:space="preserve">11.5848894119263</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6961030960083</t>
+    <t xml:space="preserve">11.6961040496826</t>
   </si>
   <si>
     <t xml:space="preserve">12.0482845306396</t>
@@ -3503,19 +3503,19 @@
     <t xml:space="preserve">11.2512445449829</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2141733169556</t>
+    <t xml:space="preserve">11.2141723632812</t>
   </si>
   <si>
     <t xml:space="preserve">11.1214933395386</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8063850402832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8434562683105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6395616531372</t>
+    <t xml:space="preserve">10.8063840866089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8434553146362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6395606994629</t>
   </si>
   <si>
     <t xml:space="preserve">10.4542036056519</t>
@@ -3530,13 +3530,13 @@
     <t xml:space="preserve">10.9917421340942</t>
   </si>
   <si>
-    <t xml:space="preserve">12.233642578125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6785020828247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.418999671936</t>
+    <t xml:space="preserve">12.2336416244507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.678503036499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4190006256104</t>
   </si>
   <si>
     <t xml:space="preserve">12.8638610839844</t>
@@ -3551,7 +3551,7 @@
     <t xml:space="preserve">12.60435962677</t>
   </si>
   <si>
-    <t xml:space="preserve">12.808253288269</t>
+    <t xml:space="preserve">12.8082523345947</t>
   </si>
   <si>
     <t xml:space="preserve">12.7711811065674</t>
@@ -3563,7 +3563,7 @@
     <t xml:space="preserve">13.9760093688965</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8647956848145</t>
+    <t xml:space="preserve">13.8647947311401</t>
   </si>
   <si>
     <t xml:space="preserve">13.6609010696411</t>
@@ -9853,7 +9853,7 @@
         <v>17.0300006866455</v>
       </c>
       <c r="G209" t="s">
-        <v>166</v>
+        <v>87</v>
       </c>
       <c r="H209" t="s">
         <v>9</v>
@@ -9879,7 +9879,7 @@
         <v>16.9400005340576</v>
       </c>
       <c r="G210" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H210" t="s">
         <v>9</v>
@@ -9905,7 +9905,7 @@
         <v>16.7999992370605</v>
       </c>
       <c r="G211" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H211" t="s">
         <v>9</v>
@@ -9931,7 +9931,7 @@
         <v>16.7600002288818</v>
       </c>
       <c r="G212" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H212" t="s">
         <v>9</v>
@@ -9957,7 +9957,7 @@
         <v>16.7399997711182</v>
       </c>
       <c r="G213" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H213" t="s">
         <v>9</v>
@@ -9983,7 +9983,7 @@
         <v>16.7800006866455</v>
       </c>
       <c r="G214" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H214" t="s">
         <v>9</v>
@@ -10009,7 +10009,7 @@
         <v>16.7700004577637</v>
       </c>
       <c r="G215" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H215" t="s">
         <v>9</v>
@@ -10035,7 +10035,7 @@
         <v>16.5900001525879</v>
       </c>
       <c r="G216" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H216" t="s">
         <v>9</v>
@@ -10061,7 +10061,7 @@
         <v>16.3999996185303</v>
       </c>
       <c r="G217" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H217" t="s">
         <v>9</v>
@@ -10113,7 +10113,7 @@
         <v>16.6599998474121</v>
       </c>
       <c r="G219" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H219" t="s">
         <v>9</v>
@@ -10217,7 +10217,7 @@
         <v>16.7000007629395</v>
       </c>
       <c r="G223" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H223" t="s">
         <v>9</v>
@@ -10243,7 +10243,7 @@
         <v>16.5599994659424</v>
       </c>
       <c r="G224" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H224" t="s">
         <v>9</v>
@@ -10269,7 +10269,7 @@
         <v>16</v>
       </c>
       <c r="G225" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H225" t="s">
         <v>9</v>
@@ -10295,7 +10295,7 @@
         <v>16.5100002288818</v>
       </c>
       <c r="G226" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H226" t="s">
         <v>9</v>
@@ -10321,7 +10321,7 @@
         <v>16.7999992370605</v>
       </c>
       <c r="G227" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H227" t="s">
         <v>9</v>
@@ -10347,7 +10347,7 @@
         <v>16.6900005340576</v>
       </c>
       <c r="G228" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H228" t="s">
         <v>9</v>
@@ -10373,7 +10373,7 @@
         <v>16.5400009155273</v>
       </c>
       <c r="G229" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H229" t="s">
         <v>9</v>
@@ -10399,7 +10399,7 @@
         <v>16.7000007629395</v>
       </c>
       <c r="G230" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H230" t="s">
         <v>9</v>
@@ -10425,7 +10425,7 @@
         <v>16.6599998474121</v>
       </c>
       <c r="G231" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H231" t="s">
         <v>9</v>
@@ -10451,7 +10451,7 @@
         <v>16.5900001525879</v>
       </c>
       <c r="G232" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H232" t="s">
         <v>9</v>
@@ -10477,7 +10477,7 @@
         <v>16.5699996948242</v>
       </c>
       <c r="G233" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H233" t="s">
         <v>9</v>
@@ -10503,7 +10503,7 @@
         <v>16.3899993896484</v>
       </c>
       <c r="G234" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H234" t="s">
         <v>9</v>
@@ -10529,7 +10529,7 @@
         <v>16.25</v>
       </c>
       <c r="G235" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H235" t="s">
         <v>9</v>
@@ -10555,7 +10555,7 @@
         <v>16.3700008392334</v>
       </c>
       <c r="G236" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H236" t="s">
         <v>9</v>
@@ -10581,7 +10581,7 @@
         <v>16.4799995422363</v>
       </c>
       <c r="G237" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H237" t="s">
         <v>9</v>
@@ -10607,7 +10607,7 @@
         <v>16.4599990844727</v>
       </c>
       <c r="G238" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H238" t="s">
         <v>9</v>
@@ -10659,7 +10659,7 @@
         <v>17</v>
       </c>
       <c r="G240" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H240" t="s">
         <v>9</v>
@@ -10711,7 +10711,7 @@
         <v>16.9300003051758</v>
       </c>
       <c r="G242" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H242" t="s">
         <v>9</v>
@@ -10763,7 +10763,7 @@
         <v>17</v>
       </c>
       <c r="G244" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H244" t="s">
         <v>9</v>
@@ -10789,7 +10789,7 @@
         <v>17.0799999237061</v>
       </c>
       <c r="G245" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H245" t="s">
         <v>9</v>
@@ -10815,7 +10815,7 @@
         <v>17.4899997711182</v>
       </c>
       <c r="G246" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H246" t="s">
         <v>9</v>
@@ -10867,7 +10867,7 @@
         <v>17.2999992370605</v>
       </c>
       <c r="G248" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H248" t="s">
         <v>9</v>
@@ -10919,7 +10919,7 @@
         <v>17.5400009155273</v>
       </c>
       <c r="G250" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H250" t="s">
         <v>9</v>
@@ -10945,7 +10945,7 @@
         <v>17.3500003814697</v>
       </c>
       <c r="G251" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H251" t="s">
         <v>9</v>
@@ -10997,7 +10997,7 @@
         <v>17.5499992370605</v>
       </c>
       <c r="G253" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H253" t="s">
         <v>9</v>
@@ -11023,7 +11023,7 @@
         <v>17.5799999237061</v>
       </c>
       <c r="G254" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H254" t="s">
         <v>9</v>
@@ -11049,7 +11049,7 @@
         <v>17.6100006103516</v>
       </c>
       <c r="G255" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H255" t="s">
         <v>9</v>
@@ -11101,7 +11101,7 @@
         <v>17.3500003814697</v>
       </c>
       <c r="G257" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H257" t="s">
         <v>9</v>
@@ -11153,7 +11153,7 @@
         <v>17.5400009155273</v>
       </c>
       <c r="G259" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H259" t="s">
         <v>9</v>
@@ -11205,7 +11205,7 @@
         <v>17.5900001525879</v>
       </c>
       <c r="G261" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H261" t="s">
         <v>9</v>
@@ -11231,7 +11231,7 @@
         <v>17.6700000762939</v>
       </c>
       <c r="G262" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H262" t="s">
         <v>9</v>
@@ -11309,7 +11309,7 @@
         <v>17.3700008392334</v>
       </c>
       <c r="G265" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H265" t="s">
         <v>9</v>
@@ -11387,7 +11387,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G268" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H268" t="s">
         <v>9</v>
@@ -11439,7 +11439,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G270" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H270" t="s">
         <v>9</v>
@@ -11465,7 +11465,7 @@
         <v>17.8799991607666</v>
       </c>
       <c r="G271" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H271" t="s">
         <v>9</v>
@@ -11517,7 +11517,7 @@
         <v>18.5200004577637</v>
       </c>
       <c r="G273" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H273" t="s">
         <v>9</v>
@@ -11543,7 +11543,7 @@
         <v>18.5900001525879</v>
       </c>
       <c r="G274" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H274" t="s">
         <v>9</v>
@@ -11595,7 +11595,7 @@
         <v>18.0599994659424</v>
       </c>
       <c r="G276" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H276" t="s">
         <v>9</v>
@@ -11621,7 +11621,7 @@
         <v>17.9599990844727</v>
       </c>
       <c r="G277" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H277" t="s">
         <v>9</v>
@@ -11647,7 +11647,7 @@
         <v>17.8500003814697</v>
       </c>
       <c r="G278" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H278" t="s">
         <v>9</v>
@@ -11673,7 +11673,7 @@
         <v>17.9799995422363</v>
       </c>
       <c r="G279" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H279" t="s">
         <v>9</v>
@@ -11699,7 +11699,7 @@
         <v>18.0499992370605</v>
       </c>
       <c r="G280" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H280" t="s">
         <v>9</v>
@@ -11725,7 +11725,7 @@
         <v>17.9500007629395</v>
       </c>
       <c r="G281" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H281" t="s">
         <v>9</v>
@@ -11751,7 +11751,7 @@
         <v>18.4699993133545</v>
       </c>
       <c r="G282" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H282" t="s">
         <v>9</v>
@@ -11777,7 +11777,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G283" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H283" t="s">
         <v>9</v>
@@ -11829,7 +11829,7 @@
         <v>18.4400005340576</v>
       </c>
       <c r="G285" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H285" t="s">
         <v>9</v>
@@ -11855,7 +11855,7 @@
         <v>18.4099998474121</v>
       </c>
       <c r="G286" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H286" t="s">
         <v>9</v>
@@ -11881,7 +11881,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G287" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H287" t="s">
         <v>9</v>
@@ -11907,7 +11907,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G288" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H288" t="s">
         <v>9</v>
@@ -11933,7 +11933,7 @@
         <v>18.2999992370605</v>
       </c>
       <c r="G289" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H289" t="s">
         <v>9</v>
@@ -11959,7 +11959,7 @@
         <v>18.4899997711182</v>
       </c>
       <c r="G290" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H290" t="s">
         <v>9</v>
@@ -11985,7 +11985,7 @@
         <v>18.2700004577637</v>
       </c>
       <c r="G291" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H291" t="s">
         <v>9</v>
@@ -12011,7 +12011,7 @@
         <v>18.4099998474121</v>
       </c>
       <c r="G292" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H292" t="s">
         <v>9</v>
@@ -12063,7 +12063,7 @@
         <v>18.2999992370605</v>
       </c>
       <c r="G294" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H294" t="s">
         <v>9</v>
@@ -12089,7 +12089,7 @@
         <v>18.5100002288818</v>
       </c>
       <c r="G295" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H295" t="s">
         <v>9</v>
@@ -12115,7 +12115,7 @@
         <v>18.3899993896484</v>
       </c>
       <c r="G296" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H296" t="s">
         <v>9</v>
@@ -12141,7 +12141,7 @@
         <v>18.1200008392334</v>
       </c>
       <c r="G297" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H297" t="s">
         <v>9</v>
@@ -12167,7 +12167,7 @@
         <v>18.5599994659424</v>
       </c>
       <c r="G298" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H298" t="s">
         <v>9</v>
@@ -12193,7 +12193,7 @@
         <v>19.1499996185303</v>
       </c>
       <c r="G299" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H299" t="s">
         <v>9</v>
@@ -12219,7 +12219,7 @@
         <v>19.4500007629395</v>
       </c>
       <c r="G300" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H300" t="s">
         <v>9</v>
@@ -12245,7 +12245,7 @@
         <v>19.3899993896484</v>
       </c>
       <c r="G301" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H301" t="s">
         <v>9</v>
@@ -12271,7 +12271,7 @@
         <v>19.6299991607666</v>
       </c>
       <c r="G302" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H302" t="s">
         <v>9</v>
@@ -12297,7 +12297,7 @@
         <v>20</v>
       </c>
       <c r="G303" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H303" t="s">
         <v>9</v>
@@ -12323,7 +12323,7 @@
         <v>19.9500007629395</v>
       </c>
       <c r="G304" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H304" t="s">
         <v>9</v>
@@ -12349,7 +12349,7 @@
         <v>19.9599990844727</v>
       </c>
       <c r="G305" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H305" t="s">
         <v>9</v>
@@ -12375,7 +12375,7 @@
         <v>19.7999992370605</v>
       </c>
       <c r="G306" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H306" t="s">
         <v>9</v>
@@ -12401,7 +12401,7 @@
         <v>19.9500007629395</v>
       </c>
       <c r="G307" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H307" t="s">
         <v>9</v>
@@ -12427,7 +12427,7 @@
         <v>20.3099994659424</v>
       </c>
       <c r="G308" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H308" t="s">
         <v>9</v>
@@ -12453,7 +12453,7 @@
         <v>20.9899997711182</v>
       </c>
       <c r="G309" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H309" t="s">
         <v>9</v>
@@ -12479,7 +12479,7 @@
         <v>20.2199993133545</v>
       </c>
       <c r="G310" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H310" t="s">
         <v>9</v>
@@ -12505,7 +12505,7 @@
         <v>20.25</v>
       </c>
       <c r="G311" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H311" t="s">
         <v>9</v>
@@ -12531,7 +12531,7 @@
         <v>20.4200000762939</v>
       </c>
       <c r="G312" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H312" t="s">
         <v>9</v>
@@ -12557,7 +12557,7 @@
         <v>20.5200004577637</v>
       </c>
       <c r="G313" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H313" t="s">
         <v>9</v>
@@ -12583,7 +12583,7 @@
         <v>20.3400001525879</v>
       </c>
       <c r="G314" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H314" t="s">
         <v>9</v>
@@ -12609,7 +12609,7 @@
         <v>20.5</v>
       </c>
       <c r="G315" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H315" t="s">
         <v>9</v>
@@ -12635,7 +12635,7 @@
         <v>20.9500007629395</v>
       </c>
       <c r="G316" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H316" t="s">
         <v>9</v>
@@ -12661,7 +12661,7 @@
         <v>21</v>
       </c>
       <c r="G317" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H317" t="s">
         <v>9</v>
@@ -12687,7 +12687,7 @@
         <v>20.75</v>
       </c>
       <c r="G318" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H318" t="s">
         <v>9</v>
@@ -12713,7 +12713,7 @@
         <v>20.6499996185303</v>
       </c>
       <c r="G319" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H319" t="s">
         <v>9</v>
@@ -12739,7 +12739,7 @@
         <v>20.2600002288818</v>
       </c>
       <c r="G320" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H320" t="s">
         <v>9</v>
@@ -12765,7 +12765,7 @@
         <v>20.3400001525879</v>
       </c>
       <c r="G321" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H321" t="s">
         <v>9</v>
@@ -12791,7 +12791,7 @@
         <v>20.2999992370605</v>
       </c>
       <c r="G322" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H322" t="s">
         <v>9</v>
@@ -12817,7 +12817,7 @@
         <v>20.6499996185303</v>
       </c>
       <c r="G323" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H323" t="s">
         <v>9</v>
@@ -12843,7 +12843,7 @@
         <v>20.7700004577637</v>
       </c>
       <c r="G324" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H324" t="s">
         <v>9</v>
@@ -12869,7 +12869,7 @@
         <v>20.6000003814697</v>
       </c>
       <c r="G325" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H325" t="s">
         <v>9</v>
@@ -12895,7 +12895,7 @@
         <v>20.6499996185303</v>
       </c>
       <c r="G326" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H326" t="s">
         <v>9</v>
@@ -12921,7 +12921,7 @@
         <v>20.8400001525879</v>
       </c>
       <c r="G327" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H327" t="s">
         <v>9</v>
@@ -12947,7 +12947,7 @@
         <v>20.8999996185303</v>
       </c>
       <c r="G328" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H328" t="s">
         <v>9</v>
@@ -12973,7 +12973,7 @@
         <v>21</v>
       </c>
       <c r="G329" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H329" t="s">
         <v>9</v>
@@ -12999,7 +12999,7 @@
         <v>21.0200004577637</v>
       </c>
       <c r="G330" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H330" t="s">
         <v>9</v>
@@ -13025,7 +13025,7 @@
         <v>20.8199996948242</v>
       </c>
       <c r="G331" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H331" t="s">
         <v>9</v>
@@ -13051,7 +13051,7 @@
         <v>21.25</v>
       </c>
       <c r="G332" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H332" t="s">
         <v>9</v>
@@ -13077,7 +13077,7 @@
         <v>21.9400005340576</v>
       </c>
       <c r="G333" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H333" t="s">
         <v>9</v>
@@ -13103,7 +13103,7 @@
         <v>21.5400009155273</v>
       </c>
       <c r="G334" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H334" t="s">
         <v>9</v>
@@ -13129,7 +13129,7 @@
         <v>20.9699993133545</v>
       </c>
       <c r="G335" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H335" t="s">
         <v>9</v>
@@ -13155,7 +13155,7 @@
         <v>21.75</v>
       </c>
       <c r="G336" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H336" t="s">
         <v>9</v>
@@ -13181,7 +13181,7 @@
         <v>21.8099994659424</v>
       </c>
       <c r="G337" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H337" t="s">
         <v>9</v>
@@ -13207,7 +13207,7 @@
         <v>21.7199993133545</v>
       </c>
       <c r="G338" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H338" t="s">
         <v>9</v>
@@ -13233,7 +13233,7 @@
         <v>21.7299995422363</v>
       </c>
       <c r="G339" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H339" t="s">
         <v>9</v>
@@ -13259,7 +13259,7 @@
         <v>22.1700000762939</v>
       </c>
       <c r="G340" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H340" t="s">
         <v>9</v>
@@ -13285,7 +13285,7 @@
         <v>22.4200000762939</v>
       </c>
       <c r="G341" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H341" t="s">
         <v>9</v>
@@ -13311,7 +13311,7 @@
         <v>22.2600002288818</v>
       </c>
       <c r="G342" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H342" t="s">
         <v>9</v>
@@ -13337,7 +13337,7 @@
         <v>22.0699996948242</v>
       </c>
       <c r="G343" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H343" t="s">
         <v>9</v>
@@ -13363,7 +13363,7 @@
         <v>21.9699993133545</v>
       </c>
       <c r="G344" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H344" t="s">
         <v>9</v>
@@ -13389,7 +13389,7 @@
         <v>22.2299995422363</v>
       </c>
       <c r="G345" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H345" t="s">
         <v>9</v>
@@ -13415,7 +13415,7 @@
         <v>22.8099994659424</v>
       </c>
       <c r="G346" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H346" t="s">
         <v>9</v>
@@ -13441,7 +13441,7 @@
         <v>22.4400005340576</v>
       </c>
       <c r="G347" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H347" t="s">
         <v>9</v>
@@ -13467,7 +13467,7 @@
         <v>22.3700008392334</v>
       </c>
       <c r="G348" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H348" t="s">
         <v>9</v>
@@ -13493,7 +13493,7 @@
         <v>22.5400009155273</v>
       </c>
       <c r="G349" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H349" t="s">
         <v>9</v>
@@ -13519,7 +13519,7 @@
         <v>22.6499996185303</v>
       </c>
       <c r="G350" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H350" t="s">
         <v>9</v>
@@ -13545,7 +13545,7 @@
         <v>22.8500003814697</v>
       </c>
       <c r="G351" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H351" t="s">
         <v>9</v>
@@ -13571,7 +13571,7 @@
         <v>21.8999996185303</v>
       </c>
       <c r="G352" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H352" t="s">
         <v>9</v>
@@ -13597,7 +13597,7 @@
         <v>21.9699993133545</v>
       </c>
       <c r="G353" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H353" t="s">
         <v>9</v>
@@ -13623,7 +13623,7 @@
         <v>22.0499992370605</v>
       </c>
       <c r="G354" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H354" t="s">
         <v>9</v>
@@ -13649,7 +13649,7 @@
         <v>21.5799999237061</v>
       </c>
       <c r="G355" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H355" t="s">
         <v>9</v>
@@ -13675,7 +13675,7 @@
         <v>22.2399997711182</v>
       </c>
       <c r="G356" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H356" t="s">
         <v>9</v>
@@ -13701,7 +13701,7 @@
         <v>22.2000007629395</v>
       </c>
       <c r="G357" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H357" t="s">
         <v>9</v>
@@ -13727,7 +13727,7 @@
         <v>22</v>
       </c>
       <c r="G358" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H358" t="s">
         <v>9</v>
@@ -13753,7 +13753,7 @@
         <v>21.6800003051758</v>
       </c>
       <c r="G359" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H359" t="s">
         <v>9</v>
@@ -13779,7 +13779,7 @@
         <v>21.5100002288818</v>
       </c>
       <c r="G360" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H360" t="s">
         <v>9</v>
@@ -13805,7 +13805,7 @@
         <v>21.7900009155273</v>
       </c>
       <c r="G361" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H361" t="s">
         <v>9</v>
@@ -13831,7 +13831,7 @@
         <v>21.6800003051758</v>
       </c>
       <c r="G362" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H362" t="s">
         <v>9</v>
@@ -13857,7 +13857,7 @@
         <v>22.0200004577637</v>
       </c>
       <c r="G363" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H363" t="s">
         <v>9</v>
@@ -13883,7 +13883,7 @@
         <v>21.9099998474121</v>
       </c>
       <c r="G364" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H364" t="s">
         <v>9</v>
@@ -13909,7 +13909,7 @@
         <v>21.6900005340576</v>
       </c>
       <c r="G365" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H365" t="s">
         <v>9</v>
@@ -13935,7 +13935,7 @@
         <v>21.9799995422363</v>
       </c>
       <c r="G366" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H366" t="s">
         <v>9</v>
@@ -13961,7 +13961,7 @@
         <v>22.1499996185303</v>
       </c>
       <c r="G367" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H367" t="s">
         <v>9</v>
@@ -13987,7 +13987,7 @@
         <v>22.2000007629395</v>
       </c>
       <c r="G368" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H368" t="s">
         <v>9</v>
@@ -14013,7 +14013,7 @@
         <v>21.9300003051758</v>
       </c>
       <c r="G369" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H369" t="s">
         <v>9</v>
@@ -14039,7 +14039,7 @@
         <v>21.3999996185303</v>
       </c>
       <c r="G370" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H370" t="s">
         <v>9</v>
@@ -14065,7 +14065,7 @@
         <v>21.6200008392334</v>
       </c>
       <c r="G371" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H371" t="s">
         <v>9</v>
@@ -14091,7 +14091,7 @@
         <v>21.7999992370605</v>
       </c>
       <c r="G372" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H372" t="s">
         <v>9</v>
@@ -14117,7 +14117,7 @@
         <v>21.6599998474121</v>
       </c>
       <c r="G373" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H373" t="s">
         <v>9</v>
@@ -14143,7 +14143,7 @@
         <v>21.7999992370605</v>
       </c>
       <c r="G374" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H374" t="s">
         <v>9</v>
@@ -14169,7 +14169,7 @@
         <v>22.0400009155273</v>
       </c>
       <c r="G375" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H375" t="s">
         <v>9</v>
@@ -14195,7 +14195,7 @@
         <v>21.6399993896484</v>
       </c>
       <c r="G376" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H376" t="s">
         <v>9</v>
@@ -14221,7 +14221,7 @@
         <v>21.3899993896484</v>
       </c>
       <c r="G377" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H377" t="s">
         <v>9</v>
@@ -14247,7 +14247,7 @@
         <v>21.4300003051758</v>
       </c>
       <c r="G378" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H378" t="s">
         <v>9</v>
@@ -14273,7 +14273,7 @@
         <v>21.5</v>
       </c>
       <c r="G379" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H379" t="s">
         <v>9</v>
@@ -14299,7 +14299,7 @@
         <v>21.6100006103516</v>
       </c>
       <c r="G380" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H380" t="s">
         <v>9</v>
@@ -14325,7 +14325,7 @@
         <v>21.5100002288818</v>
       </c>
       <c r="G381" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H381" t="s">
         <v>9</v>
@@ -14351,7 +14351,7 @@
         <v>21.6299991607666</v>
       </c>
       <c r="G382" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H382" t="s">
         <v>9</v>
@@ -14377,7 +14377,7 @@
         <v>20.9300003051758</v>
       </c>
       <c r="G383" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H383" t="s">
         <v>9</v>
@@ -14403,7 +14403,7 @@
         <v>20.8099994659424</v>
       </c>
       <c r="G384" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H384" t="s">
         <v>9</v>
@@ -14429,7 +14429,7 @@
         <v>20.7999992370605</v>
       </c>
       <c r="G385" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H385" t="s">
         <v>9</v>
@@ -14455,7 +14455,7 @@
         <v>20.7999992370605</v>
       </c>
       <c r="G386" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H386" t="s">
         <v>9</v>
@@ -14481,7 +14481,7 @@
         <v>20.8999996185303</v>
       </c>
       <c r="G387" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H387" t="s">
         <v>9</v>
@@ -14507,7 +14507,7 @@
         <v>20.6100006103516</v>
       </c>
       <c r="G388" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H388" t="s">
         <v>9</v>
@@ -14533,7 +14533,7 @@
         <v>21</v>
       </c>
       <c r="G389" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H389" t="s">
         <v>9</v>
@@ -14559,7 +14559,7 @@
         <v>20.7900009155273</v>
       </c>
       <c r="G390" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H390" t="s">
         <v>9</v>
@@ -14585,7 +14585,7 @@
         <v>20.6900005340576</v>
       </c>
       <c r="G391" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H391" t="s">
         <v>9</v>
@@ -14611,7 +14611,7 @@
         <v>21</v>
       </c>
       <c r="G392" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H392" t="s">
         <v>9</v>
@@ -14637,7 +14637,7 @@
         <v>21.2000007629395</v>
       </c>
       <c r="G393" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H393" t="s">
         <v>9</v>
@@ -14663,7 +14663,7 @@
         <v>21.3299999237061</v>
       </c>
       <c r="G394" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H394" t="s">
         <v>9</v>
@@ -14689,7 +14689,7 @@
         <v>21.8500003814697</v>
       </c>
       <c r="G395" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H395" t="s">
         <v>9</v>
@@ -14715,7 +14715,7 @@
         <v>21.9300003051758</v>
       </c>
       <c r="G396" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H396" t="s">
         <v>9</v>
@@ -14741,7 +14741,7 @@
         <v>22</v>
       </c>
       <c r="G397" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H397" t="s">
         <v>9</v>
@@ -14767,7 +14767,7 @@
         <v>22.2999992370605</v>
       </c>
       <c r="G398" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H398" t="s">
         <v>9</v>
@@ -14793,7 +14793,7 @@
         <v>22.0599994659424</v>
       </c>
       <c r="G399" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H399" t="s">
         <v>9</v>
@@ -14819,7 +14819,7 @@
         <v>22.3600006103516</v>
       </c>
       <c r="G400" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H400" t="s">
         <v>9</v>
@@ -14845,7 +14845,7 @@
         <v>22.3600006103516</v>
       </c>
       <c r="G401" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H401" t="s">
         <v>9</v>
@@ -14871,7 +14871,7 @@
         <v>22.3700008392334</v>
       </c>
       <c r="G402" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H402" t="s">
         <v>9</v>
@@ -14897,7 +14897,7 @@
         <v>22.5</v>
       </c>
       <c r="G403" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H403" t="s">
         <v>9</v>
@@ -14923,7 +14923,7 @@
         <v>21.7700004577637</v>
       </c>
       <c r="G404" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H404" t="s">
         <v>9</v>
@@ -14949,7 +14949,7 @@
         <v>21.6200008392334</v>
       </c>
       <c r="G405" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H405" t="s">
         <v>9</v>
@@ -14975,7 +14975,7 @@
         <v>21.5799999237061</v>
       </c>
       <c r="G406" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H406" t="s">
         <v>9</v>
@@ -15001,7 +15001,7 @@
         <v>21.6900005340576</v>
       </c>
       <c r="G407" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H407" t="s">
         <v>9</v>
@@ -15027,7 +15027,7 @@
         <v>22.3500003814697</v>
       </c>
       <c r="G408" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H408" t="s">
         <v>9</v>
@@ -15053,7 +15053,7 @@
         <v>22.1499996185303</v>
       </c>
       <c r="G409" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H409" t="s">
         <v>9</v>
@@ -15079,7 +15079,7 @@
         <v>21.6000003814697</v>
       </c>
       <c r="G410" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H410" t="s">
         <v>9</v>
@@ -15105,7 +15105,7 @@
         <v>21.7700004577637</v>
       </c>
       <c r="G411" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H411" t="s">
         <v>9</v>
@@ -15131,7 +15131,7 @@
         <v>21.6000003814697</v>
       </c>
       <c r="G412" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H412" t="s">
         <v>9</v>
@@ -15157,7 +15157,7 @@
         <v>21.4099998474121</v>
       </c>
       <c r="G413" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H413" t="s">
         <v>9</v>
@@ -15183,7 +15183,7 @@
         <v>21.3199996948242</v>
       </c>
       <c r="G414" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H414" t="s">
         <v>9</v>
@@ -15209,7 +15209,7 @@
         <v>21.7000007629395</v>
       </c>
       <c r="G415" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H415" t="s">
         <v>9</v>
@@ -15235,7 +15235,7 @@
         <v>21.6000003814697</v>
       </c>
       <c r="G416" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H416" t="s">
         <v>9</v>
@@ -15261,7 +15261,7 @@
         <v>21.3600006103516</v>
       </c>
       <c r="G417" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H417" t="s">
         <v>9</v>
@@ -15287,7 +15287,7 @@
         <v>21.1900005340576</v>
       </c>
       <c r="G418" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H418" t="s">
         <v>9</v>
@@ -15313,7 +15313,7 @@
         <v>21.2099990844727</v>
       </c>
       <c r="G419" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H419" t="s">
         <v>9</v>
@@ -15339,7 +15339,7 @@
         <v>21.3600006103516</v>
       </c>
       <c r="G420" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H420" t="s">
         <v>9</v>
@@ -15365,7 +15365,7 @@
         <v>21.0499992370605</v>
       </c>
       <c r="G421" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H421" t="s">
         <v>9</v>
@@ -15391,7 +15391,7 @@
         <v>20.9899997711182</v>
       </c>
       <c r="G422" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H422" t="s">
         <v>9</v>
@@ -15417,7 +15417,7 @@
         <v>20.7700004577637</v>
       </c>
       <c r="G423" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H423" t="s">
         <v>9</v>
@@ -15443,7 +15443,7 @@
         <v>20.6499996185303</v>
       </c>
       <c r="G424" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H424" t="s">
         <v>9</v>
@@ -15469,7 +15469,7 @@
         <v>20.6299991607666</v>
       </c>
       <c r="G425" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H425" t="s">
         <v>9</v>
@@ -15495,7 +15495,7 @@
         <v>20.7399997711182</v>
       </c>
       <c r="G426" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H426" t="s">
         <v>9</v>
@@ -15521,7 +15521,7 @@
         <v>21.0599994659424</v>
       </c>
       <c r="G427" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H427" t="s">
         <v>9</v>
@@ -15547,7 +15547,7 @@
         <v>21.2299995422363</v>
       </c>
       <c r="G428" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H428" t="s">
         <v>9</v>
@@ -15573,7 +15573,7 @@
         <v>21.3999996185303</v>
       </c>
       <c r="G429" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H429" t="s">
         <v>9</v>
@@ -15599,7 +15599,7 @@
         <v>21.4799995422363</v>
       </c>
       <c r="G430" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H430" t="s">
         <v>9</v>
@@ -15625,7 +15625,7 @@
         <v>21.4599990844727</v>
       </c>
       <c r="G431" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H431" t="s">
         <v>9</v>
@@ -15651,7 +15651,7 @@
         <v>21.5100002288818</v>
       </c>
       <c r="G432" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H432" t="s">
         <v>9</v>
@@ -15677,7 +15677,7 @@
         <v>21.9300003051758</v>
       </c>
       <c r="G433" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H433" t="s">
         <v>9</v>
@@ -15703,7 +15703,7 @@
         <v>21.8999996185303</v>
       </c>
       <c r="G434" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H434" t="s">
         <v>9</v>
@@ -15729,7 +15729,7 @@
         <v>22.0499992370605</v>
       </c>
       <c r="G435" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H435" t="s">
         <v>9</v>
@@ -15755,7 +15755,7 @@
         <v>22.1499996185303</v>
       </c>
       <c r="G436" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H436" t="s">
         <v>9</v>
@@ -15781,7 +15781,7 @@
         <v>22.3299999237061</v>
       </c>
       <c r="G437" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H437" t="s">
         <v>9</v>
@@ -15807,7 +15807,7 @@
         <v>21.9200000762939</v>
       </c>
       <c r="G438" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H438" t="s">
         <v>9</v>
@@ -15833,7 +15833,7 @@
         <v>22</v>
       </c>
       <c r="G439" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H439" t="s">
         <v>9</v>
@@ -15859,7 +15859,7 @@
         <v>22.0400009155273</v>
       </c>
       <c r="G440" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H440" t="s">
         <v>9</v>
@@ -15885,7 +15885,7 @@
         <v>22.0799999237061</v>
       </c>
       <c r="G441" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H441" t="s">
         <v>9</v>
@@ -15911,7 +15911,7 @@
         <v>22.0799999237061</v>
       </c>
       <c r="G442" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H442" t="s">
         <v>9</v>
@@ -15937,7 +15937,7 @@
         <v>22.0699996948242</v>
       </c>
       <c r="G443" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H443" t="s">
         <v>9</v>
@@ -15963,7 +15963,7 @@
         <v>22.0900001525879</v>
       </c>
       <c r="G444" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H444" t="s">
         <v>9</v>
@@ -15989,7 +15989,7 @@
         <v>22.2000007629395</v>
       </c>
       <c r="G445" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H445" t="s">
         <v>9</v>
@@ -16015,7 +16015,7 @@
         <v>22.3400001525879</v>
       </c>
       <c r="G446" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H446" t="s">
         <v>9</v>
@@ -16041,7 +16041,7 @@
         <v>22.3700008392334</v>
       </c>
       <c r="G447" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H447" t="s">
         <v>9</v>
@@ -16067,7 +16067,7 @@
         <v>22.2999992370605</v>
       </c>
       <c r="G448" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H448" t="s">
         <v>9</v>
@@ -16093,7 +16093,7 @@
         <v>22.3799991607666</v>
       </c>
       <c r="G449" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H449" t="s">
         <v>9</v>
@@ -16119,7 +16119,7 @@
         <v>22.4699993133545</v>
       </c>
       <c r="G450" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H450" t="s">
         <v>9</v>
@@ -16145,7 +16145,7 @@
         <v>22.3999996185303</v>
       </c>
       <c r="G451" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H451" t="s">
         <v>9</v>
@@ -16171,7 +16171,7 @@
         <v>22.7099990844727</v>
       </c>
       <c r="G452" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H452" t="s">
         <v>9</v>
@@ -16197,7 +16197,7 @@
         <v>22.75</v>
       </c>
       <c r="G453" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H453" t="s">
         <v>9</v>
@@ -16223,7 +16223,7 @@
         <v>22.5900001525879</v>
       </c>
       <c r="G454" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H454" t="s">
         <v>9</v>
@@ -16249,7 +16249,7 @@
         <v>22.9200000762939</v>
       </c>
       <c r="G455" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H455" t="s">
         <v>9</v>
@@ -16275,7 +16275,7 @@
         <v>22.7299995422363</v>
       </c>
       <c r="G456" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H456" t="s">
         <v>9</v>
@@ -16301,7 +16301,7 @@
         <v>22.6900005340576</v>
       </c>
       <c r="G457" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H457" t="s">
         <v>9</v>
@@ -16327,7 +16327,7 @@
         <v>22.8899993896484</v>
       </c>
       <c r="G458" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H458" t="s">
         <v>9</v>
@@ -16353,7 +16353,7 @@
         <v>23.4200000762939</v>
       </c>
       <c r="G459" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H459" t="s">
         <v>9</v>
@@ -16379,7 +16379,7 @@
         <v>23.3299999237061</v>
       </c>
       <c r="G460" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H460" t="s">
         <v>9</v>
@@ -16405,7 +16405,7 @@
         <v>22.7800006866455</v>
       </c>
       <c r="G461" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H461" t="s">
         <v>9</v>
@@ -16431,7 +16431,7 @@
         <v>22.3500003814697</v>
       </c>
       <c r="G462" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H462" t="s">
         <v>9</v>
@@ -16457,7 +16457,7 @@
         <v>22.8700008392334</v>
       </c>
       <c r="G463" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H463" t="s">
         <v>9</v>
@@ -16483,7 +16483,7 @@
         <v>22.6599998474121</v>
       </c>
       <c r="G464" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H464" t="s">
         <v>9</v>
@@ -16509,7 +16509,7 @@
         <v>22.3899993896484</v>
       </c>
       <c r="G465" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H465" t="s">
         <v>9</v>
@@ -16535,7 +16535,7 @@
         <v>22.1299991607666</v>
       </c>
       <c r="G466" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H466" t="s">
         <v>9</v>
@@ -16561,7 +16561,7 @@
         <v>22.4500007629395</v>
       </c>
       <c r="G467" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H467" t="s">
         <v>9</v>
@@ -16587,7 +16587,7 @@
         <v>22.2199993133545</v>
       </c>
       <c r="G468" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H468" t="s">
         <v>9</v>
@@ -16613,7 +16613,7 @@
         <v>22.1700000762939</v>
       </c>
       <c r="G469" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H469" t="s">
         <v>9</v>
@@ -16639,7 +16639,7 @@
         <v>21.9300003051758</v>
       </c>
       <c r="G470" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H470" t="s">
         <v>9</v>
@@ -16665,7 +16665,7 @@
         <v>22.0900001525879</v>
       </c>
       <c r="G471" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H471" t="s">
         <v>9</v>
@@ -16691,7 +16691,7 @@
         <v>22</v>
       </c>
       <c r="G472" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H472" t="s">
         <v>9</v>
@@ -16717,7 +16717,7 @@
         <v>22.1000003814697</v>
       </c>
       <c r="G473" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H473" t="s">
         <v>9</v>
@@ -16743,7 +16743,7 @@
         <v>21.8400001525879</v>
       </c>
       <c r="G474" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H474" t="s">
         <v>9</v>
@@ -16769,7 +16769,7 @@
         <v>21.6399993896484</v>
       </c>
       <c r="G475" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H475" t="s">
         <v>9</v>
@@ -16795,7 +16795,7 @@
         <v>21.4899997711182</v>
       </c>
       <c r="G476" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H476" t="s">
         <v>9</v>
@@ -16821,7 +16821,7 @@
         <v>21.3799991607666</v>
       </c>
       <c r="G477" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H477" t="s">
         <v>9</v>
@@ -16847,7 +16847,7 @@
         <v>21.1499996185303</v>
       </c>
       <c r="G478" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H478" t="s">
         <v>9</v>
@@ -16873,7 +16873,7 @@
         <v>20.75</v>
       </c>
       <c r="G479" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H479" t="s">
         <v>9</v>
@@ -16899,7 +16899,7 @@
         <v>20.4699993133545</v>
       </c>
       <c r="G480" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H480" t="s">
         <v>9</v>
@@ -16925,7 +16925,7 @@
         <v>20.6000003814697</v>
       </c>
       <c r="G481" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H481" t="s">
         <v>9</v>
@@ -16951,7 +16951,7 @@
         <v>21.3199996948242</v>
       </c>
       <c r="G482" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H482" t="s">
         <v>9</v>
@@ -16977,7 +16977,7 @@
         <v>20.9500007629395</v>
       </c>
       <c r="G483" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H483" t="s">
         <v>9</v>
@@ -17003,7 +17003,7 @@
         <v>21.5</v>
       </c>
       <c r="G484" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H484" t="s">
         <v>9</v>
@@ -17029,7 +17029,7 @@
         <v>21.7700004577637</v>
       </c>
       <c r="G485" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H485" t="s">
         <v>9</v>
@@ -17055,7 +17055,7 @@
         <v>21.5599994659424</v>
       </c>
       <c r="G486" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H486" t="s">
         <v>9</v>
@@ -17081,7 +17081,7 @@
         <v>21.3999996185303</v>
       </c>
       <c r="G487" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H487" t="s">
         <v>9</v>
@@ -17107,7 +17107,7 @@
         <v>21.5100002288818</v>
       </c>
       <c r="G488" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H488" t="s">
         <v>9</v>
@@ -17133,7 +17133,7 @@
         <v>21.4099998474121</v>
       </c>
       <c r="G489" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H489" t="s">
         <v>9</v>
@@ -17159,7 +17159,7 @@
         <v>21.8199996948242</v>
       </c>
       <c r="G490" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H490" t="s">
         <v>9</v>
@@ -17185,7 +17185,7 @@
         <v>21.5799999237061</v>
       </c>
       <c r="G491" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H491" t="s">
         <v>9</v>
@@ -17211,7 +17211,7 @@
         <v>21.7099990844727</v>
       </c>
       <c r="G492" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H492" t="s">
         <v>9</v>
@@ -17237,7 +17237,7 @@
         <v>21.5</v>
       </c>
       <c r="G493" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H493" t="s">
         <v>9</v>
@@ -17263,7 +17263,7 @@
         <v>21.8999996185303</v>
       </c>
       <c r="G494" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H494" t="s">
         <v>9</v>
@@ -17289,7 +17289,7 @@
         <v>21.9400005340576</v>
       </c>
       <c r="G495" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H495" t="s">
         <v>9</v>
@@ -17315,7 +17315,7 @@
         <v>21.7399997711182</v>
       </c>
       <c r="G496" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H496" t="s">
         <v>9</v>
@@ -17341,7 +17341,7 @@
         <v>21.8899993896484</v>
       </c>
       <c r="G497" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H497" t="s">
         <v>9</v>
@@ -17367,7 +17367,7 @@
         <v>21.6599998474121</v>
       </c>
       <c r="G498" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H498" t="s">
         <v>9</v>
@@ -17393,7 +17393,7 @@
         <v>21.7999992370605</v>
       </c>
       <c r="G499" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H499" t="s">
         <v>9</v>
@@ -17419,7 +17419,7 @@
         <v>21.3899993896484</v>
       </c>
       <c r="G500" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H500" t="s">
         <v>9</v>
@@ -17445,7 +17445,7 @@
         <v>21.3799991607666</v>
       </c>
       <c r="G501" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H501" t="s">
         <v>9</v>
@@ -17471,7 +17471,7 @@
         <v>21.1499996185303</v>
       </c>
       <c r="G502" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H502" t="s">
         <v>9</v>
@@ -17497,7 +17497,7 @@
         <v>21.2399997711182</v>
       </c>
       <c r="G503" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H503" t="s">
         <v>9</v>
@@ -17523,7 +17523,7 @@
         <v>21</v>
       </c>
       <c r="G504" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H504" t="s">
         <v>9</v>
@@ -17549,7 +17549,7 @@
         <v>20.7600002288818</v>
       </c>
       <c r="G505" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H505" t="s">
         <v>9</v>
@@ -17575,7 +17575,7 @@
         <v>21.2900009155273</v>
       </c>
       <c r="G506" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H506" t="s">
         <v>9</v>
@@ -17601,7 +17601,7 @@
         <v>21.3600006103516</v>
       </c>
       <c r="G507" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H507" t="s">
         <v>9</v>
@@ -17627,7 +17627,7 @@
         <v>21.2800006866455</v>
       </c>
       <c r="G508" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H508" t="s">
         <v>9</v>
@@ -17653,7 +17653,7 @@
         <v>21.6599998474121</v>
       </c>
       <c r="G509" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H509" t="s">
         <v>9</v>
@@ -17679,7 +17679,7 @@
         <v>21.6700000762939</v>
       </c>
       <c r="G510" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H510" t="s">
         <v>9</v>
@@ -17705,7 +17705,7 @@
         <v>21.5200004577637</v>
       </c>
       <c r="G511" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H511" t="s">
         <v>9</v>
@@ -17731,7 +17731,7 @@
         <v>21.5</v>
       </c>
       <c r="G512" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H512" t="s">
         <v>9</v>
@@ -17757,7 +17757,7 @@
         <v>21.6000003814697</v>
       </c>
       <c r="G513" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H513" t="s">
         <v>9</v>
@@ -17783,7 +17783,7 @@
         <v>21.7199993133545</v>
       </c>
       <c r="G514" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H514" t="s">
         <v>9</v>
@@ -17809,7 +17809,7 @@
         <v>21.9200000762939</v>
       </c>
       <c r="G515" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H515" t="s">
         <v>9</v>
@@ -17835,7 +17835,7 @@
         <v>21.9200000762939</v>
       </c>
       <c r="G516" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H516" t="s">
         <v>9</v>
@@ -17861,7 +17861,7 @@
         <v>21.7399997711182</v>
       </c>
       <c r="G517" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H517" t="s">
         <v>9</v>
@@ -17887,7 +17887,7 @@
         <v>21.2199993133545</v>
       </c>
       <c r="G518" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H518" t="s">
         <v>9</v>
@@ -17913,7 +17913,7 @@
         <v>21.3600006103516</v>
       </c>
       <c r="G519" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H519" t="s">
         <v>9</v>
@@ -17939,7 +17939,7 @@
         <v>21.7399997711182</v>
       </c>
       <c r="G520" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H520" t="s">
         <v>9</v>
@@ -17965,7 +17965,7 @@
         <v>22.0200004577637</v>
       </c>
       <c r="G521" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H521" t="s">
         <v>9</v>
@@ -17991,7 +17991,7 @@
         <v>22.2000007629395</v>
       </c>
       <c r="G522" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H522" t="s">
         <v>9</v>
@@ -18017,7 +18017,7 @@
         <v>22.3400001525879</v>
       </c>
       <c r="G523" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H523" t="s">
         <v>9</v>
@@ -18043,7 +18043,7 @@
         <v>22.4200000762939</v>
       </c>
       <c r="G524" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H524" t="s">
         <v>9</v>
@@ -18069,7 +18069,7 @@
         <v>22.4799995422363</v>
       </c>
       <c r="G525" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H525" t="s">
         <v>9</v>
@@ -18095,7 +18095,7 @@
         <v>22.6200008392334</v>
       </c>
       <c r="G526" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H526" t="s">
         <v>9</v>
@@ -18121,7 +18121,7 @@
         <v>22.7000007629395</v>
       </c>
       <c r="G527" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H527" t="s">
         <v>9</v>
@@ -18147,7 +18147,7 @@
         <v>22.8799991607666</v>
       </c>
       <c r="G528" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H528" t="s">
         <v>9</v>
@@ -18173,7 +18173,7 @@
         <v>22.5200004577637</v>
       </c>
       <c r="G529" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H529" t="s">
         <v>9</v>
@@ -18199,7 +18199,7 @@
         <v>22.8199996948242</v>
       </c>
       <c r="G530" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H530" t="s">
         <v>9</v>
@@ -18225,7 +18225,7 @@
         <v>22.4200000762939</v>
       </c>
       <c r="G531" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H531" t="s">
         <v>9</v>
@@ -18251,7 +18251,7 @@
         <v>22.3199996948242</v>
       </c>
       <c r="G532" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H532" t="s">
         <v>9</v>
@@ -18277,7 +18277,7 @@
         <v>22.2800006866455</v>
       </c>
       <c r="G533" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H533" t="s">
         <v>9</v>
@@ -18303,7 +18303,7 @@
         <v>22.6399993896484</v>
       </c>
       <c r="G534" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H534" t="s">
         <v>9</v>
@@ -18329,7 +18329,7 @@
         <v>22.0599994659424</v>
       </c>
       <c r="G535" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H535" t="s">
         <v>9</v>
@@ -18355,7 +18355,7 @@
         <v>21.6599998474121</v>
       </c>
       <c r="G536" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H536" t="s">
         <v>9</v>
@@ -18381,7 +18381,7 @@
         <v>21.3400001525879</v>
       </c>
       <c r="G537" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H537" t="s">
         <v>9</v>
@@ -18407,7 +18407,7 @@
         <v>21.9599990844727</v>
       </c>
       <c r="G538" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H538" t="s">
         <v>9</v>
@@ -18433,7 +18433,7 @@
         <v>21.1399993896484</v>
       </c>
       <c r="G539" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H539" t="s">
         <v>9</v>
@@ -18459,7 +18459,7 @@
         <v>21</v>
       </c>
       <c r="G540" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H540" t="s">
         <v>9</v>
@@ -18485,7 +18485,7 @@
         <v>20.7600002288818</v>
       </c>
       <c r="G541" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H541" t="s">
         <v>9</v>
@@ -18511,7 +18511,7 @@
         <v>21</v>
       </c>
       <c r="G542" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H542" t="s">
         <v>9</v>
@@ -18537,7 +18537,7 @@
         <v>21.0799999237061</v>
       </c>
       <c r="G543" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H543" t="s">
         <v>9</v>
@@ -18563,7 +18563,7 @@
         <v>21</v>
       </c>
       <c r="G544" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H544" t="s">
         <v>9</v>
@@ -18589,7 +18589,7 @@
         <v>21.3400001525879</v>
       </c>
       <c r="G545" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H545" t="s">
         <v>9</v>
@@ -18615,7 +18615,7 @@
         <v>21.3999996185303</v>
       </c>
       <c r="G546" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H546" t="s">
         <v>9</v>
@@ -18641,7 +18641,7 @@
         <v>21.6800003051758</v>
       </c>
       <c r="G547" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H547" t="s">
         <v>9</v>
@@ -18667,7 +18667,7 @@
         <v>21.4799995422363</v>
       </c>
       <c r="G548" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H548" t="s">
         <v>9</v>
@@ -18693,7 +18693,7 @@
         <v>21.4599990844727</v>
       </c>
       <c r="G549" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H549" t="s">
         <v>9</v>
@@ -18719,7 +18719,7 @@
         <v>21.5799999237061</v>
       </c>
       <c r="G550" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H550" t="s">
         <v>9</v>
@@ -18745,7 +18745,7 @@
         <v>21.7999992370605</v>
       </c>
       <c r="G551" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H551" t="s">
         <v>9</v>
@@ -18771,7 +18771,7 @@
         <v>22.0200004577637</v>
       </c>
       <c r="G552" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H552" t="s">
         <v>9</v>
@@ -18797,7 +18797,7 @@
         <v>21.8600006103516</v>
       </c>
       <c r="G553" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H553" t="s">
         <v>9</v>
@@ -18823,7 +18823,7 @@
         <v>21.5400009155273</v>
       </c>
       <c r="G554" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H554" t="s">
         <v>9</v>
@@ -18849,7 +18849,7 @@
         <v>21.1399993896484</v>
       </c>
       <c r="G555" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H555" t="s">
         <v>9</v>
@@ -18875,7 +18875,7 @@
         <v>21</v>
       </c>
       <c r="G556" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H556" t="s">
         <v>9</v>
@@ -18901,7 +18901,7 @@
         <v>21.0400009155273</v>
       </c>
       <c r="G557" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H557" t="s">
         <v>9</v>
@@ -18927,7 +18927,7 @@
         <v>21.1000003814697</v>
       </c>
       <c r="G558" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H558" t="s">
         <v>9</v>
@@ -18953,7 +18953,7 @@
         <v>21.8999996185303</v>
       </c>
       <c r="G559" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H559" t="s">
         <v>9</v>
@@ -18979,7 +18979,7 @@
         <v>22.3600006103516</v>
       </c>
       <c r="G560" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H560" t="s">
         <v>9</v>
@@ -19005,7 +19005,7 @@
         <v>22.5400009155273</v>
       </c>
       <c r="G561" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H561" t="s">
         <v>9</v>
@@ -19031,7 +19031,7 @@
         <v>22.3999996185303</v>
       </c>
       <c r="G562" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H562" t="s">
         <v>9</v>
@@ -19057,7 +19057,7 @@
         <v>22.5</v>
       </c>
       <c r="G563" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H563" t="s">
         <v>9</v>
@@ -19083,7 +19083,7 @@
         <v>23.8600006103516</v>
       </c>
       <c r="G564" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H564" t="s">
         <v>9</v>
@@ -19109,7 +19109,7 @@
         <v>23.7800006866455</v>
       </c>
       <c r="G565" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H565" t="s">
         <v>9</v>
@@ -19135,7 +19135,7 @@
         <v>24.4200000762939</v>
       </c>
       <c r="G566" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H566" t="s">
         <v>9</v>
@@ -19161,7 +19161,7 @@
         <v>24.7600002288818</v>
       </c>
       <c r="G567" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H567" t="s">
         <v>9</v>
@@ -19187,7 +19187,7 @@
         <v>24.5799999237061</v>
       </c>
       <c r="G568" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H568" t="s">
         <v>9</v>
@@ -19213,7 +19213,7 @@
         <v>24.4599990844727</v>
       </c>
       <c r="G569" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H569" t="s">
         <v>9</v>
@@ -19239,7 +19239,7 @@
         <v>24.1800003051758</v>
       </c>
       <c r="G570" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H570" t="s">
         <v>9</v>
@@ -19265,7 +19265,7 @@
         <v>24.1599998474121</v>
       </c>
       <c r="G571" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H571" t="s">
         <v>9</v>
@@ -19291,7 +19291,7 @@
         <v>24.1599998474121</v>
       </c>
       <c r="G572" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H572" t="s">
         <v>9</v>
@@ -19317,7 +19317,7 @@
         <v>24.2399997711182</v>
       </c>
       <c r="G573" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H573" t="s">
         <v>9</v>
@@ -19343,7 +19343,7 @@
         <v>24.1399993896484</v>
       </c>
       <c r="G574" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H574" t="s">
         <v>9</v>
@@ -19369,7 +19369,7 @@
         <v>24.2999992370605</v>
       </c>
       <c r="G575" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H575" t="s">
         <v>9</v>
@@ -19395,7 +19395,7 @@
         <v>24.8999996185303</v>
       </c>
       <c r="G576" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H576" t="s">
         <v>9</v>
@@ -19421,7 +19421,7 @@
         <v>25.1399993896484</v>
       </c>
       <c r="G577" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H577" t="s">
         <v>9</v>
@@ -19447,7 +19447,7 @@
         <v>25.0200004577637</v>
       </c>
       <c r="G578" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H578" t="s">
         <v>9</v>
@@ -19473,7 +19473,7 @@
         <v>25.1000003814697</v>
       </c>
       <c r="G579" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H579" t="s">
         <v>9</v>
@@ -19499,7 +19499,7 @@
         <v>25.2999992370605</v>
       </c>
       <c r="G580" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H580" t="s">
         <v>9</v>
@@ -19525,7 +19525,7 @@
         <v>24.7600002288818</v>
       </c>
       <c r="G581" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H581" t="s">
         <v>9</v>
@@ -19551,7 +19551,7 @@
         <v>25</v>
       </c>
       <c r="G582" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H582" t="s">
         <v>9</v>
@@ -19577,7 +19577,7 @@
         <v>25.1399993896484</v>
       </c>
       <c r="G583" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H583" t="s">
         <v>9</v>
@@ -19603,7 +19603,7 @@
         <v>24.7999992370605</v>
       </c>
       <c r="G584" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H584" t="s">
         <v>9</v>
@@ -19629,7 +19629,7 @@
         <v>24.7199993133545</v>
       </c>
       <c r="G585" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H585" t="s">
         <v>9</v>
@@ -19655,7 +19655,7 @@
         <v>24.8999996185303</v>
       </c>
       <c r="G586" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H586" t="s">
         <v>9</v>
@@ -19681,7 +19681,7 @@
         <v>24.7800006866455</v>
       </c>
       <c r="G587" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H587" t="s">
         <v>9</v>
@@ -19707,7 +19707,7 @@
         <v>24.9400005340576</v>
       </c>
       <c r="G588" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H588" t="s">
         <v>9</v>
@@ -19733,7 +19733,7 @@
         <v>24.8799991607666</v>
       </c>
       <c r="G589" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H589" t="s">
         <v>9</v>
@@ -19759,7 +19759,7 @@
         <v>24.8400001525879</v>
       </c>
       <c r="G590" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H590" t="s">
         <v>9</v>
@@ -19785,7 +19785,7 @@
         <v>24.8799991607666</v>
       </c>
       <c r="G591" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H591" t="s">
         <v>9</v>
@@ -19811,7 +19811,7 @@
         <v>24.9200000762939</v>
       </c>
       <c r="G592" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H592" t="s">
         <v>9</v>
@@ -19837,7 +19837,7 @@
         <v>24.8799991607666</v>
       </c>
       <c r="G593" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H593" t="s">
         <v>9</v>
@@ -19863,7 +19863,7 @@
         <v>25.0200004577637</v>
       </c>
       <c r="G594" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H594" t="s">
         <v>9</v>
@@ -19889,7 +19889,7 @@
         <v>25.2600002288818</v>
       </c>
       <c r="G595" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H595" t="s">
         <v>9</v>
@@ -19915,7 +19915,7 @@
         <v>25.3999996185303</v>
       </c>
       <c r="G596" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H596" t="s">
         <v>9</v>
@@ -19941,7 +19941,7 @@
         <v>25.3400001525879</v>
       </c>
       <c r="G597" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H597" t="s">
         <v>9</v>
@@ -19967,7 +19967,7 @@
         <v>25.2000007629395</v>
       </c>
       <c r="G598" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H598" t="s">
         <v>9</v>
@@ -19993,7 +19993,7 @@
         <v>25.2399997711182</v>
       </c>
       <c r="G599" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H599" t="s">
         <v>9</v>
@@ -20019,7 +20019,7 @@
         <v>25.1599998474121</v>
       </c>
       <c r="G600" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H600" t="s">
         <v>9</v>
@@ -20045,7 +20045,7 @@
         <v>25.1599998474121</v>
       </c>
       <c r="G601" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H601" t="s">
         <v>9</v>
@@ -20071,7 +20071,7 @@
         <v>25.1000003814697</v>
       </c>
       <c r="G602" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H602" t="s">
         <v>9</v>
@@ -20097,7 +20097,7 @@
         <v>25.3600006103516</v>
       </c>
       <c r="G603" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H603" t="s">
         <v>9</v>
@@ -20123,7 +20123,7 @@
         <v>24.7600002288818</v>
       </c>
       <c r="G604" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H604" t="s">
         <v>9</v>
@@ -20149,7 +20149,7 @@
         <v>24.1399993896484</v>
       </c>
       <c r="G605" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H605" t="s">
         <v>9</v>
@@ -20175,7 +20175,7 @@
         <v>24.1399993896484</v>
       </c>
       <c r="G606" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H606" t="s">
         <v>9</v>
@@ -20201,7 +20201,7 @@
         <v>23.4599990844727</v>
       </c>
       <c r="G607" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H607" t="s">
         <v>9</v>
@@ -20227,7 +20227,7 @@
         <v>23.7399997711182</v>
       </c>
       <c r="G608" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H608" t="s">
         <v>9</v>
@@ -20253,7 +20253,7 @@
         <v>23.4200000762939</v>
       </c>
       <c r="G609" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H609" t="s">
         <v>9</v>
@@ -20279,7 +20279,7 @@
         <v>23.4200000762939</v>
       </c>
       <c r="G610" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H610" t="s">
         <v>9</v>
@@ -20305,7 +20305,7 @@
         <v>23.3799991607666</v>
       </c>
       <c r="G611" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H611" t="s">
         <v>9</v>
@@ -20331,7 +20331,7 @@
         <v>23.3199996948242</v>
       </c>
       <c r="G612" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H612" t="s">
         <v>9</v>
@@ -20357,7 +20357,7 @@
         <v>22.7600002288818</v>
       </c>
       <c r="G613" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H613" t="s">
         <v>9</v>
@@ -20383,7 +20383,7 @@
         <v>22.4799995422363</v>
       </c>
       <c r="G614" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H614" t="s">
         <v>9</v>
@@ -20409,7 +20409,7 @@
         <v>23</v>
       </c>
       <c r="G615" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H615" t="s">
         <v>9</v>
@@ -20435,7 +20435,7 @@
         <v>22.7999992370605</v>
       </c>
       <c r="G616" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H616" t="s">
         <v>9</v>
@@ -20461,7 +20461,7 @@
         <v>23.3199996948242</v>
       </c>
       <c r="G617" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H617" t="s">
         <v>9</v>
@@ -20487,7 +20487,7 @@
         <v>23.1800003051758</v>
       </c>
       <c r="G618" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H618" t="s">
         <v>9</v>
@@ -20513,7 +20513,7 @@
         <v>23.2800006866455</v>
       </c>
       <c r="G619" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H619" t="s">
         <v>9</v>
@@ -20539,7 +20539,7 @@
         <v>23.2399997711182</v>
       </c>
       <c r="G620" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H620" t="s">
         <v>9</v>
@@ -20565,7 +20565,7 @@
         <v>23.1599998474121</v>
       </c>
       <c r="G621" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H621" t="s">
         <v>9</v>
@@ -20591,7 +20591,7 @@
         <v>22.7399997711182</v>
       </c>
       <c r="G622" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H622" t="s">
         <v>9</v>
@@ -20617,7 +20617,7 @@
         <v>23.0799999237061</v>
       </c>
       <c r="G623" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H623" t="s">
         <v>9</v>
@@ -20643,7 +20643,7 @@
         <v>23.3999996185303</v>
       </c>
       <c r="G624" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H624" t="s">
         <v>9</v>
@@ -20669,7 +20669,7 @@
         <v>23.3999996185303</v>
       </c>
       <c r="G625" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H625" t="s">
         <v>9</v>
@@ -20695,7 +20695,7 @@
         <v>23.3400001525879</v>
       </c>
       <c r="G626" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="H626" t="s">
         <v>9</v>
@@ -20721,7 +20721,7 @@
         <v>23.0599994659424</v>
       </c>
       <c r="G627" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H627" t="s">
         <v>9</v>
@@ -20747,7 +20747,7 @@
         <v>23.1200008392334</v>
       </c>
       <c r="G628" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="H628" t="s">
         <v>9</v>
@@ -20773,7 +20773,7 @@
         <v>23.0799999237061</v>
       </c>
       <c r="G629" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H629" t="s">
         <v>9</v>
@@ -20799,7 +20799,7 @@
         <v>22.9400005340576</v>
       </c>
       <c r="G630" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H630" t="s">
         <v>9</v>
@@ -20825,7 +20825,7 @@
         <v>22.2999992370605</v>
       </c>
       <c r="G631" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H631" t="s">
         <v>9</v>
@@ -20851,7 +20851,7 @@
         <v>22.7600002288818</v>
       </c>
       <c r="G632" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H632" t="s">
         <v>9</v>
@@ -20877,7 +20877,7 @@
         <v>22.3199996948242</v>
       </c>
       <c r="G633" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H633" t="s">
         <v>9</v>
@@ -20903,7 +20903,7 @@
         <v>22.1800003051758</v>
       </c>
       <c r="G634" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H634" t="s">
         <v>9</v>
@@ -20929,7 +20929,7 @@
         <v>22.4400005340576</v>
       </c>
       <c r="G635" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="H635" t="s">
         <v>9</v>
@@ -20955,7 +20955,7 @@
         <v>22.5</v>
       </c>
       <c r="G636" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H636" t="s">
         <v>9</v>
@@ -20981,7 +20981,7 @@
         <v>22.5799999237061</v>
       </c>
       <c r="G637" t="s">
-        <v>436</v>
+        <v>457</v>
       </c>
       <c r="H637" t="s">
         <v>9</v>
@@ -21033,7 +21033,7 @@
         <v>22.5799999237061</v>
       </c>
       <c r="G639" t="s">
-        <v>436</v>
+        <v>457</v>
       </c>
       <c r="H639" t="s">
         <v>9</v>
@@ -21085,7 +21085,7 @@
         <v>22.7999992370605</v>
       </c>
       <c r="G641" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H641" t="s">
         <v>9</v>
@@ -21423,7 +21423,7 @@
         <v>23.2800006866455</v>
       </c>
       <c r="G654" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H654" t="s">
         <v>9</v>
@@ -21501,7 +21501,7 @@
         <v>23.3199996948242</v>
       </c>
       <c r="G657" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H657" t="s">
         <v>9</v>
@@ -21527,7 +21527,7 @@
         <v>23.2800006866455</v>
       </c>
       <c r="G658" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H658" t="s">
         <v>9</v>
@@ -22905,7 +22905,7 @@
         <v>23</v>
       </c>
       <c r="G711" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H711" t="s">
         <v>9</v>
@@ -37049,7 +37049,7 @@
         <v>15.2799997329712</v>
       </c>
       <c r="G1255" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H1255" t="s">
         <v>9</v>
@@ -61133,7 +61133,7 @@
     </row>
     <row r="2182">
       <c r="A2182" s="1" t="n">
-        <v>45499.6495717593</v>
+        <v>45499.2916666667</v>
       </c>
       <c r="B2182" t="n">
         <v>59930</v>
@@ -61154,6 +61154,32 @@
         <v>1333</v>
       </c>
       <c r="H2182" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2183">
+      <c r="A2183" s="1" t="n">
+        <v>45502.6494097222</v>
+      </c>
+      <c r="B2183" t="n">
+        <v>119105</v>
+      </c>
+      <c r="C2183" t="n">
+        <v>11.5600004196167</v>
+      </c>
+      <c r="D2183" t="n">
+        <v>11.2799997329712</v>
+      </c>
+      <c r="E2183" t="n">
+        <v>11.539999961853</v>
+      </c>
+      <c r="F2183" t="n">
+        <v>11.3000001907349</v>
+      </c>
+      <c r="G2183" t="s">
+        <v>1326</v>
+      </c>
+      <c r="H2183" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/MARR.MI.xlsx
+++ b/data/MARR.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1363" uniqueCount="1363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1364" uniqueCount="1364">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,79 +38,79 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2729778289795</t>
+    <t xml:space="preserve">14.2729787826538</t>
   </si>
   <si>
     <t xml:space="preserve">MARR.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1047010421753</t>
+    <t xml:space="preserve">14.104700088501</t>
   </si>
   <si>
     <t xml:space="preserve">13.9899673461914</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7910957336426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7451992034912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3627490997314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4315929412842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5157289505005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2021236419678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.209771156311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7202348709106</t>
+    <t xml:space="preserve">13.791090965271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7451982498169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3627510070801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4315900802612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5157308578491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2021226882935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.209774017334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.720235824585</t>
   </si>
   <si>
     <t xml:space="preserve">12.8273239135742</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3607358932495</t>
+    <t xml:space="preserve">12.3607349395752</t>
   </si>
   <si>
     <t xml:space="preserve">12.9650049209595</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6228141784668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4545383453369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3321561813354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3245048522949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4162940979004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.500431060791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7681455612183</t>
+    <t xml:space="preserve">13.6228160858154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4545392990112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3321552276611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3245058059692</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4162931442261</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.500433921814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7681465148926</t>
   </si>
   <si>
     <t xml:space="preserve">13.5616245269775</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0873889923096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2786130905151</t>
+    <t xml:space="preserve">13.0873899459839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2786121368408</t>
   </si>
   <si>
     <t xml:space="preserve">13.0491428375244</t>
@@ -119,64 +119,64 @@
     <t xml:space="preserve">12.1083192825317</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1542129516602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6131505966187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2995433807373</t>
+    <t xml:space="preserve">12.1542139053345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.613151550293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.299542427063</t>
   </si>
   <si>
     <t xml:space="preserve">12.6208009719849</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6590433120728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7814273834229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.94970703125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1562299728394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4851341247559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3780488967896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3474531173706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7299022674561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9670181274414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.737548828125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8752298355103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6763582229614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.370400428772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.819673538208</t>
+    <t xml:space="preserve">12.6590442657471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7814292907715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9497060775757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.156229019165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4851322174072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3780498504639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3474540710449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7299013137817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9670190811157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7375516891479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8752326965332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6763591766357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3703985214233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8196744918823</t>
   </si>
   <si>
     <t xml:space="preserve">13.1179828643799</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4468879699707</t>
+    <t xml:space="preserve">13.4468898773193</t>
   </si>
   <si>
     <t xml:space="preserve">13.5998687744141</t>
@@ -185,124 +185,124 @@
     <t xml:space="preserve">13.4774856567383</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6610584259033</t>
+    <t xml:space="preserve">13.6610622406006</t>
   </si>
   <si>
     <t xml:space="preserve">13.2174215316772</t>
   </si>
   <si>
-    <t xml:space="preserve">13.102686882019</t>
+    <t xml:space="preserve">13.1026859283447</t>
   </si>
   <si>
     <t xml:space="preserve">13.4621868133545</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5386781692505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9593715667725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0817546844482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1505966186523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8828821182251</t>
+    <t xml:space="preserve">13.5386772155762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9593696594238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0817527770996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.150595664978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8828811645508</t>
   </si>
   <si>
     <t xml:space="preserve">13.997615814209</t>
   </si>
   <si>
-    <t xml:space="preserve">14.074107170105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5483446121216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3188714981079</t>
+    <t xml:space="preserve">14.074104309082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5483407974243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3188724517822</t>
   </si>
   <si>
     <t xml:space="preserve">14.1658916473389</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7987413406372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6916561126709</t>
+    <t xml:space="preserve">13.7987432479858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6916570663452</t>
   </si>
   <si>
     <t xml:space="preserve">13.6151666641235</t>
   </si>
   <si>
-    <t xml:space="preserve">13.576922416687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8599338531494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9058294296265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5922212600708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0970525741577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9440727233887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.630464553833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.684006690979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6993045806885</t>
+    <t xml:space="preserve">13.5769233703613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8599348068237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9058256149292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5922193527222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0970544815063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.94407081604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6304636001587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6840076446533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6993055343628</t>
   </si>
   <si>
     <t xml:space="preserve">13.8216896057129</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4392395019531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6687107086182</t>
+    <t xml:space="preserve">13.4392404556274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6687097549438</t>
   </si>
   <si>
     <t xml:space="preserve">13.4086446762085</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5310277938843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8250102996826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8170642852783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0713148117065</t>
+    <t xml:space="preserve">13.5310287475586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8250074386597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8170604705811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0713167190552</t>
   </si>
   <si>
     <t xml:space="preserve">14.0633716583252</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2540597915649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3096790313721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.126935005188</t>
+    <t xml:space="preserve">14.2540607452393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3096771240234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1269340515137</t>
   </si>
   <si>
     <t xml:space="preserve">14.0792608261108</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3017330169678</t>
+    <t xml:space="preserve">14.3017320632935</t>
   </si>
   <si>
     <t xml:space="preserve">14.1904983520508</t>
@@ -317,7 +317,7 @@
     <t xml:space="preserve">14.0951519012451</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5866460800171</t>
+    <t xml:space="preserve">13.5866470336914</t>
   </si>
   <si>
     <t xml:space="preserve">13.6740446090698</t>
@@ -326,19 +326,19 @@
     <t xml:space="preserve">13.3880100250244</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0701961517334</t>
+    <t xml:space="preserve">13.0701951980591</t>
   </si>
   <si>
     <t xml:space="preserve">13.2132120132446</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5945920944214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5787019729614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8806257247925</t>
+    <t xml:space="preserve">13.5945930480957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5787000656128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8806247711182</t>
   </si>
   <si>
     <t xml:space="preserve">13.2052669525146</t>
@@ -347,22 +347,22 @@
     <t xml:space="preserve">12.5060701370239</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0384130477905</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5151376724243</t>
+    <t xml:space="preserve">13.0384140014648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5151357650757</t>
   </si>
   <si>
     <t xml:space="preserve">14.246114730835</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3573522567749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8567905426025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2778959274292</t>
+    <t xml:space="preserve">14.3573513031006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8567914962769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2778968811035</t>
   </si>
   <si>
     <t xml:space="preserve">14.1507692337036</t>
@@ -371,91 +371,91 @@
     <t xml:space="preserve">14.6036577224731</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5718784332275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5639295578003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3652982711792</t>
+    <t xml:space="preserve">14.5718765258789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5639314651489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3652963638306</t>
   </si>
   <si>
     <t xml:space="preserve">14.3176240921021</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5798215866089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8738031387329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.548038482666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6990051269531</t>
+    <t xml:space="preserve">14.5798234939575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8738021850586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.548041343689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6990032196045</t>
   </si>
   <si>
     <t xml:space="preserve">14.9770927429199</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8340759277344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9453096389771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5877666473389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8579130172729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3335161209106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4765310287476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5003681182861</t>
+    <t xml:space="preserve">14.8340740203857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9453105926514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5877676010132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8579111099243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3335151672363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4765319824219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5003671646118</t>
   </si>
   <si>
     <t xml:space="preserve">14.4447498321533</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1666612625122</t>
+    <t xml:space="preserve">14.1666593551636</t>
   </si>
   <si>
     <t xml:space="preserve">14.2381706237793</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0315885543823</t>
+    <t xml:space="preserve">14.031590461731</t>
   </si>
   <si>
     <t xml:space="preserve">13.8885707855225</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9044628143311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8647346496582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0474796295166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9521341323853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7217178344727</t>
+    <t xml:space="preserve">13.9044637680054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8647365570068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0474805831909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9521331787109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7217197418213</t>
   </si>
   <si>
     <t xml:space="preserve">14.015697479248</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9124069213867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0077533721924</t>
+    <t xml:space="preserve">13.9124088287354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0077505111694</t>
   </si>
   <si>
     <t xml:space="preserve">13.9203538894653</t>
@@ -467,67 +467,67 @@
     <t xml:space="preserve">13.7058267593384</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6502103805542</t>
+    <t xml:space="preserve">13.6502113342285</t>
   </si>
   <si>
     <t xml:space="preserve">13.7376089096069</t>
   </si>
   <si>
-    <t xml:space="preserve">13.999810218811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2302236557007</t>
+    <t xml:space="preserve">13.9998073577881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.230224609375</t>
   </si>
   <si>
     <t xml:space="preserve">14.1746063232422</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0236434936523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1587162017822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7614450454712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6661024093628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6184282302856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7773361206055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5469188690186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4913024902344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6581563949585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5389728546143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4595222473145</t>
+    <t xml:space="preserve">14.023645401001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1587152481079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7614440917969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6661005020142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6184272766113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7773370742798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5469198226929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4913015365601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6581554412842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5389738082886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4595203399658</t>
   </si>
   <si>
     <t xml:space="preserve">13.3482828140259</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3165035247803</t>
+    <t xml:space="preserve">13.316502571106</t>
   </si>
   <si>
     <t xml:space="preserve">13.3006114959717</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3323926925659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3244476318359</t>
+    <t xml:space="preserve">13.3323936462402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3244495391846</t>
   </si>
   <si>
     <t xml:space="preserve">13.1814308166504</t>
@@ -536,19 +536,19 @@
     <t xml:space="preserve">13.0304670333862</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2370471954346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2688312530518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1575937271118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7126522064209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1178665161133</t>
+    <t xml:space="preserve">13.2370481491089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2688302993774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1575927734375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7126531600952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1178674697876</t>
   </si>
   <si>
     <t xml:space="preserve">13.2608852386475</t>
@@ -557,61 +557,61 @@
     <t xml:space="preserve">13.1417045593262</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1655387878418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0225219726562</t>
+    <t xml:space="preserve">13.1655397415161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0225210189819</t>
   </si>
   <si>
     <t xml:space="preserve">12.9112873077393</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0066337585449</t>
+    <t xml:space="preserve">13.006630897522</t>
   </si>
   <si>
     <t xml:space="preserve">13.094030380249</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0781402587891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5071907043457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4515762329102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5707540512085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8965167999268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7455530166626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9362449645996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7852811813354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9441900253296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9680261611938</t>
+    <t xml:space="preserve">13.0781393051147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.50719165802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4515733718872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5707550048828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8965177536011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7455539703369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9362440109253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7852821350098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9441871643066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9680252075195</t>
   </si>
   <si>
     <t xml:space="preserve">13.9918622970581</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9759731292725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0395336151123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.801173210144</t>
+    <t xml:space="preserve">13.9759721755981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0395355224609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8011722564697</t>
   </si>
   <si>
     <t xml:space="preserve">13.9839162826538</t>
@@ -620,61 +620,61 @@
     <t xml:space="preserve">14.2222785949707</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2063875198364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7148923873901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7705116271973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3494052886963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2699508666992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1825532913208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2858428955078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.341459274292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2620058059692</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6751680374146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4606409072876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6513319015503</t>
+    <t xml:space="preserve">14.2063894271851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7148933410645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7705125808716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3494033813477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2699527740479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1825504302979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2858409881592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3414602279663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2620067596436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6751661300659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4606418609619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6513299942017</t>
   </si>
   <si>
     <t xml:space="preserve">14.6274938583374</t>
   </si>
   <si>
-    <t xml:space="preserve">14.540096282959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6910581588745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.516261100769</t>
+    <t xml:space="preserve">14.5400953292847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6910572052002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5162591934204</t>
   </si>
   <si>
     <t xml:space="preserve">14.7069501876831</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6116018295288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3970775604248</t>
+    <t xml:space="preserve">14.6116037368774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3970794677734</t>
   </si>
   <si>
     <t xml:space="preserve">14.7466745376587</t>
@@ -686,76 +686,76 @@
     <t xml:space="preserve">15.453818321228</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4061450958252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5968322753906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.890814781189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8510885238647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8590316772461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7319068908691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1371212005615</t>
+    <t xml:space="preserve">15.4061470031738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5968332290649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8908166885376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8510875701904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8590326309204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7319078445435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1371231079102</t>
   </si>
   <si>
     <t xml:space="preserve">16.6774082183838</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0656127929688</t>
+    <t xml:space="preserve">16.0656108856201</t>
   </si>
   <si>
     <t xml:space="preserve">16.089448928833</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2245216369629</t>
+    <t xml:space="preserve">16.2245235443115</t>
   </si>
   <si>
     <t xml:space="preserve">16.30397605896</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1609573364258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2880840301514</t>
+    <t xml:space="preserve">16.1609592437744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2880859375</t>
   </si>
   <si>
     <t xml:space="preserve">16.6456279754639</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6853561401367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4867191314697</t>
+    <t xml:space="preserve">16.6853542327881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4867172241211</t>
   </si>
   <si>
     <t xml:space="preserve">16.4072666168213</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0973949432373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1291751861572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5026111602783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3675384521484</t>
+    <t xml:space="preserve">16.0973968505859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1291770935059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5026092529297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3675365447998</t>
   </si>
   <si>
     <t xml:space="preserve">16.5582275390625</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6059017181396</t>
+    <t xml:space="preserve">16.605899810791</t>
   </si>
   <si>
     <t xml:space="preserve">16.7012462615967</t>
@@ -773,16 +773,16 @@
     <t xml:space="preserve">17.114408493042</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6615161895752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2812595367432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3289337158203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2574234008789</t>
+    <t xml:space="preserve">16.6615200042725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2812614440918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3289318084717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2574253082275</t>
   </si>
   <si>
     <t xml:space="preserve">17.2653694152832</t>
@@ -791,13 +791,13 @@
     <t xml:space="preserve">17.6149654388428</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8136024475098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6864757537842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.535514831543</t>
+    <t xml:space="preserve">17.813606262207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6864776611328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5355129241943</t>
   </si>
   <si>
     <t xml:space="preserve">17.4560585021973</t>
@@ -809,55 +809,55 @@
     <t xml:space="preserve">18.1234741210938</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8294982910156</t>
+    <t xml:space="preserve">17.8294944763184</t>
   </si>
   <si>
     <t xml:space="preserve">17.7738761901855</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9089488983154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9963474273682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1552543640137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4004402160645</t>
+    <t xml:space="preserve">17.9089469909668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9963493347168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1552562713623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4004421234131</t>
   </si>
   <si>
     <t xml:space="preserve">17.5196228027344</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7083587646484</t>
+    <t xml:space="preserve">17.7083606719971</t>
   </si>
   <si>
     <t xml:space="preserve">18.2499465942383</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2171249389648</t>
+    <t xml:space="preserve">18.2171268463135</t>
   </si>
   <si>
     <t xml:space="preserve">18.0530071258545</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7904186248779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6509189605713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8806838989258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0694217681885</t>
+    <t xml:space="preserve">17.7904167175293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6509170532227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8806819915771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0694179534912</t>
   </si>
   <si>
     <t xml:space="preserve">17.9791526794434</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7986259460449</t>
+    <t xml:space="preserve">17.7986240386963</t>
   </si>
   <si>
     <t xml:space="preserve">18.0365943908691</t>
@@ -872,28 +872,28 @@
     <t xml:space="preserve">17.5606517791748</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7411804199219</t>
+    <t xml:space="preserve">17.7411823272705</t>
   </si>
   <si>
     <t xml:space="preserve">17.8888893127441</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7740039825439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0858306884766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7575912475586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5524444580078</t>
+    <t xml:space="preserve">17.7740058898926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0858325958252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7575950622559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5524463653564</t>
   </si>
   <si>
     <t xml:space="preserve">17.5852718353271</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6427135467529</t>
+    <t xml:space="preserve">17.6427116394043</t>
   </si>
   <si>
     <t xml:space="preserve">17.7329769134521</t>
@@ -902,31 +902,31 @@
     <t xml:space="preserve">17.7493858337402</t>
   </si>
   <si>
-    <t xml:space="preserve">17.174976348877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0765056610107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0682945251465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1503582000732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9123840332031</t>
+    <t xml:space="preserve">17.1749782562256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0765037536621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0682964324951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1503562927246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9123859405518</t>
   </si>
   <si>
     <t xml:space="preserve">17.2324161529541</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0600910186768</t>
+    <t xml:space="preserve">17.0600929260254</t>
   </si>
   <si>
     <t xml:space="preserve">16.9780330657959</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3965339660645</t>
+    <t xml:space="preserve">17.3965358734131</t>
   </si>
   <si>
     <t xml:space="preserve">17.5032119750977</t>
@@ -938,7 +938,7 @@
     <t xml:space="preserve">18.2991828918457</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1022434234619</t>
+    <t xml:space="preserve">18.1022415161133</t>
   </si>
   <si>
     <t xml:space="preserve">18.3484210968018</t>
@@ -947,37 +947,37 @@
     <t xml:space="preserve">18.3566265106201</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4633007049561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8642730712891</t>
+    <t xml:space="preserve">18.4633026123047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8642711639404</t>
   </si>
   <si>
     <t xml:space="preserve">18.3402156829834</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7247695922852</t>
+    <t xml:space="preserve">17.7247714996338</t>
   </si>
   <si>
     <t xml:space="preserve">17.5688571929932</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4950046539307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8068294525146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5278301239014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3883285522461</t>
+    <t xml:space="preserve">17.4950065612793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8068313598633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5278282165527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3883304595947</t>
   </si>
   <si>
     <t xml:space="preserve">17.4047374725342</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2734451293945</t>
+    <t xml:space="preserve">17.2734432220459</t>
   </si>
   <si>
     <t xml:space="preserve">17.2242088317871</t>
@@ -989,22 +989,22 @@
     <t xml:space="preserve">16.9452095031738</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9287948608398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0190601348877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2816524505615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4211502075195</t>
+    <t xml:space="preserve">16.9287967681885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0190620422363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2816505432129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4211521148682</t>
   </si>
   <si>
     <t xml:space="preserve">17.6262989044189</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6098880767822</t>
+    <t xml:space="preserve">17.6098861694336</t>
   </si>
   <si>
     <t xml:space="preserve">17.970947265625</t>
@@ -1013,7 +1013,7 @@
     <t xml:space="preserve">18.0940361022949</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3238010406494</t>
+    <t xml:space="preserve">18.3237991333008</t>
   </si>
   <si>
     <t xml:space="preserve">17.9873600006104</t>
@@ -1022,16 +1022,16 @@
     <t xml:space="preserve">18.1186542510986</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1104488372803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.126859664917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3320064544678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3648319244385</t>
+    <t xml:space="preserve">18.1104469299316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1268577575684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3320083618164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3648300170898</t>
   </si>
   <si>
     <t xml:space="preserve">18.438684463501</t>
@@ -1043,25 +1043,25 @@
     <t xml:space="preserve">18.6356258392334</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6684494018555</t>
+    <t xml:space="preserve">18.6684513092041</t>
   </si>
   <si>
     <t xml:space="preserve">18.5371551513672</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8079490661621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6520366668701</t>
+    <t xml:space="preserve">18.8079528808594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6520385742188</t>
   </si>
   <si>
     <t xml:space="preserve">18.6192150115967</t>
   </si>
   <si>
-    <t xml:space="preserve">18.783332824707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2182464599609</t>
+    <t xml:space="preserve">18.7833347320557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2182483673096</t>
   </si>
   <si>
     <t xml:space="preserve">19.1443939208984</t>
@@ -1070,40 +1070,40 @@
     <t xml:space="preserve">18.6930694580078</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7669239044189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5945949554443</t>
+    <t xml:space="preserve">18.7669219970703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5945987701416</t>
   </si>
   <si>
     <t xml:space="preserve">18.3730373382568</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1596813201904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4222755432129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2335376739502</t>
+    <t xml:space="preserve">18.1596832275391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4222736358643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2335357666016</t>
   </si>
   <si>
     <t xml:space="preserve">18.1925048828125</t>
   </si>
   <si>
-    <t xml:space="preserve">18.135066986084</t>
+    <t xml:space="preserve">18.1350650787354</t>
   </si>
   <si>
     <t xml:space="preserve">17.9217128753662</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6345062255859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5442390441895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3555068969727</t>
+    <t xml:space="preserve">17.6345081329346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5442409515381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3555030822754</t>
   </si>
   <si>
     <t xml:space="preserve">17.0272674560547</t>
@@ -1115,22 +1115,22 @@
     <t xml:space="preserve">16.9041786193848</t>
   </si>
   <si>
-    <t xml:space="preserve">17.191385269165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6919479370117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9053001403809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8150329589844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0037727355957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8396511077881</t>
+    <t xml:space="preserve">17.1913871765137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6919460296631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9052982330322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.815034866333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0037708282471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8396530151367</t>
   </si>
   <si>
     <t xml:space="preserve">17.9627418518066</t>
@@ -1139,13 +1139,13 @@
     <t xml:space="preserve">17.4293575286865</t>
   </si>
   <si>
-    <t xml:space="preserve">17.035472869873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.470386505127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4621810913086</t>
+    <t xml:space="preserve">17.0354747772217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4703903198242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4621829986572</t>
   </si>
   <si>
     <t xml:space="preserve">17.7822113037109</t>
@@ -1154,19 +1154,19 @@
     <t xml:space="preserve">17.6591243743896</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8232402801514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4129428863525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3976554870605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.446891784668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5617733001709</t>
+    <t xml:space="preserve">17.8232421875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4129447937012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3976573944092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4468879699707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5617752075195</t>
   </si>
   <si>
     <t xml:space="preserve">18.627420425415</t>
@@ -1175,19 +1175,19 @@
     <t xml:space="preserve">18.7751274108887</t>
   </si>
   <si>
-    <t xml:space="preserve">18.47971534729</t>
+    <t xml:space="preserve">18.4797134399414</t>
   </si>
   <si>
     <t xml:space="preserve">18.7258930206299</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3155956268311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2827739715576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5781860351562</t>
+    <t xml:space="preserve">18.3155937194824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.282772064209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5781841278076</t>
   </si>
   <si>
     <t xml:space="preserve">17.5114192962646</t>
@@ -1196,37 +1196,37 @@
     <t xml:space="preserve">18.0201835632324</t>
   </si>
   <si>
-    <t xml:space="preserve">17.347297668457</t>
+    <t xml:space="preserve">17.3472995758057</t>
   </si>
   <si>
     <t xml:space="preserve">17.2980651855469</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9381256103516</t>
+    <t xml:space="preserve">17.9381217956543</t>
   </si>
   <si>
     <t xml:space="preserve">17.675537109375</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2652416229248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.314474105835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4961280822754</t>
+    <t xml:space="preserve">17.2652397155762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3144760131836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4961261749268</t>
   </si>
   <si>
     <t xml:space="preserve">19.5793075561523</t>
   </si>
   <si>
-    <t xml:space="preserve">19.5136604309082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.03883934021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3178405761719</t>
+    <t xml:space="preserve">19.5136585235596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0388374328613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3178386688232</t>
   </si>
   <si>
     <t xml:space="preserve">20.1701316833496</t>
@@ -1238,22 +1238,22 @@
     <t xml:space="preserve">19.8418960571289</t>
   </si>
   <si>
-    <t xml:space="preserve">19.8254833221436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8911323547363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8090705871582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9403648376465</t>
+    <t xml:space="preserve">19.8254852294922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8911304473877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8090724945068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9403667449951</t>
   </si>
   <si>
     <t xml:space="preserve">20.4327201843262</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6296615600586</t>
+    <t xml:space="preserve">20.6296634674072</t>
   </si>
   <si>
     <t xml:space="preserve">20.5311946868896</t>
@@ -1262,79 +1262,79 @@
     <t xml:space="preserve">20.5968399047852</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7609577178955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5147800445557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3506622314453</t>
+    <t xml:space="preserve">20.7609558105469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5147819519043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3506603240967</t>
   </si>
   <si>
     <t xml:space="preserve">20.2850151062012</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3342514038086</t>
+    <t xml:space="preserve">20.33424949646</t>
   </si>
   <si>
     <t xml:space="preserve">20.4655456542969</t>
   </si>
   <si>
-    <t xml:space="preserve">20.4163074493408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.383487701416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4491329193115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7281341552734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8430156707764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7937812805176</t>
+    <t xml:space="preserve">20.4163093566895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3834857940674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4491348266602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7281360626221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.843017578125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7937850952148</t>
   </si>
   <si>
     <t xml:space="preserve">20.6788997650146</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7117214202881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6460742950439</t>
+    <t xml:space="preserve">20.7117233276367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6460781097412</t>
   </si>
   <si>
     <t xml:space="preserve">20.8101940155029</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2510681152344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4808368682861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1854209899902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1361904144287</t>
+    <t xml:space="preserve">19.251070022583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4808349609375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1854228973389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1361865997314</t>
   </si>
   <si>
     <t xml:space="preserve">19.2887344360352</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0514392852783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.492130279541</t>
+    <t xml:space="preserve">19.0514373779297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4921321868896</t>
   </si>
   <si>
     <t xml:space="preserve">19.3226337432861</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7633285522461</t>
+    <t xml:space="preserve">19.7633247375488</t>
   </si>
   <si>
     <t xml:space="preserve">19.6446781158447</t>
@@ -1346,16 +1346,16 @@
     <t xml:space="preserve">19.6955280303955</t>
   </si>
   <si>
-    <t xml:space="preserve">19.6277275085449</t>
+    <t xml:space="preserve">19.6277294158936</t>
   </si>
   <si>
     <t xml:space="preserve">19.2717838287354</t>
   </si>
   <si>
-    <t xml:space="preserve">19.559928894043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8311233520508</t>
+    <t xml:space="preserve">19.5599308013916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8311214447021</t>
   </si>
   <si>
     <t xml:space="preserve">19.7802753448486</t>
@@ -1367,7 +1367,7 @@
     <t xml:space="preserve">19.5938301086426</t>
   </si>
   <si>
-    <t xml:space="preserve">19.4412822723389</t>
+    <t xml:space="preserve">19.4412803649902</t>
   </si>
   <si>
     <t xml:space="preserve">18.8988914489746</t>
@@ -1376,40 +1376,40 @@
     <t xml:space="preserve">18.9158401489258</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7971973419189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.017541885376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0683860778809</t>
+    <t xml:space="preserve">18.7971935272217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0175399780273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0683898925781</t>
   </si>
   <si>
     <t xml:space="preserve">19.1361885070801</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9836387634277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1022911071777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.526029586792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6616306304932</t>
+    <t xml:space="preserve">18.9836406707764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1022891998291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5260314941406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6616287231445</t>
   </si>
   <si>
     <t xml:space="preserve">19.5768795013428</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3226661682129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3396148681641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.187068939209</t>
+    <t xml:space="preserve">20.3226642608643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3396167755127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1870651245117</t>
   </si>
   <si>
     <t xml:space="preserve">20.0175724029541</t>
@@ -1418,7 +1418,7 @@
     <t xml:space="preserve">19.9328231811523</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7124786376953</t>
+    <t xml:space="preserve">19.7124767303467</t>
   </si>
   <si>
     <t xml:space="preserve">20.2379169464111</t>
@@ -1430,25 +1430,25 @@
     <t xml:space="preserve">19.6107788085938</t>
   </si>
   <si>
-    <t xml:space="preserve">19.8480739593506</t>
+    <t xml:space="preserve">19.8480758666992</t>
   </si>
   <si>
     <t xml:space="preserve">20.4243640899658</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6447105407715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6955604553223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3904628753662</t>
+    <t xml:space="preserve">20.6447086334229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6955585479736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3904666900635</t>
   </si>
   <si>
     <t xml:space="preserve">20.3057155609131</t>
   </si>
   <si>
-    <t xml:space="preserve">20.1701164245605</t>
+    <t xml:space="preserve">20.1701183319092</t>
   </si>
   <si>
     <t xml:space="preserve">20.2887668609619</t>
@@ -1469,34 +1469,34 @@
     <t xml:space="preserve">20.4921627044678</t>
   </si>
   <si>
-    <t xml:space="preserve">20.9328536987305</t>
+    <t xml:space="preserve">20.9328556060791</t>
   </si>
   <si>
     <t xml:space="preserve">20.6616592407227</t>
   </si>
   <si>
-    <t xml:space="preserve">20.5769119262695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7633571624756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1023502349854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6108417510986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6955909729004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5091438293457</t>
+    <t xml:space="preserve">20.5769100189209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7633590698242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1023483276367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.61083984375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6955890655518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5091419219971</t>
   </si>
   <si>
     <t xml:space="preserve">22.0345840454102</t>
   </si>
   <si>
-    <t xml:space="preserve">22.3905258178711</t>
+    <t xml:space="preserve">22.3905277252197</t>
   </si>
   <si>
     <t xml:space="preserve">22.1023807525635</t>
@@ -1505,10 +1505,10 @@
     <t xml:space="preserve">21.4921932220459</t>
   </si>
   <si>
-    <t xml:space="preserve">21.7294883728027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3904933929443</t>
+    <t xml:space="preserve">21.7294902801514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.390495300293</t>
   </si>
   <si>
     <t xml:space="preserve">21.4074459075928</t>
@@ -1523,7 +1523,7 @@
     <t xml:space="preserve">20.5938606262207</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9667224884033</t>
+    <t xml:space="preserve">19.9667205810547</t>
   </si>
   <si>
     <t xml:space="preserve">19.8819732666016</t>
@@ -1535,16 +1535,16 @@
     <t xml:space="preserve">19.3734836578369</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0344886779785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4751796722412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0853710174561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8989219665527</t>
+    <t xml:space="preserve">19.0344905853271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4751815795898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0853729248047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8989238739014</t>
   </si>
   <si>
     <t xml:space="preserve">19.237886428833</t>
@@ -1553,22 +1553,22 @@
     <t xml:space="preserve">18.8819427490234</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5090484619141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1870059967041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2717552185059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0175075531006</t>
+    <t xml:space="preserve">18.5090503692627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1870040893555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2717533111572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0175094604492</t>
   </si>
   <si>
     <t xml:space="preserve">18.6276969909668</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9327583312988</t>
+    <t xml:space="preserve">17.9327602386475</t>
   </si>
   <si>
     <t xml:space="preserve">18.1192073822021</t>
@@ -1586,13 +1586,13 @@
     <t xml:space="preserve">18.2378559112549</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5259990692139</t>
+    <t xml:space="preserve">18.5259971618652</t>
   </si>
   <si>
     <t xml:space="preserve">17.8480110168457</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3564720153809</t>
+    <t xml:space="preserve">17.3564701080322</t>
   </si>
   <si>
     <t xml:space="preserve">16.9666290283203</t>
@@ -1604,34 +1604,34 @@
     <t xml:space="preserve">17.1022262573242</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3733901977539</t>
+    <t xml:space="preserve">16.3733882904053</t>
   </si>
   <si>
     <t xml:space="preserve">16.271692276001</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6106853485107</t>
+    <t xml:space="preserve">16.6106872558594</t>
   </si>
   <si>
     <t xml:space="preserve">16.4242401123047</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3903408050537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7378101348877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8140811920166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7039089202881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4581699371338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2717208862305</t>
+    <t xml:space="preserve">16.3903388977051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7378063201904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8140830993652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7039070129395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4581680297852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2717227935791</t>
   </si>
   <si>
     <t xml:space="preserve">17.153076171875</t>
@@ -1640,46 +1640,46 @@
     <t xml:space="preserve">17.3225727081299</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4920673370361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6446170806885</t>
+    <t xml:space="preserve">17.4920692443848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6446151733398</t>
   </si>
   <si>
     <t xml:space="preserve">17.7971630096436</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2209072113037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4073505401611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3395519256592</t>
+    <t xml:space="preserve">18.2209053039551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4073524475098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3395538330078</t>
   </si>
   <si>
     <t xml:space="preserve">17.9836082458496</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0514087677002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6615657806396</t>
+    <t xml:space="preserve">18.0514068603516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.661563873291</t>
   </si>
   <si>
     <t xml:space="preserve">17.2378234863281</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5768146514893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7293663024902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8819103240967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4412536621094</t>
+    <t xml:space="preserve">17.5768165588379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7293643951416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8819122314453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4412498474121</t>
   </si>
   <si>
     <t xml:space="preserve">18.1531066894531</t>
@@ -1688,7 +1688,7 @@
     <t xml:space="preserve">17.9158115386963</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9497089385986</t>
+    <t xml:space="preserve">17.9497108459473</t>
   </si>
   <si>
     <t xml:space="preserve">17.8988628387451</t>
@@ -1697,7 +1697,7 @@
     <t xml:space="preserve">17.7463150024414</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7124156951904</t>
+    <t xml:space="preserve">17.7124137878418</t>
   </si>
   <si>
     <t xml:space="preserve">17.62766456604</t>
@@ -1712,7 +1712,7 @@
     <t xml:space="preserve">16.873405456543</t>
   </si>
   <si>
-    <t xml:space="preserve">17.186975479126</t>
+    <t xml:space="preserve">17.1869735717773</t>
   </si>
   <si>
     <t xml:space="preserve">17.2039241790771</t>
@@ -1721,10 +1721,10 @@
     <t xml:space="preserve">17.3903713226318</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2886734008789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2547760009766</t>
+    <t xml:space="preserve">17.2886714935303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2547721862793</t>
   </si>
   <si>
     <t xml:space="preserve">17.220874786377</t>
@@ -1733,19 +1733,19 @@
     <t xml:space="preserve">16.8903560638428</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4242687225342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5429191589355</t>
+    <t xml:space="preserve">17.4242706298828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5429210662842</t>
   </si>
   <si>
     <t xml:space="preserve">17.8141136169434</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5937652587891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3734188079834</t>
+    <t xml:space="preserve">17.5937671661377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3734226226807</t>
   </si>
   <si>
     <t xml:space="preserve">17.1700267791748</t>
@@ -1760,7 +1760,7 @@
     <t xml:space="preserve">17.3310470581055</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4157962799072</t>
+    <t xml:space="preserve">17.4157943725586</t>
   </si>
   <si>
     <t xml:space="preserve">17.1615505218506</t>
@@ -1772,19 +1772,19 @@
     <t xml:space="preserve">17.5852909088135</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6700439453125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3480262756348</t>
+    <t xml:space="preserve">17.6700420379639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3480281829834</t>
   </si>
   <si>
     <t xml:space="preserve">18.1361560821533</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0937824249268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8395366668701</t>
+    <t xml:space="preserve">18.0937843322754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8395347595215</t>
   </si>
   <si>
     <t xml:space="preserve">18.009033203125</t>
@@ -1793,10 +1793,10 @@
     <t xml:space="preserve">17.754789352417</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9242877960205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1785316467285</t>
+    <t xml:space="preserve">17.9242839813232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1785297393799</t>
   </si>
   <si>
     <t xml:space="preserve">17.9148921966553</t>
@@ -1805,43 +1805,43 @@
     <t xml:space="preserve">18.0909595489502</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9589099884033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8268585205078</t>
+    <t xml:space="preserve">17.9589080810547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8268604278564</t>
   </si>
   <si>
     <t xml:space="preserve">18.2670269012451</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1789932250977</t>
+    <t xml:space="preserve">18.1789951324463</t>
   </si>
   <si>
     <t xml:space="preserve">18.2230129241943</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4871120452881</t>
+    <t xml:space="preserve">18.4871101379395</t>
   </si>
   <si>
     <t xml:space="preserve">18.4430961608887</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5311298370361</t>
+    <t xml:space="preserve">18.5311279296875</t>
   </si>
   <si>
     <t xml:space="preserve">18.3550624847412</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0029258728027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.782844543457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6507911682129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3426704406738</t>
+    <t xml:space="preserve">18.0029277801514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7828407287598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6507892608643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3426742553711</t>
   </si>
   <si>
     <t xml:space="preserve">17.5011310577393</t>
@@ -1850,16 +1850,16 @@
     <t xml:space="preserve">17.553955078125</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7952327728271</t>
+    <t xml:space="preserve">18.7952308654785</t>
   </si>
   <si>
     <t xml:space="preserve">18.7512149810791</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5751457214355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6191654205322</t>
+    <t xml:space="preserve">18.5751495361328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.619161605835</t>
   </si>
   <si>
     <t xml:space="preserve">18.3110427856445</t>
@@ -1877,22 +1877,22 @@
     <t xml:space="preserve">17.2370319366455</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1666030883789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2722434997559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1137866973877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3074569702148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8320770263672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6912212371826</t>
+    <t xml:space="preserve">17.1666049957275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2722473144531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1137828826904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3074588775635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8320751190186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.691219329834</t>
   </si>
   <si>
     <t xml:space="preserve">16.7616481781006</t>
@@ -1907,28 +1907,28 @@
     <t xml:space="preserve">16.3743000030518</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6207942962646</t>
+    <t xml:space="preserve">16.620792388916</t>
   </si>
   <si>
     <t xml:space="preserve">16.1101989746094</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3038711547852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6560096740723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5679740905762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4095134735107</t>
+    <t xml:space="preserve">16.3038730621338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6560077667236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5679759979248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4095115661621</t>
   </si>
   <si>
     <t xml:space="preserve">16.3919067382812</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3214797973633</t>
+    <t xml:space="preserve">16.3214817047119</t>
   </si>
   <si>
     <t xml:space="preserve">16.2334461212158</t>
@@ -1937,13 +1937,13 @@
     <t xml:space="preserve">16.9025020599365</t>
   </si>
   <si>
-    <t xml:space="preserve">17.289852142334</t>
+    <t xml:space="preserve">17.2898502349854</t>
   </si>
   <si>
     <t xml:space="preserve">17.3954925537109</t>
   </si>
   <si>
-    <t xml:space="preserve">17.448314666748</t>
+    <t xml:space="preserve">17.4483127593994</t>
   </si>
   <si>
     <t xml:space="preserve">17.6948089599609</t>
@@ -1952,7 +1952,7 @@
     <t xml:space="preserve">19.0593318939209</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1349773406982</t>
+    <t xml:space="preserve">18.1349754333496</t>
   </si>
   <si>
     <t xml:space="preserve">18.3990783691406</t>
@@ -1961,25 +1961,25 @@
     <t xml:space="preserve">17.8708744049072</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6067733764648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.254638671875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.849681854248</t>
+    <t xml:space="preserve">17.6067752838135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2546405792236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8496837615967</t>
   </si>
   <si>
     <t xml:space="preserve">16.8848972320557</t>
   </si>
   <si>
-    <t xml:space="preserve">17.148998260498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1313896179199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4835262298584</t>
+    <t xml:space="preserve">17.1489963531494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1313915252686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.483528137207</t>
   </si>
   <si>
     <t xml:space="preserve">16.7264347076416</t>
@@ -1988,22 +1988,22 @@
     <t xml:space="preserve">16.6384010314941</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5503673553467</t>
+    <t xml:space="preserve">16.550365447998</t>
   </si>
   <si>
     <t xml:space="preserve">16.4271202087402</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7088260650635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6736145019531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8144702911377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.360279083252</t>
+    <t xml:space="preserve">16.7088298797607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6736164093018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8144683837891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3602771759033</t>
   </si>
   <si>
     <t xml:space="preserve">17.325065612793</t>
@@ -2015,31 +2015,31 @@
     <t xml:space="preserve">18.6631813049316</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0469417572021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.219425201416</t>
+    <t xml:space="preserve">18.0469436645508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2194232940674</t>
   </si>
   <si>
     <t xml:space="preserve">16.990535736084</t>
   </si>
   <si>
-    <t xml:space="preserve">17.184211730957</t>
+    <t xml:space="preserve">17.1842098236084</t>
   </si>
   <si>
     <t xml:space="preserve">17.5715579986572</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4235343933105</t>
+    <t xml:space="preserve">15.4235353469849</t>
   </si>
   <si>
     <t xml:space="preserve">15.7052412033081</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0537919998169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7896881103516</t>
+    <t xml:space="preserve">15.0537929534912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7896890640259</t>
   </si>
   <si>
     <t xml:space="preserve">14.4727687835693</t>
@@ -2048,19 +2048,19 @@
     <t xml:space="preserve">14.2614879608154</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0854187011719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2086658477783</t>
+    <t xml:space="preserve">14.0854196548462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2086668014526</t>
   </si>
   <si>
     <t xml:space="preserve">12.4832029342651</t>
   </si>
   <si>
-    <t xml:space="preserve">12.694483757019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1874723434448</t>
+    <t xml:space="preserve">12.6944847106934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1874732971191</t>
   </si>
   <si>
     <t xml:space="preserve">11.7085046768188</t>
@@ -2069,10 +2069,10 @@
     <t xml:space="preserve">12.1838874816895</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7929515838623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0042333602905</t>
+    <t xml:space="preserve">10.7929525375366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0042343139648</t>
   </si>
   <si>
     <t xml:space="preserve">10.5640640258789</t>
@@ -2087,7 +2087,7 @@
     <t xml:space="preserve">13.2050800323486</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6452503204346</t>
+    <t xml:space="preserve">13.6452493667603</t>
   </si>
   <si>
     <t xml:space="preserve">12.9233722686768</t>
@@ -2096,10 +2096,10 @@
     <t xml:space="preserve">13.0466194152832</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9021806716919</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5852575302124</t>
+    <t xml:space="preserve">11.9021797180176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5852565765381</t>
   </si>
   <si>
     <t xml:space="preserve">11.3211555480957</t>
@@ -2108,34 +2108,34 @@
     <t xml:space="preserve">10.8281660079956</t>
   </si>
   <si>
-    <t xml:space="preserve">11.092267036438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.162693977356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1803007125854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0394477844238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7753448486328</t>
+    <t xml:space="preserve">11.0922679901123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1626949310303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1803016662598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0394468307495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7753458023071</t>
   </si>
   <si>
     <t xml:space="preserve">10.6697044372559</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5816717147827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1098737716675</t>
+    <t xml:space="preserve">10.5816707611084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1098747253418</t>
   </si>
   <si>
     <t xml:space="preserve">11.3563690185547</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9338073730469</t>
+    <t xml:space="preserve">10.9338064193726</t>
   </si>
   <si>
     <t xml:space="preserve">10.6873121261597</t>
@@ -2147,28 +2147,28 @@
     <t xml:space="preserve">10.6168851852417</t>
   </si>
   <si>
-    <t xml:space="preserve">10.652099609375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7401323318481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5288505554199</t>
+    <t xml:space="preserve">10.6520977020264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7401313781738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5288515090942</t>
   </si>
   <si>
     <t xml:space="preserve">10.0358610153198</t>
   </si>
   <si>
-    <t xml:space="preserve">10.088680267334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.89500713348389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.70133209228516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.63090419769287</t>
+    <t xml:space="preserve">10.0886812210083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.89500617980957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.70133304595947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.63090515136719</t>
   </si>
   <si>
     <t xml:space="preserve">10.282356262207</t>
@@ -2180,16 +2180,16 @@
     <t xml:space="preserve">10.2999620437622</t>
   </si>
   <si>
-    <t xml:space="preserve">9.96543407440186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0746603012085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8457727432251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0570545196533</t>
+    <t xml:space="preserve">9.96543312072754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0746612548828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8457717895508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.057053565979</t>
   </si>
   <si>
     <t xml:space="preserve">11.6732912063599</t>
@@ -2198,7 +2198,7 @@
     <t xml:space="preserve">11.5676507949829</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6556844711304</t>
+    <t xml:space="preserve">11.6556835174561</t>
   </si>
   <si>
     <t xml:space="preserve">11.4796161651611</t>
@@ -2207,22 +2207,22 @@
     <t xml:space="preserve">11.5500431060791</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5360221862793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.500807762146</t>
+    <t xml:space="preserve">12.5360231399536</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5008096694946</t>
   </si>
   <si>
     <t xml:space="preserve">12.3071346282959</t>
   </si>
   <si>
-    <t xml:space="preserve">12.060640335083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3387613296509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6204710006714</t>
+    <t xml:space="preserve">12.0606393814087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3387622833252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6204700469971</t>
   </si>
   <si>
     <t xml:space="preserve">11.6380777359009</t>
@@ -2231,40 +2231,40 @@
     <t xml:space="preserve">11.9549989700317</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9726076126099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.86696434021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0254259109497</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.990213394165</t>
+    <t xml:space="preserve">11.9726066589355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8669652938843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.025426864624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9902124404907</t>
   </si>
   <si>
     <t xml:space="preserve">11.7613248825073</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6908979415894</t>
+    <t xml:space="preserve">11.690896987915</t>
   </si>
   <si>
     <t xml:space="preserve">11.7437181472778</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4972229003906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5148305892944</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2331228256226</t>
+    <t xml:space="preserve">11.4972238540649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5148296356201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2331218719482</t>
   </si>
   <si>
     <t xml:space="preserve">11.0218410491943</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3035497665405</t>
+    <t xml:space="preserve">11.3035488128662</t>
   </si>
   <si>
     <t xml:space="preserve">10.986626625061</t>
@@ -2273,7 +2273,7 @@
     <t xml:space="preserve">10.8633785247803</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6028652191162</t>
+    <t xml:space="preserve">11.6028642654419</t>
   </si>
   <si>
     <t xml:space="preserve">11.1979084014893</t>
@@ -2282,13 +2282,13 @@
     <t xml:space="preserve">11.1450872421265</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2683362960815</t>
+    <t xml:space="preserve">11.2683353424072</t>
   </si>
   <si>
     <t xml:space="preserve">11.1274814605713</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6344909667969</t>
+    <t xml:space="preserve">10.6344919204712</t>
   </si>
   <si>
     <t xml:space="preserve">10.9690208435059</t>
@@ -2297,25 +2297,25 @@
     <t xml:space="preserve">11.4444026947021</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2507276535034</t>
+    <t xml:space="preserve">11.2507286071777</t>
   </si>
   <si>
     <t xml:space="preserve">11.8141460418701</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1134595870972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1310663223267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9197854995728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5324363708496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0078201293945</t>
+    <t xml:space="preserve">12.1134614944458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.131067276001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9197864532471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5324382781982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0078210830688</t>
   </si>
   <si>
     <t xml:space="preserve">12.095853805542</t>
@@ -2330,10 +2330,10 @@
     <t xml:space="preserve">12.9585857391357</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7120895385742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.800124168396</t>
+    <t xml:space="preserve">12.7120904922485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8001251220703</t>
   </si>
   <si>
     <t xml:space="preserve">13.0114059448242</t>
@@ -2342,16 +2342,16 @@
     <t xml:space="preserve">12.0782470703125</t>
   </si>
   <si>
-    <t xml:space="preserve">11.796537399292</t>
+    <t xml:space="preserve">11.7965383529663</t>
   </si>
   <si>
     <t xml:space="preserve">11.2859420776367</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8985939025879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1415023803711</t>
+    <t xml:space="preserve">10.8985929489136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1415014266968</t>
   </si>
   <si>
     <t xml:space="preserve">10.2119293212891</t>
@@ -2363,43 +2363,43 @@
     <t xml:space="preserve">10.1943216323853</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3527841567993</t>
+    <t xml:space="preserve">10.352783203125</t>
   </si>
   <si>
     <t xml:space="preserve">13.2579011917114</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8037109375</t>
+    <t xml:space="preserve">13.8037118911743</t>
   </si>
   <si>
     <t xml:space="preserve">12.9409790039062</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6276426315308</t>
+    <t xml:space="preserve">13.6276435852051</t>
   </si>
   <si>
     <t xml:space="preserve">14.1382389068604</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1698656082153</t>
+    <t xml:space="preserve">13.1698665618896</t>
   </si>
   <si>
     <t xml:space="preserve">13.0290126800537</t>
   </si>
   <si>
-    <t xml:space="preserve">13.50439453125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.698070526123</t>
+    <t xml:space="preserve">13.5043954849243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6980714797974</t>
   </si>
   <si>
     <t xml:space="preserve">13.9093523025513</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7861032485962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8741369247437</t>
+    <t xml:space="preserve">13.7861042022705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.874137878418</t>
   </si>
   <si>
     <t xml:space="preserve">13.8213176727295</t>
@@ -2414,22 +2414,22 @@
     <t xml:space="preserve">13.4515752792358</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2226886749268</t>
+    <t xml:space="preserve">13.2226877212524</t>
   </si>
   <si>
     <t xml:space="preserve">13.2755069732666</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5220022201538</t>
+    <t xml:space="preserve">13.5220031738281</t>
   </si>
   <si>
     <t xml:space="preserve">13.134654045105</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2402944564819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4339685440063</t>
+    <t xml:space="preserve">13.2402935028076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4339694976807</t>
   </si>
   <si>
     <t xml:space="preserve">13.7508897781372</t>
@@ -2441,7 +2441,7 @@
     <t xml:space="preserve">14.3671274185181</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8425121307373</t>
+    <t xml:space="preserve">14.8425102233887</t>
   </si>
   <si>
     <t xml:space="preserve">15.247465133667</t>
@@ -2450,40 +2450,40 @@
     <t xml:space="preserve">15.476354598999</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5996007919312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6700277328491</t>
+    <t xml:space="preserve">15.5996026992798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6700296401978</t>
   </si>
   <si>
     <t xml:space="preserve">15.5291738510132</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9657564163208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3178939819336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6876363754272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6524238586426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3883190155029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2298583984375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1242189407349</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1066131591797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6312294006348</t>
+    <t xml:space="preserve">14.9657573699951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.317892074585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6876354217529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6524219512939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3883199691772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2298593521118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1242208480835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1066122055054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6312303543091</t>
   </si>
   <si>
     <t xml:space="preserve">14.8777236938477</t>
@@ -2492,10 +2492,10 @@
     <t xml:space="preserve">14.9129390716553</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1594305038452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9693431854248</t>
+    <t xml:space="preserve">15.1594314575195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9693450927734</t>
   </si>
   <si>
     <t xml:space="preserve">15.8460969924927</t>
@@ -2504,13 +2504,13 @@
     <t xml:space="preserve">16.3390846252441</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2862682342529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9729309082031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8108825683594</t>
+    <t xml:space="preserve">16.2862663269043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9729290008545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8108835220337</t>
   </si>
   <si>
     <t xml:space="preserve">15.8989162445068</t>
@@ -2519,7 +2519,7 @@
     <t xml:space="preserve">15.8284893035889</t>
   </si>
   <si>
-    <t xml:space="preserve">15.916524887085</t>
+    <t xml:space="preserve">15.9165239334106</t>
   </si>
   <si>
     <t xml:space="preserve">16.7968616485596</t>
@@ -2531,7 +2531,7 @@
     <t xml:space="preserve">17.0081424713135</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0785694122314</t>
+    <t xml:space="preserve">17.0785713195801</t>
   </si>
   <si>
     <t xml:space="preserve">17.0433578491211</t>
@@ -2540,19 +2540,19 @@
     <t xml:space="preserve">16.5151538848877</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9341287612915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1982326507568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1630172729492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0749855041504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4447288513184</t>
+    <t xml:space="preserve">15.9341316223145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1982307434082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1630191802979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0749835968018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4447269439697</t>
   </si>
   <si>
     <t xml:space="preserve">16.5855808258057</t>
@@ -2561,7 +2561,7 @@
     <t xml:space="preserve">16.1454124450684</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4535312652588</t>
+    <t xml:space="preserve">16.4535293579102</t>
   </si>
   <si>
     <t xml:space="preserve">16.2070350646973</t>
@@ -2570,10 +2570,10 @@
     <t xml:space="preserve">16.1894283294678</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4975471496582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5327606201172</t>
+    <t xml:space="preserve">16.4975490570068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5327625274658</t>
   </si>
   <si>
     <t xml:space="preserve">16.8232727050781</t>
@@ -2606,88 +2606,88 @@
     <t xml:space="preserve">17.069766998291</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0961761474609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4747219085693</t>
+    <t xml:space="preserve">17.0961780548096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.474723815918</t>
   </si>
   <si>
     <t xml:space="preserve">17.6419887542725</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8532676696777</t>
+    <t xml:space="preserve">17.8532695770264</t>
   </si>
   <si>
     <t xml:space="preserve">17.7300205230713</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9413013458252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9765167236328</t>
+    <t xml:space="preserve">17.9413032531738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9765186309814</t>
   </si>
   <si>
     <t xml:space="preserve">18.1877975463867</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3638668060303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5047187805176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5223274230957</t>
+    <t xml:space="preserve">18.3638687133789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5047206878662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5223255157471</t>
   </si>
   <si>
     <t xml:space="preserve">18.2758312225342</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7476291656494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2054061889648</t>
+    <t xml:space="preserve">17.7476272583008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2054042816162</t>
   </si>
   <si>
     <t xml:space="preserve">18.0997619628906</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0821571350098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9236965179443</t>
+    <t xml:space="preserve">18.0821590423584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9236946105957</t>
   </si>
   <si>
     <t xml:space="preserve">17.8004474639893</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8884830474854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2582225799561</t>
+    <t xml:space="preserve">17.8884811401367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2582244873047</t>
   </si>
   <si>
     <t xml:space="preserve">18.1525859832764</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1701889038086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7652339935303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4166870117188</t>
+    <t xml:space="preserve">18.1701908111572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7652359008789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4166851043701</t>
   </si>
   <si>
     <t xml:space="preserve">18.3286514282227</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9060878753662</t>
+    <t xml:space="preserve">17.9060897827148</t>
   </si>
   <si>
     <t xml:space="preserve">16.8936996459961</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2018203735352</t>
+    <t xml:space="preserve">17.2018184661865</t>
   </si>
   <si>
     <t xml:space="preserve">17.2282295227051</t>
@@ -2699,22 +2699,22 @@
     <t xml:space="preserve">19.8428344726562</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3146305084229</t>
+    <t xml:space="preserve">19.3146324157715</t>
   </si>
   <si>
     <t xml:space="preserve">19.2794170379639</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6983947753906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.191385269165</t>
+    <t xml:space="preserve">18.6983909606934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1913833618164</t>
   </si>
   <si>
     <t xml:space="preserve">18.7336082458496</t>
   </si>
   <si>
-    <t xml:space="preserve">18.892068862915</t>
+    <t xml:space="preserve">18.8920669555664</t>
   </si>
   <si>
     <t xml:space="preserve">18.4695053100586</t>
@@ -2729,10 +2729,10 @@
     <t xml:space="preserve">17.8180561065674</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0117282867432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2406158447266</t>
+    <t xml:space="preserve">18.0117301940918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2406177520752</t>
   </si>
   <si>
     <t xml:space="preserve">17.4131011962891</t>
@@ -2741,13 +2741,13 @@
     <t xml:space="preserve">17.4219036102295</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0345554351807</t>
+    <t xml:space="preserve">17.034553527832</t>
   </si>
   <si>
     <t xml:space="preserve">17.1578006744385</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6103610992432</t>
+    <t xml:space="preserve">18.6103591918945</t>
   </si>
   <si>
     <t xml:space="preserve">18.1173706054688</t>
@@ -2756,16 +2756,16 @@
     <t xml:space="preserve">18.2934398651123</t>
   </si>
   <si>
-    <t xml:space="preserve">18.76881980896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5575408935547</t>
+    <t xml:space="preserve">18.7688217163086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5575389862061</t>
   </si>
   <si>
     <t xml:space="preserve">18.3361072540283</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3002967834473</t>
+    <t xml:space="preserve">18.3002948760986</t>
   </si>
   <si>
     <t xml:space="preserve">18.4077320098877</t>
@@ -2777,28 +2777,28 @@
     <t xml:space="preserve">18.4793586730957</t>
   </si>
   <si>
-    <t xml:space="preserve">18.443546295166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.747953414917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.515172958374</t>
+    <t xml:space="preserve">18.4435443878174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7479553222656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5151710510254</t>
   </si>
   <si>
     <t xml:space="preserve">18.5330791473389</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2286701202393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0854206085205</t>
+    <t xml:space="preserve">18.2286682128906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0854187011719</t>
   </si>
   <si>
     <t xml:space="preserve">18.0496063232422</t>
   </si>
   <si>
-    <t xml:space="preserve">17.995885848999</t>
+    <t xml:space="preserve">17.9958877563477</t>
   </si>
   <si>
     <t xml:space="preserve">17.8974018096924</t>
@@ -2807,25 +2807,25 @@
     <t xml:space="preserve">18.1391372680664</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9063549041748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7810096740723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2644824981689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1990528106689</t>
+    <t xml:space="preserve">17.9063568115234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7810115814209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2644805908203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1990547180176</t>
   </si>
   <si>
     <t xml:space="preserve">17.0826625823975</t>
   </si>
   <si>
-    <t xml:space="preserve">17.136381149292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7603492736816</t>
+    <t xml:space="preserve">17.1363830566406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.760347366333</t>
   </si>
   <si>
     <t xml:space="preserve">16.6529102325439</t>
@@ -2846,7 +2846,7 @@
     <t xml:space="preserve">16.3664093017578</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5633792877197</t>
+    <t xml:space="preserve">16.5633773803711</t>
   </si>
   <si>
     <t xml:space="preserve">16.5365180969238</t>
@@ -2858,52 +2858,52 @@
     <t xml:space="preserve">17.0289440155029</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8498783111572</t>
+    <t xml:space="preserve">16.8498802185059</t>
   </si>
   <si>
     <t xml:space="preserve">16.8677864074707</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9931297302246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9125518798828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7334899902344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7424430847168</t>
+    <t xml:space="preserve">16.9931316375732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9125499725342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7334880828857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7424411773682</t>
   </si>
   <si>
     <t xml:space="preserve">16.4648933410645</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4380340576172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1157207489014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1694393157959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3395500183105</t>
+    <t xml:space="preserve">16.4380359649658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1157188415527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1694374084473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3395481109619</t>
   </si>
   <si>
     <t xml:space="preserve">16.9215049743652</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1005706787109</t>
+    <t xml:space="preserve">17.1005687713623</t>
   </si>
   <si>
     <t xml:space="preserve">17.2975387573242</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4586963653564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5454730987549</t>
+    <t xml:space="preserve">17.4586944580078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5454711914062</t>
   </si>
   <si>
     <t xml:space="preserve">16.6618633270264</t>
@@ -2915,34 +2915,34 @@
     <t xml:space="preserve">16.9483661651611</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3154468536377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8946475982666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.002082824707</t>
+    <t xml:space="preserve">17.3154449462891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.894645690918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0020847320557</t>
   </si>
   <si>
     <t xml:space="preserve">16.4917526245117</t>
   </si>
   <si>
-    <t xml:space="preserve">15.93665599823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0799045562744</t>
+    <t xml:space="preserve">15.9366550445557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.079906463623</t>
   </si>
   <si>
     <t xml:space="preserve">16.4827995300293</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7872066497803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.518611907959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8588314056396</t>
+    <t xml:space="preserve">16.7872085571289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5186138153076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8588333129883</t>
   </si>
   <si>
     <t xml:space="preserve">17.1274280548096</t>
@@ -2951,13 +2951,13 @@
     <t xml:space="preserve">16.8409252166748</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4022197723389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8918886184692</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9456090927124</t>
+    <t xml:space="preserve">16.4022216796875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8918905258179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9456081390381</t>
   </si>
   <si>
     <t xml:space="preserve">16.0978126525879</t>
@@ -2969,19 +2969,19 @@
     <t xml:space="preserve">16.590238571167</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4290790557861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0888576507568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6680593490601</t>
+    <t xml:space="preserve">16.4290828704834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0888595581055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6680612564087</t>
   </si>
   <si>
     <t xml:space="preserve">15.2920265197754</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5847272872925</t>
+    <t xml:space="preserve">14.5847263336182</t>
   </si>
   <si>
     <t xml:space="preserve">14.9159936904907</t>
@@ -2996,7 +2996,7 @@
     <t xml:space="preserve">14.4235696792603</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9490509033203</t>
+    <t xml:space="preserve">13.949049949646</t>
   </si>
   <si>
     <t xml:space="preserve">13.5103445053101</t>
@@ -3014,49 +3014,49 @@
     <t xml:space="preserve">13.9311447143555</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3429908752441</t>
+    <t xml:space="preserve">14.3429899215698</t>
   </si>
   <si>
     <t xml:space="preserve">14.7727422714233</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1370668411255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3608980178833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6625499725342</t>
+    <t xml:space="preserve">14.1370677947998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.360897064209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6625490188599</t>
   </si>
   <si>
     <t xml:space="preserve">13.7252206802368</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5461568832397</t>
+    <t xml:space="preserve">13.5461578369141</t>
   </si>
   <si>
     <t xml:space="preserve">13.4118595123291</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1790781021118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2507028579712</t>
+    <t xml:space="preserve">13.1790771484375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2507019042969</t>
   </si>
   <si>
     <t xml:space="preserve">13.4655790328979</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4387187957764</t>
+    <t xml:space="preserve">13.4387197494507</t>
   </si>
   <si>
     <t xml:space="preserve">13.5013914108276</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2327966690063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8746690750122</t>
+    <t xml:space="preserve">13.232795715332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8746700286865</t>
   </si>
   <si>
     <t xml:space="preserve">13.0358266830444</t>
@@ -3074,10 +3074,10 @@
     <t xml:space="preserve">14.2355518341064</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2176456451416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2713651657104</t>
+    <t xml:space="preserve">14.2176465988159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2713642120361</t>
   </si>
   <si>
     <t xml:space="preserve">14.6294927597046</t>
@@ -3089,22 +3089,22 @@
     <t xml:space="preserve">14.0385828018188</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7520799636841</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8774261474609</t>
+    <t xml:space="preserve">13.7520809173584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8774251937866</t>
   </si>
   <si>
     <t xml:space="preserve">13.4834861755371</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5551118850708</t>
+    <t xml:space="preserve">13.5551109313965</t>
   </si>
   <si>
     <t xml:space="preserve">13.1611709594727</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9642009735107</t>
+    <t xml:space="preserve">12.9642000198364</t>
   </si>
   <si>
     <t xml:space="preserve">12.7851371765137</t>
@@ -3116,25 +3116,25 @@
     <t xml:space="preserve">12.8925752639771</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9104814529419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9821071624756</t>
+    <t xml:space="preserve">12.9104824066162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9821081161499</t>
   </si>
   <si>
     <t xml:space="preserve">13.2148895263672</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1432647705078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.053731918335</t>
+    <t xml:space="preserve">13.1432638168335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0537328720093</t>
   </si>
   <si>
     <t xml:space="preserve">12.5523548126221</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3911981582642</t>
+    <t xml:space="preserve">12.3911972045898</t>
   </si>
   <si>
     <t xml:space="preserve">12.3633937835693</t>
@@ -3143,13 +3143,13 @@
     <t xml:space="preserve">12.178035736084</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0668201446533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6228952407837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6414308547974</t>
+    <t xml:space="preserve">12.0668210983276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6228942871094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6414318084717</t>
   </si>
   <si>
     <t xml:space="preserve">13.1975049972534</t>
@@ -3158,25 +3158,25 @@
     <t xml:space="preserve">12.8453245162964</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7526454925537</t>
+    <t xml:space="preserve">12.752646446228</t>
   </si>
   <si>
     <t xml:space="preserve">12.7155742645264</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9380035400391</t>
+    <t xml:space="preserve">12.9380044937134</t>
   </si>
   <si>
     <t xml:space="preserve">13.0862903594971</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3272562026978</t>
+    <t xml:space="preserve">13.3272571563721</t>
   </si>
   <si>
     <t xml:space="preserve">13.0677547454834</t>
   </si>
   <si>
-    <t xml:space="preserve">12.307785987854</t>
+    <t xml:space="preserve">12.3077850341797</t>
   </si>
   <si>
     <t xml:space="preserve">12.1409645080566</t>
@@ -3185,7 +3185,7 @@
     <t xml:space="preserve">11.881462097168</t>
   </si>
   <si>
-    <t xml:space="preserve">12.437536239624</t>
+    <t xml:space="preserve">12.4375371932983</t>
   </si>
   <si>
     <t xml:space="preserve">12.2892503738403</t>
@@ -3206,13 +3206,13 @@
     <t xml:space="preserve">12.4746084213257</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1965713500977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9556045532227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4736747741699</t>
+    <t xml:space="preserve">12.1965703964233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.955605506897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4736738204956</t>
   </si>
   <si>
     <t xml:space="preserve">11.73317527771</t>
@@ -3224,13 +3224,13 @@
     <t xml:space="preserve">12.085355758667</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9370698928833</t>
+    <t xml:space="preserve">11.937068939209</t>
   </si>
   <si>
     <t xml:space="preserve">11.7146396636963</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5107460021973</t>
+    <t xml:space="preserve">11.5107450485229</t>
   </si>
   <si>
     <t xml:space="preserve">12.0297479629517</t>
@@ -3248,7 +3248,7 @@
     <t xml:space="preserve">12.3263216018677</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5116806030273</t>
+    <t xml:space="preserve">12.511679649353</t>
   </si>
   <si>
     <t xml:space="preserve">12.5487518310547</t>
@@ -3266,22 +3266,22 @@
     <t xml:space="preserve">12.252179145813</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1224279403687</t>
+    <t xml:space="preserve">12.1224269866943</t>
   </si>
   <si>
     <t xml:space="preserve">11.7887830734253</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7702465057373</t>
+    <t xml:space="preserve">11.7702474594116</t>
   </si>
   <si>
     <t xml:space="preserve">11.3809947967529</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3439226150513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3253879547119</t>
+    <t xml:space="preserve">11.3439235687256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3253870010376</t>
   </si>
   <si>
     <t xml:space="preserve">11.1585655212402</t>
@@ -3290,13 +3290,13 @@
     <t xml:space="preserve">10.9175987243652</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8619918823242</t>
+    <t xml:space="preserve">10.8619928359985</t>
   </si>
   <si>
     <t xml:space="preserve">10.6766338348389</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7693119049072</t>
+    <t xml:space="preserve">10.7693128585815</t>
   </si>
   <si>
     <t xml:space="preserve">10.3800601959229</t>
@@ -3308,10 +3308,10 @@
     <t xml:space="preserve">10.4171314239502</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3615245819092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6024904251099</t>
+    <t xml:space="preserve">10.3615255355835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6024894714355</t>
   </si>
   <si>
     <t xml:space="preserve">10.8249206542969</t>
@@ -3320,13 +3320,13 @@
     <t xml:space="preserve">9.86105823516846</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1020221710205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.78691387176514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.82398700714111</t>
+    <t xml:space="preserve">10.1020231246948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.78691482543945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.8239860534668</t>
   </si>
   <si>
     <t xml:space="preserve">9.62009143829346</t>
@@ -3344,10 +3344,10 @@
     <t xml:space="preserve">9.00840950012207</t>
   </si>
   <si>
-    <t xml:space="preserve">8.69330024719238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.96207046508789</t>
+    <t xml:space="preserve">8.6933012008667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.96206951141357</t>
   </si>
   <si>
     <t xml:space="preserve">8.98060607910156</t>
@@ -3359,13 +3359,13 @@
     <t xml:space="preserve">9.09182167053223</t>
   </si>
   <si>
-    <t xml:space="preserve">8.86012363433838</t>
+    <t xml:space="preserve">8.86012268066406</t>
   </si>
   <si>
     <t xml:space="preserve">9.07328510284424</t>
   </si>
   <si>
-    <t xml:space="preserve">9.11962413787842</t>
+    <t xml:space="preserve">9.11962509155273</t>
   </si>
   <si>
     <t xml:space="preserve">9.39766216278076</t>
@@ -3380,25 +3380,25 @@
     <t xml:space="preserve">9.56448459625244</t>
   </si>
   <si>
-    <t xml:space="preserve">9.37912559509277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.26791095733643</t>
+    <t xml:space="preserve">9.37912654876709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.26791191101074</t>
   </si>
   <si>
     <t xml:space="preserve">9.58302021026611</t>
   </si>
   <si>
-    <t xml:space="preserve">9.65716361999512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.99080753326416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.87959289550781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.84252166748047</t>
+    <t xml:space="preserve">9.6571626663208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.99080848693848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.87959384918213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.84252071380615</t>
   </si>
   <si>
     <t xml:space="preserve">9.9722728729248</t>
@@ -3413,7 +3413,7 @@
     <t xml:space="preserve">10.2132387161255</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5283470153809</t>
+    <t xml:space="preserve">10.5283460617065</t>
   </si>
   <si>
     <t xml:space="preserve">10.8990640640259</t>
@@ -3422,7 +3422,7 @@
     <t xml:space="preserve">10.2503099441528</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2317743301392</t>
+    <t xml:space="preserve">10.2317733764648</t>
   </si>
   <si>
     <t xml:space="preserve">10.2688455581665</t>
@@ -3431,19 +3431,19 @@
     <t xml:space="preserve">10.4356679916382</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6580972671509</t>
+    <t xml:space="preserve">10.6580982208252</t>
   </si>
   <si>
     <t xml:space="preserve">10.2873821258545</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5468835830688</t>
+    <t xml:space="preserve">10.5468826293945</t>
   </si>
   <si>
     <t xml:space="preserve">10.5839548110962</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4912757873535</t>
+    <t xml:space="preserve">10.4912748336792</t>
   </si>
   <si>
     <t xml:space="preserve">10.4727401733398</t>
@@ -3455,7 +3455,7 @@
     <t xml:space="preserve">10.6951694488525</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3985958099365</t>
+    <t xml:space="preserve">10.3985967636108</t>
   </si>
   <si>
     <t xml:space="preserve">10.5654182434082</t>
@@ -3464,7 +3464,7 @@
     <t xml:space="preserve">10.6210260391235</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0844211578369</t>
+    <t xml:space="preserve">11.0844221115112</t>
   </si>
   <si>
     <t xml:space="preserve">11.3068513870239</t>
@@ -3482,7 +3482,7 @@
     <t xml:space="preserve">11.5848894119263</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6961030960083</t>
+    <t xml:space="preserve">11.6961040496826</t>
   </si>
   <si>
     <t xml:space="preserve">12.0482845306396</t>
@@ -3506,19 +3506,19 @@
     <t xml:space="preserve">11.2512445449829</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2141733169556</t>
+    <t xml:space="preserve">11.2141723632812</t>
   </si>
   <si>
     <t xml:space="preserve">11.1214933395386</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8063850402832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8434562683105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6395616531372</t>
+    <t xml:space="preserve">10.8063840866089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8434553146362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6395606994629</t>
   </si>
   <si>
     <t xml:space="preserve">10.4542036056519</t>
@@ -3533,13 +3533,13 @@
     <t xml:space="preserve">10.9917421340942</t>
   </si>
   <si>
-    <t xml:space="preserve">12.233642578125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6785020828247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.418999671936</t>
+    <t xml:space="preserve">12.2336416244507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.678503036499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4190006256104</t>
   </si>
   <si>
     <t xml:space="preserve">12.8638610839844</t>
@@ -3554,7 +3554,7 @@
     <t xml:space="preserve">12.60435962677</t>
   </si>
   <si>
-    <t xml:space="preserve">12.808253288269</t>
+    <t xml:space="preserve">12.8082523345947</t>
   </si>
   <si>
     <t xml:space="preserve">12.7711811065674</t>
@@ -3566,7 +3566,7 @@
     <t xml:space="preserve">13.9760093688965</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8647956848145</t>
+    <t xml:space="preserve">13.8647947311401</t>
   </si>
   <si>
     <t xml:space="preserve">13.6609010696411</t>
@@ -4101,6 +4101,9 @@
   </si>
   <si>
     <t xml:space="preserve">11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8400001525879</t>
   </si>
 </sst>
 </file>
@@ -61356,7 +61359,7 @@
     </row>
     <row r="2190">
       <c r="A2190" s="1" t="n">
-        <v>45511.6516666667</v>
+        <v>45511.2916666667</v>
       </c>
       <c r="B2190" t="n">
         <v>243330</v>
@@ -61377,6 +61380,32 @@
         <v>1362</v>
       </c>
       <c r="H2190" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2191">
+      <c r="A2191" s="1" t="n">
+        <v>45512.649375</v>
+      </c>
+      <c r="B2191" t="n">
+        <v>172793</v>
+      </c>
+      <c r="C2191" t="n">
+        <v>10.9399995803833</v>
+      </c>
+      <c r="D2191" t="n">
+        <v>10.6199998855591</v>
+      </c>
+      <c r="E2191" t="n">
+        <v>10.9399995803833</v>
+      </c>
+      <c r="F2191" t="n">
+        <v>10.8400001525879</v>
+      </c>
+      <c r="G2191" t="s">
+        <v>1363</v>
+      </c>
+      <c r="H2191" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/MARR.MI.xlsx
+++ b/data/MARR.MI.xlsx
@@ -44,73 +44,73 @@
     <t xml:space="preserve">MARR.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1047029495239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9899654388428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7910957336426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7451992034912</t>
+    <t xml:space="preserve">14.1047010421753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9899663925171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7910928726196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7451982498169</t>
   </si>
   <si>
     <t xml:space="preserve">13.3627500534058</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4315910339355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5157299041748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2021217346191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.209771156311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7202367782593</t>
+    <t xml:space="preserve">13.4315919876099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5157289505005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2021207809448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2097702026367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.720235824585</t>
   </si>
   <si>
     <t xml:space="preserve">12.8273239135742</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3607368469238</t>
+    <t xml:space="preserve">12.3607339859009</t>
   </si>
   <si>
     <t xml:space="preserve">12.9650049209595</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6228141784668</t>
+    <t xml:space="preserve">13.6228160858154</t>
   </si>
   <si>
     <t xml:space="preserve">13.4545373916626</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3321561813354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3245058059692</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4162950515747</t>
+    <t xml:space="preserve">13.3321552276611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3245067596436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4162940979004</t>
   </si>
   <si>
     <t xml:space="preserve">13.500431060791</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7681455612183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5616235733032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0873880386353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2786130905151</t>
+    <t xml:space="preserve">13.7681474685669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5616245269775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0873899459839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2786140441895</t>
   </si>
   <si>
     <t xml:space="preserve">13.0491418838501</t>
@@ -122,241 +122,241 @@
     <t xml:space="preserve">12.1542139053345</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6131534576416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2995452880859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6208019256592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6590452194214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7814273834229</t>
+    <t xml:space="preserve">12.613151550293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2995433807373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6208000183105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6590461730957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7814302444458</t>
   </si>
   <si>
     <t xml:space="preserve">12.9497060775757</t>
   </si>
   <si>
-    <t xml:space="preserve">13.156229019165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4851322174072</t>
+    <t xml:space="preserve">13.1562299728394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4851341247559</t>
   </si>
   <si>
     <t xml:space="preserve">13.3780479431152</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3474540710449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7299022674561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9670190811157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7375507354736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8752326965332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6763553619385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.370400428772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8196744918823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1179847717285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4468908309937</t>
+    <t xml:space="preserve">13.3474521636963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7299013137817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9670209884644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.737548828125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8752298355103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6763601303101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3703985214233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.819673538208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1179838180542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4468898773193</t>
   </si>
   <si>
     <t xml:space="preserve">13.5998687744141</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4774866104126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.661060333252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2174186706543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1026849746704</t>
+    <t xml:space="preserve">13.4774875640869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6610612869263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2174205780029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1026859283447</t>
   </si>
   <si>
     <t xml:space="preserve">13.4621877670288</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5386781692505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9593696594238</t>
+    <t xml:space="preserve">13.5386762619019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9593715667725</t>
   </si>
   <si>
     <t xml:space="preserve">14.0817546844482</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1505947113037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8828830718994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9976139068604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0741062164307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5483427047729</t>
+    <t xml:space="preserve">14.150595664978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8828802108765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9976148605347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.074104309082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5483417510986</t>
   </si>
   <si>
     <t xml:space="preserve">14.3188705444336</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1658945083618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7987422943115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6916551589966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6151657104492</t>
+    <t xml:space="preserve">14.1658935546875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7987442016602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6916561126709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6151666641235</t>
   </si>
   <si>
     <t xml:space="preserve">13.576922416687</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8599328994751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9058294296265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5922193527222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0970525741577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9440717697144</t>
+    <t xml:space="preserve">13.859935760498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9058275222778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5922203063965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.097053527832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.944073677063</t>
   </si>
   <si>
     <t xml:space="preserve">13.630464553833</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6840085983276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6993055343628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8216896057129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4392395019531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6687107086182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4086456298828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5310277938843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.825008392334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.817063331604</t>
+    <t xml:space="preserve">13.6840057373047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6993036270142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8216905593872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4392414093018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6687116622925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4086446762085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5310287475586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8250064849854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8170623779297</t>
   </si>
   <si>
     <t xml:space="preserve">14.0713157653809</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0633726119995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2540607452393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3096790313721</t>
+    <t xml:space="preserve">14.0633697509766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2540597915649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3096799850464</t>
   </si>
   <si>
     <t xml:space="preserve">14.1269340515137</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0792627334595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3017320632935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1904964447021</t>
+    <t xml:space="preserve">14.0792598724365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3017339706421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1904973983765</t>
   </si>
   <si>
     <t xml:space="preserve">14.1030979156494</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0872058868408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0951528549194</t>
+    <t xml:space="preserve">14.0872068405151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0951538085938</t>
   </si>
   <si>
     <t xml:space="preserve">13.5866460800171</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6740455627441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3880109786987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0701961517334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2132120132446</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5945911407471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5787010192871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8806257247925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2052688598633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5060710906982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0384130477905</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5151386260986</t>
+    <t xml:space="preserve">13.6740436553955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.388011932373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0701951980591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2132110595703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5945930480957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5787019729614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8806247711182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2052669525146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5060691833496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0384140014648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5151376724243</t>
   </si>
   <si>
     <t xml:space="preserve">14.2461156845093</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3573513031006</t>
+    <t xml:space="preserve">14.3573522567749</t>
   </si>
   <si>
     <t xml:space="preserve">13.8567914962769</t>
@@ -365,97 +365,97 @@
     <t xml:space="preserve">14.2778968811035</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1507682800293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6036577224731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5718774795532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5639295578003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3652954101562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3176221847534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5798215866089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8738012313843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5480394363403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6990032196045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9770917892456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8340759277344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9453115463257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5877666473389</t>
+    <t xml:space="preserve">14.1507692337036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6036586761475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5718755722046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5639305114746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3652944564819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3176231384277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5798206329346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.87380027771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5480403900146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6990051269531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9770927429199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8340740203857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9453096389771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5877695083618</t>
   </si>
   <si>
     <t xml:space="preserve">14.8579130172729</t>
   </si>
   <si>
-    <t xml:space="preserve">14.333514213562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4765310287476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5003671646118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.444751739502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1666612625122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.238169670105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0315885543823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8885717391968</t>
+    <t xml:space="preserve">14.3335161209106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4765300750732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5003700256348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4447498321533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1666593551636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2381687164307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0315895080566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8885707855225</t>
   </si>
   <si>
     <t xml:space="preserve">13.9044637680054</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8647365570068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0474815368652</t>
+    <t xml:space="preserve">13.8647346496582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0474796295166</t>
   </si>
   <si>
     <t xml:space="preserve">13.9521341323853</t>
   </si>
   <si>
-    <t xml:space="preserve">13.721718788147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0156984329224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9124069213867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0077514648438</t>
+    <t xml:space="preserve">13.7217168807983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0156955718994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.912407875061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0077533721924</t>
   </si>
   <si>
     <t xml:space="preserve">13.920352935791</t>
@@ -464,10 +464,10 @@
     <t xml:space="preserve">13.8091173171997</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7058267593384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6502103805542</t>
+    <t xml:space="preserve">13.705828666687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6502094268799</t>
   </si>
   <si>
     <t xml:space="preserve">13.7376098632812</t>
@@ -482,79 +482,79 @@
     <t xml:space="preserve">14.1746063232422</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0236434936523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1587152481079</t>
+    <t xml:space="preserve">14.023642539978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1587162017822</t>
   </si>
   <si>
     <t xml:space="preserve">13.7614459991455</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6661005020142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6184272766113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7773361206055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5469188690186</t>
+    <t xml:space="preserve">13.6661014556885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.618426322937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7773370742798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5469179153442</t>
   </si>
   <si>
     <t xml:space="preserve">13.4913015365601</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6581563949585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5389766693115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4595203399658</t>
+    <t xml:space="preserve">13.6581554412842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5389757156372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4595193862915</t>
   </si>
   <si>
     <t xml:space="preserve">13.3482828140259</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3165035247803</t>
+    <t xml:space="preserve">13.316502571106</t>
   </si>
   <si>
     <t xml:space="preserve">13.3006114959717</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3323926925659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3244485855103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1814308166504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0304670333862</t>
+    <t xml:space="preserve">13.3323936462402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3244476318359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1814298629761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0304660797119</t>
   </si>
   <si>
     <t xml:space="preserve">13.2370491027832</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2688312530518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1575937271118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7126522064209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1178684234619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2608852386475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1417036056519</t>
+    <t xml:space="preserve">13.2688302993774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1575918197632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7126512527466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1178674697876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2608861923218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1417045593262</t>
   </si>
   <si>
     <t xml:space="preserve">13.1655387878418</t>
@@ -566,28 +566,28 @@
     <t xml:space="preserve">12.9112873077393</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0066337585449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0940322875977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0781393051147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5071926116943</t>
+    <t xml:space="preserve">13.0066318511963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0940313339233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0781402587891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.50719165802</t>
   </si>
   <si>
     <t xml:space="preserve">13.4515743255615</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5707559585571</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8965158462524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7455530166626</t>
+    <t xml:space="preserve">13.5707550048828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8965177536011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7455539703369</t>
   </si>
   <si>
     <t xml:space="preserve">13.9362449645996</t>
@@ -596,10 +596,10 @@
     <t xml:space="preserve">13.7852802276611</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9441890716553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9680271148682</t>
+    <t xml:space="preserve">13.9441900253296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9680261611938</t>
   </si>
   <si>
     <t xml:space="preserve">13.9918622970581</t>
@@ -608,58 +608,58 @@
     <t xml:space="preserve">13.9759702682495</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0395345687866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8011722564697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9839162826538</t>
+    <t xml:space="preserve">14.0395336151123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8011741638184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9839172363281</t>
   </si>
   <si>
     <t xml:space="preserve">14.2222776412964</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2063846588135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7148962020874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7705135345459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3494052886963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2699518203735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1825523376465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2858400344849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3414573669434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2620067596436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6751670837402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4606447219849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6513328552246</t>
+    <t xml:space="preserve">14.2063894271851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7148942947388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7705106735229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.349404335022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2699499130249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1825532913208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2858419418335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.341459274292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2620058059692</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6751661300659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4606409072876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.651330947876</t>
   </si>
   <si>
     <t xml:space="preserve">14.6274948120117</t>
   </si>
   <si>
-    <t xml:space="preserve">14.540093421936</t>
+    <t xml:space="preserve">14.5400943756104</t>
   </si>
   <si>
     <t xml:space="preserve">14.6910581588745</t>
@@ -668,13 +668,13 @@
     <t xml:space="preserve">14.5162582397461</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7069473266602</t>
+    <t xml:space="preserve">14.7069492340088</t>
   </si>
   <si>
     <t xml:space="preserve">14.6116027832031</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3970766067505</t>
+    <t xml:space="preserve">14.3970794677734</t>
   </si>
   <si>
     <t xml:space="preserve">14.7466745376587</t>
@@ -683,46 +683,46 @@
     <t xml:space="preserve">15.2154550552368</t>
   </si>
   <si>
-    <t xml:space="preserve">15.453818321228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4061431884766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5968322753906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8908166885376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8510866165161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8590316772461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7319049835205</t>
+    <t xml:space="preserve">15.4538202285767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4061441421509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5968332290649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8908138275146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8510885238647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8590326309204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7319059371948</t>
   </si>
   <si>
     <t xml:space="preserve">16.1371231079102</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6774082183838</t>
+    <t xml:space="preserve">16.6774101257324</t>
   </si>
   <si>
     <t xml:space="preserve">16.0656127929688</t>
   </si>
   <si>
-    <t xml:space="preserve">16.089448928833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2245197296143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3039779663086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1609592437744</t>
+    <t xml:space="preserve">16.0894508361816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2245216369629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.30397605896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1609573364258</t>
   </si>
   <si>
     <t xml:space="preserve">16.2880859375</t>
@@ -734,19 +734,19 @@
     <t xml:space="preserve">16.6853561401367</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4867191314697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4072647094727</t>
+    <t xml:space="preserve">16.4867210388184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4072666168213</t>
   </si>
   <si>
     <t xml:space="preserve">16.0973949432373</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1291770935059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5026092529297</t>
+    <t xml:space="preserve">16.1291751861572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.502613067627</t>
   </si>
   <si>
     <t xml:space="preserve">16.3675384521484</t>
@@ -755,22 +755,22 @@
     <t xml:space="preserve">16.5582294464111</t>
   </si>
   <si>
-    <t xml:space="preserve">16.605899810791</t>
+    <t xml:space="preserve">16.6059017181396</t>
   </si>
   <si>
     <t xml:space="preserve">16.7012462615967</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5423374176025</t>
+    <t xml:space="preserve">16.5423355102539</t>
   </si>
   <si>
     <t xml:space="preserve">16.8839893341064</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4322242736816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.114408493042</t>
+    <t xml:space="preserve">17.432222366333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1144065856934</t>
   </si>
   <si>
     <t xml:space="preserve">16.6615161895752</t>
@@ -779,13 +779,13 @@
     <t xml:space="preserve">17.2812614440918</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3289318084717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2574234008789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2653675079346</t>
+    <t xml:space="preserve">17.328929901123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2574253082275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2653694152832</t>
   </si>
   <si>
     <t xml:space="preserve">17.6149673461914</t>
@@ -800,28 +800,28 @@
     <t xml:space="preserve">17.535514831543</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4560585021973</t>
+    <t xml:space="preserve">17.4560604095459</t>
   </si>
   <si>
     <t xml:space="preserve">17.6626377105713</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1234722137451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8294944763184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7738780975342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9089488983154</t>
+    <t xml:space="preserve">18.1234741210938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8294925689697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7738761901855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9089469909668</t>
   </si>
   <si>
     <t xml:space="preserve">17.9963474273682</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1552543640137</t>
+    <t xml:space="preserve">18.1552562713623</t>
   </si>
   <si>
     <t xml:space="preserve">17.4004421234131</t>
@@ -833,73 +833,73 @@
     <t xml:space="preserve">17.7083606719971</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2499465942383</t>
+    <t xml:space="preserve">18.2499504089355</t>
   </si>
   <si>
     <t xml:space="preserve">18.2171249389648</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0530090332031</t>
+    <t xml:space="preserve">18.0530071258545</t>
   </si>
   <si>
     <t xml:space="preserve">17.7904186248779</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6509189605713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8806819915771</t>
+    <t xml:space="preserve">17.6509170532227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8806858062744</t>
   </si>
   <si>
     <t xml:space="preserve">18.0694198608398</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9791526794434</t>
+    <t xml:space="preserve">17.979154586792</t>
   </si>
   <si>
     <t xml:space="preserve">17.7986240386963</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0365962982178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1760959625244</t>
+    <t xml:space="preserve">18.0365943908691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1760940551758</t>
   </si>
   <si>
     <t xml:space="preserve">17.9955673217773</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5606517791748</t>
+    <t xml:space="preserve">17.5606536865234</t>
   </si>
   <si>
     <t xml:space="preserve">17.7411823272705</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8888874053955</t>
+    <t xml:space="preserve">17.8888893127441</t>
   </si>
   <si>
     <t xml:space="preserve">17.7740058898926</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0858345031738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7575931549072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5524463653564</t>
+    <t xml:space="preserve">18.0858325958252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7575912475586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5524444580078</t>
   </si>
   <si>
     <t xml:space="preserve">17.5852699279785</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6427097320557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7329788208008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7493877410889</t>
+    <t xml:space="preserve">17.6427116394043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7329750061035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7493858337402</t>
   </si>
   <si>
     <t xml:space="preserve">17.1749744415283</t>
@@ -911,10 +911,10 @@
     <t xml:space="preserve">17.0682983398438</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1503562927246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9123840332031</t>
+    <t xml:space="preserve">17.1503582000732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9123859405518</t>
   </si>
   <si>
     <t xml:space="preserve">17.2324161529541</t>
@@ -929,82 +929,82 @@
     <t xml:space="preserve">17.3965339660645</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5032119750977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9299182891846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2991809844971</t>
+    <t xml:space="preserve">17.503210067749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9299201965332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2991828918457</t>
   </si>
   <si>
     <t xml:space="preserve">18.1022415161133</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3484191894531</t>
+    <t xml:space="preserve">18.3484210968018</t>
   </si>
   <si>
     <t xml:space="preserve">18.3566284179688</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4633045196533</t>
+    <t xml:space="preserve">18.4633007049561</t>
   </si>
   <si>
     <t xml:space="preserve">17.8642692565918</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3402137756348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7247695922852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5688591003418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4950046539307</t>
+    <t xml:space="preserve">18.3402118682861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7247714996338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5688610076904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.495002746582</t>
   </si>
   <si>
     <t xml:space="preserve">17.8068294525146</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5278282165527</t>
+    <t xml:space="preserve">17.5278301239014</t>
   </si>
   <si>
     <t xml:space="preserve">17.3883285522461</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4047374725342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2734470367432</t>
+    <t xml:space="preserve">17.4047412872314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2734451293945</t>
   </si>
   <si>
     <t xml:space="preserve">17.2242088317871</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0436782836914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9452075958252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9287967681885</t>
+    <t xml:space="preserve">17.0436820983887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9452095031738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9287948608398</t>
   </si>
   <si>
     <t xml:space="preserve">17.0190620422363</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2816524505615</t>
+    <t xml:space="preserve">17.2816505432129</t>
   </si>
   <si>
     <t xml:space="preserve">17.4211502075195</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6262989044189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6098861694336</t>
+    <t xml:space="preserve">17.6263008117676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6098880767822</t>
   </si>
   <si>
     <t xml:space="preserve">17.9709491729736</t>
@@ -1016,22 +1016,22 @@
     <t xml:space="preserve">18.323802947998</t>
   </si>
   <si>
-    <t xml:space="preserve">17.987361907959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1186542510986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1104488372803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.126859664917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3320064544678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3648319244385</t>
+    <t xml:space="preserve">17.9873600006104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.11865234375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1104469299316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1268615722656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.332010269165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3648300170898</t>
   </si>
   <si>
     <t xml:space="preserve">18.438684463501</t>
@@ -1043,52 +1043,52 @@
     <t xml:space="preserve">18.6356258392334</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6684494018555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5371532440186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8079528808594</t>
+    <t xml:space="preserve">18.6684513092041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5371570587158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8079509735107</t>
   </si>
   <si>
     <t xml:space="preserve">18.6520366668701</t>
   </si>
   <si>
-    <t xml:space="preserve">18.619213104248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7833347320557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2182464599609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1443939208984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6930694580078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7669200897217</t>
+    <t xml:space="preserve">18.6192150115967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7833309173584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2182483673096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1443920135498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6930713653564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7669219970703</t>
   </si>
   <si>
     <t xml:space="preserve">18.594596862793</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3730392456055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1596813201904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4222755432129</t>
+    <t xml:space="preserve">18.3730373382568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1596832275391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4222717285156</t>
   </si>
   <si>
     <t xml:space="preserve">18.2335357666016</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1925067901611</t>
+    <t xml:space="preserve">18.1925086975098</t>
   </si>
   <si>
     <t xml:space="preserve">18.1350650787354</t>
@@ -1097,28 +1097,28 @@
     <t xml:space="preserve">17.9217128753662</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6345062255859</t>
+    <t xml:space="preserve">17.6345043182373</t>
   </si>
   <si>
     <t xml:space="preserve">17.5442390441895</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3555030822754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0272674560547</t>
+    <t xml:space="preserve">17.3555068969727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0272693634033</t>
   </si>
   <si>
     <t xml:space="preserve">16.7975025177002</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9041786193848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.191385269165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6919460296631</t>
+    <t xml:space="preserve">16.9041805267334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1913871765137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6919479370117</t>
   </si>
   <si>
     <t xml:space="preserve">17.9053001403809</t>
@@ -1127,10 +1127,10 @@
     <t xml:space="preserve">17.8150329589844</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0037727355957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8396511077881</t>
+    <t xml:space="preserve">18.0037746429443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8396530151367</t>
   </si>
   <si>
     <t xml:space="preserve">17.9627418518066</t>
@@ -1142,28 +1142,28 @@
     <t xml:space="preserve">17.035472869873</t>
   </si>
   <si>
-    <t xml:space="preserve">17.470386505127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.46217918396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7822093963623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6591243743896</t>
+    <t xml:space="preserve">17.4703884124756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4621829986572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7822113037109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.659122467041</t>
   </si>
   <si>
     <t xml:space="preserve">17.8232402801514</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4129447937012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3976554870605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.446891784668</t>
+    <t xml:space="preserve">17.4129428863525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3976573944092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4468898773193</t>
   </si>
   <si>
     <t xml:space="preserve">18.5617733001709</t>
@@ -1172,7 +1172,7 @@
     <t xml:space="preserve">18.6274223327637</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7751274108887</t>
+    <t xml:space="preserve">18.77512550354</t>
   </si>
   <si>
     <t xml:space="preserve">18.4797134399414</t>
@@ -1181,31 +1181,31 @@
     <t xml:space="preserve">18.7258930206299</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3155956268311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.282772064209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5781841278076</t>
+    <t xml:space="preserve">18.3155975341797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2827739715576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5781860351562</t>
   </si>
   <si>
     <t xml:space="preserve">17.511417388916</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0201816558838</t>
+    <t xml:space="preserve">18.0201835632324</t>
   </si>
   <si>
     <t xml:space="preserve">17.347297668457</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2980651855469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9381275177002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.675537109375</t>
+    <t xml:space="preserve">17.2980632781982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9381256103516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6755352020264</t>
   </si>
   <si>
     <t xml:space="preserve">17.2652416229248</t>
@@ -1217,28 +1217,28 @@
     <t xml:space="preserve">18.4961280822754</t>
   </si>
   <si>
-    <t xml:space="preserve">19.5793075561523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5136604309082</t>
+    <t xml:space="preserve">19.579309463501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5136585235596</t>
   </si>
   <si>
     <t xml:space="preserve">20.0388374328613</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3178386688232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1701335906982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.071662902832</t>
+    <t xml:space="preserve">20.3178367614746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1701316833496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0716609954834</t>
   </si>
   <si>
     <t xml:space="preserve">19.8418960571289</t>
   </si>
   <si>
-    <t xml:space="preserve">19.8254814147949</t>
+    <t xml:space="preserve">19.8254871368408</t>
   </si>
   <si>
     <t xml:space="preserve">19.8911323547363</t>
@@ -1253,10 +1253,10 @@
     <t xml:space="preserve">20.4327201843262</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6296634674072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5311946868896</t>
+    <t xml:space="preserve">20.6296615600586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.531192779541</t>
   </si>
   <si>
     <t xml:space="preserve">20.5968399047852</t>
@@ -1271,19 +1271,19 @@
     <t xml:space="preserve">20.3506622314453</t>
   </si>
   <si>
-    <t xml:space="preserve">20.2850131988525</t>
+    <t xml:space="preserve">20.2850151062012</t>
   </si>
   <si>
     <t xml:space="preserve">20.3342514038086</t>
   </si>
   <si>
-    <t xml:space="preserve">20.4655456542969</t>
+    <t xml:space="preserve">20.4655475616455</t>
   </si>
   <si>
     <t xml:space="preserve">20.4163093566895</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3834857940674</t>
+    <t xml:space="preserve">20.383487701416</t>
   </si>
   <si>
     <t xml:space="preserve">20.4491348266602</t>
@@ -1292,34 +1292,34 @@
     <t xml:space="preserve">20.7281341552734</t>
   </si>
   <si>
-    <t xml:space="preserve">20.843017578125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7937831878662</t>
+    <t xml:space="preserve">20.8430156707764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7937812805176</t>
   </si>
   <si>
     <t xml:space="preserve">20.6788997650146</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7117214202881</t>
+    <t xml:space="preserve">20.7117233276367</t>
   </si>
   <si>
     <t xml:space="preserve">20.6460742950439</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8101940155029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.251070022583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4808368682861</t>
+    <t xml:space="preserve">20.8101921081543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2510681152344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4808330535889</t>
   </si>
   <si>
     <t xml:space="preserve">19.1854209899902</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1361865997314</t>
+    <t xml:space="preserve">19.1361885070801</t>
   </si>
   <si>
     <t xml:space="preserve">19.2887363433838</t>
@@ -1331,16 +1331,16 @@
     <t xml:space="preserve">19.492130279541</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3226318359375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7633247375488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6446781158447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7294254302979</t>
+    <t xml:space="preserve">19.3226337432861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7633266448975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6446800231934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7294273376465</t>
   </si>
   <si>
     <t xml:space="preserve">19.6955280303955</t>
@@ -1358,64 +1358,64 @@
     <t xml:space="preserve">19.8311233520508</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7802753448486</t>
+    <t xml:space="preserve">19.7802772521973</t>
   </si>
   <si>
     <t xml:space="preserve">19.5429801940918</t>
   </si>
   <si>
-    <t xml:space="preserve">19.5938282012939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4412822723389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8988914489746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9158420562744</t>
+    <t xml:space="preserve">19.5938301086426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4412841796875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8988933563232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9158401489258</t>
   </si>
   <si>
     <t xml:space="preserve">18.7971954345703</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0175399780273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0683898925781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9836406707764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1022911071777</t>
+    <t xml:space="preserve">19.017541885376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0683879852295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.983642578125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1022872924805</t>
   </si>
   <si>
     <t xml:space="preserve">19.5260314941406</t>
   </si>
   <si>
-    <t xml:space="preserve">19.6616306304932</t>
+    <t xml:space="preserve">19.6616268157959</t>
   </si>
   <si>
     <t xml:space="preserve">19.5768795013428</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3226661682129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3396167755127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1870670318604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0175743103027</t>
+    <t xml:space="preserve">20.3226642608643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3396129608154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.187068939209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0175704956055</t>
   </si>
   <si>
     <t xml:space="preserve">19.9328231811523</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7124786376953</t>
+    <t xml:space="preserve">19.7124767303467</t>
   </si>
   <si>
     <t xml:space="preserve">20.2379150390625</t>
@@ -1424,16 +1424,16 @@
     <t xml:space="preserve">19.9158725738525</t>
   </si>
   <si>
-    <t xml:space="preserve">19.6107788085938</t>
+    <t xml:space="preserve">19.6107769012451</t>
   </si>
   <si>
     <t xml:space="preserve">19.8480739593506</t>
   </si>
   <si>
-    <t xml:space="preserve">20.4243621826172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6447105407715</t>
+    <t xml:space="preserve">20.4243640899658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6447086334229</t>
   </si>
   <si>
     <t xml:space="preserve">20.6955585479736</t>
@@ -1442,10 +1442,10 @@
     <t xml:space="preserve">20.3904647827148</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3057136535645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1701183319092</t>
+    <t xml:space="preserve">20.3057174682617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1701164245605</t>
   </si>
   <si>
     <t xml:space="preserve">20.2887668609619</t>
@@ -1454,37 +1454,37 @@
     <t xml:space="preserve">20.2040195465088</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3565635681152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5091114044189</t>
+    <t xml:space="preserve">20.3565654754639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5091152191162</t>
   </si>
   <si>
     <t xml:space="preserve">20.5260620117188</t>
   </si>
   <si>
-    <t xml:space="preserve">20.4921646118164</t>
+    <t xml:space="preserve">20.4921627044678</t>
   </si>
   <si>
     <t xml:space="preserve">20.9328536987305</t>
   </si>
   <si>
-    <t xml:space="preserve">20.661657333374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5769119262695</t>
+    <t xml:space="preserve">20.6616592407227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5769100189209</t>
   </si>
   <si>
     <t xml:space="preserve">20.7633571624756</t>
   </si>
   <si>
-    <t xml:space="preserve">21.102352142334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6108417510986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6955890655518</t>
+    <t xml:space="preserve">21.1023502349854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6108436584473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6955909729004</t>
   </si>
   <si>
     <t xml:space="preserve">21.5091419219971</t>
@@ -1493,7 +1493,7 @@
     <t xml:space="preserve">22.0345821380615</t>
   </si>
   <si>
-    <t xml:space="preserve">22.3905258178711</t>
+    <t xml:space="preserve">22.3905239105225</t>
   </si>
   <si>
     <t xml:space="preserve">22.1023826599121</t>
@@ -1508,13 +1508,13 @@
     <t xml:space="preserve">21.3904933929443</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4074459075928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9667530059814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.729455947876</t>
+    <t xml:space="preserve">21.4074440002441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9667549133301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7294540405273</t>
   </si>
   <si>
     <t xml:space="preserve">20.5938606262207</t>
@@ -1526,13 +1526,13 @@
     <t xml:space="preserve">19.8819732666016</t>
   </si>
   <si>
-    <t xml:space="preserve">19.5090808868408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3734836578369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0344886779785</t>
+    <t xml:space="preserve">19.5090789794922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3734855651855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0344905853271</t>
   </si>
   <si>
     <t xml:space="preserve">19.4751796722412</t>
@@ -1541,16 +1541,16 @@
     <t xml:space="preserve">20.0853710174561</t>
   </si>
   <si>
-    <t xml:space="preserve">19.8989238739014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2378883361816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8819446563721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5090503692627</t>
+    <t xml:space="preserve">19.8989219665527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2378845214844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8819427490234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5090484619141</t>
   </si>
   <si>
     <t xml:space="preserve">18.1870059967041</t>
@@ -1559,10 +1559,10 @@
     <t xml:space="preserve">18.2717552185059</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0175113677979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6276969909668</t>
+    <t xml:space="preserve">18.0175075531006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6276988983154</t>
   </si>
   <si>
     <t xml:space="preserve">17.9327602386475</t>
@@ -1571,19 +1571,19 @@
     <t xml:space="preserve">18.1192054748535</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9666614532471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8649616241455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1022567749023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2378559112549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5260009765625</t>
+    <t xml:space="preserve">17.9666595458984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8649635314941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.102258682251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2378578186035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5259990692139</t>
   </si>
   <si>
     <t xml:space="preserve">17.8480110168457</t>
@@ -1592,25 +1592,25 @@
     <t xml:space="preserve">17.3564720153809</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9666271209717</t>
+    <t xml:space="preserve">16.9666309356689</t>
   </si>
   <si>
     <t xml:space="preserve">17.0852756500244</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1022281646729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3733882904053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2716941833496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6106834411621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4242362976074</t>
+    <t xml:space="preserve">17.1022262573242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3733921051025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.271692276001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6106872558594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4242401123047</t>
   </si>
   <si>
     <t xml:space="preserve">16.3903408050537</t>
@@ -1619,10 +1619,10 @@
     <t xml:space="preserve">16.7378082275391</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8140811920166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7039070129395</t>
+    <t xml:space="preserve">16.8140830993652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7039089202881</t>
   </si>
   <si>
     <t xml:space="preserve">17.4581699371338</t>
@@ -1634,7 +1634,7 @@
     <t xml:space="preserve">17.153076171875</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3225708007812</t>
+    <t xml:space="preserve">17.3225746154785</t>
   </si>
   <si>
     <t xml:space="preserve">17.4920692443848</t>
@@ -1646,7 +1646,7 @@
     <t xml:space="preserve">17.7971630096436</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2209033966064</t>
+    <t xml:space="preserve">18.2209072113037</t>
   </si>
   <si>
     <t xml:space="preserve">18.4073505401611</t>
@@ -1655,28 +1655,28 @@
     <t xml:space="preserve">18.3395519256592</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9836082458496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0514087677002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6615676879883</t>
+    <t xml:space="preserve">17.9836101531982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0514068603516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6615657806396</t>
   </si>
   <si>
     <t xml:space="preserve">17.2378234863281</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5768146514893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7293643951416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8819103240967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4412536621094</t>
+    <t xml:space="preserve">17.5768184661865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7293663024902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8819141387939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4412517547607</t>
   </si>
   <si>
     <t xml:space="preserve">18.1531066894531</t>
@@ -1694,52 +1694,52 @@
     <t xml:space="preserve">17.7463130950928</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7124137878418</t>
+    <t xml:space="preserve">17.7124156951904</t>
   </si>
   <si>
     <t xml:space="preserve">17.6276664733887</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7632637023926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3056240081787</t>
+    <t xml:space="preserve">17.7632617950439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3056221008301</t>
   </si>
   <si>
     <t xml:space="preserve">16.873405456543</t>
   </si>
   <si>
-    <t xml:space="preserve">17.186975479126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2039222717285</t>
+    <t xml:space="preserve">17.1869735717773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2039241790771</t>
   </si>
   <si>
     <t xml:space="preserve">17.3903713226318</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2886734008789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2547740936279</t>
+    <t xml:space="preserve">17.2886714935303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2547721862793</t>
   </si>
   <si>
     <t xml:space="preserve">17.2208728790283</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8903560638428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4242706298828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5429210662842</t>
+    <t xml:space="preserve">16.8903541564941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4242687225342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5429191589355</t>
   </si>
   <si>
     <t xml:space="preserve">17.8141136169434</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5937671661377</t>
+    <t xml:space="preserve">17.5937652587891</t>
   </si>
   <si>
     <t xml:space="preserve">17.373420715332</t>
@@ -1751,22 +1751,22 @@
     <t xml:space="preserve">17.5005435943604</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2462997436523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3310470581055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4157962799072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1615505218506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0344295501709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5852928161621</t>
+    <t xml:space="preserve">17.2462978363037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3310489654541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4157943725586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1615524291992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0344257354736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5852909088135</t>
   </si>
   <si>
     <t xml:space="preserve">17.6700420379639</t>
@@ -1775,25 +1775,25 @@
     <t xml:space="preserve">18.3480262756348</t>
   </si>
   <si>
-    <t xml:space="preserve">18.136157989502</t>
+    <t xml:space="preserve">18.1361560821533</t>
   </si>
   <si>
     <t xml:space="preserve">18.0937824249268</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8395366668701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0090351104736</t>
+    <t xml:space="preserve">17.8395385742188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.009033203125</t>
   </si>
   <si>
     <t xml:space="preserve">17.754789352417</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9242858886719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1785335540771</t>
+    <t xml:space="preserve">17.9242877960205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1785316467285</t>
   </si>
   <si>
     <t xml:space="preserve">17.9148921966553</t>
@@ -1811,16 +1811,16 @@
     <t xml:space="preserve">18.2670269012451</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1789932250977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2230129241943</t>
+    <t xml:space="preserve">18.1789951324463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2230110168457</t>
   </si>
   <si>
     <t xml:space="preserve">18.4871120452881</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4430980682373</t>
+    <t xml:space="preserve">18.4430961608887</t>
   </si>
   <si>
     <t xml:space="preserve">18.5311298370361</t>
@@ -1829,34 +1829,34 @@
     <t xml:space="preserve">18.3550624847412</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0029258728027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7828426361084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6507892608643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3426704406738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5011310577393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.553955078125</t>
+    <t xml:space="preserve">18.0029277801514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.782844543457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6507911682129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3426723480225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5011329650879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5539531707764</t>
   </si>
   <si>
     <t xml:space="preserve">18.7952308654785</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7512149810791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5751457214355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6191635131836</t>
+    <t xml:space="preserve">18.7512130737305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5751476287842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6191654205322</t>
   </si>
   <si>
     <t xml:space="preserve">18.3110446929932</t>
@@ -1880,13 +1880,13 @@
     <t xml:space="preserve">17.2722454071045</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1137866973877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3074588775635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8320770263672</t>
+    <t xml:space="preserve">17.1137828826904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3074569702148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8320751190186</t>
   </si>
   <si>
     <t xml:space="preserve">16.6912212371826</t>
@@ -1898,13 +1898,13 @@
     <t xml:space="preserve">17.060962677002</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4799385070801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3743019104004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6207942962646</t>
+    <t xml:space="preserve">16.4799423217773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3743000030518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.620792388916</t>
   </si>
   <si>
     <t xml:space="preserve">16.1101989746094</t>
@@ -1913,16 +1913,16 @@
     <t xml:space="preserve">16.3038730621338</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6560096740723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5679740905762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4095115661621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3919067382812</t>
+    <t xml:space="preserve">16.6560077667236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5679721832275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4095134735107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3919086456299</t>
   </si>
   <si>
     <t xml:space="preserve">16.3214797973633</t>
@@ -1931,10 +1931,10 @@
     <t xml:space="preserve">16.2334461212158</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9025039672852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2898540496826</t>
+    <t xml:space="preserve">16.9025020599365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2898502349854</t>
   </si>
   <si>
     <t xml:space="preserve">17.3954925537109</t>
@@ -1946,13 +1946,13 @@
     <t xml:space="preserve">17.6948089599609</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0593318939209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1349773406982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.399076461792</t>
+    <t xml:space="preserve">19.0593299865723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1349754333496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3990783691406</t>
   </si>
   <si>
     <t xml:space="preserve">17.8708744049072</t>
@@ -1961,16 +1961,16 @@
     <t xml:space="preserve">17.6067733764648</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2546367645264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8496799468994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8848972320557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.148998260498</t>
+    <t xml:space="preserve">17.2546405792236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.849681854248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.884895324707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1489963531494</t>
   </si>
   <si>
     <t xml:space="preserve">17.1313896179199</t>
@@ -1988,19 +1988,19 @@
     <t xml:space="preserve">16.5503673553467</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4271202087402</t>
+    <t xml:space="preserve">16.4271221160889</t>
   </si>
   <si>
     <t xml:space="preserve">16.7088279724121</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6736145019531</t>
+    <t xml:space="preserve">16.6736164093018</t>
   </si>
   <si>
     <t xml:space="preserve">16.8144683837891</t>
   </si>
   <si>
-    <t xml:space="preserve">17.360279083252</t>
+    <t xml:space="preserve">17.3602771759033</t>
   </si>
   <si>
     <t xml:space="preserve">17.325065612793</t>
@@ -2009,13 +2009,13 @@
     <t xml:space="preserve">16.9553241729736</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6631813049316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0469436645508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2194232940674</t>
+    <t xml:space="preserve">18.663179397583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0469417572021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.219425201416</t>
   </si>
   <si>
     <t xml:space="preserve">16.990535736084</t>
@@ -2030,16 +2030,16 @@
     <t xml:space="preserve">15.4235343933105</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7052412033081</t>
+    <t xml:space="preserve">15.7052431106567</t>
   </si>
   <si>
     <t xml:space="preserve">15.0537919998169</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7896890640259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4727697372437</t>
+    <t xml:space="preserve">14.7896881103516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4727687835693</t>
   </si>
   <si>
     <t xml:space="preserve">14.2614870071411</t>
@@ -2051,7 +2051,7 @@
     <t xml:space="preserve">14.2086658477783</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4832019805908</t>
+    <t xml:space="preserve">12.4832029342651</t>
   </si>
   <si>
     <t xml:space="preserve">12.694483757019</t>
@@ -2060,16 +2060,16 @@
     <t xml:space="preserve">13.1874732971191</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7085037231445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1838874816895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7929515838623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0042333602905</t>
+    <t xml:space="preserve">11.7085046768188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1838884353638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7929525375366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0042343139648</t>
   </si>
   <si>
     <t xml:space="preserve">10.5640640258789</t>
@@ -2078,10 +2078,10 @@
     <t xml:space="preserve">10.9514131546021</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6064500808716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2050800323486</t>
+    <t xml:space="preserve">12.6064481735229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2050809860229</t>
   </si>
   <si>
     <t xml:space="preserve">13.6452503204346</t>
@@ -2099,10 +2099,10 @@
     <t xml:space="preserve">11.5852565765381</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3211545944214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8281669616699</t>
+    <t xml:space="preserve">11.3211555480957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8281660079956</t>
   </si>
   <si>
     <t xml:space="preserve">11.0922679901123</t>
@@ -2114,7 +2114,7 @@
     <t xml:space="preserve">11.1803007125854</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0394468307495</t>
+    <t xml:space="preserve">11.0394477844238</t>
   </si>
   <si>
     <t xml:space="preserve">10.7753448486328</t>
@@ -2123,16 +2123,16 @@
     <t xml:space="preserve">10.6697044372559</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5816717147827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1098737716675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.356369972229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9338064193726</t>
+    <t xml:space="preserve">10.5816707611084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1098747253418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3563680648804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9338073730469</t>
   </si>
   <si>
     <t xml:space="preserve">10.6873121261597</t>
@@ -2159,28 +2159,28 @@
     <t xml:space="preserve">10.0886812210083</t>
   </si>
   <si>
-    <t xml:space="preserve">9.89500713348389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.70133304595947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.63090419769287</t>
+    <t xml:space="preserve">9.89500617980957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.70133209228516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.63090515136719</t>
   </si>
   <si>
     <t xml:space="preserve">10.282356262207</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7577390670776</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2999620437622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.96543407440186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0746603012085</t>
+    <t xml:space="preserve">10.7577381134033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2999629974365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.96543312072754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0746612548828</t>
   </si>
   <si>
     <t xml:space="preserve">10.8457727432251</t>
@@ -2189,16 +2189,16 @@
     <t xml:space="preserve">11.0570545196533</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6732912063599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5676498413086</t>
+    <t xml:space="preserve">11.6732921600342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5676507949829</t>
   </si>
   <si>
     <t xml:space="preserve">11.6556844711304</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4796171188354</t>
+    <t xml:space="preserve">11.4796161651611</t>
   </si>
   <si>
     <t xml:space="preserve">11.5500431060791</t>
@@ -2216,7 +2216,7 @@
     <t xml:space="preserve">12.060640335083</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3387622833252</t>
+    <t xml:space="preserve">11.3387613296509</t>
   </si>
   <si>
     <t xml:space="preserve">11.6204710006714</t>
@@ -2225,10 +2225,10 @@
     <t xml:space="preserve">11.6380777359009</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9549980163574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9726066589355</t>
+    <t xml:space="preserve">11.9549989700317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9726057052612</t>
   </si>
   <si>
     <t xml:space="preserve">11.8669652938843</t>
@@ -2237,19 +2237,19 @@
     <t xml:space="preserve">12.0254259109497</t>
   </si>
   <si>
-    <t xml:space="preserve">11.990213394165</t>
+    <t xml:space="preserve">11.9902124404907</t>
   </si>
   <si>
     <t xml:space="preserve">11.7613248825073</t>
   </si>
   <si>
-    <t xml:space="preserve">11.690896987915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7437191009521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4972229003906</t>
+    <t xml:space="preserve">11.6908979415894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7437181472778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4972238540649</t>
   </si>
   <si>
     <t xml:space="preserve">11.5148305892944</t>
@@ -2270,7 +2270,7 @@
     <t xml:space="preserve">10.8633794784546</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6028652191162</t>
+    <t xml:space="preserve">11.6028642654419</t>
   </si>
   <si>
     <t xml:space="preserve">11.1979084014893</t>
@@ -2279,16 +2279,16 @@
     <t xml:space="preserve">11.1450881958008</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2683362960815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1274814605713</t>
+    <t xml:space="preserve">11.2683353424072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1274824142456</t>
   </si>
   <si>
     <t xml:space="preserve">10.6344909667969</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9690208435059</t>
+    <t xml:space="preserve">10.9690198898315</t>
   </si>
   <si>
     <t xml:space="preserve">11.4444026947021</t>
@@ -2300,10 +2300,10 @@
     <t xml:space="preserve">11.8141460418701</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1134605407715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.131067276001</t>
+    <t xml:space="preserve">12.1134595870972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1310663223267</t>
   </si>
   <si>
     <t xml:space="preserve">11.9197854995728</t>
@@ -2318,31 +2318,31 @@
     <t xml:space="preserve">12.0958528518677</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2191009521484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5888433456421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9585847854614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7120895385742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8001251220703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0114059448242</t>
+    <t xml:space="preserve">12.2190999984741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5888442993164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9585866928101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7120904922485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.800124168396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0114049911499</t>
   </si>
   <si>
     <t xml:space="preserve">12.0782470703125</t>
   </si>
   <si>
-    <t xml:space="preserve">11.796537399292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2859420776367</t>
+    <t xml:space="preserve">11.7965393066406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2859411239624</t>
   </si>
   <si>
     <t xml:space="preserve">10.8985929489136</t>
@@ -2354,28 +2354,28 @@
     <t xml:space="preserve">10.2119293212891</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2471418380737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1943225860596</t>
+    <t xml:space="preserve">10.247142791748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1943216323853</t>
   </si>
   <si>
     <t xml:space="preserve">10.3527841567993</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2579011917114</t>
+    <t xml:space="preserve">13.2579021453857</t>
   </si>
   <si>
     <t xml:space="preserve">13.8037109375</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9409780502319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6276416778564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1382389068604</t>
+    <t xml:space="preserve">12.9409790039062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6276426315308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.138237953186</t>
   </si>
   <si>
     <t xml:space="preserve">13.1698665618896</t>
@@ -2384,7 +2384,7 @@
     <t xml:space="preserve">13.0290126800537</t>
   </si>
   <si>
-    <t xml:space="preserve">13.50439453125</t>
+    <t xml:space="preserve">13.5043954849243</t>
   </si>
   <si>
     <t xml:space="preserve">13.698070526123</t>
@@ -2396,34 +2396,34 @@
     <t xml:space="preserve">13.7861042022705</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8741369247437</t>
+    <t xml:space="preserve">13.874137878418</t>
   </si>
   <si>
     <t xml:space="preserve">13.8213176727295</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8917436599731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.838924407959</t>
+    <t xml:space="preserve">13.8917446136475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8389253616333</t>
   </si>
   <si>
     <t xml:space="preserve">13.4515752792358</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2226877212524</t>
+    <t xml:space="preserve">13.2226886749268</t>
   </si>
   <si>
     <t xml:space="preserve">13.2755069732666</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5220031738281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.134654045105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2402935028076</t>
+    <t xml:space="preserve">13.5220022201538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1346530914307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2402944564819</t>
   </si>
   <si>
     <t xml:space="preserve">13.4339685440063</t>
@@ -2438,25 +2438,25 @@
     <t xml:space="preserve">14.3671274185181</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8425102233887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.247465133667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4763526916504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5996026992798</t>
+    <t xml:space="preserve">14.842511177063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2474660873413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4763536453247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5995998382568</t>
   </si>
   <si>
     <t xml:space="preserve">15.6700277328491</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5291738510132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9657564163208</t>
+    <t xml:space="preserve">15.5291748046875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9657573699951</t>
   </si>
   <si>
     <t xml:space="preserve">15.3178939819336</t>
@@ -2465,40 +2465,40 @@
     <t xml:space="preserve">15.6876363754272</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6524238586426</t>
+    <t xml:space="preserve">15.6524229049683</t>
   </si>
   <si>
     <t xml:space="preserve">15.3883190155029</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2298583984375</t>
+    <t xml:space="preserve">15.2298593521118</t>
   </si>
   <si>
     <t xml:space="preserve">15.1242189407349</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1066112518311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6312303543091</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8777236938477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9129390716553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1594324111938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9693450927734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8460969924927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3390865325928</t>
+    <t xml:space="preserve">15.1066131591797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6312294006348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8777227401733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.912938117981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1594305038452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9693422317505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8460960388184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3390846252441</t>
   </si>
   <si>
     <t xml:space="preserve">16.2862663269043</t>
@@ -2510,13 +2510,13 @@
     <t xml:space="preserve">15.8108825683594</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8989162445068</t>
+    <t xml:space="preserve">15.8989181518555</t>
   </si>
   <si>
     <t xml:space="preserve">15.8284893035889</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9165229797363</t>
+    <t xml:space="preserve">15.9165239334106</t>
   </si>
   <si>
     <t xml:space="preserve">16.7968616485596</t>
@@ -2525,13 +2525,13 @@
     <t xml:space="preserve">16.6031875610352</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0081424713135</t>
+    <t xml:space="preserve">17.0081443786621</t>
   </si>
   <si>
     <t xml:space="preserve">17.0785694122314</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0433597564697</t>
+    <t xml:space="preserve">17.0433578491211</t>
   </si>
   <si>
     <t xml:space="preserve">16.5151538848877</t>
@@ -2543,16 +2543,16 @@
     <t xml:space="preserve">16.1982326507568</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1630172729492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0749835968018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4447269439697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5855808258057</t>
+    <t xml:space="preserve">16.1630191802979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0749855041504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4447288513184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.585578918457</t>
   </si>
   <si>
     <t xml:space="preserve">16.1454124450684</t>
@@ -2561,10 +2561,10 @@
     <t xml:space="preserve">16.4535312652588</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2070369720459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1894283294678</t>
+    <t xml:space="preserve">16.2070350646973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1894264221191</t>
   </si>
   <si>
     <t xml:space="preserve">16.4975471496582</t>
@@ -2573,34 +2573,34 @@
     <t xml:space="preserve">16.5327606201172</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8232707977295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6824169158936</t>
+    <t xml:space="preserve">16.8232746124268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6824188232422</t>
   </si>
   <si>
     <t xml:space="preserve">16.700023651123</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8584861755371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7176322937012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3831043243408</t>
+    <t xml:space="preserve">16.8584880828857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7176303863525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3831024169922</t>
   </si>
   <si>
     <t xml:space="preserve">17.404296875</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5979671478271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.840877532959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0697650909424</t>
+    <t xml:space="preserve">17.5979709625244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8408794403076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0697689056396</t>
   </si>
   <si>
     <t xml:space="preserve">17.0961761474609</t>
@@ -2627,37 +2627,37 @@
     <t xml:space="preserve">18.1877975463867</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3638668060303</t>
+    <t xml:space="preserve">18.3638648986816</t>
   </si>
   <si>
     <t xml:space="preserve">18.5047187805176</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5223255157471</t>
+    <t xml:space="preserve">18.5223274230957</t>
   </si>
   <si>
     <t xml:space="preserve">18.2758312225342</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7476272583008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2054061889648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0997638702393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0821571350098</t>
+    <t xml:space="preserve">17.7476291656494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2054042816162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0997619628906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0821552276611</t>
   </si>
   <si>
     <t xml:space="preserve">17.9236965179443</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8004474639893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8884830474854</t>
+    <t xml:space="preserve">17.8004493713379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8884811401367</t>
   </si>
   <si>
     <t xml:space="preserve">18.2582225799561</t>
@@ -2669,7 +2669,7 @@
     <t xml:space="preserve">18.1701889038086</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7652339935303</t>
+    <t xml:space="preserve">17.7652359008789</t>
   </si>
   <si>
     <t xml:space="preserve">18.4166851043701</t>
@@ -2678,10 +2678,10 @@
     <t xml:space="preserve">18.3286514282227</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9060878753662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8937015533447</t>
+    <t xml:space="preserve">17.9060897827148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8936996459961</t>
   </si>
   <si>
     <t xml:space="preserve">17.2018203735352</t>
@@ -2690,19 +2690,19 @@
     <t xml:space="preserve">17.2282295227051</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6243801116943</t>
+    <t xml:space="preserve">17.624382019043</t>
   </si>
   <si>
     <t xml:space="preserve">19.8428344726562</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3146305084229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2794189453125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6983947753906</t>
+    <t xml:space="preserve">19.3146324157715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2794170379639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.698392868042</t>
   </si>
   <si>
     <t xml:space="preserve">19.1913833618164</t>
@@ -2711,16 +2711,16 @@
     <t xml:space="preserve">18.7336082458496</t>
   </si>
   <si>
-    <t xml:space="preserve">18.892068862915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4695072174072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3814716339111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0645523071289</t>
+    <t xml:space="preserve">18.8920669555664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4695053100586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3814697265625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0645503997803</t>
   </si>
   <si>
     <t xml:space="preserve">17.8180561065674</t>
@@ -2729,13 +2729,13 @@
     <t xml:space="preserve">18.0117282867432</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2406177520752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4130992889404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4219036102295</t>
+    <t xml:space="preserve">18.2406158447266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4131011962891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4219017028809</t>
   </si>
   <si>
     <t xml:space="preserve">17.0345554351807</t>
@@ -2744,25 +2744,25 @@
     <t xml:space="preserve">17.1578006744385</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6103610992432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1173706054688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2934398651123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.76881980896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5575389862061</t>
+    <t xml:space="preserve">18.6103591918945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1173686981201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2934379577637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7688217163086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5575408935547</t>
   </si>
   <si>
     <t xml:space="preserve">18.3361072540283</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3002967834473</t>
+    <t xml:space="preserve">18.3002948760986</t>
   </si>
   <si>
     <t xml:space="preserve">18.4077320098877</t>
@@ -2771,19 +2771,19 @@
     <t xml:space="preserve">18.6226081848145</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4793586730957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.443546295166</t>
+    <t xml:space="preserve">18.4793567657471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4435443878174</t>
   </si>
   <si>
     <t xml:space="preserve">18.747953414917</t>
   </si>
   <si>
-    <t xml:space="preserve">18.515172958374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5330791473389</t>
+    <t xml:space="preserve">18.5151710510254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5330772399902</t>
   </si>
   <si>
     <t xml:space="preserve">18.2286701202393</t>
@@ -2795,13 +2795,13 @@
     <t xml:space="preserve">18.0496063232422</t>
   </si>
   <si>
-    <t xml:space="preserve">17.995885848999</t>
+    <t xml:space="preserve">17.9958877563477</t>
   </si>
   <si>
     <t xml:space="preserve">17.8974018096924</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1391372680664</t>
+    <t xml:space="preserve">18.139139175415</t>
   </si>
   <si>
     <t xml:space="preserve">17.9063549041748</t>
@@ -2828,7 +2828,7 @@
     <t xml:space="preserve">16.6529102325439</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8319721221924</t>
+    <t xml:space="preserve">16.831974029541</t>
   </si>
   <si>
     <t xml:space="preserve">16.3574562072754</t>
@@ -2837,7 +2837,7 @@
     <t xml:space="preserve">16.4738464355469</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0261878967285</t>
+    <t xml:space="preserve">16.0261859893799</t>
   </si>
   <si>
     <t xml:space="preserve">16.3664093017578</t>
@@ -2849,16 +2849,16 @@
     <t xml:space="preserve">16.5365180969238</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8051147460938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0289440155029</t>
+    <t xml:space="preserve">16.8051128387451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0289421081543</t>
   </si>
   <si>
     <t xml:space="preserve">16.8498783111572</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8677864074707</t>
+    <t xml:space="preserve">16.8677845001221</t>
   </si>
   <si>
     <t xml:space="preserve">16.9931297302246</t>
@@ -2873,25 +2873,25 @@
     <t xml:space="preserve">16.7424430847168</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4648933410645</t>
+    <t xml:space="preserve">16.4648914337158</t>
   </si>
   <si>
     <t xml:space="preserve">16.4380340576172</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1157207489014</t>
+    <t xml:space="preserve">16.1157188415527</t>
   </si>
   <si>
     <t xml:space="preserve">16.1694393157959</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3395500183105</t>
+    <t xml:space="preserve">16.3395481109619</t>
   </si>
   <si>
     <t xml:space="preserve">16.9215049743652</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1005706787109</t>
+    <t xml:space="preserve">17.1005687713623</t>
   </si>
   <si>
     <t xml:space="preserve">17.2975387573242</t>
@@ -2912,7 +2912,7 @@
     <t xml:space="preserve">16.9483661651611</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3154468536377</t>
+    <t xml:space="preserve">17.3154449462891</t>
   </si>
   <si>
     <t xml:space="preserve">16.8946475982666</t>
@@ -2924,10 +2924,10 @@
     <t xml:space="preserve">16.4917526245117</t>
   </si>
   <si>
-    <t xml:space="preserve">15.93665599823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0799045562744</t>
+    <t xml:space="preserve">15.9366550445557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.079906463623</t>
   </si>
   <si>
     <t xml:space="preserve">16.4827995300293</t>
@@ -2936,10 +2936,10 @@
     <t xml:space="preserve">16.7872066497803</t>
   </si>
   <si>
-    <t xml:space="preserve">16.518611907959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8588314056396</t>
+    <t xml:space="preserve">16.5186138153076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8588333129883</t>
   </si>
   <si>
     <t xml:space="preserve">17.1274280548096</t>
@@ -2951,7 +2951,7 @@
     <t xml:space="preserve">16.4022197723389</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8918886184692</t>
+    <t xml:space="preserve">15.8918905258179</t>
   </si>
   <si>
     <t xml:space="preserve">15.9456090927124</t>
@@ -2963,22 +2963,22 @@
     <t xml:space="preserve">16.3843154907227</t>
   </si>
   <si>
-    <t xml:space="preserve">16.590238571167</t>
+    <t xml:space="preserve">16.5902366638184</t>
   </si>
   <si>
     <t xml:space="preserve">16.4290790557861</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0888576507568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6680593490601</t>
+    <t xml:space="preserve">16.0888595581055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6680612564087</t>
   </si>
   <si>
     <t xml:space="preserve">15.2920265197754</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5847272872925</t>
+    <t xml:space="preserve">14.5847263336182</t>
   </si>
   <si>
     <t xml:space="preserve">14.9159936904907</t>
@@ -2990,13 +2990,13 @@
     <t xml:space="preserve">14.2534589767456</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4235696792603</t>
+    <t xml:space="preserve">14.4235687255859</t>
   </si>
   <si>
     <t xml:space="preserve">13.9490509033203</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5103445053101</t>
+    <t xml:space="preserve">13.5103454589844</t>
   </si>
   <si>
     <t xml:space="preserve">13.3760471343994</t>
@@ -3005,7 +3005,7 @@
     <t xml:space="preserve">13.6983613967896</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1549739837646</t>
+    <t xml:space="preserve">14.154974937439</t>
   </si>
   <si>
     <t xml:space="preserve">13.9311447143555</t>
@@ -3017,13 +3017,13 @@
     <t xml:space="preserve">14.7727422714233</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1370668411255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3608980178833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6625499725342</t>
+    <t xml:space="preserve">14.1370677947998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.360897064209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6625490188599</t>
   </si>
   <si>
     <t xml:space="preserve">13.7252206802368</t>
@@ -3044,13 +3044,13 @@
     <t xml:space="preserve">13.4655790328979</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4387187957764</t>
+    <t xml:space="preserve">13.4387197494507</t>
   </si>
   <si>
     <t xml:space="preserve">13.5013914108276</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2327966690063</t>
+    <t xml:space="preserve">13.232795715332</t>
   </si>
   <si>
     <t xml:space="preserve">12.8746690750122</t>
@@ -3071,13 +3071,13 @@
     <t xml:space="preserve">14.2355518341064</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2176456451416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2713651657104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6294927597046</t>
+    <t xml:space="preserve">14.2176465988159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2713642120361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6294918060303</t>
   </si>
   <si>
     <t xml:space="preserve">14.1281137466431</t>
@@ -3089,22 +3089,22 @@
     <t xml:space="preserve">13.7520799636841</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8774261474609</t>
+    <t xml:space="preserve">13.8774251937866</t>
   </si>
   <si>
     <t xml:space="preserve">13.4834861755371</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5551118850708</t>
+    <t xml:space="preserve">13.5551109313965</t>
   </si>
   <si>
     <t xml:space="preserve">13.1611709594727</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9642009735107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7851371765137</t>
+    <t xml:space="preserve">12.9642000198364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.785138130188</t>
   </si>
   <si>
     <t xml:space="preserve">12.6060743331909</t>
@@ -3125,7 +3125,7 @@
     <t xml:space="preserve">13.1432647705078</t>
   </si>
   <si>
-    <t xml:space="preserve">13.053731918335</t>
+    <t xml:space="preserve">13.0537328720093</t>
   </si>
   <si>
     <t xml:space="preserve">12.5523548126221</t>
@@ -3140,13 +3140,13 @@
     <t xml:space="preserve">12.178035736084</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0668201446533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6228952407837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6414308547974</t>
+    <t xml:space="preserve">12.0668210983276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6228942871094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6414318084717</t>
   </si>
   <si>
     <t xml:space="preserve">13.1975049972534</t>
@@ -3155,25 +3155,25 @@
     <t xml:space="preserve">12.8453245162964</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7526454925537</t>
+    <t xml:space="preserve">12.752646446228</t>
   </si>
   <si>
     <t xml:space="preserve">12.7155742645264</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9380035400391</t>
+    <t xml:space="preserve">12.9380044937134</t>
   </si>
   <si>
     <t xml:space="preserve">13.0862903594971</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3272562026978</t>
+    <t xml:space="preserve">13.3272571563721</t>
   </si>
   <si>
     <t xml:space="preserve">13.0677547454834</t>
   </si>
   <si>
-    <t xml:space="preserve">12.307785987854</t>
+    <t xml:space="preserve">12.3077850341797</t>
   </si>
   <si>
     <t xml:space="preserve">12.1409645080566</t>
@@ -3182,7 +3182,7 @@
     <t xml:space="preserve">11.881462097168</t>
   </si>
   <si>
-    <t xml:space="preserve">12.437536239624</t>
+    <t xml:space="preserve">12.4375371932983</t>
   </si>
   <si>
     <t xml:space="preserve">12.2892503738403</t>
@@ -3203,13 +3203,13 @@
     <t xml:space="preserve">12.4746084213257</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1965713500977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9556045532227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4736747741699</t>
+    <t xml:space="preserve">12.1965703964233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.955605506897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4736738204956</t>
   </si>
   <si>
     <t xml:space="preserve">11.73317527771</t>
@@ -3221,13 +3221,13 @@
     <t xml:space="preserve">12.085355758667</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9370698928833</t>
+    <t xml:space="preserve">11.937068939209</t>
   </si>
   <si>
     <t xml:space="preserve">11.7146396636963</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5107460021973</t>
+    <t xml:space="preserve">11.5107450485229</t>
   </si>
   <si>
     <t xml:space="preserve">12.0297479629517</t>
@@ -3245,7 +3245,7 @@
     <t xml:space="preserve">12.3263216018677</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5116806030273</t>
+    <t xml:space="preserve">12.511679649353</t>
   </si>
   <si>
     <t xml:space="preserve">12.5487518310547</t>
@@ -3263,22 +3263,22 @@
     <t xml:space="preserve">12.252179145813</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1224279403687</t>
+    <t xml:space="preserve">12.1224269866943</t>
   </si>
   <si>
     <t xml:space="preserve">11.7887830734253</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7702465057373</t>
+    <t xml:space="preserve">11.7702474594116</t>
   </si>
   <si>
     <t xml:space="preserve">11.3809947967529</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3439226150513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3253879547119</t>
+    <t xml:space="preserve">11.3439235687256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3253870010376</t>
   </si>
   <si>
     <t xml:space="preserve">11.1585655212402</t>
@@ -3287,13 +3287,13 @@
     <t xml:space="preserve">10.9175987243652</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8619918823242</t>
+    <t xml:space="preserve">10.8619928359985</t>
   </si>
   <si>
     <t xml:space="preserve">10.6766338348389</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7693119049072</t>
+    <t xml:space="preserve">10.7693128585815</t>
   </si>
   <si>
     <t xml:space="preserve">10.3800601959229</t>
@@ -3305,10 +3305,10 @@
     <t xml:space="preserve">10.4171314239502</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3615245819092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6024904251099</t>
+    <t xml:space="preserve">10.3615255355835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6024894714355</t>
   </si>
   <si>
     <t xml:space="preserve">10.8249206542969</t>
@@ -3317,13 +3317,13 @@
     <t xml:space="preserve">9.86105823516846</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1020221710205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.78691387176514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.82398700714111</t>
+    <t xml:space="preserve">10.1020231246948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.78691482543945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.8239860534668</t>
   </si>
   <si>
     <t xml:space="preserve">9.62009143829346</t>
@@ -3341,10 +3341,10 @@
     <t xml:space="preserve">9.00840950012207</t>
   </si>
   <si>
-    <t xml:space="preserve">8.69330024719238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.96207046508789</t>
+    <t xml:space="preserve">8.6933012008667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.96206951141357</t>
   </si>
   <si>
     <t xml:space="preserve">8.98060607910156</t>
@@ -3356,13 +3356,13 @@
     <t xml:space="preserve">9.09182167053223</t>
   </si>
   <si>
-    <t xml:space="preserve">8.86012363433838</t>
+    <t xml:space="preserve">8.86012268066406</t>
   </si>
   <si>
     <t xml:space="preserve">9.07328510284424</t>
   </si>
   <si>
-    <t xml:space="preserve">9.11962413787842</t>
+    <t xml:space="preserve">9.11962509155273</t>
   </si>
   <si>
     <t xml:space="preserve">9.39766216278076</t>
@@ -3377,25 +3377,25 @@
     <t xml:space="preserve">9.56448459625244</t>
   </si>
   <si>
-    <t xml:space="preserve">9.37912559509277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.26791095733643</t>
+    <t xml:space="preserve">9.37912654876709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.26791191101074</t>
   </si>
   <si>
     <t xml:space="preserve">9.58302021026611</t>
   </si>
   <si>
-    <t xml:space="preserve">9.65716361999512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.99080753326416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.87959289550781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.84252166748047</t>
+    <t xml:space="preserve">9.6571626663208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.99080848693848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.87959384918213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.84252071380615</t>
   </si>
   <si>
     <t xml:space="preserve">9.9722728729248</t>
@@ -3410,7 +3410,7 @@
     <t xml:space="preserve">10.2132387161255</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5283470153809</t>
+    <t xml:space="preserve">10.5283460617065</t>
   </si>
   <si>
     <t xml:space="preserve">10.8990640640259</t>
@@ -3419,7 +3419,7 @@
     <t xml:space="preserve">10.2503099441528</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2317743301392</t>
+    <t xml:space="preserve">10.2317733764648</t>
   </si>
   <si>
     <t xml:space="preserve">10.2688455581665</t>
@@ -3428,19 +3428,19 @@
     <t xml:space="preserve">10.4356679916382</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6580972671509</t>
+    <t xml:space="preserve">10.6580982208252</t>
   </si>
   <si>
     <t xml:space="preserve">10.2873821258545</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5468835830688</t>
+    <t xml:space="preserve">10.5468826293945</t>
   </si>
   <si>
     <t xml:space="preserve">10.5839548110962</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4912757873535</t>
+    <t xml:space="preserve">10.4912748336792</t>
   </si>
   <si>
     <t xml:space="preserve">10.4727401733398</t>
@@ -3452,7 +3452,7 @@
     <t xml:space="preserve">10.6951694488525</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3985958099365</t>
+    <t xml:space="preserve">10.3985967636108</t>
   </si>
   <si>
     <t xml:space="preserve">10.5654182434082</t>
@@ -3461,7 +3461,7 @@
     <t xml:space="preserve">10.6210260391235</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0844211578369</t>
+    <t xml:space="preserve">11.0844221115112</t>
   </si>
   <si>
     <t xml:space="preserve">11.3068513870239</t>
@@ -3479,7 +3479,7 @@
     <t xml:space="preserve">11.5848894119263</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6961030960083</t>
+    <t xml:space="preserve">11.6961040496826</t>
   </si>
   <si>
     <t xml:space="preserve">12.0482845306396</t>
@@ -3503,19 +3503,19 @@
     <t xml:space="preserve">11.2512445449829</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2141733169556</t>
+    <t xml:space="preserve">11.2141723632812</t>
   </si>
   <si>
     <t xml:space="preserve">11.1214933395386</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8063850402832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8434562683105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6395616531372</t>
+    <t xml:space="preserve">10.8063840866089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8434553146362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6395606994629</t>
   </si>
   <si>
     <t xml:space="preserve">10.4542036056519</t>
@@ -3530,13 +3530,13 @@
     <t xml:space="preserve">10.9917421340942</t>
   </si>
   <si>
-    <t xml:space="preserve">12.233642578125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6785020828247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.418999671936</t>
+    <t xml:space="preserve">12.2336416244507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.678503036499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4190006256104</t>
   </si>
   <si>
     <t xml:space="preserve">12.8638610839844</t>
@@ -3551,7 +3551,7 @@
     <t xml:space="preserve">12.60435962677</t>
   </si>
   <si>
-    <t xml:space="preserve">12.808253288269</t>
+    <t xml:space="preserve">12.8082523345947</t>
   </si>
   <si>
     <t xml:space="preserve">12.7711811065674</t>
@@ -3563,7 +3563,7 @@
     <t xml:space="preserve">13.9760093688965</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8647956848145</t>
+    <t xml:space="preserve">13.8647947311401</t>
   </si>
   <si>
     <t xml:space="preserve">13.6609010696411</t>
@@ -61498,7 +61498,7 @@
     </row>
     <row r="2195">
       <c r="A2195" s="1" t="n">
-        <v>45518.6496412037</v>
+        <v>45518.2916666667</v>
       </c>
       <c r="B2195" t="n">
         <v>58833</v>

--- a/data/MARR.MI.xlsx
+++ b/data/MARR.MI.xlsx
@@ -38,94 +38,94 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2729797363281</t>
+    <t xml:space="preserve">14.2729806900024</t>
   </si>
   <si>
     <t xml:space="preserve">MARR.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1047019958496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9899663925171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7910938262939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7452001571655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3627510070801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4315910339355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5157299041748</t>
+    <t xml:space="preserve">14.1047010421753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9899682998657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7910928726196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7451982498169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3627490997314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4315900802612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5157308578491</t>
   </si>
   <si>
     <t xml:space="preserve">13.2021226882935</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2097721099854</t>
+    <t xml:space="preserve">13.209771156311</t>
   </si>
   <si>
     <t xml:space="preserve">12.7202367782593</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8273210525513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3607349395752</t>
+    <t xml:space="preserve">12.8273229598999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3607368469238</t>
   </si>
   <si>
     <t xml:space="preserve">12.9650058746338</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6228151321411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4545383453369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3321561813354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3245077133179</t>
+    <t xml:space="preserve">13.6228160858154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4545373916626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3321552276611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3245058059692</t>
   </si>
   <si>
     <t xml:space="preserve">13.4162940979004</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5004291534424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7681455612183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5616235733032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0873880386353</t>
+    <t xml:space="preserve">13.500431060791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7681465148926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5616226196289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0873870849609</t>
   </si>
   <si>
     <t xml:space="preserve">13.2786130905151</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0491418838501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1083202362061</t>
+    <t xml:space="preserve">13.0491428375244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1083192825317</t>
   </si>
   <si>
     <t xml:space="preserve">12.1542139053345</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6131525039673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2995433807373</t>
+    <t xml:space="preserve">12.613151550293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2995443344116</t>
   </si>
   <si>
     <t xml:space="preserve">12.6208009719849</t>
@@ -134,37 +134,37 @@
     <t xml:space="preserve">12.6590452194214</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7814292907715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.94970703125</t>
+    <t xml:space="preserve">12.7814283370972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9497060775757</t>
   </si>
   <si>
     <t xml:space="preserve">13.156229019165</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4851350784302</t>
+    <t xml:space="preserve">13.4851341247559</t>
   </si>
   <si>
     <t xml:space="preserve">13.3780488967896</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3474531173706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7299032211304</t>
+    <t xml:space="preserve">13.3474540710449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7299013137817</t>
   </si>
   <si>
     <t xml:space="preserve">13.96702003479</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7375507354736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8752298355103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6763572692871</t>
+    <t xml:space="preserve">13.737548828125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8752317428589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6763563156128</t>
   </si>
   <si>
     <t xml:space="preserve">13.3703994750977</t>
@@ -176,7 +176,7 @@
     <t xml:space="preserve">13.1179838180542</t>
   </si>
   <si>
-    <t xml:space="preserve">13.446888923645</t>
+    <t xml:space="preserve">13.4468898773193</t>
   </si>
   <si>
     <t xml:space="preserve">13.5998706817627</t>
@@ -188,13 +188,13 @@
     <t xml:space="preserve">13.6610612869263</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2174224853516</t>
+    <t xml:space="preserve">13.2174215316772</t>
   </si>
   <si>
     <t xml:space="preserve">13.1026849746704</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4621877670288</t>
+    <t xml:space="preserve">13.4621887207031</t>
   </si>
   <si>
     <t xml:space="preserve">13.5386772155762</t>
@@ -203,34 +203,34 @@
     <t xml:space="preserve">13.9593696594238</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0817546844482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.150595664978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8828792572021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.997615814209</t>
+    <t xml:space="preserve">14.0817537307739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1505947113037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8828802108765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9976148605347</t>
   </si>
   <si>
     <t xml:space="preserve">14.0741052627563</t>
   </si>
   <si>
-    <t xml:space="preserve">14.54833984375</t>
+    <t xml:space="preserve">14.5483407974243</t>
   </si>
   <si>
     <t xml:space="preserve">14.3188724517822</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1658926010132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7987432479858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6916551589966</t>
+    <t xml:space="preserve">14.1658916473389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7987422943115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6916570663452</t>
   </si>
   <si>
     <t xml:space="preserve">13.6151657104492</t>
@@ -239,73 +239,73 @@
     <t xml:space="preserve">13.576922416687</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8599338531494</t>
+    <t xml:space="preserve">13.8599348068237</t>
   </si>
   <si>
     <t xml:space="preserve">13.9058275222778</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5922212600708</t>
+    <t xml:space="preserve">13.5922193527222</t>
   </si>
   <si>
     <t xml:space="preserve">14.0970516204834</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9440727233887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6304655075073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6840085983276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6993055343628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8216886520386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4392404556274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6687097549438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4086465835571</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.53102684021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8250093460083</t>
+    <t xml:space="preserve">13.9440717697144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.630464553833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6840057373047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6993045806885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8216876983643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4392414093018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6687116622925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4086456298828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5310297012329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8250074386597</t>
   </si>
   <si>
     <t xml:space="preserve">13.817063331604</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0713157653809</t>
+    <t xml:space="preserve">14.0713148117065</t>
   </si>
   <si>
     <t xml:space="preserve">14.0633707046509</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2540597915649</t>
+    <t xml:space="preserve">14.2540607452393</t>
   </si>
   <si>
     <t xml:space="preserve">14.3096780776978</t>
   </si>
   <si>
-    <t xml:space="preserve">14.126935005188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0792598724365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3017320632935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1904983520508</t>
+    <t xml:space="preserve">14.1269359588623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0792608261108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3017330169678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1904973983765</t>
   </si>
   <si>
     <t xml:space="preserve">14.1030979156494</t>
@@ -314,34 +314,34 @@
     <t xml:space="preserve">14.0872058868408</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0951519012451</t>
+    <t xml:space="preserve">14.0951528549194</t>
   </si>
   <si>
     <t xml:space="preserve">13.5866470336914</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6740446090698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3880109786987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0701961517334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2132120132446</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5945920944214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5787010192871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8806257247925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2052669525146</t>
+    <t xml:space="preserve">13.6740455627441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.388011932373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0701951980591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2132110595703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5945911407471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5787019729614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8806247711182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.205267906189</t>
   </si>
   <si>
     <t xml:space="preserve">12.5060701370239</t>
@@ -350,7 +350,7 @@
     <t xml:space="preserve">13.0384130477905</t>
   </si>
   <si>
-    <t xml:space="preserve">13.51513671875</t>
+    <t xml:space="preserve">13.5151386260986</t>
   </si>
   <si>
     <t xml:space="preserve">14.2461156845093</t>
@@ -368,58 +368,58 @@
     <t xml:space="preserve">14.1507701873779</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6036586761475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5718765258789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5639295578003</t>
+    <t xml:space="preserve">14.6036577224731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5718755722046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5639314651489</t>
   </si>
   <si>
     <t xml:space="preserve">14.3652963638306</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3176250457764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5798206329346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8738040924072</t>
+    <t xml:space="preserve">14.3176231384277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5798234939575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8738021850586</t>
   </si>
   <si>
     <t xml:space="preserve">14.548038482666</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6990041732788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9770927429199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8340749740601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9453096389771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5877676010132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8579139709473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3335161209106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4765310287476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5003681182861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.444748878479</t>
+    <t xml:space="preserve">14.6990032196045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9770908355713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8340759277344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9453115463257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5877685546875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.85791015625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3335151672363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4765300750732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5003671646118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4447498321533</t>
   </si>
   <si>
     <t xml:space="preserve">14.1666612625122</t>
@@ -428,13 +428,13 @@
     <t xml:space="preserve">14.238169670105</t>
   </si>
   <si>
-    <t xml:space="preserve">14.031587600708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8885707855225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9044637680054</t>
+    <t xml:space="preserve">14.0315885543823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8885717391968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9044609069824</t>
   </si>
   <si>
     <t xml:space="preserve">13.8647365570068</t>
@@ -443,13 +443,13 @@
     <t xml:space="preserve">14.0474796295166</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9521350860596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.721718788147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0156984329224</t>
+    <t xml:space="preserve">13.9521331787109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7217178344727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.015697479248</t>
   </si>
   <si>
     <t xml:space="preserve">13.912407875061</t>
@@ -458,10 +458,10 @@
     <t xml:space="preserve">14.0077524185181</t>
   </si>
   <si>
-    <t xml:space="preserve">13.920352935791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8091173171997</t>
+    <t xml:space="preserve">13.9203538894653</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8091163635254</t>
   </si>
   <si>
     <t xml:space="preserve">13.7058277130127</t>
@@ -470,31 +470,31 @@
     <t xml:space="preserve">13.6502103805542</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7376108169556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9998073577881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2302255630493</t>
+    <t xml:space="preserve">13.7376089096069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9998083114624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2302236557007</t>
   </si>
   <si>
     <t xml:space="preserve">14.1746072769165</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0236406326294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1587171554565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7614450454712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6661014556885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6184282302856</t>
+    <t xml:space="preserve">14.023642539978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1587152481079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7614440917969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6661005020142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6184253692627</t>
   </si>
   <si>
     <t xml:space="preserve">13.7773361206055</t>
@@ -503,22 +503,22 @@
     <t xml:space="preserve">13.5469179153442</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4913015365601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6581563949585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5389728546143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5310277938843</t>
+    <t xml:space="preserve">13.4912996292114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6581535339355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5389738082886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5310287475586</t>
   </si>
   <si>
     <t xml:space="preserve">13.4595203399658</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3482818603516</t>
+    <t xml:space="preserve">13.3482837677002</t>
   </si>
   <si>
     <t xml:space="preserve">13.316502571106</t>
@@ -530,22 +530,22 @@
     <t xml:space="preserve">13.3323926925659</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3244466781616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1814298629761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0304670333862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2370491027832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2688312530518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1575946807861</t>
+    <t xml:space="preserve">13.3244476318359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1814308166504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0304679870605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2370471954346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2688322067261</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1575937271118</t>
   </si>
   <si>
     <t xml:space="preserve">12.7126512527466</t>
@@ -554,7 +554,7 @@
     <t xml:space="preserve">13.1178674697876</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2608852386475</t>
+    <t xml:space="preserve">13.2608842849731</t>
   </si>
   <si>
     <t xml:space="preserve">13.1417045593262</t>
@@ -569,16 +569,16 @@
     <t xml:space="preserve">12.9112873077393</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0066328048706</t>
+    <t xml:space="preserve">13.0066318511963</t>
   </si>
   <si>
     <t xml:space="preserve">13.0940313339233</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0781402587891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.50719165802</t>
+    <t xml:space="preserve">13.0781393051147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5071926116943</t>
   </si>
   <si>
     <t xml:space="preserve">13.4515743255615</t>
@@ -590,70 +590,70 @@
     <t xml:space="preserve">13.8965167999268</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7455549240112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9362440109253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7852821350098</t>
+    <t xml:space="preserve">13.7455530166626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9362449645996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7852792739868</t>
   </si>
   <si>
     <t xml:space="preserve">13.9441890716553</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9680252075195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9918622970581</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9759712219238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0395336151123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8011741638184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9839172363281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2222785949707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2063875198364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7148952484131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7705116271973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3494071960449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2699508666992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1825542449951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2858419418335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.341459274292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2620067596436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6751670837402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4606418609619</t>
+    <t xml:space="preserve">13.9680261611938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9918613433838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9759702682495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0395355224609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.801173210144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9839181900024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.222279548645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2063856124878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7148933410645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7705125808716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.349404335022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2699499130249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1825523376465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2858409881592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3414602279663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2620058059692</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6751661300659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4606428146362</t>
   </si>
   <si>
     <t xml:space="preserve">14.651330947876</t>
@@ -662,16 +662,16 @@
     <t xml:space="preserve">14.6274938583374</t>
   </si>
   <si>
-    <t xml:space="preserve">14.540096282959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6910581588745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.516261100769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7069511413574</t>
+    <t xml:space="preserve">14.5400943756104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6910572052002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5162591934204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7069492340088</t>
   </si>
   <si>
     <t xml:space="preserve">14.6116018295288</t>
@@ -680,55 +680,55 @@
     <t xml:space="preserve">14.3970785140991</t>
   </si>
   <si>
-    <t xml:space="preserve">14.746675491333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2154569625854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4538192749023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4061470031738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5968322753906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8908138275146</t>
+    <t xml:space="preserve">14.7466764450073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2154531478882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4538173675537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4061441421509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5968313217163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8908157348633</t>
   </si>
   <si>
     <t xml:space="preserve">15.8510866165161</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8590335845947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7319068908691</t>
+    <t xml:space="preserve">15.8590307235718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7319059371948</t>
   </si>
   <si>
     <t xml:space="preserve">16.1371231079102</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6774082183838</t>
+    <t xml:space="preserve">16.6774101257324</t>
   </si>
   <si>
     <t xml:space="preserve">16.0656127929688</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0894508361816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2245216369629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3039741516113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1609592437744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2880840301514</t>
+    <t xml:space="preserve">16.089448928833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2245235443115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.30397605896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1609573364258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2880859375</t>
   </si>
   <si>
     <t xml:space="preserve">16.6456279754639</t>
@@ -737,22 +737,22 @@
     <t xml:space="preserve">16.6853542327881</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4867172241211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4072685241699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0973949432373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1291751861572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5026111602783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3675365447998</t>
+    <t xml:space="preserve">16.4867210388184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4072666168213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0973930358887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1291790008545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5026092529297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3675384521484</t>
   </si>
   <si>
     <t xml:space="preserve">16.5582294464111</t>
@@ -764,19 +764,19 @@
     <t xml:space="preserve">16.7012462615967</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5423393249512</t>
+    <t xml:space="preserve">16.5423374176025</t>
   </si>
   <si>
     <t xml:space="preserve">16.8839893341064</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4322242736816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.114408493042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6615200042725</t>
+    <t xml:space="preserve">17.4322204589844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1144104003906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6615180969238</t>
   </si>
   <si>
     <t xml:space="preserve">17.2812614440918</t>
@@ -788,22 +788,22 @@
     <t xml:space="preserve">17.2574253082275</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2653694152832</t>
+    <t xml:space="preserve">17.2653675079346</t>
   </si>
   <si>
     <t xml:space="preserve">17.61496925354</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8136043548584</t>
+    <t xml:space="preserve">17.8136005401611</t>
   </si>
   <si>
     <t xml:space="preserve">17.6864757537842</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5355129241943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4560585021973</t>
+    <t xml:space="preserve">17.535514831543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4560604095459</t>
   </si>
   <si>
     <t xml:space="preserve">17.6626396179199</t>
@@ -821,25 +821,25 @@
     <t xml:space="preserve">17.9089488983154</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9963474273682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1552562713623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4004402160645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5196208953857</t>
+    <t xml:space="preserve">17.9963455200195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1552543640137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4004421234131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5196228027344</t>
   </si>
   <si>
     <t xml:space="preserve">17.7083587646484</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2499504089355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2171268463135</t>
+    <t xml:space="preserve">18.2499485015869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2171249389648</t>
   </si>
   <si>
     <t xml:space="preserve">18.0530090332031</t>
@@ -854,25 +854,25 @@
     <t xml:space="preserve">17.8806838989258</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0694217681885</t>
+    <t xml:space="preserve">18.0694198608398</t>
   </si>
   <si>
     <t xml:space="preserve">17.9791526794434</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7986221313477</t>
+    <t xml:space="preserve">17.7986259460449</t>
   </si>
   <si>
     <t xml:space="preserve">18.0365962982178</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1760959625244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9955635070801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5606536865234</t>
+    <t xml:space="preserve">18.1760940551758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9955654144287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5606517791748</t>
   </si>
   <si>
     <t xml:space="preserve">17.7411823272705</t>
@@ -881,16 +881,16 @@
     <t xml:space="preserve">17.8888893127441</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7740077972412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0858306884766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7575950622559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5524444580078</t>
+    <t xml:space="preserve">17.7740058898926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0858325958252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7575931549072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5524463653564</t>
   </si>
   <si>
     <t xml:space="preserve">17.5852699279785</t>
@@ -902,19 +902,19 @@
     <t xml:space="preserve">17.7329750061035</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7493858337402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.174976348877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0765018463135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0682964324951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1503562927246</t>
+    <t xml:space="preserve">17.7493877410889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1749744415283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0765037536621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0682983398438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1503582000732</t>
   </si>
   <si>
     <t xml:space="preserve">16.9123859405518</t>
@@ -929,10 +929,10 @@
     <t xml:space="preserve">16.9780330657959</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3965339660645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5032119750977</t>
+    <t xml:space="preserve">17.3965358734131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.503210067749</t>
   </si>
   <si>
     <t xml:space="preserve">17.9299201965332</t>
@@ -944,25 +944,25 @@
     <t xml:space="preserve">18.1022415161133</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3484172821045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3566284179688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4633007049561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8642730712891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3402156829834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7247695922852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5688552856445</t>
+    <t xml:space="preserve">18.3484191894531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3566265106201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4633026123047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8642711639404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3402118682861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7247714996338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5688591003418</t>
   </si>
   <si>
     <t xml:space="preserve">17.4950046539307</t>
@@ -971,37 +971,37 @@
     <t xml:space="preserve">17.8068313598633</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5278301239014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3883304595947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4047393798828</t>
+    <t xml:space="preserve">17.52783203125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3883285522461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4047412872314</t>
   </si>
   <si>
     <t xml:space="preserve">17.2734470367432</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2242088317871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0436820983887</t>
+    <t xml:space="preserve">17.2242107391357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.04368019104</t>
   </si>
   <si>
     <t xml:space="preserve">16.9452095031738</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9287986755371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0190601348877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2816505432129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4211502075195</t>
+    <t xml:space="preserve">16.9287967681885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0190620422363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2816524505615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4211521148682</t>
   </si>
   <si>
     <t xml:space="preserve">17.6262989044189</t>
@@ -1013,34 +1013,34 @@
     <t xml:space="preserve">17.9709491729736</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0940361022949</t>
+    <t xml:space="preserve">18.0940380096436</t>
   </si>
   <si>
     <t xml:space="preserve">18.323802947998</t>
   </si>
   <si>
-    <t xml:space="preserve">17.987361907959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.11865234375</t>
+    <t xml:space="preserve">17.9873600006104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1186542510986</t>
   </si>
   <si>
     <t xml:space="preserve">18.1104488372803</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1268615722656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3320064544678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3648300170898</t>
+    <t xml:space="preserve">18.126859664917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.332010269165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3648319244385</t>
   </si>
   <si>
     <t xml:space="preserve">18.438684463501</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3812408447266</t>
+    <t xml:space="preserve">18.3812427520752</t>
   </si>
   <si>
     <t xml:space="preserve">18.6356258392334</t>
@@ -1049,10 +1049,10 @@
     <t xml:space="preserve">18.6684513092041</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5371570587158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8079490661621</t>
+    <t xml:space="preserve">18.5371589660645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8079528808594</t>
   </si>
   <si>
     <t xml:space="preserve">18.6520385742188</t>
@@ -1067,10 +1067,10 @@
     <t xml:space="preserve">19.2182464599609</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1443958282471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6930675506592</t>
+    <t xml:space="preserve">19.1443939208984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6930694580078</t>
   </si>
   <si>
     <t xml:space="preserve">18.7669219970703</t>
@@ -1085,10 +1085,10 @@
     <t xml:space="preserve">18.1596851348877</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4222755432129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2335357666016</t>
+    <t xml:space="preserve">18.4222736358643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2335376739502</t>
   </si>
   <si>
     <t xml:space="preserve">18.1925086975098</t>
@@ -1097,28 +1097,28 @@
     <t xml:space="preserve">18.1350650787354</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9217109680176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6345043182373</t>
+    <t xml:space="preserve">17.9217147827148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6345062255859</t>
   </si>
   <si>
     <t xml:space="preserve">17.5442409515381</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3555068969727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0272674560547</t>
+    <t xml:space="preserve">17.355504989624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0272693634033</t>
   </si>
   <si>
     <t xml:space="preserve">16.7975025177002</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9041786193848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.191385269165</t>
+    <t xml:space="preserve">16.9041805267334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1913871765137</t>
   </si>
   <si>
     <t xml:space="preserve">17.6919460296631</t>
@@ -1130,19 +1130,19 @@
     <t xml:space="preserve">17.815034866333</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0037727355957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8396530151367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.962739944458</t>
+    <t xml:space="preserve">18.0037708282471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8396549224854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9627418518066</t>
   </si>
   <si>
     <t xml:space="preserve">17.4293575286865</t>
   </si>
   <si>
-    <t xml:space="preserve">17.035472869873</t>
+    <t xml:space="preserve">17.0354747772217</t>
   </si>
   <si>
     <t xml:space="preserve">17.4703884124756</t>
@@ -1163,40 +1163,40 @@
     <t xml:space="preserve">17.4129447937012</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3976573944092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4468898773193</t>
+    <t xml:space="preserve">18.3976535797119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.446891784668</t>
   </si>
   <si>
     <t xml:space="preserve">18.5617752075195</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6274223327637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7751274108887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.47971534729</t>
+    <t xml:space="preserve">18.627420425415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.77512550354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4797134399414</t>
   </si>
   <si>
     <t xml:space="preserve">18.7258911132812</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3155956268311</t>
+    <t xml:space="preserve">18.3155975341797</t>
   </si>
   <si>
     <t xml:space="preserve">18.2827739715576</t>
   </si>
   <si>
-    <t xml:space="preserve">18.578182220459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.511417388916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0201854705811</t>
+    <t xml:space="preserve">18.5781860351562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5114154815674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0201816558838</t>
   </si>
   <si>
     <t xml:space="preserve">17.347297668457</t>
@@ -1205,67 +1205,67 @@
     <t xml:space="preserve">17.2980632781982</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9381237030029</t>
+    <t xml:space="preserve">17.9381256103516</t>
   </si>
   <si>
     <t xml:space="preserve">17.675537109375</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2652397155762</t>
+    <t xml:space="preserve">17.2652416229248</t>
   </si>
   <si>
     <t xml:space="preserve">17.3144760131836</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4961261749268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5793056488037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5136604309082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.03883934021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3178386688232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1701335906982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0716571807861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8418941497803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8254833221436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8911304473877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8090705871582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9403667449951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4327201843262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6296634674072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5311946868896</t>
+    <t xml:space="preserve">18.4961280822754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5793075561523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5136585235596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0388374328613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3178367614746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1701316833496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0716609954834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8418960571289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8254852294922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8911323547363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8090724945068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9403686523438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4327220916748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6296653747559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.531192779541</t>
   </si>
   <si>
     <t xml:space="preserve">20.5968399047852</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7609615325928</t>
+    <t xml:space="preserve">20.7609577178955</t>
   </si>
   <si>
     <t xml:space="preserve">20.5147819519043</t>
@@ -1307,40 +1307,40 @@
     <t xml:space="preserve">20.7117233276367</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6460762023926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8101921081543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2510719299316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4808368682861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1854209899902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1361885070801</t>
+    <t xml:space="preserve">20.6460742950439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8101940155029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.251070022583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4808349609375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1854228973389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1361865997314</t>
   </si>
   <si>
     <t xml:space="preserve">19.2887344360352</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0514373779297</t>
+    <t xml:space="preserve">19.0514392852783</t>
   </si>
   <si>
     <t xml:space="preserve">19.492130279541</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3226337432861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7633266448975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6446800231934</t>
+    <t xml:space="preserve">19.3226356506348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7633247375488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6446781158447</t>
   </si>
   <si>
     <t xml:space="preserve">19.7294273376465</t>
@@ -1349,25 +1349,25 @@
     <t xml:space="preserve">19.6955261230469</t>
   </si>
   <si>
-    <t xml:space="preserve">19.6277275085449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2717838287354</t>
+    <t xml:space="preserve">19.6277294158936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.271785736084</t>
   </si>
   <si>
     <t xml:space="preserve">19.5599308013916</t>
   </si>
   <si>
-    <t xml:space="preserve">19.8311252593994</t>
+    <t xml:space="preserve">19.8311233520508</t>
   </si>
   <si>
     <t xml:space="preserve">19.7802772521973</t>
   </si>
   <si>
-    <t xml:space="preserve">19.5429801940918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5938320159912</t>
+    <t xml:space="preserve">19.5429782867432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5938282012939</t>
   </si>
   <si>
     <t xml:space="preserve">19.4412822723389</t>
@@ -1376,19 +1376,19 @@
     <t xml:space="preserve">18.8988914489746</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9158401489258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7971935272217</t>
+    <t xml:space="preserve">18.9158420562744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7971954345703</t>
   </si>
   <si>
     <t xml:space="preserve">19.0175399780273</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0683879852295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9836387634277</t>
+    <t xml:space="preserve">19.0683898925781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.983642578125</t>
   </si>
   <si>
     <t xml:space="preserve">19.1022891998291</t>
@@ -1400,7 +1400,7 @@
     <t xml:space="preserve">19.6616287231445</t>
   </si>
   <si>
-    <t xml:space="preserve">19.5768814086914</t>
+    <t xml:space="preserve">19.5768795013428</t>
   </si>
   <si>
     <t xml:space="preserve">20.3226642608643</t>
@@ -1409,28 +1409,28 @@
     <t xml:space="preserve">20.3396148681641</t>
   </si>
   <si>
-    <t xml:space="preserve">20.1870670318604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0175704956055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.932825088501</t>
+    <t xml:space="preserve">20.187068939209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0175724029541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9328231811523</t>
   </si>
   <si>
     <t xml:space="preserve">19.7124786376953</t>
   </si>
   <si>
-    <t xml:space="preserve">20.2379150390625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9158744812012</t>
+    <t xml:space="preserve">20.2379169464111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9158725738525</t>
   </si>
   <si>
     <t xml:space="preserve">19.6107788085938</t>
   </si>
   <si>
-    <t xml:space="preserve">19.8480758666992</t>
+    <t xml:space="preserve">19.8480739593506</t>
   </si>
   <si>
     <t xml:space="preserve">20.4243640899658</t>
@@ -1439,10 +1439,10 @@
     <t xml:space="preserve">20.6447105407715</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6955604553223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3904628753662</t>
+    <t xml:space="preserve">20.6955585479736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3904647827148</t>
   </si>
   <si>
     <t xml:space="preserve">20.3057155609131</t>
@@ -1451,19 +1451,19 @@
     <t xml:space="preserve">20.1701164245605</t>
   </si>
   <si>
-    <t xml:space="preserve">20.2887649536133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2040157318115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3565635681152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5091133117676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5260601043701</t>
+    <t xml:space="preserve">20.2887668609619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2040176391602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3565654754639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5091114044189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5260620117188</t>
   </si>
   <si>
     <t xml:space="preserve">20.4921607971191</t>
@@ -1472,94 +1472,94 @@
     <t xml:space="preserve">20.9328556060791</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6616592407227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5769119262695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.763355255127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1023502349854</t>
+    <t xml:space="preserve">20.661657333374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5769100189209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7633571624756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.102352142334</t>
   </si>
   <si>
     <t xml:space="preserve">21.6108417510986</t>
   </si>
   <si>
-    <t xml:space="preserve">21.6955890655518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5091400146484</t>
+    <t xml:space="preserve">21.6955909729004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5091438293457</t>
   </si>
   <si>
     <t xml:space="preserve">22.0345821380615</t>
   </si>
   <si>
-    <t xml:space="preserve">22.3905277252197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1023807525635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4921913146973</t>
+    <t xml:space="preserve">22.3905258178711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1023826599121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4921932220459</t>
   </si>
   <si>
     <t xml:space="preserve">21.7294864654541</t>
   </si>
   <si>
-    <t xml:space="preserve">21.390495300293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4074478149414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9667510986328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7294540405273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5938587188721</t>
+    <t xml:space="preserve">21.3904933929443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4074459075928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9667530059814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.729455947876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5938606262207</t>
   </si>
   <si>
     <t xml:space="preserve">19.9667224884033</t>
   </si>
   <si>
-    <t xml:space="preserve">19.8819751739502</t>
+    <t xml:space="preserve">19.8819732666016</t>
   </si>
   <si>
     <t xml:space="preserve">19.5090808868408</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3734855651855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0344886779785</t>
+    <t xml:space="preserve">19.3734836578369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0344905853271</t>
   </si>
   <si>
     <t xml:space="preserve">19.4751815795898</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0853691101074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8989238739014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.237886428833</t>
+    <t xml:space="preserve">20.0853710174561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8989219665527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2378845214844</t>
   </si>
   <si>
     <t xml:space="preserve">18.8819427490234</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5090503692627</t>
+    <t xml:space="preserve">18.5090484619141</t>
   </si>
   <si>
     <t xml:space="preserve">18.1870040893555</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2717552185059</t>
+    <t xml:space="preserve">18.2717533111572</t>
   </si>
   <si>
     <t xml:space="preserve">18.0175094604492</t>
@@ -1571,55 +1571,55 @@
     <t xml:space="preserve">17.9327583312988</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1192054748535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9666595458984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8649635314941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1022605895996</t>
+    <t xml:space="preserve">18.1192073822021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9666614532471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8649616241455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1022567749023</t>
   </si>
   <si>
     <t xml:space="preserve">18.2378559112549</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5259990692139</t>
+    <t xml:space="preserve">18.5260009765625</t>
   </si>
   <si>
     <t xml:space="preserve">17.8480110168457</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3564720153809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9666309356689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.085277557373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1022281646729</t>
+    <t xml:space="preserve">17.3564701080322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9666290283203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0852756500244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1022262573242</t>
   </si>
   <si>
     <t xml:space="preserve">16.3733901977539</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2716903686523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6106872558594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4242382049561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3903388977051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7378101348877</t>
+    <t xml:space="preserve">16.271692276001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6106853485107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4242362976074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3903408050537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7378082275391</t>
   </si>
   <si>
     <t xml:space="preserve">16.8140811920166</t>
@@ -1628,10 +1628,10 @@
     <t xml:space="preserve">16.7039089202881</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4581680297852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2717247009277</t>
+    <t xml:space="preserve">17.4581699371338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2717227935791</t>
   </si>
   <si>
     <t xml:space="preserve">17.153076171875</t>
@@ -1640,10 +1640,10 @@
     <t xml:space="preserve">17.3225727081299</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4920673370361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6446151733398</t>
+    <t xml:space="preserve">17.4920692443848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6446170806885</t>
   </si>
   <si>
     <t xml:space="preserve">17.7971630096436</t>
@@ -1655,22 +1655,22 @@
     <t xml:space="preserve">18.4073524475098</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3395538330078</t>
+    <t xml:space="preserve">18.3395519256592</t>
   </si>
   <si>
     <t xml:space="preserve">17.9836082458496</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0514068603516</t>
+    <t xml:space="preserve">18.0514087677002</t>
   </si>
   <si>
     <t xml:space="preserve">17.6615657806396</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2378253936768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5768146514893</t>
+    <t xml:space="preserve">17.2378234863281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5768165588379</t>
   </si>
   <si>
     <t xml:space="preserve">17.7293643951416</t>
@@ -1679,16 +1679,16 @@
     <t xml:space="preserve">17.8819122314453</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4412517547607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1531066894531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9158096313477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9497089385986</t>
+    <t xml:space="preserve">18.4412498474121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1531085968018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9158115386963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9497108459473</t>
   </si>
   <si>
     <t xml:space="preserve">17.8988647460938</t>
@@ -1697,34 +1697,34 @@
     <t xml:space="preserve">17.7463130950928</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7124137878418</t>
+    <t xml:space="preserve">17.7124156951904</t>
   </si>
   <si>
     <t xml:space="preserve">17.6276664733887</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7632617950439</t>
+    <t xml:space="preserve">17.7632656097412</t>
   </si>
   <si>
     <t xml:space="preserve">17.3056240081787</t>
   </si>
   <si>
-    <t xml:space="preserve">16.873405456543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1869735717773</t>
+    <t xml:space="preserve">16.8734073638916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.186975479126</t>
   </si>
   <si>
     <t xml:space="preserve">17.2039241790771</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3903713226318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2886734008789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2547740936279</t>
+    <t xml:space="preserve">17.3903732299805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2886714935303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2547760009766</t>
   </si>
   <si>
     <t xml:space="preserve">17.2208728790283</t>
@@ -1736,25 +1736,25 @@
     <t xml:space="preserve">17.4242687225342</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5429172515869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8141117095947</t>
+    <t xml:space="preserve">17.5429191589355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8141136169434</t>
   </si>
   <si>
     <t xml:space="preserve">17.5937671661377</t>
   </si>
   <si>
-    <t xml:space="preserve">17.373420715332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1700267791748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.500545501709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2462978363037</t>
+    <t xml:space="preserve">17.3734226226807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1700229644775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5005435943604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2462997436523</t>
   </si>
   <si>
     <t xml:space="preserve">17.3310489654541</t>
@@ -1763,25 +1763,25 @@
     <t xml:space="preserve">17.4157943725586</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1615505218506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0344295501709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5852909088135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6700420379639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3480243682861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.136157989502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0937824249268</t>
+    <t xml:space="preserve">17.161548614502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0344276428223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5852928161621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6700401306152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.348030090332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1361560821533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0937843322754</t>
   </si>
   <si>
     <t xml:space="preserve">17.8395385742188</t>
@@ -1793,10 +1793,10 @@
     <t xml:space="preserve">17.754789352417</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9242877960205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1785297393799</t>
+    <t xml:space="preserve">17.9242839813232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1785316467285</t>
   </si>
   <si>
     <t xml:space="preserve">17.9148921966553</t>
@@ -1805,10 +1805,10 @@
     <t xml:space="preserve">18.0909595489502</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9589099884033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8268585205078</t>
+    <t xml:space="preserve">17.9589080810547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8268604278564</t>
   </si>
   <si>
     <t xml:space="preserve">18.2670269012451</t>
@@ -1817,25 +1817,25 @@
     <t xml:space="preserve">18.1789951324463</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2230110168457</t>
+    <t xml:space="preserve">18.2230129241943</t>
   </si>
   <si>
     <t xml:space="preserve">18.4871120452881</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4430961608887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5311298370361</t>
+    <t xml:space="preserve">18.4430980682373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5311279296875</t>
   </si>
   <si>
     <t xml:space="preserve">18.3550624847412</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0029277801514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.782844543457</t>
+    <t xml:space="preserve">18.0029258728027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7828426361084</t>
   </si>
   <si>
     <t xml:space="preserve">17.6507911682129</t>
@@ -1856,31 +1856,31 @@
     <t xml:space="preserve">18.7512130737305</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5751476287842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6191654205322</t>
+    <t xml:space="preserve">18.5751495361328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6191635131836</t>
   </si>
   <si>
     <t xml:space="preserve">18.3110446929932</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7388229370117</t>
+    <t xml:space="preserve">17.7388248443604</t>
   </si>
   <si>
     <t xml:space="preserve">17.4307060241699</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3778858184814</t>
+    <t xml:space="preserve">17.3778839111328</t>
   </si>
   <si>
     <t xml:space="preserve">17.2370319366455</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1666049957275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2722454071045</t>
+    <t xml:space="preserve">17.1666030883789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2722473144531</t>
   </si>
   <si>
     <t xml:space="preserve">17.1137828826904</t>
@@ -1901,7 +1901,7 @@
     <t xml:space="preserve">17.060962677002</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4799423217773</t>
+    <t xml:space="preserve">16.4799404144287</t>
   </si>
   <si>
     <t xml:space="preserve">16.3743000030518</t>
@@ -1919,13 +1919,13 @@
     <t xml:space="preserve">16.6560077667236</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5679721832275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4095134735107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3919086456299</t>
+    <t xml:space="preserve">16.5679740905762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4095115661621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3919067382812</t>
   </si>
   <si>
     <t xml:space="preserve">16.3214797973633</t>
@@ -1934,7 +1934,7 @@
     <t xml:space="preserve">16.2334461212158</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9025020599365</t>
+    <t xml:space="preserve">16.9025039672852</t>
   </si>
   <si>
     <t xml:space="preserve">17.2898502349854</t>
@@ -1943,13 +1943,13 @@
     <t xml:space="preserve">17.3954925537109</t>
   </si>
   <si>
-    <t xml:space="preserve">17.448314666748</t>
+    <t xml:space="preserve">17.4483127593994</t>
   </si>
   <si>
     <t xml:space="preserve">17.6948089599609</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0593299865723</t>
+    <t xml:space="preserve">19.0593318939209</t>
   </si>
   <si>
     <t xml:space="preserve">18.1349754333496</t>
@@ -1958,19 +1958,19 @@
     <t xml:space="preserve">18.3990783691406</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8708744049072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6067733764648</t>
+    <t xml:space="preserve">17.8708724975586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6067752838135</t>
   </si>
   <si>
     <t xml:space="preserve">17.2546405792236</t>
   </si>
   <si>
-    <t xml:space="preserve">16.849681854248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.884895324707</t>
+    <t xml:space="preserve">16.8496837615967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8848972320557</t>
   </si>
   <si>
     <t xml:space="preserve">17.1489963531494</t>
@@ -1979,22 +1979,22 @@
     <t xml:space="preserve">17.1313896179199</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4835262298584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7264347076416</t>
+    <t xml:space="preserve">17.483528137207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7264366149902</t>
   </si>
   <si>
     <t xml:space="preserve">16.6384010314941</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5503673553467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4271221160889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7088279724121</t>
+    <t xml:space="preserve">16.550365447998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4271202087402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7088298797607</t>
   </si>
   <si>
     <t xml:space="preserve">16.6736164093018</t>
@@ -2015,37 +2015,37 @@
     <t xml:space="preserve">18.663179397583</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0469417572021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.219425201416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.990535736084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.184211730957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5715599060059</t>
+    <t xml:space="preserve">18.0469436645508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2194232940674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9905376434326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1842098236084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5715579986572</t>
   </si>
   <si>
     <t xml:space="preserve">15.4235343933105</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7052431106567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0537919998169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7896881103516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4727687835693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2614870071411</t>
+    <t xml:space="preserve">15.7052412033081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0537929534912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7896890640259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.472767829895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2614879608154</t>
   </si>
   <si>
     <t xml:space="preserve">14.0854187011719</t>
@@ -2057,16 +2057,16 @@
     <t xml:space="preserve">12.4832029342651</t>
   </si>
   <si>
-    <t xml:space="preserve">12.694483757019</t>
+    <t xml:space="preserve">12.6944847106934</t>
   </si>
   <si>
     <t xml:space="preserve">13.1874732971191</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7085046768188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1838884353638</t>
+    <t xml:space="preserve">11.7085037231445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1838874816895</t>
   </si>
   <si>
     <t xml:space="preserve">10.7929525375366</t>
@@ -2078,19 +2078,19 @@
     <t xml:space="preserve">10.5640640258789</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9514131546021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6064481735229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2050809860229</t>
+    <t xml:space="preserve">10.9514122009277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6064491271973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2050800323486</t>
   </si>
   <si>
     <t xml:space="preserve">13.6452503204346</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9233722686768</t>
+    <t xml:space="preserve">12.9233713150024</t>
   </si>
   <si>
     <t xml:space="preserve">13.0466194152832</t>
@@ -2102,7 +2102,7 @@
     <t xml:space="preserve">11.5852565765381</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3211555480957</t>
+    <t xml:space="preserve">11.3211545944214</t>
   </si>
   <si>
     <t xml:space="preserve">10.8281660079956</t>
@@ -2111,16 +2111,16 @@
     <t xml:space="preserve">11.0922679901123</t>
   </si>
   <si>
-    <t xml:space="preserve">11.162693977356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1803007125854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0394477844238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7753448486328</t>
+    <t xml:space="preserve">11.1626949310303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1803016662598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0394468307495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7753458023071</t>
   </si>
   <si>
     <t xml:space="preserve">10.6697044372559</t>
@@ -2132,22 +2132,22 @@
     <t xml:space="preserve">11.1098747253418</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3563680648804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9338073730469</t>
+    <t xml:space="preserve">11.3563690185547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9338054656982</t>
   </si>
   <si>
     <t xml:space="preserve">10.6873121261597</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8809862136841</t>
+    <t xml:space="preserve">10.8809871673584</t>
   </si>
   <si>
     <t xml:space="preserve">10.6168851852417</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6520986557007</t>
+    <t xml:space="preserve">10.6520977020264</t>
   </si>
   <si>
     <t xml:space="preserve">10.7401323318481</t>
@@ -2159,13 +2159,13 @@
     <t xml:space="preserve">10.0358610153198</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0886812210083</t>
+    <t xml:space="preserve">10.0886821746826</t>
   </si>
   <si>
     <t xml:space="preserve">9.89500617980957</t>
   </si>
   <si>
-    <t xml:space="preserve">9.70133209228516</t>
+    <t xml:space="preserve">9.70133304595947</t>
   </si>
   <si>
     <t xml:space="preserve">9.63090515136719</t>
@@ -2177,7 +2177,7 @@
     <t xml:space="preserve">10.7577381134033</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2999629974365</t>
+    <t xml:space="preserve">10.2999620437622</t>
   </si>
   <si>
     <t xml:space="preserve">9.96543312072754</t>
@@ -2189,7 +2189,7 @@
     <t xml:space="preserve">10.8457727432251</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0570545196533</t>
+    <t xml:space="preserve">11.057053565979</t>
   </si>
   <si>
     <t xml:space="preserve">11.6732921600342</t>
@@ -2207,7 +2207,7 @@
     <t xml:space="preserve">11.5500431060791</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5360231399536</t>
+    <t xml:space="preserve">12.5360221862793</t>
   </si>
   <si>
     <t xml:space="preserve">12.5008087158203</t>
@@ -2222,22 +2222,22 @@
     <t xml:space="preserve">11.3387613296509</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6204710006714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6380777359009</t>
+    <t xml:space="preserve">11.6204700469971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6380786895752</t>
   </si>
   <si>
     <t xml:space="preserve">11.9549989700317</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9726057052612</t>
+    <t xml:space="preserve">11.9726066589355</t>
   </si>
   <si>
     <t xml:space="preserve">11.8669652938843</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0254259109497</t>
+    <t xml:space="preserve">12.025426864624</t>
   </si>
   <si>
     <t xml:space="preserve">11.9902124404907</t>
@@ -2246,7 +2246,7 @@
     <t xml:space="preserve">11.7613248825073</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6908979415894</t>
+    <t xml:space="preserve">11.690896987915</t>
   </si>
   <si>
     <t xml:space="preserve">11.7437181472778</t>
@@ -2255,16 +2255,16 @@
     <t xml:space="preserve">11.4972238540649</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5148305892944</t>
+    <t xml:space="preserve">11.5148296356201</t>
   </si>
   <si>
     <t xml:space="preserve">11.2331218719482</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0218410491943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3035488128662</t>
+    <t xml:space="preserve">11.02184009552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3035478591919</t>
   </si>
   <si>
     <t xml:space="preserve">10.986626625061</t>
@@ -2282,58 +2282,58 @@
     <t xml:space="preserve">11.1450881958008</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2683353424072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1274824142456</t>
+    <t xml:space="preserve">11.2683362960815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1274814605713</t>
   </si>
   <si>
     <t xml:space="preserve">10.6344909667969</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9690198898315</t>
+    <t xml:space="preserve">10.9690208435059</t>
   </si>
   <si>
     <t xml:space="preserve">11.4444026947021</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2507276535034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8141460418701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1134595870972</t>
+    <t xml:space="preserve">11.2507295608521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8141450881958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1134605407715</t>
   </si>
   <si>
     <t xml:space="preserve">12.1310663223267</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9197854995728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5324373245239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0078201293945</t>
+    <t xml:space="preserve">11.9197864532471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5324382781982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0078210830688</t>
   </si>
   <si>
     <t xml:space="preserve">12.0958528518677</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2190999984741</t>
+    <t xml:space="preserve">12.2191009521484</t>
   </si>
   <si>
     <t xml:space="preserve">12.5888442993164</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9585866928101</t>
+    <t xml:space="preserve">12.9585857391357</t>
   </si>
   <si>
     <t xml:space="preserve">12.7120904922485</t>
   </si>
   <si>
-    <t xml:space="preserve">12.800124168396</t>
+    <t xml:space="preserve">12.8001251220703</t>
   </si>
   <si>
     <t xml:space="preserve">13.0114049911499</t>
@@ -2342,16 +2342,16 @@
     <t xml:space="preserve">12.0782470703125</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7965393066406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2859411239624</t>
+    <t xml:space="preserve">11.7965383529663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2859420776367</t>
   </si>
   <si>
     <t xml:space="preserve">10.8985929489136</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1415023803711</t>
+    <t xml:space="preserve">10.1415014266968</t>
   </si>
   <si>
     <t xml:space="preserve">10.2119293212891</t>
@@ -2375,16 +2375,16 @@
     <t xml:space="preserve">12.9409790039062</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6276426315308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.138237953186</t>
+    <t xml:space="preserve">13.6276435852051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1382389068604</t>
   </si>
   <si>
     <t xml:space="preserve">13.1698665618896</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0290126800537</t>
+    <t xml:space="preserve">13.0290117263794</t>
   </si>
   <si>
     <t xml:space="preserve">13.5043954849243</t>
@@ -2402,25 +2402,25 @@
     <t xml:space="preserve">13.874137878418</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8213176727295</t>
+    <t xml:space="preserve">13.8213167190552</t>
   </si>
   <si>
     <t xml:space="preserve">13.8917446136475</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8389253616333</t>
+    <t xml:space="preserve">13.838924407959</t>
   </si>
   <si>
     <t xml:space="preserve">13.4515752792358</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2226886749268</t>
+    <t xml:space="preserve">13.2226877212524</t>
   </si>
   <si>
     <t xml:space="preserve">13.2755069732666</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5220022201538</t>
+    <t xml:space="preserve">13.5220031738281</t>
   </si>
   <si>
     <t xml:space="preserve">13.1346530914307</t>
@@ -2435,7 +2435,7 @@
     <t xml:space="preserve">13.7508897781372</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7156772613525</t>
+    <t xml:space="preserve">13.7156763076782</t>
   </si>
   <si>
     <t xml:space="preserve">14.3671274185181</t>
@@ -2444,31 +2444,31 @@
     <t xml:space="preserve">14.842511177063</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2474660873413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4763536453247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5995998382568</t>
+    <t xml:space="preserve">15.247465133667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.476354598999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5996026992798</t>
   </si>
   <si>
     <t xml:space="preserve">15.6700277328491</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5291748046875</t>
+    <t xml:space="preserve">15.5291738510132</t>
   </si>
   <si>
     <t xml:space="preserve">14.9657573699951</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3178939819336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6876363754272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6524229049683</t>
+    <t xml:space="preserve">15.3178911209106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6876344680786</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6524219512939</t>
   </si>
   <si>
     <t xml:space="preserve">15.3883190155029</t>
@@ -2477,10 +2477,10 @@
     <t xml:space="preserve">15.2298593521118</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1242189407349</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1066131591797</t>
+    <t xml:space="preserve">15.1242198944092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1066122055054</t>
   </si>
   <si>
     <t xml:space="preserve">14.6312294006348</t>
@@ -2492,10 +2492,10 @@
     <t xml:space="preserve">14.912938117981</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1594305038452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9693422317505</t>
+    <t xml:space="preserve">15.1594314575195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9693441390991</t>
   </si>
   <si>
     <t xml:space="preserve">15.8460960388184</t>
@@ -2504,7 +2504,7 @@
     <t xml:space="preserve">16.3390846252441</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2862663269043</t>
+    <t xml:space="preserve">16.2862644195557</t>
   </si>
   <si>
     <t xml:space="preserve">16.9729309082031</t>
@@ -2513,7 +2513,7 @@
     <t xml:space="preserve">15.8108825683594</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8989181518555</t>
+    <t xml:space="preserve">15.8989162445068</t>
   </si>
   <si>
     <t xml:space="preserve">15.8284893035889</t>
@@ -2534,7 +2534,7 @@
     <t xml:space="preserve">17.0785694122314</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0433578491211</t>
+    <t xml:space="preserve">17.0433559417725</t>
   </si>
   <si>
     <t xml:space="preserve">16.5151538848877</t>
@@ -2546,28 +2546,28 @@
     <t xml:space="preserve">16.1982326507568</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1630191802979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0749855041504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4447288513184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.585578918457</t>
+    <t xml:space="preserve">16.1630210876465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0749835968018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4447269439697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5855808258057</t>
   </si>
   <si>
     <t xml:space="preserve">16.1454124450684</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4535312652588</t>
+    <t xml:space="preserve">16.4535293579102</t>
   </si>
   <si>
     <t xml:space="preserve">16.2070350646973</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1894264221191</t>
+    <t xml:space="preserve">16.1894283294678</t>
   </si>
   <si>
     <t xml:space="preserve">16.4975471496582</t>
@@ -2576,7 +2576,7 @@
     <t xml:space="preserve">16.5327606201172</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8232746124268</t>
+    <t xml:space="preserve">16.8232727050781</t>
   </si>
   <si>
     <t xml:space="preserve">16.6824188232422</t>
@@ -2588,7 +2588,7 @@
     <t xml:space="preserve">16.8584880828857</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7176303863525</t>
+    <t xml:space="preserve">16.7176322937012</t>
   </si>
   <si>
     <t xml:space="preserve">16.3831024169922</t>
@@ -2603,13 +2603,13 @@
     <t xml:space="preserve">16.8408794403076</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0697689056396</t>
+    <t xml:space="preserve">17.069766998291</t>
   </si>
   <si>
     <t xml:space="preserve">17.0961761474609</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4747219085693</t>
+    <t xml:space="preserve">17.474723815918</t>
   </si>
   <si>
     <t xml:space="preserve">17.6419887542725</t>
@@ -2621,7 +2621,7 @@
     <t xml:space="preserve">17.7300205230713</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9413032531738</t>
+    <t xml:space="preserve">17.9413013458252</t>
   </si>
   <si>
     <t xml:space="preserve">17.9765167236328</t>
@@ -2630,10 +2630,10 @@
     <t xml:space="preserve">18.1877975463867</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3638648986816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5047187805176</t>
+    <t xml:space="preserve">18.3638668060303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5047206878662</t>
   </si>
   <si>
     <t xml:space="preserve">18.5223274230957</t>
@@ -2651,10 +2651,10 @@
     <t xml:space="preserve">18.0997619628906</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0821552276611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9236965179443</t>
+    <t xml:space="preserve">18.0821571350098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9236946105957</t>
   </si>
   <si>
     <t xml:space="preserve">17.8004493713379</t>
@@ -2663,13 +2663,13 @@
     <t xml:space="preserve">17.8884811401367</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2582225799561</t>
+    <t xml:space="preserve">18.2582244873047</t>
   </si>
   <si>
     <t xml:space="preserve">18.1525840759277</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1701889038086</t>
+    <t xml:space="preserve">18.1701908111572</t>
   </si>
   <si>
     <t xml:space="preserve">17.7652359008789</t>
@@ -2681,16 +2681,16 @@
     <t xml:space="preserve">18.3286514282227</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9060897827148</t>
+    <t xml:space="preserve">17.9060878753662</t>
   </si>
   <si>
     <t xml:space="preserve">16.8936996459961</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2018203735352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2282295227051</t>
+    <t xml:space="preserve">17.2018184661865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2282276153564</t>
   </si>
   <si>
     <t xml:space="preserve">17.624382019043</t>
@@ -2705,7 +2705,7 @@
     <t xml:space="preserve">19.2794170379639</t>
   </si>
   <si>
-    <t xml:space="preserve">18.698392868042</t>
+    <t xml:space="preserve">18.6983909606934</t>
   </si>
   <si>
     <t xml:space="preserve">19.1913833618164</t>
@@ -2714,13 +2714,13 @@
     <t xml:space="preserve">18.7336082458496</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8920669555664</t>
+    <t xml:space="preserve">18.8920650482178</t>
   </si>
   <si>
     <t xml:space="preserve">18.4695053100586</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3814697265625</t>
+    <t xml:space="preserve">18.3814716339111</t>
   </si>
   <si>
     <t xml:space="preserve">18.0645503997803</t>
@@ -2729,16 +2729,16 @@
     <t xml:space="preserve">17.8180561065674</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0117282867432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2406158447266</t>
+    <t xml:space="preserve">18.0117301940918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2406177520752</t>
   </si>
   <si>
     <t xml:space="preserve">17.4131011962891</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4219017028809</t>
+    <t xml:space="preserve">17.4219036102295</t>
   </si>
   <si>
     <t xml:space="preserve">17.0345554351807</t>
@@ -2753,7 +2753,7 @@
     <t xml:space="preserve">18.1173686981201</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2934379577637</t>
+    <t xml:space="preserve">18.2934398651123</t>
   </si>
   <si>
     <t xml:space="preserve">18.7688217163086</t>
@@ -2774,25 +2774,25 @@
     <t xml:space="preserve">18.6226081848145</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4793567657471</t>
+    <t xml:space="preserve">18.4793586730957</t>
   </si>
   <si>
     <t xml:space="preserve">18.4435443878174</t>
   </si>
   <si>
-    <t xml:space="preserve">18.747953414917</t>
+    <t xml:space="preserve">18.7479553222656</t>
   </si>
   <si>
     <t xml:space="preserve">18.5151710510254</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5330772399902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2286701202393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0854206085205</t>
+    <t xml:space="preserve">18.5330791473389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2286682128906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0854187011719</t>
   </si>
   <si>
     <t xml:space="preserve">18.0496063232422</t>
@@ -2804,34 +2804,34 @@
     <t xml:space="preserve">17.8974018096924</t>
   </si>
   <si>
-    <t xml:space="preserve">18.139139175415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9063549041748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7810096740723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2644824981689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1990528106689</t>
+    <t xml:space="preserve">18.1391372680664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9063568115234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7810115814209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2644805908203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1990547180176</t>
   </si>
   <si>
     <t xml:space="preserve">17.0826625823975</t>
   </si>
   <si>
-    <t xml:space="preserve">17.136381149292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7603492736816</t>
+    <t xml:space="preserve">17.1363830566406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.760347366333</t>
   </si>
   <si>
     <t xml:space="preserve">16.6529102325439</t>
   </si>
   <si>
-    <t xml:space="preserve">16.831974029541</t>
+    <t xml:space="preserve">16.8319721221924</t>
   </si>
   <si>
     <t xml:space="preserve">16.3574562072754</t>
@@ -2840,52 +2840,52 @@
     <t xml:space="preserve">16.4738464355469</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0261859893799</t>
+    <t xml:space="preserve">16.0261878967285</t>
   </si>
   <si>
     <t xml:space="preserve">16.3664093017578</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5633792877197</t>
+    <t xml:space="preserve">16.5633773803711</t>
   </si>
   <si>
     <t xml:space="preserve">16.5365180969238</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8051128387451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0289421081543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8498783111572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8677845001221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9931297302246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9125518798828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7334899902344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7424430847168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4648914337158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4380340576172</t>
+    <t xml:space="preserve">16.8051147460938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0289440155029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8498802185059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8677864074707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9931316375732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9125499725342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7334880828857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7424411773682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4648933410645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4380359649658</t>
   </si>
   <si>
     <t xml:space="preserve">16.1157188415527</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1694393157959</t>
+    <t xml:space="preserve">16.1694374084473</t>
   </si>
   <si>
     <t xml:space="preserve">16.3395481109619</t>
@@ -2900,10 +2900,10 @@
     <t xml:space="preserve">17.2975387573242</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4586963653564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5454730987549</t>
+    <t xml:space="preserve">17.4586944580078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5454711914062</t>
   </si>
   <si>
     <t xml:space="preserve">16.6618633270264</t>
@@ -2918,10 +2918,10 @@
     <t xml:space="preserve">17.3154449462891</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8946475982666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.002082824707</t>
+    <t xml:space="preserve">16.894645690918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0020847320557</t>
   </si>
   <si>
     <t xml:space="preserve">16.4917526245117</t>
@@ -2936,7 +2936,7 @@
     <t xml:space="preserve">16.4827995300293</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7872066497803</t>
+    <t xml:space="preserve">16.7872085571289</t>
   </si>
   <si>
     <t xml:space="preserve">16.5186138153076</t>
@@ -2951,13 +2951,13 @@
     <t xml:space="preserve">16.8409252166748</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4022197723389</t>
+    <t xml:space="preserve">16.4022216796875</t>
   </si>
   <si>
     <t xml:space="preserve">15.8918905258179</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9456090927124</t>
+    <t xml:space="preserve">15.9456081390381</t>
   </si>
   <si>
     <t xml:space="preserve">16.0978126525879</t>
@@ -2966,10 +2966,10 @@
     <t xml:space="preserve">16.3843154907227</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5902366638184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4290790557861</t>
+    <t xml:space="preserve">16.590238571167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4290828704834</t>
   </si>
   <si>
     <t xml:space="preserve">16.0888595581055</t>
@@ -2993,13 +2993,13 @@
     <t xml:space="preserve">14.2534589767456</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4235687255859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9490509033203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5103454589844</t>
+    <t xml:space="preserve">14.4235696792603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.949049949646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5103445053101</t>
   </si>
   <si>
     <t xml:space="preserve">13.3760471343994</t>
@@ -3008,13 +3008,13 @@
     <t xml:space="preserve">13.6983613967896</t>
   </si>
   <si>
-    <t xml:space="preserve">14.154974937439</t>
+    <t xml:space="preserve">14.1549739837646</t>
   </si>
   <si>
     <t xml:space="preserve">13.9311447143555</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3429908752441</t>
+    <t xml:space="preserve">14.3429899215698</t>
   </si>
   <si>
     <t xml:space="preserve">14.7727422714233</t>
@@ -3032,16 +3032,16 @@
     <t xml:space="preserve">13.7252206802368</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5461568832397</t>
+    <t xml:space="preserve">13.5461578369141</t>
   </si>
   <si>
     <t xml:space="preserve">13.4118595123291</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1790781021118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2507028579712</t>
+    <t xml:space="preserve">13.1790771484375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2507019042969</t>
   </si>
   <si>
     <t xml:space="preserve">13.4655790328979</t>
@@ -3056,7 +3056,7 @@
     <t xml:space="preserve">13.232795715332</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8746690750122</t>
+    <t xml:space="preserve">12.8746700286865</t>
   </si>
   <si>
     <t xml:space="preserve">13.0358266830444</t>
@@ -3080,7 +3080,7 @@
     <t xml:space="preserve">14.2713642120361</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6294918060303</t>
+    <t xml:space="preserve">14.6294927597046</t>
   </si>
   <si>
     <t xml:space="preserve">14.1281137466431</t>
@@ -3089,7 +3089,7 @@
     <t xml:space="preserve">14.0385828018188</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7520799636841</t>
+    <t xml:space="preserve">13.7520809173584</t>
   </si>
   <si>
     <t xml:space="preserve">13.8774251937866</t>
@@ -3107,7 +3107,7 @@
     <t xml:space="preserve">12.9642000198364</t>
   </si>
   <si>
-    <t xml:space="preserve">12.785138130188</t>
+    <t xml:space="preserve">12.7851371765137</t>
   </si>
   <si>
     <t xml:space="preserve">12.6060743331909</t>
@@ -3116,16 +3116,16 @@
     <t xml:space="preserve">12.8925752639771</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9104814529419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9821071624756</t>
+    <t xml:space="preserve">12.9104824066162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9821081161499</t>
   </si>
   <si>
     <t xml:space="preserve">13.2148895263672</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1432647705078</t>
+    <t xml:space="preserve">13.1432638168335</t>
   </si>
   <si>
     <t xml:space="preserve">13.0537328720093</t>
@@ -3134,7 +3134,7 @@
     <t xml:space="preserve">12.5523548126221</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3911981582642</t>
+    <t xml:space="preserve">12.3911972045898</t>
   </si>
   <si>
     <t xml:space="preserve">12.3633937835693</t>
@@ -61530,7 +61530,7 @@
     </row>
     <row r="2196">
       <c r="A2196" s="1" t="n">
-        <v>45520.6494328704</v>
+        <v>45520.2916666667</v>
       </c>
       <c r="B2196" t="n">
         <v>76281</v>
@@ -61551,6 +61551,32 @@
         <v>1368</v>
       </c>
       <c r="H2196" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2197">
+      <c r="A2197" s="1" t="n">
+        <v>45523.6493518519</v>
+      </c>
+      <c r="B2197" t="n">
+        <v>71070</v>
+      </c>
+      <c r="C2197" t="n">
+        <v>11.3999996185303</v>
+      </c>
+      <c r="D2197" t="n">
+        <v>11.2600002288818</v>
+      </c>
+      <c r="E2197" t="n">
+        <v>11.2799997329712</v>
+      </c>
+      <c r="F2197" t="n">
+        <v>11.3199996948242</v>
+      </c>
+      <c r="G2197" t="s">
+        <v>1332</v>
+      </c>
+      <c r="H2197" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/MARR.MI.xlsx
+++ b/data/MARR.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1370" uniqueCount="1370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1371" uniqueCount="1371">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,19 +38,19 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2729787826538</t>
+    <t xml:space="preserve">14.2729797363281</t>
   </si>
   <si>
     <t xml:space="preserve">MARR.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1047010421753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9899663925171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7910938262939</t>
+    <t xml:space="preserve">14.104700088501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9899654388428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7910947799683</t>
   </si>
   <si>
     <t xml:space="preserve">13.7451982498169</t>
@@ -59,13 +59,13 @@
     <t xml:space="preserve">13.3627500534058</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4315919876099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5157308578491</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2021236419678</t>
+    <t xml:space="preserve">13.4315910339355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5157289505005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2021217346191</t>
   </si>
   <si>
     <t xml:space="preserve">13.209771156311</t>
@@ -74,19 +74,19 @@
     <t xml:space="preserve">12.7202367782593</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8273239135742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3607349395752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9650058746338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6228141784668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4545392990112</t>
+    <t xml:space="preserve">12.8273229598999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3607339859009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9650039672852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6228151321411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4545402526855</t>
   </si>
   <si>
     <t xml:space="preserve">13.3321561813354</t>
@@ -95,10 +95,10 @@
     <t xml:space="preserve">13.3245058059692</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4162950515747</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.500431060791</t>
+    <t xml:space="preserve">13.4162931442261</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5004301071167</t>
   </si>
   <si>
     <t xml:space="preserve">13.7681455612183</t>
@@ -110,10 +110,10 @@
     <t xml:space="preserve">13.0873889923096</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2786130905151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0491428375244</t>
+    <t xml:space="preserve">13.2786140441895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0491409301758</t>
   </si>
   <si>
     <t xml:space="preserve">12.1083202362061</t>
@@ -122,10 +122,10 @@
     <t xml:space="preserve">12.1542139053345</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6131505966187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2995443344116</t>
+    <t xml:space="preserve">12.613151550293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2995452880859</t>
   </si>
   <si>
     <t xml:space="preserve">12.6208000183105</t>
@@ -134,13 +134,13 @@
     <t xml:space="preserve">12.6590452194214</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7814273834229</t>
+    <t xml:space="preserve">12.7814292907715</t>
   </si>
   <si>
     <t xml:space="preserve">12.9497060775757</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1562299728394</t>
+    <t xml:space="preserve">13.1562280654907</t>
   </si>
   <si>
     <t xml:space="preserve">13.4851331710815</t>
@@ -152,40 +152,40 @@
     <t xml:space="preserve">13.3474531173706</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7299013137817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9670190811157</t>
+    <t xml:space="preserve">13.7299003601074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.96702003479</t>
   </si>
   <si>
     <t xml:space="preserve">13.737548828125</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8752307891846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6763572692871</t>
+    <t xml:space="preserve">13.8752317428589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6763582229614</t>
   </si>
   <si>
     <t xml:space="preserve">13.370400428772</t>
   </si>
   <si>
-    <t xml:space="preserve">12.819673538208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1179838180542</t>
+    <t xml:space="preserve">12.8196744918823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1179819107056</t>
   </si>
   <si>
     <t xml:space="preserve">13.4468908309937</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5998687744141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4774875640869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.661060333252</t>
+    <t xml:space="preserve">13.5998706817627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4774866104126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6610612869263</t>
   </si>
   <si>
     <t xml:space="preserve">13.2174215316772</t>
@@ -194,40 +194,40 @@
     <t xml:space="preserve">13.1026859283447</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4621887207031</t>
+    <t xml:space="preserve">13.4621858596802</t>
   </si>
   <si>
     <t xml:space="preserve">13.5386772155762</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9593706130981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0817556381226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1505947113037</t>
+    <t xml:space="preserve">13.9593715667725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0817537307739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1505966186523</t>
   </si>
   <si>
     <t xml:space="preserve">13.8828811645508</t>
   </si>
   <si>
-    <t xml:space="preserve">13.997615814209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0741062164307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5483407974243</t>
+    <t xml:space="preserve">13.9976148605347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0741033554077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5483427047729</t>
   </si>
   <si>
     <t xml:space="preserve">14.3188714981079</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1658926010132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7987403869629</t>
+    <t xml:space="preserve">14.1658935546875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7987432479858</t>
   </si>
   <si>
     <t xml:space="preserve">13.6916551589966</t>
@@ -239,283 +239,286 @@
     <t xml:space="preserve">13.5769214630127</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8599348068237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9058265686035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5922203063965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0970525741577</t>
+    <t xml:space="preserve">13.8599367141724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9058275222778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5922212600708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0970516204834</t>
   </si>
   <si>
     <t xml:space="preserve">13.9440727233887</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6304636001587</t>
+    <t xml:space="preserve">13.6304655075073</t>
   </si>
   <si>
     <t xml:space="preserve">13.6840076446533</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6993045806885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8216905593872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4392404556274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6687107086182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4086446762085</t>
+    <t xml:space="preserve">13.6993055343628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8216886520386</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4392414093018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6687116622925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4086456298828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5310297012329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8250074386597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8170623779297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0713157653809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0633707046509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2540607452393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3096790313721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.126935005188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0792598724365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3017339706421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1904983520508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1030979156494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0872068405151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0951519012451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5866470336914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6740455627441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.388011932373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0701961517334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2132110595703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5945920944214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5787010192871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8806257247925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.205267906189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5060710906982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0384130477905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.51513671875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2461156845093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3573503494263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8567914962769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2778949737549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1507692337036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6036577224731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5718755722046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5639305114746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3652954101562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3176240921021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5798215866089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.87380027771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5480375289917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6990051269531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9770927429199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8340740203857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9453105926514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5877685546875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8579111099243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3335151672363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4765291213989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5003690719604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.444748878479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1666584014893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2381687164307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0315885543823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8885717391968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9044628143311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8647365570068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0474805831909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9521341323853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7217178344727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.015697479248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9124069213867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0077514648438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9203538894653</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8091163635254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.705828666687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6502103805542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7376098632812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9998083114624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2302255630493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1746082305908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0236415863037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1587162017822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7614459991455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6661014556885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.61842918396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7773370742798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5469188690186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4913015365601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6581563949585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5389738082886</t>
   </si>
   <si>
     <t xml:space="preserve">13.5310287475586</t>
   </si>
   <si>
-    <t xml:space="preserve">13.825008392334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8170623779297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0713148117065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0633716583252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2540597915649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3096771240234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.126935005188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0792617797852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3017330169678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1904973983765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1030979156494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0872058868408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0951519012451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5866460800171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6740455627441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3880109786987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0701942443848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2132120132446</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5945920944214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5787010192871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8806266784668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2052688598633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5060701370239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0384130477905</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.51513671875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.246114730835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3573513031006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8567895889282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2778968811035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1507711410522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6036577224731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5718765258789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5639305114746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3652944564819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3176240921021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5798234939575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.87380027771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5480394363403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6990022659302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9770936965942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8340768814087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9453086853027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5877676010132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8579139709473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3335161209106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4765310287476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5003671646118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.444748878479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1666622161865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.238169670105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0315895080566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8885698318481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9044628143311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8647356033325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0474805831909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9521341323853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.721718788147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.015697479248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.912407875061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0077514648438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9203538894653</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8091163635254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7058277130127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6502103805542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7376098632812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9998073577881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2302236557007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1746053695679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.023642539978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1587152481079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7614450454712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6661014556885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6184272766113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7773370742798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5469188690186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4913015365601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6581544876099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5389757156372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4595203399658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3482828140259</t>
+    <t xml:space="preserve">13.4595193862915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3482837677002</t>
   </si>
   <si>
     <t xml:space="preserve">13.3165035247803</t>
@@ -527,19 +530,19 @@
     <t xml:space="preserve">13.3323936462402</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3244485855103</t>
+    <t xml:space="preserve">13.3244476318359</t>
   </si>
   <si>
     <t xml:space="preserve">13.1814308166504</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0304679870605</t>
+    <t xml:space="preserve">13.0304670333862</t>
   </si>
   <si>
     <t xml:space="preserve">13.2370481491089</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2688322067261</t>
+    <t xml:space="preserve">13.2688302993774</t>
   </si>
   <si>
     <t xml:space="preserve">13.1575927734375</t>
@@ -548,82 +551,82 @@
     <t xml:space="preserve">12.7126522064209</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1178674697876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2608861923218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1417055130005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1655397415161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0225210189819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9112854003906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0066328048706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.094030380249</t>
+    <t xml:space="preserve">13.1178684234619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2608852386475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1417045593262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1655387878418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0225219726562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9112863540649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0066318511963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0940313339233</t>
   </si>
   <si>
     <t xml:space="preserve">13.0781402587891</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5071926116943</t>
+    <t xml:space="preserve">13.50719165802</t>
   </si>
   <si>
     <t xml:space="preserve">13.4515743255615</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5707540512085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8965187072754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7455530166626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9362459182739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7852811813354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.944188117981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9680261611938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9918632507324</t>
+    <t xml:space="preserve">13.5707550048828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8965158462524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7455539703369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9362449645996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7852830886841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9441900253296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9680252075195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9918613433838</t>
   </si>
   <si>
     <t xml:space="preserve">13.9759721755981</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0395345687866</t>
+    <t xml:space="preserve">14.0395336151123</t>
   </si>
   <si>
     <t xml:space="preserve">13.801173210144</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9839162826538</t>
+    <t xml:space="preserve">13.9839143753052</t>
   </si>
   <si>
     <t xml:space="preserve">14.2222785949707</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2063903808594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7148933410645</t>
+    <t xml:space="preserve">14.2063875198364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7148942947388</t>
   </si>
   <si>
     <t xml:space="preserve">14.7705116271973</t>
@@ -632,73 +635,73 @@
     <t xml:space="preserve">14.349404335022</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2699508666992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1825513839722</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2858419418335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.341459274292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2620067596436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6751651763916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4606418609619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6513319015503</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6274948120117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.540093421936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6910552978516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5162601470947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7069492340088</t>
+    <t xml:space="preserve">14.2699499130249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1825523376465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2858428955078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3414611816406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2620048522949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6751661300659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4606399536133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.651330947876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6274938583374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5400943756104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6910591125488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5162591934204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7069501876831</t>
   </si>
   <si>
     <t xml:space="preserve">14.6116046905518</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3970794677734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7466735839844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2154541015625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4538202285767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4061431884766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5968332290649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8908138275146</t>
+    <t xml:space="preserve">14.3970804214478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7466745376587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2154560089111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4538173675537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4061450958252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5968322753906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8908157348633</t>
   </si>
   <si>
     <t xml:space="preserve">15.8510885238647</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8590326309204</t>
+    <t xml:space="preserve">15.8590335845947</t>
   </si>
   <si>
     <t xml:space="preserve">15.7319049835205</t>
@@ -707,19 +710,19 @@
     <t xml:space="preserve">16.1371231079102</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6774082183838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0656108856201</t>
+    <t xml:space="preserve">16.6774101257324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0656127929688</t>
   </si>
   <si>
     <t xml:space="preserve">16.0894508361816</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2245235443115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.30397605896</t>
+    <t xml:space="preserve">16.2245216369629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3039741516113</t>
   </si>
   <si>
     <t xml:space="preserve">16.1609573364258</t>
@@ -734,25 +737,25 @@
     <t xml:space="preserve">16.6853561401367</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4867191314697</t>
+    <t xml:space="preserve">16.4867210388184</t>
   </si>
   <si>
     <t xml:space="preserve">16.4072647094727</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0973949432373</t>
+    <t xml:space="preserve">16.0973930358887</t>
   </si>
   <si>
     <t xml:space="preserve">16.1291751861572</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5026073455811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3675365447998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5582275390625</t>
+    <t xml:space="preserve">16.5026111602783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3675384521484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5582294464111</t>
   </si>
   <si>
     <t xml:space="preserve">16.605899810791</t>
@@ -764,25 +767,25 @@
     <t xml:space="preserve">16.5423374176025</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8839912414551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4322242736816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.114408493042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6615200042725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2812595367432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3289337158203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2574253082275</t>
+    <t xml:space="preserve">16.8839893341064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.432222366333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1144065856934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6615180969238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2812614440918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3289318084717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2574214935303</t>
   </si>
   <si>
     <t xml:space="preserve">17.2653694152832</t>
@@ -794,16 +797,16 @@
     <t xml:space="preserve">17.8136024475098</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6864795684814</t>
+    <t xml:space="preserve">17.6864776611328</t>
   </si>
   <si>
     <t xml:space="preserve">17.5355129241943</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4560623168945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6626415252686</t>
+    <t xml:space="preserve">17.4560585021973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6626396179199</t>
   </si>
   <si>
     <t xml:space="preserve">18.1234741210938</t>
@@ -812,7 +815,7 @@
     <t xml:space="preserve">17.8294944763184</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7738780975342</t>
+    <t xml:space="preserve">17.7738761901855</t>
   </si>
   <si>
     <t xml:space="preserve">17.9089488983154</t>
@@ -824,7 +827,7 @@
     <t xml:space="preserve">18.1552543640137</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4004421234131</t>
+    <t xml:space="preserve">17.4004402160645</t>
   </si>
   <si>
     <t xml:space="preserve">17.5196208953857</t>
@@ -833,16 +836,16 @@
     <t xml:space="preserve">17.7083606719971</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2499485015869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2171249389648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0530090332031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7904186248779</t>
+    <t xml:space="preserve">18.2499504089355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2171268463135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0530071258545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7904167175293</t>
   </si>
   <si>
     <t xml:space="preserve">17.6509170532227</t>
@@ -851,10 +854,10 @@
     <t xml:space="preserve">17.8806838989258</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0694198608398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9791507720947</t>
+    <t xml:space="preserve">18.0694179534912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.979154586792</t>
   </si>
   <si>
     <t xml:space="preserve">17.7986240386963</t>
@@ -863,28 +866,28 @@
     <t xml:space="preserve">18.0365943908691</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1760940551758</t>
+    <t xml:space="preserve">18.1760959625244</t>
   </si>
   <si>
     <t xml:space="preserve">17.9955654144287</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5606536865234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7411804199219</t>
+    <t xml:space="preserve">17.5606517791748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7411823272705</t>
   </si>
   <si>
     <t xml:space="preserve">17.8888893127441</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7740039825439</t>
+    <t xml:space="preserve">17.7740058898926</t>
   </si>
   <si>
     <t xml:space="preserve">18.0858325958252</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7575950622559</t>
+    <t xml:space="preserve">17.7575931549072</t>
   </si>
   <si>
     <t xml:space="preserve">17.5524444580078</t>
@@ -896,31 +899,31 @@
     <t xml:space="preserve">17.6427116394043</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7329750061035</t>
+    <t xml:space="preserve">17.7329769134521</t>
   </si>
   <si>
     <t xml:space="preserve">17.7493877410889</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1749744415283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0765037536621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0682983398438</t>
+    <t xml:space="preserve">17.174976348877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0765018463135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0682964324951</t>
   </si>
   <si>
     <t xml:space="preserve">17.1503562927246</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9123840332031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2324142456055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0600929260254</t>
+    <t xml:space="preserve">16.9123859405518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2324161529541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0600910186768</t>
   </si>
   <si>
     <t xml:space="preserve">16.9780330657959</t>
@@ -932,10 +935,10 @@
     <t xml:space="preserve">17.5032119750977</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9299201965332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2991809844971</t>
+    <t xml:space="preserve">17.9299182891846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2991828918457</t>
   </si>
   <si>
     <t xml:space="preserve">18.1022415161133</t>
@@ -944,10 +947,10 @@
     <t xml:space="preserve">18.3484191894531</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3566265106201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4633045196533</t>
+    <t xml:space="preserve">18.3566303253174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4633026123047</t>
   </si>
   <si>
     <t xml:space="preserve">17.8642711639404</t>
@@ -956,22 +959,22 @@
     <t xml:space="preserve">18.3402137756348</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7247714996338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5688591003418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4950046539307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8068313598633</t>
+    <t xml:space="preserve">17.7247695922852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5688571929932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.495002746582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.806827545166</t>
   </si>
   <si>
     <t xml:space="preserve">17.5278301239014</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3883285522461</t>
+    <t xml:space="preserve">17.3883266448975</t>
   </si>
   <si>
     <t xml:space="preserve">17.4047393798828</t>
@@ -980,19 +983,19 @@
     <t xml:space="preserve">17.2734451293945</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2242107391357</t>
+    <t xml:space="preserve">17.2242088317871</t>
   </si>
   <si>
     <t xml:space="preserve">17.04368019104</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9452075958252</t>
+    <t xml:space="preserve">16.9452095031738</t>
   </si>
   <si>
     <t xml:space="preserve">16.9287967681885</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0190601348877</t>
+    <t xml:space="preserve">17.019063949585</t>
   </si>
   <si>
     <t xml:space="preserve">17.2816505432129</t>
@@ -1001,16 +1004,16 @@
     <t xml:space="preserve">17.4211502075195</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6262989044189</t>
+    <t xml:space="preserve">17.6263008117676</t>
   </si>
   <si>
     <t xml:space="preserve">17.6098861694336</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9709491729736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0940380096436</t>
+    <t xml:space="preserve">17.970947265625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0940361022949</t>
   </si>
   <si>
     <t xml:space="preserve">18.323802947998</t>
@@ -1025,34 +1028,34 @@
     <t xml:space="preserve">18.1104469299316</t>
   </si>
   <si>
-    <t xml:space="preserve">18.126859664917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.332010269165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3648319244385</t>
+    <t xml:space="preserve">18.1268615722656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3320083618164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3648300170898</t>
   </si>
   <si>
     <t xml:space="preserve">18.438684463501</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3812408447266</t>
+    <t xml:space="preserve">18.3812427520752</t>
   </si>
   <si>
     <t xml:space="preserve">18.6356258392334</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6684513092041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5371589660645</t>
+    <t xml:space="preserve">18.6684532165527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5371570587158</t>
   </si>
   <si>
     <t xml:space="preserve">18.8079509735107</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6520404815674</t>
+    <t xml:space="preserve">18.6520366668701</t>
   </si>
   <si>
     <t xml:space="preserve">18.6192150115967</t>
@@ -1064,31 +1067,31 @@
     <t xml:space="preserve">19.2182464599609</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1443939208984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6930694580078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7669219970703</t>
+    <t xml:space="preserve">19.1443920135498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6930675506592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7669200897217</t>
   </si>
   <si>
     <t xml:space="preserve">18.594596862793</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3730373382568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1596832275391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4222736358643</t>
+    <t xml:space="preserve">18.3730392456055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1596851348877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4222717285156</t>
   </si>
   <si>
     <t xml:space="preserve">18.2335357666016</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1925067901611</t>
+    <t xml:space="preserve">18.1925086975098</t>
   </si>
   <si>
     <t xml:space="preserve">18.1350650787354</t>
@@ -1097,7 +1100,7 @@
     <t xml:space="preserve">17.9217128753662</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6345062255859</t>
+    <t xml:space="preserve">17.6345043182373</t>
   </si>
   <si>
     <t xml:space="preserve">17.5442409515381</t>
@@ -1106,76 +1109,76 @@
     <t xml:space="preserve">17.355504989624</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0272674560547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7975025177002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9041767120361</t>
+    <t xml:space="preserve">17.0272693634033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7975006103516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9041786193848</t>
   </si>
   <si>
     <t xml:space="preserve">17.1913871765137</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6919460296631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9052982330322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.815034866333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0037708282471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8396549224854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9627437591553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4293575286865</t>
+    <t xml:space="preserve">17.6919479370117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9053001403809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8150367736816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0037727355957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8396530151367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.962739944458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4293556213379</t>
   </si>
   <si>
     <t xml:space="preserve">17.035472869873</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4703884124756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4621829986572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7822113037109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.659122467041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8232421875</t>
+    <t xml:space="preserve">17.4703903198242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4621810913086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7822132110596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6591243743896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8232402801514</t>
   </si>
   <si>
     <t xml:space="preserve">17.4129447937012</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3976554870605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.446891784668</t>
+    <t xml:space="preserve">18.3976573944092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4468898773193</t>
   </si>
   <si>
     <t xml:space="preserve">18.5617752075195</t>
   </si>
   <si>
-    <t xml:space="preserve">18.627420425415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.77512550354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4797134399414</t>
+    <t xml:space="preserve">18.6274223327637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7751274108887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4797172546387</t>
   </si>
   <si>
     <t xml:space="preserve">18.7258911132812</t>
@@ -1187,40 +1190,40 @@
     <t xml:space="preserve">18.2827739715576</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5781860351562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5114154815674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0201816558838</t>
+    <t xml:space="preserve">18.5781841278076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.511417388916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0201835632324</t>
   </si>
   <si>
     <t xml:space="preserve">17.347297668457</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2980613708496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9381256103516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.675537109375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2652397155762</t>
+    <t xml:space="preserve">17.2980632781982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9381275177002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6755352020264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2652378082275</t>
   </si>
   <si>
     <t xml:space="preserve">17.3144779205322</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4961280822754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.579309463501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5136585235596</t>
+    <t xml:space="preserve">18.4961261749268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5793075561523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5136623382568</t>
   </si>
   <si>
     <t xml:space="preserve">20.0388374328613</t>
@@ -1232,7 +1235,7 @@
     <t xml:space="preserve">20.1701316833496</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0716609954834</t>
+    <t xml:space="preserve">20.071662902832</t>
   </si>
   <si>
     <t xml:space="preserve">19.8418960571289</t>
@@ -1244,13 +1247,13 @@
     <t xml:space="preserve">19.8911323547363</t>
   </si>
   <si>
-    <t xml:space="preserve">19.8090724945068</t>
+    <t xml:space="preserve">19.8090705871582</t>
   </si>
   <si>
     <t xml:space="preserve">19.9403667449951</t>
   </si>
   <si>
-    <t xml:space="preserve">20.4327220916748</t>
+    <t xml:space="preserve">20.4327201843262</t>
   </si>
   <si>
     <t xml:space="preserve">20.6296634674072</t>
@@ -1259,16 +1262,16 @@
     <t xml:space="preserve">20.531192779541</t>
   </si>
   <si>
-    <t xml:space="preserve">20.5968399047852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7609558105469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5147819519043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3506622314453</t>
+    <t xml:space="preserve">20.5968437194824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7609577178955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5147800445557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3506603240967</t>
   </si>
   <si>
     <t xml:space="preserve">20.2850151062012</t>
@@ -1277,7 +1280,7 @@
     <t xml:space="preserve">20.3342514038086</t>
   </si>
   <si>
-    <t xml:space="preserve">20.4655475616455</t>
+    <t xml:space="preserve">20.4655437469482</t>
   </si>
   <si>
     <t xml:space="preserve">20.4163093566895</t>
@@ -1286,13 +1289,13 @@
     <t xml:space="preserve">20.3834857940674</t>
   </si>
   <si>
-    <t xml:space="preserve">20.4491329193115</t>
+    <t xml:space="preserve">20.4491348266602</t>
   </si>
   <si>
     <t xml:space="preserve">20.7281341552734</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8430156707764</t>
+    <t xml:space="preserve">20.843017578125</t>
   </si>
   <si>
     <t xml:space="preserve">20.7937831878662</t>
@@ -1304,25 +1307,25 @@
     <t xml:space="preserve">20.7117233276367</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6460762023926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8101940155029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.251070022583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4808330535889</t>
+    <t xml:space="preserve">20.6460742950439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8101921081543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2510681152344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4808349609375</t>
   </si>
   <si>
     <t xml:space="preserve">19.1854228973389</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1361865997314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2887363433838</t>
+    <t xml:space="preserve">19.1361885070801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2887344360352</t>
   </si>
   <si>
     <t xml:space="preserve">19.0514392852783</t>
@@ -1334,7 +1337,7 @@
     <t xml:space="preserve">19.3226337432861</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7633247375488</t>
+    <t xml:space="preserve">19.7633285522461</t>
   </si>
   <si>
     <t xml:space="preserve">19.6446781158447</t>
@@ -1346,13 +1349,13 @@
     <t xml:space="preserve">19.6955280303955</t>
   </si>
   <si>
-    <t xml:space="preserve">19.6277294158936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.271785736084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5599308013916</t>
+    <t xml:space="preserve">19.6277275085449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2717838287354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.559928894043</t>
   </si>
   <si>
     <t xml:space="preserve">19.8311233520508</t>
@@ -1361,7 +1364,7 @@
     <t xml:space="preserve">19.7802772521973</t>
   </si>
   <si>
-    <t xml:space="preserve">19.5429801940918</t>
+    <t xml:space="preserve">19.5429821014404</t>
   </si>
   <si>
     <t xml:space="preserve">19.5938282012939</t>
@@ -1373,34 +1376,31 @@
     <t xml:space="preserve">18.8988914489746</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9158420562744</t>
+    <t xml:space="preserve">18.9158401489258</t>
   </si>
   <si>
     <t xml:space="preserve">18.7971954345703</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0175399780273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0683898925781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1361885070801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9836406707764</t>
+    <t xml:space="preserve">19.017541885376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0683879852295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9836387634277</t>
   </si>
   <si>
     <t xml:space="preserve">19.1022891998291</t>
   </si>
   <si>
-    <t xml:space="preserve">19.526029586792</t>
+    <t xml:space="preserve">19.5260314941406</t>
   </si>
   <si>
     <t xml:space="preserve">19.6616287231445</t>
   </si>
   <si>
-    <t xml:space="preserve">19.5768795013428</t>
+    <t xml:space="preserve">19.5768814086914</t>
   </si>
   <si>
     <t xml:space="preserve">20.3226661682129</t>
@@ -1409,40 +1409,40 @@
     <t xml:space="preserve">20.3396148681641</t>
   </si>
   <si>
-    <t xml:space="preserve">20.187068939209</t>
+    <t xml:space="preserve">20.1870670318604</t>
   </si>
   <si>
     <t xml:space="preserve">20.0175724029541</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9328231811523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7124767303467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2379150390625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9158725738525</t>
+    <t xml:space="preserve">19.932825088501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7124786376953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2379169464111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9158744812012</t>
   </si>
   <si>
     <t xml:space="preserve">19.6107788085938</t>
   </si>
   <si>
-    <t xml:space="preserve">19.8480739593506</t>
+    <t xml:space="preserve">19.8480758666992</t>
   </si>
   <si>
     <t xml:space="preserve">20.4243640899658</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6447086334229</t>
+    <t xml:space="preserve">20.6447105407715</t>
   </si>
   <si>
     <t xml:space="preserve">20.6955585479736</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3904647827148</t>
+    <t xml:space="preserve">20.3904609680176</t>
   </si>
   <si>
     <t xml:space="preserve">20.3057155609131</t>
@@ -1454,34 +1454,34 @@
     <t xml:space="preserve">20.2887668609619</t>
   </si>
   <si>
-    <t xml:space="preserve">20.2040195465088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3565673828125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5091114044189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5260620117188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4921607971191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9328556060791</t>
+    <t xml:space="preserve">20.2040176391602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3565635681152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5091152191162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5260601043701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4921627044678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9328536987305</t>
   </si>
   <si>
     <t xml:space="preserve">20.6616592407227</t>
   </si>
   <si>
-    <t xml:space="preserve">20.5769100189209</t>
+    <t xml:space="preserve">20.5769119262695</t>
   </si>
   <si>
     <t xml:space="preserve">20.7633571624756</t>
   </si>
   <si>
-    <t xml:space="preserve">21.102352142334</t>
+    <t xml:space="preserve">21.1023483276367</t>
   </si>
   <si>
     <t xml:space="preserve">21.6108417510986</t>
@@ -1490,28 +1490,28 @@
     <t xml:space="preserve">21.6955909729004</t>
   </si>
   <si>
-    <t xml:space="preserve">21.5091438293457</t>
+    <t xml:space="preserve">21.5091419219971</t>
   </si>
   <si>
     <t xml:space="preserve">22.0345821380615</t>
   </si>
   <si>
-    <t xml:space="preserve">22.3905277252197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1023826599121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4921932220459</t>
+    <t xml:space="preserve">22.3905258178711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1023807525635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4921913146973</t>
   </si>
   <si>
     <t xml:space="preserve">21.7294883728027</t>
   </si>
   <si>
-    <t xml:space="preserve">21.390495300293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4074440002441</t>
+    <t xml:space="preserve">21.3904933929443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4074459075928</t>
   </si>
   <si>
     <t xml:space="preserve">20.9667530059814</t>
@@ -1520,7 +1520,7 @@
     <t xml:space="preserve">20.7294578552246</t>
   </si>
   <si>
-    <t xml:space="preserve">20.5938606262207</t>
+    <t xml:space="preserve">20.5938587188721</t>
   </si>
   <si>
     <t xml:space="preserve">19.9667224884033</t>
@@ -1532,7 +1532,7 @@
     <t xml:space="preserve">19.5090808868408</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3734836578369</t>
+    <t xml:space="preserve">19.3734855651855</t>
   </si>
   <si>
     <t xml:space="preserve">19.0344905853271</t>
@@ -1547,52 +1547,52 @@
     <t xml:space="preserve">19.8989219665527</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2378845214844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8819446563721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5090484619141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1870040893555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2717533111572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0175094604492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6276988983154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9327583312988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1192073822021</t>
+    <t xml:space="preserve">19.237886428833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8819427490234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5090503692627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1870059967041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2717552185059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0175075531006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6276950836182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9327602386475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1192054748535</t>
   </si>
   <si>
     <t xml:space="preserve">17.9666614532471</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8649597167969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1022567749023</t>
+    <t xml:space="preserve">17.8649635314941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.102258682251</t>
   </si>
   <si>
     <t xml:space="preserve">18.2378559112549</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5260009765625</t>
+    <t xml:space="preserve">18.5259990692139</t>
   </si>
   <si>
     <t xml:space="preserve">17.8480110168457</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3564701080322</t>
+    <t xml:space="preserve">17.3564720153809</t>
   </si>
   <si>
     <t xml:space="preserve">16.9666309356689</t>
@@ -1604,34 +1604,34 @@
     <t xml:space="preserve">17.1022262573242</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3733901977539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.271692276001</t>
+    <t xml:space="preserve">16.3733882904053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2716903686523</t>
   </si>
   <si>
     <t xml:space="preserve">16.6106853485107</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4242382049561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3903388977051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7378082275391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8140830993652</t>
+    <t xml:space="preserve">16.4242401123047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3903408050537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7378101348877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8140811920166</t>
   </si>
   <si>
     <t xml:space="preserve">16.7039089202881</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4581680297852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2717247009277</t>
+    <t xml:space="preserve">17.4581699371338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2717227935791</t>
   </si>
   <si>
     <t xml:space="preserve">17.153076171875</t>
@@ -1640,13 +1640,13 @@
     <t xml:space="preserve">17.3225727081299</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4920711517334</t>
+    <t xml:space="preserve">17.4920673370361</t>
   </si>
   <si>
     <t xml:space="preserve">17.6446151733398</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7971611022949</t>
+    <t xml:space="preserve">17.7971630096436</t>
   </si>
   <si>
     <t xml:space="preserve">18.2209053039551</t>
@@ -1655,52 +1655,52 @@
     <t xml:space="preserve">18.4073524475098</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3395538330078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9836082458496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0514068603516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6615657806396</t>
+    <t xml:space="preserve">18.3395519256592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.983606338501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0514087677002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.661563873291</t>
   </si>
   <si>
     <t xml:space="preserve">17.2378234863281</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5768165588379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7293643951416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8819141387939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4412498474121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1531085968018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9158096313477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9497108459473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8988647460938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7463150024414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7124156951904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6276664733887</t>
+    <t xml:space="preserve">17.5768146514893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7293663024902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8819103240967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4412536621094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1531066894531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9158115386963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9497089385986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8988628387451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7463130950928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7124137878418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.62766456604</t>
   </si>
   <si>
     <t xml:space="preserve">17.7632637023926</t>
@@ -1712,16 +1712,16 @@
     <t xml:space="preserve">16.873405456543</t>
   </si>
   <si>
-    <t xml:space="preserve">17.186975479126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2039222717285</t>
+    <t xml:space="preserve">17.1869735717773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2039241790771</t>
   </si>
   <si>
     <t xml:space="preserve">17.3903713226318</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2886714935303</t>
+    <t xml:space="preserve">17.2886734008789</t>
   </si>
   <si>
     <t xml:space="preserve">17.2547740936279</t>
@@ -1730,7 +1730,7 @@
     <t xml:space="preserve">17.220874786377</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8903541564941</t>
+    <t xml:space="preserve">16.8903560638428</t>
   </si>
   <si>
     <t xml:space="preserve">17.4242687225342</t>
@@ -1739,64 +1739,64 @@
     <t xml:space="preserve">17.5429191589355</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8141136169434</t>
+    <t xml:space="preserve">17.8141117095947</t>
   </si>
   <si>
     <t xml:space="preserve">17.5937671661377</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3734226226807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1700229644775</t>
+    <t xml:space="preserve">17.373420715332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1700267791748</t>
   </si>
   <si>
     <t xml:space="preserve">17.5005435943604</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2462997436523</t>
+    <t xml:space="preserve">17.2462978363037</t>
   </si>
   <si>
     <t xml:space="preserve">17.3310470581055</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4157962799072</t>
+    <t xml:space="preserve">17.4157943725586</t>
   </si>
   <si>
     <t xml:space="preserve">17.1615505218506</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0344276428223</t>
+    <t xml:space="preserve">17.0344295501709</t>
   </si>
   <si>
     <t xml:space="preserve">17.5852909088135</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6700401306152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3480281829834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.136157989502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0937824249268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8395366668701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0090370178223</t>
+    <t xml:space="preserve">17.6700420379639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3480262756348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1361560821533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0937843322754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8395385742188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0090351104736</t>
   </si>
   <si>
     <t xml:space="preserve">17.754789352417</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9242839813232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1785316467285</t>
+    <t xml:space="preserve">17.9242877960205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1785297393799</t>
   </si>
   <si>
     <t xml:space="preserve">17.9148921966553</t>
@@ -1805,16 +1805,16 @@
     <t xml:space="preserve">18.0909595489502</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9589080810547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8268604278564</t>
+    <t xml:space="preserve">17.9589099884033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8268585205078</t>
   </si>
   <si>
     <t xml:space="preserve">18.2670269012451</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1789951324463</t>
+    <t xml:space="preserve">18.1789932250977</t>
   </si>
   <si>
     <t xml:space="preserve">18.2230129241943</t>
@@ -1823,10 +1823,10 @@
     <t xml:space="preserve">18.4871120452881</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4430980682373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5311279296875</t>
+    <t xml:space="preserve">18.4430961608887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5311298370361</t>
   </si>
   <si>
     <t xml:space="preserve">18.3550624847412</t>
@@ -1835,43 +1835,43 @@
     <t xml:space="preserve">18.0029258728027</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7828426361084</t>
+    <t xml:space="preserve">17.782844543457</t>
   </si>
   <si>
     <t xml:space="preserve">17.6507911682129</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3426723480225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5011329650879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5539531707764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7952308654785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7512130737305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5751495361328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6191635131836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3110446929932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7388248443604</t>
+    <t xml:space="preserve">17.3426704406738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5011310577393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.553955078125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7952327728271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7512149810791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5751457214355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6191654205322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3110427856445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7388229370117</t>
   </si>
   <si>
     <t xml:space="preserve">17.4307060241699</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3778839111328</t>
+    <t xml:space="preserve">17.3778858184814</t>
   </si>
   <si>
     <t xml:space="preserve">17.2370319366455</t>
@@ -1880,16 +1880,16 @@
     <t xml:space="preserve">17.1666030883789</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2722473144531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1137828826904</t>
+    <t xml:space="preserve">17.2722434997559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1137866973877</t>
   </si>
   <si>
     <t xml:space="preserve">17.3074569702148</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8320751190186</t>
+    <t xml:space="preserve">16.8320770263672</t>
   </si>
   <si>
     <t xml:space="preserve">16.6912212371826</t>
@@ -1898,7 +1898,7 @@
     <t xml:space="preserve">16.7616481781006</t>
   </si>
   <si>
-    <t xml:space="preserve">17.060962677002</t>
+    <t xml:space="preserve">17.0609645843506</t>
   </si>
   <si>
     <t xml:space="preserve">16.4799404144287</t>
@@ -1907,22 +1907,22 @@
     <t xml:space="preserve">16.3743000030518</t>
   </si>
   <si>
-    <t xml:space="preserve">16.620792388916</t>
+    <t xml:space="preserve">16.6207942962646</t>
   </si>
   <si>
     <t xml:space="preserve">16.1101989746094</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3038730621338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6560077667236</t>
+    <t xml:space="preserve">16.3038711547852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6560096740723</t>
   </si>
   <si>
     <t xml:space="preserve">16.5679740905762</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4095115661621</t>
+    <t xml:space="preserve">16.4095134735107</t>
   </si>
   <si>
     <t xml:space="preserve">16.3919067382812</t>
@@ -1934,16 +1934,16 @@
     <t xml:space="preserve">16.2334461212158</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9025039672852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2898502349854</t>
+    <t xml:space="preserve">16.9025020599365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.289852142334</t>
   </si>
   <si>
     <t xml:space="preserve">17.3954925537109</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4483127593994</t>
+    <t xml:space="preserve">17.448314666748</t>
   </si>
   <si>
     <t xml:space="preserve">17.6948089599609</t>
@@ -1952,58 +1952,58 @@
     <t xml:space="preserve">19.0593318939209</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1349754333496</t>
+    <t xml:space="preserve">18.1349773406982</t>
   </si>
   <si>
     <t xml:space="preserve">18.3990783691406</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8708724975586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6067752838135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2546405792236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8496837615967</t>
+    <t xml:space="preserve">17.8708744049072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6067733764648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.254638671875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.849681854248</t>
   </si>
   <si>
     <t xml:space="preserve">16.8848972320557</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1489963531494</t>
+    <t xml:space="preserve">17.148998260498</t>
   </si>
   <si>
     <t xml:space="preserve">17.1313896179199</t>
   </si>
   <si>
-    <t xml:space="preserve">17.483528137207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7264366149902</t>
+    <t xml:space="preserve">17.4835262298584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7264347076416</t>
   </si>
   <si>
     <t xml:space="preserve">16.6384010314941</t>
   </si>
   <si>
-    <t xml:space="preserve">16.550365447998</t>
+    <t xml:space="preserve">16.5503673553467</t>
   </si>
   <si>
     <t xml:space="preserve">16.4271202087402</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7088298797607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6736164093018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8144683837891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3602771759033</t>
+    <t xml:space="preserve">16.7088260650635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6736145019531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8144702911377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.360279083252</t>
   </si>
   <si>
     <t xml:space="preserve">17.325065612793</t>
@@ -2012,19 +2012,19 @@
     <t xml:space="preserve">16.9553241729736</t>
   </si>
   <si>
-    <t xml:space="preserve">18.663179397583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0469436645508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2194232940674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9905376434326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1842098236084</t>
+    <t xml:space="preserve">18.6631813049316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0469417572021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.219425201416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.990535736084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.184211730957</t>
   </si>
   <si>
     <t xml:space="preserve">17.5715579986572</t>
@@ -2036,13 +2036,13 @@
     <t xml:space="preserve">15.7052412033081</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0537929534912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7896890640259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.472767829895</t>
+    <t xml:space="preserve">15.0537919998169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7896881103516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4727687835693</t>
   </si>
   <si>
     <t xml:space="preserve">14.2614879608154</t>
@@ -2057,22 +2057,22 @@
     <t xml:space="preserve">12.4832029342651</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6944847106934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1874732971191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7085037231445</t>
+    <t xml:space="preserve">12.694483757019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1874723434448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7085046768188</t>
   </si>
   <si>
     <t xml:space="preserve">12.1838874816895</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7929525375366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0042343139648</t>
+    <t xml:space="preserve">10.7929515838623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0042333602905</t>
   </si>
   <si>
     <t xml:space="preserve">10.5640640258789</t>
@@ -2081,7 +2081,7 @@
     <t xml:space="preserve">10.9514122009277</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6064491271973</t>
+    <t xml:space="preserve">12.6064500808716</t>
   </si>
   <si>
     <t xml:space="preserve">13.2050800323486</t>
@@ -2090,64 +2090,64 @@
     <t xml:space="preserve">13.6452503204346</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9233713150024</t>
+    <t xml:space="preserve">12.9233722686768</t>
   </si>
   <si>
     <t xml:space="preserve">13.0466194152832</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9021797180176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5852565765381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3211545944214</t>
+    <t xml:space="preserve">11.9021806716919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5852575302124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3211555480957</t>
   </si>
   <si>
     <t xml:space="preserve">10.8281660079956</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0922679901123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1626949310303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1803016662598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0394468307495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7753458023071</t>
+    <t xml:space="preserve">11.092267036438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.162693977356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1803007125854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0394477844238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7753448486328</t>
   </si>
   <si>
     <t xml:space="preserve">10.6697044372559</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5816707611084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1098747253418</t>
+    <t xml:space="preserve">10.5816717147827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1098737716675</t>
   </si>
   <si>
     <t xml:space="preserve">11.3563690185547</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9338054656982</t>
+    <t xml:space="preserve">10.9338073730469</t>
   </si>
   <si>
     <t xml:space="preserve">10.6873121261597</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8809871673584</t>
+    <t xml:space="preserve">10.8809862136841</t>
   </si>
   <si>
     <t xml:space="preserve">10.6168851852417</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6520977020264</t>
+    <t xml:space="preserve">10.652099609375</t>
   </si>
   <si>
     <t xml:space="preserve">10.7401323318481</t>
@@ -2159,16 +2159,16 @@
     <t xml:space="preserve">10.0358610153198</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0886821746826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.89500617980957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.70133304595947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.63090515136719</t>
+    <t xml:space="preserve">10.088680267334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.89500713348389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.70133209228516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.63090419769287</t>
   </si>
   <si>
     <t xml:space="preserve">10.282356262207</t>
@@ -2180,19 +2180,19 @@
     <t xml:space="preserve">10.2999620437622</t>
   </si>
   <si>
-    <t xml:space="preserve">9.96543312072754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0746612548828</t>
+    <t xml:space="preserve">9.96543407440186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0746603012085</t>
   </si>
   <si>
     <t xml:space="preserve">10.8457727432251</t>
   </si>
   <si>
-    <t xml:space="preserve">11.057053565979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6732921600342</t>
+    <t xml:space="preserve">11.0570545196533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6732912063599</t>
   </si>
   <si>
     <t xml:space="preserve">11.5676507949829</t>
@@ -2210,7 +2210,7 @@
     <t xml:space="preserve">12.5360221862793</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5008087158203</t>
+    <t xml:space="preserve">12.500807762146</t>
   </si>
   <si>
     <t xml:space="preserve">12.3071346282959</t>
@@ -2222,64 +2222,64 @@
     <t xml:space="preserve">11.3387613296509</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6204700469971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6380786895752</t>
+    <t xml:space="preserve">11.6204710006714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6380777359009</t>
   </si>
   <si>
     <t xml:space="preserve">11.9549989700317</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9726066589355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8669652938843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.025426864624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9902124404907</t>
+    <t xml:space="preserve">11.9726076126099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.86696434021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0254259109497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.990213394165</t>
   </si>
   <si>
     <t xml:space="preserve">11.7613248825073</t>
   </si>
   <si>
-    <t xml:space="preserve">11.690896987915</t>
+    <t xml:space="preserve">11.6908979415894</t>
   </si>
   <si>
     <t xml:space="preserve">11.7437181472778</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4972238540649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5148296356201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2331218719482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.02184009552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3035478591919</t>
+    <t xml:space="preserve">11.4972229003906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5148305892944</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2331228256226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0218410491943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3035497665405</t>
   </si>
   <si>
     <t xml:space="preserve">10.986626625061</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8633794784546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6028642654419</t>
+    <t xml:space="preserve">10.8633785247803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6028652191162</t>
   </si>
   <si>
     <t xml:space="preserve">11.1979084014893</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1450881958008</t>
+    <t xml:space="preserve">11.1450872421265</t>
   </si>
   <si>
     <t xml:space="preserve">11.2683362960815</t>
@@ -2297,31 +2297,31 @@
     <t xml:space="preserve">11.4444026947021</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2507295608521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8141450881958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1134605407715</t>
+    <t xml:space="preserve">11.2507276535034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8141460418701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1134595870972</t>
   </si>
   <si>
     <t xml:space="preserve">12.1310663223267</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9197864532471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5324382781982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0078210830688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0958528518677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2191009521484</t>
+    <t xml:space="preserve">11.9197854995728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5324363708496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0078201293945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.095853805542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2191019058228</t>
   </si>
   <si>
     <t xml:space="preserve">12.5888442993164</t>
@@ -2330,28 +2330,28 @@
     <t xml:space="preserve">12.9585857391357</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7120904922485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8001251220703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0114049911499</t>
+    <t xml:space="preserve">12.7120895385742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.800124168396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0114059448242</t>
   </si>
   <si>
     <t xml:space="preserve">12.0782470703125</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7965383529663</t>
+    <t xml:space="preserve">11.796537399292</t>
   </si>
   <si>
     <t xml:space="preserve">11.2859420776367</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8985929489136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1415014266968</t>
+    <t xml:space="preserve">10.8985939025879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1415023803711</t>
   </si>
   <si>
     <t xml:space="preserve">10.2119293212891</t>
@@ -2366,7 +2366,7 @@
     <t xml:space="preserve">10.3527841567993</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2579021453857</t>
+    <t xml:space="preserve">13.2579011917114</t>
   </si>
   <si>
     <t xml:space="preserve">13.8037109375</t>
@@ -2375,19 +2375,19 @@
     <t xml:space="preserve">12.9409790039062</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6276435852051</t>
+    <t xml:space="preserve">13.6276426315308</t>
   </si>
   <si>
     <t xml:space="preserve">14.1382389068604</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1698665618896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0290117263794</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5043954849243</t>
+    <t xml:space="preserve">13.1698656082153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0290126800537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.50439453125</t>
   </si>
   <si>
     <t xml:space="preserve">13.698070526123</t>
@@ -2396,13 +2396,13 @@
     <t xml:space="preserve">13.9093523025513</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7861042022705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.874137878418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8213167190552</t>
+    <t xml:space="preserve">13.7861032485962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8741369247437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8213176727295</t>
   </si>
   <si>
     <t xml:space="preserve">13.8917446136475</t>
@@ -2414,16 +2414,16 @@
     <t xml:space="preserve">13.4515752792358</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2226877212524</t>
+    <t xml:space="preserve">13.2226886749268</t>
   </si>
   <si>
     <t xml:space="preserve">13.2755069732666</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5220031738281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1346530914307</t>
+    <t xml:space="preserve">13.5220022201538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.134654045105</t>
   </si>
   <si>
     <t xml:space="preserve">13.2402944564819</t>
@@ -2435,13 +2435,13 @@
     <t xml:space="preserve">13.7508897781372</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7156763076782</t>
+    <t xml:space="preserve">13.7156772613525</t>
   </si>
   <si>
     <t xml:space="preserve">14.3671274185181</t>
   </si>
   <si>
-    <t xml:space="preserve">14.842511177063</t>
+    <t xml:space="preserve">14.8425121307373</t>
   </si>
   <si>
     <t xml:space="preserve">15.247465133667</t>
@@ -2450,7 +2450,7 @@
     <t xml:space="preserve">15.476354598999</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5996026992798</t>
+    <t xml:space="preserve">15.5996007919312</t>
   </si>
   <si>
     <t xml:space="preserve">15.6700277328491</t>
@@ -2459,52 +2459,52 @@
     <t xml:space="preserve">15.5291738510132</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9657573699951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3178911209106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6876344680786</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6524219512939</t>
+    <t xml:space="preserve">14.9657564163208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3178939819336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6876363754272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6524238586426</t>
   </si>
   <si>
     <t xml:space="preserve">15.3883190155029</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2298593521118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1242198944092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1066122055054</t>
+    <t xml:space="preserve">15.2298583984375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1242189407349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1066131591797</t>
   </si>
   <si>
     <t xml:space="preserve">14.6312294006348</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8777227401733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.912938117981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1594314575195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9693441390991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8460960388184</t>
+    <t xml:space="preserve">14.8777236938477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9129390716553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1594305038452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9693431854248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8460969924927</t>
   </si>
   <si>
     <t xml:space="preserve">16.3390846252441</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2862644195557</t>
+    <t xml:space="preserve">16.2862682342529</t>
   </si>
   <si>
     <t xml:space="preserve">16.9729309082031</t>
@@ -2519,7 +2519,7 @@
     <t xml:space="preserve">15.8284893035889</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9165239334106</t>
+    <t xml:space="preserve">15.916524887085</t>
   </si>
   <si>
     <t xml:space="preserve">16.7968616485596</t>
@@ -2528,31 +2528,31 @@
     <t xml:space="preserve">16.6031875610352</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0081443786621</t>
+    <t xml:space="preserve">17.0081424713135</t>
   </si>
   <si>
     <t xml:space="preserve">17.0785694122314</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0433559417725</t>
+    <t xml:space="preserve">17.0433578491211</t>
   </si>
   <si>
     <t xml:space="preserve">16.5151538848877</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9341306686401</t>
+    <t xml:space="preserve">15.9341287612915</t>
   </si>
   <si>
     <t xml:space="preserve">16.1982326507568</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1630210876465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0749835968018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4447269439697</t>
+    <t xml:space="preserve">16.1630172729492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0749855041504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4447288513184</t>
   </si>
   <si>
     <t xml:space="preserve">16.5855808258057</t>
@@ -2561,7 +2561,7 @@
     <t xml:space="preserve">16.1454124450684</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4535293579102</t>
+    <t xml:space="preserve">16.4535312652588</t>
   </si>
   <si>
     <t xml:space="preserve">16.2070350646973</t>
@@ -2585,22 +2585,22 @@
     <t xml:space="preserve">16.700023651123</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8584880828857</t>
+    <t xml:space="preserve">16.8584861755371</t>
   </si>
   <si>
     <t xml:space="preserve">16.7176322937012</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3831024169922</t>
+    <t xml:space="preserve">16.3831043243408</t>
   </si>
   <si>
     <t xml:space="preserve">17.404296875</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5979709625244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8408794403076</t>
+    <t xml:space="preserve">17.5979690551758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.840877532959</t>
   </si>
   <si>
     <t xml:space="preserve">17.069766998291</t>
@@ -2609,7 +2609,7 @@
     <t xml:space="preserve">17.0961761474609</t>
   </si>
   <si>
-    <t xml:space="preserve">17.474723815918</t>
+    <t xml:space="preserve">17.4747219085693</t>
   </si>
   <si>
     <t xml:space="preserve">17.6419887542725</t>
@@ -2633,7 +2633,7 @@
     <t xml:space="preserve">18.3638668060303</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5047206878662</t>
+    <t xml:space="preserve">18.5047187805176</t>
   </si>
   <si>
     <t xml:space="preserve">18.5223274230957</t>
@@ -2645,7 +2645,7 @@
     <t xml:space="preserve">17.7476291656494</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2054042816162</t>
+    <t xml:space="preserve">18.2054061889648</t>
   </si>
   <si>
     <t xml:space="preserve">18.0997619628906</t>
@@ -2654,28 +2654,28 @@
     <t xml:space="preserve">18.0821571350098</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9236946105957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8004493713379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8884811401367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2582244873047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1525840759277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1701908111572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7652359008789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4166851043701</t>
+    <t xml:space="preserve">17.9236965179443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8004474639893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8884830474854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2582225799561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1525859832764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1701889038086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7652339935303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4166870117188</t>
   </si>
   <si>
     <t xml:space="preserve">18.3286514282227</t>
@@ -2687,10 +2687,10 @@
     <t xml:space="preserve">16.8936996459961</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2018184661865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2282276153564</t>
+    <t xml:space="preserve">17.2018203735352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2282295227051</t>
   </si>
   <si>
     <t xml:space="preserve">17.624382019043</t>
@@ -2699,22 +2699,22 @@
     <t xml:space="preserve">19.8428344726562</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3146324157715</t>
+    <t xml:space="preserve">19.3146305084229</t>
   </si>
   <si>
     <t xml:space="preserve">19.2794170379639</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6983909606934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1913833618164</t>
+    <t xml:space="preserve">18.6983947753906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.191385269165</t>
   </si>
   <si>
     <t xml:space="preserve">18.7336082458496</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8920650482178</t>
+    <t xml:space="preserve">18.892068862915</t>
   </si>
   <si>
     <t xml:space="preserve">18.4695053100586</t>
@@ -2729,10 +2729,10 @@
     <t xml:space="preserve">17.8180561065674</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0117301940918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2406177520752</t>
+    <t xml:space="preserve">18.0117282867432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2406158447266</t>
   </si>
   <si>
     <t xml:space="preserve">17.4131011962891</t>
@@ -2747,16 +2747,16 @@
     <t xml:space="preserve">17.1578006744385</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6103591918945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1173686981201</t>
+    <t xml:space="preserve">18.6103610992432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1173706054688</t>
   </si>
   <si>
     <t xml:space="preserve">18.2934398651123</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7688217163086</t>
+    <t xml:space="preserve">18.76881980896</t>
   </si>
   <si>
     <t xml:space="preserve">18.5575408935547</t>
@@ -2765,7 +2765,7 @@
     <t xml:space="preserve">18.3361072540283</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3002948760986</t>
+    <t xml:space="preserve">18.3002967834473</t>
   </si>
   <si>
     <t xml:space="preserve">18.4077320098877</t>
@@ -2777,28 +2777,28 @@
     <t xml:space="preserve">18.4793586730957</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4435443878174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7479553222656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5151710510254</t>
+    <t xml:space="preserve">18.443546295166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.747953414917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.515172958374</t>
   </si>
   <si>
     <t xml:space="preserve">18.5330791473389</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2286682128906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0854187011719</t>
+    <t xml:space="preserve">18.2286701202393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0854206085205</t>
   </si>
   <si>
     <t xml:space="preserve">18.0496063232422</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9958877563477</t>
+    <t xml:space="preserve">17.995885848999</t>
   </si>
   <si>
     <t xml:space="preserve">17.8974018096924</t>
@@ -2807,25 +2807,25 @@
     <t xml:space="preserve">18.1391372680664</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9063568115234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7810115814209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2644805908203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1990547180176</t>
+    <t xml:space="preserve">17.9063549041748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7810096740723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2644824981689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1990528106689</t>
   </si>
   <si>
     <t xml:space="preserve">17.0826625823975</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1363830566406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.760347366333</t>
+    <t xml:space="preserve">17.136381149292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7603492736816</t>
   </si>
   <si>
     <t xml:space="preserve">16.6529102325439</t>
@@ -2846,7 +2846,7 @@
     <t xml:space="preserve">16.3664093017578</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5633773803711</t>
+    <t xml:space="preserve">16.5633792877197</t>
   </si>
   <si>
     <t xml:space="preserve">16.5365180969238</t>
@@ -2858,52 +2858,52 @@
     <t xml:space="preserve">17.0289440155029</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8498802185059</t>
+    <t xml:space="preserve">16.8498783111572</t>
   </si>
   <si>
     <t xml:space="preserve">16.8677864074707</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9931316375732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9125499725342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7334880828857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7424411773682</t>
+    <t xml:space="preserve">16.9931297302246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9125518798828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7334899902344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7424430847168</t>
   </si>
   <si>
     <t xml:space="preserve">16.4648933410645</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4380359649658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1157188415527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1694374084473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3395481109619</t>
+    <t xml:space="preserve">16.4380340576172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1157207489014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1694393157959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3395500183105</t>
   </si>
   <si>
     <t xml:space="preserve">16.9215049743652</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1005687713623</t>
+    <t xml:space="preserve">17.1005706787109</t>
   </si>
   <si>
     <t xml:space="preserve">17.2975387573242</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4586944580078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5454711914062</t>
+    <t xml:space="preserve">17.4586963653564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5454730987549</t>
   </si>
   <si>
     <t xml:space="preserve">16.6618633270264</t>
@@ -2915,34 +2915,34 @@
     <t xml:space="preserve">16.9483661651611</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3154449462891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.894645690918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0020847320557</t>
+    <t xml:space="preserve">17.3154468536377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8946475982666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.002082824707</t>
   </si>
   <si>
     <t xml:space="preserve">16.4917526245117</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9366550445557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.079906463623</t>
+    <t xml:space="preserve">15.93665599823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0799045562744</t>
   </si>
   <si>
     <t xml:space="preserve">16.4827995300293</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7872085571289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5186138153076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8588333129883</t>
+    <t xml:space="preserve">16.7872066497803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.518611907959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8588314056396</t>
   </si>
   <si>
     <t xml:space="preserve">17.1274280548096</t>
@@ -2951,13 +2951,13 @@
     <t xml:space="preserve">16.8409252166748</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4022216796875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8918905258179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9456081390381</t>
+    <t xml:space="preserve">16.4022197723389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8918886184692</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9456090927124</t>
   </si>
   <si>
     <t xml:space="preserve">16.0978126525879</t>
@@ -2969,19 +2969,19 @@
     <t xml:space="preserve">16.590238571167</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4290828704834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0888595581055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6680612564087</t>
+    <t xml:space="preserve">16.4290790557861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0888576507568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6680593490601</t>
   </si>
   <si>
     <t xml:space="preserve">15.2920265197754</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5847263336182</t>
+    <t xml:space="preserve">14.5847272872925</t>
   </si>
   <si>
     <t xml:space="preserve">14.9159936904907</t>
@@ -2996,7 +2996,7 @@
     <t xml:space="preserve">14.4235696792603</t>
   </si>
   <si>
-    <t xml:space="preserve">13.949049949646</t>
+    <t xml:space="preserve">13.9490509033203</t>
   </si>
   <si>
     <t xml:space="preserve">13.5103445053101</t>
@@ -3014,49 +3014,49 @@
     <t xml:space="preserve">13.9311447143555</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3429899215698</t>
+    <t xml:space="preserve">14.3429908752441</t>
   </si>
   <si>
     <t xml:space="preserve">14.7727422714233</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1370677947998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.360897064209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6625490188599</t>
+    <t xml:space="preserve">14.1370668411255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3608980178833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6625499725342</t>
   </si>
   <si>
     <t xml:space="preserve">13.7252206802368</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5461578369141</t>
+    <t xml:space="preserve">13.5461568832397</t>
   </si>
   <si>
     <t xml:space="preserve">13.4118595123291</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1790771484375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2507019042969</t>
+    <t xml:space="preserve">13.1790781021118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2507028579712</t>
   </si>
   <si>
     <t xml:space="preserve">13.4655790328979</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4387197494507</t>
+    <t xml:space="preserve">13.4387187957764</t>
   </si>
   <si>
     <t xml:space="preserve">13.5013914108276</t>
   </si>
   <si>
-    <t xml:space="preserve">13.232795715332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8746700286865</t>
+    <t xml:space="preserve">13.2327966690063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8746690750122</t>
   </si>
   <si>
     <t xml:space="preserve">13.0358266830444</t>
@@ -3074,10 +3074,10 @@
     <t xml:space="preserve">14.2355518341064</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2176465988159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2713642120361</t>
+    <t xml:space="preserve">14.2176456451416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2713651657104</t>
   </si>
   <si>
     <t xml:space="preserve">14.6294927597046</t>
@@ -3089,22 +3089,22 @@
     <t xml:space="preserve">14.0385828018188</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7520809173584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8774251937866</t>
+    <t xml:space="preserve">13.7520799636841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8774261474609</t>
   </si>
   <si>
     <t xml:space="preserve">13.4834861755371</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5551109313965</t>
+    <t xml:space="preserve">13.5551118850708</t>
   </si>
   <si>
     <t xml:space="preserve">13.1611709594727</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9642000198364</t>
+    <t xml:space="preserve">12.9642009735107</t>
   </si>
   <si>
     <t xml:space="preserve">12.7851371765137</t>
@@ -3116,25 +3116,25 @@
     <t xml:space="preserve">12.8925752639771</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9104824066162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9821081161499</t>
+    <t xml:space="preserve">12.9104814529419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9821071624756</t>
   </si>
   <si>
     <t xml:space="preserve">13.2148895263672</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1432638168335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0537328720093</t>
+    <t xml:space="preserve">13.1432647705078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.053731918335</t>
   </si>
   <si>
     <t xml:space="preserve">12.5523548126221</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3911972045898</t>
+    <t xml:space="preserve">12.3911981582642</t>
   </si>
   <si>
     <t xml:space="preserve">12.3633937835693</t>
@@ -3143,13 +3143,13 @@
     <t xml:space="preserve">12.178035736084</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0668210983276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6228942871094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6414318084717</t>
+    <t xml:space="preserve">12.0668201446533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6228952407837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6414308547974</t>
   </si>
   <si>
     <t xml:space="preserve">13.1975049972534</t>
@@ -3158,25 +3158,25 @@
     <t xml:space="preserve">12.8453245162964</t>
   </si>
   <si>
-    <t xml:space="preserve">12.752646446228</t>
+    <t xml:space="preserve">12.7526454925537</t>
   </si>
   <si>
     <t xml:space="preserve">12.7155742645264</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9380044937134</t>
+    <t xml:space="preserve">12.9380035400391</t>
   </si>
   <si>
     <t xml:space="preserve">13.0862903594971</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3272571563721</t>
+    <t xml:space="preserve">13.3272562026978</t>
   </si>
   <si>
     <t xml:space="preserve">13.0677547454834</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3077850341797</t>
+    <t xml:space="preserve">12.307785987854</t>
   </si>
   <si>
     <t xml:space="preserve">12.1409645080566</t>
@@ -3185,7 +3185,7 @@
     <t xml:space="preserve">11.881462097168</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4375371932983</t>
+    <t xml:space="preserve">12.437536239624</t>
   </si>
   <si>
     <t xml:space="preserve">12.2892503738403</t>
@@ -3206,13 +3206,13 @@
     <t xml:space="preserve">12.4746084213257</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1965703964233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.955605506897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4736738204956</t>
+    <t xml:space="preserve">12.1965713500977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9556045532227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4736747741699</t>
   </si>
   <si>
     <t xml:space="preserve">11.73317527771</t>
@@ -3224,13 +3224,13 @@
     <t xml:space="preserve">12.085355758667</t>
   </si>
   <si>
-    <t xml:space="preserve">11.937068939209</t>
+    <t xml:space="preserve">11.9370698928833</t>
   </si>
   <si>
     <t xml:space="preserve">11.7146396636963</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5107450485229</t>
+    <t xml:space="preserve">11.5107460021973</t>
   </si>
   <si>
     <t xml:space="preserve">12.0297479629517</t>
@@ -3248,7 +3248,7 @@
     <t xml:space="preserve">12.3263216018677</t>
   </si>
   <si>
-    <t xml:space="preserve">12.511679649353</t>
+    <t xml:space="preserve">12.5116806030273</t>
   </si>
   <si>
     <t xml:space="preserve">12.5487518310547</t>
@@ -3266,22 +3266,22 @@
     <t xml:space="preserve">12.252179145813</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1224269866943</t>
+    <t xml:space="preserve">12.1224279403687</t>
   </si>
   <si>
     <t xml:space="preserve">11.7887830734253</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7702474594116</t>
+    <t xml:space="preserve">11.7702465057373</t>
   </si>
   <si>
     <t xml:space="preserve">11.3809947967529</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3439235687256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3253870010376</t>
+    <t xml:space="preserve">11.3439226150513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3253879547119</t>
   </si>
   <si>
     <t xml:space="preserve">11.1585655212402</t>
@@ -3290,13 +3290,13 @@
     <t xml:space="preserve">10.9175987243652</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8619928359985</t>
+    <t xml:space="preserve">10.8619918823242</t>
   </si>
   <si>
     <t xml:space="preserve">10.6766338348389</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7693128585815</t>
+    <t xml:space="preserve">10.7693119049072</t>
   </si>
   <si>
     <t xml:space="preserve">10.3800601959229</t>
@@ -3308,10 +3308,10 @@
     <t xml:space="preserve">10.4171314239502</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3615255355835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6024894714355</t>
+    <t xml:space="preserve">10.3615245819092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6024904251099</t>
   </si>
   <si>
     <t xml:space="preserve">10.8249206542969</t>
@@ -3320,13 +3320,13 @@
     <t xml:space="preserve">9.86105823516846</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1020231246948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.78691482543945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.8239860534668</t>
+    <t xml:space="preserve">10.1020221710205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.78691387176514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.82398700714111</t>
   </si>
   <si>
     <t xml:space="preserve">9.62009143829346</t>
@@ -3344,10 +3344,10 @@
     <t xml:space="preserve">9.00840950012207</t>
   </si>
   <si>
-    <t xml:space="preserve">8.6933012008667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.96206951141357</t>
+    <t xml:space="preserve">8.69330024719238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.96207046508789</t>
   </si>
   <si>
     <t xml:space="preserve">8.98060607910156</t>
@@ -3359,13 +3359,13 @@
     <t xml:space="preserve">9.09182167053223</t>
   </si>
   <si>
-    <t xml:space="preserve">8.86012268066406</t>
+    <t xml:space="preserve">8.86012363433838</t>
   </si>
   <si>
     <t xml:space="preserve">9.07328510284424</t>
   </si>
   <si>
-    <t xml:space="preserve">9.11962509155273</t>
+    <t xml:space="preserve">9.11962413787842</t>
   </si>
   <si>
     <t xml:space="preserve">9.39766216278076</t>
@@ -3380,25 +3380,25 @@
     <t xml:space="preserve">9.56448459625244</t>
   </si>
   <si>
-    <t xml:space="preserve">9.37912654876709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.26791191101074</t>
+    <t xml:space="preserve">9.37912559509277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.26791095733643</t>
   </si>
   <si>
     <t xml:space="preserve">9.58302021026611</t>
   </si>
   <si>
-    <t xml:space="preserve">9.6571626663208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.99080848693848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.87959384918213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.84252071380615</t>
+    <t xml:space="preserve">9.65716361999512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.99080753326416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.87959289550781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.84252166748047</t>
   </si>
   <si>
     <t xml:space="preserve">9.9722728729248</t>
@@ -3413,7 +3413,7 @@
     <t xml:space="preserve">10.2132387161255</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5283460617065</t>
+    <t xml:space="preserve">10.5283470153809</t>
   </si>
   <si>
     <t xml:space="preserve">10.8990640640259</t>
@@ -3422,7 +3422,7 @@
     <t xml:space="preserve">10.2503099441528</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2317733764648</t>
+    <t xml:space="preserve">10.2317743301392</t>
   </si>
   <si>
     <t xml:space="preserve">10.2688455581665</t>
@@ -3431,19 +3431,19 @@
     <t xml:space="preserve">10.4356679916382</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6580982208252</t>
+    <t xml:space="preserve">10.6580972671509</t>
   </si>
   <si>
     <t xml:space="preserve">10.2873821258545</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5468826293945</t>
+    <t xml:space="preserve">10.5468835830688</t>
   </si>
   <si>
     <t xml:space="preserve">10.5839548110962</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4912748336792</t>
+    <t xml:space="preserve">10.4912757873535</t>
   </si>
   <si>
     <t xml:space="preserve">10.4727401733398</t>
@@ -3455,7 +3455,7 @@
     <t xml:space="preserve">10.6951694488525</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3985967636108</t>
+    <t xml:space="preserve">10.3985958099365</t>
   </si>
   <si>
     <t xml:space="preserve">10.5654182434082</t>
@@ -3464,7 +3464,7 @@
     <t xml:space="preserve">10.6210260391235</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0844221115112</t>
+    <t xml:space="preserve">11.0844211578369</t>
   </si>
   <si>
     <t xml:space="preserve">11.3068513870239</t>
@@ -3482,7 +3482,7 @@
     <t xml:space="preserve">11.5848894119263</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6961040496826</t>
+    <t xml:space="preserve">11.6961030960083</t>
   </si>
   <si>
     <t xml:space="preserve">12.0482845306396</t>
@@ -3506,19 +3506,19 @@
     <t xml:space="preserve">11.2512445449829</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2141723632812</t>
+    <t xml:space="preserve">11.2141733169556</t>
   </si>
   <si>
     <t xml:space="preserve">11.1214933395386</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8063840866089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8434553146362</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6395606994629</t>
+    <t xml:space="preserve">10.8063850402832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8434562683105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6395616531372</t>
   </si>
   <si>
     <t xml:space="preserve">10.4542036056519</t>
@@ -3533,13 +3533,13 @@
     <t xml:space="preserve">10.9917421340942</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2336416244507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.678503036499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4190006256104</t>
+    <t xml:space="preserve">12.233642578125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6785020828247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.418999671936</t>
   </si>
   <si>
     <t xml:space="preserve">12.8638610839844</t>
@@ -3554,7 +3554,7 @@
     <t xml:space="preserve">12.60435962677</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8082523345947</t>
+    <t xml:space="preserve">12.808253288269</t>
   </si>
   <si>
     <t xml:space="preserve">12.7711811065674</t>
@@ -3566,7 +3566,7 @@
     <t xml:space="preserve">13.9760093688965</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8647947311401</t>
+    <t xml:space="preserve">13.8647956848145</t>
   </si>
   <si>
     <t xml:space="preserve">13.6609010696411</t>
@@ -4122,6 +4122,9 @@
   </si>
   <si>
     <t xml:space="preserve">11.2399997711182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.460000038147</t>
   </si>
 </sst>
 </file>
@@ -9889,7 +9892,7 @@
         <v>17.0300006866455</v>
       </c>
       <c r="G209" t="s">
-        <v>87</v>
+        <v>166</v>
       </c>
       <c r="H209" t="s">
         <v>9</v>
@@ -9915,7 +9918,7 @@
         <v>16.9400005340576</v>
       </c>
       <c r="G210" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H210" t="s">
         <v>9</v>
@@ -9941,7 +9944,7 @@
         <v>16.7999992370605</v>
       </c>
       <c r="G211" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H211" t="s">
         <v>9</v>
@@ -9967,7 +9970,7 @@
         <v>16.7600002288818</v>
       </c>
       <c r="G212" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H212" t="s">
         <v>9</v>
@@ -9993,7 +9996,7 @@
         <v>16.7399997711182</v>
       </c>
       <c r="G213" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H213" t="s">
         <v>9</v>
@@ -10019,7 +10022,7 @@
         <v>16.7800006866455</v>
       </c>
       <c r="G214" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H214" t="s">
         <v>9</v>
@@ -10045,7 +10048,7 @@
         <v>16.7700004577637</v>
       </c>
       <c r="G215" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H215" t="s">
         <v>9</v>
@@ -10071,7 +10074,7 @@
         <v>16.5900001525879</v>
       </c>
       <c r="G216" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H216" t="s">
         <v>9</v>
@@ -10097,7 +10100,7 @@
         <v>16.3999996185303</v>
       </c>
       <c r="G217" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H217" t="s">
         <v>9</v>
@@ -10149,7 +10152,7 @@
         <v>16.6599998474121</v>
       </c>
       <c r="G219" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H219" t="s">
         <v>9</v>
@@ -10253,7 +10256,7 @@
         <v>16.7000007629395</v>
       </c>
       <c r="G223" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H223" t="s">
         <v>9</v>
@@ -10279,7 +10282,7 @@
         <v>16.5599994659424</v>
       </c>
       <c r="G224" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H224" t="s">
         <v>9</v>
@@ -10305,7 +10308,7 @@
         <v>16</v>
       </c>
       <c r="G225" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H225" t="s">
         <v>9</v>
@@ -10331,7 +10334,7 @@
         <v>16.5100002288818</v>
       </c>
       <c r="G226" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H226" t="s">
         <v>9</v>
@@ -10357,7 +10360,7 @@
         <v>16.7999992370605</v>
       </c>
       <c r="G227" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H227" t="s">
         <v>9</v>
@@ -10383,7 +10386,7 @@
         <v>16.6900005340576</v>
       </c>
       <c r="G228" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H228" t="s">
         <v>9</v>
@@ -10409,7 +10412,7 @@
         <v>16.5400009155273</v>
       </c>
       <c r="G229" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H229" t="s">
         <v>9</v>
@@ -10435,7 +10438,7 @@
         <v>16.7000007629395</v>
       </c>
       <c r="G230" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H230" t="s">
         <v>9</v>
@@ -10461,7 +10464,7 @@
         <v>16.6599998474121</v>
       </c>
       <c r="G231" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H231" t="s">
         <v>9</v>
@@ -10487,7 +10490,7 @@
         <v>16.5900001525879</v>
       </c>
       <c r="G232" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H232" t="s">
         <v>9</v>
@@ -10513,7 +10516,7 @@
         <v>16.5699996948242</v>
       </c>
       <c r="G233" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H233" t="s">
         <v>9</v>
@@ -10539,7 +10542,7 @@
         <v>16.3899993896484</v>
       </c>
       <c r="G234" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H234" t="s">
         <v>9</v>
@@ -10565,7 +10568,7 @@
         <v>16.25</v>
       </c>
       <c r="G235" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H235" t="s">
         <v>9</v>
@@ -10591,7 +10594,7 @@
         <v>16.3700008392334</v>
       </c>
       <c r="G236" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H236" t="s">
         <v>9</v>
@@ -10617,7 +10620,7 @@
         <v>16.4799995422363</v>
       </c>
       <c r="G237" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H237" t="s">
         <v>9</v>
@@ -10643,7 +10646,7 @@
         <v>16.4599990844727</v>
       </c>
       <c r="G238" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H238" t="s">
         <v>9</v>
@@ -10695,7 +10698,7 @@
         <v>17</v>
       </c>
       <c r="G240" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H240" t="s">
         <v>9</v>
@@ -10747,7 +10750,7 @@
         <v>16.9300003051758</v>
       </c>
       <c r="G242" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H242" t="s">
         <v>9</v>
@@ -10799,7 +10802,7 @@
         <v>17</v>
       </c>
       <c r="G244" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H244" t="s">
         <v>9</v>
@@ -10825,7 +10828,7 @@
         <v>17.0799999237061</v>
       </c>
       <c r="G245" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H245" t="s">
         <v>9</v>
@@ -10851,7 +10854,7 @@
         <v>17.4899997711182</v>
       </c>
       <c r="G246" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H246" t="s">
         <v>9</v>
@@ -10903,7 +10906,7 @@
         <v>17.2999992370605</v>
       </c>
       <c r="G248" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H248" t="s">
         <v>9</v>
@@ -10955,7 +10958,7 @@
         <v>17.5400009155273</v>
       </c>
       <c r="G250" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H250" t="s">
         <v>9</v>
@@ -10981,7 +10984,7 @@
         <v>17.3500003814697</v>
       </c>
       <c r="G251" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H251" t="s">
         <v>9</v>
@@ -11033,7 +11036,7 @@
         <v>17.5499992370605</v>
       </c>
       <c r="G253" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H253" t="s">
         <v>9</v>
@@ -11059,7 +11062,7 @@
         <v>17.5799999237061</v>
       </c>
       <c r="G254" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="H254" t="s">
         <v>9</v>
@@ -11085,7 +11088,7 @@
         <v>17.6100006103516</v>
       </c>
       <c r="G255" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H255" t="s">
         <v>9</v>
@@ -11137,7 +11140,7 @@
         <v>17.3500003814697</v>
       </c>
       <c r="G257" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H257" t="s">
         <v>9</v>
@@ -11189,7 +11192,7 @@
         <v>17.5400009155273</v>
       </c>
       <c r="G259" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H259" t="s">
         <v>9</v>
@@ -11241,7 +11244,7 @@
         <v>17.5900001525879</v>
       </c>
       <c r="G261" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H261" t="s">
         <v>9</v>
@@ -11267,7 +11270,7 @@
         <v>17.6700000762939</v>
       </c>
       <c r="G262" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H262" t="s">
         <v>9</v>
@@ -11345,7 +11348,7 @@
         <v>17.3700008392334</v>
       </c>
       <c r="G265" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H265" t="s">
         <v>9</v>
@@ -11423,7 +11426,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G268" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H268" t="s">
         <v>9</v>
@@ -11475,7 +11478,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G270" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H270" t="s">
         <v>9</v>
@@ -11501,7 +11504,7 @@
         <v>17.8799991607666</v>
       </c>
       <c r="G271" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H271" t="s">
         <v>9</v>
@@ -11553,7 +11556,7 @@
         <v>18.5200004577637</v>
       </c>
       <c r="G273" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="H273" t="s">
         <v>9</v>
@@ -11579,7 +11582,7 @@
         <v>18.5900001525879</v>
       </c>
       <c r="G274" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H274" t="s">
         <v>9</v>
@@ -11631,7 +11634,7 @@
         <v>18.0599994659424</v>
       </c>
       <c r="G276" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H276" t="s">
         <v>9</v>
@@ -11657,7 +11660,7 @@
         <v>17.9599990844727</v>
       </c>
       <c r="G277" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H277" t="s">
         <v>9</v>
@@ -11683,7 +11686,7 @@
         <v>17.8500003814697</v>
       </c>
       <c r="G278" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H278" t="s">
         <v>9</v>
@@ -11709,7 +11712,7 @@
         <v>17.9799995422363</v>
       </c>
       <c r="G279" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H279" t="s">
         <v>9</v>
@@ -11735,7 +11738,7 @@
         <v>18.0499992370605</v>
       </c>
       <c r="G280" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H280" t="s">
         <v>9</v>
@@ -11761,7 +11764,7 @@
         <v>17.9500007629395</v>
       </c>
       <c r="G281" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="H281" t="s">
         <v>9</v>
@@ -11787,7 +11790,7 @@
         <v>18.4699993133545</v>
       </c>
       <c r="G282" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H282" t="s">
         <v>9</v>
@@ -11813,7 +11816,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G283" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H283" t="s">
         <v>9</v>
@@ -11865,7 +11868,7 @@
         <v>18.4400005340576</v>
       </c>
       <c r="G285" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H285" t="s">
         <v>9</v>
@@ -11891,7 +11894,7 @@
         <v>18.4099998474121</v>
       </c>
       <c r="G286" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H286" t="s">
         <v>9</v>
@@ -11917,7 +11920,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G287" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H287" t="s">
         <v>9</v>
@@ -11943,7 +11946,7 @@
         <v>18.2000007629395</v>
       </c>
       <c r="G288" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H288" t="s">
         <v>9</v>
@@ -11969,7 +11972,7 @@
         <v>18.2999992370605</v>
       </c>
       <c r="G289" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H289" t="s">
         <v>9</v>
@@ -11995,7 +11998,7 @@
         <v>18.4899997711182</v>
       </c>
       <c r="G290" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H290" t="s">
         <v>9</v>
@@ -12021,7 +12024,7 @@
         <v>18.2700004577637</v>
       </c>
       <c r="G291" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H291" t="s">
         <v>9</v>
@@ -12047,7 +12050,7 @@
         <v>18.4099998474121</v>
       </c>
       <c r="G292" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H292" t="s">
         <v>9</v>
@@ -12099,7 +12102,7 @@
         <v>18.2999992370605</v>
       </c>
       <c r="G294" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H294" t="s">
         <v>9</v>
@@ -12125,7 +12128,7 @@
         <v>18.5100002288818</v>
       </c>
       <c r="G295" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H295" t="s">
         <v>9</v>
@@ -12151,7 +12154,7 @@
         <v>18.3899993896484</v>
       </c>
       <c r="G296" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H296" t="s">
         <v>9</v>
@@ -12177,7 +12180,7 @@
         <v>18.1200008392334</v>
       </c>
       <c r="G297" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H297" t="s">
         <v>9</v>
@@ -12203,7 +12206,7 @@
         <v>18.5599994659424</v>
       </c>
       <c r="G298" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H298" t="s">
         <v>9</v>
@@ -12229,7 +12232,7 @@
         <v>19.1499996185303</v>
       </c>
       <c r="G299" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H299" t="s">
         <v>9</v>
@@ -12255,7 +12258,7 @@
         <v>19.4500007629395</v>
       </c>
       <c r="G300" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H300" t="s">
         <v>9</v>
@@ -12281,7 +12284,7 @@
         <v>19.3899993896484</v>
       </c>
       <c r="G301" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H301" t="s">
         <v>9</v>
@@ -12307,7 +12310,7 @@
         <v>19.6299991607666</v>
       </c>
       <c r="G302" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H302" t="s">
         <v>9</v>
@@ -12333,7 +12336,7 @@
         <v>20</v>
       </c>
       <c r="G303" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H303" t="s">
         <v>9</v>
@@ -12359,7 +12362,7 @@
         <v>19.9500007629395</v>
       </c>
       <c r="G304" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H304" t="s">
         <v>9</v>
@@ -12385,7 +12388,7 @@
         <v>19.9599990844727</v>
       </c>
       <c r="G305" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H305" t="s">
         <v>9</v>
@@ -12411,7 +12414,7 @@
         <v>19.7999992370605</v>
       </c>
       <c r="G306" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H306" t="s">
         <v>9</v>
@@ -12437,7 +12440,7 @@
         <v>19.9500007629395</v>
       </c>
       <c r="G307" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H307" t="s">
         <v>9</v>
@@ -12463,7 +12466,7 @@
         <v>20.3099994659424</v>
       </c>
       <c r="G308" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H308" t="s">
         <v>9</v>
@@ -12489,7 +12492,7 @@
         <v>20.9899997711182</v>
       </c>
       <c r="G309" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H309" t="s">
         <v>9</v>
@@ -12515,7 +12518,7 @@
         <v>20.2199993133545</v>
       </c>
       <c r="G310" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H310" t="s">
         <v>9</v>
@@ -12541,7 +12544,7 @@
         <v>20.25</v>
       </c>
       <c r="G311" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H311" t="s">
         <v>9</v>
@@ -12567,7 +12570,7 @@
         <v>20.4200000762939</v>
       </c>
       <c r="G312" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H312" t="s">
         <v>9</v>
@@ -12593,7 +12596,7 @@
         <v>20.5200004577637</v>
       </c>
       <c r="G313" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="H313" t="s">
         <v>9</v>
@@ -12619,7 +12622,7 @@
         <v>20.3400001525879</v>
       </c>
       <c r="G314" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H314" t="s">
         <v>9</v>
@@ -12645,7 +12648,7 @@
         <v>20.5</v>
       </c>
       <c r="G315" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H315" t="s">
         <v>9</v>
@@ -12671,7 +12674,7 @@
         <v>20.9500007629395</v>
       </c>
       <c r="G316" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H316" t="s">
         <v>9</v>
@@ -12697,7 +12700,7 @@
         <v>21</v>
       </c>
       <c r="G317" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H317" t="s">
         <v>9</v>
@@ -12723,7 +12726,7 @@
         <v>20.75</v>
       </c>
       <c r="G318" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H318" t="s">
         <v>9</v>
@@ -12749,7 +12752,7 @@
         <v>20.6499996185303</v>
       </c>
       <c r="G319" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H319" t="s">
         <v>9</v>
@@ -12775,7 +12778,7 @@
         <v>20.2600002288818</v>
       </c>
       <c r="G320" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="H320" t="s">
         <v>9</v>
@@ -12801,7 +12804,7 @@
         <v>20.3400001525879</v>
       </c>
       <c r="G321" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H321" t="s">
         <v>9</v>
@@ -12827,7 +12830,7 @@
         <v>20.2999992370605</v>
       </c>
       <c r="G322" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H322" t="s">
         <v>9</v>
@@ -12853,7 +12856,7 @@
         <v>20.6499996185303</v>
       </c>
       <c r="G323" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H323" t="s">
         <v>9</v>
@@ -12879,7 +12882,7 @@
         <v>20.7700004577637</v>
       </c>
       <c r="G324" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H324" t="s">
         <v>9</v>
@@ -12905,7 +12908,7 @@
         <v>20.6000003814697</v>
       </c>
       <c r="G325" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H325" t="s">
         <v>9</v>
@@ -12931,7 +12934,7 @@
         <v>20.6499996185303</v>
       </c>
       <c r="G326" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H326" t="s">
         <v>9</v>
@@ -12957,7 +12960,7 @@
         <v>20.8400001525879</v>
       </c>
       <c r="G327" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H327" t="s">
         <v>9</v>
@@ -12983,7 +12986,7 @@
         <v>20.8999996185303</v>
       </c>
       <c r="G328" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="H328" t="s">
         <v>9</v>
@@ -13009,7 +13012,7 @@
         <v>21</v>
       </c>
       <c r="G329" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H329" t="s">
         <v>9</v>
@@ -13035,7 +13038,7 @@
         <v>21.0200004577637</v>
       </c>
       <c r="G330" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="H330" t="s">
         <v>9</v>
@@ -13061,7 +13064,7 @@
         <v>20.8199996948242</v>
       </c>
       <c r="G331" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H331" t="s">
         <v>9</v>
@@ -13087,7 +13090,7 @@
         <v>21.25</v>
       </c>
       <c r="G332" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H332" t="s">
         <v>9</v>
@@ -13113,7 +13116,7 @@
         <v>21.9400005340576</v>
       </c>
       <c r="G333" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H333" t="s">
         <v>9</v>
@@ -13139,7 +13142,7 @@
         <v>21.5400009155273</v>
       </c>
       <c r="G334" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="H334" t="s">
         <v>9</v>
@@ -13165,7 +13168,7 @@
         <v>20.9699993133545</v>
       </c>
       <c r="G335" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H335" t="s">
         <v>9</v>
@@ -13191,7 +13194,7 @@
         <v>21.75</v>
       </c>
       <c r="G336" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H336" t="s">
         <v>9</v>
@@ -13217,7 +13220,7 @@
         <v>21.8099994659424</v>
       </c>
       <c r="G337" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H337" t="s">
         <v>9</v>
@@ -13243,7 +13246,7 @@
         <v>21.7199993133545</v>
       </c>
       <c r="G338" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H338" t="s">
         <v>9</v>
@@ -13269,7 +13272,7 @@
         <v>21.7299995422363</v>
       </c>
       <c r="G339" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H339" t="s">
         <v>9</v>
@@ -13295,7 +13298,7 @@
         <v>22.1700000762939</v>
       </c>
       <c r="G340" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H340" t="s">
         <v>9</v>
@@ -13321,7 +13324,7 @@
         <v>22.4200000762939</v>
       </c>
       <c r="G341" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H341" t="s">
         <v>9</v>
@@ -13347,7 +13350,7 @@
         <v>22.2600002288818</v>
       </c>
       <c r="G342" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H342" t="s">
         <v>9</v>
@@ -13373,7 +13376,7 @@
         <v>22.0699996948242</v>
       </c>
       <c r="G343" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H343" t="s">
         <v>9</v>
@@ -13399,7 +13402,7 @@
         <v>21.9699993133545</v>
       </c>
       <c r="G344" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H344" t="s">
         <v>9</v>
@@ -13425,7 +13428,7 @@
         <v>22.2299995422363</v>
       </c>
       <c r="G345" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H345" t="s">
         <v>9</v>
@@ -13451,7 +13454,7 @@
         <v>22.8099994659424</v>
       </c>
       <c r="G346" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H346" t="s">
         <v>9</v>
@@ -13477,7 +13480,7 @@
         <v>22.4400005340576</v>
       </c>
       <c r="G347" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H347" t="s">
         <v>9</v>
@@ -13503,7 +13506,7 @@
         <v>22.3700008392334</v>
       </c>
       <c r="G348" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H348" t="s">
         <v>9</v>
@@ -13529,7 +13532,7 @@
         <v>22.5400009155273</v>
       </c>
       <c r="G349" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H349" t="s">
         <v>9</v>
@@ -13555,7 +13558,7 @@
         <v>22.6499996185303</v>
       </c>
       <c r="G350" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H350" t="s">
         <v>9</v>
@@ -13581,7 +13584,7 @@
         <v>22.8500003814697</v>
       </c>
       <c r="G351" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H351" t="s">
         <v>9</v>
@@ -13607,7 +13610,7 @@
         <v>21.8999996185303</v>
       </c>
       <c r="G352" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H352" t="s">
         <v>9</v>
@@ -13633,7 +13636,7 @@
         <v>21.9699993133545</v>
       </c>
       <c r="G353" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H353" t="s">
         <v>9</v>
@@ -13659,7 +13662,7 @@
         <v>22.0499992370605</v>
       </c>
       <c r="G354" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H354" t="s">
         <v>9</v>
@@ -13685,7 +13688,7 @@
         <v>21.5799999237061</v>
       </c>
       <c r="G355" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H355" t="s">
         <v>9</v>
@@ -13711,7 +13714,7 @@
         <v>22.2399997711182</v>
       </c>
       <c r="G356" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H356" t="s">
         <v>9</v>
@@ -13737,7 +13740,7 @@
         <v>22.2000007629395</v>
       </c>
       <c r="G357" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H357" t="s">
         <v>9</v>
@@ -13763,7 +13766,7 @@
         <v>22</v>
       </c>
       <c r="G358" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H358" t="s">
         <v>9</v>
@@ -13789,7 +13792,7 @@
         <v>21.6800003051758</v>
       </c>
       <c r="G359" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H359" t="s">
         <v>9</v>
@@ -13815,7 +13818,7 @@
         <v>21.5100002288818</v>
       </c>
       <c r="G360" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H360" t="s">
         <v>9</v>
@@ -13841,7 +13844,7 @@
         <v>21.7900009155273</v>
       </c>
       <c r="G361" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H361" t="s">
         <v>9</v>
@@ -13867,7 +13870,7 @@
         <v>21.6800003051758</v>
       </c>
       <c r="G362" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H362" t="s">
         <v>9</v>
@@ -13893,7 +13896,7 @@
         <v>22.0200004577637</v>
       </c>
       <c r="G363" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H363" t="s">
         <v>9</v>
@@ -13919,7 +13922,7 @@
         <v>21.9099998474121</v>
       </c>
       <c r="G364" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H364" t="s">
         <v>9</v>
@@ -13945,7 +13948,7 @@
         <v>21.6900005340576</v>
       </c>
       <c r="G365" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="H365" t="s">
         <v>9</v>
@@ -13971,7 +13974,7 @@
         <v>21.9799995422363</v>
       </c>
       <c r="G366" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="H366" t="s">
         <v>9</v>
@@ -13997,7 +14000,7 @@
         <v>22.1499996185303</v>
       </c>
       <c r="G367" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H367" t="s">
         <v>9</v>
@@ -14023,7 +14026,7 @@
         <v>22.2000007629395</v>
       </c>
       <c r="G368" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H368" t="s">
         <v>9</v>
@@ -14049,7 +14052,7 @@
         <v>21.9300003051758</v>
       </c>
       <c r="G369" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H369" t="s">
         <v>9</v>
@@ -14075,7 +14078,7 @@
         <v>21.3999996185303</v>
       </c>
       <c r="G370" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="H370" t="s">
         <v>9</v>
@@ -14101,7 +14104,7 @@
         <v>21.6200008392334</v>
       </c>
       <c r="G371" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H371" t="s">
         <v>9</v>
@@ -14127,7 +14130,7 @@
         <v>21.7999992370605</v>
       </c>
       <c r="G372" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H372" t="s">
         <v>9</v>
@@ -14153,7 +14156,7 @@
         <v>21.6599998474121</v>
       </c>
       <c r="G373" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H373" t="s">
         <v>9</v>
@@ -14179,7 +14182,7 @@
         <v>21.7999992370605</v>
       </c>
       <c r="G374" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H374" t="s">
         <v>9</v>
@@ -14205,7 +14208,7 @@
         <v>22.0400009155273</v>
       </c>
       <c r="G375" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H375" t="s">
         <v>9</v>
@@ -14231,7 +14234,7 @@
         <v>21.6399993896484</v>
       </c>
       <c r="G376" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="H376" t="s">
         <v>9</v>
@@ -14257,7 +14260,7 @@
         <v>21.3899993896484</v>
       </c>
       <c r="G377" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H377" t="s">
         <v>9</v>
@@ -14283,7 +14286,7 @@
         <v>21.4300003051758</v>
       </c>
       <c r="G378" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="H378" t="s">
         <v>9</v>
@@ -14309,7 +14312,7 @@
         <v>21.5</v>
       </c>
       <c r="G379" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H379" t="s">
         <v>9</v>
@@ -14335,7 +14338,7 @@
         <v>21.6100006103516</v>
       </c>
       <c r="G380" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="H380" t="s">
         <v>9</v>
@@ -14361,7 +14364,7 @@
         <v>21.5100002288818</v>
       </c>
       <c r="G381" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H381" t="s">
         <v>9</v>
@@ -14387,7 +14390,7 @@
         <v>21.6299991607666</v>
       </c>
       <c r="G382" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="H382" t="s">
         <v>9</v>
@@ -14413,7 +14416,7 @@
         <v>20.9300003051758</v>
       </c>
       <c r="G383" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H383" t="s">
         <v>9</v>
@@ -14439,7 +14442,7 @@
         <v>20.8099994659424</v>
       </c>
       <c r="G384" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H384" t="s">
         <v>9</v>
@@ -14465,7 +14468,7 @@
         <v>20.7999992370605</v>
       </c>
       <c r="G385" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H385" t="s">
         <v>9</v>
@@ -14491,7 +14494,7 @@
         <v>20.7999992370605</v>
       </c>
       <c r="G386" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H386" t="s">
         <v>9</v>
@@ -14517,7 +14520,7 @@
         <v>20.8999996185303</v>
       </c>
       <c r="G387" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H387" t="s">
         <v>9</v>
@@ -14543,7 +14546,7 @@
         <v>20.6100006103516</v>
       </c>
       <c r="G388" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H388" t="s">
         <v>9</v>
@@ -14569,7 +14572,7 @@
         <v>21</v>
       </c>
       <c r="G389" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H389" t="s">
         <v>9</v>
@@ -14595,7 +14598,7 @@
         <v>20.7900009155273</v>
       </c>
       <c r="G390" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H390" t="s">
         <v>9</v>
@@ -14621,7 +14624,7 @@
         <v>20.6900005340576</v>
       </c>
       <c r="G391" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H391" t="s">
         <v>9</v>
@@ -14647,7 +14650,7 @@
         <v>21</v>
       </c>
       <c r="G392" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H392" t="s">
         <v>9</v>
@@ -14673,7 +14676,7 @@
         <v>21.2000007629395</v>
       </c>
       <c r="G393" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H393" t="s">
         <v>9</v>
@@ -14699,7 +14702,7 @@
         <v>21.3299999237061</v>
       </c>
       <c r="G394" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="H394" t="s">
         <v>9</v>
@@ -14725,7 +14728,7 @@
         <v>21.8500003814697</v>
       </c>
       <c r="G395" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="H395" t="s">
         <v>9</v>
@@ -14751,7 +14754,7 @@
         <v>21.9300003051758</v>
       </c>
       <c r="G396" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H396" t="s">
         <v>9</v>
@@ -14777,7 +14780,7 @@
         <v>22</v>
       </c>
       <c r="G397" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H397" t="s">
         <v>9</v>
@@ -14803,7 +14806,7 @@
         <v>22.2999992370605</v>
       </c>
       <c r="G398" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H398" t="s">
         <v>9</v>
@@ -14829,7 +14832,7 @@
         <v>22.0599994659424</v>
       </c>
       <c r="G399" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H399" t="s">
         <v>9</v>
@@ -14855,7 +14858,7 @@
         <v>22.3600006103516</v>
       </c>
       <c r="G400" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H400" t="s">
         <v>9</v>
@@ -14881,7 +14884,7 @@
         <v>22.3600006103516</v>
       </c>
       <c r="G401" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H401" t="s">
         <v>9</v>
@@ -14907,7 +14910,7 @@
         <v>22.3700008392334</v>
       </c>
       <c r="G402" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H402" t="s">
         <v>9</v>
@@ -14933,7 +14936,7 @@
         <v>22.5</v>
       </c>
       <c r="G403" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H403" t="s">
         <v>9</v>
@@ -14959,7 +14962,7 @@
         <v>21.7700004577637</v>
       </c>
       <c r="G404" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H404" t="s">
         <v>9</v>
@@ -14985,7 +14988,7 @@
         <v>21.6200008392334</v>
       </c>
       <c r="G405" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H405" t="s">
         <v>9</v>
@@ -15011,7 +15014,7 @@
         <v>21.5799999237061</v>
       </c>
       <c r="G406" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H406" t="s">
         <v>9</v>
@@ -15037,7 +15040,7 @@
         <v>21.6900005340576</v>
       </c>
       <c r="G407" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="H407" t="s">
         <v>9</v>
@@ -15063,7 +15066,7 @@
         <v>22.3500003814697</v>
       </c>
       <c r="G408" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H408" t="s">
         <v>9</v>
@@ -15089,7 +15092,7 @@
         <v>22.1499996185303</v>
       </c>
       <c r="G409" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H409" t="s">
         <v>9</v>
@@ -15115,7 +15118,7 @@
         <v>21.6000003814697</v>
       </c>
       <c r="G410" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H410" t="s">
         <v>9</v>
@@ -15141,7 +15144,7 @@
         <v>21.7700004577637</v>
       </c>
       <c r="G411" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H411" t="s">
         <v>9</v>
@@ -15167,7 +15170,7 @@
         <v>21.6000003814697</v>
       </c>
       <c r="G412" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H412" t="s">
         <v>9</v>
@@ -15193,7 +15196,7 @@
         <v>21.4099998474121</v>
       </c>
       <c r="G413" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H413" t="s">
         <v>9</v>
@@ -15219,7 +15222,7 @@
         <v>21.3199996948242</v>
       </c>
       <c r="G414" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H414" t="s">
         <v>9</v>
@@ -15245,7 +15248,7 @@
         <v>21.7000007629395</v>
       </c>
       <c r="G415" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H415" t="s">
         <v>9</v>
@@ -15271,7 +15274,7 @@
         <v>21.6000003814697</v>
       </c>
       <c r="G416" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H416" t="s">
         <v>9</v>
@@ -15297,7 +15300,7 @@
         <v>21.3600006103516</v>
       </c>
       <c r="G417" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="H417" t="s">
         <v>9</v>
@@ -15323,7 +15326,7 @@
         <v>21.1900005340576</v>
       </c>
       <c r="G418" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H418" t="s">
         <v>9</v>
@@ -15349,7 +15352,7 @@
         <v>21.2099990844727</v>
       </c>
       <c r="G419" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H419" t="s">
         <v>9</v>
@@ -15375,7 +15378,7 @@
         <v>21.3600006103516</v>
       </c>
       <c r="G420" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="H420" t="s">
         <v>9</v>
@@ -15401,7 +15404,7 @@
         <v>21.0499992370605</v>
       </c>
       <c r="G421" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H421" t="s">
         <v>9</v>
@@ -15427,7 +15430,7 @@
         <v>20.9899997711182</v>
       </c>
       <c r="G422" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H422" t="s">
         <v>9</v>
@@ -15453,7 +15456,7 @@
         <v>20.7700004577637</v>
       </c>
       <c r="G423" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H423" t="s">
         <v>9</v>
@@ -15479,7 +15482,7 @@
         <v>20.6499996185303</v>
       </c>
       <c r="G424" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H424" t="s">
         <v>9</v>
@@ -15505,7 +15508,7 @@
         <v>20.6299991607666</v>
       </c>
       <c r="G425" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H425" t="s">
         <v>9</v>
@@ -15531,7 +15534,7 @@
         <v>20.7399997711182</v>
       </c>
       <c r="G426" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H426" t="s">
         <v>9</v>
@@ -15557,7 +15560,7 @@
         <v>21.0599994659424</v>
       </c>
       <c r="G427" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H427" t="s">
         <v>9</v>
@@ -15583,7 +15586,7 @@
         <v>21.2299995422363</v>
       </c>
       <c r="G428" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H428" t="s">
         <v>9</v>
@@ -15609,7 +15612,7 @@
         <v>21.3999996185303</v>
       </c>
       <c r="G429" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="H429" t="s">
         <v>9</v>
@@ -15635,7 +15638,7 @@
         <v>21.4799995422363</v>
       </c>
       <c r="G430" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H430" t="s">
         <v>9</v>
@@ -15661,7 +15664,7 @@
         <v>21.4599990844727</v>
       </c>
       <c r="G431" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H431" t="s">
         <v>9</v>
@@ -15687,7 +15690,7 @@
         <v>21.5100002288818</v>
       </c>
       <c r="G432" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H432" t="s">
         <v>9</v>
@@ -15713,7 +15716,7 @@
         <v>21.9300003051758</v>
       </c>
       <c r="G433" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H433" t="s">
         <v>9</v>
@@ -15739,7 +15742,7 @@
         <v>21.8999996185303</v>
       </c>
       <c r="G434" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H434" t="s">
         <v>9</v>
@@ -15765,7 +15768,7 @@
         <v>22.0499992370605</v>
       </c>
       <c r="G435" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H435" t="s">
         <v>9</v>
@@ -15791,7 +15794,7 @@
         <v>22.1499996185303</v>
       </c>
       <c r="G436" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H436" t="s">
         <v>9</v>
@@ -15817,7 +15820,7 @@
         <v>22.3299999237061</v>
       </c>
       <c r="G437" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H437" t="s">
         <v>9</v>
@@ -15843,7 +15846,7 @@
         <v>21.9200000762939</v>
       </c>
       <c r="G438" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H438" t="s">
         <v>9</v>
@@ -15869,7 +15872,7 @@
         <v>22</v>
       </c>
       <c r="G439" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H439" t="s">
         <v>9</v>
@@ -15895,7 +15898,7 @@
         <v>22.0400009155273</v>
       </c>
       <c r="G440" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H440" t="s">
         <v>9</v>
@@ -15921,7 +15924,7 @@
         <v>22.0799999237061</v>
       </c>
       <c r="G441" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H441" t="s">
         <v>9</v>
@@ -15947,7 +15950,7 @@
         <v>22.0799999237061</v>
       </c>
       <c r="G442" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H442" t="s">
         <v>9</v>
@@ -15973,7 +15976,7 @@
         <v>22.0699996948242</v>
       </c>
       <c r="G443" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H443" t="s">
         <v>9</v>
@@ -15999,7 +16002,7 @@
         <v>22.0900001525879</v>
       </c>
       <c r="G444" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H444" t="s">
         <v>9</v>
@@ -16025,7 +16028,7 @@
         <v>22.2000007629395</v>
       </c>
       <c r="G445" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H445" t="s">
         <v>9</v>
@@ -16051,7 +16054,7 @@
         <v>22.3400001525879</v>
       </c>
       <c r="G446" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H446" t="s">
         <v>9</v>
@@ -16077,7 +16080,7 @@
         <v>22.3700008392334</v>
       </c>
       <c r="G447" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H447" t="s">
         <v>9</v>
@@ -16103,7 +16106,7 @@
         <v>22.2999992370605</v>
       </c>
       <c r="G448" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H448" t="s">
         <v>9</v>
@@ -16129,7 +16132,7 @@
         <v>22.3799991607666</v>
       </c>
       <c r="G449" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="H449" t="s">
         <v>9</v>
@@ -16155,7 +16158,7 @@
         <v>22.4699993133545</v>
       </c>
       <c r="G450" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H450" t="s">
         <v>9</v>
@@ -16181,7 +16184,7 @@
         <v>22.3999996185303</v>
       </c>
       <c r="G451" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H451" t="s">
         <v>9</v>
@@ -16207,7 +16210,7 @@
         <v>22.7099990844727</v>
       </c>
       <c r="G452" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H452" t="s">
         <v>9</v>
@@ -16233,7 +16236,7 @@
         <v>22.75</v>
       </c>
       <c r="G453" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H453" t="s">
         <v>9</v>
@@ -16259,7 +16262,7 @@
         <v>22.5900001525879</v>
       </c>
       <c r="G454" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="H454" t="s">
         <v>9</v>
@@ -16285,7 +16288,7 @@
         <v>22.9200000762939</v>
       </c>
       <c r="G455" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H455" t="s">
         <v>9</v>
@@ -16311,7 +16314,7 @@
         <v>22.7299995422363</v>
       </c>
       <c r="G456" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="H456" t="s">
         <v>9</v>
@@ -16337,7 +16340,7 @@
         <v>22.6900005340576</v>
       </c>
       <c r="G457" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H457" t="s">
         <v>9</v>
@@ -16363,7 +16366,7 @@
         <v>22.8899993896484</v>
       </c>
       <c r="G458" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H458" t="s">
         <v>9</v>
@@ -16389,7 +16392,7 @@
         <v>23.4200000762939</v>
       </c>
       <c r="G459" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H459" t="s">
         <v>9</v>
@@ -16415,7 +16418,7 @@
         <v>23.3299999237061</v>
       </c>
       <c r="G460" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="H460" t="s">
         <v>9</v>
@@ -16441,7 +16444,7 @@
         <v>22.7800006866455</v>
       </c>
       <c r="G461" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H461" t="s">
         <v>9</v>
@@ -16467,7 +16470,7 @@
         <v>22.3500003814697</v>
       </c>
       <c r="G462" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H462" t="s">
         <v>9</v>
@@ -16493,7 +16496,7 @@
         <v>22.8700008392334</v>
       </c>
       <c r="G463" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H463" t="s">
         <v>9</v>
@@ -16519,7 +16522,7 @@
         <v>22.6599998474121</v>
       </c>
       <c r="G464" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H464" t="s">
         <v>9</v>
@@ -16545,7 +16548,7 @@
         <v>22.3899993896484</v>
       </c>
       <c r="G465" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="H465" t="s">
         <v>9</v>
@@ -16571,7 +16574,7 @@
         <v>22.1299991607666</v>
       </c>
       <c r="G466" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="H466" t="s">
         <v>9</v>
@@ -16597,7 +16600,7 @@
         <v>22.4500007629395</v>
       </c>
       <c r="G467" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="H467" t="s">
         <v>9</v>
@@ -16623,7 +16626,7 @@
         <v>22.2199993133545</v>
       </c>
       <c r="G468" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H468" t="s">
         <v>9</v>
@@ -16649,7 +16652,7 @@
         <v>22.1700000762939</v>
       </c>
       <c r="G469" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H469" t="s">
         <v>9</v>
@@ -16675,7 +16678,7 @@
         <v>21.9300003051758</v>
       </c>
       <c r="G470" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H470" t="s">
         <v>9</v>
@@ -16701,7 +16704,7 @@
         <v>22.0900001525879</v>
       </c>
       <c r="G471" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H471" t="s">
         <v>9</v>
@@ -16727,7 +16730,7 @@
         <v>22</v>
       </c>
       <c r="G472" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H472" t="s">
         <v>9</v>
@@ -16753,7 +16756,7 @@
         <v>22.1000003814697</v>
       </c>
       <c r="G473" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="H473" t="s">
         <v>9</v>
@@ -16779,7 +16782,7 @@
         <v>21.8400001525879</v>
       </c>
       <c r="G474" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="H474" t="s">
         <v>9</v>
@@ -16805,7 +16808,7 @@
         <v>21.6399993896484</v>
       </c>
       <c r="G475" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="H475" t="s">
         <v>9</v>
@@ -16831,7 +16834,7 @@
         <v>21.4899997711182</v>
       </c>
       <c r="G476" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H476" t="s">
         <v>9</v>
@@ -16857,7 +16860,7 @@
         <v>21.3799991607666</v>
       </c>
       <c r="G477" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H477" t="s">
         <v>9</v>
@@ -16883,7 +16886,7 @@
         <v>21.1499996185303</v>
       </c>
       <c r="G478" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H478" t="s">
         <v>9</v>
@@ -16909,7 +16912,7 @@
         <v>20.75</v>
       </c>
       <c r="G479" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H479" t="s">
         <v>9</v>
@@ -16935,7 +16938,7 @@
         <v>20.4699993133545</v>
       </c>
       <c r="G480" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H480" t="s">
         <v>9</v>
@@ -16961,7 +16964,7 @@
         <v>20.6000003814697</v>
       </c>
       <c r="G481" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H481" t="s">
         <v>9</v>
@@ -16987,7 +16990,7 @@
         <v>21.3199996948242</v>
       </c>
       <c r="G482" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H482" t="s">
         <v>9</v>
@@ -17013,7 +17016,7 @@
         <v>20.9500007629395</v>
       </c>
       <c r="G483" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H483" t="s">
         <v>9</v>
@@ -17039,7 +17042,7 @@
         <v>21.5</v>
       </c>
       <c r="G484" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H484" t="s">
         <v>9</v>
@@ -17065,7 +17068,7 @@
         <v>21.7700004577637</v>
       </c>
       <c r="G485" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H485" t="s">
         <v>9</v>
@@ -17091,7 +17094,7 @@
         <v>21.5599994659424</v>
       </c>
       <c r="G486" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H486" t="s">
         <v>9</v>
@@ -17117,7 +17120,7 @@
         <v>21.3999996185303</v>
       </c>
       <c r="G487" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="H487" t="s">
         <v>9</v>
@@ -17143,7 +17146,7 @@
         <v>21.5100002288818</v>
       </c>
       <c r="G488" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H488" t="s">
         <v>9</v>
@@ -17169,7 +17172,7 @@
         <v>21.4099998474121</v>
       </c>
       <c r="G489" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H489" t="s">
         <v>9</v>
@@ -17195,7 +17198,7 @@
         <v>21.8199996948242</v>
       </c>
       <c r="G490" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H490" t="s">
         <v>9</v>
@@ -17221,7 +17224,7 @@
         <v>21.5799999237061</v>
       </c>
       <c r="G491" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H491" t="s">
         <v>9</v>
@@ -17247,7 +17250,7 @@
         <v>21.7099990844727</v>
       </c>
       <c r="G492" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H492" t="s">
         <v>9</v>
@@ -17273,7 +17276,7 @@
         <v>21.5</v>
       </c>
       <c r="G493" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H493" t="s">
         <v>9</v>
@@ -17299,7 +17302,7 @@
         <v>21.8999996185303</v>
       </c>
       <c r="G494" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H494" t="s">
         <v>9</v>
@@ -17325,7 +17328,7 @@
         <v>21.9400005340576</v>
       </c>
       <c r="G495" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H495" t="s">
         <v>9</v>
@@ -17351,7 +17354,7 @@
         <v>21.7399997711182</v>
       </c>
       <c r="G496" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H496" t="s">
         <v>9</v>
@@ -17377,7 +17380,7 @@
         <v>21.8899993896484</v>
       </c>
       <c r="G497" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="H497" t="s">
         <v>9</v>
@@ -17403,7 +17406,7 @@
         <v>21.6599998474121</v>
       </c>
       <c r="G498" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H498" t="s">
         <v>9</v>
@@ -17429,7 +17432,7 @@
         <v>21.7999992370605</v>
       </c>
       <c r="G499" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H499" t="s">
         <v>9</v>
@@ -17455,7 +17458,7 @@
         <v>21.3899993896484</v>
       </c>
       <c r="G500" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H500" t="s">
         <v>9</v>
@@ -17481,7 +17484,7 @@
         <v>21.3799991607666</v>
       </c>
       <c r="G501" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H501" t="s">
         <v>9</v>
@@ -17507,7 +17510,7 @@
         <v>21.1499996185303</v>
       </c>
       <c r="G502" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H502" t="s">
         <v>9</v>
@@ -17533,7 +17536,7 @@
         <v>21.2399997711182</v>
       </c>
       <c r="G503" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H503" t="s">
         <v>9</v>
@@ -17559,7 +17562,7 @@
         <v>21</v>
       </c>
       <c r="G504" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H504" t="s">
         <v>9</v>
@@ -17585,7 +17588,7 @@
         <v>20.7600002288818</v>
       </c>
       <c r="G505" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H505" t="s">
         <v>9</v>
@@ -17611,7 +17614,7 @@
         <v>21.2900009155273</v>
       </c>
       <c r="G506" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="H506" t="s">
         <v>9</v>
@@ -17637,7 +17640,7 @@
         <v>21.3600006103516</v>
       </c>
       <c r="G507" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="H507" t="s">
         <v>9</v>
@@ -17663,7 +17666,7 @@
         <v>21.2800006866455</v>
       </c>
       <c r="G508" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="H508" t="s">
         <v>9</v>
@@ -17689,7 +17692,7 @@
         <v>21.6599998474121</v>
       </c>
       <c r="G509" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H509" t="s">
         <v>9</v>
@@ -17715,7 +17718,7 @@
         <v>21.6700000762939</v>
       </c>
       <c r="G510" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="H510" t="s">
         <v>9</v>
@@ -17741,7 +17744,7 @@
         <v>21.5200004577637</v>
       </c>
       <c r="G511" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H511" t="s">
         <v>9</v>
@@ -17767,7 +17770,7 @@
         <v>21.5</v>
       </c>
       <c r="G512" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H512" t="s">
         <v>9</v>
@@ -17793,7 +17796,7 @@
         <v>21.6000003814697</v>
       </c>
       <c r="G513" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H513" t="s">
         <v>9</v>
@@ -17819,7 +17822,7 @@
         <v>21.7199993133545</v>
       </c>
       <c r="G514" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H514" t="s">
         <v>9</v>
@@ -17845,7 +17848,7 @@
         <v>21.9200000762939</v>
       </c>
       <c r="G515" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H515" t="s">
         <v>9</v>
@@ -17871,7 +17874,7 @@
         <v>21.9200000762939</v>
       </c>
       <c r="G516" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H516" t="s">
         <v>9</v>
@@ -17897,7 +17900,7 @@
         <v>21.7399997711182</v>
       </c>
       <c r="G517" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H517" t="s">
         <v>9</v>
@@ -17923,7 +17926,7 @@
         <v>21.2199993133545</v>
       </c>
       <c r="G518" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="H518" t="s">
         <v>9</v>
@@ -17949,7 +17952,7 @@
         <v>21.3600006103516</v>
       </c>
       <c r="G519" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="H519" t="s">
         <v>9</v>
@@ -17975,7 +17978,7 @@
         <v>21.7399997711182</v>
       </c>
       <c r="G520" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H520" t="s">
         <v>9</v>
@@ -18001,7 +18004,7 @@
         <v>22.0200004577637</v>
       </c>
       <c r="G521" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H521" t="s">
         <v>9</v>
@@ -18027,7 +18030,7 @@
         <v>22.2000007629395</v>
       </c>
       <c r="G522" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H522" t="s">
         <v>9</v>
@@ -18053,7 +18056,7 @@
         <v>22.3400001525879</v>
       </c>
       <c r="G523" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H523" t="s">
         <v>9</v>
@@ -18079,7 +18082,7 @@
         <v>22.4200000762939</v>
       </c>
       <c r="G524" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H524" t="s">
         <v>9</v>
@@ -18105,7 +18108,7 @@
         <v>22.4799995422363</v>
       </c>
       <c r="G525" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="H525" t="s">
         <v>9</v>
@@ -18131,7 +18134,7 @@
         <v>22.6200008392334</v>
       </c>
       <c r="G526" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="H526" t="s">
         <v>9</v>
@@ -18157,7 +18160,7 @@
         <v>22.7000007629395</v>
       </c>
       <c r="G527" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="H527" t="s">
         <v>9</v>
@@ -18183,7 +18186,7 @@
         <v>22.8799991607666</v>
       </c>
       <c r="G528" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H528" t="s">
         <v>9</v>
@@ -18209,7 +18212,7 @@
         <v>22.5200004577637</v>
       </c>
       <c r="G529" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H529" t="s">
         <v>9</v>
@@ -18235,7 +18238,7 @@
         <v>22.8199996948242</v>
       </c>
       <c r="G530" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H530" t="s">
         <v>9</v>
@@ -18261,7 +18264,7 @@
         <v>22.4200000762939</v>
       </c>
       <c r="G531" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H531" t="s">
         <v>9</v>
@@ -18287,7 +18290,7 @@
         <v>22.3199996948242</v>
       </c>
       <c r="G532" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H532" t="s">
         <v>9</v>
@@ -18313,7 +18316,7 @@
         <v>22.2800006866455</v>
       </c>
       <c r="G533" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H533" t="s">
         <v>9</v>
@@ -18339,7 +18342,7 @@
         <v>22.6399993896484</v>
       </c>
       <c r="G534" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H534" t="s">
         <v>9</v>
@@ -18365,7 +18368,7 @@
         <v>22.0599994659424</v>
       </c>
       <c r="G535" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H535" t="s">
         <v>9</v>
@@ -18391,7 +18394,7 @@
         <v>21.6599998474121</v>
       </c>
       <c r="G536" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H536" t="s">
         <v>9</v>
@@ -18417,7 +18420,7 @@
         <v>21.3400001525879</v>
       </c>
       <c r="G537" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H537" t="s">
         <v>9</v>
@@ -18443,7 +18446,7 @@
         <v>21.9599990844727</v>
       </c>
       <c r="G538" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H538" t="s">
         <v>9</v>
@@ -18469,7 +18472,7 @@
         <v>21.1399993896484</v>
       </c>
       <c r="G539" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H539" t="s">
         <v>9</v>
@@ -18495,7 +18498,7 @@
         <v>21</v>
       </c>
       <c r="G540" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H540" t="s">
         <v>9</v>
@@ -18521,7 +18524,7 @@
         <v>20.7600002288818</v>
       </c>
       <c r="G541" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H541" t="s">
         <v>9</v>
@@ -18547,7 +18550,7 @@
         <v>21</v>
       </c>
       <c r="G542" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H542" t="s">
         <v>9</v>
@@ -18573,7 +18576,7 @@
         <v>21.0799999237061</v>
       </c>
       <c r="G543" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H543" t="s">
         <v>9</v>
@@ -18599,7 +18602,7 @@
         <v>21</v>
       </c>
       <c r="G544" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H544" t="s">
         <v>9</v>
@@ -18625,7 +18628,7 @@
         <v>21.3400001525879</v>
       </c>
       <c r="G545" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H545" t="s">
         <v>9</v>
@@ -18651,7 +18654,7 @@
         <v>21.3999996185303</v>
       </c>
       <c r="G546" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="H546" t="s">
         <v>9</v>
@@ -18677,7 +18680,7 @@
         <v>21.6800003051758</v>
       </c>
       <c r="G547" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H547" t="s">
         <v>9</v>
@@ -18703,7 +18706,7 @@
         <v>21.4799995422363</v>
       </c>
       <c r="G548" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H548" t="s">
         <v>9</v>
@@ -18729,7 +18732,7 @@
         <v>21.4599990844727</v>
       </c>
       <c r="G549" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H549" t="s">
         <v>9</v>
@@ -18755,7 +18758,7 @@
         <v>21.5799999237061</v>
       </c>
       <c r="G550" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H550" t="s">
         <v>9</v>
@@ -18781,7 +18784,7 @@
         <v>21.7999992370605</v>
       </c>
       <c r="G551" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H551" t="s">
         <v>9</v>
@@ -18807,7 +18810,7 @@
         <v>22.0200004577637</v>
       </c>
       <c r="G552" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H552" t="s">
         <v>9</v>
@@ -18833,7 +18836,7 @@
         <v>21.8600006103516</v>
       </c>
       <c r="G553" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H553" t="s">
         <v>9</v>
@@ -18859,7 +18862,7 @@
         <v>21.5400009155273</v>
       </c>
       <c r="G554" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H554" t="s">
         <v>9</v>
@@ -18885,7 +18888,7 @@
         <v>21.1399993896484</v>
       </c>
       <c r="G555" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H555" t="s">
         <v>9</v>
@@ -18911,7 +18914,7 @@
         <v>21</v>
       </c>
       <c r="G556" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H556" t="s">
         <v>9</v>
@@ -18937,7 +18940,7 @@
         <v>21.0400009155273</v>
       </c>
       <c r="G557" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="H557" t="s">
         <v>9</v>
@@ -18963,7 +18966,7 @@
         <v>21.1000003814697</v>
       </c>
       <c r="G558" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H558" t="s">
         <v>9</v>
@@ -18989,7 +18992,7 @@
         <v>21.8999996185303</v>
       </c>
       <c r="G559" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H559" t="s">
         <v>9</v>
@@ -19015,7 +19018,7 @@
         <v>22.3600006103516</v>
       </c>
       <c r="G560" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H560" t="s">
         <v>9</v>
@@ -19041,7 +19044,7 @@
         <v>22.5400009155273</v>
       </c>
       <c r="G561" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H561" t="s">
         <v>9</v>
@@ -19067,7 +19070,7 @@
         <v>22.3999996185303</v>
       </c>
       <c r="G562" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H562" t="s">
         <v>9</v>
@@ -19093,7 +19096,7 @@
         <v>22.5</v>
       </c>
       <c r="G563" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H563" t="s">
         <v>9</v>
@@ -19119,7 +19122,7 @@
         <v>23.8600006103516</v>
       </c>
       <c r="G564" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H564" t="s">
         <v>9</v>
@@ -19145,7 +19148,7 @@
         <v>23.7800006866455</v>
       </c>
       <c r="G565" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H565" t="s">
         <v>9</v>
@@ -19171,7 +19174,7 @@
         <v>24.4200000762939</v>
       </c>
       <c r="G566" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H566" t="s">
         <v>9</v>
@@ -19197,7 +19200,7 @@
         <v>24.7600002288818</v>
       </c>
       <c r="G567" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H567" t="s">
         <v>9</v>
@@ -19223,7 +19226,7 @@
         <v>24.5799999237061</v>
       </c>
       <c r="G568" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="H568" t="s">
         <v>9</v>
@@ -19249,7 +19252,7 @@
         <v>24.4599990844727</v>
       </c>
       <c r="G569" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H569" t="s">
         <v>9</v>
@@ -19275,7 +19278,7 @@
         <v>24.1800003051758</v>
       </c>
       <c r="G570" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="H570" t="s">
         <v>9</v>
@@ -19301,7 +19304,7 @@
         <v>24.1599998474121</v>
       </c>
       <c r="G571" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="H571" t="s">
         <v>9</v>
@@ -19327,7 +19330,7 @@
         <v>24.1599998474121</v>
       </c>
       <c r="G572" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="H572" t="s">
         <v>9</v>
@@ -19353,7 +19356,7 @@
         <v>24.2399997711182</v>
       </c>
       <c r="G573" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H573" t="s">
         <v>9</v>
@@ -19379,7 +19382,7 @@
         <v>24.1399993896484</v>
       </c>
       <c r="G574" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H574" t="s">
         <v>9</v>
@@ -19405,7 +19408,7 @@
         <v>24.2999992370605</v>
       </c>
       <c r="G575" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H575" t="s">
         <v>9</v>
@@ -19431,7 +19434,7 @@
         <v>24.8999996185303</v>
       </c>
       <c r="G576" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H576" t="s">
         <v>9</v>
@@ -19457,7 +19460,7 @@
         <v>25.1399993896484</v>
       </c>
       <c r="G577" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="H577" t="s">
         <v>9</v>
@@ -19483,7 +19486,7 @@
         <v>25.0200004577637</v>
       </c>
       <c r="G578" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="H578" t="s">
         <v>9</v>
@@ -19509,7 +19512,7 @@
         <v>25.1000003814697</v>
       </c>
       <c r="G579" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="H579" t="s">
         <v>9</v>
@@ -19535,7 +19538,7 @@
         <v>25.2999992370605</v>
       </c>
       <c r="G580" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="H580" t="s">
         <v>9</v>
@@ -19561,7 +19564,7 @@
         <v>24.7600002288818</v>
       </c>
       <c r="G581" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H581" t="s">
         <v>9</v>
@@ -19587,7 +19590,7 @@
         <v>25</v>
       </c>
       <c r="G582" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="H582" t="s">
         <v>9</v>
@@ -19613,7 +19616,7 @@
         <v>25.1399993896484</v>
       </c>
       <c r="G583" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="H583" t="s">
         <v>9</v>
@@ -19639,7 +19642,7 @@
         <v>24.7999992370605</v>
       </c>
       <c r="G584" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="H584" t="s">
         <v>9</v>
@@ -19665,7 +19668,7 @@
         <v>24.7199993133545</v>
       </c>
       <c r="G585" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H585" t="s">
         <v>9</v>
@@ -19691,7 +19694,7 @@
         <v>24.8999996185303</v>
       </c>
       <c r="G586" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H586" t="s">
         <v>9</v>
@@ -19717,7 +19720,7 @@
         <v>24.7800006866455</v>
       </c>
       <c r="G587" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H587" t="s">
         <v>9</v>
@@ -19743,7 +19746,7 @@
         <v>24.9400005340576</v>
       </c>
       <c r="G588" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H588" t="s">
         <v>9</v>
@@ -19769,7 +19772,7 @@
         <v>24.8799991607666</v>
       </c>
       <c r="G589" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="H589" t="s">
         <v>9</v>
@@ -19795,7 +19798,7 @@
         <v>24.8400001525879</v>
       </c>
       <c r="G590" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="H590" t="s">
         <v>9</v>
@@ -19821,7 +19824,7 @@
         <v>24.8799991607666</v>
       </c>
       <c r="G591" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="H591" t="s">
         <v>9</v>
@@ -19847,7 +19850,7 @@
         <v>24.9200000762939</v>
       </c>
       <c r="G592" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="H592" t="s">
         <v>9</v>
@@ -19873,7 +19876,7 @@
         <v>24.8799991607666</v>
       </c>
       <c r="G593" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="H593" t="s">
         <v>9</v>
@@ -19899,7 +19902,7 @@
         <v>25.0200004577637</v>
       </c>
       <c r="G594" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="H594" t="s">
         <v>9</v>
@@ -19925,7 +19928,7 @@
         <v>25.2600002288818</v>
       </c>
       <c r="G595" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="H595" t="s">
         <v>9</v>
@@ -19951,7 +19954,7 @@
         <v>25.3999996185303</v>
       </c>
       <c r="G596" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="H596" t="s">
         <v>9</v>
@@ -19977,7 +19980,7 @@
         <v>25.3400001525879</v>
       </c>
       <c r="G597" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="H597" t="s">
         <v>9</v>
@@ -20003,7 +20006,7 @@
         <v>25.2000007629395</v>
       </c>
       <c r="G598" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H598" t="s">
         <v>9</v>
@@ -20029,7 +20032,7 @@
         <v>25.2399997711182</v>
       </c>
       <c r="G599" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H599" t="s">
         <v>9</v>
@@ -20055,7 +20058,7 @@
         <v>25.1599998474121</v>
       </c>
       <c r="G600" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="H600" t="s">
         <v>9</v>
@@ -20081,7 +20084,7 @@
         <v>25.1599998474121</v>
       </c>
       <c r="G601" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="H601" t="s">
         <v>9</v>
@@ -20107,7 +20110,7 @@
         <v>25.1000003814697</v>
       </c>
       <c r="G602" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="H602" t="s">
         <v>9</v>
@@ -20133,7 +20136,7 @@
         <v>25.3600006103516</v>
       </c>
       <c r="G603" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="H603" t="s">
         <v>9</v>
@@ -20159,7 +20162,7 @@
         <v>24.7600002288818</v>
       </c>
       <c r="G604" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H604" t="s">
         <v>9</v>
@@ -20185,7 +20188,7 @@
         <v>24.1399993896484</v>
       </c>
       <c r="G605" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H605" t="s">
         <v>9</v>
@@ -20211,7 +20214,7 @@
         <v>24.1399993896484</v>
       </c>
       <c r="G606" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H606" t="s">
         <v>9</v>
@@ -20237,7 +20240,7 @@
         <v>23.4599990844727</v>
       </c>
       <c r="G607" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="H607" t="s">
         <v>9</v>
@@ -20263,7 +20266,7 @@
         <v>23.7399997711182</v>
       </c>
       <c r="G608" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="H608" t="s">
         <v>9</v>
@@ -20289,7 +20292,7 @@
         <v>23.4200000762939</v>
       </c>
       <c r="G609" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H609" t="s">
         <v>9</v>
@@ -20315,7 +20318,7 @@
         <v>23.4200000762939</v>
       </c>
       <c r="G610" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H610" t="s">
         <v>9</v>
@@ -20341,7 +20344,7 @@
         <v>23.3799991607666</v>
       </c>
       <c r="G611" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="H611" t="s">
         <v>9</v>
@@ -20367,7 +20370,7 @@
         <v>23.3199996948242</v>
       </c>
       <c r="G612" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="H612" t="s">
         <v>9</v>
@@ -20393,7 +20396,7 @@
         <v>22.7600002288818</v>
       </c>
       <c r="G613" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="H613" t="s">
         <v>9</v>
@@ -20419,7 +20422,7 @@
         <v>22.4799995422363</v>
       </c>
       <c r="G614" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="H614" t="s">
         <v>9</v>
@@ -20445,7 +20448,7 @@
         <v>23</v>
       </c>
       <c r="G615" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="H615" t="s">
         <v>9</v>
@@ -20471,7 +20474,7 @@
         <v>22.7999992370605</v>
       </c>
       <c r="G616" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="H616" t="s">
         <v>9</v>
@@ -20497,7 +20500,7 @@
         <v>23.3199996948242</v>
       </c>
       <c r="G617" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="H617" t="s">
         <v>9</v>
@@ -20523,7 +20526,7 @@
         <v>23.1800003051758</v>
       </c>
       <c r="G618" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="H618" t="s">
         <v>9</v>
@@ -20549,7 +20552,7 @@
         <v>23.2800006866455</v>
       </c>
       <c r="G619" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="H619" t="s">
         <v>9</v>
@@ -20575,7 +20578,7 @@
         <v>23.2399997711182</v>
       </c>
       <c r="G620" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="H620" t="s">
         <v>9</v>
@@ -20601,7 +20604,7 @@
         <v>23.1599998474121</v>
       </c>
       <c r="G621" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="H621" t="s">
         <v>9</v>
@@ -20627,7 +20630,7 @@
         <v>22.7399997711182</v>
       </c>
       <c r="G622" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="H622" t="s">
         <v>9</v>
@@ -20653,7 +20656,7 @@
         <v>23.0799999237061</v>
       </c>
       <c r="G623" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="H623" t="s">
         <v>9</v>
@@ -20679,7 +20682,7 @@
         <v>23.3999996185303</v>
       </c>
       <c r="G624" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="H624" t="s">
         <v>9</v>
@@ -20705,7 +20708,7 @@
         <v>23.3999996185303</v>
       </c>
       <c r="G625" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="H625" t="s">
         <v>9</v>
@@ -20731,7 +20734,7 @@
         <v>23.3400001525879</v>
       </c>
       <c r="G626" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="H626" t="s">
         <v>9</v>
@@ -20757,7 +20760,7 @@
         <v>23.0599994659424</v>
       </c>
       <c r="G627" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="H627" t="s">
         <v>9</v>
@@ -20783,7 +20786,7 @@
         <v>23.1200008392334</v>
       </c>
       <c r="G628" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="H628" t="s">
         <v>9</v>
@@ -20809,7 +20812,7 @@
         <v>23.0799999237061</v>
       </c>
       <c r="G629" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="H629" t="s">
         <v>9</v>
@@ -20835,7 +20838,7 @@
         <v>22.9400005340576</v>
       </c>
       <c r="G630" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="H630" t="s">
         <v>9</v>
@@ -20861,7 +20864,7 @@
         <v>22.2999992370605</v>
       </c>
       <c r="G631" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="H631" t="s">
         <v>9</v>
@@ -20887,7 +20890,7 @@
         <v>22.7600002288818</v>
       </c>
       <c r="G632" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="H632" t="s">
         <v>9</v>
@@ -20913,7 +20916,7 @@
         <v>22.3199996948242</v>
       </c>
       <c r="G633" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="H633" t="s">
         <v>9</v>
@@ -20939,7 +20942,7 @@
         <v>22.1800003051758</v>
       </c>
       <c r="G634" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="H634" t="s">
         <v>9</v>
@@ -20965,7 +20968,7 @@
         <v>22.4400005340576</v>
       </c>
       <c r="G635" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="H635" t="s">
         <v>9</v>
@@ -20991,7 +20994,7 @@
         <v>22.5</v>
       </c>
       <c r="G636" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="H636" t="s">
         <v>9</v>
@@ -21017,7 +21020,7 @@
         <v>22.5799999237061</v>
       </c>
       <c r="G637" t="s">
-        <v>457</v>
+        <v>436</v>
       </c>
       <c r="H637" t="s">
         <v>9</v>
@@ -21069,7 +21072,7 @@
         <v>22.5799999237061</v>
       </c>
       <c r="G639" t="s">
-        <v>457</v>
+        <v>436</v>
       </c>
       <c r="H639" t="s">
         <v>9</v>
@@ -21121,7 +21124,7 @@
         <v>22.7999992370605</v>
       </c>
       <c r="G641" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="H641" t="s">
         <v>9</v>
@@ -21459,7 +21462,7 @@
         <v>23.2800006866455</v>
       </c>
       <c r="G654" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="H654" t="s">
         <v>9</v>
@@ -21537,7 +21540,7 @@
         <v>23.3199996948242</v>
       </c>
       <c r="G657" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="H657" t="s">
         <v>9</v>
@@ -21563,7 +21566,7 @@
         <v>23.2800006866455</v>
       </c>
       <c r="G658" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="H658" t="s">
         <v>9</v>
@@ -22941,7 +22944,7 @@
         <v>23</v>
       </c>
       <c r="G711" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="H711" t="s">
         <v>9</v>
@@ -61741,7 +61744,7 @@
     </row>
     <row r="2204">
       <c r="A2204" s="1" t="n">
-        <v>45532.6493634259</v>
+        <v>45532.2916666667</v>
       </c>
       <c r="B2204" t="n">
         <v>63143</v>
@@ -61762,6 +61765,32 @@
         <v>1329</v>
       </c>
       <c r="H2204" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2205">
+      <c r="A2205" s="1" t="n">
+        <v>45533.6494328704</v>
+      </c>
+      <c r="B2205" t="n">
+        <v>62006</v>
+      </c>
+      <c r="C2205" t="n">
+        <v>11.5200004577637</v>
+      </c>
+      <c r="D2205" t="n">
+        <v>11.2600002288818</v>
+      </c>
+      <c r="E2205" t="n">
+        <v>11.3599996566772</v>
+      </c>
+      <c r="F2205" t="n">
+        <v>11.460000038147</v>
+      </c>
+      <c r="G2205" t="s">
+        <v>1370</v>
+      </c>
+      <c r="H2205" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/MARR.MI.xlsx
+++ b/data/MARR.MI.xlsx
@@ -38,46 +38,46 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2729787826538</t>
+    <t xml:space="preserve">14.2729768753052</t>
   </si>
   <si>
     <t xml:space="preserve">MARR.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1046991348267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9899673461914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7910947799683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7451992034912</t>
+    <t xml:space="preserve">14.1047019958496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9899682998657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7910938262939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7452001571655</t>
   </si>
   <si>
     <t xml:space="preserve">13.3627490997314</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4315891265869</t>
+    <t xml:space="preserve">13.4315910339355</t>
   </si>
   <si>
     <t xml:space="preserve">13.5157299041748</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2021217346191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2097721099854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7202367782593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8273220062256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3607358932495</t>
+    <t xml:space="preserve">13.2021226882935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2097702026367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.720235824585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8273239135742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3607339859009</t>
   </si>
   <si>
     <t xml:space="preserve">12.9650058746338</t>
@@ -86,64 +86,64 @@
     <t xml:space="preserve">13.6228160858154</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4545392990112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3321542739868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3245048522949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4162931442261</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5004320144653</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7681455612183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5616226196289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0873880386353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2786130905151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0491437911987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1083192825317</t>
+    <t xml:space="preserve">13.4545373916626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3321552276611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3245067596436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4162950515747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5004301071167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7681474685669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5616235733032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0873899459839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2786140441895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0491428375244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1083211898804</t>
   </si>
   <si>
     <t xml:space="preserve">12.1542139053345</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6131525039673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.299542427063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6208009719849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6590452194214</t>
+    <t xml:space="preserve">12.613151550293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2995433807373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6208000183105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6590442657471</t>
   </si>
   <si>
     <t xml:space="preserve">12.7814292907715</t>
   </si>
   <si>
-    <t xml:space="preserve">12.94970703125</t>
+    <t xml:space="preserve">12.9497079849243</t>
   </si>
   <si>
     <t xml:space="preserve">13.1562299728394</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4851341247559</t>
+    <t xml:space="preserve">13.4851322174072</t>
   </si>
   <si>
     <t xml:space="preserve">13.3780488967896</t>
@@ -155,37 +155,37 @@
     <t xml:space="preserve">13.7299013137817</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9670181274414</t>
+    <t xml:space="preserve">13.9670190811157</t>
   </si>
   <si>
     <t xml:space="preserve">13.737548828125</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8752317428589</t>
+    <t xml:space="preserve">13.8752307891846</t>
   </si>
   <si>
     <t xml:space="preserve">13.6763572692871</t>
   </si>
   <si>
-    <t xml:space="preserve">13.370400428772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8196754455566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1179819107056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.446888923645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5998706817627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4774875640869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6610593795776</t>
+    <t xml:space="preserve">13.3703994750977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.819673538208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1179838180542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4468908309937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5998697280884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4774856567383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6610612869263</t>
   </si>
   <si>
     <t xml:space="preserve">13.2174205780029</t>
@@ -194,19 +194,19 @@
     <t xml:space="preserve">13.1026849746704</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4621849060059</t>
+    <t xml:space="preserve">13.4621906280518</t>
   </si>
   <si>
     <t xml:space="preserve">13.5386781692505</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9593696594238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0817546844482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.150595664978</t>
+    <t xml:space="preserve">13.9593706130981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0817537307739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1505947113037</t>
   </si>
   <si>
     <t xml:space="preserve">13.8828802108765</t>
@@ -215,31 +215,31 @@
     <t xml:space="preserve">13.997615814209</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0741033554077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5483427047729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3188724517822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1658926010132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7987422943115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6916561126709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6151676177979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5769214630127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8599338531494</t>
+    <t xml:space="preserve">14.0741062164307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.54833984375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3188714981079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1658916473389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7987442016602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6916570663452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6151666641235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.576922416687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8599328994751</t>
   </si>
   <si>
     <t xml:space="preserve">13.9058275222778</t>
@@ -251,22 +251,22 @@
     <t xml:space="preserve">14.0970516204834</t>
   </si>
   <si>
-    <t xml:space="preserve">13.944073677063</t>
+    <t xml:space="preserve">13.94407081604</t>
   </si>
   <si>
     <t xml:space="preserve">13.630464553833</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6840076446533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6993064880371</t>
+    <t xml:space="preserve">13.684006690979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6993055343628</t>
   </si>
   <si>
     <t xml:space="preserve">13.8216905593872</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4392395019531</t>
+    <t xml:space="preserve">13.4392414093018</t>
   </si>
   <si>
     <t xml:space="preserve">13.6687097549438</t>
@@ -278,43 +278,43 @@
     <t xml:space="preserve">13.5310277938843</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8250074386597</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.817063331604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0713167190552</t>
+    <t xml:space="preserve">13.825008392334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8170623779297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0713157653809</t>
   </si>
   <si>
     <t xml:space="preserve">14.0633716583252</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2540616989136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3096771240234</t>
+    <t xml:space="preserve">14.2540597915649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3096790313721</t>
   </si>
   <si>
     <t xml:space="preserve">14.1269359588623</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0792589187622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3017320632935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1904964447021</t>
+    <t xml:space="preserve">14.0792608261108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3017349243164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1904973983765</t>
   </si>
   <si>
     <t xml:space="preserve">14.1030979156494</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0872058868408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0951509475708</t>
+    <t xml:space="preserve">14.0872049331665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0951528549194</t>
   </si>
   <si>
     <t xml:space="preserve">13.5866470336914</t>
@@ -323,13 +323,13 @@
     <t xml:space="preserve">13.6740455627441</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3880128860474</t>
+    <t xml:space="preserve">13.388011932373</t>
   </si>
   <si>
     <t xml:space="preserve">13.0701961517334</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2132110595703</t>
+    <t xml:space="preserve">13.2132120132446</t>
   </si>
   <si>
     <t xml:space="preserve">13.5945930480957</t>
@@ -338,43 +338,43 @@
     <t xml:space="preserve">13.5787010192871</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8806266784668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2052688598633</t>
+    <t xml:space="preserve">13.8806247711182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2052669525146</t>
   </si>
   <si>
     <t xml:space="preserve">12.5060701370239</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0384130477905</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.51513671875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2461156845093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3573503494263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8567914962769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2778959274292</t>
+    <t xml:space="preserve">13.0384120941162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5151376724243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.246114730835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3573522567749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8567886352539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2778968811035</t>
   </si>
   <si>
     <t xml:space="preserve">14.1507692337036</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6036577224731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5718784332275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5639305114746</t>
+    <t xml:space="preserve">14.6036567687988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5718755722046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5639314651489</t>
   </si>
   <si>
     <t xml:space="preserve">14.3652963638306</t>
@@ -389,271 +389,271 @@
     <t xml:space="preserve">14.8738012313843</t>
   </si>
   <si>
-    <t xml:space="preserve">14.548041343689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6990032196045</t>
+    <t xml:space="preserve">14.5480394363403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6990041732788</t>
   </si>
   <si>
     <t xml:space="preserve">14.9770927429199</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8340740203857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9453096389771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5877685546875</t>
+    <t xml:space="preserve">14.8340768814087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9453105926514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5877676010132</t>
   </si>
   <si>
     <t xml:space="preserve">14.8579120635986</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3335151672363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4765319824219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5003671646118</t>
+    <t xml:space="preserve">14.333517074585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4765310287476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5003690719604</t>
   </si>
   <si>
     <t xml:space="preserve">14.4447498321533</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1666593551636</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2381715774536</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0315895080566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8885726928711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9044637680054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8647356033325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0474805831909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9521341323853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.721718788147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0156984329224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9124059677124</t>
+    <t xml:space="preserve">14.1666612625122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.238169670105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.031587600708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8885707855225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9044628143311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8647346496582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0474796295166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9521331787109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7217168807983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0156993865967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.912407875061</t>
   </si>
   <si>
     <t xml:space="preserve">14.0077514648438</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9203538894653</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8091163635254</t>
+    <t xml:space="preserve">13.920352935791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8091173171997</t>
   </si>
   <si>
     <t xml:space="preserve">13.7058267593384</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6502113342285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7376079559326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9998092651367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.230224609375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1746063232422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0236434936523</t>
+    <t xml:space="preserve">13.6502103805542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7376098632812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9998083114624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2302236557007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1746072769165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0236415863037</t>
   </si>
   <si>
     <t xml:space="preserve">14.1587162017822</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7614469528198</t>
+    <t xml:space="preserve">13.7614450454712</t>
   </si>
   <si>
     <t xml:space="preserve">13.6661014556885</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6184272766113</t>
+    <t xml:space="preserve">13.6184282302856</t>
   </si>
   <si>
     <t xml:space="preserve">13.7773361206055</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5469198226929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4913005828857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6581563949585</t>
+    <t xml:space="preserve">13.5469188690186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4913015365601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6581544876099</t>
   </si>
   <si>
     <t xml:space="preserve">13.5389738082886</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4595212936401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3482837677002</t>
+    <t xml:space="preserve">13.4595203399658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3482828140259</t>
   </si>
   <si>
     <t xml:space="preserve">13.316502571106</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3006105422974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3323945999146</t>
+    <t xml:space="preserve">13.300612449646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3323926925659</t>
   </si>
   <si>
     <t xml:space="preserve">13.3244476318359</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1814308166504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0304679870605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2370500564575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2688302993774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1575937271118</t>
+    <t xml:space="preserve">13.1814298629761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0304670333862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2370491027832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2688322067261</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1575927734375</t>
   </si>
   <si>
     <t xml:space="preserve">12.7126512527466</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1178674697876</t>
+    <t xml:space="preserve">13.1178665161133</t>
   </si>
   <si>
     <t xml:space="preserve">13.2608852386475</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1417026519775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1655406951904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0225219726562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9112863540649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0066318511963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0940294265747</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0781383514404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.50719165802</t>
+    <t xml:space="preserve">13.1417055130005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1655378341675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0225210189819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9112873077393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0066328048706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0940313339233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0781393051147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5071926116943</t>
   </si>
   <si>
     <t xml:space="preserve">13.4515752792358</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5707540512085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8965167999268</t>
+    <t xml:space="preserve">13.5707559585571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8965177536011</t>
   </si>
   <si>
     <t xml:space="preserve">13.7455530166626</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9362459182739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7852830886841</t>
+    <t xml:space="preserve">13.9362449645996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7852821350098</t>
   </si>
   <si>
     <t xml:space="preserve">13.944188117981</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9680242538452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9918642044067</t>
+    <t xml:space="preserve">13.9680271148682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9918632507324</t>
   </si>
   <si>
     <t xml:space="preserve">13.9759702682495</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0395345687866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.801173210144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9839153289795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2222776412964</t>
+    <t xml:space="preserve">14.0395355224609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8011741638184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9839191436768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2222785949707</t>
   </si>
   <si>
     <t xml:space="preserve">14.2063865661621</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7148952484131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7705125808716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3494062423706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2699518203735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1825504302979</t>
+    <t xml:space="preserve">14.7148923873901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7705106735229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.349404335022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2699499130249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1825532913208</t>
   </si>
   <si>
     <t xml:space="preserve">14.2858419418335</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3414611816406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2620067596436</t>
+    <t xml:space="preserve">14.341459274292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2620058059692</t>
   </si>
   <si>
     <t xml:space="preserve">14.6751661300659</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4606437683105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6513299942017</t>
+    <t xml:space="preserve">14.4606428146362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.651330947876</t>
   </si>
   <si>
     <t xml:space="preserve">14.6274948120117</t>
@@ -662,85 +662,85 @@
     <t xml:space="preserve">14.5400953292847</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6910572052002</t>
+    <t xml:space="preserve">14.6910591125488</t>
   </si>
   <si>
     <t xml:space="preserve">14.5162591934204</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7069482803345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6116037368774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3970794677734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7466735839844</t>
+    <t xml:space="preserve">14.7069492340088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6116018295288</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3970775604248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.746675491333</t>
   </si>
   <si>
     <t xml:space="preserve">15.2154541015625</t>
   </si>
   <si>
-    <t xml:space="preserve">15.453818321228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4061441421509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5968313217163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8908138275146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8510894775391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8590335845947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7319068908691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1371212005615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6774082183838</t>
+    <t xml:space="preserve">15.4538173675537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4061460494995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5968351364136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8908157348633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8510866165161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8590326309204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7319059371948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1371231079102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6774101257324</t>
   </si>
   <si>
     <t xml:space="preserve">16.0656147003174</t>
   </si>
   <si>
-    <t xml:space="preserve">16.089448928833</t>
+    <t xml:space="preserve">16.0894508361816</t>
   </si>
   <si>
     <t xml:space="preserve">16.2245216369629</t>
   </si>
   <si>
-    <t xml:space="preserve">16.30397605896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1609592437744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2880859375</t>
+    <t xml:space="preserve">16.3039741516113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1609573364258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2880840301514</t>
   </si>
   <si>
     <t xml:space="preserve">16.6456279754639</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6853561401367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4867210388184</t>
+    <t xml:space="preserve">16.6853542327881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4867191314697</t>
   </si>
   <si>
     <t xml:space="preserve">16.4072666168213</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0973968505859</t>
+    <t xml:space="preserve">16.0973949432373</t>
   </si>
   <si>
     <t xml:space="preserve">16.1291770935059</t>
@@ -752,28 +752,28 @@
     <t xml:space="preserve">16.3675384521484</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5582294464111</t>
+    <t xml:space="preserve">16.5582275390625</t>
   </si>
   <si>
     <t xml:space="preserve">16.605899810791</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7012481689453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5423412322998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8839912414551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4322242736816</t>
+    <t xml:space="preserve">16.701244354248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5423374176025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8839893341064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4322204589844</t>
   </si>
   <si>
     <t xml:space="preserve">17.114408493042</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6615200042725</t>
+    <t xml:space="preserve">16.6615180969238</t>
   </si>
   <si>
     <t xml:space="preserve">17.2812614440918</t>
@@ -782,34 +782,34 @@
     <t xml:space="preserve">17.3289337158203</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2574234008789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2653713226318</t>
+    <t xml:space="preserve">17.2574253082275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2653675079346</t>
   </si>
   <si>
     <t xml:space="preserve">17.61496925354</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8136024475098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6864776611328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.535514831543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4560585021973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6626377105713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1234722137451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8294944763184</t>
+    <t xml:space="preserve">17.8136043548584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6864757537842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5355129241943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4560604095459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6626396179199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1234741210938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8294925689697</t>
   </si>
   <si>
     <t xml:space="preserve">17.7738761901855</t>
@@ -818,22 +818,22 @@
     <t xml:space="preserve">17.9089488983154</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9963474273682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1552581787109</t>
+    <t xml:space="preserve">17.9963455200195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1552543640137</t>
   </si>
   <si>
     <t xml:space="preserve">17.4004421234131</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5196189880371</t>
+    <t xml:space="preserve">17.5196208953857</t>
   </si>
   <si>
     <t xml:space="preserve">17.7083587646484</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2499485015869</t>
+    <t xml:space="preserve">18.2499504089355</t>
   </si>
   <si>
     <t xml:space="preserve">18.2171268463135</t>
@@ -842,22 +842,22 @@
     <t xml:space="preserve">18.0530090332031</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7904205322266</t>
+    <t xml:space="preserve">17.7904167175293</t>
   </si>
   <si>
     <t xml:space="preserve">17.6509170532227</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8806819915771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0694179534912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.979154586792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7986240386963</t>
+    <t xml:space="preserve">17.8806838989258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0694198608398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9791526794434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7986259460449</t>
   </si>
   <si>
     <t xml:space="preserve">18.0365943908691</t>
@@ -869,46 +869,46 @@
     <t xml:space="preserve">17.9955673217773</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5606536865234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7411842346191</t>
+    <t xml:space="preserve">17.5606517791748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7411804199219</t>
   </si>
   <si>
     <t xml:space="preserve">17.8888893127441</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7740077972412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0858325958252</t>
+    <t xml:space="preserve">17.7740058898926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0858306884766</t>
   </si>
   <si>
     <t xml:space="preserve">17.7575931549072</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5524444580078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5852718353271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6427116394043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7329769134521</t>
+    <t xml:space="preserve">17.5524463653564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5852699279785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6427135467529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7329750061035</t>
   </si>
   <si>
     <t xml:space="preserve">17.7493896484375</t>
   </si>
   <si>
-    <t xml:space="preserve">17.174976348877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0765018463135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0682983398438</t>
+    <t xml:space="preserve">17.1749744415283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0765037536621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0682964324951</t>
   </si>
   <si>
     <t xml:space="preserve">17.1503562927246</t>
@@ -917,13 +917,13 @@
     <t xml:space="preserve">16.9123859405518</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2324123382568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0600910186768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9780330657959</t>
+    <t xml:space="preserve">17.2324161529541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0600929260254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9780311584473</t>
   </si>
   <si>
     <t xml:space="preserve">17.3965358734131</t>
@@ -938,28 +938,28 @@
     <t xml:space="preserve">18.2991828918457</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1022415161133</t>
+    <t xml:space="preserve">18.1022434234619</t>
   </si>
   <si>
     <t xml:space="preserve">18.3484210968018</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3566265106201</t>
+    <t xml:space="preserve">18.3566246032715</t>
   </si>
   <si>
     <t xml:space="preserve">18.4633007049561</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8642692565918</t>
+    <t xml:space="preserve">17.8642730712891</t>
   </si>
   <si>
     <t xml:space="preserve">18.3402137756348</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7247695922852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5688591003418</t>
+    <t xml:space="preserve">17.7247714996338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5688571929932</t>
   </si>
   <si>
     <t xml:space="preserve">17.4950046539307</t>
@@ -968,13 +968,13 @@
     <t xml:space="preserve">17.8068313598633</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5278282165527</t>
+    <t xml:space="preserve">17.5278301239014</t>
   </si>
   <si>
     <t xml:space="preserve">17.3883285522461</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4047374725342</t>
+    <t xml:space="preserve">17.4047393798828</t>
   </si>
   <si>
     <t xml:space="preserve">17.2734451293945</t>
@@ -986,7 +986,7 @@
     <t xml:space="preserve">17.04368019104</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9452075958252</t>
+    <t xml:space="preserve">16.9452095031738</t>
   </si>
   <si>
     <t xml:space="preserve">16.9287967681885</t>
@@ -995,7 +995,7 @@
     <t xml:space="preserve">17.0190620422363</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2816505432129</t>
+    <t xml:space="preserve">17.2816524505615</t>
   </si>
   <si>
     <t xml:space="preserve">17.4211521148682</t>
@@ -1004,16 +1004,16 @@
     <t xml:space="preserve">17.6262989044189</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6098861694336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.970947265625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0940361022949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3238010406494</t>
+    <t xml:space="preserve">17.6098880767822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9709491729736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0940341949463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.323802947998</t>
   </si>
   <si>
     <t xml:space="preserve">17.9873580932617</t>
@@ -1022,10 +1022,10 @@
     <t xml:space="preserve">18.11865234375</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1104488372803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1268615722656</t>
+    <t xml:space="preserve">18.1104469299316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1268634796143</t>
   </si>
   <si>
     <t xml:space="preserve">18.3320083618164</t>
@@ -1034,37 +1034,37 @@
     <t xml:space="preserve">18.3648319244385</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4386863708496</t>
+    <t xml:space="preserve">18.4386825561523</t>
   </si>
   <si>
     <t xml:space="preserve">18.3812427520752</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6356258392334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6684513092041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5371551513672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8079509735107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6520366668701</t>
+    <t xml:space="preserve">18.6356239318848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6684494018555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5371570587158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8079528808594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6520385742188</t>
   </si>
   <si>
     <t xml:space="preserve">18.6192150115967</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7833309173584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2182464599609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1443939208984</t>
+    <t xml:space="preserve">18.7833347320557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2182483673096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1443920135498</t>
   </si>
   <si>
     <t xml:space="preserve">18.6930694580078</t>
@@ -1073,7 +1073,7 @@
     <t xml:space="preserve">18.7669219970703</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5945949554443</t>
+    <t xml:space="preserve">18.594596862793</t>
   </si>
   <si>
     <t xml:space="preserve">18.3730392456055</t>
@@ -1088,7 +1088,7 @@
     <t xml:space="preserve">18.2335376739502</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1925067901611</t>
+    <t xml:space="preserve">18.1925086975098</t>
   </si>
   <si>
     <t xml:space="preserve">18.1350650787354</t>
@@ -1106,22 +1106,22 @@
     <t xml:space="preserve">17.355504989624</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0272655487061</t>
+    <t xml:space="preserve">17.0272674560547</t>
   </si>
   <si>
     <t xml:space="preserve">16.7975025177002</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9041786193848</t>
+    <t xml:space="preserve">16.9041805267334</t>
   </si>
   <si>
     <t xml:space="preserve">17.1913871765137</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6919441223145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9053020477295</t>
+    <t xml:space="preserve">17.6919479370117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9053001403809</t>
   </si>
   <si>
     <t xml:space="preserve">17.815034866333</t>
@@ -1130,22 +1130,22 @@
     <t xml:space="preserve">18.0037708282471</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8396530151367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.962739944458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4293594360352</t>
+    <t xml:space="preserve">17.8396549224854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9627418518066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4293575286865</t>
   </si>
   <si>
     <t xml:space="preserve">17.0354747772217</t>
   </si>
   <si>
-    <t xml:space="preserve">17.470386505127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4621829986572</t>
+    <t xml:space="preserve">17.4703903198242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4621810913086</t>
   </si>
   <si>
     <t xml:space="preserve">17.7822113037109</t>
@@ -1157,25 +1157,25 @@
     <t xml:space="preserve">17.8232421875</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4129447937012</t>
+    <t xml:space="preserve">17.4129428863525</t>
   </si>
   <si>
     <t xml:space="preserve">18.3976573944092</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4468898773193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5617733001709</t>
+    <t xml:space="preserve">18.4468879699707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5617752075195</t>
   </si>
   <si>
     <t xml:space="preserve">18.6274223327637</t>
   </si>
   <si>
-    <t xml:space="preserve">18.77512550354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.47971534729</t>
+    <t xml:space="preserve">18.7751274108887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4797172546387</t>
   </si>
   <si>
     <t xml:space="preserve">18.7258930206299</t>
@@ -1184,7 +1184,7 @@
     <t xml:space="preserve">18.3155956268311</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2827739715576</t>
+    <t xml:space="preserve">18.282772064209</t>
   </si>
   <si>
     <t xml:space="preserve">18.5781860351562</t>
@@ -1193,16 +1193,16 @@
     <t xml:space="preserve">17.511417388916</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0201816558838</t>
+    <t xml:space="preserve">18.0201835632324</t>
   </si>
   <si>
     <t xml:space="preserve">17.3472995758057</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2980613708496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9381256103516</t>
+    <t xml:space="preserve">17.2980632781982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9381237030029</t>
   </si>
   <si>
     <t xml:space="preserve">17.6755352020264</t>
@@ -1211,22 +1211,22 @@
     <t xml:space="preserve">17.2652397155762</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3144760131836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4961261749268</t>
+    <t xml:space="preserve">17.3144779205322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4961280822754</t>
   </si>
   <si>
     <t xml:space="preserve">19.5793075561523</t>
   </si>
   <si>
-    <t xml:space="preserve">19.5136604309082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0388374328613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3178367614746</t>
+    <t xml:space="preserve">19.5136585235596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.03883934021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3178386688232</t>
   </si>
   <si>
     <t xml:space="preserve">20.1701335906982</t>
@@ -1235,13 +1235,13 @@
     <t xml:space="preserve">20.0716609954834</t>
   </si>
   <si>
-    <t xml:space="preserve">19.8418941497803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8254833221436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8911285400391</t>
+    <t xml:space="preserve">19.8418960571289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8254852294922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8911304473877</t>
   </si>
   <si>
     <t xml:space="preserve">19.8090724945068</t>
@@ -1250,13 +1250,13 @@
     <t xml:space="preserve">19.9403686523438</t>
   </si>
   <si>
-    <t xml:space="preserve">20.4327220916748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6296634674072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.531192779541</t>
+    <t xml:space="preserve">20.4327201843262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6296615600586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5311946868896</t>
   </si>
   <si>
     <t xml:space="preserve">20.5968399047852</t>
@@ -1265,7 +1265,7 @@
     <t xml:space="preserve">20.7609577178955</t>
   </si>
   <si>
-    <t xml:space="preserve">20.5147800445557</t>
+    <t xml:space="preserve">20.5147819519043</t>
   </si>
   <si>
     <t xml:space="preserve">20.3506622314453</t>
@@ -1274,19 +1274,19 @@
     <t xml:space="preserve">20.2850131988525</t>
   </si>
   <si>
-    <t xml:space="preserve">20.33424949646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4655437469482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4163112640381</t>
+    <t xml:space="preserve">20.3342533111572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4655456542969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4163093566895</t>
   </si>
   <si>
     <t xml:space="preserve">20.383487701416</t>
   </si>
   <si>
-    <t xml:space="preserve">20.4491348266602</t>
+    <t xml:space="preserve">20.4491329193115</t>
   </si>
   <si>
     <t xml:space="preserve">20.7281341552734</t>
@@ -1295,7 +1295,7 @@
     <t xml:space="preserve">20.8430156707764</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7937850952148</t>
+    <t xml:space="preserve">20.7937831878662</t>
   </si>
   <si>
     <t xml:space="preserve">20.678897857666</t>
@@ -1304,10 +1304,10 @@
     <t xml:space="preserve">20.7117233276367</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6460723876953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8101940155029</t>
+    <t xml:space="preserve">20.6460762023926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8101921081543</t>
   </si>
   <si>
     <t xml:space="preserve">19.251070022583</t>
@@ -1316,16 +1316,16 @@
     <t xml:space="preserve">19.4808368682861</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1854228973389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1361865997314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2887344360352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0514373779297</t>
+    <t xml:space="preserve">19.1854209899902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1361904144287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2887363433838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0514392852783</t>
   </si>
   <si>
     <t xml:space="preserve">19.492130279541</t>
@@ -1334,7 +1334,7 @@
     <t xml:space="preserve">19.3226318359375</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7633247375488</t>
+    <t xml:space="preserve">19.7633266448975</t>
   </si>
   <si>
     <t xml:space="preserve">19.6446800231934</t>
@@ -1349,10 +1349,10 @@
     <t xml:space="preserve">19.6277275085449</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2717876434326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.559928894043</t>
+    <t xml:space="preserve">19.271785736084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5599327087402</t>
   </si>
   <si>
     <t xml:space="preserve">19.8311233520508</t>
@@ -1361,10 +1361,10 @@
     <t xml:space="preserve">19.7802772521973</t>
   </si>
   <si>
-    <t xml:space="preserve">19.5429801940918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5938282012939</t>
+    <t xml:space="preserve">19.5429821014404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5938301086426</t>
   </si>
   <si>
     <t xml:space="preserve">19.4412822723389</t>
@@ -1373,16 +1373,16 @@
     <t xml:space="preserve">18.8988914489746</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9158420562744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7971954345703</t>
+    <t xml:space="preserve">18.9158401489258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7971935272217</t>
   </si>
   <si>
     <t xml:space="preserve">19.0175399780273</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0683898925781</t>
+    <t xml:space="preserve">19.0683879852295</t>
   </si>
   <si>
     <t xml:space="preserve">18.9836406707764</t>
@@ -1391,16 +1391,16 @@
     <t xml:space="preserve">19.1022891998291</t>
   </si>
   <si>
-    <t xml:space="preserve">19.5260314941406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6616287231445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5768814086914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3226661682129</t>
+    <t xml:space="preserve">19.526029586792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6616268157959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5768795013428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3226642608643</t>
   </si>
   <si>
     <t xml:space="preserve">20.3396129608154</t>
@@ -1412,10 +1412,10 @@
     <t xml:space="preserve">20.0175724029541</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9328212738037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7124786376953</t>
+    <t xml:space="preserve">19.9328231811523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7124767303467</t>
   </si>
   <si>
     <t xml:space="preserve">20.2379150390625</t>
@@ -1430,25 +1430,25 @@
     <t xml:space="preserve">19.8480739593506</t>
   </si>
   <si>
-    <t xml:space="preserve">20.4243621826172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6447105407715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6955585479736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3904628753662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3057136535645</t>
+    <t xml:space="preserve">20.4243640899658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6447086334229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6955604553223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3904647827148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3057155609131</t>
   </si>
   <si>
     <t xml:space="preserve">20.1701164245605</t>
   </si>
   <si>
-    <t xml:space="preserve">20.2887668609619</t>
+    <t xml:space="preserve">20.2887687683105</t>
   </si>
   <si>
     <t xml:space="preserve">20.2040176391602</t>
@@ -1466,25 +1466,25 @@
     <t xml:space="preserve">20.4921627044678</t>
   </si>
   <si>
-    <t xml:space="preserve">20.9328556060791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.661657333374</t>
+    <t xml:space="preserve">20.9328536987305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6616592407227</t>
   </si>
   <si>
     <t xml:space="preserve">20.5769100189209</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7633590698242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1023483276367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.61083984375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6955890655518</t>
+    <t xml:space="preserve">20.7633571624756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1023502349854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6108417510986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6955909729004</t>
   </si>
   <si>
     <t xml:space="preserve">21.5091419219971</t>
@@ -1496,40 +1496,40 @@
     <t xml:space="preserve">22.3905258178711</t>
   </si>
   <si>
-    <t xml:space="preserve">22.1023845672607</t>
+    <t xml:space="preserve">22.1023826599121</t>
   </si>
   <si>
     <t xml:space="preserve">21.4921951293945</t>
   </si>
   <si>
-    <t xml:space="preserve">21.7294902801514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3904972076416</t>
+    <t xml:space="preserve">21.7294864654541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.390495300293</t>
   </si>
   <si>
     <t xml:space="preserve">21.4074440002441</t>
   </si>
   <si>
-    <t xml:space="preserve">20.9667530059814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.729455947876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5938606262207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9667224884033</t>
+    <t xml:space="preserve">20.9667549133301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7294540405273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5938587188721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.966724395752</t>
   </si>
   <si>
     <t xml:space="preserve">19.8819751739502</t>
   </si>
   <si>
-    <t xml:space="preserve">19.5090827941895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3734836578369</t>
+    <t xml:space="preserve">19.5090808868408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3734855651855</t>
   </si>
   <si>
     <t xml:space="preserve">19.0344905853271</t>
@@ -1541,10 +1541,10 @@
     <t xml:space="preserve">20.0853710174561</t>
   </si>
   <si>
-    <t xml:space="preserve">19.8989238739014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2378883361816</t>
+    <t xml:space="preserve">19.8989219665527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.237886428833</t>
   </si>
   <si>
     <t xml:space="preserve">18.8819427490234</t>
@@ -1556,28 +1556,28 @@
     <t xml:space="preserve">18.1870040893555</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2717533111572</t>
+    <t xml:space="preserve">18.2717552185059</t>
   </si>
   <si>
     <t xml:space="preserve">18.0175094604492</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6276969909668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9327621459961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1192073822021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9666614532471</t>
+    <t xml:space="preserve">18.6276988983154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9327602386475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1192054748535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9666595458984</t>
   </si>
   <si>
     <t xml:space="preserve">17.8649616241455</t>
   </si>
   <si>
-    <t xml:space="preserve">18.102258682251</t>
+    <t xml:space="preserve">18.1022567749023</t>
   </si>
   <si>
     <t xml:space="preserve">18.2378559112549</t>
@@ -1589,7 +1589,7 @@
     <t xml:space="preserve">17.8480110168457</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3564701080322</t>
+    <t xml:space="preserve">17.3564720153809</t>
   </si>
   <si>
     <t xml:space="preserve">16.9666290283203</t>
@@ -1601,73 +1601,73 @@
     <t xml:space="preserve">17.1022262573242</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3733882904053</t>
+    <t xml:space="preserve">16.3733901977539</t>
   </si>
   <si>
     <t xml:space="preserve">16.271692276001</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6106853485107</t>
+    <t xml:space="preserve">16.6106872558594</t>
   </si>
   <si>
     <t xml:space="preserve">16.4242382049561</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3903408050537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7378101348877</t>
+    <t xml:space="preserve">16.3903427124023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7378082275391</t>
   </si>
   <si>
     <t xml:space="preserve">16.8140811920166</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7039070129395</t>
+    <t xml:space="preserve">16.7039089202881</t>
   </si>
   <si>
     <t xml:space="preserve">17.4581699371338</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2717227935791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1530742645264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3225708007812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4920692443848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6446170806885</t>
+    <t xml:space="preserve">17.2717208862305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.153076171875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3225746154785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4920711517334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6446151733398</t>
   </si>
   <si>
     <t xml:space="preserve">17.7971630096436</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2209053039551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4073524475098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3395500183105</t>
+    <t xml:space="preserve">18.2209072113037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4073505401611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3395519256592</t>
   </si>
   <si>
     <t xml:space="preserve">17.9836082458496</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0514087677002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6615676879883</t>
+    <t xml:space="preserve">18.0514068603516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6615657806396</t>
   </si>
   <si>
     <t xml:space="preserve">17.2378234863281</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5768184661865</t>
+    <t xml:space="preserve">17.5768165588379</t>
   </si>
   <si>
     <t xml:space="preserve">17.7293663024902</t>
@@ -1679,34 +1679,34 @@
     <t xml:space="preserve">18.4412517547607</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1531047821045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9158115386963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9497089385986</t>
+    <t xml:space="preserve">18.1531066894531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9158096313477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9497108459473</t>
   </si>
   <si>
     <t xml:space="preserve">17.8988628387451</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7463150024414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7124118804932</t>
+    <t xml:space="preserve">17.7463130950928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7124156951904</t>
   </si>
   <si>
     <t xml:space="preserve">17.6276664733887</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7632637023926</t>
+    <t xml:space="preserve">17.7632617950439</t>
   </si>
   <si>
     <t xml:space="preserve">17.3056240081787</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8734035491943</t>
+    <t xml:space="preserve">16.873405456543</t>
   </si>
   <si>
     <t xml:space="preserve">17.186975479126</t>
@@ -1715,43 +1715,43 @@
     <t xml:space="preserve">17.2039241790771</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3903713226318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2886714935303</t>
+    <t xml:space="preserve">17.3903732299805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2886734008789</t>
   </si>
   <si>
     <t xml:space="preserve">17.2547740936279</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2208728790283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8903579711914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4242706298828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5429172515869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8141136169434</t>
+    <t xml:space="preserve">17.220874786377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8903560638428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4242687225342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5429191589355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.814115524292</t>
   </si>
   <si>
     <t xml:space="preserve">17.5937671661377</t>
   </si>
   <si>
-    <t xml:space="preserve">17.373420715332</t>
+    <t xml:space="preserve">17.3734188079834</t>
   </si>
   <si>
     <t xml:space="preserve">17.1700248718262</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5005416870117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2462997436523</t>
+    <t xml:space="preserve">17.5005435943604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2462978363037</t>
   </si>
   <si>
     <t xml:space="preserve">17.3310489654541</t>
@@ -1760,16 +1760,16 @@
     <t xml:space="preserve">17.4157943725586</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1615524291992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0344295501709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5852909088135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6700401306152</t>
+    <t xml:space="preserve">17.1615505218506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0344276428223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5852928161621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6700420379639</t>
   </si>
   <si>
     <t xml:space="preserve">18.3480281829834</t>
@@ -1778,7 +1778,7 @@
     <t xml:space="preserve">18.136157989502</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0937824249268</t>
+    <t xml:space="preserve">18.0937843322754</t>
   </si>
   <si>
     <t xml:space="preserve">17.8395366668701</t>
@@ -1787,10 +1787,10 @@
     <t xml:space="preserve">18.0090351104736</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7547874450684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9242839813232</t>
+    <t xml:space="preserve">17.754789352417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9242858886719</t>
   </si>
   <si>
     <t xml:space="preserve">18.1785316467285</t>
@@ -1802,28 +1802,28 @@
     <t xml:space="preserve">18.0909595489502</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9589080810547</t>
+    <t xml:space="preserve">17.9589099884033</t>
   </si>
   <si>
     <t xml:space="preserve">17.8268585205078</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2670288085938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.178991317749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2230110168457</t>
+    <t xml:space="preserve">18.2670269012451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1789951324463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2230129241943</t>
   </si>
   <si>
     <t xml:space="preserve">18.4871120452881</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4430980682373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5311298370361</t>
+    <t xml:space="preserve">18.4430961608887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5311279296875</t>
   </si>
   <si>
     <t xml:space="preserve">18.3550624847412</t>
@@ -1832,34 +1832,34 @@
     <t xml:space="preserve">18.0029277801514</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7828407287598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6507911682129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3426704406738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5011310577393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.553955078125</t>
+    <t xml:space="preserve">17.782844543457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6507930755615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3426723480225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5011329650879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5539531707764</t>
   </si>
   <si>
     <t xml:space="preserve">18.7952308654785</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7512149810791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5751457214355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.619161605835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3110466003418</t>
+    <t xml:space="preserve">18.7512130737305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5751476287842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6191635131836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3110446929932</t>
   </si>
   <si>
     <t xml:space="preserve">17.7388229370117</t>
@@ -1871,7 +1871,7 @@
     <t xml:space="preserve">17.3778858184814</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2370319366455</t>
+    <t xml:space="preserve">17.2370338439941</t>
   </si>
   <si>
     <t xml:space="preserve">17.1666049957275</t>
@@ -1880,25 +1880,25 @@
     <t xml:space="preserve">17.2722454071045</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1137866973877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3074588775635</t>
+    <t xml:space="preserve">17.1137847900391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3074569702148</t>
   </si>
   <si>
     <t xml:space="preserve">16.8320770263672</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6912212371826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7616500854492</t>
+    <t xml:space="preserve">16.6912231445312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7616481781006</t>
   </si>
   <si>
     <t xml:space="preserve">17.060962677002</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4799404144287</t>
+    <t xml:space="preserve">16.4799423217773</t>
   </si>
   <si>
     <t xml:space="preserve">16.3743000030518</t>
@@ -1907,49 +1907,49 @@
     <t xml:space="preserve">16.6207942962646</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1101970672607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3038730621338</t>
+    <t xml:space="preserve">16.1101989746094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3038711547852</t>
   </si>
   <si>
     <t xml:space="preserve">16.6560077667236</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5679740905762</t>
+    <t xml:space="preserve">16.5679721832275</t>
   </si>
   <si>
     <t xml:space="preserve">16.4095134735107</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3919067382812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3214817047119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2334461212158</t>
+    <t xml:space="preserve">16.3919086456299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3214797973633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2334442138672</t>
   </si>
   <si>
     <t xml:space="preserve">16.9025039672852</t>
   </si>
   <si>
-    <t xml:space="preserve">17.289852142334</t>
+    <t xml:space="preserve">17.2898502349854</t>
   </si>
   <si>
     <t xml:space="preserve">17.3954925537109</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4483127593994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6948108673096</t>
+    <t xml:space="preserve">17.448314666748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6948070526123</t>
   </si>
   <si>
     <t xml:space="preserve">19.0593318939209</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1349754333496</t>
+    <t xml:space="preserve">18.1349773406982</t>
   </si>
   <si>
     <t xml:space="preserve">18.3990783691406</t>
@@ -1958,16 +1958,16 @@
     <t xml:space="preserve">17.8708744049072</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6067752838135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.254638671875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8496799468994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8848972320557</t>
+    <t xml:space="preserve">17.6067733764648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2546405792236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.849681854248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.884895324707</t>
   </si>
   <si>
     <t xml:space="preserve">17.1489963531494</t>
@@ -1985,7 +1985,7 @@
     <t xml:space="preserve">16.6384010314941</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5503692626953</t>
+    <t xml:space="preserve">16.550365447998</t>
   </si>
   <si>
     <t xml:space="preserve">16.4271202087402</t>
@@ -2009,13 +2009,13 @@
     <t xml:space="preserve">16.9553241729736</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6631813049316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0469436645508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2194232940674</t>
+    <t xml:space="preserve">18.663179397583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0469417572021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.219425201416</t>
   </si>
   <si>
     <t xml:space="preserve">16.990535736084</t>
@@ -2030,16 +2030,16 @@
     <t xml:space="preserve">15.4235343933105</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7052421569824</t>
+    <t xml:space="preserve">15.7052431106567</t>
   </si>
   <si>
     <t xml:space="preserve">15.0537919998169</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7896890640259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4727697372437</t>
+    <t xml:space="preserve">14.7896881103516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.472767829895</t>
   </si>
   <si>
     <t xml:space="preserve">14.2614870071411</t>
@@ -2060,22 +2060,22 @@
     <t xml:space="preserve">13.1874732971191</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7085056304932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1838874816895</t>
+    <t xml:space="preserve">11.7085046768188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1838884353638</t>
   </si>
   <si>
     <t xml:space="preserve">10.7929525375366</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0042333602905</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5640640258789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9514141082764</t>
+    <t xml:space="preserve">11.0042343139648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5640630722046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9514131546021</t>
   </si>
   <si>
     <t xml:space="preserve">12.6064491271973</t>
@@ -2084,7 +2084,7 @@
     <t xml:space="preserve">13.2050800323486</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6452493667603</t>
+    <t xml:space="preserve">13.6452512741089</t>
   </si>
   <si>
     <t xml:space="preserve">12.9233722686768</t>
@@ -2093,16 +2093,16 @@
     <t xml:space="preserve">13.0466194152832</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9021787643433</t>
+    <t xml:space="preserve">11.9021806716919</t>
   </si>
   <si>
     <t xml:space="preserve">11.5852575302124</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3211545944214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8281669616699</t>
+    <t xml:space="preserve">11.3211555480957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8281660079956</t>
   </si>
   <si>
     <t xml:space="preserve">11.0922679901123</t>
@@ -2117,10 +2117,10 @@
     <t xml:space="preserve">11.0394468307495</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7753458023071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6697053909302</t>
+    <t xml:space="preserve">10.7753448486328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6697044372559</t>
   </si>
   <si>
     <t xml:space="preserve">10.5816717147827</t>
@@ -2129,13 +2129,13 @@
     <t xml:space="preserve">11.1098747253418</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3563690185547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9338054656982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6873111724854</t>
+    <t xml:space="preserve">11.3563680648804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9338064193726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6873121261597</t>
   </si>
   <si>
     <t xml:space="preserve">10.8809862136841</t>
@@ -2144,7 +2144,7 @@
     <t xml:space="preserve">10.6168851852417</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6520977020264</t>
+    <t xml:space="preserve">10.6520986557007</t>
   </si>
   <si>
     <t xml:space="preserve">10.7401323318481</t>
@@ -2156,13 +2156,13 @@
     <t xml:space="preserve">10.0358600616455</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0886821746826</t>
+    <t xml:space="preserve">10.0886812210083</t>
   </si>
   <si>
     <t xml:space="preserve">9.89500617980957</t>
   </si>
   <si>
-    <t xml:space="preserve">9.70133304595947</t>
+    <t xml:space="preserve">9.70133209228516</t>
   </si>
   <si>
     <t xml:space="preserve">9.63090515136719</t>
@@ -2171,13 +2171,13 @@
     <t xml:space="preserve">10.2823553085327</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7577390670776</t>
+    <t xml:space="preserve">10.7577381134033</t>
   </si>
   <si>
     <t xml:space="preserve">10.2999620437622</t>
   </si>
   <si>
-    <t xml:space="preserve">9.96543407440186</t>
+    <t xml:space="preserve">9.96543312072754</t>
   </si>
   <si>
     <t xml:space="preserve">11.0746603012085</t>
@@ -2186,70 +2186,70 @@
     <t xml:space="preserve">10.8457727432251</t>
   </si>
   <si>
-    <t xml:space="preserve">11.057053565979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6732921600342</t>
+    <t xml:space="preserve">11.0570545196533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6732912063599</t>
   </si>
   <si>
     <t xml:space="preserve">11.5676498413086</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6556835174561</t>
+    <t xml:space="preserve">11.6556844711304</t>
   </si>
   <si>
     <t xml:space="preserve">11.4796171188354</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5500440597534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5360221862793</t>
+    <t xml:space="preserve">11.5500431060791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5360231399536</t>
   </si>
   <si>
     <t xml:space="preserve">12.5008087158203</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3071346282959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0606393814087</t>
+    <t xml:space="preserve">12.3071336746216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.060640335083</t>
   </si>
   <si>
     <t xml:space="preserve">11.3387622833252</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6204700469971</t>
+    <t xml:space="preserve">11.6204710006714</t>
   </si>
   <si>
     <t xml:space="preserve">11.6380777359009</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9549999237061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9726057052612</t>
+    <t xml:space="preserve">11.9549989700317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9726066589355</t>
   </si>
   <si>
     <t xml:space="preserve">11.8669652938843</t>
   </si>
   <si>
-    <t xml:space="preserve">12.025426864624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.990213394165</t>
+    <t xml:space="preserve">12.0254259109497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9902124404907</t>
   </si>
   <si>
     <t xml:space="preserve">11.7613248825073</t>
   </si>
   <si>
-    <t xml:space="preserve">11.690896987915</t>
+    <t xml:space="preserve">11.6908979415894</t>
   </si>
   <si>
     <t xml:space="preserve">11.7437181472778</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4972229003906</t>
+    <t xml:space="preserve">11.4972238540649</t>
   </si>
   <si>
     <t xml:space="preserve">11.5148305892944</t>
@@ -2264,7 +2264,7 @@
     <t xml:space="preserve">11.3035488128662</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9866275787354</t>
+    <t xml:space="preserve">10.986626625061</t>
   </si>
   <si>
     <t xml:space="preserve">10.8633794784546</t>
@@ -2282,10 +2282,10 @@
     <t xml:space="preserve">11.2683362960815</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1274814605713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6344919204712</t>
+    <t xml:space="preserve">11.1274824142456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6344909667969</t>
   </si>
   <si>
     <t xml:space="preserve">10.9690198898315</t>
@@ -2303,28 +2303,28 @@
     <t xml:space="preserve">12.1134605407715</t>
   </si>
   <si>
-    <t xml:space="preserve">12.131067276001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9197864532471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5324363708496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0078201293945</t>
+    <t xml:space="preserve">12.1310663223267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9197854995728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5324373245239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0078210830688</t>
   </si>
   <si>
     <t xml:space="preserve">12.0958528518677</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2190999984741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5888433456421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9585857391357</t>
+    <t xml:space="preserve">12.2191009521484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5888442993164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9585866928101</t>
   </si>
   <si>
     <t xml:space="preserve">12.7120904922485</t>
@@ -2339,7 +2339,7 @@
     <t xml:space="preserve">12.0782470703125</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7965383529663</t>
+    <t xml:space="preserve">11.7965393066406</t>
   </si>
   <si>
     <t xml:space="preserve">11.2859411239624</t>
@@ -2354,16 +2354,16 @@
     <t xml:space="preserve">10.2119293212891</t>
   </si>
   <si>
-    <t xml:space="preserve">10.247142791748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1943225860596</t>
+    <t xml:space="preserve">10.2471418380737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1943216323853</t>
   </si>
   <si>
     <t xml:space="preserve">10.352783203125</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2579011917114</t>
+    <t xml:space="preserve">13.2579021453857</t>
   </si>
   <si>
     <t xml:space="preserve">13.8037109375</t>
@@ -2378,13 +2378,13 @@
     <t xml:space="preserve">14.1382389068604</t>
   </si>
   <si>
-    <t xml:space="preserve">13.169867515564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.029013633728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5043954849243</t>
+    <t xml:space="preserve">13.1698665618896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0290126800537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5043964385986</t>
   </si>
   <si>
     <t xml:space="preserve">13.698070526123</t>
@@ -2402,142 +2402,142 @@
     <t xml:space="preserve">13.8213176727295</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8917436599731</t>
+    <t xml:space="preserve">13.8917446136475</t>
   </si>
   <si>
     <t xml:space="preserve">13.838924407959</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2226877212524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2755079269409</t>
+    <t xml:space="preserve">13.2226886749268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2755069732666</t>
   </si>
   <si>
     <t xml:space="preserve">13.5220022201538</t>
   </si>
   <si>
-    <t xml:space="preserve">13.134654045105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2402935028076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4339685440063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7508897781372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7156763076782</t>
+    <t xml:space="preserve">13.1346530914307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2402944564819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4339694976807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7508907318115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7156772613525</t>
   </si>
   <si>
     <t xml:space="preserve">14.3671264648438</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8425102233887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2474670410156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4763536453247</t>
+    <t xml:space="preserve">14.842511177063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2474660873413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.476354598999</t>
   </si>
   <si>
     <t xml:space="preserve">15.5996007919312</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6700277328491</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5291738510132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9657564163208</t>
+    <t xml:space="preserve">15.6700286865234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5291757583618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9657573699951</t>
   </si>
   <si>
     <t xml:space="preserve">15.3178939819336</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6876363754272</t>
+    <t xml:space="preserve">15.6876354217529</t>
   </si>
   <si>
     <t xml:space="preserve">15.6524229049683</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3883209228516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2298583984375</t>
+    <t xml:space="preserve">15.3883190155029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2298593521118</t>
   </si>
   <si>
     <t xml:space="preserve">15.1242198944092</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1066122055054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6312303543091</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.877724647522</t>
+    <t xml:space="preserve">15.1066131591797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6312294006348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8777236938477</t>
   </si>
   <si>
     <t xml:space="preserve">14.912938117981</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1594314575195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9693431854248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.846095085144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3390865325928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2862644195557</t>
+    <t xml:space="preserve">15.1594305038452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9693441390991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.846097946167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3390846252441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2862663269043</t>
   </si>
   <si>
     <t xml:space="preserve">16.9729309082031</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8108825683594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8989171981812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8284902572632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.916522026062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7968635559082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6031875610352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0081424713135</t>
+    <t xml:space="preserve">15.8108806610107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8989181518555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8284893035889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9165239334106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7968616485596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6031894683838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0081443786621</t>
   </si>
   <si>
     <t xml:space="preserve">17.0785694122314</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0433597564697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5151538848877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9341316223145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1982307434082</t>
+    <t xml:space="preserve">17.0433578491211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5151519775391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9341287612915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1982326507568</t>
   </si>
   <si>
     <t xml:space="preserve">16.1630191802979</t>
@@ -2555,10 +2555,10 @@
     <t xml:space="preserve">16.1454105377197</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4535293579102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2070369720459</t>
+    <t xml:space="preserve">16.4535312652588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2070350646973</t>
   </si>
   <si>
     <t xml:space="preserve">16.1894283294678</t>
@@ -2570,7 +2570,7 @@
     <t xml:space="preserve">16.5327606201172</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8232707977295</t>
+    <t xml:space="preserve">16.8232746124268</t>
   </si>
   <si>
     <t xml:space="preserve">16.6824188232422</t>
@@ -2582,7 +2582,7 @@
     <t xml:space="preserve">16.8584861755371</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7176322937012</t>
+    <t xml:space="preserve">16.7176303863525</t>
   </si>
   <si>
     <t xml:space="preserve">16.3831024169922</t>
@@ -2591,7 +2591,7 @@
     <t xml:space="preserve">17.404296875</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5979690551758</t>
+    <t xml:space="preserve">17.5979709625244</t>
   </si>
   <si>
     <t xml:space="preserve">16.8408794403076</t>
@@ -2603,10 +2603,10 @@
     <t xml:space="preserve">17.0961761474609</t>
   </si>
   <si>
-    <t xml:space="preserve">17.474723815918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6419868469238</t>
+    <t xml:space="preserve">17.4747219085693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6419887542725</t>
   </si>
   <si>
     <t xml:space="preserve">17.8532695770264</t>
@@ -2615,34 +2615,34 @@
     <t xml:space="preserve">17.7300205230713</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9413032531738</t>
+    <t xml:space="preserve">17.9413013458252</t>
   </si>
   <si>
     <t xml:space="preserve">17.9765167236328</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1877994537354</t>
+    <t xml:space="preserve">18.1877975463867</t>
   </si>
   <si>
     <t xml:space="preserve">18.3638648986816</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5047187805176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5223255157471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2758293151855</t>
+    <t xml:space="preserve">18.5047206878662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5223274230957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2758331298828</t>
   </si>
   <si>
     <t xml:space="preserve">17.7476291656494</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2054023742676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0997638702393</t>
+    <t xml:space="preserve">18.2054061889648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0997619628906</t>
   </si>
   <si>
     <t xml:space="preserve">18.0821571350098</t>
@@ -2651,13 +2651,13 @@
     <t xml:space="preserve">17.9236965179443</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8004474639893</t>
+    <t xml:space="preserve">17.8004493713379</t>
   </si>
   <si>
     <t xml:space="preserve">17.8884811401367</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2582244873047</t>
+    <t xml:space="preserve">18.2582225799561</t>
   </si>
   <si>
     <t xml:space="preserve">18.1525840759277</t>
@@ -2669,16 +2669,16 @@
     <t xml:space="preserve">17.7652359008789</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4166851043701</t>
+    <t xml:space="preserve">18.4166870117188</t>
   </si>
   <si>
     <t xml:space="preserve">18.3286514282227</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9060897827148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8936996459961</t>
+    <t xml:space="preserve">17.9060878753662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8936977386475</t>
   </si>
   <si>
     <t xml:space="preserve">17.2018184661865</t>
@@ -2687,10 +2687,10 @@
     <t xml:space="preserve">17.2282295227051</t>
   </si>
   <si>
-    <t xml:space="preserve">17.624382019043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8428363800049</t>
+    <t xml:space="preserve">17.6243801116943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8428344726562</t>
   </si>
   <si>
     <t xml:space="preserve">19.3146305084229</t>
@@ -2708,49 +2708,49 @@
     <t xml:space="preserve">18.7336082458496</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8920669555664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4695072174072</t>
+    <t xml:space="preserve">18.8920650482178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.46950340271</t>
   </si>
   <si>
     <t xml:space="preserve">18.3814716339111</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0645503997803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8180561065674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0117282867432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2406177520752</t>
+    <t xml:space="preserve">18.0645523071289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8180541992188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0117301940918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2406158447266</t>
   </si>
   <si>
     <t xml:space="preserve">17.4130992889404</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4219036102295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.034553527832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1578025817871</t>
+    <t xml:space="preserve">17.4219017028809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0345554351807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1578006744385</t>
   </si>
   <si>
     <t xml:space="preserve">18.6103591918945</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1173706054688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2934379577637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.76881980896</t>
+    <t xml:space="preserve">18.1173686981201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2934398651123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7688217163086</t>
   </si>
   <si>
     <t xml:space="preserve">18.5575408935547</t>
@@ -2759,7 +2759,7 @@
     <t xml:space="preserve">18.3361072540283</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3002948760986</t>
+    <t xml:space="preserve">18.3002967834473</t>
   </si>
   <si>
     <t xml:space="preserve">18.4077320098877</t>
@@ -2768,49 +2768,49 @@
     <t xml:space="preserve">18.6226081848145</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4793567657471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4435443878174</t>
+    <t xml:space="preserve">18.4793586730957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.443546295166</t>
   </si>
   <si>
     <t xml:space="preserve">18.747953414917</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5151691436768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5330772399902</t>
+    <t xml:space="preserve">18.515172958374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5330791473389</t>
   </si>
   <si>
     <t xml:space="preserve">18.2286701202393</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0854187011719</t>
+    <t xml:space="preserve">18.0854206085205</t>
   </si>
   <si>
     <t xml:space="preserve">18.0496063232422</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9958877563477</t>
+    <t xml:space="preserve">17.995885848999</t>
   </si>
   <si>
     <t xml:space="preserve">17.8974018096924</t>
   </si>
   <si>
-    <t xml:space="preserve">18.139139175415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9063568115234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7810115814209</t>
+    <t xml:space="preserve">18.1391372680664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9063549041748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7810096740723</t>
   </si>
   <si>
     <t xml:space="preserve">18.2644824981689</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1990547180176</t>
+    <t xml:space="preserve">17.1990528106689</t>
   </si>
   <si>
     <t xml:space="preserve">17.0826625823975</t>
@@ -2819,13 +2819,13 @@
     <t xml:space="preserve">17.136381149292</t>
   </si>
   <si>
-    <t xml:space="preserve">16.760347366333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6529121398926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.831974029541</t>
+    <t xml:space="preserve">16.7603492736816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6529102325439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8319721221924</t>
   </si>
   <si>
     <t xml:space="preserve">16.3574562072754</t>
@@ -2840,7 +2840,7 @@
     <t xml:space="preserve">16.3664093017578</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5633773803711</t>
+    <t xml:space="preserve">16.5633792877197</t>
   </si>
   <si>
     <t xml:space="preserve">16.5365180969238</t>
@@ -2849,10 +2849,10 @@
     <t xml:space="preserve">16.8051147460938</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0289421081543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8498802185059</t>
+    <t xml:space="preserve">17.0289440155029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8498783111572</t>
   </si>
   <si>
     <t xml:space="preserve">16.8677864074707</t>
@@ -2861,7 +2861,7 @@
     <t xml:space="preserve">16.9931297302246</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9125499725342</t>
+    <t xml:space="preserve">16.9125518798828</t>
   </si>
   <si>
     <t xml:space="preserve">16.7334899902344</t>
@@ -2870,34 +2870,34 @@
     <t xml:space="preserve">16.7424430847168</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4648914337158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4380359649658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1157188415527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1694374084473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3395481109619</t>
+    <t xml:space="preserve">16.4648933410645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4380340576172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1157207489014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1694393157959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3395500183105</t>
   </si>
   <si>
     <t xml:space="preserve">16.9215049743652</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1005687713623</t>
+    <t xml:space="preserve">17.1005706787109</t>
   </si>
   <si>
     <t xml:space="preserve">17.2975387573242</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4586944580078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5454711914062</t>
+    <t xml:space="preserve">17.4586963653564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5454730987549</t>
   </si>
   <si>
     <t xml:space="preserve">16.6618633270264</t>
@@ -2909,34 +2909,34 @@
     <t xml:space="preserve">16.9483661651611</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3154449462891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.894645690918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0020847320557</t>
+    <t xml:space="preserve">17.3154468536377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8946475982666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.002082824707</t>
   </si>
   <si>
     <t xml:space="preserve">16.4917526245117</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9366550445557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.079906463623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4827976226807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7872085571289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5186138153076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8588333129883</t>
+    <t xml:space="preserve">15.93665599823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0799045562744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4827995300293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7872066497803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.518611907959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8588314056396</t>
   </si>
   <si>
     <t xml:space="preserve">17.1274280548096</t>
@@ -2945,10 +2945,10 @@
     <t xml:space="preserve">16.8409252166748</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4022216796875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8918905258179</t>
+    <t xml:space="preserve">16.4022197723389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8918886184692</t>
   </si>
   <si>
     <t xml:space="preserve">15.9456090927124</t>
@@ -2957,25 +2957,25 @@
     <t xml:space="preserve">16.0978126525879</t>
   </si>
   <si>
-    <t xml:space="preserve">16.384313583374</t>
+    <t xml:space="preserve">16.3843154907227</t>
   </si>
   <si>
     <t xml:space="preserve">16.590238571167</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4290809631348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0888595581055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6680612564087</t>
+    <t xml:space="preserve">16.4290790557861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0888576507568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6680593490601</t>
   </si>
   <si>
     <t xml:space="preserve">15.2920265197754</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5847263336182</t>
+    <t xml:space="preserve">14.5847272872925</t>
   </si>
   <si>
     <t xml:space="preserve">14.9159936904907</t>
@@ -2990,10 +2990,10 @@
     <t xml:space="preserve">14.4235696792603</t>
   </si>
   <si>
-    <t xml:space="preserve">13.949049949646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5103454589844</t>
+    <t xml:space="preserve">13.9490509033203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5103445053101</t>
   </si>
   <si>
     <t xml:space="preserve">13.3760471343994</t>
@@ -3008,19 +3008,19 @@
     <t xml:space="preserve">13.9311447143555</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3429899215698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7727432250977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1370677947998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.360897064209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6625490188599</t>
+    <t xml:space="preserve">14.3429908752441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7727422714233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1370668411255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3608980178833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6625499725342</t>
   </si>
   <si>
     <t xml:space="preserve">13.7252206802368</t>
@@ -3032,7 +3032,7 @@
     <t xml:space="preserve">13.4118595123291</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1790771484375</t>
+    <t xml:space="preserve">13.1790781021118</t>
   </si>
   <si>
     <t xml:space="preserve">13.2507028579712</t>
@@ -3041,7 +3041,7 @@
     <t xml:space="preserve">13.4655790328979</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4387197494507</t>
+    <t xml:space="preserve">13.4387187957764</t>
   </si>
   <si>
     <t xml:space="preserve">13.5013914108276</t>
@@ -3059,7 +3059,7 @@
     <t xml:space="preserve">13.1074514389038</t>
   </si>
   <si>
-    <t xml:space="preserve">13.125358581543</t>
+    <t xml:space="preserve">13.1253576278687</t>
   </si>
   <si>
     <t xml:space="preserve">13.3581409454346</t>
@@ -3068,10 +3068,10 @@
     <t xml:space="preserve">14.2355518341064</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2176465988159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2713642120361</t>
+    <t xml:space="preserve">14.2176456451416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2713651657104</t>
   </si>
   <si>
     <t xml:space="preserve">14.6294927597046</t>
@@ -3086,19 +3086,19 @@
     <t xml:space="preserve">13.7520799636841</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8774251937866</t>
+    <t xml:space="preserve">13.8774261474609</t>
   </si>
   <si>
     <t xml:space="preserve">13.4834861755371</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5551109313965</t>
+    <t xml:space="preserve">13.5551118850708</t>
   </si>
   <si>
     <t xml:space="preserve">13.1611709594727</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9642000198364</t>
+    <t xml:space="preserve">12.9642009735107</t>
   </si>
   <si>
     <t xml:space="preserve">12.7851371765137</t>
@@ -3107,10 +3107,10 @@
     <t xml:space="preserve">12.6060743331909</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8925743103027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9104824066162</t>
+    <t xml:space="preserve">12.8925752639771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9104814529419</t>
   </si>
   <si>
     <t xml:space="preserve">12.9821071624756</t>
@@ -3122,7 +3122,7 @@
     <t xml:space="preserve">13.1432647705078</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0537328720093</t>
+    <t xml:space="preserve">13.053731918335</t>
   </si>
   <si>
     <t xml:space="preserve">12.5523548126221</t>
@@ -3137,13 +3137,13 @@
     <t xml:space="preserve">12.178035736084</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0668210983276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6228942871094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6414318084717</t>
+    <t xml:space="preserve">12.0668201446533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6228952407837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6414308547974</t>
   </si>
   <si>
     <t xml:space="preserve">13.1975049972534</t>
@@ -3152,25 +3152,25 @@
     <t xml:space="preserve">12.8453245162964</t>
   </si>
   <si>
-    <t xml:space="preserve">12.752646446228</t>
+    <t xml:space="preserve">12.7526454925537</t>
   </si>
   <si>
     <t xml:space="preserve">12.7155742645264</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9380044937134</t>
+    <t xml:space="preserve">12.9380035400391</t>
   </si>
   <si>
     <t xml:space="preserve">13.0862903594971</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3272571563721</t>
+    <t xml:space="preserve">13.3272562026978</t>
   </si>
   <si>
     <t xml:space="preserve">13.0677547454834</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3077850341797</t>
+    <t xml:space="preserve">12.307785987854</t>
   </si>
   <si>
     <t xml:space="preserve">12.1409645080566</t>
@@ -3179,7 +3179,7 @@
     <t xml:space="preserve">11.881462097168</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4375371932983</t>
+    <t xml:space="preserve">12.437536239624</t>
   </si>
   <si>
     <t xml:space="preserve">12.2892503738403</t>
@@ -3200,13 +3200,13 @@
     <t xml:space="preserve">12.4746084213257</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1965703964233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.955605506897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4736738204956</t>
+    <t xml:space="preserve">12.1965713500977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9556045532227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4736747741699</t>
   </si>
   <si>
     <t xml:space="preserve">11.73317527771</t>
@@ -3218,13 +3218,13 @@
     <t xml:space="preserve">12.085355758667</t>
   </si>
   <si>
-    <t xml:space="preserve">11.937068939209</t>
+    <t xml:space="preserve">11.9370698928833</t>
   </si>
   <si>
     <t xml:space="preserve">11.7146396636963</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5107450485229</t>
+    <t xml:space="preserve">11.5107460021973</t>
   </si>
   <si>
     <t xml:space="preserve">12.0297479629517</t>
@@ -3242,7 +3242,7 @@
     <t xml:space="preserve">12.3263216018677</t>
   </si>
   <si>
-    <t xml:space="preserve">12.511679649353</t>
+    <t xml:space="preserve">12.5116806030273</t>
   </si>
   <si>
     <t xml:space="preserve">12.5487518310547</t>
@@ -3260,22 +3260,22 @@
     <t xml:space="preserve">12.252179145813</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1224269866943</t>
+    <t xml:space="preserve">12.1224279403687</t>
   </si>
   <si>
     <t xml:space="preserve">11.7887830734253</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7702474594116</t>
+    <t xml:space="preserve">11.7702465057373</t>
   </si>
   <si>
     <t xml:space="preserve">11.3809947967529</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3439235687256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3253870010376</t>
+    <t xml:space="preserve">11.3439226150513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3253879547119</t>
   </si>
   <si>
     <t xml:space="preserve">11.1585655212402</t>
@@ -3284,13 +3284,13 @@
     <t xml:space="preserve">10.9175987243652</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8619928359985</t>
+    <t xml:space="preserve">10.8619918823242</t>
   </si>
   <si>
     <t xml:space="preserve">10.6766338348389</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7693128585815</t>
+    <t xml:space="preserve">10.7693119049072</t>
   </si>
   <si>
     <t xml:space="preserve">10.3800601959229</t>
@@ -3302,10 +3302,10 @@
     <t xml:space="preserve">10.4171314239502</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3615255355835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6024894714355</t>
+    <t xml:space="preserve">10.3615245819092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6024904251099</t>
   </si>
   <si>
     <t xml:space="preserve">10.8249206542969</t>
@@ -3314,13 +3314,13 @@
     <t xml:space="preserve">9.86105823516846</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1020231246948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.78691482543945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.8239860534668</t>
+    <t xml:space="preserve">10.1020221710205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.78691387176514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.82398700714111</t>
   </si>
   <si>
     <t xml:space="preserve">9.62009143829346</t>
@@ -3338,10 +3338,10 @@
     <t xml:space="preserve">9.00840950012207</t>
   </si>
   <si>
-    <t xml:space="preserve">8.6933012008667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.96206951141357</t>
+    <t xml:space="preserve">8.69330024719238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.96207046508789</t>
   </si>
   <si>
     <t xml:space="preserve">8.98060607910156</t>
@@ -3353,13 +3353,13 @@
     <t xml:space="preserve">9.09182167053223</t>
   </si>
   <si>
-    <t xml:space="preserve">8.86012268066406</t>
+    <t xml:space="preserve">8.86012363433838</t>
   </si>
   <si>
     <t xml:space="preserve">9.07328510284424</t>
   </si>
   <si>
-    <t xml:space="preserve">9.11962509155273</t>
+    <t xml:space="preserve">9.11962413787842</t>
   </si>
   <si>
     <t xml:space="preserve">9.39766216278076</t>
@@ -3374,25 +3374,25 @@
     <t xml:space="preserve">9.56448459625244</t>
   </si>
   <si>
-    <t xml:space="preserve">9.37912654876709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.26791191101074</t>
+    <t xml:space="preserve">9.37912559509277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.26791095733643</t>
   </si>
   <si>
     <t xml:space="preserve">9.58302021026611</t>
   </si>
   <si>
-    <t xml:space="preserve">9.6571626663208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.99080848693848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.87959384918213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.84252071380615</t>
+    <t xml:space="preserve">9.65716361999512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.99080753326416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.87959289550781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.84252166748047</t>
   </si>
   <si>
     <t xml:space="preserve">9.9722728729248</t>
@@ -3407,7 +3407,7 @@
     <t xml:space="preserve">10.2132387161255</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5283460617065</t>
+    <t xml:space="preserve">10.5283470153809</t>
   </si>
   <si>
     <t xml:space="preserve">10.8990640640259</t>
@@ -3416,7 +3416,7 @@
     <t xml:space="preserve">10.2503099441528</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2317733764648</t>
+    <t xml:space="preserve">10.2317743301392</t>
   </si>
   <si>
     <t xml:space="preserve">10.2688455581665</t>
@@ -3425,19 +3425,19 @@
     <t xml:space="preserve">10.4356679916382</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6580982208252</t>
+    <t xml:space="preserve">10.6580972671509</t>
   </si>
   <si>
     <t xml:space="preserve">10.2873821258545</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5468826293945</t>
+    <t xml:space="preserve">10.5468835830688</t>
   </si>
   <si>
     <t xml:space="preserve">10.5839548110962</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4912748336792</t>
+    <t xml:space="preserve">10.4912757873535</t>
   </si>
   <si>
     <t xml:space="preserve">10.4727401733398</t>
@@ -3449,7 +3449,7 @@
     <t xml:space="preserve">10.6951694488525</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3985967636108</t>
+    <t xml:space="preserve">10.3985958099365</t>
   </si>
   <si>
     <t xml:space="preserve">10.5654182434082</t>
@@ -3458,7 +3458,7 @@
     <t xml:space="preserve">10.6210260391235</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0844221115112</t>
+    <t xml:space="preserve">11.0844211578369</t>
   </si>
   <si>
     <t xml:space="preserve">11.3068513870239</t>
@@ -3476,7 +3476,7 @@
     <t xml:space="preserve">11.5848894119263</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6961040496826</t>
+    <t xml:space="preserve">11.6961030960083</t>
   </si>
   <si>
     <t xml:space="preserve">12.0482845306396</t>
@@ -3500,19 +3500,19 @@
     <t xml:space="preserve">11.2512445449829</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2141723632812</t>
+    <t xml:space="preserve">11.2141733169556</t>
   </si>
   <si>
     <t xml:space="preserve">11.1214933395386</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8063840866089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8434553146362</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6395606994629</t>
+    <t xml:space="preserve">10.8063850402832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8434562683105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6395616531372</t>
   </si>
   <si>
     <t xml:space="preserve">10.4542036056519</t>
@@ -3527,13 +3527,13 @@
     <t xml:space="preserve">10.9917421340942</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2336416244507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.678503036499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4190006256104</t>
+    <t xml:space="preserve">12.233642578125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6785020828247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.418999671936</t>
   </si>
   <si>
     <t xml:space="preserve">12.8638610839844</t>
@@ -3548,7 +3548,7 @@
     <t xml:space="preserve">12.60435962677</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8082523345947</t>
+    <t xml:space="preserve">12.808253288269</t>
   </si>
   <si>
     <t xml:space="preserve">12.7711811065674</t>
@@ -3560,7 +3560,7 @@
     <t xml:space="preserve">13.9760093688965</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8647947311401</t>
+    <t xml:space="preserve">13.8647956848145</t>
   </si>
   <si>
     <t xml:space="preserve">13.6609010696411</t>
@@ -61816,7 +61816,7 @@
     </row>
     <row r="2207">
       <c r="A2207" s="1" t="n">
-        <v>45537.6493055556</v>
+        <v>45537.2916666667</v>
       </c>
       <c r="B2207" t="n">
         <v>64435</v>
@@ -61837,6 +61837,32 @@
         <v>1334</v>
       </c>
       <c r="H2207" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2208">
+      <c r="A2208" s="1" t="n">
+        <v>45538.6494444444</v>
+      </c>
+      <c r="B2208" t="n">
+        <v>68371</v>
+      </c>
+      <c r="C2208" t="n">
+        <v>11.8000001907349</v>
+      </c>
+      <c r="D2208" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="E2208" t="n">
+        <v>11.8000001907349</v>
+      </c>
+      <c r="F2208" t="n">
+        <v>11.6000003814697</v>
+      </c>
+      <c r="G2208" t="s">
+        <v>1335</v>
+      </c>
+      <c r="H2208" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/MARR.MI.xlsx
+++ b/data/MARR.MI.xlsx
@@ -38,13 +38,13 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2729768753052</t>
+    <t xml:space="preserve">14.2729759216309</t>
   </si>
   <si>
     <t xml:space="preserve">MARR.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1047019958496</t>
+    <t xml:space="preserve">14.1047010421753</t>
   </si>
   <si>
     <t xml:space="preserve">13.9899682998657</t>
@@ -53,10 +53,10 @@
     <t xml:space="preserve">13.7910938262939</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7452001571655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3627490997314</t>
+    <t xml:space="preserve">13.7451992034912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3627500534058</t>
   </si>
   <si>
     <t xml:space="preserve">13.4315910339355</t>
@@ -65,58 +65,58 @@
     <t xml:space="preserve">13.5157299041748</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2021226882935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2097702026367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.720235824585</t>
+    <t xml:space="preserve">13.2021236419678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2097721099854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7202367782593</t>
   </si>
   <si>
     <t xml:space="preserve">12.8273239135742</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3607339859009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9650058746338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6228160858154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4545373916626</t>
+    <t xml:space="preserve">12.3607358932495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9650049209595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6228141784668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4545402526855</t>
   </si>
   <si>
     <t xml:space="preserve">13.3321552276611</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3245067596436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4162950515747</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5004301071167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7681474685669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5616235733032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0873899459839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2786140441895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0491428375244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1083211898804</t>
+    <t xml:space="preserve">13.3245048522949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4162940979004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5004320144653</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7681465148926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5616207122803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0873880386353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2786121368408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0491418838501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1083202362061</t>
   </si>
   <si>
     <t xml:space="preserve">12.1542139053345</t>
@@ -128,37 +128,37 @@
     <t xml:space="preserve">12.2995433807373</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6208000183105</t>
+    <t xml:space="preserve">12.6208009719849</t>
   </si>
   <si>
     <t xml:space="preserve">12.6590442657471</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7814292907715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9497079849243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1562299728394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4851322174072</t>
+    <t xml:space="preserve">12.7814283370972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9497060775757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1562309265137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4851331710815</t>
   </si>
   <si>
     <t xml:space="preserve">13.3780488967896</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3474521636963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7299013137817</t>
+    <t xml:space="preserve">13.3474531173706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7299032211304</t>
   </si>
   <si>
     <t xml:space="preserve">13.9670190811157</t>
   </si>
   <si>
-    <t xml:space="preserve">13.737548828125</t>
+    <t xml:space="preserve">13.7375497817993</t>
   </si>
   <si>
     <t xml:space="preserve">13.8752307891846</t>
@@ -167,40 +167,40 @@
     <t xml:space="preserve">13.6763572692871</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3703994750977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.819673538208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1179838180542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4468908309937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5998697280884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4774856567383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6610612869263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2174205780029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1026849746704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4621906280518</t>
+    <t xml:space="preserve">13.370400428772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8196744918823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1179828643799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4468898773193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5998687744141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4774866104126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.661060333252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2174224853516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1026840209961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4621868133545</t>
   </si>
   <si>
     <t xml:space="preserve">13.5386781692505</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9593706130981</t>
+    <t xml:space="preserve">13.9593715667725</t>
   </si>
   <si>
     <t xml:space="preserve">14.0817537307739</t>
@@ -215,31 +215,31 @@
     <t xml:space="preserve">13.997615814209</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0741062164307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.54833984375</t>
+    <t xml:space="preserve">14.0741052627563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5483417510986</t>
   </si>
   <si>
     <t xml:space="preserve">14.3188714981079</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1658916473389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7987442016602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6916570663452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6151666641235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.576922416687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8599328994751</t>
+    <t xml:space="preserve">14.1658906936646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7987432479858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6916561126709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6151657104492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5769214630127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.859935760498</t>
   </si>
   <si>
     <t xml:space="preserve">13.9058275222778</t>
@@ -251,25 +251,25 @@
     <t xml:space="preserve">14.0970516204834</t>
   </si>
   <si>
-    <t xml:space="preserve">13.94407081604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.630464553833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.684006690979</t>
+    <t xml:space="preserve">13.9440717697144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6304655075073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6840085983276</t>
   </si>
   <si>
     <t xml:space="preserve">13.6993055343628</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8216905593872</t>
+    <t xml:space="preserve">13.8216896057129</t>
   </si>
   <si>
     <t xml:space="preserve">13.4392414093018</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6687097549438</t>
+    <t xml:space="preserve">13.6687116622925</t>
   </si>
   <si>
     <t xml:space="preserve">13.4086456298828</t>
@@ -281,64 +281,64 @@
     <t xml:space="preserve">13.825008392334</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8170623779297</t>
+    <t xml:space="preserve">13.817063331604</t>
   </si>
   <si>
     <t xml:space="preserve">14.0713157653809</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0633716583252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2540597915649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3096790313721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1269359588623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0792608261108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3017349243164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1904973983765</t>
+    <t xml:space="preserve">14.0633707046509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2540607452393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3096771240234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.126935005188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0792598724365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3017330169678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1904964447021</t>
   </si>
   <si>
     <t xml:space="preserve">14.1030979156494</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0872049331665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0951528549194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5866470336914</t>
+    <t xml:space="preserve">14.0872058868408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0951519012451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5866460800171</t>
   </si>
   <si>
     <t xml:space="preserve">13.6740455627441</t>
   </si>
   <si>
-    <t xml:space="preserve">13.388011932373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0701961517334</t>
+    <t xml:space="preserve">13.3880109786987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0701951980591</t>
   </si>
   <si>
     <t xml:space="preserve">13.2132120132446</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5945930480957</t>
+    <t xml:space="preserve">13.5945920944214</t>
   </si>
   <si>
     <t xml:space="preserve">13.5787010192871</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8806247711182</t>
+    <t xml:space="preserve">13.8806266784668</t>
   </si>
   <si>
     <t xml:space="preserve">13.2052669525146</t>
@@ -347,28 +347,28 @@
     <t xml:space="preserve">12.5060701370239</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0384120941162</t>
+    <t xml:space="preserve">13.0384140014648</t>
   </si>
   <si>
     <t xml:space="preserve">13.5151376724243</t>
   </si>
   <si>
-    <t xml:space="preserve">14.246114730835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3573522567749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8567886352539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2778968811035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1507692337036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6036567687988</t>
+    <t xml:space="preserve">14.2461166381836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3573532104492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8567905426025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2778959274292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1507701873779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6036577224731</t>
   </si>
   <si>
     <t xml:space="preserve">14.5718755722046</t>
@@ -380,43 +380,43 @@
     <t xml:space="preserve">14.3652963638306</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3176231384277</t>
+    <t xml:space="preserve">14.3176221847534</t>
   </si>
   <si>
     <t xml:space="preserve">14.5798225402832</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8738012313843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5480394363403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6990041732788</t>
+    <t xml:space="preserve">14.8738031387329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5480422973633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6990032196045</t>
   </si>
   <si>
     <t xml:space="preserve">14.9770927429199</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8340768814087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9453105926514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5877676010132</t>
+    <t xml:space="preserve">14.8340759277344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9453086853027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5877666473389</t>
   </si>
   <si>
     <t xml:space="preserve">14.8579120635986</t>
   </si>
   <si>
-    <t xml:space="preserve">14.333517074585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4765310287476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5003690719604</t>
+    <t xml:space="preserve">14.3335151672363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4765329360962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5003681182861</t>
   </si>
   <si>
     <t xml:space="preserve">14.4447498321533</t>
@@ -425,19 +425,19 @@
     <t xml:space="preserve">14.1666612625122</t>
   </si>
   <si>
-    <t xml:space="preserve">14.238169670105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.031587600708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8885707855225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9044628143311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8647346496582</t>
+    <t xml:space="preserve">14.2381715774536</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0315895080566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8885717391968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9044637680054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8647356033325</t>
   </si>
   <si>
     <t xml:space="preserve">14.0474796295166</t>
@@ -446,28 +446,28 @@
     <t xml:space="preserve">13.9521331787109</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7217168807983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0156993865967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.912407875061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0077514648438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.920352935791</t>
+    <t xml:space="preserve">13.7217178344727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0156984329224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9124088287354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0077533721924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9203548431396</t>
   </si>
   <si>
     <t xml:space="preserve">13.8091173171997</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7058267593384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6502103805542</t>
+    <t xml:space="preserve">13.7058277130127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6502084732056</t>
   </si>
   <si>
     <t xml:space="preserve">13.7376098632812</t>
@@ -476,28 +476,28 @@
     <t xml:space="preserve">13.9998083114624</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2302236557007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1746072769165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0236415863037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1587162017822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7614450454712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6661014556885</t>
+    <t xml:space="preserve">14.2302227020264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1746053695679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0236434936523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1587152481079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7614440917969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6661024093628</t>
   </si>
   <si>
     <t xml:space="preserve">13.6184282302856</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7773361206055</t>
+    <t xml:space="preserve">13.7773370742798</t>
   </si>
   <si>
     <t xml:space="preserve">13.5469188690186</t>
@@ -506,28 +506,28 @@
     <t xml:space="preserve">13.4913015365601</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6581544876099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5389738082886</t>
+    <t xml:space="preserve">13.6581554412842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5389757156372</t>
   </si>
   <si>
     <t xml:space="preserve">13.4595203399658</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3482828140259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.316502571106</t>
+    <t xml:space="preserve">13.3482818603516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3165016174316</t>
   </si>
   <si>
     <t xml:space="preserve">13.300612449646</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3323926925659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3244476318359</t>
+    <t xml:space="preserve">13.3323936462402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3244485855103</t>
   </si>
   <si>
     <t xml:space="preserve">13.1814298629761</t>
@@ -539,25 +539,25 @@
     <t xml:space="preserve">13.2370491027832</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2688322067261</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1575927734375</t>
+    <t xml:space="preserve">13.2688302993774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1575937271118</t>
   </si>
   <si>
     <t xml:space="preserve">12.7126512527466</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1178665161133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2608852386475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1417055130005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1655378341675</t>
+    <t xml:space="preserve">13.1178674697876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2608842849731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1417036056519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1655387878418</t>
   </si>
   <si>
     <t xml:space="preserve">13.0225210189819</t>
@@ -581,7 +581,7 @@
     <t xml:space="preserve">13.4515752792358</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5707559585571</t>
+    <t xml:space="preserve">13.5707550048828</t>
   </si>
   <si>
     <t xml:space="preserve">13.8965177536011</t>
@@ -590,49 +590,49 @@
     <t xml:space="preserve">13.7455530166626</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9362449645996</t>
+    <t xml:space="preserve">13.9362440109253</t>
   </si>
   <si>
     <t xml:space="preserve">13.7852821350098</t>
   </si>
   <si>
-    <t xml:space="preserve">13.944188117981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9680271148682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9918632507324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9759702682495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0395355224609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8011741638184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9839191436768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2222785949707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2063865661621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7148923873901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7705106735229</t>
+    <t xml:space="preserve">13.9441900253296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9680252075195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9918622970581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9759712219238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0395345687866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.801173210144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9839162826538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.222279548645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2063884735107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7148962020874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7705125808716</t>
   </si>
   <si>
     <t xml:space="preserve">14.349404335022</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2699499130249</t>
+    <t xml:space="preserve">14.2699508666992</t>
   </si>
   <si>
     <t xml:space="preserve">14.1825532913208</t>
@@ -644,64 +644,64 @@
     <t xml:space="preserve">14.341459274292</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2620058059692</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6751661300659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4606428146362</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.651330947876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6274948120117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5400953292847</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6910591125488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5162591934204</t>
+    <t xml:space="preserve">14.2620067596436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6751651763916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4606418609619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6513328552246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6274938583374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5400943756104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6910562515259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5162582397461</t>
   </si>
   <si>
     <t xml:space="preserve">14.7069492340088</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6116018295288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3970775604248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.746675491333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2154541015625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4538173675537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4061460494995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5968351364136</t>
+    <t xml:space="preserve">14.6116037368774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3970785140991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7466735839844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2154569625854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.453818321228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4061431884766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5968332290649</t>
   </si>
   <si>
     <t xml:space="preserve">15.8908157348633</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8510866165161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8590326309204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7319059371948</t>
+    <t xml:space="preserve">15.8510875701904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8590316772461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7319068908691</t>
   </si>
   <si>
     <t xml:space="preserve">16.1371231079102</t>
@@ -710,19 +710,19 @@
     <t xml:space="preserve">16.6774101257324</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0656147003174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0894508361816</t>
+    <t xml:space="preserve">16.0656127929688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.089448928833</t>
   </si>
   <si>
     <t xml:space="preserve">16.2245216369629</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3039741516113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1609573364258</t>
+    <t xml:space="preserve">16.30397605896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1609592437744</t>
   </si>
   <si>
     <t xml:space="preserve">16.2880840301514</t>
@@ -734,100 +734,100 @@
     <t xml:space="preserve">16.6853542327881</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4867191314697</t>
+    <t xml:space="preserve">16.486722946167</t>
   </si>
   <si>
     <t xml:space="preserve">16.4072666168213</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0973949432373</t>
+    <t xml:space="preserve">16.0973930358887</t>
   </si>
   <si>
     <t xml:space="preserve">16.1291770935059</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5026092529297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3675384521484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5582275390625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.605899810791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.701244354248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5423374176025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8839893341064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4322204589844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.114408493042</t>
+    <t xml:space="preserve">16.5026111602783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3675422668457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5582294464111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6059017181396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7012462615967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5423355102539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8839912414551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4322242736816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1144065856934</t>
   </si>
   <si>
     <t xml:space="preserve">16.6615180969238</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2812614440918</t>
+    <t xml:space="preserve">17.2812595367432</t>
   </si>
   <si>
     <t xml:space="preserve">17.3289337158203</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2574253082275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2653675079346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.61496925354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8136043548584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6864757537842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5355129241943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4560604095459</t>
+    <t xml:space="preserve">17.2574234008789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2653694152832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6149673461914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8136005401611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6864776611328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5355167388916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4560585021973</t>
   </si>
   <si>
     <t xml:space="preserve">17.6626396179199</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1234741210938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8294925689697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7738761901855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9089488983154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9963455200195</t>
+    <t xml:space="preserve">18.1234722137451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8294944763184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7738800048828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9089469909668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9963474273682</t>
   </si>
   <si>
     <t xml:space="preserve">18.1552543640137</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4004421234131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5196208953857</t>
+    <t xml:space="preserve">17.4004383087158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.519624710083</t>
   </si>
   <si>
     <t xml:space="preserve">17.7083587646484</t>
@@ -839,52 +839,52 @@
     <t xml:space="preserve">18.2171268463135</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0530090332031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7904167175293</t>
+    <t xml:space="preserve">18.0530071258545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7904186248779</t>
   </si>
   <si>
     <t xml:space="preserve">17.6509170532227</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8806838989258</t>
+    <t xml:space="preserve">17.8806819915771</t>
   </si>
   <si>
     <t xml:space="preserve">18.0694198608398</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9791526794434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7986259460449</t>
+    <t xml:space="preserve">17.979154586792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7986240386963</t>
   </si>
   <si>
     <t xml:space="preserve">18.0365943908691</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1760940551758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9955673217773</t>
+    <t xml:space="preserve">18.1760959625244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9955654144287</t>
   </si>
   <si>
     <t xml:space="preserve">17.5606517791748</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7411804199219</t>
+    <t xml:space="preserve">17.7411842346191</t>
   </si>
   <si>
     <t xml:space="preserve">17.8888893127441</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7740058898926</t>
+    <t xml:space="preserve">17.7740077972412</t>
   </si>
   <si>
     <t xml:space="preserve">18.0858306884766</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7575931549072</t>
+    <t xml:space="preserve">17.7575950622559</t>
   </si>
   <si>
     <t xml:space="preserve">17.5524463653564</t>
@@ -893,10 +893,10 @@
     <t xml:space="preserve">17.5852699279785</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6427135467529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7329750061035</t>
+    <t xml:space="preserve">17.6427116394043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7329807281494</t>
   </si>
   <si>
     <t xml:space="preserve">17.7493896484375</t>
@@ -905,70 +905,70 @@
     <t xml:space="preserve">17.1749744415283</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0765037536621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0682964324951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1503562927246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9123859405518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2324161529541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0600929260254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9780311584473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3965358734131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.503210067749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9299182891846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2991828918457</t>
+    <t xml:space="preserve">17.0765018463135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0682983398438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1503582000732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9123878479004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2324142456055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0600910186768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9780330657959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3965339660645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5032119750977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9299201965332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2991809844971</t>
   </si>
   <si>
     <t xml:space="preserve">18.1022434234619</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3484210968018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3566246032715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4633007049561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8642730712891</t>
+    <t xml:space="preserve">18.3484191894531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3566284179688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4633026123047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8642711639404</t>
   </si>
   <si>
     <t xml:space="preserve">18.3402137756348</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7247714996338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5688571929932</t>
+    <t xml:space="preserve">17.7247695922852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5688591003418</t>
   </si>
   <si>
     <t xml:space="preserve">17.4950046539307</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8068313598633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5278301239014</t>
+    <t xml:space="preserve">17.8068294525146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5278282165527</t>
   </si>
   <si>
     <t xml:space="preserve">17.3883285522461</t>
@@ -980,10 +980,10 @@
     <t xml:space="preserve">17.2734451293945</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2242107391357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.04368019104</t>
+    <t xml:space="preserve">17.2242088317871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0436782836914</t>
   </si>
   <si>
     <t xml:space="preserve">16.9452095031738</t>
@@ -1001,79 +1001,79 @@
     <t xml:space="preserve">17.4211521148682</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6262989044189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6098880767822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9709491729736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0940341949463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.323802947998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9873580932617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.11865234375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1104469299316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1268634796143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3320083618164</t>
+    <t xml:space="preserve">17.6263008117676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6098861694336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.970947265625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0940380096436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3238010406494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9873600006104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1186542510986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1104488372803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.126859664917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3320064544678</t>
   </si>
   <si>
     <t xml:space="preserve">18.3648319244385</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4386825561523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3812427520752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6356239318848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6684494018555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5371570587158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8079528808594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6520385742188</t>
+    <t xml:space="preserve">18.438684463501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3812446594238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6356258392334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6684513092041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5371551513672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8079509735107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6520366668701</t>
   </si>
   <si>
     <t xml:space="preserve">18.6192150115967</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7833347320557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2182483673096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1443920135498</t>
+    <t xml:space="preserve">18.783332824707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2182464599609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1443939208984</t>
   </si>
   <si>
     <t xml:space="preserve">18.6930694580078</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7669219970703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.594596862793</t>
+    <t xml:space="preserve">18.7669200897217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5945987701416</t>
   </si>
   <si>
     <t xml:space="preserve">18.3730392456055</t>
@@ -1082,16 +1082,16 @@
     <t xml:space="preserve">18.1596832275391</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4222736358643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2335376739502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1925086975098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1350650787354</t>
+    <t xml:space="preserve">18.4222755432129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2335357666016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1925067901611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.135066986084</t>
   </si>
   <si>
     <t xml:space="preserve">17.9217128753662</t>
@@ -1103,91 +1103,91 @@
     <t xml:space="preserve">17.5442390441895</t>
   </si>
   <si>
-    <t xml:space="preserve">17.355504989624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0272674560547</t>
+    <t xml:space="preserve">17.3555030822754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0272693634033</t>
   </si>
   <si>
     <t xml:space="preserve">16.7975025177002</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9041805267334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1913871765137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6919479370117</t>
+    <t xml:space="preserve">16.9041786193848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.191385269165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6919460296631</t>
   </si>
   <si>
     <t xml:space="preserve">17.9053001403809</t>
   </si>
   <si>
-    <t xml:space="preserve">17.815034866333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0037708282471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8396549224854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9627418518066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4293575286865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0354747772217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4703903198242</t>
+    <t xml:space="preserve">17.8150329589844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0037727355957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8396511077881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.962739944458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4293556213379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.035472869873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4703884124756</t>
   </si>
   <si>
     <t xml:space="preserve">17.4621810913086</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7822113037109</t>
+    <t xml:space="preserve">17.7822132110596</t>
   </si>
   <si>
     <t xml:space="preserve">17.659122467041</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8232421875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4129428863525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3976573944092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4468879699707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5617752075195</t>
+    <t xml:space="preserve">17.8232402801514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4129467010498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3976554870605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4468898773193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5617733001709</t>
   </si>
   <si>
     <t xml:space="preserve">18.6274223327637</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7751274108887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4797172546387</t>
+    <t xml:space="preserve">18.77512550354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4797134399414</t>
   </si>
   <si>
     <t xml:space="preserve">18.7258930206299</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3155956268311</t>
+    <t xml:space="preserve">18.3155937194824</t>
   </si>
   <si>
     <t xml:space="preserve">18.282772064209</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5781860351562</t>
+    <t xml:space="preserve">18.5781879425049</t>
   </si>
   <si>
     <t xml:space="preserve">17.511417388916</t>
@@ -1196,34 +1196,34 @@
     <t xml:space="preserve">18.0201835632324</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3472995758057</t>
+    <t xml:space="preserve">17.347297668457</t>
   </si>
   <si>
     <t xml:space="preserve">17.2980632781982</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9381237030029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6755352020264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2652397155762</t>
+    <t xml:space="preserve">17.9381275177002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6755332946777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2652416229248</t>
   </si>
   <si>
     <t xml:space="preserve">17.3144779205322</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4961280822754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5793075561523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5136585235596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.03883934021</t>
+    <t xml:space="preserve">18.4961261749268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5793056488037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5136623382568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0388374328613</t>
   </si>
   <si>
     <t xml:space="preserve">20.3178386688232</t>
@@ -1232,7 +1232,7 @@
     <t xml:space="preserve">20.1701335906982</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0716609954834</t>
+    <t xml:space="preserve">20.071662902832</t>
   </si>
   <si>
     <t xml:space="preserve">19.8418960571289</t>
@@ -1244,10 +1244,10 @@
     <t xml:space="preserve">19.8911304473877</t>
   </si>
   <si>
-    <t xml:space="preserve">19.8090724945068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9403686523438</t>
+    <t xml:space="preserve">19.8090705871582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9403667449951</t>
   </si>
   <si>
     <t xml:space="preserve">20.4327201843262</t>
@@ -1256,7 +1256,7 @@
     <t xml:space="preserve">20.6296615600586</t>
   </si>
   <si>
-    <t xml:space="preserve">20.5311946868896</t>
+    <t xml:space="preserve">20.531192779541</t>
   </si>
   <si>
     <t xml:space="preserve">20.5968399047852</t>
@@ -1265,16 +1265,16 @@
     <t xml:space="preserve">20.7609577178955</t>
   </si>
   <si>
-    <t xml:space="preserve">20.5147819519043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3506622314453</t>
+    <t xml:space="preserve">20.5147800445557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3506603240967</t>
   </si>
   <si>
     <t xml:space="preserve">20.2850131988525</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3342533111572</t>
+    <t xml:space="preserve">20.3342514038086</t>
   </si>
   <si>
     <t xml:space="preserve">20.4655456542969</t>
@@ -1283,7 +1283,7 @@
     <t xml:space="preserve">20.4163093566895</t>
   </si>
   <si>
-    <t xml:space="preserve">20.383487701416</t>
+    <t xml:space="preserve">20.3834857940674</t>
   </si>
   <si>
     <t xml:space="preserve">20.4491329193115</t>
@@ -1307,10 +1307,10 @@
     <t xml:space="preserve">20.6460762023926</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8101921081543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.251070022583</t>
+    <t xml:space="preserve">20.8101940155029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2510681152344</t>
   </si>
   <si>
     <t xml:space="preserve">19.4808368682861</t>
@@ -1319,7 +1319,7 @@
     <t xml:space="preserve">19.1854209899902</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1361904144287</t>
+    <t xml:space="preserve">19.1361885070801</t>
   </si>
   <si>
     <t xml:space="preserve">19.2887363433838</t>
@@ -1331,19 +1331,19 @@
     <t xml:space="preserve">19.492130279541</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3226318359375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7633266448975</t>
+    <t xml:space="preserve">19.3226337432861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7633247375488</t>
   </si>
   <si>
     <t xml:space="preserve">19.6446800231934</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7294273376465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6955280303955</t>
+    <t xml:space="preserve">19.7294254302979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6955261230469</t>
   </si>
   <si>
     <t xml:space="preserve">19.6277275085449</t>
@@ -1352,10 +1352,10 @@
     <t xml:space="preserve">19.271785736084</t>
   </si>
   <si>
-    <t xml:space="preserve">19.5599327087402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8311233520508</t>
+    <t xml:space="preserve">19.559928894043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8311252593994</t>
   </si>
   <si>
     <t xml:space="preserve">19.7802772521973</t>
@@ -1364,16 +1364,16 @@
     <t xml:space="preserve">19.5429821014404</t>
   </si>
   <si>
-    <t xml:space="preserve">19.5938301086426</t>
+    <t xml:space="preserve">19.5938282012939</t>
   </si>
   <si>
     <t xml:space="preserve">19.4412822723389</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8988914489746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9158401489258</t>
+    <t xml:space="preserve">18.898889541626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9158420562744</t>
   </si>
   <si>
     <t xml:space="preserve">18.7971935272217</t>
@@ -1382,7 +1382,7 @@
     <t xml:space="preserve">19.0175399780273</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0683879852295</t>
+    <t xml:space="preserve">19.0683898925781</t>
   </si>
   <si>
     <t xml:space="preserve">18.9836406707764</t>
@@ -1391,19 +1391,19 @@
     <t xml:space="preserve">19.1022891998291</t>
   </si>
   <si>
-    <t xml:space="preserve">19.526029586792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6616268157959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5768795013428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3226642608643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3396129608154</t>
+    <t xml:space="preserve">19.5260314941406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6616287231445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5768814086914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3226661682129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3396148681641</t>
   </si>
   <si>
     <t xml:space="preserve">20.1870670318604</t>
@@ -1415,7 +1415,7 @@
     <t xml:space="preserve">19.9328231811523</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7124767303467</t>
+    <t xml:space="preserve">19.7124786376953</t>
   </si>
   <si>
     <t xml:space="preserve">20.2379150390625</t>
@@ -1430,34 +1430,34 @@
     <t xml:space="preserve">19.8480739593506</t>
   </si>
   <si>
-    <t xml:space="preserve">20.4243640899658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6447086334229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6955604553223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3904647827148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3057155609131</t>
+    <t xml:space="preserve">20.4243621826172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6447105407715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6955585479736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3904628753662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3057136535645</t>
   </si>
   <si>
     <t xml:space="preserve">20.1701164245605</t>
   </si>
   <si>
-    <t xml:space="preserve">20.2887687683105</t>
+    <t xml:space="preserve">20.2887668609619</t>
   </si>
   <si>
     <t xml:space="preserve">20.2040176391602</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3565654754639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5091133117676</t>
+    <t xml:space="preserve">20.3565635681152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5091114044189</t>
   </si>
   <si>
     <t xml:space="preserve">20.5260620117188</t>
@@ -1469,7 +1469,7 @@
     <t xml:space="preserve">20.9328536987305</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6616592407227</t>
+    <t xml:space="preserve">20.661657333374</t>
   </si>
   <si>
     <t xml:space="preserve">20.5769100189209</t>
@@ -1478,19 +1478,19 @@
     <t xml:space="preserve">20.7633571624756</t>
   </si>
   <si>
-    <t xml:space="preserve">21.1023502349854</t>
+    <t xml:space="preserve">21.102352142334</t>
   </si>
   <si>
     <t xml:space="preserve">21.6108417510986</t>
   </si>
   <si>
-    <t xml:space="preserve">21.6955909729004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5091419219971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0345840454102</t>
+    <t xml:space="preserve">21.6955890655518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5091400146484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0345821380615</t>
   </si>
   <si>
     <t xml:space="preserve">22.3905258178711</t>
@@ -1499,10 +1499,10 @@
     <t xml:space="preserve">22.1023826599121</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4921951293945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7294864654541</t>
+    <t xml:space="preserve">21.4921932220459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7294883728027</t>
   </si>
   <si>
     <t xml:space="preserve">21.390495300293</t>
@@ -1511,25 +1511,25 @@
     <t xml:space="preserve">21.4074440002441</t>
   </si>
   <si>
-    <t xml:space="preserve">20.9667549133301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7294540405273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5938587188721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.966724395752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8819751739502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5090808868408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3734855651855</t>
+    <t xml:space="preserve">20.9667530059814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.729455947876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5938606262207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9667224884033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8819713592529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5090827941895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3734836578369</t>
   </si>
   <si>
     <t xml:space="preserve">19.0344905853271</t>
@@ -1538,19 +1538,19 @@
     <t xml:space="preserve">19.4751815795898</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0853710174561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8989219665527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.237886428833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8819427490234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5090484619141</t>
+    <t xml:space="preserve">20.0853729248047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8989238739014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2378883361816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8819446563721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5090503692627</t>
   </si>
   <si>
     <t xml:space="preserve">18.1870040893555</t>
@@ -1559,19 +1559,19 @@
     <t xml:space="preserve">18.2717552185059</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0175094604492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6276988983154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9327602386475</t>
+    <t xml:space="preserve">18.0175113677979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6276969909668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9327621459961</t>
   </si>
   <si>
     <t xml:space="preserve">18.1192054748535</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9666595458984</t>
+    <t xml:space="preserve">17.9666614532471</t>
   </si>
   <si>
     <t xml:space="preserve">17.8649616241455</t>
@@ -1583,37 +1583,37 @@
     <t xml:space="preserve">18.2378559112549</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5259990692139</t>
+    <t xml:space="preserve">18.5260009765625</t>
   </si>
   <si>
     <t xml:space="preserve">17.8480110168457</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3564720153809</t>
+    <t xml:space="preserve">17.3564701080322</t>
   </si>
   <si>
     <t xml:space="preserve">16.9666290283203</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0852756500244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1022262573242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3733901977539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.271692276001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6106872558594</t>
+    <t xml:space="preserve">17.0852737426758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1022281646729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3733882904053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2716941833496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6106834411621</t>
   </si>
   <si>
     <t xml:space="preserve">16.4242382049561</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3903427124023</t>
+    <t xml:space="preserve">16.3903408050537</t>
   </si>
   <si>
     <t xml:space="preserve">16.7378082275391</t>
@@ -1628,28 +1628,28 @@
     <t xml:space="preserve">17.4581699371338</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2717208862305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.153076171875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3225746154785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4920711517334</t>
+    <t xml:space="preserve">17.2717227935791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1530742645264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3225708007812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4920692443848</t>
   </si>
   <si>
     <t xml:space="preserve">17.6446151733398</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7971630096436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2209072113037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4073505401611</t>
+    <t xml:space="preserve">17.7971649169922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2209033966064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4073524475098</t>
   </si>
   <si>
     <t xml:space="preserve">18.3395519256592</t>
@@ -1658,10 +1658,10 @@
     <t xml:space="preserve">17.9836082458496</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0514068603516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6615657806396</t>
+    <t xml:space="preserve">18.0514087677002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6615676879883</t>
   </si>
   <si>
     <t xml:space="preserve">17.2378234863281</t>
@@ -1673,10 +1673,10 @@
     <t xml:space="preserve">17.7293663024902</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8819122314453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4412517547607</t>
+    <t xml:space="preserve">17.8819103240967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4412536621094</t>
   </si>
   <si>
     <t xml:space="preserve">18.1531066894531</t>
@@ -1688,22 +1688,22 @@
     <t xml:space="preserve">17.9497108459473</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8988628387451</t>
+    <t xml:space="preserve">17.8988647460938</t>
   </si>
   <si>
     <t xml:space="preserve">17.7463130950928</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7124156951904</t>
+    <t xml:space="preserve">17.7124137878418</t>
   </si>
   <si>
     <t xml:space="preserve">17.6276664733887</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7632617950439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3056240081787</t>
+    <t xml:space="preserve">17.7632637023926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3056221008301</t>
   </si>
   <si>
     <t xml:space="preserve">16.873405456543</t>
@@ -1712,10 +1712,10 @@
     <t xml:space="preserve">17.186975479126</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2039241790771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3903732299805</t>
+    <t xml:space="preserve">17.2039222717285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3903713226318</t>
   </si>
   <si>
     <t xml:space="preserve">17.2886734008789</t>
@@ -1724,34 +1724,34 @@
     <t xml:space="preserve">17.2547740936279</t>
   </si>
   <si>
-    <t xml:space="preserve">17.220874786377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8903560638428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4242687225342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5429191589355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.814115524292</t>
+    <t xml:space="preserve">17.2208728790283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8903579711914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4242706298828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5429210662842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8141117095947</t>
   </si>
   <si>
     <t xml:space="preserve">17.5937671661377</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3734188079834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1700248718262</t>
+    <t xml:space="preserve">17.373420715332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1700267791748</t>
   </si>
   <si>
     <t xml:space="preserve">17.5005435943604</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2462978363037</t>
+    <t xml:space="preserve">17.2462997436523</t>
   </si>
   <si>
     <t xml:space="preserve">17.3310489654541</t>
@@ -1763,7 +1763,7 @@
     <t xml:space="preserve">17.1615505218506</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0344276428223</t>
+    <t xml:space="preserve">17.0344295501709</t>
   </si>
   <si>
     <t xml:space="preserve">17.5852928161621</t>
@@ -1778,10 +1778,10 @@
     <t xml:space="preserve">18.136157989502</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0937843322754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8395366668701</t>
+    <t xml:space="preserve">18.0937824249268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8395385742188</t>
   </si>
   <si>
     <t xml:space="preserve">18.0090351104736</t>
@@ -1790,7 +1790,7 @@
     <t xml:space="preserve">17.754789352417</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9242858886719</t>
+    <t xml:space="preserve">17.9242839813232</t>
   </si>
   <si>
     <t xml:space="preserve">18.1785316467285</t>
@@ -1808,49 +1808,49 @@
     <t xml:space="preserve">17.8268585205078</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2670269012451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1789951324463</t>
+    <t xml:space="preserve">18.2670288085938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1789932250977</t>
   </si>
   <si>
     <t xml:space="preserve">18.2230129241943</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4871120452881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4430961608887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5311279296875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3550624847412</t>
+    <t xml:space="preserve">18.4871139526367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4430980682373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5311298370361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3550643920898</t>
   </si>
   <si>
     <t xml:space="preserve">18.0029277801514</t>
   </si>
   <si>
-    <t xml:space="preserve">17.782844543457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6507930755615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3426723480225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5011329650879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5539531707764</t>
+    <t xml:space="preserve">17.7828407287598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6507892608643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3426704406738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5011310577393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.553955078125</t>
   </si>
   <si>
     <t xml:space="preserve">18.7952308654785</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7512130737305</t>
+    <t xml:space="preserve">18.7512149810791</t>
   </si>
   <si>
     <t xml:space="preserve">18.5751476287842</t>
@@ -1859,7 +1859,7 @@
     <t xml:space="preserve">18.6191635131836</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3110446929932</t>
+    <t xml:space="preserve">18.3110466003418</t>
   </si>
   <si>
     <t xml:space="preserve">17.7388229370117</t>
@@ -1871,25 +1871,25 @@
     <t xml:space="preserve">17.3778858184814</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2370338439941</t>
+    <t xml:space="preserve">17.2370319366455</t>
   </si>
   <si>
     <t xml:space="preserve">17.1666049957275</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2722454071045</t>
+    <t xml:space="preserve">17.2722473144531</t>
   </si>
   <si>
     <t xml:space="preserve">17.1137847900391</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3074569702148</t>
+    <t xml:space="preserve">17.3074588775635</t>
   </si>
   <si>
     <t xml:space="preserve">16.8320770263672</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6912231445312</t>
+    <t xml:space="preserve">16.691219329834</t>
   </si>
   <si>
     <t xml:space="preserve">16.7616481781006</t>
@@ -1898,7 +1898,7 @@
     <t xml:space="preserve">17.060962677002</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4799423217773</t>
+    <t xml:space="preserve">16.4799404144287</t>
   </si>
   <si>
     <t xml:space="preserve">16.3743000030518</t>
@@ -1907,19 +1907,19 @@
     <t xml:space="preserve">16.6207942962646</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1101989746094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3038711547852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6560077667236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5679721832275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4095134735107</t>
+    <t xml:space="preserve">16.1101970672607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3038730621338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6560096740723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5679740905762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4095115661621</t>
   </si>
   <si>
     <t xml:space="preserve">16.3919086456299</t>
@@ -1928,13 +1928,13 @@
     <t xml:space="preserve">16.3214797973633</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2334442138672</t>
+    <t xml:space="preserve">16.2334461212158</t>
   </si>
   <si>
     <t xml:space="preserve">16.9025039672852</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2898502349854</t>
+    <t xml:space="preserve">17.2898540496826</t>
   </si>
   <si>
     <t xml:space="preserve">17.3954925537109</t>
@@ -1943,7 +1943,7 @@
     <t xml:space="preserve">17.448314666748</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6948070526123</t>
+    <t xml:space="preserve">17.6948089599609</t>
   </si>
   <si>
     <t xml:space="preserve">19.0593318939209</t>
@@ -1961,16 +1961,16 @@
     <t xml:space="preserve">17.6067733764648</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2546405792236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.849681854248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.884895324707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1489963531494</t>
+    <t xml:space="preserve">17.2546367645264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8496799468994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8848972320557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.148998260498</t>
   </si>
   <si>
     <t xml:space="preserve">17.1313896179199</t>
@@ -1985,7 +1985,7 @@
     <t xml:space="preserve">16.6384010314941</t>
   </si>
   <si>
-    <t xml:space="preserve">16.550365447998</t>
+    <t xml:space="preserve">16.5503673553467</t>
   </si>
   <si>
     <t xml:space="preserve">16.4271202087402</t>
@@ -1994,10 +1994,10 @@
     <t xml:space="preserve">16.7088279724121</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6736164093018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8144702911377</t>
+    <t xml:space="preserve">16.6736145019531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8144683837891</t>
   </si>
   <si>
     <t xml:space="preserve">17.360279083252</t>
@@ -2009,13 +2009,13 @@
     <t xml:space="preserve">16.9553241729736</t>
   </si>
   <si>
-    <t xml:space="preserve">18.663179397583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0469417572021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.219425201416</t>
+    <t xml:space="preserve">18.6631813049316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0469436645508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2194232940674</t>
   </si>
   <si>
     <t xml:space="preserve">16.990535736084</t>
@@ -2030,16 +2030,16 @@
     <t xml:space="preserve">15.4235343933105</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7052431106567</t>
+    <t xml:space="preserve">15.7052421569824</t>
   </si>
   <si>
     <t xml:space="preserve">15.0537919998169</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7896881103516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.472767829895</t>
+    <t xml:space="preserve">14.7896890640259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4727697372437</t>
   </si>
   <si>
     <t xml:space="preserve">14.2614870071411</t>
@@ -2051,7 +2051,7 @@
     <t xml:space="preserve">14.2086658477783</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4832029342651</t>
+    <t xml:space="preserve">12.4832019805908</t>
   </si>
   <si>
     <t xml:space="preserve">12.694483757019</t>
@@ -2072,19 +2072,19 @@
     <t xml:space="preserve">11.0042343139648</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5640630722046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9514131546021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6064491271973</t>
+    <t xml:space="preserve">10.5640640258789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9514141082764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6064500808716</t>
   </si>
   <si>
     <t xml:space="preserve">13.2050800323486</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6452512741089</t>
+    <t xml:space="preserve">13.6452503204346</t>
   </si>
   <si>
     <t xml:space="preserve">12.9233722686768</t>
@@ -2093,22 +2093,22 @@
     <t xml:space="preserve">13.0466194152832</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9021806716919</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5852575302124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3211555480957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8281660079956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0922679901123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1626949310303</t>
+    <t xml:space="preserve">11.9021787643433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5852565765381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3211545944214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8281669616699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0922689437866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.162693977356</t>
   </si>
   <si>
     <t xml:space="preserve">11.1803007125854</t>
@@ -2120,7 +2120,7 @@
     <t xml:space="preserve">10.7753448486328</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6697044372559</t>
+    <t xml:space="preserve">10.6697053909302</t>
   </si>
   <si>
     <t xml:space="preserve">10.5816717147827</t>
@@ -2129,7 +2129,7 @@
     <t xml:space="preserve">11.1098747253418</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3563680648804</t>
+    <t xml:space="preserve">11.356369972229</t>
   </si>
   <si>
     <t xml:space="preserve">10.9338064193726</t>
@@ -2144,40 +2144,40 @@
     <t xml:space="preserve">10.6168851852417</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6520986557007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7401323318481</t>
+    <t xml:space="preserve">10.6520977020264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7401313781738</t>
   </si>
   <si>
     <t xml:space="preserve">10.5288505554199</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0358600616455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0886812210083</t>
+    <t xml:space="preserve">10.0358610153198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0886821746826</t>
   </si>
   <si>
     <t xml:space="preserve">9.89500617980957</t>
   </si>
   <si>
-    <t xml:space="preserve">9.70133209228516</t>
+    <t xml:space="preserve">9.70133304595947</t>
   </si>
   <si>
     <t xml:space="preserve">9.63090515136719</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2823553085327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7577381134033</t>
+    <t xml:space="preserve">10.282356262207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.757740020752</t>
   </si>
   <si>
     <t xml:space="preserve">10.2999620437622</t>
   </si>
   <si>
-    <t xml:space="preserve">9.96543312072754</t>
+    <t xml:space="preserve">9.96543407440186</t>
   </si>
   <si>
     <t xml:space="preserve">11.0746603012085</t>
@@ -2186,7 +2186,7 @@
     <t xml:space="preserve">10.8457727432251</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0570545196533</t>
+    <t xml:space="preserve">11.057053565979</t>
   </si>
   <si>
     <t xml:space="preserve">11.6732912063599</t>
@@ -2195,13 +2195,13 @@
     <t xml:space="preserve">11.5676498413086</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6556844711304</t>
+    <t xml:space="preserve">11.6556835174561</t>
   </si>
   <si>
     <t xml:space="preserve">11.4796171188354</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5500431060791</t>
+    <t xml:space="preserve">11.5500440597534</t>
   </si>
   <si>
     <t xml:space="preserve">12.5360231399536</t>
@@ -2210,10 +2210,10 @@
     <t xml:space="preserve">12.5008087158203</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3071336746216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.060640335083</t>
+    <t xml:space="preserve">12.3071346282959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0606393814087</t>
   </si>
   <si>
     <t xml:space="preserve">11.3387622833252</t>
@@ -2228,40 +2228,40 @@
     <t xml:space="preserve">11.9549989700317</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9726066589355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8669652938843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0254259109497</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9902124404907</t>
+    <t xml:space="preserve">11.9726057052612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8669662475586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.025426864624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.990213394165</t>
   </si>
   <si>
     <t xml:space="preserve">11.7613248825073</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6908979415894</t>
+    <t xml:space="preserve">11.690896987915</t>
   </si>
   <si>
     <t xml:space="preserve">11.7437181472778</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4972238540649</t>
+    <t xml:space="preserve">11.4972229003906</t>
   </si>
   <si>
     <t xml:space="preserve">11.5148305892944</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2331228256226</t>
+    <t xml:space="preserve">11.2331218719482</t>
   </si>
   <si>
     <t xml:space="preserve">11.0218410491943</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3035488128662</t>
+    <t xml:space="preserve">11.3035478591919</t>
   </si>
   <si>
     <t xml:space="preserve">10.986626625061</t>
@@ -2270,7 +2270,7 @@
     <t xml:space="preserve">10.8633794784546</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6028642654419</t>
+    <t xml:space="preserve">11.6028652191162</t>
   </si>
   <si>
     <t xml:space="preserve">11.1979084014893</t>
@@ -2282,10 +2282,10 @@
     <t xml:space="preserve">11.2683362960815</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1274824142456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6344909667969</t>
+    <t xml:space="preserve">11.1274814605713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6344919204712</t>
   </si>
   <si>
     <t xml:space="preserve">10.9690198898315</t>
@@ -2300,10 +2300,10 @@
     <t xml:space="preserve">11.8141450881958</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1134605407715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1310663223267</t>
+    <t xml:space="preserve">12.1134614944458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.131067276001</t>
   </si>
   <si>
     <t xml:space="preserve">11.9197854995728</t>
@@ -2312,40 +2312,40 @@
     <t xml:space="preserve">11.5324373245239</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0078210830688</t>
+    <t xml:space="preserve">12.0078201293945</t>
   </si>
   <si>
     <t xml:space="preserve">12.0958528518677</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2191009521484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5888442993164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9585866928101</t>
+    <t xml:space="preserve">12.2190999984741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5888433456421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9585857391357</t>
   </si>
   <si>
     <t xml:space="preserve">12.7120904922485</t>
   </si>
   <si>
-    <t xml:space="preserve">12.800124168396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0114059448242</t>
+    <t xml:space="preserve">12.8001251220703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0114049911499</t>
   </si>
   <si>
     <t xml:space="preserve">12.0782470703125</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7965393066406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2859411239624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8985929489136</t>
+    <t xml:space="preserve">11.7965383529663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2859420776367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8985919952393</t>
   </si>
   <si>
     <t xml:space="preserve">10.1415014266968</t>
@@ -2354,16 +2354,16 @@
     <t xml:space="preserve">10.2119293212891</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2471418380737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1943216323853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.352783203125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2579021453857</t>
+    <t xml:space="preserve">10.247142791748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1943225860596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3527841567993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2579011917114</t>
   </si>
   <si>
     <t xml:space="preserve">13.8037109375</t>
@@ -2381,10 +2381,10 @@
     <t xml:space="preserve">13.1698665618896</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0290126800537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5043964385986</t>
+    <t xml:space="preserve">13.029013633728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5043954849243</t>
   </si>
   <si>
     <t xml:space="preserve">13.698070526123</t>
@@ -2393,7 +2393,7 @@
     <t xml:space="preserve">13.9093523025513</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7861042022705</t>
+    <t xml:space="preserve">13.7861051559448</t>
   </si>
   <si>
     <t xml:space="preserve">13.874137878418</t>
@@ -2402,13 +2402,13 @@
     <t xml:space="preserve">13.8213176727295</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8917446136475</t>
+    <t xml:space="preserve">13.8917436599731</t>
   </si>
   <si>
     <t xml:space="preserve">13.838924407959</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2226886749268</t>
+    <t xml:space="preserve">13.2226877212524</t>
   </si>
   <si>
     <t xml:space="preserve">13.2755069732666</t>
@@ -2417,16 +2417,16 @@
     <t xml:space="preserve">13.5220022201538</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1346530914307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2402944564819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4339694976807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7508907318115</t>
+    <t xml:space="preserve">13.134654045105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2402935028076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4339685440063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7508897781372</t>
   </si>
   <si>
     <t xml:space="preserve">13.7156772613525</t>
@@ -2435,109 +2435,109 @@
     <t xml:space="preserve">14.3671264648438</t>
   </si>
   <si>
-    <t xml:space="preserve">14.842511177063</t>
+    <t xml:space="preserve">14.8425092697144</t>
   </si>
   <si>
     <t xml:space="preserve">15.2474660873413</t>
   </si>
   <si>
-    <t xml:space="preserve">15.476354598999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5996007919312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6700286865234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5291757583618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9657573699951</t>
+    <t xml:space="preserve">15.4763536453247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5996026992798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6700277328491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5291738510132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9657564163208</t>
   </si>
   <si>
     <t xml:space="preserve">15.3178939819336</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6876354217529</t>
+    <t xml:space="preserve">15.6876363754272</t>
   </si>
   <si>
     <t xml:space="preserve">15.6524229049683</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3883190155029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2298593521118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1242198944092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1066131591797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6312294006348</t>
+    <t xml:space="preserve">15.3883199691772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2298583984375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1242189407349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1066112518311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6312303543091</t>
   </si>
   <si>
     <t xml:space="preserve">14.8777236938477</t>
   </si>
   <si>
-    <t xml:space="preserve">14.912938117981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1594305038452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9693441390991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.846097946167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3390846252441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2862663269043</t>
+    <t xml:space="preserve">14.9129390716553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1594324111938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9693431854248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8460969924927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3390865325928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2862644195557</t>
   </si>
   <si>
     <t xml:space="preserve">16.9729309082031</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8108806610107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8989181518555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8284893035889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9165239334106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7968616485596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6031894683838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0081443786621</t>
+    <t xml:space="preserve">15.8108825683594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8989171981812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8284883499146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.916522026062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7968635559082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6031875610352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0081424713135</t>
   </si>
   <si>
     <t xml:space="preserve">17.0785694122314</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0433578491211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5151519775391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9341287612915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1982326507568</t>
+    <t xml:space="preserve">17.0433597564697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5151538848877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9341316223145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1982307434082</t>
   </si>
   <si>
     <t xml:space="preserve">16.1630191802979</t>
@@ -2555,10 +2555,10 @@
     <t xml:space="preserve">16.1454105377197</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4535312652588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2070350646973</t>
+    <t xml:space="preserve">16.4535293579102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2070369720459</t>
   </si>
   <si>
     <t xml:space="preserve">16.1894283294678</t>
@@ -2570,7 +2570,7 @@
     <t xml:space="preserve">16.5327606201172</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8232746124268</t>
+    <t xml:space="preserve">16.8232707977295</t>
   </si>
   <si>
     <t xml:space="preserve">16.6824188232422</t>
@@ -2585,13 +2585,13 @@
     <t xml:space="preserve">16.7176303863525</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3831024169922</t>
+    <t xml:space="preserve">16.3831043243408</t>
   </si>
   <si>
     <t xml:space="preserve">17.404296875</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5979709625244</t>
+    <t xml:space="preserve">17.5979690551758</t>
   </si>
   <si>
     <t xml:space="preserve">16.8408794403076</t>
@@ -2615,10 +2615,10 @@
     <t xml:space="preserve">17.7300205230713</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9413013458252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9765167236328</t>
+    <t xml:space="preserve">17.9413032531738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9765148162842</t>
   </si>
   <si>
     <t xml:space="preserve">18.1877975463867</t>
@@ -2627,37 +2627,37 @@
     <t xml:space="preserve">18.3638648986816</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5047206878662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5223274230957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2758331298828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7476291656494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2054061889648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0997619628906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0821571350098</t>
+    <t xml:space="preserve">18.5047187805176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5223255157471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2758293151855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7476272583008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2054042816162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0997638702393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0821590423584</t>
   </si>
   <si>
     <t xml:space="preserve">17.9236965179443</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8004493713379</t>
+    <t xml:space="preserve">17.8004474639893</t>
   </si>
   <si>
     <t xml:space="preserve">17.8884811401367</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2582225799561</t>
+    <t xml:space="preserve">18.2582244873047</t>
   </si>
   <si>
     <t xml:space="preserve">18.1525840759277</t>
@@ -2669,19 +2669,19 @@
     <t xml:space="preserve">17.7652359008789</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4166870117188</t>
+    <t xml:space="preserve">18.4166851043701</t>
   </si>
   <si>
     <t xml:space="preserve">18.3286514282227</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9060878753662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8936977386475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2018184661865</t>
+    <t xml:space="preserve">17.9060897827148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8936996459961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2018203735352</t>
   </si>
   <si>
     <t xml:space="preserve">17.2282295227051</t>
@@ -2696,7 +2696,7 @@
     <t xml:space="preserve">19.3146305084229</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2794170379639</t>
+    <t xml:space="preserve">19.2794189453125</t>
   </si>
   <si>
     <t xml:space="preserve">18.698392868042</t>
@@ -2708,37 +2708,37 @@
     <t xml:space="preserve">18.7336082458496</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8920650482178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.46950340271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3814716339111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0645523071289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8180541992188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0117301940918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2406158447266</t>
+    <t xml:space="preserve">18.892068862915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4695072174072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3814697265625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0645503997803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8180561065674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0117282867432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2406177520752</t>
   </si>
   <si>
     <t xml:space="preserve">17.4130992889404</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4219017028809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0345554351807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1578006744385</t>
+    <t xml:space="preserve">17.4219055175781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.034553527832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1578025817871</t>
   </si>
   <si>
     <t xml:space="preserve">18.6103591918945</t>
@@ -2747,19 +2747,19 @@
     <t xml:space="preserve">18.1173686981201</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2934398651123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7688217163086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5575408935547</t>
+    <t xml:space="preserve">18.2934379577637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.76881980896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5575389862061</t>
   </si>
   <si>
     <t xml:space="preserve">18.3361072540283</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3002967834473</t>
+    <t xml:space="preserve">18.3002948760986</t>
   </si>
   <si>
     <t xml:space="preserve">18.4077320098877</t>
@@ -2768,19 +2768,19 @@
     <t xml:space="preserve">18.6226081848145</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4793586730957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.443546295166</t>
+    <t xml:space="preserve">18.4793567657471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4435443878174</t>
   </si>
   <si>
     <t xml:space="preserve">18.747953414917</t>
   </si>
   <si>
-    <t xml:space="preserve">18.515172958374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5330791473389</t>
+    <t xml:space="preserve">18.5151710510254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5330772399902</t>
   </si>
   <si>
     <t xml:space="preserve">18.2286701202393</t>
@@ -2792,13 +2792,13 @@
     <t xml:space="preserve">18.0496063232422</t>
   </si>
   <si>
-    <t xml:space="preserve">17.995885848999</t>
+    <t xml:space="preserve">17.9958877563477</t>
   </si>
   <si>
     <t xml:space="preserve">17.8974018096924</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1391372680664</t>
+    <t xml:space="preserve">18.139139175415</t>
   </si>
   <si>
     <t xml:space="preserve">17.9063549041748</t>
@@ -2825,7 +2825,7 @@
     <t xml:space="preserve">16.6529102325439</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8319721221924</t>
+    <t xml:space="preserve">16.831974029541</t>
   </si>
   <si>
     <t xml:space="preserve">16.3574562072754</t>
@@ -2834,7 +2834,7 @@
     <t xml:space="preserve">16.4738464355469</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0261878967285</t>
+    <t xml:space="preserve">16.0261859893799</t>
   </si>
   <si>
     <t xml:space="preserve">16.3664093017578</t>
@@ -2846,16 +2846,16 @@
     <t xml:space="preserve">16.5365180969238</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8051147460938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0289440155029</t>
+    <t xml:space="preserve">16.8051128387451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0289421081543</t>
   </si>
   <si>
     <t xml:space="preserve">16.8498783111572</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8677864074707</t>
+    <t xml:space="preserve">16.8677845001221</t>
   </si>
   <si>
     <t xml:space="preserve">16.9931297302246</t>
@@ -2870,25 +2870,25 @@
     <t xml:space="preserve">16.7424430847168</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4648933410645</t>
+    <t xml:space="preserve">16.4648914337158</t>
   </si>
   <si>
     <t xml:space="preserve">16.4380340576172</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1157207489014</t>
+    <t xml:space="preserve">16.1157188415527</t>
   </si>
   <si>
     <t xml:space="preserve">16.1694393157959</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3395500183105</t>
+    <t xml:space="preserve">16.3395481109619</t>
   </si>
   <si>
     <t xml:space="preserve">16.9215049743652</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1005706787109</t>
+    <t xml:space="preserve">17.1005687713623</t>
   </si>
   <si>
     <t xml:space="preserve">17.2975387573242</t>
@@ -2909,7 +2909,7 @@
     <t xml:space="preserve">16.9483661651611</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3154468536377</t>
+    <t xml:space="preserve">17.3154449462891</t>
   </si>
   <si>
     <t xml:space="preserve">16.8946475982666</t>
@@ -2921,10 +2921,10 @@
     <t xml:space="preserve">16.4917526245117</t>
   </si>
   <si>
-    <t xml:space="preserve">15.93665599823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0799045562744</t>
+    <t xml:space="preserve">15.9366550445557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.079906463623</t>
   </si>
   <si>
     <t xml:space="preserve">16.4827995300293</t>
@@ -2933,10 +2933,10 @@
     <t xml:space="preserve">16.7872066497803</t>
   </si>
   <si>
-    <t xml:space="preserve">16.518611907959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8588314056396</t>
+    <t xml:space="preserve">16.5186138153076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8588333129883</t>
   </si>
   <si>
     <t xml:space="preserve">17.1274280548096</t>
@@ -2948,7 +2948,7 @@
     <t xml:space="preserve">16.4022197723389</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8918886184692</t>
+    <t xml:space="preserve">15.8918905258179</t>
   </si>
   <si>
     <t xml:space="preserve">15.9456090927124</t>
@@ -2960,22 +2960,22 @@
     <t xml:space="preserve">16.3843154907227</t>
   </si>
   <si>
-    <t xml:space="preserve">16.590238571167</t>
+    <t xml:space="preserve">16.5902366638184</t>
   </si>
   <si>
     <t xml:space="preserve">16.4290790557861</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0888576507568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6680593490601</t>
+    <t xml:space="preserve">16.0888595581055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6680612564087</t>
   </si>
   <si>
     <t xml:space="preserve">15.2920265197754</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5847272872925</t>
+    <t xml:space="preserve">14.5847263336182</t>
   </si>
   <si>
     <t xml:space="preserve">14.9159936904907</t>
@@ -2987,13 +2987,13 @@
     <t xml:space="preserve">14.2534589767456</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4235696792603</t>
+    <t xml:space="preserve">14.4235687255859</t>
   </si>
   <si>
     <t xml:space="preserve">13.9490509033203</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5103445053101</t>
+    <t xml:space="preserve">13.5103454589844</t>
   </si>
   <si>
     <t xml:space="preserve">13.3760471343994</t>
@@ -3002,7 +3002,7 @@
     <t xml:space="preserve">13.6983613967896</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1549739837646</t>
+    <t xml:space="preserve">14.154974937439</t>
   </si>
   <si>
     <t xml:space="preserve">13.9311447143555</t>
@@ -3014,13 +3014,13 @@
     <t xml:space="preserve">14.7727422714233</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1370668411255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3608980178833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6625499725342</t>
+    <t xml:space="preserve">14.1370677947998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.360897064209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6625490188599</t>
   </si>
   <si>
     <t xml:space="preserve">13.7252206802368</t>
@@ -3041,13 +3041,13 @@
     <t xml:space="preserve">13.4655790328979</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4387187957764</t>
+    <t xml:space="preserve">13.4387197494507</t>
   </si>
   <si>
     <t xml:space="preserve">13.5013914108276</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2327966690063</t>
+    <t xml:space="preserve">13.232795715332</t>
   </si>
   <si>
     <t xml:space="preserve">12.8746690750122</t>
@@ -3068,13 +3068,13 @@
     <t xml:space="preserve">14.2355518341064</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2176456451416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2713651657104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6294927597046</t>
+    <t xml:space="preserve">14.2176465988159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2713642120361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6294918060303</t>
   </si>
   <si>
     <t xml:space="preserve">14.1281137466431</t>
@@ -3086,22 +3086,22 @@
     <t xml:space="preserve">13.7520799636841</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8774261474609</t>
+    <t xml:space="preserve">13.8774251937866</t>
   </si>
   <si>
     <t xml:space="preserve">13.4834861755371</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5551118850708</t>
+    <t xml:space="preserve">13.5551109313965</t>
   </si>
   <si>
     <t xml:space="preserve">13.1611709594727</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9642009735107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7851371765137</t>
+    <t xml:space="preserve">12.9642000198364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.785138130188</t>
   </si>
   <si>
     <t xml:space="preserve">12.6060743331909</t>
@@ -3122,7 +3122,7 @@
     <t xml:space="preserve">13.1432647705078</t>
   </si>
   <si>
-    <t xml:space="preserve">13.053731918335</t>
+    <t xml:space="preserve">13.0537328720093</t>
   </si>
   <si>
     <t xml:space="preserve">12.5523548126221</t>
@@ -3137,13 +3137,13 @@
     <t xml:space="preserve">12.178035736084</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0668201446533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6228952407837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6414308547974</t>
+    <t xml:space="preserve">12.0668210983276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6228942871094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6414318084717</t>
   </si>
   <si>
     <t xml:space="preserve">13.1975049972534</t>
@@ -3152,25 +3152,25 @@
     <t xml:space="preserve">12.8453245162964</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7526454925537</t>
+    <t xml:space="preserve">12.752646446228</t>
   </si>
   <si>
     <t xml:space="preserve">12.7155742645264</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9380035400391</t>
+    <t xml:space="preserve">12.9380044937134</t>
   </si>
   <si>
     <t xml:space="preserve">13.0862903594971</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3272562026978</t>
+    <t xml:space="preserve">13.3272571563721</t>
   </si>
   <si>
     <t xml:space="preserve">13.0677547454834</t>
   </si>
   <si>
-    <t xml:space="preserve">12.307785987854</t>
+    <t xml:space="preserve">12.3077850341797</t>
   </si>
   <si>
     <t xml:space="preserve">12.1409645080566</t>
@@ -3179,7 +3179,7 @@
     <t xml:space="preserve">11.881462097168</t>
   </si>
   <si>
-    <t xml:space="preserve">12.437536239624</t>
+    <t xml:space="preserve">12.4375371932983</t>
   </si>
   <si>
     <t xml:space="preserve">12.2892503738403</t>
@@ -3200,13 +3200,13 @@
     <t xml:space="preserve">12.4746084213257</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1965713500977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9556045532227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4736747741699</t>
+    <t xml:space="preserve">12.1965703964233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.955605506897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4736738204956</t>
   </si>
   <si>
     <t xml:space="preserve">11.73317527771</t>
@@ -3218,13 +3218,13 @@
     <t xml:space="preserve">12.085355758667</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9370698928833</t>
+    <t xml:space="preserve">11.937068939209</t>
   </si>
   <si>
     <t xml:space="preserve">11.7146396636963</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5107460021973</t>
+    <t xml:space="preserve">11.5107450485229</t>
   </si>
   <si>
     <t xml:space="preserve">12.0297479629517</t>
@@ -3242,7 +3242,7 @@
     <t xml:space="preserve">12.3263216018677</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5116806030273</t>
+    <t xml:space="preserve">12.511679649353</t>
   </si>
   <si>
     <t xml:space="preserve">12.5487518310547</t>
@@ -3260,22 +3260,22 @@
     <t xml:space="preserve">12.252179145813</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1224279403687</t>
+    <t xml:space="preserve">12.1224269866943</t>
   </si>
   <si>
     <t xml:space="preserve">11.7887830734253</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7702465057373</t>
+    <t xml:space="preserve">11.7702474594116</t>
   </si>
   <si>
     <t xml:space="preserve">11.3809947967529</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3439226150513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3253879547119</t>
+    <t xml:space="preserve">11.3439235687256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3253870010376</t>
   </si>
   <si>
     <t xml:space="preserve">11.1585655212402</t>
@@ -3284,13 +3284,13 @@
     <t xml:space="preserve">10.9175987243652</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8619918823242</t>
+    <t xml:space="preserve">10.8619928359985</t>
   </si>
   <si>
     <t xml:space="preserve">10.6766338348389</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7693119049072</t>
+    <t xml:space="preserve">10.7693128585815</t>
   </si>
   <si>
     <t xml:space="preserve">10.3800601959229</t>
@@ -3302,10 +3302,10 @@
     <t xml:space="preserve">10.4171314239502</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3615245819092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6024904251099</t>
+    <t xml:space="preserve">10.3615255355835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6024894714355</t>
   </si>
   <si>
     <t xml:space="preserve">10.8249206542969</t>
@@ -3314,13 +3314,13 @@
     <t xml:space="preserve">9.86105823516846</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1020221710205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.78691387176514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.82398700714111</t>
+    <t xml:space="preserve">10.1020231246948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.78691482543945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.8239860534668</t>
   </si>
   <si>
     <t xml:space="preserve">9.62009143829346</t>
@@ -3338,10 +3338,10 @@
     <t xml:space="preserve">9.00840950012207</t>
   </si>
   <si>
-    <t xml:space="preserve">8.69330024719238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.96207046508789</t>
+    <t xml:space="preserve">8.6933012008667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.96206951141357</t>
   </si>
   <si>
     <t xml:space="preserve">8.98060607910156</t>
@@ -3353,13 +3353,13 @@
     <t xml:space="preserve">9.09182167053223</t>
   </si>
   <si>
-    <t xml:space="preserve">8.86012363433838</t>
+    <t xml:space="preserve">8.86012268066406</t>
   </si>
   <si>
     <t xml:space="preserve">9.07328510284424</t>
   </si>
   <si>
-    <t xml:space="preserve">9.11962413787842</t>
+    <t xml:space="preserve">9.11962509155273</t>
   </si>
   <si>
     <t xml:space="preserve">9.39766216278076</t>
@@ -3374,25 +3374,25 @@
     <t xml:space="preserve">9.56448459625244</t>
   </si>
   <si>
-    <t xml:space="preserve">9.37912559509277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.26791095733643</t>
+    <t xml:space="preserve">9.37912654876709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.26791191101074</t>
   </si>
   <si>
     <t xml:space="preserve">9.58302021026611</t>
   </si>
   <si>
-    <t xml:space="preserve">9.65716361999512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.99080753326416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.87959289550781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.84252166748047</t>
+    <t xml:space="preserve">9.6571626663208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.99080848693848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.87959384918213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.84252071380615</t>
   </si>
   <si>
     <t xml:space="preserve">9.9722728729248</t>
@@ -3407,7 +3407,7 @@
     <t xml:space="preserve">10.2132387161255</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5283470153809</t>
+    <t xml:space="preserve">10.5283460617065</t>
   </si>
   <si>
     <t xml:space="preserve">10.8990640640259</t>
@@ -3416,7 +3416,7 @@
     <t xml:space="preserve">10.2503099441528</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2317743301392</t>
+    <t xml:space="preserve">10.2317733764648</t>
   </si>
   <si>
     <t xml:space="preserve">10.2688455581665</t>
@@ -3425,19 +3425,19 @@
     <t xml:space="preserve">10.4356679916382</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6580972671509</t>
+    <t xml:space="preserve">10.6580982208252</t>
   </si>
   <si>
     <t xml:space="preserve">10.2873821258545</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5468835830688</t>
+    <t xml:space="preserve">10.5468826293945</t>
   </si>
   <si>
     <t xml:space="preserve">10.5839548110962</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4912757873535</t>
+    <t xml:space="preserve">10.4912748336792</t>
   </si>
   <si>
     <t xml:space="preserve">10.4727401733398</t>
@@ -3449,7 +3449,7 @@
     <t xml:space="preserve">10.6951694488525</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3985958099365</t>
+    <t xml:space="preserve">10.3985967636108</t>
   </si>
   <si>
     <t xml:space="preserve">10.5654182434082</t>
@@ -3458,7 +3458,7 @@
     <t xml:space="preserve">10.6210260391235</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0844211578369</t>
+    <t xml:space="preserve">11.0844221115112</t>
   </si>
   <si>
     <t xml:space="preserve">11.3068513870239</t>
@@ -3476,7 +3476,7 @@
     <t xml:space="preserve">11.5848894119263</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6961030960083</t>
+    <t xml:space="preserve">11.6961040496826</t>
   </si>
   <si>
     <t xml:space="preserve">12.0482845306396</t>
@@ -3500,19 +3500,19 @@
     <t xml:space="preserve">11.2512445449829</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2141733169556</t>
+    <t xml:space="preserve">11.2141723632812</t>
   </si>
   <si>
     <t xml:space="preserve">11.1214933395386</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8063850402832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8434562683105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6395616531372</t>
+    <t xml:space="preserve">10.8063840866089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8434553146362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6395606994629</t>
   </si>
   <si>
     <t xml:space="preserve">10.4542036056519</t>
@@ -3527,13 +3527,13 @@
     <t xml:space="preserve">10.9917421340942</t>
   </si>
   <si>
-    <t xml:space="preserve">12.233642578125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6785020828247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.418999671936</t>
+    <t xml:space="preserve">12.2336416244507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.678503036499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4190006256104</t>
   </si>
   <si>
     <t xml:space="preserve">12.8638610839844</t>
@@ -3548,7 +3548,7 @@
     <t xml:space="preserve">12.60435962677</t>
   </si>
   <si>
-    <t xml:space="preserve">12.808253288269</t>
+    <t xml:space="preserve">12.8082523345947</t>
   </si>
   <si>
     <t xml:space="preserve">12.7711811065674</t>
@@ -3560,7 +3560,7 @@
     <t xml:space="preserve">13.9760093688965</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8647956848145</t>
+    <t xml:space="preserve">13.8647947311401</t>
   </si>
   <si>
     <t xml:space="preserve">13.6609010696411</t>
@@ -61842,7 +61842,7 @@
     </row>
     <row r="2208">
       <c r="A2208" s="1" t="n">
-        <v>45538.6494444444</v>
+        <v>45538.2916666667</v>
       </c>
       <c r="B2208" t="n">
         <v>68371</v>
@@ -61863,6 +61863,32 @@
         <v>1335</v>
       </c>
       <c r="H2208" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2209">
+      <c r="A2209" s="1" t="n">
+        <v>45539.6495023148</v>
+      </c>
+      <c r="B2209" t="n">
+        <v>49269</v>
+      </c>
+      <c r="C2209" t="n">
+        <v>11.7200002670288</v>
+      </c>
+      <c r="D2209" t="n">
+        <v>11.3999996185303</v>
+      </c>
+      <c r="E2209" t="n">
+        <v>11.4399995803833</v>
+      </c>
+      <c r="F2209" t="n">
+        <v>11.7200002670288</v>
+      </c>
+      <c r="G2209" t="s">
+        <v>1334</v>
+      </c>
+      <c r="H2209" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/MARR.MI.xlsx
+++ b/data/MARR.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1372" uniqueCount="1372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1373" uniqueCount="1373">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -44,28 +44,28 @@
     <t xml:space="preserve">MARR.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1046991348267</t>
+    <t xml:space="preserve">14.104700088501</t>
   </si>
   <si>
     <t xml:space="preserve">13.9899663925171</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7910947799683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7451992034912</t>
+    <t xml:space="preserve">13.7910919189453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7452001571655</t>
   </si>
   <si>
     <t xml:space="preserve">13.3627500534058</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4315910339355</t>
+    <t xml:space="preserve">13.4315919876099</t>
   </si>
   <si>
     <t xml:space="preserve">13.5157299041748</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2021236419678</t>
+    <t xml:space="preserve">13.2021226882935</t>
   </si>
   <si>
     <t xml:space="preserve">13.209771156311</t>
@@ -74,13 +74,13 @@
     <t xml:space="preserve">12.720235824585</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8273229598999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3607349395752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9650049209595</t>
+    <t xml:space="preserve">12.8273239135742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3607358932495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9650039672852</t>
   </si>
   <si>
     <t xml:space="preserve">13.6228151321411</t>
@@ -89,25 +89,25 @@
     <t xml:space="preserve">13.4545392990112</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3321571350098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3245067596436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4162940979004</t>
+    <t xml:space="preserve">13.3321561813354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3245058059692</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4162950515747</t>
   </si>
   <si>
     <t xml:space="preserve">13.500431060791</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7681465148926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5616235733032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0873889923096</t>
+    <t xml:space="preserve">13.7681484222412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5616254806519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0873899459839</t>
   </si>
   <si>
     <t xml:space="preserve">13.2786121368408</t>
@@ -116,46 +116,46 @@
     <t xml:space="preserve">13.0491418838501</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1083192825317</t>
+    <t xml:space="preserve">12.1083202362061</t>
   </si>
   <si>
     <t xml:space="preserve">12.1542139053345</t>
   </si>
   <si>
-    <t xml:space="preserve">12.613151550293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2995433807373</t>
+    <t xml:space="preserve">12.6131505966187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.299542427063</t>
   </si>
   <si>
     <t xml:space="preserve">12.6208009719849</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6590452194214</t>
+    <t xml:space="preserve">12.6590442657471</t>
   </si>
   <si>
     <t xml:space="preserve">12.7814283370972</t>
   </si>
   <si>
-    <t xml:space="preserve">12.94970703125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1562309265137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4851322174072</t>
+    <t xml:space="preserve">12.9497079849243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1562299728394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4851331710815</t>
   </si>
   <si>
     <t xml:space="preserve">13.3780479431152</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3474521636963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7298994064331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9670190811157</t>
+    <t xml:space="preserve">13.3474531173706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7299022674561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9670209884644</t>
   </si>
   <si>
     <t xml:space="preserve">13.7375478744507</t>
@@ -167,10 +167,10 @@
     <t xml:space="preserve">13.6763582229614</t>
   </si>
   <si>
-    <t xml:space="preserve">13.370400428772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8196725845337</t>
+    <t xml:space="preserve">13.3704013824463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.819673538208</t>
   </si>
   <si>
     <t xml:space="preserve">13.1179838180542</t>
@@ -179,13 +179,13 @@
     <t xml:space="preserve">13.446888923645</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5998697280884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.477484703064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6610612869263</t>
+    <t xml:space="preserve">13.5998687744141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4774856567383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.661060333252</t>
   </si>
   <si>
     <t xml:space="preserve">13.2174215316772</t>
@@ -200,16 +200,16 @@
     <t xml:space="preserve">13.5386772155762</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9593715667725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0817518234253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1505966186523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8828792572021</t>
+    <t xml:space="preserve">13.9593696594238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0817527770996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1505947113037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8828802108765</t>
   </si>
   <si>
     <t xml:space="preserve">13.9976139068604</t>
@@ -221,37 +221,37 @@
     <t xml:space="preserve">14.5483417510986</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3188714981079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1658916473389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7987422943115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6916561126709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6151657104492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5769233703613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.859935760498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9058275222778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5922222137451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0970525741577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.944073677063</t>
+    <t xml:space="preserve">14.3188734054565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1658935546875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7987413406372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6916551589966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6151666641235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.576922416687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8599348068237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9058294296265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5922212600708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0970544815063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9440717697144</t>
   </si>
   <si>
     <t xml:space="preserve">13.630464553833</t>
@@ -260,70 +260,70 @@
     <t xml:space="preserve">13.684006690979</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6993036270142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8216905593872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4392414093018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6687116622925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4086456298828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.53102684021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8250074386597</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8170614242554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0713138580322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0633707046509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2540607452393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3096809387207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.126935005188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0792598724365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3017320632935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1904964447021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1030988693237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0872068405151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0951519012451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5866460800171</t>
+    <t xml:space="preserve">13.6993055343628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8216876983643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4392395019531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6687097549438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4086437225342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5310277938843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8250093460083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.817063331604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0713167190552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0633716583252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2540597915649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3096771240234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1269359588623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0792617797852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3017330169678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1904993057251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1030969619751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0872049331665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0951509475708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5866451263428</t>
   </si>
   <si>
     <t xml:space="preserve">13.6740446090698</t>
   </si>
   <si>
-    <t xml:space="preserve">13.388011932373</t>
+    <t xml:space="preserve">13.3880109786987</t>
   </si>
   <si>
     <t xml:space="preserve">13.0701951980591</t>
@@ -332,7 +332,7 @@
     <t xml:space="preserve">13.2132120132446</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5945920944214</t>
+    <t xml:space="preserve">13.5945930480957</t>
   </si>
   <si>
     <t xml:space="preserve">13.5787010192871</t>
@@ -347,85 +347,85 @@
     <t xml:space="preserve">12.5060701370239</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0384130477905</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5151357650757</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2461147308